--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -48587,10 +48587,10 @@
     </row>
     <row r="1510">
       <c r="A1510" t="n">
-        <v>2.401375696317452</v>
+        <v>2.402861500065772</v>
       </c>
       <c r="B1510" t="n">
-        <v>15.07541639738351</v>
+        <v>15.07541684164377</v>
       </c>
       <c r="C1510" t="n">
         <v>46.04</v>
@@ -48619,10 +48619,10 @@
     </row>
     <row r="1511">
       <c r="A1511" t="n">
-        <v>2.165223038419263</v>
+        <v>2.171109621556809</v>
       </c>
       <c r="B1511" t="n">
-        <v>15.07498850546434</v>
+        <v>15.07499026557226</v>
       </c>
       <c r="C1511" t="n">
         <v>45.87</v>
@@ -48651,10 +48651,10 @@
     </row>
     <row r="1512">
       <c r="A1512" t="n">
-        <v>1.930513710377593</v>
+        <v>1.943631100761665</v>
       </c>
       <c r="B1512" t="n">
-        <v>15.07423559774791</v>
+        <v>15.07423951989121</v>
       </c>
       <c r="C1512" t="n">
         <v>45.71</v>
@@ -48683,10 +48683,10 @@
     </row>
     <row r="1513">
       <c r="A1513" t="n">
-        <v>1.697219396264574</v>
+        <v>1.720312673968867</v>
       </c>
       <c r="B1513" t="n">
-        <v>15.07316402415158</v>
+        <v>15.07317092911834</v>
       </c>
       <c r="C1513" t="n">
         <v>45.54</v>
@@ -48715,10 +48715,10 @@
     </row>
     <row r="1514">
       <c r="A1514" t="n">
-        <v>1.465311780152335</v>
+        <v>1.501041077466939</v>
       </c>
       <c r="B1514" t="n">
-        <v>15.07178013459275</v>
+        <v>15.07179081777135</v>
       </c>
       <c r="C1514" t="n">
         <v>45.37</v>
@@ -48747,10 +48747,10 @@
     </row>
     <row r="1515">
       <c r="A1515" t="n">
-        <v>1.23476254611301</v>
+        <v>1.285703047544411</v>
       </c>
       <c r="B1515" t="n">
-        <v>15.07009027898879</v>
+        <v>15.07010551036795</v>
       </c>
       <c r="C1515" t="n">
         <v>45.21</v>
@@ -48779,10 +48779,10 @@
     </row>
     <row r="1516">
       <c r="A1516" t="n">
-        <v>1.00554337821873</v>
+        <v>1.074185320489808</v>
       </c>
       <c r="B1516" t="n">
-        <v>15.06810080725708</v>
+        <v>15.06812133142586</v>
       </c>
       <c r="C1516" t="n">
         <v>45.04</v>
@@ -48811,10 +48811,10 @@
     </row>
     <row r="1517">
       <c r="A1517" t="n">
-        <v>0.777625960541627</v>
+        <v>0.8663746325916581</v>
       </c>
       <c r="B1517" t="n">
-        <v>15.06581806931499</v>
+        <v>15.06584460546278</v>
       </c>
       <c r="C1517" t="n">
         <v>44.88</v>
@@ -48843,10 +48843,10 @@
     </row>
     <row r="1518">
       <c r="A1518" t="n">
-        <v>0.5509819771538331</v>
+        <v>0.6621577201384874</v>
       </c>
       <c r="B1518" t="n">
-        <v>15.06324841507992</v>
+        <v>15.06328165699643</v>
       </c>
       <c r="C1518" t="n">
         <v>44.71</v>
@@ -48875,10 +48875,10 @@
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>0.3255831121274787</v>
+        <v>0.4614213194188224</v>
       </c>
       <c r="B1519" t="n">
-        <v>15.06039819446923</v>
+        <v>15.0604388105445</v>
       </c>
       <c r="C1519" t="n">
         <v>44.54</v>
@@ -48907,10 +48907,10 @@
     </row>
     <row r="1520">
       <c r="A1520" t="n">
-        <v>0.1014010495346965</v>
+        <v>0.2640521667211909</v>
       </c>
       <c r="B1520" t="n">
-        <v>15.05727375740031</v>
+        <v>15.05732239062472</v>
       </c>
       <c r="C1520" t="n">
         <v>44.38</v>
@@ -48939,10 +48939,10 @@
     </row>
     <row r="1521">
       <c r="A1521" t="n">
-        <v>-0.1215925265523816</v>
+        <v>0.06993699833411959</v>
       </c>
       <c r="B1521" t="n">
-        <v>15.05388145379053</v>
+        <v>15.05393872175479</v>
       </c>
       <c r="C1521" t="n">
         <v>44.21</v>
@@ -48971,10 +48971,10 @@
     </row>
     <row r="1522">
       <c r="A1522" t="n">
-        <v>-0.343425932061625</v>
+        <v>-0.121037449453866</v>
       </c>
       <c r="B1522" t="n">
-        <v>15.05022763355728</v>
+        <v>15.05029412845241</v>
       </c>
       <c r="C1522" t="n">
         <v>44.04</v>
@@ -49003,10 +49003,10 @@
     </row>
     <row r="1523">
       <c r="A1523" t="n">
-        <v>-0.5641274829209012</v>
+        <v>-0.3089844403542378</v>
       </c>
       <c r="B1523" t="n">
-        <v>15.04631864661793</v>
+        <v>15.04639493523531</v>
       </c>
       <c r="C1523" t="n">
         <v>43.88</v>
@@ -49035,10 +49035,10 @@
     </row>
     <row r="1524">
       <c r="A1524" t="n">
-        <v>-0.7837254950580783</v>
+        <v>-0.4940172380784689</v>
       </c>
       <c r="B1524" t="n">
-        <v>15.04216084288987</v>
+        <v>15.04224746662119</v>
       </c>
       <c r="C1524" t="n">
         <v>43.71</v>
@@ -49067,10 +49067,10 @@
     </row>
     <row r="1525">
       <c r="A1525" t="n">
-        <v>-1.002248284401025</v>
+        <v>-0.6762491063380331</v>
       </c>
       <c r="B1525" t="n">
-        <v>15.03776057229046</v>
+        <v>15.03785804712776</v>
       </c>
       <c r="C1525" t="n">
         <v>43.54</v>
@@ -49099,10 +49099,10 @@
     </row>
     <row r="1526">
       <c r="A1526" t="n">
-        <v>-1.219724166877609</v>
+        <v>-0.8557933088444034</v>
       </c>
       <c r="B1526" t="n">
-        <v>15.0331241847371</v>
+        <v>15.03323300127272</v>
       </c>
       <c r="C1526" t="n">
         <v>43.37</v>
@@ -49131,10 +49131,10 @@
     </row>
     <row r="1527">
       <c r="A1527" t="n">
-        <v>-1.4361814584157</v>
+        <v>-1.032763109309053</v>
       </c>
       <c r="B1527" t="n">
-        <v>15.02825803014715</v>
+        <v>15.0283786535738</v>
       </c>
       <c r="C1527" t="n">
         <v>43.21</v>
@@ -49163,10 +49163,10 @@
     </row>
     <row r="1528">
       <c r="A1528" t="n">
-        <v>-1.651648474943164</v>
+        <v>-1.207271771443455</v>
       </c>
       <c r="B1528" t="n">
-        <v>15.02316845843801</v>
+        <v>15.02330132854869</v>
       </c>
       <c r="C1528" t="n">
         <v>43.04</v>
@@ -49195,10 +49195,10 @@
     </row>
     <row r="1529">
       <c r="A1529" t="n">
-        <v>-1.866153532387872</v>
+        <v>-1.379432558959082</v>
       </c>
       <c r="B1529" t="n">
-        <v>15.01786181952704</v>
+        <v>15.01800735071511</v>
       </c>
       <c r="C1529" t="n">
         <v>42.88</v>
@@ -49227,10 +49227,10 @@
     </row>
     <row r="1530">
       <c r="A1530" t="n">
-        <v>-2.079724946677691</v>
+        <v>-1.549358735567408</v>
       </c>
       <c r="B1530" t="n">
-        <v>15.01234446333163</v>
+        <v>15.01250304459077</v>
       </c>
       <c r="C1530" t="n">
         <v>42.71</v>
@@ -49259,10 +49259,10 @@
     </row>
     <row r="1531">
       <c r="A1531" t="n">
-        <v>-2.292391033740489</v>
+        <v>-1.717163564979907</v>
       </c>
       <c r="B1531" t="n">
-        <v>15.00662273976916</v>
+        <v>15.00679473469338</v>
       </c>
       <c r="C1531" t="n">
         <v>42.54</v>
@@ -49291,10 +49291,10 @@
     </row>
     <row r="1532">
       <c r="A1532" t="n">
-        <v>-2.504180109504134</v>
+        <v>-1.882960310908049</v>
       </c>
       <c r="B1532" t="n">
-        <v>15.000702998757</v>
+        <v>15.00088874554063</v>
       </c>
       <c r="C1532" t="n">
         <v>42.38</v>
@@ -49323,10 +49323,10 @@
     </row>
     <row r="1533">
       <c r="A1533" t="n">
-        <v>-2.715120489896495</v>
+        <v>-2.046862237063311</v>
       </c>
       <c r="B1533" t="n">
-        <v>14.99459159021254</v>
+        <v>14.99479140165026</v>
       </c>
       <c r="C1533" t="n">
         <v>42.21</v>
@@ -49355,10 +49355,10 @@
     </row>
     <row r="1534">
       <c r="A1534" t="n">
-        <v>-2.92524049084544</v>
+        <v>-2.208982607157163</v>
       </c>
       <c r="B1534" t="n">
-        <v>14.98829486405315</v>
+        <v>14.98850902753996</v>
       </c>
       <c r="C1534" t="n">
         <v>42.04</v>
@@ -49387,10 +49387,10 @@
     </row>
     <row r="1535">
       <c r="A1535" t="n">
-        <v>-3.134568428278838</v>
+        <v>-2.369434684901081</v>
       </c>
       <c r="B1535" t="n">
-        <v>14.98181917019621</v>
+        <v>14.98204794772745</v>
       </c>
       <c r="C1535" t="n">
         <v>41.88</v>
@@ -49419,10 +49419,10 @@
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>-3.343132618124556</v>
+        <v>-2.528331734006535</v>
       </c>
       <c r="B1536" t="n">
-        <v>14.97517085855911</v>
+        <v>14.97541448673044</v>
       </c>
       <c r="C1536" t="n">
         <v>41.71</v>
@@ -49451,10 +49451,10 @@
     </row>
     <row r="1537">
       <c r="A1537" t="n">
-        <v>-3.550961376310464</v>
+        <v>-2.685787018185002</v>
       </c>
       <c r="B1537" t="n">
-        <v>14.96835627905921</v>
+        <v>14.96861496906662</v>
       </c>
       <c r="C1537" t="n">
         <v>41.54</v>
@@ -49483,10 +49483,10 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>-3.758083018764427</v>
+        <v>-2.841913801147951</v>
       </c>
       <c r="B1538" t="n">
-        <v>14.96138178161391</v>
+        <v>14.96165571925372</v>
       </c>
       <c r="C1538" t="n">
         <v>41.38</v>
@@ -49515,10 +49515,10 @@
     </row>
     <row r="1539">
       <c r="A1539" t="n">
-        <v>-3.964525861414319</v>
+        <v>-2.996825346606859</v>
       </c>
       <c r="B1539" t="n">
-        <v>14.95425371614057</v>
+        <v>14.95454306180945</v>
       </c>
       <c r="C1539" t="n">
         <v>41.21</v>
@@ -49547,10 +49547,10 @@
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>-4.170318220188002</v>
+        <v>-3.150634918273196</v>
       </c>
       <c r="B1540" t="n">
-        <v>14.94697843255658</v>
+        <v>14.9472833212515</v>
       </c>
       <c r="C1540" t="n">
         <v>41.04</v>
@@ -49579,10 +49579,10 @@
     </row>
     <row r="1541">
       <c r="A1541" t="n">
-        <v>-4.375488411013349</v>
+        <v>-3.303455779858438</v>
       </c>
       <c r="B1541" t="n">
-        <v>14.93956228077932</v>
+        <v>14.93988282209761</v>
       </c>
       <c r="C1541" t="n">
         <v>40.88</v>
@@ -49611,10 +49611,10 @@
     </row>
     <row r="1542">
       <c r="A1542" t="n">
-        <v>-4.580064749818226</v>
+        <v>-3.455401195074057</v>
       </c>
       <c r="B1542" t="n">
-        <v>14.93201161072617</v>
+        <v>14.93234788886546</v>
       </c>
       <c r="C1542" t="n">
         <v>40.71</v>
@@ -49643,10 +49643,10 @@
     </row>
     <row r="1543">
       <c r="A1543" t="n">
-        <v>-4.784075552530501</v>
+        <v>-3.606584427631524</v>
       </c>
       <c r="B1543" t="n">
-        <v>14.92433277231449</v>
+        <v>14.92468484607277</v>
       </c>
       <c r="C1543" t="n">
         <v>40.54</v>
@@ -49675,10 +49675,10 @@
     </row>
     <row r="1544">
       <c r="A1544" t="n">
-        <v>-4.987549135078044</v>
+        <v>-3.757118741242316</v>
       </c>
       <c r="B1544" t="n">
-        <v>14.9165321154617</v>
+        <v>14.91690001823726</v>
       </c>
       <c r="C1544" t="n">
         <v>40.38</v>
@@ -49707,10 +49707,10 @@
     </row>
     <row r="1545">
       <c r="A1545" t="n">
-        <v>-5.190513813388722</v>
+        <v>-3.907117399617903</v>
       </c>
       <c r="B1545" t="n">
-        <v>14.90861599008513</v>
+        <v>14.90899972987663</v>
       </c>
       <c r="C1545" t="n">
         <v>40.21</v>
@@ -49739,10 +49739,10 @@
     </row>
     <row r="1546">
       <c r="A1546" t="n">
-        <v>-5.392997903390404</v>
+        <v>-4.05669366646976</v>
       </c>
       <c r="B1546" t="n">
-        <v>14.90059074610219</v>
+        <v>14.90099030550858</v>
       </c>
       <c r="C1546" t="n">
         <v>40.04</v>
@@ -49771,10 +49771,10 @@
     </row>
     <row r="1547">
       <c r="A1547" t="n">
-        <v>-5.595029721010957</v>
+        <v>-4.20596080550936</v>
       </c>
       <c r="B1547" t="n">
-        <v>14.89246273343026</v>
+        <v>14.89287806965084</v>
       </c>
       <c r="C1547" t="n">
         <v>39.88</v>
@@ -49803,10 +49803,10 @@
     </row>
     <row r="1548">
       <c r="A1548" t="n">
-        <v>-5.796637582178251</v>
+        <v>-4.355032080448176</v>
       </c>
       <c r="B1548" t="n">
-        <v>14.88423830198671</v>
+        <v>14.88466934682111</v>
       </c>
       <c r="C1548" t="n">
         <v>39.71</v>
@@ -49835,10 +49835,10 @@
     </row>
     <row r="1549">
       <c r="A1549" t="n">
-        <v>-5.997849802820152</v>
+        <v>-4.504020754997679</v>
       </c>
       <c r="B1549" t="n">
-        <v>14.87592380168891</v>
+        <v>14.87637046153709</v>
       </c>
       <c r="C1549" t="n">
         <v>39.54</v>
@@ -49867,10 +49867,10 @@
     </row>
     <row r="1550">
       <c r="A1550" t="n">
-        <v>-6.198694698864532</v>
+        <v>-4.653040092869348</v>
       </c>
       <c r="B1550" t="n">
-        <v>14.86752558245426</v>
+        <v>14.86798773831651</v>
       </c>
       <c r="C1550" t="n">
         <v>39.38</v>
@@ -49899,10 +49899,10 @@
     </row>
     <row r="1551">
       <c r="A1551" t="n">
-        <v>-6.399200586239257</v>
+        <v>-4.802203357774649</v>
       </c>
       <c r="B1551" t="n">
-        <v>14.85904999420012</v>
+        <v>14.85952750167707</v>
       </c>
       <c r="C1551" t="n">
         <v>39.21</v>
@@ -49931,10 +49931,10 @@
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>-6.599395780872195</v>
+        <v>-4.951623813425059</v>
       </c>
       <c r="B1552" t="n">
-        <v>14.85050338684388</v>
+        <v>14.85099607613647</v>
       </c>
       <c r="C1552" t="n">
         <v>39.04</v>
@@ -49963,10 +49963,10 @@
     </row>
     <row r="1553">
       <c r="A1553" t="n">
-        <v>-6.799308598691216</v>
+        <v>-5.101414723532051</v>
       </c>
       <c r="B1553" t="n">
-        <v>14.84189211030292</v>
+        <v>14.84239978621243</v>
       </c>
       <c r="C1553" t="n">
         <v>38.88</v>
@@ -49995,10 +49995,10 @@
     </row>
     <row r="1554">
       <c r="A1554" t="n">
-        <v>-6.998967355624181</v>
+        <v>-5.251689351807096</v>
       </c>
       <c r="B1554" t="n">
-        <v>14.8332225144946</v>
+        <v>14.83374495642265</v>
       </c>
       <c r="C1554" t="n">
         <v>38.71</v>
@@ -50027,10 +50027,10 @@
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>-7.198400367598971</v>
+        <v>-5.402560961961672</v>
       </c>
       <c r="B1555" t="n">
-        <v>14.82450094933633</v>
+        <v>14.82503791128486</v>
       </c>
       <c r="C1555" t="n">
         <v>38.55</v>
@@ -50059,10 +50059,10 @@
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>-7.397635950543443</v>
+        <v>-5.554142817707248</v>
       </c>
       <c r="B1556" t="n">
-        <v>14.81573376474547</v>
+        <v>14.81628497531675</v>
       </c>
       <c r="C1556" t="n">
         <v>38.38</v>
@@ -50091,10 +50091,10 @@
     </row>
     <row r="1557">
       <c r="A1557" t="n">
-        <v>-7.596702420385472</v>
+        <v>-5.706548182755299</v>
       </c>
       <c r="B1557" t="n">
-        <v>14.8069273106394</v>
+        <v>14.80749247303604</v>
       </c>
       <c r="C1557" t="n">
         <v>38.21</v>
@@ -50103,10 +50103,10 @@
         <v>15.4895</v>
       </c>
       <c r="E1557" t="n">
-        <v>-4.309548339081447</v>
+        <v>-4.308348544720716</v>
       </c>
       <c r="F1557" t="n">
-        <v>12.5282771718432</v>
+        <v>12.52827670740668</v>
       </c>
       <c r="G1557" t="n">
         <v>1.282499999999988</v>
@@ -50123,10 +50123,10 @@
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>-7.795628093052926</v>
+        <v>-5.859890320817297</v>
       </c>
       <c r="B1558" t="n">
-        <v>14.79808793693551</v>
+        <v>14.79866672896043</v>
       </c>
       <c r="C1558" t="n">
         <v>38.05</v>
@@ -50135,10 +50135,10 @@
         <v>15.4894</v>
       </c>
       <c r="E1558" t="n">
-        <v>-4.523407067295238</v>
+        <v>-4.518648623824715</v>
       </c>
       <c r="F1558" t="n">
-        <v>12.52791845423601</v>
+        <v>12.5279166122579</v>
       </c>
       <c r="G1558" t="n">
         <v>0.8949999999999854</v>
@@ -50155,10 +50155,10 @@
     </row>
     <row r="1559">
       <c r="A1559" t="n">
-        <v>-7.99444128447367</v>
+        <v>-6.014282495604716</v>
       </c>
       <c r="B1559" t="n">
-        <v>14.78922199355117</v>
+        <v>14.78981406760764</v>
       </c>
       <c r="C1559" t="n">
         <v>37.88</v>
@@ -50167,10 +50167,10 @@
         <v>15.4892</v>
       </c>
       <c r="E1559" t="n">
-        <v>-4.736096551627602</v>
+        <v>-4.725481705256835</v>
       </c>
       <c r="F1559" t="n">
-        <v>12.5273800975505</v>
+        <v>12.52737598857771</v>
       </c>
       <c r="G1559" t="n">
         <v>0.5074999999999861</v>
@@ -50187,10 +50187,10 @@
     </row>
     <row r="1560">
       <c r="A1560" t="n">
-        <v>-8.193170310575571</v>
+        <v>-6.169837970829027</v>
       </c>
       <c r="B1560" t="n">
-        <v>14.78033583040375</v>
+        <v>14.78094081349537</v>
       </c>
       <c r="C1560" t="n">
         <v>37.71</v>
@@ -50199,10 +50199,10 @@
         <v>15.489</v>
       </c>
       <c r="E1560" t="n">
-        <v>-4.947637159064737</v>
+        <v>-4.928929256961879</v>
       </c>
       <c r="F1560" t="n">
-        <v>12.52666525538452</v>
+        <v>12.52665801361596</v>
       </c>
       <c r="G1560" t="n">
         <v>0.1199999999999868</v>
@@ -50219,10 +50219,10 @@
     </row>
     <row r="1561">
       <c r="A1561" t="n">
-        <v>-8.391843487286504</v>
+        <v>-6.326670010201707</v>
       </c>
       <c r="B1561" t="n">
-        <v>14.77143579741065</v>
+        <v>14.77205329114134</v>
       </c>
       <c r="C1561" t="n">
         <v>37.55</v>
@@ -50231,10 +50231,10 @@
         <v>15.4889</v>
       </c>
       <c r="E1561" t="n">
-        <v>-5.15804925659285</v>
+        <v>-5.129072746884658</v>
       </c>
       <c r="F1561" t="n">
-        <v>12.52577708133594</v>
+        <v>12.5257658646225</v>
       </c>
       <c r="G1561" t="n">
         <v>-0.2675000000000125</v>
@@ -50251,10 +50251,10 @@
     </row>
     <row r="1562">
       <c r="A1562" t="n">
-        <v>-8.59048913053433</v>
+        <v>-6.484891877434228</v>
       </c>
       <c r="B1562" t="n">
-        <v>14.76252824448923</v>
+        <v>14.76315782506325</v>
       </c>
       <c r="C1562" t="n">
         <v>37.38</v>
@@ -50263,10 +50263,10 @@
         <v>15.4888</v>
       </c>
       <c r="E1562" t="n">
-        <v>-5.367353211198138</v>
+        <v>-5.32599364296998</v>
       </c>
       <c r="F1562" t="n">
-        <v>12.52471872900263</v>
+        <v>12.52470271884718</v>
       </c>
       <c r="G1562" t="n">
         <v>-0.6550000000000118</v>
@@ -50283,10 +50283,10 @@
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>-8.789135556246924</v>
+        <v>-6.644616836238061</v>
       </c>
       <c r="B1563" t="n">
-        <v>14.75361952155689</v>
+        <v>14.75426073977881</v>
       </c>
       <c r="C1563" t="n">
         <v>37.21</v>
@@ -50295,10 +50295,10 @@
         <v>15.4887</v>
       </c>
       <c r="E1563" t="n">
-        <v>-5.575569389866809</v>
+        <v>-5.519773413162658</v>
       </c>
       <c r="F1563" t="n">
-        <v>12.52349335198244</v>
+        <v>12.52347175353985</v>
       </c>
       <c r="G1563" t="n">
         <v>-1.042500000000015</v>
@@ -50315,10 +50315,10 @@
     </row>
     <row r="1564">
       <c r="A1564" t="n">
-        <v>-8.987811080352149</v>
+        <v>-6.805958150324679</v>
       </c>
       <c r="B1564" t="n">
-        <v>14.74471597853098</v>
+        <v>14.74536835980574</v>
       </c>
       <c r="C1564" t="n">
         <v>37.05</v>
@@ -50327,10 +50327,10 @@
         <v>15.4886</v>
       </c>
       <c r="E1564" t="n">
-        <v>-5.78271815958506</v>
+        <v>-5.710493525407493</v>
       </c>
       <c r="F1564" t="n">
-        <v>12.52210410387325</v>
+        <v>12.52207614595034</v>
       </c>
       <c r="G1564" t="n">
         <v>-1.430000000000014</v>
@@ -50347,10 +50347,10 @@
     </row>
     <row r="1565">
       <c r="A1565" t="n">
-        <v>-9.186544018777877</v>
+        <v>-6.969029083405561</v>
       </c>
       <c r="B1565" t="n">
-        <v>14.7358239653289</v>
+        <v>14.73648700966174</v>
       </c>
       <c r="C1565" t="n">
         <v>36.88</v>
@@ -50359,10 +50359,10 @@
         <v>15.4885</v>
       </c>
       <c r="E1565" t="n">
-        <v>-5.988819887339094</v>
+        <v>-5.898235447649297</v>
       </c>
       <c r="F1565" t="n">
-        <v>12.52055413827291</v>
+        <v>12.52051907332851</v>
       </c>
       <c r="G1565" t="n">
         <v>-1.817500000000013</v>
@@ -50379,10 +50379,10 @@
     </row>
     <row r="1566">
       <c r="A1566" t="n">
-        <v>-9.385362687451972</v>
+        <v>-7.133942899192173</v>
       </c>
       <c r="B1566" t="n">
-        <v>14.72694983186804</v>
+        <v>14.72762301386452</v>
       </c>
       <c r="C1566" t="n">
         <v>36.71</v>
@@ -50391,10 +50391,10 @@
         <v>15.4885</v>
       </c>
       <c r="E1566" t="n">
-        <v>-6.193894940115116</v>
+        <v>-6.083080647832878</v>
       </c>
       <c r="F1566" t="n">
-        <v>12.51884660877929</v>
+        <v>12.51880371292421</v>
       </c>
       <c r="G1566" t="n">
         <v>-2.205000000000016</v>
@@ -50411,10 +50411,10 @@
     </row>
     <row r="1567">
       <c r="A1567" t="n">
-        <v>-9.584295402302304</v>
+        <v>-7.30081286139599</v>
       </c>
       <c r="B1567" t="n">
-        <v>14.71809992806575</v>
+        <v>14.7187826969318</v>
       </c>
       <c r="C1567" t="n">
         <v>36.55</v>
@@ -50423,10 +50423,10 @@
         <v>15.4884</v>
       </c>
       <c r="E1567" t="n">
-        <v>-6.397963684899325</v>
+        <v>-6.265110593903046</v>
       </c>
       <c r="F1567" t="n">
-        <v>12.51698466899025</v>
+        <v>12.51693324198729</v>
       </c>
       <c r="G1567" t="n">
         <v>-2.592500000000015</v>
@@ -50443,10 +50443,10 @@
     </row>
     <row r="1568">
       <c r="A1568" t="n">
-        <v>-9.783370479256746</v>
+        <v>-7.469752233728489</v>
       </c>
       <c r="B1568" t="n">
-        <v>14.70928060383942</v>
+        <v>14.70997238338127</v>
       </c>
       <c r="C1568" t="n">
         <v>36.38</v>
@@ -50455,10 +50455,10 @@
         <v>15.4883</v>
       </c>
       <c r="E1568" t="n">
-        <v>-6.601046488677923</v>
+        <v>-6.444406753804607</v>
       </c>
       <c r="F1568" t="n">
-        <v>12.51497147250366</v>
+        <v>12.51491083776758</v>
       </c>
       <c r="G1568" t="n">
         <v>-2.980000000000015</v>
@@ -50475,10 +50475,10 @@
     </row>
     <row r="1569">
       <c r="A1569" t="n">
-        <v>-9.98261623424316</v>
+        <v>-7.640874279901139</v>
       </c>
       <c r="B1569" t="n">
-        <v>14.70049820910644</v>
+        <v>14.70119839773066</v>
       </c>
       <c r="C1569" t="n">
         <v>36.21</v>
@@ -50487,10 +50487,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1569" t="n">
-        <v>-6.803163718437116</v>
+        <v>-6.621050595482371</v>
       </c>
       <c r="F1569" t="n">
-        <v>12.51281017291737</v>
+        <v>12.51273967751494</v>
       </c>
       <c r="G1569" t="n">
         <v>-3.367500000000014</v>
@@ -50507,10 +50507,10 @@
     </row>
     <row r="1570">
       <c r="A1570" t="n">
-        <v>-10.18206098318942</v>
+        <v>-7.814292263625413</v>
       </c>
       <c r="B1570" t="n">
-        <v>14.69175909378418</v>
+        <v>14.69246706449767</v>
       </c>
       <c r="C1570" t="n">
         <v>36.05</v>
@@ -50519,10 +50519,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1570" t="n">
-        <v>-7.004335741163101</v>
+        <v>-6.795123586881147</v>
       </c>
       <c r="F1570" t="n">
-        <v>12.51050392382926</v>
+        <v>12.51042293847922</v>
       </c>
       <c r="G1570" t="n">
         <v>-3.702750000000021</v>
@@ -50539,10 +50539,10 @@
     </row>
     <row r="1571">
       <c r="A1571" t="n">
-        <v>-10.38173304202338</v>
+        <v>-7.990119448612788</v>
       </c>
       <c r="B1571" t="n">
-        <v>14.68306960779002</v>
+        <v>14.68378470820001</v>
       </c>
       <c r="C1571" t="n">
         <v>35.88</v>
@@ -50551,16 +50551,16 @@
         <v>15.488</v>
       </c>
       <c r="E1571" t="n">
-        <v>-7.204582923842085</v>
+        <v>-6.966707195945743</v>
       </c>
       <c r="F1571" t="n">
-        <v>12.50805587883719</v>
+        <v>12.50796379791026</v>
       </c>
       <c r="G1571" t="n">
-        <v>-3.917779678080519</v>
+        <v>-3.916592358318304</v>
       </c>
       <c r="H1571" t="n">
-        <v>14.24410832767559</v>
+        <v>14.2441612124116</v>
       </c>
       <c r="I1571" t="n">
         <v>15.02142857142858</v>
@@ -50571,10 +50571,10 @@
     </row>
     <row r="1572">
       <c r="A1572" t="n">
-        <v>-10.58166072667293</v>
+        <v>-8.168469098574736</v>
       </c>
       <c r="B1572" t="n">
-        <v>14.67443610104134</v>
+        <v>14.67515765335538</v>
       </c>
       <c r="C1572" t="n">
         <v>35.71</v>
@@ -50583,16 +50583,16 @@
         <v>15.488</v>
       </c>
       <c r="E1572" t="n">
-        <v>-7.403925633460267</v>
+        <v>-7.135882890620966</v>
       </c>
       <c r="F1572" t="n">
-        <v>12.50546919153901</v>
+        <v>12.50536543305792</v>
       </c>
       <c r="G1572" t="n">
-        <v>-4.131632008629171</v>
+        <v>-4.126922618501787</v>
       </c>
       <c r="H1572" t="n">
-        <v>14.24367386231909</v>
+        <v>14.24388420845569</v>
       </c>
       <c r="I1572" t="n">
         <v>14.58714285714286</v>
@@ -50603,10 +50603,10 @@
     </row>
     <row r="1573">
       <c r="A1573" t="n">
-        <v>-10.78187235306592</v>
+        <v>-8.349454477222727</v>
       </c>
       <c r="B1573" t="n">
-        <v>14.66586492345551</v>
+        <v>14.66659222448151</v>
       </c>
       <c r="C1573" t="n">
         <v>35.55</v>
@@ -50615,16 +50615,16 @@
         <v>15.4879</v>
       </c>
       <c r="E1573" t="n">
-        <v>-7.60238423700385</v>
+        <v>-7.302732138851626</v>
       </c>
       <c r="F1573" t="n">
-        <v>12.5027470155326</v>
+        <v>12.50263102117203</v>
       </c>
       <c r="G1573" t="n">
-        <v>-4.344326936106714</v>
+        <v>-4.333820558393417</v>
       </c>
       <c r="H1573" t="n">
-        <v>14.24283304425873</v>
+        <v>14.24330363924938</v>
       </c>
       <c r="I1573" t="n">
         <v>14.15285714285715</v>
@@ -50635,10 +50635,10 @@
     </row>
     <row r="1574">
       <c r="A1574" t="n">
-        <v>-10.98239623713024</v>
+        <v>-8.533188848268237</v>
       </c>
       <c r="B1574" t="n">
-        <v>14.65736242494993</v>
+        <v>14.6580947460961</v>
       </c>
       <c r="C1574" t="n">
         <v>35.38</v>
@@ -50647,16 +50647,16 @@
         <v>15.4877</v>
       </c>
       <c r="E1574" t="n">
-        <v>-7.799979101459037</v>
+        <v>-7.467336408582532</v>
       </c>
       <c r="F1574" t="n">
-        <v>12.49989250441582</v>
+        <v>12.49976373950245</v>
       </c>
       <c r="G1574" t="n">
-        <v>-4.555884404973886</v>
+        <v>-4.537365955836147</v>
       </c>
       <c r="H1574" t="n">
-        <v>14.2415928218873</v>
+        <v>14.24242466397431</v>
       </c>
       <c r="I1574" t="n">
         <v>13.71857142857143</v>
@@ -50667,10 +50667,10 @@
     </row>
     <row r="1575">
       <c r="A1575" t="n">
-        <v>-11.18326069479373</v>
+        <v>-8.719785475422738</v>
       </c>
       <c r="B1575" t="n">
-        <v>14.64893495544196</v>
+        <v>14.64967154271685</v>
       </c>
       <c r="C1575" t="n">
         <v>35.22</v>
@@ -50679,16 +50679,16 @@
         <v>15.4876</v>
       </c>
       <c r="E1575" t="n">
-        <v>-7.996730593812028</v>
+        <v>-7.62977716775849</v>
       </c>
       <c r="F1575" t="n">
-        <v>12.49690881178653</v>
+        <v>12.49676676529903</v>
       </c>
       <c r="G1575" t="n">
-        <v>-4.766324359691423</v>
+        <v>-4.737638588672925</v>
       </c>
       <c r="H1575" t="n">
-        <v>14.23996014359756</v>
+        <v>14.2412524418121</v>
       </c>
       <c r="I1575" t="n">
         <v>13.28428571428572</v>
@@ -50699,10 +50699,10 @@
     </row>
     <row r="1576">
       <c r="A1576" t="n">
-        <v>-11.38449404198428</v>
+        <v>-8.909357622397703</v>
       </c>
       <c r="B1576" t="n">
-        <v>14.64058886484898</v>
+        <v>14.64132893886148</v>
       </c>
       <c r="C1576" t="n">
         <v>35.05</v>
@@ -50711,16 +50711,16 @@
         <v>15.4875</v>
       </c>
       <c r="E1576" t="n">
-        <v>-8.192659081049026</v>
+        <v>-7.790135884324311</v>
       </c>
       <c r="F1576" t="n">
-        <v>12.49379909124259</v>
+        <v>12.4936432758116</v>
       </c>
       <c r="G1576" t="n">
-        <v>-4.975666744720066</v>
+        <v>-4.934718234746702</v>
       </c>
       <c r="H1576" t="n">
-        <v>14.23794195778229</v>
+        <v>14.23979213194439</v>
       </c>
       <c r="I1576" t="n">
         <v>12.85</v>
@@ -50731,10 +50731,10 @@
     </row>
     <row r="1577">
       <c r="A1577" t="n">
-        <v>-11.58612459462975</v>
+        <v>-9.102018552904607</v>
       </c>
       <c r="B1577" t="n">
-        <v>14.63233050308838</v>
+        <v>14.6330732590477</v>
       </c>
       <c r="C1577" t="n">
         <v>34.88</v>
@@ -50743,16 +50743,16 @@
         <v>15.4874</v>
       </c>
       <c r="E1577" t="n">
-        <v>-8.387784930156235</v>
+        <v>-7.948494026224802</v>
       </c>
       <c r="F1577" t="n">
-        <v>12.49056649638187</v>
+        <v>12.49039644829002</v>
       </c>
       <c r="G1577" t="n">
-        <v>-5.183931504520549</v>
+        <v>-5.128684671900428</v>
       </c>
       <c r="H1577" t="n">
-        <v>14.23554521283426</v>
+        <v>14.23804889355282</v>
       </c>
       <c r="I1577" t="n">
         <v>12.41571428571429</v>
@@ -50763,10 +50763,10 @@
     </row>
     <row r="1578">
       <c r="A1578" t="n">
-        <v>-11.788180668658</v>
+        <v>-9.297881530654919</v>
       </c>
       <c r="B1578" t="n">
-        <v>14.62416622007754</v>
+        <v>14.62491082779322</v>
       </c>
       <c r="C1578" t="n">
         <v>34.72</v>
@@ -50775,16 +50775,16 @@
         <v>15.4873</v>
       </c>
       <c r="E1578" t="n">
-        <v>-8.582128508119853</v>
+        <v>-8.104933061404772</v>
       </c>
       <c r="F1578" t="n">
-        <v>12.48721418080222</v>
+        <v>12.48702945998414</v>
       </c>
       <c r="G1578" t="n">
-        <v>-5.391138583553611</v>
+        <v>-5.31961767797705</v>
       </c>
       <c r="H1578" t="n">
-        <v>14.23277685714625</v>
+        <v>14.23602788581902</v>
       </c>
       <c r="I1578" t="n">
         <v>11.98142857142858</v>
@@ -50795,10 +50795,10 @@
     </row>
     <row r="1579">
       <c r="A1579" t="n">
-        <v>-11.99069057999692</v>
+        <v>-9.497059819360121</v>
       </c>
       <c r="B1579" t="n">
-        <v>14.61610236573383</v>
+        <v>14.61684796961574</v>
       </c>
       <c r="C1579" t="n">
         <v>34.55</v>
@@ -50807,16 +50807,16 @@
         <v>15.4871</v>
       </c>
       <c r="E1579" t="n">
-        <v>-8.775710181926087</v>
+        <v>-8.25953445780903</v>
       </c>
       <c r="F1579" t="n">
-        <v>12.48374529810153</v>
+        <v>12.48354548814381</v>
       </c>
       <c r="G1579" t="n">
-        <v>-5.597307926279988</v>
+        <v>-5.507597030819521</v>
       </c>
       <c r="H1579" t="n">
-        <v>14.22964383911102</v>
+        <v>14.23373426792462</v>
       </c>
       <c r="I1579" t="n">
         <v>11.54714285714286</v>
@@ -50827,10 +50827,10 @@
     </row>
     <row r="1580">
       <c r="A1580" t="n">
-        <v>-12.19368264457436</v>
+        <v>-9.699666682731674</v>
       </c>
       <c r="B1580" t="n">
-        <v>14.60814528997463</v>
+        <v>14.60889100903298</v>
       </c>
       <c r="C1580" t="n">
         <v>33.19</v>
@@ -50839,16 +50839,16 @@
         <v>15.487</v>
       </c>
       <c r="E1580" t="n">
-        <v>-8.968550318561133</v>
+        <v>-8.412379683382383</v>
       </c>
       <c r="F1580" t="n">
-        <v>12.48016300187764</v>
+        <v>12.47994771001886</v>
       </c>
       <c r="G1580" t="n">
-        <v>-5.802459477160419</v>
+        <v>-5.692702508270789</v>
       </c>
       <c r="H1580" t="n">
-        <v>14.22615310712136</v>
+        <v>14.23117319905126</v>
       </c>
       <c r="I1580" t="n">
         <v>11.11285714285715</v>
@@ -50859,10 +50859,10 @@
     </row>
     <row r="1581">
       <c r="A1581" t="n">
-        <v>-12.39718517831819</v>
+        <v>-9.905815384481061</v>
       </c>
       <c r="B1581" t="n">
-        <v>14.60030134271732</v>
+        <v>14.60104627056265</v>
       </c>
       <c r="C1581" t="n">
         <v>32.05</v>
@@ -50871,16 +50871,16 @@
         <v>15.4869</v>
       </c>
       <c r="E1581" t="n">
-        <v>-9.160669285011199</v>
+        <v>-8.563550206069641</v>
       </c>
       <c r="F1581" t="n">
-        <v>12.47647044572842</v>
+        <v>12.47623930285916</v>
       </c>
       <c r="G1581" t="n">
-        <v>-6.00661318065564</v>
+        <v>-5.875013888173806</v>
       </c>
       <c r="H1581" t="n">
-        <v>14.22231160957003</v>
+        <v>14.22834983838057</v>
       </c>
       <c r="I1581" t="n">
         <v>10.67857142857143</v>
@@ -50891,10 +50891,10 @@
     </row>
     <row r="1582">
       <c r="A1582" t="n">
-        <v>-12.60122649715629</v>
+        <v>-10.11561918831975</v>
       </c>
       <c r="B1582" t="n">
-        <v>14.59257687387928</v>
+        <v>14.59332007872245</v>
       </c>
       <c r="C1582" t="n">
         <v>31.1</v>
@@ -50903,16 +50903,16 @@
         <v>15.4867</v>
       </c>
       <c r="E1582" t="n">
-        <v>-9.352087448262488</v>
+        <v>-8.713127493815612</v>
       </c>
       <c r="F1582" t="n">
-        <v>12.47267078325174</v>
+        <v>12.47242344391454</v>
       </c>
       <c r="G1582" t="n">
-        <v>-6.209788981226393</v>
+        <v>-6.054610948371521</v>
       </c>
       <c r="H1582" t="n">
-        <v>14.21812629484981</v>
+        <v>14.22526934509419</v>
       </c>
       <c r="I1582" t="n">
         <v>10.24428571428572</v>
@@ -50923,10 +50923,10 @@
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>-12.80583491701651</v>
+        <v>-10.32919135795922</v>
       </c>
       <c r="B1583" t="n">
-        <v>14.58497823337789</v>
+        <v>14.5857187580301</v>
       </c>
       <c r="C1583" t="n">
         <v>30.31</v>
@@ -50935,16 +50935,16 @@
         <v>15.4866</v>
       </c>
       <c r="E1583" t="n">
-        <v>-9.542825175301196</v>
+        <v>-8.861193014565105</v>
       </c>
       <c r="F1583" t="n">
-        <v>12.46876716804546</v>
+        <v>12.46850331043485</v>
       </c>
       <c r="G1583" t="n">
-        <v>-6.412006823333408</v>
+        <v>-6.231573466706879</v>
       </c>
       <c r="H1583" t="n">
-        <v>14.21360411135346</v>
+        <v>14.22193687837374</v>
       </c>
       <c r="I1583" t="n">
         <v>9.810000000000006</v>
@@ -50955,10 +50955,10 @@
     </row>
     <row r="1584">
       <c r="A1584" t="n">
-        <v>-13.01103875382674</v>
+        <v>-10.54664515711094</v>
       </c>
       <c r="B1584" t="n">
-        <v>14.57751177113053</v>
+        <v>14.57824863300331</v>
       </c>
       <c r="C1584" t="n">
         <v>29.68</v>
@@ -50967,16 +50967,16 @@
         <v>15.4867</v>
       </c>
       <c r="E1584" t="n">
-        <v>-9.732902833113528</v>
+        <v>-9.007828236262926</v>
       </c>
       <c r="F1584" t="n">
-        <v>12.46476275370744</v>
+        <v>12.46448207966995</v>
       </c>
       <c r="G1584" t="n">
-        <v>-6.613286651437429</v>
+        <v>-6.40598122102284</v>
       </c>
       <c r="H1584" t="n">
-        <v>14.20875200747377</v>
+        <v>14.21835759740087</v>
       </c>
       <c r="I1584" t="n">
         <v>9.375714285714292</v>
@@ -50987,10 +50987,10 @@
     </row>
     <row r="1585">
       <c r="A1585" t="n">
-        <v>-13.21686632351483</v>
+        <v>-10.76809384948637</v>
       </c>
       <c r="B1585" t="n">
-        <v>14.57018383705458</v>
+        <v>14.57091602815977</v>
       </c>
       <c r="C1585" t="n">
         <v>29.17</v>
@@ -50999,16 +50999,16 @@
         <v>15.4865</v>
       </c>
       <c r="E1585" t="n">
-        <v>-9.922340788685688</v>
+        <v>-9.153114626853885</v>
       </c>
       <c r="F1585" t="n">
-        <v>12.46066069383555</v>
+        <v>12.46036292886968</v>
       </c>
       <c r="G1585" t="n">
-        <v>-6.813648409999188</v>
+        <v>-6.577913989162343</v>
       </c>
       <c r="H1585" t="n">
-        <v>14.20357693160351</v>
+        <v>14.21453666135721</v>
       </c>
       <c r="I1585" t="n">
         <v>8.941428571428577</v>
@@ -51019,10 +51019,10 @@
     </row>
     <row r="1586">
       <c r="A1586" t="n">
-        <v>-13.42334594200866</v>
+        <v>-10.99365069879701</v>
       </c>
       <c r="B1586" t="n">
-        <v>14.56300078106741</v>
+        <v>14.56372726801721</v>
       </c>
       <c r="C1586" t="n">
         <v>28.77</v>
@@ -51031,16 +51031,16 @@
         <v>15.4862</v>
       </c>
       <c r="E1586" t="n">
-        <v>-10.11115940900387</v>
+        <v>-9.29713365428279</v>
       </c>
       <c r="F1586" t="n">
-        <v>12.45646414202765</v>
+        <v>12.45614903528388</v>
       </c>
       <c r="G1586" t="n">
-        <v>-7.013112043479429</v>
+        <v>-6.747451548968344</v>
       </c>
       <c r="H1586" t="n">
-        <v>14.19808583213544</v>
+        <v>14.21047922942439</v>
       </c>
       <c r="I1586" t="n">
         <v>8.507142857142863</v>
@@ -51051,10 +51051,10 @@
     </row>
     <row r="1587">
       <c r="A1587" t="n">
-        <v>-13.63050592523609</v>
+        <v>-11.22342896875432</v>
       </c>
       <c r="B1587" t="n">
-        <v>14.55596895308642</v>
+        <v>14.55668867709334</v>
       </c>
       <c r="C1587" t="n">
         <v>28.47</v>
@@ -51063,16 +51063,16 @@
         <v>15.486</v>
       </c>
       <c r="E1587" t="n">
-        <v>-10.29937906105429</v>
+        <v>-9.439966786494452</v>
       </c>
       <c r="F1587" t="n">
-        <v>12.45217625188159</v>
+        <v>12.45184357616241</v>
       </c>
       <c r="G1587" t="n">
-        <v>-7.211697496338884</v>
+        <v>-6.914673678283792</v>
       </c>
       <c r="H1587" t="n">
-        <v>14.19228565746234</v>
+        <v>14.20619046078404</v>
       </c>
       <c r="I1587" t="n">
         <v>8.072857142857149</v>
@@ -51083,10 +51083,10 @@
     </row>
     <row r="1588">
       <c r="A1588" t="n">
-        <v>-13.83837458912499</v>
+        <v>-11.45754192306977</v>
       </c>
       <c r="B1588" t="n">
-        <v>14.54909470302896</v>
+        <v>14.54980657990585</v>
       </c>
       <c r="C1588" t="n">
         <v>28.25</v>
@@ -51095,16 +51095,16 @@
         <v>15.4858</v>
       </c>
       <c r="E1588" t="n">
-        <v>-10.48702011182314</v>
+        <v>-9.581695491433679</v>
       </c>
       <c r="F1588" t="n">
-        <v>12.44780017699526</v>
+        <v>12.44744972875511</v>
       </c>
       <c r="G1588" t="n">
-        <v>-7.409424713038291</v>
+        <v>-7.079660154951638</v>
       </c>
       <c r="H1588" t="n">
-        <v>14.186183355977</v>
+        <v>14.2016755146178</v>
       </c>
       <c r="I1588" t="n">
         <v>7.638571428571435</v>
@@ -51115,10 +51115,10 @@
     </row>
     <row r="1589">
       <c r="A1589" t="n">
-        <v>-14.04698024960323</v>
+        <v>-11.69610282545483</v>
       </c>
       <c r="B1589" t="n">
-        <v>14.54238438081243</v>
+        <v>14.54308730097247</v>
       </c>
       <c r="C1589" t="n">
         <v>28.1</v>
@@ -51127,16 +51127,16 @@
         <v>15.4855</v>
       </c>
       <c r="E1589" t="n">
-        <v>-10.67410292829663</v>
+        <v>-9.722401237045277</v>
       </c>
       <c r="F1589" t="n">
-        <v>12.44333907096651</v>
+        <v>12.44297067031183</v>
       </c>
       <c r="G1589" t="n">
-        <v>-7.60631363803839</v>
+        <v>-7.242490756814828</v>
       </c>
       <c r="H1589" t="n">
-        <v>14.17978587607217</v>
+        <v>14.1969395501073</v>
       </c>
       <c r="I1589" t="n">
         <v>7.204285714285721</v>
@@ -51147,10 +51147,10 @@
     </row>
     <row r="1590">
       <c r="A1590" t="n">
-        <v>-14.25635122259869</v>
+        <v>-11.93922493962098</v>
       </c>
       <c r="B1590" t="n">
-        <v>14.5358443363542</v>
+        <v>14.53653716481091</v>
       </c>
       <c r="C1590" t="n">
         <v>27.67142857142857</v>
@@ -51159,16 +51159,16 @@
         <v>15.48532857142857</v>
       </c>
       <c r="E1590" t="n">
-        <v>-10.86064787746095</v>
+        <v>-9.862165491274055</v>
       </c>
       <c r="F1590" t="n">
-        <v>12.4387960873932</v>
+        <v>12.43840957808241</v>
       </c>
       <c r="G1590" t="n">
-        <v>-7.802384215799917</v>
+        <v>-7.403245261716314</v>
       </c>
       <c r="H1590" t="n">
-        <v>14.17310016614063</v>
+        <v>14.19198772643419</v>
       </c>
       <c r="I1590" t="n">
         <v>6.770000000000007</v>
@@ -51179,10 +51179,10 @@
     </row>
     <row r="1591">
       <c r="A1591" t="n">
-        <v>-14.46651582403921</v>
+        <v>-12.1870215292797</v>
       </c>
       <c r="B1591" t="n">
-        <v>14.52948091957166</v>
+        <v>14.53016249593886</v>
       </c>
       <c r="C1591" t="n">
         <v>27.24285714285714</v>
@@ -51191,16 +51191,16 @@
         <v>15.48515714285714</v>
       </c>
       <c r="E1591" t="n">
-        <v>-11.04667532630231</v>
+        <v>-10.00106972206482</v>
       </c>
       <c r="F1591" t="n">
-        <v>12.43417437987319</v>
+        <v>12.43376962931672</v>
       </c>
       <c r="G1591" t="n">
-        <v>-7.997656390783608</v>
+        <v>-7.562003447499047</v>
       </c>
       <c r="H1591" t="n">
-        <v>14.16613317457515</v>
+        <v>14.18682520278008</v>
       </c>
       <c r="I1591" t="n">
         <v>6.335714285714293</v>
@@ -51211,10 +51211,10 @@
     </row>
     <row r="1592">
       <c r="A1592" t="n">
-        <v>-14.67750236985269</v>
+        <v>-12.43960585814245</v>
       </c>
       <c r="B1592" t="n">
-        <v>14.52330048038217</v>
+        <v>14.52396961887405</v>
       </c>
       <c r="C1592" t="n">
         <v>26.81428571428572</v>
@@ -51223,16 +51223,16 @@
         <v>15.48498571428571</v>
       </c>
       <c r="E1592" t="n">
-        <v>-11.23220564180692</v>
+        <v>-10.13919539736239</v>
       </c>
       <c r="F1592" t="n">
-        <v>12.42947710200436</v>
+        <v>12.42905400126458</v>
       </c>
       <c r="G1592" t="n">
-        <v>-8.192150107450205</v>
+        <v>-7.718845092005974</v>
       </c>
       <c r="H1592" t="n">
-        <v>14.15889184976852</v>
+        <v>14.18145713832662</v>
       </c>
       <c r="I1592" t="n">
         <v>5.901428571428578</v>
@@ -51243,10 +51243,10 @@
     </row>
     <row r="1593">
       <c r="A1593" t="n">
-        <v>-14.88933917596697</v>
+        <v>-12.69709118992071</v>
       </c>
       <c r="B1593" t="n">
-        <v>14.51730936870313</v>
+        <v>14.51796485813417</v>
       </c>
       <c r="C1593" t="n">
         <v>26.38571428571429</v>
@@ -51255,16 +51255,16 @@
         <v>15.48481428571429</v>
       </c>
       <c r="E1593" t="n">
-        <v>-11.41725919096096</v>
+        <v>-10.27662398511156</v>
       </c>
       <c r="F1593" t="n">
-        <v>12.42470740738457</v>
+        <v>12.42426587117585</v>
       </c>
       <c r="G1593" t="n">
-        <v>-8.38588531026044</v>
+        <v>-7.873849973080048</v>
       </c>
       <c r="H1593" t="n">
-        <v>14.15138314011349</v>
+        <v>14.17588869225544</v>
       </c>
       <c r="I1593" t="n">
         <v>5.467142857142864</v>
@@ -51275,10 +51275,10 @@
     </row>
     <row r="1594">
       <c r="A1594" t="n">
-        <v>-15.10205455830994</v>
+        <v>-12.95959078832595</v>
       </c>
       <c r="B1594" t="n">
-        <v>14.51151393445191</v>
+        <v>14.51215453823695</v>
       </c>
       <c r="C1594" t="n">
         <v>25.95714285714286</v>
@@ -51287,16 +51287,16 @@
         <v>15.48464285714286</v>
       </c>
       <c r="E1594" t="n">
-        <v>-11.60185634075065</v>
+        <v>-10.41343695325715</v>
       </c>
       <c r="F1594" t="n">
-        <v>12.41986844961167</v>
+        <v>12.41940841630038</v>
       </c>
       <c r="G1594" t="n">
-        <v>-8.578881943675055</v>
+        <v>-8.027097868564219</v>
       </c>
       <c r="H1594" t="n">
-        <v>14.14361399400284</v>
+        <v>14.17012502374817</v>
       </c>
       <c r="I1594" t="n">
         <v>5.451571428571439</v>
@@ -51307,10 +51307,10 @@
     </row>
     <row r="1595">
       <c r="A1595" t="n">
-        <v>-15.31567683280946</v>
+        <v>-13.22721791706965</v>
       </c>
       <c r="B1595" t="n">
-        <v>14.50592052754588</v>
+        <v>14.50654498370009</v>
       </c>
       <c r="C1595" t="n">
         <v>25.52857142857143</v>
@@ -51319,30 +51319,30 @@
         <v>15.48447142857143</v>
       </c>
       <c r="E1595" t="n">
-        <v>-11.78601745816219</v>
+        <v>-10.54971576974395</v>
       </c>
       <c r="F1595" t="n">
-        <v>12.41496338228353</v>
+        <v>12.41448481388801</v>
       </c>
       <c r="G1595" t="n">
-        <v>-8.771159952154783</v>
+        <v>-8.178668556301432</v>
       </c>
       <c r="H1595" t="n">
-        <v>14.13559135982936</v>
+        <v>14.16417129198645</v>
       </c>
       <c r="I1595" t="n">
-        <v>5.211962854636139</v>
+        <v>5.213432374199308</v>
       </c>
       <c r="J1595" t="n">
-        <v>15.03227648732015</v>
+        <v>15.03227871093528</v>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="n">
-        <v>-15.5302343153934</v>
+        <v>-13.50008583986327</v>
       </c>
       <c r="B1596" t="n">
-        <v>14.50053549790243</v>
+        <v>14.5011425190413</v>
       </c>
       <c r="C1596" t="n">
         <v>25.1</v>
@@ -51351,30 +51351,30 @@
         <v>15.4843</v>
       </c>
       <c r="E1596" t="n">
-        <v>-11.96976291018178</v>
+        <v>-10.68554190251679</v>
       </c>
       <c r="F1596" t="n">
-        <v>12.40999535899802</v>
+        <v>12.4094982411886</v>
       </c>
       <c r="G1596" t="n">
-        <v>-8.962739280160363</v>
+        <v>-8.32864181413464</v>
       </c>
       <c r="H1596" t="n">
-        <v>14.1273221859858</v>
+        <v>14.15803265615191</v>
       </c>
       <c r="I1596" t="n">
-        <v>4.973810069846418</v>
+        <v>4.979633226428726</v>
       </c>
       <c r="J1596" t="n">
-        <v>15.03180054115487</v>
+        <v>15.03180935251022</v>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>-15.74575532198962</v>
+        <v>-13.7783078204183</v>
       </c>
       <c r="B1597" t="n">
-        <v>14.49536519543894</v>
+        <v>14.49595346877828</v>
       </c>
       <c r="C1597" t="n">
         <v>24.67142857142857</v>
@@ -51383,30 +51383,30 @@
         <v>15.48412857142857</v>
       </c>
       <c r="E1597" t="n">
-        <v>-12.15311306379562</v>
+        <v>-10.82099681952047</v>
       </c>
       <c r="F1597" t="n">
-        <v>12.404967533353</v>
+        <v>12.40445187545199</v>
       </c>
       <c r="G1597" t="n">
-        <v>-9.153639872152537</v>
+        <v>-8.477097419906794</v>
       </c>
       <c r="H1597" t="n">
-        <v>14.11881342086494</v>
+        <v>14.15171427542618</v>
       </c>
       <c r="I1597" t="n">
-        <v>4.737085613367088</v>
+        <v>4.750064141918951</v>
       </c>
       <c r="J1597" t="n">
-        <v>15.03077754025054</v>
+        <v>15.03079717881348</v>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="n">
-        <v>-15.962268168526</v>
+        <v>-14.0619971224462</v>
       </c>
       <c r="B1598" t="n">
-        <v>14.49041597007279</v>
+        <v>14.49098415742876</v>
       </c>
       <c r="C1598" t="n">
         <v>24.24285714285714</v>
@@ -51415,30 +51415,30 @@
         <v>15.48395714285714</v>
       </c>
       <c r="E1598" t="n">
-        <v>-12.33608828598991</v>
+        <v>-10.9561619886998</v>
       </c>
       <c r="F1598" t="n">
-        <v>12.39988305894633</v>
+        <v>12.39934889392802</v>
       </c>
       <c r="G1598" t="n">
-        <v>-9.343881672592039</v>
+        <v>-8.624115151460845</v>
       </c>
       <c r="H1598" t="n">
-        <v>14.11007201285956</v>
+        <v>14.14522130899091</v>
       </c>
       <c r="I1598" t="n">
-        <v>4.501762024362969</v>
+        <v>4.524615277329252</v>
       </c>
       <c r="J1598" t="n">
-        <v>15.02921787275207</v>
+        <v>15.02925245333222</v>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="n">
-        <v>-16.1798011709304</v>
+        <v>-14.35126700965844</v>
       </c>
       <c r="B1599" t="n">
-        <v>14.48569417172135</v>
+        <v>14.48624090951043</v>
       </c>
       <c r="C1599" t="n">
         <v>23.81428571428572</v>
@@ -51447,30 +51447,30 @@
         <v>15.48378571428571</v>
       </c>
       <c r="E1599" t="n">
-        <v>-12.51870894375086</v>
+        <v>-11.09111887799958</v>
       </c>
       <c r="F1599" t="n">
-        <v>12.39474508937587</v>
+        <v>12.39419247386655</v>
       </c>
       <c r="G1599" t="n">
-        <v>-9.533484625939602</v>
+        <v>-8.769774786639736</v>
       </c>
       <c r="H1599" t="n">
-        <v>14.10110491036243</v>
+        <v>14.13855891602771</v>
       </c>
       <c r="I1599" t="n">
-        <v>4.267811841998872</v>
+        <v>4.303176789318885</v>
       </c>
       <c r="J1599" t="n">
-        <v>15.02713192680433</v>
+        <v>15.02718543955356</v>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="n">
-        <v>-16.3983826451307</v>
+        <v>-14.64623074576652</v>
       </c>
       <c r="B1600" t="n">
-        <v>14.481206150302</v>
+        <v>14.48173004954101</v>
       </c>
       <c r="C1600" t="n">
         <v>23.38571428571429</v>
@@ -51479,30 +51479,30 @@
         <v>15.48361428571429</v>
       </c>
       <c r="E1600" t="n">
-        <v>-12.70099540406467</v>
+        <v>-11.22594895536463</v>
       </c>
       <c r="F1600" t="n">
-        <v>12.38955677823949</v>
+        <v>12.38898579251741</v>
       </c>
       <c r="G1600" t="n">
-        <v>-9.72246867665597</v>
+        <v>-8.914156103286423</v>
       </c>
       <c r="H1600" t="n">
-        <v>14.09191906176632</v>
+        <v>14.13173225571824</v>
       </c>
       <c r="I1600" t="n">
-        <v>4.035207605439614</v>
+        <v>4.085638834547119</v>
       </c>
       <c r="J1600" t="n">
-        <v>15.02453009055221</v>
+        <v>15.02460640096468</v>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="n">
-        <v>-16.61804090705475</v>
+        <v>-14.94700159448187</v>
       </c>
       <c r="B1601" t="n">
-        <v>14.47695825573213</v>
+        <v>14.47745790203822</v>
       </c>
       <c r="C1601" t="n">
         <v>22.95714285714286</v>
@@ -51511,30 +51511,30 @@
         <v>15.48344285714286</v>
       </c>
       <c r="E1601" t="n">
-        <v>-12.88296803391754</v>
+        <v>-11.36073368873976</v>
       </c>
       <c r="F1601" t="n">
-        <v>12.38432127913506</v>
+        <v>12.38373202713047</v>
       </c>
       <c r="G1601" t="n">
-        <v>-9.910853769201879</v>
+        <v>-9.057338879243856</v>
       </c>
       <c r="H1601" t="n">
-        <v>14.08252141546401</v>
+        <v>14.12474648724411</v>
       </c>
       <c r="I1601" t="n">
-        <v>3.803921853850014</v>
+        <v>3.871891569673214</v>
       </c>
       <c r="J1601" t="n">
-        <v>15.02142275214061</v>
+        <v>15.02152560105271</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="n">
-        <v>-16.83880427263043</v>
+        <v>-15.253692819516</v>
       </c>
       <c r="B1602" t="n">
-        <v>14.47295683792911</v>
+        <v>14.47343079151974</v>
       </c>
       <c r="C1602" t="n">
         <v>22.52857142857143</v>
@@ -51543,30 +51543,30 @@
         <v>15.48327142857143</v>
       </c>
       <c r="E1602" t="n">
-        <v>-13.06464720029567</v>
+        <v>-11.49555454606976</v>
       </c>
       <c r="F1602" t="n">
-        <v>12.37904174566043</v>
+        <v>12.37843435495557</v>
       </c>
       <c r="G1602" t="n">
-        <v>-10.09865984803806</v>
+        <v>-9.199402892354982</v>
       </c>
       <c r="H1602" t="n">
-        <v>14.07291891984826</v>
+        <v>14.11760676978698</v>
       </c>
       <c r="I1602" t="n">
-        <v>3.573927126394885</v>
+        <v>3.661825151356436</v>
       </c>
       <c r="J1602" t="n">
-        <v>15.01782029971441</v>
+        <v>15.01795330330481</v>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="n">
-        <v>-17.0607010577856</v>
+        <v>-15.56641768458037</v>
       </c>
       <c r="B1603" t="n">
-        <v>14.46920824681032</v>
+        <v>14.4696550425033</v>
       </c>
       <c r="C1603" t="n">
         <v>22.1</v>
@@ -51575,30 +51575,30 @@
         <v>15.4831</v>
       </c>
       <c r="E1603" t="n">
-        <v>-13.24605327018526</v>
+        <v>-11.63049299529946</v>
       </c>
       <c r="F1603" t="n">
-        <v>12.37372133141347</v>
+        <v>12.37309595324255</v>
       </c>
       <c r="G1603" t="n">
-        <v>-10.28590685762527</v>
+        <v>-9.340427920462751</v>
       </c>
       <c r="H1603" t="n">
-        <v>14.06311852331185</v>
+        <v>14.11031826252846</v>
       </c>
       <c r="I1603" t="n">
-        <v>3.345195962239041</v>
+        <v>3.455329736256044</v>
       </c>
       <c r="J1603" t="n">
-        <v>15.0137331214185</v>
+        <v>15.01389977120813</v>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="n">
-        <v>-17.28375957844815</v>
+        <v>-15.88528945338646</v>
       </c>
       <c r="B1604" t="n">
-        <v>14.46571883229314</v>
+        <v>14.46613697950662</v>
       </c>
       <c r="C1604" t="n">
         <v>21.67142857142857</v>
@@ -51607,30 +51607,30 @@
         <v>15.48292857142857</v>
       </c>
       <c r="E1604" t="n">
-        <v>-13.42720661057252</v>
+        <v>-11.76563050437365</v>
       </c>
       <c r="F1604" t="n">
-        <v>12.36836318999205</v>
+        <v>12.36771999924126</v>
       </c>
       <c r="G1604" t="n">
-        <v>-10.47261474242422</v>
+        <v>-9.480493741410115</v>
       </c>
       <c r="H1604" t="n">
-        <v>14.05312717424756</v>
+        <v>14.10288612465019</v>
       </c>
       <c r="I1604" t="n">
-        <v>3.117700900547304</v>
+        <v>3.252295481031305</v>
       </c>
       <c r="J1604" t="n">
-        <v>15.00917160539777</v>
+        <v>15.00937526824982</v>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="n">
-        <v>-17.50800815054592</v>
+        <v>-16.21042138964572</v>
       </c>
       <c r="B1605" t="n">
-        <v>14.46249494429495</v>
+        <v>14.46288292704739</v>
       </c>
       <c r="C1605" t="n">
         <v>21.24285714285714</v>
@@ -51639,30 +51639,30 @@
         <v>15.48275714285714</v>
       </c>
       <c r="E1605" t="n">
-        <v>-13.60812758844365</v>
+        <v>-11.90104854123716</v>
       </c>
       <c r="F1605" t="n">
-        <v>12.36297047499402</v>
+        <v>12.36230967020155</v>
       </c>
       <c r="G1605" t="n">
-        <v>-10.65880344689566</v>
+        <v>-9.619680133040021</v>
       </c>
       <c r="H1605" t="n">
-        <v>14.04295182104816</v>
+        <v>14.09531551533381</v>
       </c>
       <c r="I1605" t="n">
-        <v>2.891414480484483</v>
+        <v>3.052612542341478</v>
       </c>
       <c r="J1605" t="n">
-        <v>15.00414613979711</v>
+        <v>15.00439005791703</v>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="n">
-        <v>-17.7334750900068</v>
+        <v>-16.54192675706965</v>
       </c>
       <c r="B1606" t="n">
-        <v>14.45954293273313</v>
+        <v>14.45989920964332</v>
       </c>
       <c r="C1606" t="n">
         <v>20.81428571428572</v>
@@ -51671,30 +51671,30 @@
         <v>15.48258571428571</v>
       </c>
       <c r="E1606" t="n">
-        <v>-13.78883657078485</v>
+        <v>-12.03682857383478</v>
       </c>
       <c r="F1606" t="n">
-        <v>12.35754634001726</v>
+        <v>12.35686814337327</v>
       </c>
       <c r="G1606" t="n">
-        <v>-10.84449291550033</v>
+        <v>-9.758066873195425</v>
       </c>
       <c r="H1606" t="n">
-        <v>14.03259941210641</v>
+        <v>14.08761159376095</v>
       </c>
       <c r="I1606" t="n">
-        <v>2.666309241215397</v>
+        <v>2.856171076845828</v>
       </c>
       <c r="J1606" t="n">
-        <v>14.99866711276141</v>
+        <v>14.9989544036969</v>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="n">
-        <v>-17.96018871275864</v>
+        <v>-16.87991881936972</v>
       </c>
       <c r="B1607" t="n">
-        <v>14.45686914752506</v>
+        <v>14.45719215181212</v>
       </c>
       <c r="C1607" t="n">
         <v>20.38571428571429</v>
@@ -51703,30 +51703,30 @@
         <v>15.48241428571428</v>
       </c>
       <c r="E1607" t="n">
-        <v>-13.96935392458233</v>
+        <v>-12.17305207011132</v>
       </c>
       <c r="F1607" t="n">
-        <v>12.35209393865961</v>
+        <v>12.35139859600627</v>
       </c>
       <c r="G1607" t="n">
-        <v>-11.02970309269897</v>
+        <v>-9.895733739719265</v>
       </c>
       <c r="H1607" t="n">
-        <v>14.02207689581509</v>
+        <v>14.07977951911325</v>
       </c>
       <c r="I1607" t="n">
-        <v>2.442357721904862</v>
+        <v>2.66286124120362</v>
       </c>
       <c r="J1607" t="n">
-        <v>14.99274491243555</v>
+        <v>14.9930785690766</v>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="n">
-        <v>-18.18817733472932</v>
+        <v>-17.22451084025738</v>
       </c>
       <c r="B1608" t="n">
-        <v>14.45447993858812</v>
+        <v>14.45476807807152</v>
       </c>
       <c r="C1608" t="n">
         <v>19.95714285714286</v>
@@ -51735,30 +51735,30 @@
         <v>15.48224285714286</v>
       </c>
       <c r="E1608" t="n">
-        <v>-14.14970001682228</v>
+        <v>-12.3098004980116</v>
       </c>
       <c r="F1608" t="n">
-        <v>12.34661642451896</v>
+        <v>12.34590420535039</v>
       </c>
       <c r="G1608" t="n">
-        <v>-11.21445392295231</v>
+        <v>-10.0327605104545</v>
       </c>
       <c r="H1608" t="n">
-        <v>14.01139122056699</v>
+        <v>14.07182445057233</v>
       </c>
       <c r="I1608" t="n">
-        <v>2.219532461717693</v>
+        <v>2.472573192074115</v>
       </c>
       <c r="J1608" t="n">
-        <v>14.98638992696443</v>
+        <v>14.98677281754326</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="n">
-        <v>-18.41746927184672</v>
+        <v>-17.57581608344413</v>
       </c>
       <c r="B1609" t="n">
-        <v>14.45238165583968</v>
+        <v>14.4526333129392</v>
       </c>
       <c r="C1609" t="n">
         <v>19.52857142857143</v>
@@ -51767,30 +51767,30 @@
         <v>15.48207142857143</v>
       </c>
       <c r="E1609" t="n">
-        <v>-14.3298952144909</v>
+        <v>-12.44715532548042</v>
       </c>
       <c r="F1609" t="n">
-        <v>12.34111695119316</v>
+        <v>12.34038814865547</v>
       </c>
       <c r="G1609" t="n">
-        <v>-11.39876535072109</v>
+        <v>-10.16922696324408</v>
       </c>
       <c r="H1609" t="n">
-        <v>14.00054933475486</v>
+        <v>14.06375154731984</v>
       </c>
       <c r="I1609" t="n">
-        <v>1.997805999818705</v>
+        <v>2.285197086116576</v>
       </c>
       <c r="J1609" t="n">
-        <v>14.97961254449294</v>
+        <v>14.98004741258404</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="n">
-        <v>-18.64809284003868</v>
+        <v>-17.93394781264142</v>
       </c>
       <c r="B1610" t="n">
-        <v>14.45058064919712</v>
+        <v>14.45079418093289</v>
       </c>
       <c r="C1610" t="n">
         <v>19.1</v>
@@ -51799,30 +51799,30 @@
         <v>15.4819</v>
       </c>
       <c r="E1610" t="n">
-        <v>-14.50995988457441</v>
+        <v>-12.58519802046258</v>
       </c>
       <c r="F1610" t="n">
-        <v>12.33559867228007</v>
+        <v>12.33485360317138</v>
       </c>
       <c r="G1610" t="n">
-        <v>-11.58265732046604</v>
+        <v>-10.30521287593095</v>
       </c>
       <c r="H1610" t="n">
-        <v>13.98955818677149</v>
+        <v>14.05556596853741</v>
       </c>
       <c r="I1610" t="n">
-        <v>1.777150875372716</v>
+        <v>2.100623079990267</v>
       </c>
       <c r="J1610" t="n">
-        <v>14.97242315316595</v>
+        <v>14.9729126176861</v>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="n">
-        <v>-18.88007635523309</v>
+        <v>-18.29901929156076</v>
       </c>
       <c r="B1611" t="n">
-        <v>14.44908326857784</v>
+        <v>14.4492570065703</v>
       </c>
       <c r="C1611" t="n">
         <v>18.67142857142857</v>
@@ -51831,30 +51831,30 @@
         <v>15.48172857142857</v>
       </c>
       <c r="E1611" t="n">
-        <v>-14.68991439405899</v>
+        <v>-12.72401005090291</v>
       </c>
       <c r="F1611" t="n">
-        <v>12.33006474137756</v>
+        <v>12.32930374614795</v>
       </c>
       <c r="G1611" t="n">
-        <v>-11.76614977664791</v>
+        <v>-10.44079802635807</v>
       </c>
       <c r="H1611" t="n">
-        <v>13.97842472500963</v>
+        <v>14.04727287340666</v>
       </c>
       <c r="I1611" t="n">
-        <v>1.557539627544541</v>
+        <v>1.918741330354452</v>
       </c>
       <c r="J1611" t="n">
-        <v>14.96483214112837</v>
+        <v>14.96537869633657</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="n">
-        <v>-19.1134481333578</v>
+        <v>-18.67114378391358</v>
       </c>
       <c r="B1612" t="n">
-        <v>14.44789586389919</v>
+        <v>14.44802811436912</v>
       </c>
       <c r="C1612" t="n">
         <v>18.24285714285715</v>
@@ -51863,30 +51863,30 @@
         <v>15.48155714285714</v>
       </c>
       <c r="E1612" t="n">
-        <v>-14.86977910993086</v>
+        <v>-12.8636728847462</v>
       </c>
       <c r="F1612" t="n">
-        <v>12.32451831208349</v>
+        <v>12.32374175483503</v>
       </c>
       <c r="G1612" t="n">
-        <v>-11.94926266372743</v>
+        <v>-10.57606219236837</v>
       </c>
       <c r="H1612" t="n">
-        <v>13.96715589786208</v>
+        <v>14.03887742110924</v>
       </c>
       <c r="I1612" t="n">
-        <v>1.338944795498994</v>
+        <v>1.739441993868391</v>
       </c>
       <c r="J1612" t="n">
-        <v>14.95684989652508</v>
+        <v>14.95745591202261</v>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="n">
-        <v>-19.3482364903407</v>
+        <v>-19.05043455341137</v>
       </c>
       <c r="B1613" t="n">
-        <v>14.44702478507857</v>
+        <v>14.44711382884708</v>
       </c>
       <c r="C1613" t="n">
         <v>17.81428571428572</v>
@@ -51895,30 +51895,30 @@
         <v>15.48138571428571</v>
       </c>
       <c r="E1613" t="n">
-        <v>-15.04957439917622</v>
+        <v>-13.00426798993727</v>
       </c>
       <c r="F1613" t="n">
-        <v>12.31896253799572</v>
+        <v>12.31817080648247</v>
       </c>
       <c r="G1613" t="n">
-        <v>-12.13201592616534</v>
+        <v>-10.71108515180482</v>
       </c>
       <c r="H1613" t="n">
-        <v>13.9557586537216</v>
+        <v>14.03038477082678</v>
       </c>
       <c r="I1613" t="n">
-        <v>1.121338918400892</v>
+        <v>1.562615227191348</v>
       </c>
       <c r="J1613" t="n">
-        <v>14.94848680750096</v>
+        <v>14.94915452823137</v>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="n">
-        <v>-19.58446974210965</v>
+        <v>-19.43700486376562</v>
       </c>
       <c r="B1614" t="n">
-        <v>14.44647638203334</v>
+        <v>14.44652047452189</v>
       </c>
       <c r="C1614" t="n">
         <v>17.38571428571429</v>
@@ -51927,30 +51927,30 @@
         <v>15.48121428571428</v>
       </c>
       <c r="E1614" t="n">
-        <v>-15.22932062878126</v>
+        <v>-13.14587683442092</v>
       </c>
       <c r="F1614" t="n">
-        <v>12.31340057271213</v>
+        <v>12.31259407834012</v>
       </c>
       <c r="G1614" t="n">
-        <v>-12.31442950842238</v>
+        <v>-10.84594668251036</v>
       </c>
       <c r="H1614" t="n">
-        <v>13.94423994098097</v>
+        <v>14.02180008174092</v>
       </c>
       <c r="I1614" t="n">
-        <v>0.9046945354150513</v>
+        <v>1.388151186982589</v>
       </c>
       <c r="J1614" t="n">
-        <v>14.93975326220092</v>
+        <v>14.94048480845</v>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="n">
-        <v>-19.9</v>
+        <v>-19.47</v>
       </c>
       <c r="B1615" t="n">
-        <v>14.44880465116301</v>
+        <v>14.44867607973444</v>
       </c>
       <c r="C1615" t="n">
         <v>16.95714285714286</v>
@@ -51959,30 +51959,30 @@
         <v>15.48104285714285</v>
       </c>
       <c r="E1615" t="n">
-        <v>-15.40903816573219</v>
+        <v>-13.28858088614197</v>
       </c>
       <c r="F1615" t="n">
-        <v>12.30783556983057</v>
+        <v>12.30701474765782</v>
       </c>
       <c r="G1615" t="n">
-        <v>-12.49652335495928</v>
+        <v>-10.98072656232794</v>
       </c>
       <c r="H1615" t="n">
-        <v>13.93260670803295</v>
+        <v>14.01312851303328</v>
       </c>
       <c r="I1615" t="n">
-        <v>0.6889841857062868</v>
+        <v>1.215940029901374</v>
       </c>
       <c r="J1615" t="n">
-        <v>14.93065964876982</v>
+        <v>14.93145701616564</v>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="n">
-        <v>-20.33</v>
+        <v>-19.9</v>
       </c>
       <c r="B1616" t="n">
-        <v>14.44893322259158</v>
+        <v>14.44880465116301</v>
       </c>
       <c r="C1616" t="n">
         <v>16.52857142857143</v>
@@ -51991,30 +51991,30 @@
         <v>15.48087142857143</v>
       </c>
       <c r="E1616" t="n">
-        <v>-15.58874737701522</v>
+        <v>-13.43246161304521</v>
       </c>
       <c r="F1616" t="n">
-        <v>12.30227068294891</v>
+        <v>12.30143599168543</v>
       </c>
       <c r="G1616" t="n">
-        <v>-12.67831741023679</v>
+        <v>-11.11550456910051</v>
       </c>
       <c r="H1616" t="n">
-        <v>13.92086590327032</v>
+        <v>14.0043752238855</v>
       </c>
       <c r="I1616" t="n">
-        <v>0.4741804084394139</v>
+        <v>1.045871912606966</v>
       </c>
       <c r="J1616" t="n">
-        <v>14.92121635535258</v>
+        <v>14.92208141486547</v>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="n">
-        <v>-20.76</v>
+        <v>-20.33</v>
       </c>
       <c r="B1617" t="n">
-        <v>14.44906179402015</v>
+        <v>14.44893322259158</v>
       </c>
       <c r="C1617" t="n">
         <v>16.1</v>
@@ -52023,30 +52023,30 @@
         <v>15.4807</v>
       </c>
       <c r="E1617" t="n">
-        <v>-15.76846862961654</v>
+        <v>-13.57760048307547</v>
       </c>
       <c r="F1617" t="n">
-        <v>12.296709065665</v>
+        <v>12.29586098767279</v>
       </c>
       <c r="G1617" t="n">
-        <v>-12.85983161871563</v>
+        <v>-11.25036048067103</v>
       </c>
       <c r="H1617" t="n">
-        <v>13.90902447508586</v>
+        <v>13.99554537347921</v>
       </c>
       <c r="I1617" t="n">
-        <v>0.2602557427792505</v>
+        <v>0.8778369917586308</v>
       </c>
       <c r="J1617" t="n">
-        <v>14.91143377009407</v>
+        <v>14.91236826803661</v>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="n">
-        <v>-21.19</v>
+        <v>-20.76</v>
       </c>
       <c r="B1618" t="n">
-        <v>14.44919036544872</v>
+        <v>14.44906179402015</v>
       </c>
       <c r="C1618" t="n">
         <v>15.67142857142857</v>
@@ -52055,30 +52055,30 @@
         <v>15.48052857142857</v>
       </c>
       <c r="E1618" t="n">
-        <v>-15.94822229052236</v>
+        <v>-13.72407896417754</v>
       </c>
       <c r="F1618" t="n">
-        <v>12.29115387157672</v>
+        <v>12.29029291286975</v>
       </c>
       <c r="G1618" t="n">
-        <v>-13.04108592485656</v>
+        <v>-11.38537407488244</v>
       </c>
       <c r="H1618" t="n">
-        <v>13.89708937187233</v>
+        <v>13.98664412099606</v>
       </c>
       <c r="I1618" t="n">
-        <v>0.04718272789060984</v>
+        <v>0.7117254240156285</v>
       </c>
       <c r="J1618" t="n">
-        <v>14.90132228113918</v>
+        <v>14.90232783916621</v>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="n">
-        <v>-21.62</v>
+        <v>-21.19</v>
       </c>
       <c r="B1619" t="n">
-        <v>14.4493189368773</v>
+        <v>14.44919036544872</v>
       </c>
       <c r="C1619" t="n">
         <v>15.24285714285715</v>
@@ -52087,30 +52087,30 @@
         <v>15.48035714285714</v>
       </c>
       <c r="E1619" t="n">
-        <v>-16.12802872671887</v>
+        <v>-13.87197852429624</v>
       </c>
       <c r="F1619" t="n">
-        <v>12.28560825428193</v>
+        <v>12.28473494452615</v>
       </c>
       <c r="G1619" t="n">
-        <v>-13.2221002731203</v>
+        <v>-11.52062512957769</v>
       </c>
       <c r="H1619" t="n">
-        <v>13.88506754202251</v>
+        <v>13.97767662561767</v>
       </c>
       <c r="I1619" t="n">
-        <v>-0.1650660970616908</v>
+        <v>0.5474273660372238</v>
       </c>
       <c r="J1619" t="n">
-        <v>14.8908922766328</v>
+        <v>14.89197039174144</v>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="n">
-        <v>-22.05</v>
+        <v>-21.62</v>
       </c>
       <c r="B1620" t="n">
-        <v>14.44944750830587</v>
+        <v>14.4493189368773</v>
       </c>
       <c r="C1620" t="n">
         <v>14.81428571428572</v>
@@ -52119,30 +52119,30 @@
         <v>15.48018571428571</v>
       </c>
       <c r="E1620" t="n">
-        <v>-16.30790830519229</v>
+        <v>-14.02138063137637</v>
       </c>
       <c r="F1620" t="n">
-        <v>12.28007536737848</v>
+        <v>12.27919025989184</v>
       </c>
       <c r="G1620" t="n">
-        <v>-13.40289460796758</v>
+        <v>-11.65619342259973</v>
       </c>
       <c r="H1620" t="n">
-        <v>13.87296593392917</v>
+        <v>13.96864804652567</v>
       </c>
       <c r="I1620" t="n">
-        <v>-0.3765181929128358</v>
+        <v>0.3848329744826803</v>
       </c>
       <c r="J1620" t="n">
-        <v>14.88015414471983</v>
+        <v>14.88130618924944</v>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="n">
-        <v>-22.48</v>
+        <v>-22.05</v>
       </c>
       <c r="B1621" t="n">
-        <v>14.44957607973444</v>
+        <v>14.44944750830587</v>
       </c>
       <c r="C1621" t="n">
         <v>14.38571428571429</v>
@@ -52151,30 +52151,30 @@
         <v>15.48001428571428</v>
       </c>
       <c r="E1621" t="n">
-        <v>-16.4878813929288</v>
+        <v>-14.17236675336275</v>
       </c>
       <c r="F1621" t="n">
-        <v>12.27455836446425</v>
+        <v>12.27366203621667</v>
       </c>
       <c r="G1621" t="n">
-        <v>-13.58348887385916</v>
+        <v>-11.7921587317915</v>
       </c>
       <c r="H1621" t="n">
-        <v>13.86079149598509</v>
+        <v>13.95956354290171</v>
       </c>
       <c r="I1621" t="n">
-        <v>-0.5872010204980108</v>
+        <v>0.2238324060112586</v>
       </c>
       <c r="J1621" t="n">
-        <v>14.86911827354514</v>
+        <v>14.87034549517736</v>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="n">
-        <v>-22.91</v>
+        <v>-22.48</v>
       </c>
       <c r="B1622" t="n">
-        <v>14.44970465116301</v>
+        <v>14.44957607973444</v>
       </c>
       <c r="C1622" t="n">
         <v>13.95714285714286</v>
@@ -52183,30 +52183,30 @@
         <v>15.47984285714285</v>
       </c>
       <c r="E1622" t="n">
-        <v>-16.66796835691462</v>
+        <v>-14.32501835820018</v>
       </c>
       <c r="F1622" t="n">
-        <v>12.26906039913709</v>
+        <v>12.2681534507505</v>
       </c>
       <c r="G1622" t="n">
-        <v>-13.76390301525576</v>
+        <v>-11.92860083499597</v>
       </c>
       <c r="H1622" t="n">
-        <v>13.84855117658304</v>
+        <v>13.9504282739274</v>
       </c>
       <c r="I1622" t="n">
-        <v>-0.7971420406523974</v>
+        <v>0.06431581728222402</v>
       </c>
       <c r="J1622" t="n">
-        <v>14.85779505125362</v>
+        <v>14.85909857301234</v>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="n">
-        <v>-23.34</v>
+        <v>-22.91</v>
       </c>
       <c r="B1623" t="n">
-        <v>14.44983322259158</v>
+        <v>14.44970465116301</v>
       </c>
       <c r="C1623" t="n">
         <v>13.52857142857143</v>
@@ -52215,30 +52215,30 @@
         <v>15.47967142857143</v>
       </c>
       <c r="E1623" t="n">
-        <v>-16.84818956413595</v>
+        <v>-14.47941691383347</v>
       </c>
       <c r="F1623" t="n">
-        <v>12.26358462499488</v>
+        <v>12.26266768074315</v>
       </c>
       <c r="G1623" t="n">
-        <v>-13.94415697661813</v>
+        <v>-12.06559951005609</v>
       </c>
       <c r="H1623" t="n">
-        <v>13.83625192411579</v>
+        <v>13.94124739878441</v>
       </c>
       <c r="I1623" t="n">
-        <v>-1.006368714211181</v>
+        <v>-0.09382663504516042</v>
       </c>
       <c r="J1623" t="n">
-        <v>14.84619486599019</v>
+        <v>14.84757568624156</v>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="n">
-        <v>-23.77</v>
+        <v>-23.34</v>
       </c>
       <c r="B1624" t="n">
-        <v>14.44996179402015</v>
+        <v>14.44983322259158</v>
       </c>
       <c r="C1624" t="n">
         <v>13.1</v>
@@ -52247,30 +52247,30 @@
         <v>15.4795</v>
       </c>
       <c r="E1624" t="n">
-        <v>-17.02856538157899</v>
+        <v>-14.63564388820742</v>
       </c>
       <c r="F1624" t="n">
-        <v>12.25813419563547</v>
+        <v>12.25720790344449</v>
       </c>
       <c r="G1624" t="n">
-        <v>-14.124270702407</v>
+        <v>-12.20323453481479</v>
       </c>
       <c r="H1624" t="n">
-        <v>13.82390068697611</v>
+        <v>13.93202607665434</v>
       </c>
       <c r="I1624" t="n">
-        <v>-1.214908502009549</v>
+        <v>-0.2507047943116339</v>
       </c>
       <c r="J1624" t="n">
-        <v>14.8343281058997</v>
+        <v>14.83578709835214</v>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="n">
-        <v>-24.2</v>
+        <v>-23.77</v>
       </c>
       <c r="B1625" t="n">
-        <v>14.45009036544872</v>
+        <v>14.44996179402015</v>
       </c>
       <c r="C1625" t="n">
         <v>12.67142857142857</v>
@@ -52279,30 +52279,30 @@
         <v>15.47932857142857</v>
       </c>
       <c r="E1625" t="n">
-        <v>-17.20911617622993</v>
+        <v>-14.79378074926685</v>
       </c>
       <c r="F1625" t="n">
-        <v>12.25271226465673</v>
+        <v>12.25177729610436</v>
       </c>
       <c r="G1625" t="n">
-        <v>-14.30426413708311</v>
+        <v>-12.34158568711502</v>
       </c>
       <c r="H1625" t="n">
-        <v>13.81150441355678</v>
+        <v>13.92276946671884</v>
       </c>
       <c r="I1625" t="n">
-        <v>-1.422788864882681</v>
+        <v>-0.4064285038579307</v>
       </c>
       <c r="J1625" t="n">
-        <v>14.82220515912705</v>
+        <v>14.82374307283123</v>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="n">
-        <v>-24.63</v>
+        <v>-24.2</v>
       </c>
       <c r="B1626" t="n">
-        <v>14.4502189368773</v>
+        <v>14.45009036544872</v>
       </c>
       <c r="C1626" t="n">
         <v>12.24285714285715</v>
@@ -52311,30 +52311,30 @@
         <v>15.47915714285714</v>
       </c>
       <c r="E1626" t="n">
-        <v>-17.389862315075</v>
+        <v>-14.95390896495658</v>
       </c>
       <c r="F1626" t="n">
-        <v>12.24732198565652</v>
+        <v>12.24637903597261</v>
       </c>
       <c r="G1626" t="n">
-        <v>-14.48415722510719</v>
+        <v>-12.48073274479976</v>
       </c>
       <c r="H1626" t="n">
-        <v>13.79907005225058</v>
+        <v>13.91348272815954</v>
       </c>
       <c r="I1626" t="n">
-        <v>-1.630037263665763</v>
+        <v>-0.5611076070247883</v>
       </c>
       <c r="J1626" t="n">
-        <v>14.80983641381714</v>
+        <v>14.81145387316601</v>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="n">
-        <v>-25.06</v>
+        <v>-24.63</v>
       </c>
       <c r="B1627" t="n">
-        <v>14.45034750830587</v>
+        <v>14.4502189368773</v>
       </c>
       <c r="C1627" t="n">
         <v>11.81428571428572</v>
@@ -52343,30 +52343,30 @@
         <v>15.47898571428571</v>
       </c>
       <c r="E1627" t="n">
-        <v>-17.57082416510037</v>
+        <v>-15.11611000322139</v>
       </c>
       <c r="F1627" t="n">
-        <v>12.24196651223271</v>
+        <v>12.24101630029908</v>
       </c>
       <c r="G1627" t="n">
-        <v>-14.66396991094</v>
+        <v>-12.62075548571193</v>
       </c>
       <c r="H1627" t="n">
-        <v>13.78660455145027</v>
+        <v>13.90417102015807</v>
       </c>
       <c r="I1627" t="n">
-        <v>-1.836681159193978</v>
+        <v>-0.7148519471529444</v>
       </c>
       <c r="J1627" t="n">
-        <v>14.79723225811486</v>
+        <v>14.7989297628436</v>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="n">
-        <v>-25.48999999999999</v>
+        <v>-25.06</v>
       </c>
       <c r="B1628" t="n">
-        <v>14.45047607973444</v>
+        <v>14.45034750830587</v>
       </c>
       <c r="C1628" t="n">
         <v>11.38571428571429</v>
@@ -52375,30 +52375,30 @@
         <v>15.47881428571428</v>
       </c>
       <c r="E1628" t="n">
-        <v>-17.75202209329226</v>
+        <v>-15.2804653320061</v>
       </c>
       <c r="F1628" t="n">
-        <v>12.23664899798315</v>
+        <v>12.23569226633363</v>
       </c>
       <c r="G1628" t="n">
-        <v>-14.84372213904225</v>
+        <v>-12.76173368769449</v>
       </c>
       <c r="H1628" t="n">
-        <v>13.77411485954862</v>
+        <v>13.89483950189608</v>
       </c>
       <c r="I1628" t="n">
-        <v>-2.042748012302513</v>
+        <v>-0.8677713675831356</v>
       </c>
       <c r="J1628" t="n">
-        <v>14.78440308016508</v>
+        <v>14.78618100535116</v>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="n">
-        <v>-25.91999999999999</v>
+        <v>-25.48999999999999</v>
       </c>
       <c r="B1629" t="n">
-        <v>14.45060465116301</v>
+        <v>14.45047607973444</v>
       </c>
       <c r="C1629" t="n">
         <v>10.95714285714286</v>
@@ -52407,30 +52407,30 @@
         <v>15.47864285714285</v>
       </c>
       <c r="E1629" t="n">
-        <v>-17.93347646663688</v>
+        <v>-15.44705641925553</v>
       </c>
       <c r="F1629" t="n">
-        <v>12.23137259650572</v>
+        <v>12.23041011132609</v>
       </c>
       <c r="G1629" t="n">
-        <v>-15.02343385387469</v>
+        <v>-12.90374712859039</v>
       </c>
       <c r="H1629" t="n">
-        <v>13.76160792493841</v>
+        <v>13.88549333255518</v>
       </c>
       <c r="I1629" t="n">
-        <v>-2.248265283826552</v>
+        <v>-1.0199757116561</v>
       </c>
       <c r="J1629" t="n">
-        <v>14.7713592681127</v>
+        <v>14.77321786417585</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="n">
-        <v>-26.34999999999999</v>
+        <v>-25.91999999999999</v>
       </c>
       <c r="B1630" t="n">
-        <v>14.45073322259158</v>
+        <v>14.45060465116301</v>
       </c>
       <c r="C1630" t="n">
         <v>10.52857142857143</v>
@@ -52439,30 +52439,30 @@
         <v>15.47847142857142</v>
       </c>
       <c r="E1630" t="n">
-        <v>-18.11520765212041</v>
+        <v>-15.61596473291447</v>
       </c>
       <c r="F1630" t="n">
-        <v>12.22614046139828</v>
+        <v>12.22517301252633</v>
       </c>
       <c r="G1630" t="n">
-        <v>-15.20312499989805</v>
+        <v>-13.04687558624257</v>
       </c>
       <c r="H1630" t="n">
-        <v>13.74909069601242</v>
+        <v>13.87613767131703</v>
       </c>
       <c r="I1630" t="n">
-        <v>-2.453260434601276</v>
+        <v>-1.171574822712572</v>
       </c>
       <c r="J1630" t="n">
-        <v>14.75811121010261</v>
+        <v>14.7600506028048</v>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="n">
-        <v>-26.77999999999999</v>
+        <v>-26.34999999999999</v>
       </c>
       <c r="B1631" t="n">
-        <v>14.45086179402015</v>
+        <v>14.45073322259158</v>
       </c>
       <c r="C1631" t="n">
         <v>10.1</v>
@@ -52471,30 +52471,30 @@
         <v>15.4783</v>
       </c>
       <c r="E1631" t="n">
-        <v>-18.29723601672907</v>
+        <v>-15.78727174092775</v>
       </c>
       <c r="F1631" t="n">
-        <v>12.22095574625868</v>
+        <v>12.21998414718418</v>
       </c>
       <c r="G1631" t="n">
-        <v>-15.38281552157308</v>
+        <v>-13.191198838494</v>
       </c>
       <c r="H1631" t="n">
-        <v>13.73657012116342</v>
+        <v>13.86677767736324</v>
       </c>
       <c r="I1631" t="n">
-        <v>-2.657760925461871</v>
+        <v>-1.322678544093291</v>
       </c>
       <c r="J1631" t="n">
-        <v>14.74466929427969</v>
+        <v>14.74668948472518</v>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="n">
-        <v>-27.20999999999999</v>
+        <v>-26.77999999999999</v>
       </c>
       <c r="B1632" t="n">
-        <v>14.45099036544872</v>
+        <v>14.45086179402015</v>
       </c>
       <c r="C1632" t="n">
         <v>9.671428571428574</v>
@@ -52503,30 +52503,30 @@
         <v>15.47812857142857</v>
       </c>
       <c r="E1632" t="n">
-        <v>-18.47958192744905</v>
+        <v>-15.96105891124015</v>
       </c>
       <c r="F1632" t="n">
-        <v>12.21582160468479</v>
+        <v>12.21484669254949</v>
       </c>
       <c r="G1632" t="n">
-        <v>-15.56252536336051</v>
+        <v>-13.33679666318762</v>
       </c>
       <c r="H1632" t="n">
-        <v>13.72405314878417</v>
+        <v>13.85741850987546</v>
       </c>
       <c r="I1632" t="n">
-        <v>-2.861794217243523</v>
+        <v>-1.473396719138993</v>
       </c>
       <c r="J1632" t="n">
-        <v>14.73104390878884</v>
+        <v>14.73314477342413</v>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>-27.63999999999999</v>
+        <v>-27.20999999999999</v>
       </c>
       <c r="B1633" t="n">
-        <v>14.45111893687729</v>
+        <v>14.45099036544872</v>
       </c>
       <c r="C1633" t="n">
         <v>9.242857142857144</v>
@@ -52535,30 +52535,30 @@
         <v>15.47795714285714</v>
       </c>
       <c r="E1633" t="n">
-        <v>-18.66226575126657</v>
+        <v>-16.13740771179651</v>
       </c>
       <c r="F1633" t="n">
-        <v>12.21074119027449</v>
+        <v>12.20976382587211</v>
       </c>
       <c r="G1633" t="n">
-        <v>-15.74227446972108</v>
+        <v>-13.48374883816637</v>
       </c>
       <c r="H1633" t="n">
-        <v>13.71154672726746</v>
+        <v>13.84806532803531</v>
       </c>
       <c r="I1633" t="n">
-        <v>-3.065387770781414</v>
+        <v>-1.623839191190414</v>
       </c>
       <c r="J1633" t="n">
-        <v>14.71724544177495</v>
+        <v>14.7194267323888</v>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="n">
-        <v>-28.06999999999999</v>
+        <v>-27.63999999999999</v>
       </c>
       <c r="B1634" t="n">
-        <v>14.45124750830587</v>
+        <v>14.45111893687729</v>
       </c>
       <c r="C1634" t="n">
         <v>8.814285714285717</v>
@@ -52567,30 +52567,30 @@
         <v>15.47778571428571</v>
       </c>
       <c r="E1634" t="n">
-        <v>-18.8453078551678</v>
+        <v>-16.31639961054162</v>
       </c>
       <c r="F1634" t="n">
-        <v>12.20571765662562</v>
+        <v>12.20473872440189</v>
       </c>
       <c r="G1634" t="n">
-        <v>-15.92208278511553</v>
+        <v>-13.63213514127322</v>
       </c>
       <c r="H1634" t="n">
-        <v>13.69905780500605</v>
+        <v>13.83872329102445</v>
       </c>
       <c r="I1634" t="n">
-        <v>-3.268569046910728</v>
+        <v>-1.774115803588291</v>
       </c>
       <c r="J1634" t="n">
-        <v>14.70328428138289</v>
+        <v>14.70554562510634</v>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="n">
-        <v>-28.49999999999999</v>
+        <v>-28.06999999999999</v>
       </c>
       <c r="B1635" t="n">
-        <v>14.45137607973444</v>
+        <v>14.45124750830587</v>
       </c>
       <c r="C1635" t="n">
         <v>8.38571428571429</v>
@@ -52599,30 +52599,30 @@
         <v>15.47761428571428</v>
       </c>
       <c r="E1635" t="n">
-        <v>-19.02872860613898</v>
+        <v>-16.49811607542029</v>
       </c>
       <c r="F1635" t="n">
-        <v>12.20075415733605</v>
+        <v>12.19977456538868</v>
       </c>
       <c r="G1635" t="n">
-        <v>-16.10197025400459</v>
+        <v>-13.7820353503511</v>
       </c>
       <c r="H1635" t="n">
-        <v>13.68659333039272</v>
+        <v>13.82939755802448</v>
       </c>
       <c r="I1635" t="n">
-        <v>-3.47136550646665</v>
+        <v>-1.924336399673363</v>
       </c>
       <c r="J1635" t="n">
-        <v>14.68917081575757</v>
+        <v>14.6915117150639</v>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="n">
-        <v>-28.92999999999999</v>
+        <v>-28.49999999999999</v>
       </c>
       <c r="B1636" t="n">
-        <v>14.45150465116301</v>
+        <v>14.45137607973444</v>
       </c>
       <c r="C1636" t="n">
         <v>7.957142857142859</v>
@@ -52631,30 +52631,30 @@
         <v>15.47744285714285</v>
       </c>
       <c r="E1636" t="n">
-        <v>-19.21254837116629</v>
+        <v>-16.68263857437733</v>
       </c>
       <c r="F1636" t="n">
-        <v>12.19585384600366</v>
+        <v>12.19487452608232</v>
       </c>
       <c r="G1636" t="n">
-        <v>-16.281956820849</v>
+        <v>-13.93352924324297</v>
       </c>
       <c r="H1636" t="n">
-        <v>13.67416025182024</v>
+        <v>13.82009328821706</v>
       </c>
       <c r="I1636" t="n">
-        <v>-3.673804610284365</v>
+        <v>-2.074610822786365</v>
       </c>
       <c r="J1636" t="n">
-        <v>14.67491543304387</v>
+        <v>14.67733526574864</v>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="n">
-        <v>-29.35999999999999</v>
+        <v>-28.92999999999999</v>
       </c>
       <c r="B1637" t="n">
-        <v>14.45163322259158</v>
+        <v>14.45150465116301</v>
       </c>
       <c r="C1637" t="n">
         <v>7.528571428571432</v>
@@ -52663,30 +52663,30 @@
         <v>15.47727142857142</v>
       </c>
       <c r="E1637" t="n">
-        <v>-19.39678751723594</v>
+        <v>-16.87004857535754</v>
       </c>
       <c r="F1637" t="n">
-        <v>12.19101987622629</v>
+        <v>12.19004178373266</v>
       </c>
       <c r="G1637" t="n">
-        <v>-16.4620624301095</v>
+        <v>-14.08669659779178</v>
       </c>
       <c r="H1637" t="n">
-        <v>13.66176551768138</v>
+        <v>13.81081564078381</v>
       </c>
       <c r="I1637" t="n">
-        <v>-3.875913819199058</v>
+        <v>-2.225048916268035</v>
       </c>
       <c r="J1637" t="n">
-        <v>14.66052852138668</v>
+        <v>14.6630265406477</v>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="n">
-        <v>-29.78999999999999</v>
+        <v>-29.35999999999999</v>
       </c>
       <c r="B1638" t="n">
-        <v>14.45176179402015</v>
+        <v>14.45163322259158</v>
       </c>
       <c r="C1638" t="n">
         <v>7.100000000000001</v>
@@ -52695,30 +52695,30 @@
         <v>15.47709999999999</v>
       </c>
       <c r="E1638" t="n">
-        <v>-19.58146641133412</v>
+        <v>-17.06042754630575</v>
       </c>
       <c r="F1638" t="n">
-        <v>12.18625540160182</v>
+        <v>12.18527951558955</v>
       </c>
       <c r="G1638" t="n">
-        <v>-16.64230702624683</v>
+        <v>-14.24161719184048</v>
       </c>
       <c r="H1638" t="n">
-        <v>13.64941607636892</v>
+        <v>13.80156977490637</v>
       </c>
       <c r="I1638" t="n">
-        <v>-4.07772059404591</v>
+        <v>-2.375760523459109</v>
       </c>
       <c r="J1638" t="n">
-        <v>14.64602046893089</v>
+        <v>14.64859580324823</v>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="n">
-        <v>-30.21999999999999</v>
+        <v>-29.78999999999999</v>
       </c>
       <c r="B1639" t="n">
-        <v>14.45189036544872</v>
+        <v>14.45176179402015</v>
       </c>
       <c r="C1639" t="n">
         <v>6.671428571428574</v>
@@ -52727,30 +52727,30 @@
         <v>15.47692857142857</v>
       </c>
       <c r="E1639" t="n">
-        <v>-19.76660542044704</v>
+        <v>-17.25385695516675</v>
       </c>
       <c r="F1639" t="n">
-        <v>12.1815635757281</v>
+        <v>12.18059089890284</v>
       </c>
       <c r="G1639" t="n">
-        <v>-16.82271055372172</v>
+        <v>-14.39837080323201</v>
       </c>
       <c r="H1639" t="n">
-        <v>13.63711887627564</v>
+        <v>13.79236084976637</v>
       </c>
       <c r="I1639" t="n">
-        <v>-4.279252395660107</v>
+        <v>-2.526855487700324</v>
       </c>
       <c r="J1639" t="n">
-        <v>14.63140166382139</v>
+        <v>14.63405331703738</v>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="n">
-        <v>-30.64999999999999</v>
+        <v>-30.21999999999999</v>
       </c>
       <c r="B1640" t="n">
-        <v>14.45201893687729</v>
+        <v>14.45189036544872</v>
       </c>
       <c r="C1640" t="n">
         <v>6.242857142857144</v>
@@ -52759,30 +52759,30 @@
         <v>15.47675714285714</v>
       </c>
       <c r="E1640" t="n">
-        <v>-19.95222491156091</v>
+        <v>-17.45041826988535</v>
       </c>
       <c r="F1640" t="n">
-        <v>12.17694755220301</v>
+        <v>12.17597911092236</v>
       </c>
       <c r="G1640" t="n">
-        <v>-17.00329295699491</v>
+        <v>-14.55703720980933</v>
       </c>
       <c r="H1640" t="n">
-        <v>13.62488086579429</v>
+        <v>13.78319402454546</v>
       </c>
       <c r="I1640" t="n">
-        <v>-4.480536684876835</v>
+        <v>-2.678443652332418</v>
       </c>
       <c r="J1640" t="n">
-        <v>14.61668249420306</v>
+        <v>14.6194093455023</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="n">
-        <v>-31.07999999999999</v>
+        <v>-30.64999999999999</v>
       </c>
       <c r="B1641" t="n">
-        <v>14.45214750830587</v>
+        <v>14.45201893687729</v>
       </c>
       <c r="C1641" t="n">
         <v>5.814285714285717</v>
@@ -52791,30 +52791,30 @@
         <v>15.47658571428571</v>
       </c>
       <c r="E1641" t="n">
-        <v>-20.13834525166192</v>
+        <v>-17.65019295840637</v>
       </c>
       <c r="F1641" t="n">
-        <v>12.1724104846244</v>
+        <v>12.17144732889798</v>
       </c>
       <c r="G1641" t="n">
-        <v>-17.18407418052714</v>
+        <v>-14.71769618941539</v>
       </c>
       <c r="H1641" t="n">
-        <v>13.61270899331766</v>
+        <v>13.77407445842525</v>
       </c>
       <c r="I1641" t="n">
-        <v>-4.681600922531275</v>
+        <v>-2.830634860696127</v>
       </c>
       <c r="J1641" t="n">
-        <v>14.60187334822079</v>
+        <v>14.60467415213015</v>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="n">
-        <v>-31.50999999999999</v>
+        <v>-31.07999999999999</v>
       </c>
       <c r="B1642" t="n">
-        <v>14.45227607973444</v>
+        <v>14.45214750830587</v>
       </c>
       <c r="C1642" t="n">
         <v>5.38571428571429</v>
@@ -52823,30 +52823,30 @@
         <v>15.47641428571428</v>
       </c>
       <c r="E1642" t="n">
-        <v>-20.32498680773628</v>
+        <v>-17.85326248867461</v>
       </c>
       <c r="F1642" t="n">
-        <v>12.16795552659014</v>
+        <v>12.16699873007954</v>
       </c>
       <c r="G1642" t="n">
-        <v>-17.36507416877915</v>
+        <v>-14.88042751989314</v>
       </c>
       <c r="H1642" t="n">
-        <v>13.60061020723853</v>
+        <v>13.76500731058738</v>
       </c>
       <c r="I1642" t="n">
-        <v>-4.882472569458614</v>
+        <v>-2.983538956132188</v>
       </c>
       <c r="J1642" t="n">
-        <v>14.58698461401948</v>
+        <v>14.58985800040807</v>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="n">
-        <v>-31.93999999999999</v>
+        <v>-31.50999999999999</v>
       </c>
       <c r="B1643" t="n">
-        <v>14.45240465116301</v>
+        <v>14.45227607973444</v>
       </c>
       <c r="C1643" t="n">
         <v>4.957142857142859</v>
@@ -52855,30 +52855,30 @@
         <v>15.47624285714285</v>
       </c>
       <c r="E1643" t="n">
-        <v>-20.51216994677019</v>
+        <v>-18.05970832863487</v>
       </c>
       <c r="F1643" t="n">
-        <v>12.16358583169809</v>
+        <v>12.16263649171688</v>
       </c>
       <c r="G1643" t="n">
-        <v>-17.54631286621166</v>
+        <v>-15.04531097908552</v>
       </c>
       <c r="H1643" t="n">
-        <v>13.58859145594965</v>
+        <v>13.7559977402135</v>
       </c>
       <c r="I1643" t="n">
-        <v>-5.083179086494034</v>
+        <v>-3.137265781981338</v>
       </c>
       <c r="J1643" t="n">
-        <v>14.57202667974402</v>
+        <v>14.57497115382321</v>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="n">
-        <v>-32.36999999999999</v>
+        <v>-31.93999999999999</v>
       </c>
       <c r="B1644" t="n">
-        <v>14.45253322259158</v>
+        <v>14.45240465116301</v>
       </c>
       <c r="C1644" t="n">
         <v>4.528571428571432</v>
@@ -52887,30 +52887,30 @@
         <v>15.47607142857142</v>
       </c>
       <c r="E1644" t="n">
-        <v>-20.69991503574984</v>
+        <v>-18.26961194623198</v>
       </c>
       <c r="F1644" t="n">
-        <v>12.15930455354612</v>
+        <v>12.15836379105986</v>
       </c>
       <c r="G1644" t="n">
-        <v>-17.72781021728543</v>
+        <v>-15.21242634483549</v>
       </c>
       <c r="H1644" t="n">
-        <v>13.57665968784382</v>
+        <v>13.74705090648522</v>
       </c>
       <c r="I1644" t="n">
-        <v>-5.283747934472719</v>
+        <v>-3.291925181584313</v>
       </c>
       <c r="J1644" t="n">
-        <v>14.55700993353928</v>
+        <v>14.56002387586273</v>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="n">
-        <v>-32.79999999999999</v>
+        <v>-32.36999999999999</v>
       </c>
       <c r="B1645" t="n">
-        <v>14.45266179402015</v>
+        <v>14.45253322259158</v>
       </c>
       <c r="C1645" t="n">
         <v>4.100000000000001</v>
@@ -52919,30 +52919,30 @@
         <v>15.47589999999999</v>
       </c>
       <c r="E1645" t="n">
-        <v>-20.88824244166146</v>
+        <v>-18.48305480941073</v>
       </c>
       <c r="F1645" t="n">
-        <v>12.15511484573209</v>
+        <v>12.15418380535831</v>
       </c>
       <c r="G1645" t="n">
-        <v>-17.90958616646119</v>
+        <v>-15.381853394986</v>
       </c>
       <c r="H1645" t="n">
-        <v>13.56482185131378</v>
+        <v>13.7381719685842</v>
       </c>
       <c r="I1645" t="n">
-        <v>-5.484206574229856</v>
+        <v>-3.447626998281853</v>
       </c>
       <c r="J1645" t="n">
-        <v>14.54194476355016</v>
+        <v>14.54502643001376</v>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="n">
-        <v>-33.22999999999999</v>
+        <v>-32.79999999999999</v>
       </c>
       <c r="B1646" t="n">
-        <v>14.45279036544872</v>
+        <v>14.45266179402015</v>
       </c>
       <c r="C1646" t="n">
         <v>3.671428571428574</v>
@@ -52951,30 +52951,30 @@
         <v>15.47572857142857</v>
       </c>
       <c r="E1646" t="n">
-        <v>-21.07717253149123</v>
+        <v>-18.70011838611594</v>
       </c>
       <c r="F1646" t="n">
-        <v>12.15101986185386</v>
+        <v>12.1500997118621</v>
       </c>
       <c r="G1646" t="n">
-        <v>-18.09166065819967</v>
+        <v>-15.55367190737999</v>
       </c>
       <c r="H1646" t="n">
-        <v>13.55308489475234</v>
+        <v>13.72936608569205</v>
       </c>
       <c r="I1646" t="n">
-        <v>-5.684582466600628</v>
+        <v>-3.604481075414692</v>
       </c>
       <c r="J1646" t="n">
-        <v>14.52684155792155</v>
+        <v>14.52998907976347</v>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="n">
-        <v>-33.65999999999999</v>
+        <v>-33.22999999999999</v>
       </c>
       <c r="B1647" t="n">
-        <v>14.45291893687729</v>
+        <v>14.45279036544872</v>
       </c>
       <c r="C1647" t="n">
         <v>3.242857142857147</v>
@@ -52983,30 +52983,30 @@
         <v>15.47555714285714</v>
       </c>
       <c r="E1647" t="n">
-        <v>-21.26672567222536</v>
+        <v>-18.92088414429241</v>
       </c>
       <c r="F1647" t="n">
-        <v>12.14702275550929</v>
+        <v>12.14611468782106</v>
       </c>
       <c r="G1647" t="n">
-        <v>-18.27405363696162</v>
+        <v>-15.72796165986043</v>
       </c>
       <c r="H1647" t="n">
-        <v>13.54145576655224</v>
+        <v>13.72063841699042</v>
       </c>
       <c r="I1647" t="n">
-        <v>-5.884903072420219</v>
+        <v>-3.762597256323567</v>
       </c>
       <c r="J1647" t="n">
-        <v>14.51171070479833</v>
+        <v>14.514922088599</v>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="n">
-        <v>-34.08999999999999</v>
+        <v>-33.65999999999999</v>
       </c>
       <c r="B1648" t="n">
-        <v>14.45304750830587</v>
+        <v>14.45291893687729</v>
       </c>
       <c r="C1648" t="n">
         <v>2.814285714285717</v>
@@ -53015,30 +53015,30 @@
         <v>15.47538571428571</v>
       </c>
       <c r="E1648" t="n">
-        <v>-21.45692223085004</v>
+        <v>-19.14543355188495</v>
       </c>
       <c r="F1648" t="n">
-        <v>12.14312668029626</v>
+        <v>12.14223191048505</v>
       </c>
       <c r="G1648" t="n">
-        <v>-18.45678504720777</v>
+        <v>-15.90480243027024</v>
       </c>
       <c r="H1648" t="n">
-        <v>13.52994141510628</v>
+        <v>13.71199412166094</v>
       </c>
       <c r="I1648" t="n">
-        <v>-6.085195852523814</v>
+        <v>-3.922085384349218</v>
       </c>
       <c r="J1648" t="n">
-        <v>14.49656259232541</v>
+        <v>14.49983572000751</v>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="n">
-        <v>-34.51999999999999</v>
+        <v>-34.08999999999999</v>
       </c>
       <c r="B1649" t="n">
-        <v>14.45317607973444</v>
+        <v>14.45304750830587</v>
       </c>
       <c r="C1649" t="n">
         <v>2.38571428571429</v>
@@ -53047,30 +53047,30 @@
         <v>15.47521428571428</v>
       </c>
       <c r="E1649" t="n">
-        <v>-21.64778257435148</v>
+        <v>-19.37384807683837</v>
       </c>
       <c r="F1649" t="n">
-        <v>12.13933478981262</v>
+        <v>12.1384545571039</v>
       </c>
       <c r="G1649" t="n">
-        <v>-18.63987483339885</v>
+        <v>-16.08427399645239</v>
       </c>
       <c r="H1649" t="n">
-        <v>13.51854878880721</v>
+        <v>13.70343835888524</v>
       </c>
       <c r="I1649" t="n">
-        <v>-6.285488267746592</v>
+        <v>-4.083055302832376</v>
       </c>
       <c r="J1649" t="n">
-        <v>14.48140760864765</v>
+        <v>14.48474023747614</v>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="n">
-        <v>-34.94999999999999</v>
+        <v>-34.51999999999999</v>
       </c>
       <c r="B1650" t="n">
-        <v>14.45330465116301</v>
+        <v>14.45317607973444</v>
       </c>
       <c r="C1650" t="n">
         <v>1.957142857142859</v>
@@ -53079,30 +53079,30 @@
         <v>15.47504285714285</v>
       </c>
       <c r="E1650" t="n">
-        <v>-21.83932706971589</v>
+        <v>-19.60620918709748</v>
       </c>
       <c r="F1650" t="n">
-        <v>12.13565023765623</v>
+        <v>12.13478580492748</v>
       </c>
       <c r="G1650" t="n">
-        <v>-18.82334293999561</v>
+        <v>-16.26645613624983</v>
       </c>
       <c r="H1650" t="n">
-        <v>13.50728483604782</v>
+        <v>13.69497628784495</v>
       </c>
       <c r="I1650" t="n">
-        <v>-6.485807778923745</v>
+        <v>-4.245616855113785</v>
       </c>
       <c r="J1650" t="n">
-        <v>14.46625614190996</v>
+        <v>14.46964590449204</v>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="n">
-        <v>-35.37999999999999</v>
+        <v>-34.94999999999999</v>
       </c>
       <c r="B1651" t="n">
-        <v>14.45343322259158</v>
+        <v>14.45330465116301</v>
       </c>
       <c r="C1651" t="n">
         <v>1.528571428571432</v>
@@ -53111,30 +53111,30 @@
         <v>15.47487142857142</v>
       </c>
       <c r="E1651" t="n">
-        <v>-22.03157608392948</v>
+        <v>-19.84259835060708</v>
       </c>
       <c r="F1651" t="n">
-        <v>12.13207617742497</v>
+        <v>12.13122883120562</v>
       </c>
       <c r="G1651" t="n">
-        <v>-19.00720931145879</v>
+        <v>-16.4514286275055</v>
       </c>
       <c r="H1651" t="n">
-        <v>13.49615650522088</v>
+        <v>13.68661306772172</v>
       </c>
       <c r="I1651" t="n">
-        <v>-6.686181846890454</v>
+        <v>-4.409879884534178</v>
       </c>
       <c r="J1651" t="n">
-        <v>14.45111858025722</v>
+        <v>14.45456298454237</v>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>-35.80999999999999</v>
+        <v>-35.37999999999999</v>
       </c>
       <c r="B1652" t="n">
-        <v>14.45356179402015</v>
+        <v>14.45343322259158</v>
       </c>
       <c r="C1652" t="n">
         <v>1.100000000000001</v>
@@ -53143,30 +53143,30 @@
         <v>15.47469999999999</v>
       </c>
       <c r="E1652" t="n">
-        <v>-22.22454998397841</v>
+        <v>-20.08309703531199</v>
       </c>
       <c r="F1652" t="n">
-        <v>12.12861576271669</v>
+        <v>12.12778681318817</v>
       </c>
       <c r="G1652" t="n">
-        <v>-19.19149389224911</v>
+        <v>-16.63927124806236</v>
       </c>
       <c r="H1652" t="n">
-        <v>13.48517074471916</v>
+        <v>13.67835385769717</v>
       </c>
       <c r="I1652" t="n">
-        <v>-6.8866379324819</v>
+        <v>-4.57595423443429</v>
       </c>
       <c r="J1652" t="n">
-        <v>14.43600531183433</v>
+        <v>14.43950174111427</v>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="n">
-        <v>-36.23999999999999</v>
+        <v>-35.80999999999999</v>
       </c>
       <c r="B1653" t="n">
-        <v>14.45369036544872</v>
+        <v>14.45356179402015</v>
       </c>
       <c r="C1653" t="n">
         <v>0.6714285714285744</v>
@@ -53175,30 +53175,30 @@
         <v>15.47452857142856</v>
       </c>
       <c r="E1653" t="n">
-        <v>-22.41826913684893</v>
+        <v>-20.32778670915702</v>
       </c>
       <c r="F1653" t="n">
-        <v>12.12527214712926</v>
+        <v>12.12446292812499</v>
       </c>
       <c r="G1653" t="n">
-        <v>-19.37621662682732</v>
+        <v>-16.83006377576336</v>
       </c>
       <c r="H1653" t="n">
-        <v>13.47433450293543</v>
+        <v>13.67020381695294</v>
       </c>
       <c r="I1653" t="n">
-        <v>-7.087203496533275</v>
+        <v>-4.743949748154862</v>
       </c>
       <c r="J1653" t="n">
-        <v>14.42092672478616</v>
+        <v>14.4244724376949</v>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="n">
-        <v>-36.66999999999999</v>
+        <v>-36.23999999999999</v>
       </c>
       <c r="B1654" t="n">
-        <v>14.45381893687729</v>
+        <v>14.45369036544872</v>
       </c>
       <c r="C1654" t="n">
         <v>0.2428571428571473</v>
@@ -53207,30 +53207,30 @@
         <v>15.47435714285714</v>
       </c>
       <c r="E1654" t="n">
-        <v>-22.61275390952722</v>
+        <v>-20.57674884008697</v>
       </c>
       <c r="F1654" t="n">
-        <v>12.12204848426054</v>
+        <v>12.12126035326591</v>
       </c>
       <c r="G1654" t="n">
-        <v>-19.56139745965416</v>
+        <v>-17.02388598845144</v>
       </c>
       <c r="H1654" t="n">
-        <v>13.46365472826246</v>
+        <v>13.66216810467066</v>
       </c>
       <c r="I1654" t="n">
-        <v>-7.287905999879755</v>
+        <v>-4.913976269036631</v>
       </c>
       <c r="J1654" t="n">
-        <v>14.40589320725762</v>
+        <v>14.40948533777139</v>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="n">
-        <v>-37.09999999999999</v>
+        <v>-36.66999999999999</v>
       </c>
       <c r="B1655" t="n">
-        <v>14.45394750830587</v>
+        <v>14.45381893687729</v>
       </c>
       <c r="C1655" t="n">
         <v>-0.1857142857142833</v>
@@ -53239,30 +53239,30 @@
         <v>15.47418571428571</v>
       </c>
       <c r="E1655" t="n">
-        <v>-22.80802466899948</v>
+        <v>-20.83006489604665</v>
       </c>
       <c r="F1655" t="n">
-        <v>12.11894792770839</v>
+        <v>12.1181822658608</v>
       </c>
       <c r="G1655" t="n">
-        <v>-19.74705633519036</v>
+        <v>-17.22081766396955</v>
       </c>
       <c r="H1655" t="n">
-        <v>13.45313836909304</v>
+        <v>13.65425188003197</v>
       </c>
       <c r="I1655" t="n">
-        <v>-7.488772903356529</v>
+        <v>-5.08614364042033</v>
       </c>
       <c r="J1655" t="n">
-        <v>14.39091514739357</v>
+        <v>14.39455070483091</v>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="n">
-        <v>-37.52999999999999</v>
+        <v>-37.09999999999999</v>
       </c>
       <c r="B1656" t="n">
-        <v>14.45407607973444</v>
+        <v>14.45394750830587</v>
       </c>
       <c r="C1656" t="n">
         <v>-0.6142857142857103</v>
@@ -53271,30 +53271,30 @@
         <v>15.47401428571428</v>
       </c>
       <c r="E1656" t="n">
-        <v>-23.00410178225192</v>
+        <v>-21.08781634498087</v>
       </c>
       <c r="F1656" t="n">
-        <v>12.11597363107068</v>
+        <v>12.11523184315948</v>
       </c>
       <c r="G1656" t="n">
-        <v>-19.93321319789666</v>
+        <v>-17.42093858016065</v>
       </c>
       <c r="H1656" t="n">
-        <v>13.44279237381993</v>
+        <v>13.6464603022185</v>
       </c>
       <c r="I1656" t="n">
-        <v>-7.689831667798781</v>
+        <v>-5.260561705646698</v>
       </c>
       <c r="J1656" t="n">
-        <v>14.37600293333893</v>
+        <v>14.37967880236061</v>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="n">
-        <v>-37.95999999999999</v>
+        <v>-37.52999999999999</v>
       </c>
       <c r="B1657" t="n">
-        <v>14.45420465116301</v>
+        <v>14.45407607973444</v>
       </c>
       <c r="C1657" t="n">
         <v>-1.042857142857141</v>
@@ -53303,30 +53303,30 @@
         <v>15.47384285714285</v>
       </c>
       <c r="E1657" t="n">
-        <v>-23.20100561627074</v>
+        <v>-21.35008465483444</v>
       </c>
       <c r="F1657" t="n">
-        <v>12.11312874794527</v>
+        <v>12.11241226241181</v>
       </c>
       <c r="G1657" t="n">
-        <v>-20.1198879922338</v>
+        <v>-17.62432851486768</v>
       </c>
       <c r="H1657" t="n">
-        <v>13.4326236908359</v>
+        <v>13.63879853041188</v>
       </c>
       <c r="I1657" t="n">
-        <v>-7.891109754041692</v>
+        <v>-5.437340308056472</v>
       </c>
       <c r="J1657" t="n">
-        <v>14.36116695323857</v>
+        <v>14.36487989384763</v>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="n">
-        <v>-38.38999999999999</v>
+        <v>-37.95999999999999</v>
       </c>
       <c r="B1658" t="n">
-        <v>14.45433322259158</v>
+        <v>14.45420465116301</v>
       </c>
       <c r="C1658" t="n">
         <v>-1.471428571428568</v>
@@ -53335,30 +53335,30 @@
         <v>15.47367142857142</v>
       </c>
       <c r="E1658" t="n">
-        <v>-23.39875653804214</v>
+        <v>-21.61695129355216</v>
       </c>
       <c r="F1658" t="n">
-        <v>12.11041643193003</v>
+        <v>12.10972670086765</v>
       </c>
       <c r="G1658" t="n">
-        <v>-20.30710066266251</v>
+        <v>-17.8310672459336</v>
       </c>
       <c r="H1658" t="n">
-        <v>13.42263926853373</v>
+        <v>13.63127172379375</v>
       </c>
       <c r="I1658" t="n">
-        <v>-8.09263462292045</v>
+        <v>-5.61658929099039</v>
       </c>
       <c r="J1658" t="n">
-        <v>14.34641759523738</v>
+        <v>14.35016424277912</v>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="n">
-        <v>-38.81999999999999</v>
+        <v>-38.38999999999999</v>
       </c>
       <c r="B1659" t="n">
-        <v>14.45446179402015</v>
+        <v>14.45433322259158</v>
       </c>
       <c r="C1659" t="n">
         <v>-1.899999999999999</v>
@@ -53367,30 +53367,30 @@
         <v>15.47349999999999</v>
       </c>
       <c r="E1659" t="n">
-        <v>-23.59737491455232</v>
+        <v>-21.88849772907885</v>
       </c>
       <c r="F1659" t="n">
-        <v>12.10783983662282</v>
+        <v>12.10717833577683</v>
       </c>
       <c r="G1659" t="n">
-        <v>-20.49487115364354</v>
+        <v>-18.04123455120136</v>
       </c>
       <c r="H1659" t="n">
-        <v>13.41284605530619</v>
+        <v>13.62388504154575</v>
       </c>
       <c r="I1659" t="n">
-        <v>-8.294433735270239</v>
+        <v>-5.798418497789188</v>
       </c>
       <c r="J1659" t="n">
-        <v>14.33176524748026</v>
+        <v>14.33554211264224</v>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>-39.24999999999999</v>
+        <v>-38.81999999999999</v>
       </c>
       <c r="B1660" t="n">
-        <v>14.45459036544872</v>
+        <v>14.45446179402015</v>
       </c>
       <c r="C1660" t="n">
         <v>-2.328571428571426</v>
@@ -53399,30 +53399,30 @@
         <v>15.47332857142856</v>
       </c>
       <c r="E1660" t="n">
-        <v>-23.79688111278749</v>
+        <v>-22.16480542935932</v>
       </c>
       <c r="F1660" t="n">
-        <v>12.1054021156215</v>
+        <v>12.1047703443892</v>
       </c>
       <c r="G1660" t="n">
-        <v>-20.68321940963762</v>
+        <v>-18.25491020851389</v>
       </c>
       <c r="H1660" t="n">
-        <v>13.40325099954606</v>
+        <v>13.6166436428495</v>
       </c>
       <c r="I1660" t="n">
-        <v>-8.496534551926239</v>
+        <v>-5.982937771793601</v>
       </c>
       <c r="J1660" t="n">
-        <v>14.31722029811209</v>
+        <v>14.32102376692413</v>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="n">
-        <v>-39.67999999999999</v>
+        <v>-39.24999999999999</v>
       </c>
       <c r="B1661" t="n">
-        <v>14.45471893687729</v>
+        <v>14.45459036544872</v>
       </c>
       <c r="C1661" t="n">
         <v>-2.757142857142853</v>
@@ -53431,30 +53431,30 @@
         <v>15.47315714285713</v>
       </c>
       <c r="E1661" t="n">
-        <v>-23.99729549973384</v>
+        <v>-22.44595586233836</v>
       </c>
       <c r="F1661" t="n">
-        <v>12.10310642252393</v>
+        <v>12.10250590395462</v>
       </c>
       <c r="G1661" t="n">
-        <v>-20.87216537510548</v>
+        <v>-18.47217399571416</v>
       </c>
       <c r="H1661" t="n">
-        <v>13.39386104964611</v>
+        <v>13.60955268688664</v>
       </c>
       <c r="I1661" t="n">
-        <v>-8.698964533723638</v>
+        <v>-6.170256956344371</v>
       </c>
       <c r="J1661" t="n">
-        <v>14.30279313527775</v>
+        <v>14.30661946911195</v>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="n">
-        <v>-40.10999999999999</v>
+        <v>-39.67999999999999</v>
       </c>
       <c r="B1662" t="n">
-        <v>14.45484750830587</v>
+        <v>14.45471893687729</v>
       </c>
       <c r="C1662" t="n">
         <v>-3.185714285714283</v>
@@ -53463,30 +53463,30 @@
         <v>15.47298571428571</v>
       </c>
       <c r="E1662" t="n">
-        <v>-24.19863844237758</v>
+        <v>-22.73203049596079</v>
       </c>
       <c r="F1662" t="n">
-        <v>12.10095591092799</v>
+        <v>12.10038819172292</v>
       </c>
       <c r="G1662" t="n">
-        <v>-21.06172899450787</v>
+        <v>-18.69310569064512</v>
       </c>
       <c r="H1662" t="n">
-        <v>13.3846831539991</v>
+        <v>13.6026173328388</v>
       </c>
       <c r="I1662" t="n">
-        <v>-8.901751141497618</v>
+        <v>-6.360485894782228</v>
       </c>
       <c r="J1662" t="n">
-        <v>14.28849414712215</v>
+        <v>14.29233948269284</v>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="n">
-        <v>-40.53999999999998</v>
+        <v>-40.10999999999999</v>
       </c>
       <c r="B1663" t="n">
-        <v>14.45497607973444</v>
+        <v>14.45484750830587</v>
       </c>
       <c r="C1663" t="n">
         <v>-3.61428571428571</v>
@@ -53495,30 +53495,30 @@
         <v>15.47281428571428</v>
       </c>
       <c r="E1663" t="n">
-        <v>-24.40093030770492</v>
+        <v>-23.02311079817143</v>
       </c>
       <c r="F1663" t="n">
-        <v>12.09895373443152</v>
+        <v>12.09842038494396</v>
       </c>
       <c r="G1663" t="n">
-        <v>-21.25193021230552</v>
+        <v>-18.91778507114971</v>
       </c>
       <c r="H1663" t="n">
-        <v>13.37572426099782</v>
+        <v>13.59584273988763</v>
       </c>
       <c r="I1663" t="n">
-        <v>-9.104921836083367</v>
+        <v>-6.553734430447914</v>
       </c>
       <c r="J1663" t="n">
-        <v>14.27433372179016</v>
+        <v>14.27819407115395</v>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>-40.96999999999998</v>
+        <v>-40.53999999999998</v>
       </c>
       <c r="B1664" t="n">
-        <v>14.45510465116301</v>
+        <v>14.45497607973444</v>
       </c>
       <c r="C1664" t="n">
         <v>-4.042857142857137</v>
@@ -53527,30 +53527,30 @@
         <v>15.47264285714285</v>
       </c>
       <c r="E1664" t="n">
-        <v>-24.60419146270205</v>
+        <v>-23.31927823691506</v>
       </c>
       <c r="F1664" t="n">
-        <v>12.09710304663241</v>
+        <v>12.09660566086758</v>
       </c>
       <c r="G1664" t="n">
-        <v>-21.44278897295917</v>
+        <v>-19.14629191507088</v>
       </c>
       <c r="H1664" t="n">
-        <v>13.36699131903504</v>
+        <v>13.58923406721474</v>
       </c>
       <c r="I1664" t="n">
-        <v>-9.308504078316068</v>
+        <v>-6.750112406682167</v>
       </c>
       <c r="J1664" t="n">
-        <v>14.26032224742668</v>
+        <v>14.26419349798244</v>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="n">
-        <v>-41.39999999999998</v>
+        <v>-40.96999999999998</v>
       </c>
       <c r="B1665" t="n">
-        <v>14.45523322259158</v>
+        <v>14.45510465116301</v>
       </c>
       <c r="C1665" t="n">
         <v>-4.471428571428568</v>
@@ -53559,30 +53559,30 @@
         <v>15.47247142857142</v>
       </c>
       <c r="E1665" t="n">
-        <v>-24.80844227435517</v>
+        <v>-23.62061428013652</v>
       </c>
       <c r="F1665" t="n">
-        <v>12.0954070011285</v>
+        <v>12.09494719674364</v>
       </c>
       <c r="G1665" t="n">
-        <v>-21.63432522092956</v>
+        <v>-19.37870600025158</v>
       </c>
       <c r="H1665" t="n">
-        <v>13.35849127650352</v>
+        <v>13.58279647400178</v>
       </c>
       <c r="I1665" t="n">
-        <v>-9.5125253290309</v>
+        <v>-6.94972966682572</v>
       </c>
       <c r="J1665" t="n">
-        <v>14.2464701121766</v>
+        <v>14.25034802666546</v>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="n">
-        <v>-41.82999999999998</v>
+        <v>-41.39999999999998</v>
       </c>
       <c r="B1666" t="n">
-        <v>14.45536179402015</v>
+        <v>14.45523322259158</v>
       </c>
       <c r="C1666" t="n">
         <v>-4.899999999999999</v>
@@ -53591,30 +53591,30 @@
         <v>15.47229999999999</v>
       </c>
       <c r="E1666" t="n">
-        <v>-25.01370310965049</v>
+        <v>-23.92720039578061</v>
       </c>
       <c r="F1666" t="n">
-        <v>12.09386875151767</v>
+        <v>12.09344816982198</v>
       </c>
       <c r="G1666" t="n">
-        <v>-21.82655890067743</v>
+        <v>-19.61510710453477</v>
       </c>
       <c r="H1666" t="n">
-        <v>13.35023108179605</v>
+        <v>13.57653511943039</v>
       </c>
       <c r="I1666" t="n">
-        <v>-9.717013049063056</v>
+        <v>-7.152696054219311</v>
       </c>
       <c r="J1666" t="n">
-        <v>14.2327877041848</v>
+        <v>14.23666792069015</v>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="n">
-        <v>-42.25999999999998</v>
+        <v>-41.82999999999998</v>
       </c>
       <c r="B1667" t="n">
-        <v>14.45549036544872</v>
+        <v>14.45536179402015</v>
       </c>
       <c r="C1667" t="n">
         <v>-5.328571428571422</v>
@@ -53623,30 +53623,30 @@
         <v>15.47212857142856</v>
       </c>
       <c r="E1667" t="n">
-        <v>-25.21999433557421</v>
+        <v>-24.23911805179212</v>
       </c>
       <c r="F1667" t="n">
-        <v>12.09249145139777</v>
+        <v>12.09211175735244</v>
       </c>
       <c r="G1667" t="n">
-        <v>-22.01950995666351</v>
+        <v>-19.8555750057634</v>
       </c>
       <c r="H1667" t="n">
-        <v>13.3422176833054</v>
+        <v>13.57045516268219</v>
       </c>
       <c r="I1667" t="n">
-        <v>-9.921994699247712</v>
+        <v>-7.359121412203677</v>
       </c>
       <c r="J1667" t="n">
-        <v>14.21928541159617</v>
+        <v>14.22316344354367</v>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="n">
-        <v>-42.68999999999998</v>
+        <v>-42.25999999999998</v>
       </c>
       <c r="B1668" t="n">
-        <v>14.45561893687729</v>
+        <v>14.45549036544872</v>
       </c>
       <c r="C1668" t="n">
         <v>-5.757142857142853</v>
@@ -53655,30 +53655,30 @@
         <v>15.47195714285713</v>
       </c>
       <c r="E1668" t="n">
-        <v>-25.42733631911254</v>
+        <v>-24.55644871611587</v>
       </c>
       <c r="F1668" t="n">
-        <v>12.09127825436668</v>
+        <v>12.09094113658487</v>
       </c>
       <c r="G1668" t="n">
-        <v>-22.21319833334853</v>
+        <v>-20.1001894817804</v>
       </c>
       <c r="H1668" t="n">
-        <v>13.33445802942433</v>
+        <v>13.56456176293881</v>
       </c>
       <c r="I1668" t="n">
-        <v>-10.12749774042006</v>
+        <v>-7.569115584119555</v>
       </c>
       <c r="J1668" t="n">
-        <v>14.2059736225556</v>
+        <v>14.20984485871316</v>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="n">
-        <v>-43.11999999999998</v>
+        <v>-42.68999999999998</v>
       </c>
       <c r="B1669" t="n">
-        <v>14.45574750830587</v>
+        <v>14.45561893687729</v>
       </c>
       <c r="C1669" t="n">
         <v>-6.185714285714283</v>
@@ -53687,30 +53687,30 @@
         <v>15.4717857142857</v>
       </c>
       <c r="E1669" t="n">
-        <v>-25.63574942725166</v>
+        <v>-24.87927385669667</v>
       </c>
       <c r="F1669" t="n">
-        <v>12.09023231402225</v>
+        <v>12.08993948476913</v>
       </c>
       <c r="G1669" t="n">
-        <v>-22.40764397519325</v>
+        <v>-20.34903031042873</v>
       </c>
       <c r="H1669" t="n">
-        <v>13.32695906854563</v>
+        <v>13.5588600793819</v>
       </c>
       <c r="I1669" t="n">
-        <v>-10.33354963341527</v>
+        <v>-7.782788413307684</v>
       </c>
       <c r="J1669" t="n">
-        <v>14.19286272520798</v>
+        <v>14.19672242968578</v>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="n">
-        <v>-43.54999999999998</v>
+        <v>-43.11999999999998</v>
       </c>
       <c r="B1670" t="n">
-        <v>14.45587607973444</v>
+        <v>14.45574750830587</v>
       </c>
       <c r="C1670" t="n">
         <v>-6.614285714285714</v>
@@ -53719,30 +53719,30 @@
         <v>15.47161428571428</v>
       </c>
       <c r="E1670" t="n">
-        <v>-25.84525402697779</v>
+        <v>-25.20767494147934</v>
       </c>
       <c r="F1670" t="n">
-        <v>12.08935678396235</v>
+        <v>12.08910997915506</v>
       </c>
       <c r="G1670" t="n">
-        <v>-22.60286682665839</v>
+        <v>-20.60217726955135</v>
       </c>
       <c r="H1670" t="n">
-        <v>13.31972774906206</v>
+        <v>13.55335527119308</v>
       </c>
       <c r="I1670" t="n">
-        <v>-10.54017783906855</v>
+        <v>-8.000249743108798</v>
       </c>
       <c r="J1670" t="n">
-        <v>14.1799631076982</v>
+        <v>14.18380641994867</v>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="n">
-        <v>-43.97999999999998</v>
+        <v>-43.54999999999998</v>
       </c>
       <c r="B1671" t="n">
-        <v>14.45600465116301</v>
+        <v>14.45587607973444</v>
       </c>
       <c r="C1671" t="n">
         <v>-7.042857142857137</v>
@@ -53751,30 +53751,30 @@
         <v>15.47144285714285</v>
       </c>
       <c r="E1671" t="n">
-        <v>-26.05587048527714</v>
+        <v>-25.54173343840866</v>
       </c>
       <c r="F1671" t="n">
-        <v>12.08865481778484</v>
+        <v>12.0884557969925</v>
       </c>
       <c r="G1671" t="n">
-        <v>-22.79888683220468</v>
+        <v>-20.8597101369912</v>
       </c>
       <c r="H1671" t="n">
-        <v>13.3127710193664</v>
+        <v>13.548052497554</v>
       </c>
       <c r="I1671" t="n">
-        <v>-10.74740981821506</v>
+        <v>-8.221609416863634</v>
       </c>
       <c r="J1671" t="n">
-        <v>14.16728515817115</v>
+        <v>14.17110709298899</v>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="n">
-        <v>-44.40999999999998</v>
+        <v>-43.97999999999998</v>
       </c>
       <c r="B1672" t="n">
-        <v>14.45613322259158</v>
+        <v>14.45600465116301</v>
       </c>
       <c r="C1672" t="n">
         <v>-7.471428571428568</v>
@@ -53783,30 +53783,30 @@
         <v>15.47127142857142</v>
       </c>
       <c r="E1672" t="n">
-        <v>-26.2676191691359</v>
+        <v>-25.88153081542947</v>
       </c>
       <c r="F1672" t="n">
-        <v>12.08812956908758</v>
+        <v>12.08798011553131</v>
       </c>
       <c r="G1672" t="n">
-        <v>-22.99572393629289</v>
+        <v>-21.12170869059124</v>
       </c>
       <c r="H1672" t="n">
-        <v>13.30609582785142</v>
+        <v>13.54295691764628</v>
       </c>
       <c r="I1672" t="n">
-        <v>-10.95527303169</v>
+        <v>-8.446977277912932</v>
       </c>
       <c r="J1672" t="n">
-        <v>14.15483926477172</v>
+        <v>14.15863471229388</v>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="n">
-        <v>-44.83999999999998</v>
+        <v>-44.40999999999998</v>
       </c>
       <c r="B1673" t="n">
-        <v>14.45626179402015</v>
+        <v>14.45613322259158</v>
       </c>
       <c r="C1673" t="n">
         <v>-7.899999999999999</v>
@@ -53815,30 +53815,30 @@
         <v>15.47109999999999</v>
       </c>
       <c r="E1673" t="n">
-        <v>-26.48052044554026</v>
+        <v>-26.22714854048656</v>
       </c>
       <c r="F1673" t="n">
-        <v>12.08778419146844</v>
+        <v>12.08768611202133</v>
       </c>
       <c r="G1673" t="n">
-        <v>-23.19339808338372</v>
+        <v>-21.3882527081944</v>
       </c>
       <c r="H1673" t="n">
-        <v>13.29970912290989</v>
+        <v>13.53807369065155</v>
       </c>
       <c r="I1673" t="n">
-        <v>-11.16379494032855</v>
+        <v>-8.676463169597426</v>
       </c>
       <c r="J1673" t="n">
-        <v>14.14263581564479</v>
+        <v>14.1463995413505</v>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="n">
-        <v>-45.26999999999998</v>
+        <v>-44.83999999999998</v>
       </c>
       <c r="B1674" t="n">
-        <v>14.45639036544872</v>
+        <v>14.45626179402015</v>
       </c>
       <c r="C1674" t="n">
         <v>-8.328571428571422</v>
@@ -53847,30 +53847,30 @@
         <v>15.47092857142856</v>
       </c>
       <c r="E1674" t="n">
-        <v>-26.69459468147644</v>
+        <v>-26.57866808152474</v>
       </c>
       <c r="F1674" t="n">
-        <v>12.08762183852529</v>
+        <v>12.0875769637124</v>
       </c>
       <c r="G1674" t="n">
-        <v>-23.39192921793794</v>
+        <v>-21.65942196764366</v>
       </c>
       <c r="H1674" t="n">
-        <v>13.29361785293459</v>
+        <v>13.53340797575146</v>
       </c>
       <c r="I1674" t="n">
-        <v>-11.37300300496589</v>
+        <v>-8.910176935257851</v>
       </c>
       <c r="J1674" t="n">
-        <v>14.13068519893525</v>
+        <v>14.134411843646</v>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="n">
-        <v>-45.69999999999998</v>
+        <v>-45.26999999999998</v>
       </c>
       <c r="B1675" t="n">
-        <v>14.45651893687729</v>
+        <v>14.45639036544872</v>
       </c>
       <c r="C1675" t="n">
         <v>-8.757142857142853</v>
@@ -53885,24 +53885,24 @@
         <v>12.08432419354878</v>
       </c>
       <c r="G1675" t="n">
-        <v>-23.59133728441626</v>
+        <v>-21.93529624678193</v>
       </c>
       <c r="H1675" t="n">
-        <v>13.28782896631829</v>
+        <v>13.52896493212764</v>
       </c>
       <c r="I1675" t="n">
-        <v>-11.58292468643721</v>
+        <v>-9.148228418234954</v>
       </c>
       <c r="J1675" t="n">
-        <v>14.118997802788</v>
+        <v>14.12268188266752</v>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="n">
-        <v>-46.12999999999998</v>
+        <v>-45.69999999999998</v>
       </c>
       <c r="B1676" t="n">
-        <v>14.45664750830587</v>
+        <v>14.45651893687729</v>
       </c>
       <c r="C1676" t="n">
         <v>-9.185714285714283</v>
@@ -53917,24 +53917,24 @@
         <v>12.08417419354878</v>
       </c>
       <c r="G1676" t="n">
-        <v>-23.79164222727943</v>
+        <v>-22.21595532345219</v>
       </c>
       <c r="H1676" t="n">
-        <v>13.28234941145377</v>
+        <v>13.52474971896171</v>
       </c>
       <c r="I1676" t="n">
-        <v>-11.79358744557768</v>
+        <v>-9.390727461869458</v>
       </c>
       <c r="J1676" t="n">
-        <v>14.10758401534792</v>
+        <v>14.11121992190222</v>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="n">
-        <v>-46.55999999999998</v>
+        <v>-46.12999999999998</v>
       </c>
       <c r="B1677" t="n">
-        <v>14.45677607973444</v>
+        <v>14.45664750830587</v>
       </c>
       <c r="C1677" t="n">
         <v>-9.614285714285714</v>
@@ -53949,24 +53949,24 @@
         <v>12.08402419354878</v>
       </c>
       <c r="G1677" t="n">
-        <v>-23.99286399098819</v>
+        <v>-22.50147897549738</v>
       </c>
       <c r="H1677" t="n">
-        <v>13.27718613673379</v>
+        <v>13.52076749543532</v>
       </c>
       <c r="I1677" t="n">
-        <v>-12.00501874322251</v>
+        <v>-9.63778390950211</v>
       </c>
       <c r="J1677" t="n">
-        <v>14.0964542247599</v>
+        <v>14.10003622483724</v>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="n">
-        <v>-46.98999999999998</v>
+        <v>-46.55999999999998</v>
       </c>
       <c r="B1678" t="n">
-        <v>14.45690465116301</v>
+        <v>14.45677607973444</v>
       </c>
       <c r="C1678" t="n">
         <v>-10.04285714285714</v>
@@ -53981,24 +53981,24 @@
         <v>12.08387419354878</v>
       </c>
       <c r="G1678" t="n">
-        <v>-24.19502252000327</v>
+        <v>-22.79194698076046</v>
       </c>
       <c r="H1678" t="n">
-        <v>13.27234609055113</v>
+        <v>13.5170234207301</v>
       </c>
       <c r="I1678" t="n">
-        <v>-12.21724604020686</v>
+        <v>-9.889507604473639</v>
       </c>
       <c r="J1678" t="n">
-        <v>14.08561881916883</v>
+        <v>14.08914105495974</v>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="n">
-        <v>-47.41999999999998</v>
+        <v>-46.98999999999998</v>
       </c>
       <c r="B1679" t="n">
-        <v>14.45703322259158</v>
+        <v>14.45690465116301</v>
       </c>
       <c r="C1679" t="n">
         <v>-10.47142857142857</v>
@@ -54013,24 +54013,24 @@
         <v>12.08372419354878</v>
       </c>
       <c r="G1679" t="n">
-        <v>-24.39813775878542</v>
+        <v>-23.08743911708436</v>
       </c>
       <c r="H1679" t="n">
-        <v>13.26783622129856</v>
+        <v>13.51352265402768</v>
       </c>
       <c r="I1679" t="n">
-        <v>-12.43029679736594</v>
+        <v>-10.14600839012479</v>
       </c>
       <c r="J1679" t="n">
-        <v>14.0750881867196</v>
+        <v>14.07854467575686</v>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="n">
-        <v>-47.84999999999998</v>
+        <v>-47.41999999999998</v>
       </c>
       <c r="B1680" t="n">
-        <v>14.45716179402015</v>
+        <v>14.45703322259158</v>
       </c>
       <c r="C1680" t="n">
         <v>-10.9</v>
@@ -54045,24 +54045,24 @@
         <v>12.08357419354878</v>
       </c>
       <c r="G1680" t="n">
-        <v>-24.60222965179537</v>
+        <v>-23.38803516231204</v>
       </c>
       <c r="H1680" t="n">
-        <v>13.26366347736886</v>
+        <v>13.51027035450969</v>
       </c>
       <c r="I1680" t="n">
-        <v>-12.64419847553491</v>
+        <v>-10.4073961097963</v>
       </c>
       <c r="J1680" t="n">
-        <v>14.06487271555709</v>
+        <v>14.06825735071577</v>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="n">
-        <v>-48.27999999999998</v>
+        <v>-47.84999999999998</v>
       </c>
       <c r="B1681" t="n">
-        <v>14.45729036544872</v>
+        <v>14.45716179402015</v>
       </c>
       <c r="C1681" t="n">
         <v>-11.32857142857142</v>
@@ -54077,24 +54077,24 @@
         <v>12.08342419354878</v>
       </c>
       <c r="G1681" t="n">
-        <v>-24.80731814349384</v>
+        <v>-23.69381489428646</v>
       </c>
       <c r="H1681" t="n">
-        <v>13.25983480715479</v>
+        <v>13.50727168135778</v>
       </c>
       <c r="I1681" t="n">
-        <v>-12.85897853554895</v>
+        <v>-10.6737806068289</v>
       </c>
       <c r="J1681" t="n">
-        <v>14.05498279382619</v>
+        <v>14.0582893433236</v>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="n">
-        <v>-48.70999999999998</v>
+        <v>-48.27999999999998</v>
       </c>
       <c r="B1682" t="n">
-        <v>14.45741893687729</v>
+        <v>14.45729036544872</v>
       </c>
       <c r="C1682" t="n">
         <v>-11.75714285714285</v>
@@ -54109,24 +54109,24 @@
         <v>12.08327419354878</v>
       </c>
       <c r="G1682" t="n">
-        <v>-25.01342317834161</v>
+        <v>-24.00485809085056</v>
       </c>
       <c r="H1682" t="n">
-        <v>13.25635715904914</v>
+        <v>13.50453179375357</v>
       </c>
       <c r="I1682" t="n">
-        <v>-13.07466443824327</v>
+        <v>-10.94527172456333</v>
       </c>
       <c r="J1682" t="n">
-        <v>14.04542880967181</v>
+        <v>14.0486509170675</v>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="n">
-        <v>-49.13999999999998</v>
+        <v>-48.70999999999998</v>
       </c>
       <c r="B1683" t="n">
-        <v>14.45754750830586</v>
+        <v>14.45741893687729</v>
       </c>
       <c r="C1683" t="n">
         <v>-12.18571428571428</v>
@@ -54141,24 +54141,24 @@
         <v>12.08312419354878</v>
       </c>
       <c r="G1683" t="n">
-        <v>-25.22056470079938</v>
+        <v>-24.32124452984728</v>
       </c>
       <c r="H1683" t="n">
-        <v>13.25323748144467</v>
+        <v>13.5020558508787</v>
       </c>
       <c r="I1683" t="n">
-        <v>-13.29128364445304</v>
+        <v>-11.22197930634032</v>
       </c>
       <c r="J1683" t="n">
-        <v>14.03622115123881</v>
+        <v>14.03935233543464</v>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="n">
-        <v>-49.56999999999998</v>
+        <v>-49.13999999999998</v>
       </c>
       <c r="B1684" t="n">
-        <v>14.45767607973444</v>
+        <v>14.45754750830586</v>
       </c>
       <c r="C1684" t="n">
         <v>-12.61428571428571</v>
@@ -54173,19 +54173,25 @@
         <v>12.08297419354878</v>
       </c>
       <c r="G1684" t="n">
-        <v>-25.42876265532789</v>
+        <v>-24.64305398911959</v>
       </c>
       <c r="H1684" t="n">
-        <v>13.25048272273416</v>
+        <v>13.4998490119148</v>
       </c>
       <c r="I1684" t="n">
-        <v>-13.50886361501345</v>
+        <v>-11.50401319550062</v>
       </c>
       <c r="J1684" t="n">
-        <v>14.0273702066721</v>
+        <v>14.03040386191215</v>
       </c>
     </row>
     <row r="1685">
+      <c r="A1685" t="n">
+        <v>-49.56999999999998</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>14.45767607973444</v>
+      </c>
       <c r="C1685" t="n">
         <v>-13.04285714285714</v>
       </c>
@@ -54199,16 +54205,16 @@
         <v>12.08282419354878</v>
       </c>
       <c r="G1685" t="n">
-        <v>-25.6380369863879</v>
+        <v>-24.97036624651042</v>
       </c>
       <c r="H1685" t="n">
-        <v>13.24809983131038</v>
+        <v>13.49791643604351</v>
       </c>
       <c r="I1685" t="n">
-        <v>-13.72743181075967</v>
+        <v>-11.79148323538496</v>
       </c>
       <c r="J1685" t="n">
-        <v>14.01888636411655</v>
+        <v>14.02181575998719</v>
       </c>
     </row>
     <row r="1686">
@@ -54225,16 +54231,16 @@
         <v>12.08267419354878</v>
       </c>
       <c r="G1686" t="n">
-        <v>-25.84840763844013</v>
+        <v>-25.30326107986274</v>
       </c>
       <c r="H1686" t="n">
-        <v>13.24609575556611</v>
+        <v>13.49626328244645</v>
       </c>
       <c r="I1686" t="n">
-        <v>-13.9470156925269</v>
+        <v>-12.08449926933407</v>
       </c>
       <c r="J1686" t="n">
-        <v>14.01078001171707</v>
+        <v>14.0135982931469</v>
       </c>
     </row>
     <row r="1687">
@@ -54251,16 +54257,16 @@
         <v>12.08252419354878</v>
       </c>
       <c r="G1687" t="n">
-        <v>-26.05989455594532</v>
+        <v>-25.64181826701948</v>
       </c>
       <c r="H1687" t="n">
-        <v>13.24447744389411</v>
+        <v>13.49489471030527</v>
       </c>
       <c r="I1687" t="n">
-        <v>-14.16764272115032</v>
+        <v>-12.3831711406887</v>
       </c>
       <c r="J1687" t="n">
-        <v>14.00306153761854</v>
+        <v>14.00576172487844</v>
       </c>
     </row>
     <row r="1688">
@@ -54277,16 +54283,16 @@
         <v>12.08237419354878</v>
       </c>
       <c r="G1688" t="n">
-        <v>-26.2725176833642</v>
+        <v>-25.98611758582361</v>
       </c>
       <c r="H1688" t="n">
-        <v>13.24325184468716</v>
+        <v>13.4938158788016</v>
       </c>
       <c r="I1688" t="n">
-        <v>-14.38934035746511</v>
+        <v>-12.68760869278958</v>
       </c>
       <c r="J1688" t="n">
-        <v>13.99574132996583</v>
+        <v>13.99831631866896</v>
       </c>
     </row>
     <row r="1689">
@@ -54303,16 +54309,16 @@
         <v>12.08222419354878</v>
       </c>
       <c r="G1689" t="n">
-        <v>-26.48629696515753</v>
+        <v>-26.33623881411806</v>
       </c>
       <c r="H1689" t="n">
-        <v>13.24242590633804</v>
+        <v>13.49303194711707</v>
       </c>
       <c r="I1689" t="n">
-        <v>-14.61213606230645</v>
+        <v>-12.99792176897745</v>
       </c>
       <c r="J1689" t="n">
-        <v>13.98882977690386</v>
+        <v>13.99127233800561</v>
       </c>
     </row>
     <row r="1690">
@@ -54329,16 +54335,16 @@
         <v>12.08207419354878</v>
       </c>
       <c r="G1690" t="n">
-        <v>-26.70125234578602</v>
+        <v>-26.6922617297458</v>
       </c>
       <c r="H1690" t="n">
-        <v>13.24200657723951</v>
+        <v>13.49254807443332</v>
       </c>
       <c r="I1690" t="n">
-        <v>-14.83605729650954</v>
+        <v>-13.31422021259304</v>
       </c>
       <c r="J1690" t="n">
-        <v>13.9823372665775</v>
+        <v>13.98464004637554</v>
       </c>
     </row>
     <row r="1691">
@@ -54358,13 +54364,13 @@
         <v>-27.05</v>
       </c>
       <c r="H1691" t="n">
-        <v>13.24980201612938</v>
+        <v>13.50033588709703</v>
       </c>
       <c r="I1691" t="n">
-        <v>-15.06113152090955</v>
+        <v>-13.63661386697709</v>
       </c>
       <c r="J1691" t="n">
-        <v>13.97627418713165</v>
+        <v>13.97842970726589</v>
       </c>
     </row>
     <row r="1692">
@@ -54384,13 +54390,13 @@
         <v>-27.4375</v>
       </c>
       <c r="H1692" t="n">
-        <v>13.25013951612938</v>
+        <v>13.50067338709703</v>
       </c>
       <c r="I1692" t="n">
-        <v>-15.28738619634167</v>
+        <v>-13.96521257547034</v>
       </c>
       <c r="J1692" t="n">
-        <v>13.97065092671118</v>
+        <v>13.97265158416382</v>
       </c>
     </row>
     <row r="1693">
@@ -54410,13 +54416,13 @@
         <v>-27.825</v>
       </c>
       <c r="H1693" t="n">
-        <v>13.25047701612938</v>
+        <v>13.50101088709703</v>
       </c>
       <c r="I1693" t="n">
-        <v>-15.51484878364109</v>
+        <v>-14.30012618141353</v>
       </c>
       <c r="J1693" t="n">
-        <v>13.965477873461</v>
+        <v>13.96731594055647</v>
       </c>
     </row>
     <row r="1694">
@@ -54436,13 +54442,13 @@
         <v>-28.2125</v>
       </c>
       <c r="H1694" t="n">
-        <v>13.25081451612938</v>
+        <v>13.50134838709703</v>
       </c>
       <c r="I1694" t="n">
-        <v>-15.74354674364298</v>
+        <v>-14.64146452814739</v>
       </c>
       <c r="J1694" t="n">
-        <v>13.96076541552598</v>
+        <v>13.96243303993101</v>
       </c>
     </row>
     <row r="1695">
@@ -54462,13 +54468,13 @@
         <v>-28.6</v>
       </c>
       <c r="H1695" t="n">
-        <v>13.25115201612938</v>
+        <v>13.50168588709703</v>
       </c>
       <c r="I1695" t="n">
-        <v>-15.97350753718254</v>
+        <v>-14.98933745901266</v>
       </c>
       <c r="J1695" t="n">
-        <v>13.95652394105103</v>
+        <v>13.95801314577458</v>
       </c>
     </row>
     <row r="1696">
@@ -54488,13 +54494,13 @@
         <v>-28.9875</v>
       </c>
       <c r="H1696" t="n">
-        <v>13.25148951612938</v>
+        <v>13.50202338709703</v>
       </c>
       <c r="I1696" t="n">
-        <v>-16.20475862509494</v>
+        <v>-15.34385481735008</v>
       </c>
       <c r="J1696" t="n">
-        <v>13.95276383818102</v>
+        <v>13.95406652157432</v>
       </c>
     </row>
     <row r="1697">
@@ -54514,13 +54520,13 @@
         <v>-29.375</v>
       </c>
       <c r="H1697" t="n">
-        <v>13.25182701612938</v>
+        <v>13.50236088709703</v>
       </c>
       <c r="I1697" t="n">
-        <v>-16.43732746821537</v>
+        <v>-15.70512644650037</v>
       </c>
       <c r="J1697" t="n">
-        <v>13.94949549506085</v>
+        <v>13.95060343081739</v>
       </c>
     </row>
     <row r="1698">
@@ -54540,13 +54546,13 @@
         <v>-29.7625</v>
       </c>
       <c r="H1698" t="n">
-        <v>13.25216451612938</v>
+        <v>13.50269838709703</v>
       </c>
       <c r="I1698" t="n">
-        <v>-16.67124152737901</v>
+        <v>-16.07326218980429</v>
       </c>
       <c r="J1698" t="n">
-        <v>13.9467292998354</v>
+        <v>13.94763413699094</v>
       </c>
     </row>
     <row r="1699">
@@ -54566,13 +54572,13 @@
         <v>-30.15</v>
       </c>
       <c r="H1699" t="n">
-        <v>13.25250201612938</v>
+        <v>13.50303588709703</v>
       </c>
       <c r="I1699" t="n">
-        <v>-16.90652826342106</v>
+        <v>-16.44837189060257</v>
       </c>
       <c r="J1699" t="n">
-        <v>13.94447564064956</v>
+        <v>13.94516890358212</v>
       </c>
     </row>
     <row r="1700">
@@ -54592,13 +54598,13 @@
         <v>-30.5375</v>
       </c>
       <c r="H1700" t="n">
-        <v>13.25283951612938</v>
+        <v>13.50337338709703</v>
       </c>
       <c r="I1700" t="n">
-        <v>-17.14321513717669</v>
+        <v>-16.83056539223594</v>
       </c>
       <c r="J1700" t="n">
-        <v>13.94274490564823</v>
+        <v>13.94321799407807</v>
       </c>
     </row>
     <row r="1701">
@@ -54618,13 +54624,13 @@
         <v>-30.925</v>
       </c>
       <c r="H1701" t="n">
-        <v>13.25317701612938</v>
+        <v>13.50371088709703</v>
       </c>
       <c r="I1701" t="n">
-        <v>-17.38132960948109</v>
+        <v>-17.21995253804514</v>
       </c>
       <c r="J1701" t="n">
-        <v>13.94154748297628</v>
+        <v>13.94179167196596</v>
       </c>
     </row>
     <row r="1702">
@@ -54644,13 +54650,13 @@
         <v>-31.3125</v>
       </c>
       <c r="H1702" t="n">
-        <v>13.25351451612938</v>
+        <v>13.50404838709703</v>
       </c>
       <c r="I1702" t="n">
-        <v>-17.62089914116943</v>
+        <v>-17.61664317137091</v>
       </c>
       <c r="J1702" t="n">
-        <v>13.94089376077862</v>
+        <v>13.94090020073292</v>
       </c>
     </row>
     <row r="1703">
@@ -54670,7 +54676,7 @@
         <v>-31.7</v>
       </c>
       <c r="H1703" t="n">
-        <v>13.25385201612938</v>
+        <v>13.50438588709703</v>
       </c>
       <c r="I1703" t="n">
         <v>-17.64285714285714</v>
@@ -54696,7 +54702,7 @@
         <v>-32.08750000000001</v>
       </c>
       <c r="H1704" t="n">
-        <v>13.25418951612938</v>
+        <v>13.50472338709703</v>
       </c>
       <c r="I1704" t="n">
         <v>-18.07714285714286</v>
@@ -54707,10 +54713,10 @@
     </row>
     <row r="1705">
       <c r="C1705" t="n">
-        <v>-21.00410347183225</v>
+        <v>-21.00263184963924</v>
       </c>
       <c r="D1705" t="n">
-        <v>15.4657408557576</v>
+        <v>15.46563693058459</v>
       </c>
       <c r="E1705" t="n">
         <v>-38.48750000000001</v>
@@ -54722,7 +54728,7 @@
         <v>-32.475</v>
       </c>
       <c r="H1705" t="n">
-        <v>13.25452701612938</v>
+        <v>13.50506088709703</v>
       </c>
       <c r="I1705" t="n">
         <v>-18.51142857142857</v>
@@ -54733,10 +54739,10 @@
     </row>
     <row r="1706">
       <c r="C1706" t="n">
-        <v>-21.24103487735518</v>
+        <v>-21.23520375497509</v>
       </c>
       <c r="D1706" t="n">
-        <v>15.46529653489084</v>
+        <v>15.46488344011032</v>
       </c>
       <c r="E1706" t="n">
         <v>-38.87500000000001</v>
@@ -54748,7 +54754,7 @@
         <v>-32.8625</v>
       </c>
       <c r="H1706" t="n">
-        <v>13.25486451612938</v>
+        <v>13.50539838709703</v>
       </c>
       <c r="I1706" t="n">
         <v>-18.94571428571428</v>
@@ -54759,10 +54765,10 @@
     </row>
     <row r="1707">
       <c r="C1707" t="n">
-        <v>-21.47653618547907</v>
+        <v>-21.46354073450573</v>
       </c>
       <c r="D1707" t="n">
-        <v>15.46462518099678</v>
+        <v>15.46370158104153</v>
       </c>
       <c r="E1707" t="n">
         <v>-39.26250000000001</v>
@@ -54774,7 +54780,7 @@
         <v>-33.25</v>
       </c>
       <c r="H1707" t="n">
-        <v>13.25520201612938</v>
+        <v>13.50573588709703</v>
       </c>
       <c r="I1707" t="n">
         <v>-19.38</v>
@@ -54785,10 +54791,10 @@
     </row>
     <row r="1708">
       <c r="C1708" t="n">
-        <v>-21.71063507939988</v>
+        <v>-21.68775352101505</v>
       </c>
       <c r="D1708" t="n">
-        <v>15.46373122338677</v>
+        <v>15.46209969155682</v>
       </c>
       <c r="E1708" t="n">
         <v>-39.65000000000001</v>
@@ -54800,7 +54806,7 @@
         <v>-33.6375</v>
       </c>
       <c r="H1708" t="n">
-        <v>13.25553951612938</v>
+        <v>13.50607338709703</v>
       </c>
       <c r="I1708" t="n">
         <v>-19.81428571428571</v>
@@ -54811,10 +54817,10 @@
     </row>
     <row r="1709">
       <c r="C1709" t="n">
-        <v>-21.94335924231358</v>
+        <v>-21.90795284728696</v>
       </c>
       <c r="D1709" t="n">
-        <v>15.46261909137219</v>
+        <v>15.46008610983485</v>
       </c>
       <c r="E1709" t="n">
         <v>-40.03750000000001</v>
@@ -54826,7 +54832,7 @@
         <v>-34.02500000000001</v>
       </c>
       <c r="H1709" t="n">
-        <v>13.25587701612938</v>
+        <v>13.50641088709703</v>
       </c>
       <c r="I1709" t="n">
         <v>-20.24857142857143</v>
@@ -54837,10 +54843,10 @@
     </row>
     <row r="1710">
       <c r="C1710" t="n">
-        <v>-22.17473635741615</v>
+        <v>-22.12424944610532</v>
       </c>
       <c r="D1710" t="n">
-        <v>15.46129321426437</v>
+        <v>15.45766917405423</v>
       </c>
       <c r="E1710" t="n">
         <v>-40.42500000000001</v>
@@ -54852,7 +54858,7 @@
         <v>-34.41250000000001</v>
       </c>
       <c r="H1710" t="n">
-        <v>13.25621451612938</v>
+        <v>13.50674838709703</v>
       </c>
       <c r="I1710" t="n">
         <v>-20.68285714285714</v>
@@ -54863,10 +54869,10 @@
     </row>
     <row r="1711">
       <c r="C1711" t="n">
-        <v>-22.40479410790356</v>
+        <v>-22.33675405025402</v>
       </c>
       <c r="D1711" t="n">
-        <v>15.45975802137466</v>
+        <v>15.45485722239358</v>
       </c>
       <c r="E1711" t="n">
         <v>-40.81250000000001</v>
@@ -54878,7 +54884,7 @@
         <v>-34.8</v>
       </c>
       <c r="H1711" t="n">
-        <v>13.25655201612938</v>
+        <v>13.50708588709703</v>
       </c>
       <c r="I1711" t="n">
         <v>-21.11714285714286</v>
@@ -54889,10 +54895,10 @@
     </row>
     <row r="1712">
       <c r="C1712" t="n">
-        <v>-22.63356017697177</v>
+        <v>-22.54557739251697</v>
       </c>
       <c r="D1712" t="n">
-        <v>15.45801794201444</v>
+        <v>15.45165859303155</v>
       </c>
       <c r="E1712" t="n">
         <v>-41.20000000000001</v>
@@ -54904,7 +54910,7 @@
         <v>-35.1875</v>
       </c>
       <c r="H1712" t="n">
-        <v>13.25688951612938</v>
+        <v>13.50742338709703</v>
       </c>
       <c r="I1712" t="n">
         <v>-21.55142857142857</v>
@@ -54915,10 +54921,10 @@
     </row>
     <row r="1713">
       <c r="C1713" t="n">
-        <v>-22.86106224781678</v>
+        <v>-22.75083020567805</v>
       </c>
       <c r="D1713" t="n">
-        <v>15.45607740549506</v>
+        <v>15.44808162414674</v>
       </c>
       <c r="E1713" t="n">
         <v>-41.58750000000001</v>
@@ -54930,7 +54936,7 @@
         <v>-35.575</v>
       </c>
       <c r="H1713" t="n">
-        <v>13.25722701612938</v>
+        <v>13.50776088709703</v>
       </c>
       <c r="I1713" t="n">
         <v>-21.98571428571428</v>
@@ -54941,10 +54947,10 @@
     </row>
     <row r="1714">
       <c r="C1714" t="n">
-        <v>-23.08732800363453</v>
+        <v>-22.95262322252115</v>
       </c>
       <c r="D1714" t="n">
-        <v>15.45394084112786</v>
+        <v>15.44413465391779</v>
       </c>
       <c r="E1714" t="n">
         <v>-41.97500000000001</v>
@@ -54956,7 +54962,7 @@
         <v>-35.96250000000001</v>
       </c>
       <c r="H1714" t="n">
-        <v>13.25756451612938</v>
+        <v>13.50809838709703</v>
       </c>
       <c r="I1714" t="n">
         <v>-22.42</v>
@@ -54967,10 +54973,10 @@
     </row>
     <row r="1715">
       <c r="C1715" t="n">
-        <v>-23.31238512762102</v>
+        <v>-23.15106717583016</v>
       </c>
       <c r="D1715" t="n">
-        <v>15.45161267822421</v>
+        <v>15.43982602052334</v>
       </c>
       <c r="E1715" t="n">
         <v>-42.36250000000001</v>
@@ -54982,7 +54988,7 @@
         <v>-36.35000000000001</v>
       </c>
       <c r="H1715" t="n">
-        <v>13.25790201612937</v>
+        <v>13.50843588709703</v>
       </c>
       <c r="I1715" t="n">
         <v>-22.85428571428571</v>
@@ -54993,10 +54999,10 @@
     </row>
     <row r="1716">
       <c r="C1716" t="n">
-        <v>-23.53626130297221</v>
+        <v>-23.34627279838897</v>
       </c>
       <c r="D1716" t="n">
-        <v>15.44909734609547</v>
+        <v>15.43516406214199</v>
       </c>
       <c r="E1716" t="n">
         <v>-42.75000000000001</v>
@@ -55008,7 +55014,7 @@
         <v>-36.7375</v>
       </c>
       <c r="H1716" t="n">
-        <v>13.25823951612938</v>
+        <v>13.50877338709703</v>
       </c>
       <c r="I1716" t="n">
         <v>-23.28857142857143</v>
@@ -55019,10 +55025,10 @@
     </row>
     <row r="1717">
       <c r="C1717" t="n">
-        <v>-23.75898421288407</v>
+        <v>-23.53835082298146</v>
       </c>
       <c r="D1717" t="n">
-        <v>15.44639927405297</v>
+        <v>15.43015711695238</v>
       </c>
       <c r="E1717" t="n">
         <v>-43.13750000000001</v>
@@ -55034,7 +55040,7 @@
         <v>-37.12500000000001</v>
       </c>
       <c r="H1717" t="n">
-        <v>13.25857701612938</v>
+        <v>13.50911088709703</v>
       </c>
       <c r="I1717" t="n">
         <v>-23.72285714285714</v>
@@ -55045,10 +55051,10 @@
     </row>
     <row r="1718">
       <c r="C1718" t="n">
-        <v>-23.98058154055258</v>
+        <v>-23.72741198239155</v>
       </c>
       <c r="D1718" t="n">
-        <v>15.44352289140809</v>
+        <v>15.42481352313314</v>
       </c>
       <c r="E1718" t="n">
         <v>-43.52500000000001</v>
@@ -55060,7 +55066,7 @@
         <v>-37.5125</v>
       </c>
       <c r="H1718" t="n">
-        <v>13.25891451612937</v>
+        <v>13.50944838709703</v>
       </c>
       <c r="I1718" t="n">
         <v>-24.15714285714285</v>
@@ -55071,10 +55077,10 @@
     </row>
     <row r="1719">
       <c r="C1719" t="n">
-        <v>-24.2010809691737</v>
+        <v>-23.91356700940309</v>
       </c>
       <c r="D1719" t="n">
-        <v>15.44047262747217</v>
+        <v>15.41914161886289</v>
       </c>
       <c r="E1719" t="n">
         <v>-43.91250000000001</v>
@@ -55086,7 +55092,7 @@
         <v>-37.90000000000001</v>
       </c>
       <c r="H1719" t="n">
-        <v>13.25925201612938</v>
+        <v>13.50978588709703</v>
       </c>
       <c r="I1719" t="n">
         <v>-24.59142857142857</v>
@@ -55097,10 +55103,10 @@
     </row>
     <row r="1720">
       <c r="C1720" t="n">
-        <v>-24.42051018194342</v>
+        <v>-24.09692663680001</v>
       </c>
       <c r="D1720" t="n">
-        <v>15.43725291155659</v>
+        <v>15.41314974232027</v>
       </c>
       <c r="E1720" t="n">
         <v>-44.30000000000001</v>
@@ -55112,7 +55118,7 @@
         <v>-38.28750000000001</v>
       </c>
       <c r="H1720" t="n">
-        <v>13.25958951612938</v>
+        <v>13.51012338709703</v>
       </c>
       <c r="I1720" t="n">
         <v>-25.02571428571428</v>
@@ -55123,10 +55129,10 @@
     </row>
     <row r="1721">
       <c r="C1721" t="n">
-        <v>-24.6388968620577</v>
+        <v>-24.27760159736616</v>
       </c>
       <c r="D1721" t="n">
-        <v>15.43386817297268</v>
+        <v>15.4068462316839</v>
       </c>
       <c r="E1721" t="n">
         <v>-44.68750000000001</v>
@@ -55138,7 +55144,7 @@
         <v>-38.675</v>
       </c>
       <c r="H1721" t="n">
-        <v>13.25992701612937</v>
+        <v>13.51046088709703</v>
       </c>
       <c r="I1721" t="n">
         <v>-25.46</v>
@@ -55149,10 +55155,10 @@
     </row>
     <row r="1722">
       <c r="C1722" t="n">
-        <v>-24.85626869271251</v>
+        <v>-24.45570262388546</v>
       </c>
       <c r="D1722" t="n">
-        <v>15.4303228410318</v>
+        <v>15.40023942513239</v>
       </c>
       <c r="E1722" t="n">
         <v>-45.07500000000001</v>
@@ -55164,7 +55170,7 @@
         <v>-39.06250000000001</v>
       </c>
       <c r="H1722" t="n">
-        <v>13.26026451612938</v>
+        <v>13.51079838709703</v>
       </c>
       <c r="I1722" t="n">
         <v>-25.89428571428571</v>
@@ -55175,10 +55181,10 @@
     </row>
     <row r="1723">
       <c r="C1723" t="n">
-        <v>-25.07265335710384</v>
+        <v>-24.63134044914178</v>
       </c>
       <c r="D1723" t="n">
-        <v>15.42662134504532</v>
+        <v>15.3933376608444</v>
       </c>
       <c r="E1723" t="n">
         <v>-45.46250000000001</v>
@@ -55190,7 +55196,7 @@
         <v>-39.45</v>
       </c>
       <c r="H1723" t="n">
-        <v>13.26060201612938</v>
+        <v>13.51113588709703</v>
       </c>
       <c r="I1723" t="n">
         <v>-26.32857142857143</v>
@@ -55201,10 +55207,10 @@
     </row>
     <row r="1724">
       <c r="C1724" t="n">
-        <v>-25.28807853842763</v>
+        <v>-24.80462580591902</v>
       </c>
       <c r="D1724" t="n">
-        <v>15.42276811432458</v>
+        <v>15.38614927699852</v>
       </c>
       <c r="E1724" t="n">
         <v>-45.85000000000001</v>
@@ -55216,7 +55222,7 @@
         <v>-39.83750000000001</v>
       </c>
       <c r="H1724" t="n">
-        <v>13.26093951612937</v>
+        <v>13.51147338709703</v>
       </c>
       <c r="I1724" t="n">
         <v>-26.76285714285714</v>
@@ -55227,10 +55233,10 @@
     </row>
     <row r="1725">
       <c r="C1725" t="n">
-        <v>-25.50257191987989</v>
+        <v>-24.97566942700108</v>
       </c>
       <c r="D1725" t="n">
-        <v>15.41876757818095</v>
+        <v>15.37868261177341</v>
       </c>
       <c r="E1725" t="n">
         <v>-46.23750000000001</v>
@@ -55242,7 +55248,7 @@
         <v>-40.22500000000001</v>
       </c>
       <c r="H1725" t="n">
-        <v>13.26127701612937</v>
+        <v>13.51181088709703</v>
       </c>
       <c r="I1725" t="n">
         <v>-27.19714285714285</v>
@@ -55253,10 +55259,10 @@
     </row>
     <row r="1726">
       <c r="C1726" t="n">
-        <v>-25.71616118465658</v>
+        <v>-25.14458204517184</v>
       </c>
       <c r="D1726" t="n">
-        <v>15.41462416592577</v>
+        <v>15.37094600334768</v>
       </c>
       <c r="E1726" t="n">
         <v>-46.62500000000001</v>
@@ -55268,7 +55274,7 @@
         <v>-40.61250000000001</v>
       </c>
       <c r="H1726" t="n">
-        <v>13.26161451612937</v>
+        <v>13.51214838709703</v>
       </c>
       <c r="I1726" t="n">
         <v>-27.63142857142857</v>
@@ -55279,10 +55285,10 @@
     </row>
     <row r="1727">
       <c r="C1727" t="n">
-        <v>-25.92887401595367</v>
+        <v>-25.31147439321518</v>
       </c>
       <c r="D1727" t="n">
-        <v>15.4103423068704</v>
+        <v>15.36294778989995</v>
       </c>
       <c r="E1727" t="n">
         <v>-47.01250000000002</v>
@@ -55294,7 +55300,7 @@
         <v>-41.00000000000001</v>
       </c>
       <c r="H1727" t="n">
-        <v>13.26195201612937</v>
+        <v>13.51248588709703</v>
       </c>
       <c r="I1727" t="n">
         <v>-28.06571428571428</v>
@@ -55305,10 +55311,10 @@
     </row>
     <row r="1728">
       <c r="C1728" t="n">
-        <v>-26.14073809696711</v>
+        <v>-25.476457203915</v>
       </c>
       <c r="D1728" t="n">
-        <v>15.4059264303262</v>
+        <v>15.35469630960886</v>
       </c>
       <c r="E1728" t="n">
         <v>-47.40000000000001</v>
@@ -55320,7 +55326,7 @@
         <v>-41.3875</v>
       </c>
       <c r="H1728" t="n">
-        <v>13.26228951612937</v>
+        <v>13.51282338709703</v>
       </c>
       <c r="I1728" t="n">
         <v>-28.5</v>
@@ -55331,10 +55337,10 @@
     </row>
     <row r="1729">
       <c r="C1729" t="n">
-        <v>-26.3517811108929</v>
+        <v>-25.63964121005518</v>
       </c>
       <c r="D1729" t="n">
-        <v>15.40138096560453</v>
+        <v>15.34619990065303</v>
       </c>
       <c r="E1729" t="n">
         <v>-47.78750000000001</v>
@@ -55346,7 +55352,7 @@
         <v>-41.77500000000001</v>
       </c>
       <c r="H1729" t="n">
-        <v>13.26262701612937</v>
+        <v>13.51316088709703</v>
       </c>
       <c r="I1729" t="n">
         <v>-28.93428571428571</v>
@@ -55357,10 +55363,10 @@
     </row>
     <row r="1730">
       <c r="C1730" t="n">
-        <v>-26.56203074092701</v>
+        <v>-25.80113714441963</v>
       </c>
       <c r="D1730" t="n">
-        <v>15.39671034201673</v>
+        <v>15.3374669012111</v>
       </c>
       <c r="E1730" t="n">
         <v>-48.17500000000001</v>
@@ -55372,7 +55378,7 @@
         <v>-42.16250000000001</v>
       </c>
       <c r="H1730" t="n">
-        <v>13.26296451612937</v>
+        <v>13.51349838709703</v>
       </c>
       <c r="I1730" t="n">
         <v>-29.36857142857142</v>
@@ -55383,10 +55389,10 @@
     </row>
     <row r="1731">
       <c r="C1731" t="n">
-        <v>-26.77151467026541</v>
+        <v>-25.96105573979222</v>
       </c>
       <c r="D1731" t="n">
-        <v>15.39191898887417</v>
+        <v>15.32850564946169</v>
       </c>
       <c r="E1731" t="n">
         <v>-48.56250000000001</v>
@@ -55398,7 +55404,7 @@
         <v>-42.55000000000001</v>
       </c>
       <c r="H1731" t="n">
-        <v>13.26330201612937</v>
+        <v>13.51383588709703</v>
       </c>
       <c r="I1731" t="n">
         <v>-29.80285714285714</v>
@@ -55409,10 +55415,10 @@
     </row>
     <row r="1732">
       <c r="C1732" t="n">
-        <v>-26.98026058210407</v>
+        <v>-26.11950772895685</v>
       </c>
       <c r="D1732" t="n">
-        <v>15.38701133548821</v>
+        <v>15.31932448358341</v>
       </c>
       <c r="E1732" t="n">
         <v>-48.95000000000002</v>
@@ -55424,7 +55430,7 @@
         <v>-42.93750000000001</v>
       </c>
       <c r="H1732" t="n">
-        <v>13.26363951612937</v>
+        <v>13.51417338709703</v>
       </c>
       <c r="I1732" t="n">
         <v>-30.23714285714285</v>
@@ -55435,10 +55441,10 @@
     </row>
     <row r="1733">
       <c r="C1733" t="n">
-        <v>-27.18829615963896</v>
+        <v>-26.27660384469742</v>
       </c>
       <c r="D1733" t="n">
-        <v>15.38199181117018</v>
+        <v>15.30993174175491</v>
       </c>
       <c r="E1733" t="n">
         <v>-49.33750000000001</v>
@@ -55450,7 +55456,7 @@
         <v>-43.32500000000001</v>
       </c>
       <c r="H1733" t="n">
-        <v>13.26397701612937</v>
+        <v>13.51451088709703</v>
       </c>
       <c r="I1733" t="n">
         <v>-30.67142857142857</v>
@@ -55461,16 +55467,16 @@
     </row>
     <row r="1734">
       <c r="C1734" t="n">
-        <v>-27.39564908606606</v>
+        <v>-26.43245481979779</v>
       </c>
       <c r="D1734" t="n">
-        <v>15.37686484523146</v>
+        <v>15.30033576215481</v>
       </c>
       <c r="G1734" t="n">
         <v>-43.71250000000001</v>
       </c>
       <c r="H1734" t="n">
-        <v>13.26431451612937</v>
+        <v>13.51484838709703</v>
       </c>
       <c r="I1734" t="n">
         <v>-31.10571428571428</v>
@@ -55481,16 +55487,16 @@
     </row>
     <row r="1735">
       <c r="C1735" t="n">
-        <v>-27.60234704458133</v>
+        <v>-26.58717138704188</v>
       </c>
       <c r="D1735" t="n">
-        <v>15.3716348669834</v>
+        <v>15.29054488296172</v>
       </c>
       <c r="G1735" t="n">
         <v>-44.10000000000001</v>
       </c>
       <c r="H1735" t="n">
-        <v>13.26465201612937</v>
+        <v>13.51518588709703</v>
       </c>
       <c r="I1735" t="n">
         <v>-31.54</v>
@@ -55501,16 +55507,16 @@
     </row>
     <row r="1736">
       <c r="C1736" t="n">
-        <v>-27.80841771838076</v>
+        <v>-26.74086427921356</v>
       </c>
       <c r="D1736" t="n">
-        <v>15.36630630573735</v>
+        <v>15.28056744235429</v>
       </c>
       <c r="G1736" t="n">
         <v>-44.48750000000001</v>
       </c>
       <c r="H1736" t="n">
-        <v>13.26498951612937</v>
+        <v>13.51552338709703</v>
       </c>
       <c r="I1736" t="n">
         <v>-31.97428571428571</v>
@@ -55521,16 +55527,16 @@
     </row>
     <row r="1737">
       <c r="C1737" t="n">
-        <v>-28.01388879066031</v>
+        <v>-26.89364422909674</v>
       </c>
       <c r="D1737" t="n">
-        <v>15.36088359080468</v>
+        <v>15.27041177851115</v>
       </c>
       <c r="G1737" t="n">
         <v>-44.87500000000001</v>
       </c>
       <c r="H1737" t="n">
-        <v>13.26532701612937</v>
+        <v>13.51586088709703</v>
       </c>
       <c r="I1737" t="n">
         <v>-32.40857142857142</v>
@@ -55541,16 +55547,16 @@
     </row>
     <row r="1738">
       <c r="C1738" t="n">
-        <v>-28.21878794461594</v>
+        <v>-27.04562196947528</v>
       </c>
       <c r="D1738" t="n">
-        <v>15.35537115149672</v>
+        <v>15.2600862296109</v>
       </c>
       <c r="G1738" t="n">
         <v>-45.26250000000001</v>
       </c>
       <c r="H1738" t="n">
-        <v>13.26566451612937</v>
+        <v>13.51619838709703</v>
       </c>
       <c r="I1738" t="n">
         <v>-32.84285714285714</v>
@@ -55561,16 +55567,16 @@
     </row>
     <row r="1739">
       <c r="C1739" t="n">
-        <v>-28.42314286344366</v>
+        <v>-27.1969082331331</v>
       </c>
       <c r="D1739" t="n">
-        <v>15.34977341712484</v>
+        <v>15.24959913383218</v>
       </c>
       <c r="G1739" t="n">
         <v>-45.65000000000001</v>
       </c>
       <c r="H1739" t="n">
-        <v>13.26600201612937</v>
+        <v>13.51653588709702</v>
       </c>
       <c r="I1739" t="n">
         <v>-33.27714285714285</v>
@@ -55581,16 +55587,16 @@
     </row>
     <row r="1740">
       <c r="C1740" t="n">
-        <v>-28.6269812303394</v>
+        <v>-27.34761375285407</v>
       </c>
       <c r="D1740" t="n">
-        <v>15.3440948170004</v>
+        <v>15.23895882935363</v>
       </c>
       <c r="G1740" t="n">
         <v>-46.03750000000001</v>
       </c>
       <c r="H1740" t="n">
-        <v>13.26633951612937</v>
+        <v>13.51687338709703</v>
       </c>
       <c r="I1740" t="n">
         <v>-33.71142857142857</v>
@@ -55601,16 +55607,16 @@
     </row>
     <row r="1741">
       <c r="C1741" t="n">
-        <v>-28.83033072849917</v>
+        <v>-27.49784926142209</v>
       </c>
       <c r="D1741" t="n">
-        <v>15.33833978043475</v>
+        <v>15.22817365435387</v>
       </c>
       <c r="G1741" t="n">
         <v>-46.42500000000001</v>
       </c>
       <c r="H1741" t="n">
-        <v>13.26667701612937</v>
+        <v>13.51721088709703</v>
       </c>
       <c r="I1741" t="n">
         <v>-34.14571428571428</v>
@@ -55621,16 +55627,16 @@
     </row>
     <row r="1742">
       <c r="C1742" t="n">
-        <v>-29.03321904111892</v>
+        <v>-27.64772549162105</v>
       </c>
       <c r="D1742" t="n">
-        <v>15.33251273673925</v>
+        <v>15.21725194701151</v>
       </c>
       <c r="G1742" t="n">
         <v>-46.81250000000001</v>
       </c>
       <c r="H1742" t="n">
-        <v>13.26701451612937</v>
+        <v>13.51754838709702</v>
       </c>
       <c r="I1742" t="n">
         <v>-34.58</v>
@@ -55641,16 +55647,16 @@
     </row>
     <row r="1743">
       <c r="C1743" t="n">
-        <v>-29.23567385139463</v>
+        <v>-27.79735317623484</v>
       </c>
       <c r="D1743" t="n">
-        <v>15.32661811522525</v>
+        <v>15.2062020455052</v>
       </c>
       <c r="G1743" t="n">
         <v>-47.20000000000001</v>
       </c>
       <c r="H1743" t="n">
-        <v>13.26735201612937</v>
+        <v>13.51788588709702</v>
       </c>
       <c r="I1743" t="n">
         <v>-35.01428571428571</v>
@@ -55661,16 +55667,16 @@
     </row>
     <row r="1744">
       <c r="C1744" t="n">
-        <v>-29.43772284252226</v>
+        <v>-27.94684304804733</v>
       </c>
       <c r="D1744" t="n">
-        <v>15.32066034520411</v>
+        <v>15.19503228801355</v>
       </c>
       <c r="G1744" t="n">
         <v>-47.58750000000001</v>
       </c>
       <c r="H1744" t="n">
-        <v>13.26768951612937</v>
+        <v>13.51822338709703</v>
       </c>
       <c r="I1744" t="n">
         <v>-35.44857142857143</v>
@@ -55681,16 +55687,16 @@
     </row>
     <row r="1745">
       <c r="C1745" t="n">
-        <v>-29.6393936976978</v>
+        <v>-28.09630583984244</v>
       </c>
       <c r="D1745" t="n">
-        <v>15.31464385598717</v>
+        <v>15.18375101271519</v>
       </c>
       <c r="G1745" t="n">
         <v>-47.97500000000001</v>
       </c>
       <c r="H1745" t="n">
-        <v>13.26802701612937</v>
+        <v>13.51856088709702</v>
       </c>
       <c r="I1745" t="n">
         <v>-35.88285714285713</v>
@@ -55701,16 +55707,16 @@
     </row>
     <row r="1746">
       <c r="C1746" t="n">
-        <v>-29.84071410011722</v>
+        <v>-28.24585228440404</v>
       </c>
       <c r="D1746" t="n">
-        <v>15.30857307688582</v>
+        <v>15.17236655778876</v>
       </c>
       <c r="G1746" t="n">
         <v>-48.36250000000001</v>
       </c>
       <c r="H1746" t="n">
-        <v>13.26836451612937</v>
+        <v>13.51889838709702</v>
       </c>
       <c r="I1746" t="n">
         <v>-36.31714285714285</v>
@@ -55721,16 +55727,16 @@
     </row>
     <row r="1747">
       <c r="C1747" t="n">
-        <v>-30.04171173297648</v>
+        <v>-28.39559311451603</v>
       </c>
       <c r="D1747" t="n">
-        <v>15.30245243721138</v>
+        <v>15.16088726141287</v>
       </c>
       <c r="G1747" t="n">
         <v>-48.75000000000001</v>
       </c>
       <c r="H1747" t="n">
-        <v>13.26870201612937</v>
+        <v>13.51923588709703</v>
       </c>
       <c r="I1747" t="n">
         <v>-36.75142857142856</v>
@@ -55741,16 +55747,16 @@
     </row>
     <row r="1748">
       <c r="C1748" t="n">
-        <v>-30.24241427947156</v>
+        <v>-28.5456390629623</v>
       </c>
       <c r="D1748" t="n">
-        <v>15.29628636627523</v>
+        <v>15.14932146176617</v>
       </c>
       <c r="G1748" t="n">
         <v>-49.13750000000001</v>
       </c>
       <c r="H1748" t="n">
-        <v>13.26903951612937</v>
+        <v>13.51957338709702</v>
       </c>
       <c r="I1748" t="n">
         <v>-37.18571428571428</v>
@@ -55761,16 +55767,16 @@
     </row>
     <row r="1749">
       <c r="C1749" t="n">
-        <v>-30.44284942279843</v>
+        <v>-28.69610086252672</v>
       </c>
       <c r="D1749" t="n">
-        <v>15.29007929338871</v>
+        <v>15.13767749702725</v>
       </c>
       <c r="G1749" t="n">
         <v>-49.52500000000001</v>
       </c>
       <c r="H1749" t="n">
-        <v>13.26937701612937</v>
+        <v>13.51991088709702</v>
       </c>
       <c r="I1749" t="n">
         <v>-37.61999999999999</v>
@@ -55781,10 +55787,10 @@
     </row>
     <row r="1750">
       <c r="C1750" t="n">
-        <v>-30.64304484615307</v>
+        <v>-28.84708924599321</v>
       </c>
       <c r="D1750" t="n">
-        <v>15.28383564786318</v>
+        <v>15.12596370537477</v>
       </c>
       <c r="I1750" t="n">
         <v>-38.05428571428571</v>
@@ -55795,10 +55801,10 @@
     </row>
     <row r="1751">
       <c r="C1751" t="n">
-        <v>-30.84302823273144</v>
+        <v>-28.99871494614564</v>
       </c>
       <c r="D1751" t="n">
-        <v>15.27755985901</v>
+        <v>15.11418842498734</v>
       </c>
       <c r="I1751" t="n">
         <v>-38.48857142857142</v>
@@ -55809,10 +55815,10 @@
     </row>
     <row r="1752">
       <c r="C1752" t="n">
-        <v>-31.04282726572953</v>
+        <v>-29.15108869576791</v>
       </c>
       <c r="D1752" t="n">
-        <v>15.27125635614053</v>
+        <v>15.1023599940436</v>
       </c>
       <c r="I1752" t="n">
         <v>-38.92285714285714</v>
@@ -55823,10 +55829,10 @@
     </row>
     <row r="1753">
       <c r="C1753" t="n">
-        <v>-31.24246962834331</v>
+        <v>-29.3043212276439</v>
       </c>
       <c r="D1753" t="n">
-        <v>15.26492956856611</v>
+        <v>15.09048675072217</v>
       </c>
       <c r="I1753" t="n">
         <v>-39.35714285714285</v>
@@ -55837,10 +55843,10 @@
     </row>
     <row r="1754">
       <c r="C1754" t="n">
-        <v>-31.44198300376873</v>
+        <v>-29.45852327455751</v>
       </c>
       <c r="D1754" t="n">
-        <v>15.2585839255981</v>
+        <v>15.07857703320167</v>
       </c>
       <c r="I1754" t="n">
         <v>-39.79142857142857</v>
@@ -55851,10 +55857,10 @@
     </row>
     <row r="1755">
       <c r="C1755" t="n">
-        <v>-31.64139507520177</v>
+        <v>-29.61380556929262</v>
       </c>
       <c r="D1755" t="n">
-        <v>15.25222385654787</v>
+        <v>15.06663917966073</v>
       </c>
       <c r="I1755" t="n">
         <v>-40.22571428571428</v>
@@ -55865,10 +55871,10 @@
     </row>
     <row r="1756">
       <c r="C1756" t="n">
-        <v>-31.84073352583842</v>
+        <v>-29.77027884463313</v>
       </c>
       <c r="D1756" t="n">
-        <v>15.24585379072676</v>
+        <v>15.05468152827799</v>
       </c>
       <c r="I1756" t="n">
         <v>-40.66</v>
@@ -55879,10 +55885,10 @@
     </row>
     <row r="1757">
       <c r="C1757" t="n">
-        <v>-32.04002603887464</v>
+        <v>-29.92805383336293</v>
       </c>
       <c r="D1757" t="n">
-        <v>15.23947815744613</v>
+        <v>15.04271241723206</v>
       </c>
       <c r="I1757" t="n">
         <v>-41.0942857142857</v>
@@ -55893,10 +55899,10 @@
     </row>
     <row r="1758">
       <c r="C1758" t="n">
-        <v>-32.23930029750641</v>
+        <v>-30.0872412682659</v>
       </c>
       <c r="D1758" t="n">
-        <v>15.23310138601734</v>
+        <v>15.03074018470157</v>
       </c>
       <c r="I1758" t="n">
         <v>-41.52857142857142</v>
@@ -55907,10 +55913,10 @@
     </row>
     <row r="1759">
       <c r="C1759" t="n">
-        <v>-32.43858398492969</v>
+        <v>-30.24795188212592</v>
       </c>
       <c r="D1759" t="n">
-        <v>15.22672790575174</v>
+        <v>15.01877316886516</v>
       </c>
       <c r="I1759" t="n">
         <v>-41.96285714285713</v>
@@ -55921,10 +55927,10 @@
     </row>
     <row r="1760">
       <c r="C1760" t="n">
-        <v>-32.63790478434046</v>
+        <v>-30.41029640772692</v>
       </c>
       <c r="D1760" t="n">
-        <v>15.22036214596068</v>
+        <v>15.00681970790144</v>
       </c>
       <c r="I1760" t="n">
         <v>-42.39714285714285</v>
@@ -55935,10 +55941,10 @@
     </row>
     <row r="1761">
       <c r="C1761" t="n">
-        <v>-32.83729037893471</v>
+        <v>-30.57438557785274</v>
       </c>
       <c r="D1761" t="n">
-        <v>15.21400853595553</v>
+        <v>14.99488813998905</v>
       </c>
       <c r="I1761" t="n">
         <v>-42.83142857142856</v>
@@ -55949,10 +55955,10 @@
     </row>
     <row r="1762">
       <c r="C1762" t="n">
-        <v>-33.03676845190837</v>
+        <v>-30.74033012528732</v>
       </c>
       <c r="D1762" t="n">
-        <v>15.20767150504764</v>
+        <v>14.98298680330661</v>
       </c>
       <c r="I1762" t="n">
         <v>-43.26571428571428</v>
@@ -55963,10 +55969,10 @@
     </row>
     <row r="1763">
       <c r="C1763" t="n">
-        <v>-33.23636668645746</v>
+        <v>-30.90824078281451</v>
       </c>
       <c r="D1763" t="n">
-        <v>15.20135548254836</v>
+        <v>14.97112403603274</v>
       </c>
       <c r="I1763" t="n">
         <v>-43.69999999999999</v>
@@ -55977,10 +55983,10 @@
     </row>
     <row r="1764">
       <c r="C1764" t="n">
-        <v>-33.43611276577791</v>
+        <v>-31.07822828321821</v>
       </c>
       <c r="D1764" t="n">
-        <v>15.19506489776905</v>
+        <v>14.95930817634608</v>
       </c>
       <c r="I1764" t="n">
         <v>-44.13428571428571</v>
@@ -55991,10 +55997,10 @@
     </row>
     <row r="1765">
       <c r="C1765" t="n">
-        <v>-33.63603437306573</v>
+        <v>-31.25040335928232</v>
       </c>
       <c r="D1765" t="n">
-        <v>15.18880418002107</v>
+        <v>14.94754756242526</v>
       </c>
       <c r="I1765" t="n">
         <v>-44.56857142857142</v>
@@ -56005,10 +56011,10 @@
     </row>
     <row r="1766">
       <c r="C1766" t="n">
-        <v>-33.83615919151685</v>
+        <v>-31.42487674379072</v>
       </c>
       <c r="D1766" t="n">
-        <v>15.18257775861577</v>
+        <v>14.93585053244889</v>
       </c>
       <c r="I1766" t="n">
         <v>-45.00285714285714</v>
@@ -56019,10 +56025,10 @@
     </row>
     <row r="1767">
       <c r="C1767" t="n">
-        <v>-34.03651490432728</v>
+        <v>-31.60175916952731</v>
       </c>
       <c r="D1767" t="n">
-        <v>15.17639006286451</v>
+        <v>14.92422542459561</v>
       </c>
       <c r="I1767" t="n">
         <v>-45.43714285714285</v>
@@ -56033,10 +56039,10 @@
     </row>
     <row r="1768">
       <c r="C1768" t="n">
-        <v>-34.23712919469298</v>
+        <v>-31.78116136927597</v>
       </c>
       <c r="D1768" t="n">
-        <v>15.17024552207864</v>
+        <v>14.91268057704404</v>
       </c>
       <c r="I1768" t="n">
         <v>-45.87142857142857</v>
@@ -56047,10 +56053,10 @@
     </row>
     <row r="1769">
       <c r="C1769" t="n">
-        <v>-34.43802974580991</v>
+        <v>-31.9631940758206</v>
       </c>
       <c r="D1769" t="n">
-        <v>15.16414856556952</v>
+        <v>14.90122432797281</v>
       </c>
       <c r="I1769" t="n">
         <v>-46.30571428571427</v>
@@ -56061,10 +56067,10 @@
     </row>
     <row r="1770">
       <c r="C1770" t="n">
-        <v>-34.63924424087408</v>
+        <v>-32.14796802194508</v>
       </c>
       <c r="D1770" t="n">
-        <v>15.15810362264849</v>
+        <v>14.88986501556055</v>
       </c>
       <c r="I1770" t="n">
         <v>-46.73999999999999</v>
@@ -56075,10 +56081,10 @@
     </row>
     <row r="1771">
       <c r="C1771" t="n">
-        <v>-34.84080036308142</v>
+        <v>-32.3355939404333</v>
       </c>
       <c r="D1771" t="n">
-        <v>15.15211512262693</v>
+        <v>14.87861097798588</v>
       </c>
       <c r="I1771" t="n">
         <v>-47.1742857142857</v>
@@ -56089,10 +56095,10 @@
     </row>
     <row r="1772">
       <c r="C1772" t="n">
-        <v>-35.04272579562792</v>
+        <v>-32.52618256406915</v>
       </c>
       <c r="D1772" t="n">
-        <v>15.14618749481619</v>
+        <v>14.86747055342743</v>
       </c>
       <c r="I1772" t="n">
         <v>-47.60857142857142</v>
@@ -56103,10 +56109,10 @@
     </row>
     <row r="1773">
       <c r="C1773" t="n">
-        <v>-35.24504822170955</v>
+        <v>-32.71984462563653</v>
       </c>
       <c r="D1773" t="n">
-        <v>15.14032516852761</v>
+        <v>14.85645208006382</v>
       </c>
       <c r="I1773" t="n">
         <v>-48.04285714285713</v>
@@ -56117,10 +56123,10 @@
     </row>
     <row r="1774">
       <c r="C1774" t="n">
-        <v>-35.44779532452228</v>
+        <v>-32.91669085791931</v>
       </c>
       <c r="D1774" t="n">
-        <v>15.13453257307256</v>
+        <v>14.8455638960737</v>
       </c>
       <c r="I1774" t="n">
         <v>-48.47714285714285</v>
@@ -56131,10 +56137,10 @@
     </row>
     <row r="1775">
       <c r="C1775" t="n">
-        <v>-35.65099478726211</v>
+        <v>-33.11683199370141</v>
       </c>
       <c r="D1775" t="n">
-        <v>15.12881413776239</v>
+        <v>14.83481433963567</v>
       </c>
       <c r="I1775" t="n">
         <v>-48.91142857142856</v>
@@ -56145,10 +56151,10 @@
     </row>
     <row r="1776">
       <c r="C1776" t="n">
-        <v>-35.85467429312497</v>
+        <v>-33.32037876576669</v>
       </c>
       <c r="D1776" t="n">
-        <v>15.12317429190846</v>
+        <v>14.82421174892838</v>
       </c>
       <c r="I1776" t="n">
         <v>-49.34571428571428</v>
@@ -56159,282 +56165,282 @@
     </row>
     <row r="1777">
       <c r="C1777" t="n">
-        <v>-36.05886152530686</v>
+        <v>-33.52744190689906</v>
       </c>
       <c r="D1777" t="n">
-        <v>15.11761746482212</v>
+        <v>14.81376446213043</v>
       </c>
     </row>
     <row r="1778">
       <c r="C1778" t="n">
-        <v>-36.26358416700373</v>
+        <v>-33.7381321498824</v>
       </c>
       <c r="D1778" t="n">
-        <v>15.11214808581473</v>
+        <v>14.80348081742047</v>
       </c>
     </row>
     <row r="1779">
       <c r="C1779" t="n">
-        <v>-36.46886990141157</v>
+        <v>-33.9525602275006</v>
       </c>
       <c r="D1779" t="n">
-        <v>15.10677058419765</v>
+        <v>14.79336915297712</v>
       </c>
     </row>
     <row r="1780">
       <c r="C1780" t="n">
-        <v>-36.67474641172635</v>
+        <v>-34.17083687253755</v>
       </c>
       <c r="D1780" t="n">
-        <v>15.10148938928222</v>
+        <v>14.783437806979</v>
       </c>
     </row>
     <row r="1781">
       <c r="C1781" t="n">
-        <v>-36.88124138114405</v>
+        <v>-34.39307281777715</v>
       </c>
       <c r="D1781" t="n">
-        <v>15.09630893037981</v>
+        <v>14.77369511760475</v>
       </c>
     </row>
     <row r="1782">
       <c r="C1782" t="n">
-        <v>-37.08838249286063</v>
+        <v>-34.61937879600328</v>
       </c>
       <c r="D1782" t="n">
-        <v>15.09123363680177</v>
+        <v>14.76414942303299</v>
       </c>
     </row>
     <row r="1783">
       <c r="C1783" t="n">
-        <v>-37.29619743007207</v>
+        <v>-34.84986553999983</v>
       </c>
       <c r="D1783" t="n">
-        <v>15.08626793785945</v>
+        <v>14.75480906144234</v>
       </c>
     </row>
     <row r="1784">
       <c r="C1784" t="n">
-        <v>-37.50471387597433</v>
+        <v>-35.08464378255069</v>
       </c>
       <c r="D1784" t="n">
-        <v>15.08141626286422</v>
+        <v>14.74568237101143</v>
       </c>
     </row>
     <row r="1785">
       <c r="C1785" t="n">
-        <v>-37.71395951376339</v>
+        <v>-35.32382425643976</v>
       </c>
       <c r="D1785" t="n">
-        <v>15.07668304112742</v>
+        <v>14.7367776899189</v>
       </c>
     </row>
     <row r="1786">
       <c r="C1786" t="n">
-        <v>-37.92396202663524</v>
+        <v>-35.56751769445091</v>
       </c>
       <c r="D1786" t="n">
-        <v>15.07207270196042</v>
+        <v>14.72810335634336</v>
       </c>
     </row>
     <row r="1787">
       <c r="C1787" t="n">
-        <v>-38.13474909778582</v>
+        <v>-35.81583482936804</v>
       </c>
       <c r="D1787" t="n">
-        <v>15.06758967467457</v>
+        <v>14.71966770846345</v>
       </c>
     </row>
     <row r="1788">
       <c r="C1788" t="n">
-        <v>-38.34634841041113</v>
+        <v>-36.06888639397505</v>
       </c>
       <c r="D1788" t="n">
-        <v>15.06323838858122</v>
+        <v>14.71147908445779</v>
       </c>
     </row>
     <row r="1789">
       <c r="C1789" t="n">
-        <v>-38.55878764770713</v>
+        <v>-36.32678312105583</v>
       </c>
       <c r="D1789" t="n">
-        <v>15.05902327299173</v>
+        <v>14.703545822505</v>
       </c>
     </row>
     <row r="1790">
       <c r="C1790" t="n">
-        <v>-38.77209449286979</v>
+        <v>-36.58963574339424</v>
       </c>
       <c r="D1790" t="n">
-        <v>15.05494875721745</v>
+        <v>14.69587626078372</v>
       </c>
     </row>
     <row r="1791">
       <c r="C1791" t="n">
-        <v>-38.98629662909508</v>
+        <v>-36.85755499377419</v>
       </c>
       <c r="D1791" t="n">
-        <v>15.05101927056975</v>
+        <v>14.68847873747258</v>
       </c>
     </row>
     <row r="1792">
       <c r="C1792" t="n">
-        <v>-39.20142173957899</v>
+        <v>-37.13065160497958</v>
       </c>
       <c r="D1792" t="n">
-        <v>15.04723924235997</v>
+        <v>14.68136159075019</v>
       </c>
     </row>
     <row r="1793">
       <c r="C1793" t="n">
-        <v>-39.41749750751747</v>
+        <v>-37.4090363097943</v>
       </c>
       <c r="D1793" t="n">
-        <v>15.04361310189948</v>
+        <v>14.67453315879519</v>
       </c>
     </row>
     <row r="1794">
       <c r="C1794" t="n">
-        <v>-39.63455161610651</v>
+        <v>-37.69281984100223</v>
       </c>
       <c r="D1794" t="n">
-        <v>15.04014527849962</v>
+        <v>14.6680017797862</v>
       </c>
     </row>
     <row r="1795">
       <c r="C1795" t="n">
-        <v>-39.85261174854207</v>
+        <v>-37.98211293138724</v>
       </c>
       <c r="D1795" t="n">
-        <v>15.03684020147176</v>
+        <v>14.66177579190184</v>
       </c>
     </row>
     <row r="1796">
       <c r="C1796" t="n">
-        <v>-40.07170558802014</v>
+        <v>-38.27702631373325</v>
       </c>
       <c r="D1796" t="n">
-        <v>15.03370230012725</v>
+        <v>14.65586353332076</v>
       </c>
     </row>
     <row r="1797">
       <c r="C1797" t="n">
-        <v>-40.29186081773667</v>
+        <v>-38.57767072082415</v>
       </c>
       <c r="D1797" t="n">
-        <v>15.03073600377744</v>
+        <v>14.65027334222157</v>
       </c>
     </row>
     <row r="1798">
       <c r="C1798" t="n">
-        <v>-40.51310512088766</v>
+        <v>-38.88415688544381</v>
       </c>
       <c r="D1798" t="n">
-        <v>15.02794574173369</v>
+        <v>14.6450135567829</v>
       </c>
     </row>
     <row r="1799">
       <c r="C1799" t="n">
-        <v>-40.73546618066905</v>
+        <v>-39.19659554037614</v>
       </c>
       <c r="D1799" t="n">
-        <v>15.02533594330735</v>
+        <v>14.64009251518337</v>
       </c>
     </row>
     <row r="1800">
       <c r="C1800" t="n">
-        <v>-40.95897168027683</v>
+        <v>-39.51509741840501</v>
       </c>
       <c r="D1800" t="n">
-        <v>15.02291103780979</v>
+        <v>14.63551855560162</v>
       </c>
     </row>
     <row r="1801">
       <c r="C1801" t="n">
-        <v>-41.18364930290697</v>
+        <v>-39.83977325231432</v>
       </c>
       <c r="D1801" t="n">
-        <v>15.02067545455236</v>
+        <v>14.63130001621627</v>
       </c>
     </row>
     <row r="1802">
       <c r="C1802" t="n">
-        <v>-41.40952673175545</v>
+        <v>-40.17073377488795</v>
       </c>
       <c r="D1802" t="n">
-        <v>15.0186336228464</v>
+        <v>14.62744523520595</v>
       </c>
     </row>
     <row r="1803">
       <c r="C1803" t="n">
-        <v>-41.63663165001822</v>
+        <v>-40.50808971890982</v>
       </c>
       <c r="D1803" t="n">
-        <v>15.01678997200329</v>
+        <v>14.62396255074929</v>
       </c>
     </row>
     <row r="1804">
       <c r="C1804" t="n">
-        <v>-41.86499174089129</v>
+        <v>-40.85195181716379</v>
       </c>
       <c r="D1804" t="n">
-        <v>15.01514893133437</v>
+        <v>14.6208603010249</v>
       </c>
     </row>
     <row r="1805">
       <c r="C1805" t="n">
-        <v>-42.0946346875706</v>
+        <v>-41.20243080243376</v>
       </c>
       <c r="D1805" t="n">
-        <v>15.013714930151</v>
+        <v>14.61814682421142</v>
       </c>
     </row>
     <row r="1806">
       <c r="C1806" t="n">
-        <v>-42.32558817325214</v>
+        <v>-41.5596374075036</v>
       </c>
       <c r="D1806" t="n">
-        <v>15.01249239776454</v>
+        <v>14.61583045848748</v>
       </c>
     </row>
     <row r="1807">
       <c r="C1807" t="n">
-        <v>-42.55787988113187</v>
+        <v>-41.92368236515725</v>
       </c>
       <c r="D1807" t="n">
-        <v>15.01148576348633</v>
+        <v>14.6139195420317</v>
       </c>
     </row>
     <row r="1808">
       <c r="C1808" t="n">
-        <v>-42.79153749440577</v>
+        <v>-42.29467640817855</v>
       </c>
       <c r="D1808" t="n">
-        <v>15.01069945662774</v>
+        <v>14.61242241302271</v>
       </c>
     </row>
     <row r="1809">
       <c r="C1809" t="n">
-        <v>-43.0265886962698</v>
+        <v>-42.67273026935142</v>
       </c>
       <c r="D1809" t="n">
-        <v>15.01013790650013</v>
+        <v>14.61134740963914</v>
       </c>
     </row>
     <row r="1810">
       <c r="C1810" t="n">
-        <v>-43.26306116991996</v>
+        <v>-43.05795468145973</v>
       </c>
       <c r="D1810" t="n">
-        <v>15.00980554241484</v>
+        <v>14.61070287005961</v>
       </c>
     </row>
     <row r="1811">
       <c r="C1811" t="n">
-        <v>-43.5009825985522</v>
+        <v>-43.45046037728737</v>
       </c>
       <c r="D1811" t="n">
-        <v>15.00970679368323</v>
+        <v>14.61049713246275</v>
       </c>
     </row>
     <row r="1812">
@@ -56442,7 +56448,7 @@
         <v>-43.58571428571428</v>
       </c>
       <c r="D1812" t="n">
-        <v>15.0062999999997</v>
+        <v>14.60709999999945</v>
       </c>
     </row>
     <row r="1813">
@@ -56450,7 +56456,7 @@
         <v>-44.01428571428571</v>
       </c>
       <c r="D1813" t="n">
-        <v>15.00612857142827</v>
+        <v>14.60692857142802</v>
       </c>
     </row>
     <row r="1814">
@@ -56458,7 +56464,7 @@
         <v>-44.44285714285714</v>
       </c>
       <c r="D1814" t="n">
-        <v>15.00595714285684</v>
+        <v>14.60675714285659</v>
       </c>
     </row>
     <row r="1815">
@@ -56466,7 +56472,7 @@
         <v>-44.87142857142857</v>
       </c>
       <c r="D1815" t="n">
-        <v>15.00578571428541</v>
+        <v>14.60658571428516</v>
       </c>
     </row>
     <row r="1816">
@@ -56474,7 +56480,7 @@
         <v>-45.3</v>
       </c>
       <c r="D1816" t="n">
-        <v>15.00561428571398</v>
+        <v>14.60641428571373</v>
       </c>
     </row>
     <row r="1817">
@@ -56482,7 +56488,7 @@
         <v>-45.72857142857143</v>
       </c>
       <c r="D1817" t="n">
-        <v>15.00544285714255</v>
+        <v>14.6062428571423</v>
       </c>
     </row>
     <row r="1818">
@@ -56490,7 +56496,7 @@
         <v>-46.15714285714285</v>
       </c>
       <c r="D1818" t="n">
-        <v>15.00527142857113</v>
+        <v>14.60607142857087</v>
       </c>
     </row>
     <row r="1819">
@@ -56498,7 +56504,7 @@
         <v>-46.58571428571428</v>
       </c>
       <c r="D1819" t="n">
-        <v>15.0050999999997</v>
+        <v>14.60589999999945</v>
       </c>
     </row>
     <row r="1820">
@@ -56506,7 +56512,7 @@
         <v>-47.01428571428571</v>
       </c>
       <c r="D1820" t="n">
-        <v>15.00492857142827</v>
+        <v>14.60572857142802</v>
       </c>
     </row>
     <row r="1821">
@@ -56514,7 +56520,7 @@
         <v>-47.44285714285714</v>
       </c>
       <c r="D1821" t="n">
-        <v>15.00475714285684</v>
+        <v>14.60555714285659</v>
       </c>
     </row>
     <row r="1822">
@@ -56522,7 +56528,7 @@
         <v>-47.87142857142857</v>
       </c>
       <c r="D1822" t="n">
-        <v>15.00458571428541</v>
+        <v>14.60538571428516</v>
       </c>
     </row>
     <row r="1823">
@@ -56530,7 +56536,7 @@
         <v>-48.3</v>
       </c>
       <c r="D1823" t="n">
-        <v>15.00441428571398</v>
+        <v>14.60521428571373</v>
       </c>
     </row>
     <row r="1824">
@@ -56538,7 +56544,7 @@
         <v>-48.72857142857143</v>
       </c>
       <c r="D1824" t="n">
-        <v>15.00424285714255</v>
+        <v>14.6050428571423</v>
       </c>
     </row>
     <row r="1825">
@@ -56546,7 +56552,7 @@
         <v>-49.15714285714285</v>
       </c>
       <c r="D1825" t="n">
-        <v>15.00407142857112</v>
+        <v>14.60487142857087</v>
       </c>
     </row>
   </sheetData>

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:J1825"/>
+  <dimension ref="A4:J1804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48555,10 +48555,10 @@
     </row>
     <row r="1509">
       <c r="A1509" t="n">
-        <v>2.639000000000027</v>
+        <v>2.300000000000018</v>
       </c>
       <c r="B1509" t="n">
-        <v>15.07551292358804</v>
+        <v>15.07561428571428</v>
       </c>
       <c r="C1509" t="n">
         <v>46.21</v>
@@ -48587,10 +48587,10 @@
     </row>
     <row r="1510">
       <c r="A1510" t="n">
-        <v>2.402861500065772</v>
+        <v>1.870000000000019</v>
       </c>
       <c r="B1510" t="n">
-        <v>15.07541684164377</v>
+        <v>15.07574285714285</v>
       </c>
       <c r="C1510" t="n">
         <v>46.04</v>
@@ -48619,10 +48619,10 @@
     </row>
     <row r="1511">
       <c r="A1511" t="n">
-        <v>2.171109621556809</v>
+        <v>1.440000000000019</v>
       </c>
       <c r="B1511" t="n">
-        <v>15.07499026557226</v>
+        <v>15.07587142857142</v>
       </c>
       <c r="C1511" t="n">
         <v>45.87</v>
@@ -48651,10 +48651,10 @@
     </row>
     <row r="1512">
       <c r="A1512" t="n">
-        <v>1.943631100761665</v>
+        <v>1.010000000000019</v>
       </c>
       <c r="B1512" t="n">
-        <v>15.07423951989121</v>
+        <v>15.076</v>
       </c>
       <c r="C1512" t="n">
         <v>45.71</v>
@@ -48683,10 +48683,10 @@
     </row>
     <row r="1513">
       <c r="A1513" t="n">
-        <v>1.720312673968867</v>
+        <v>0.5800000000000196</v>
       </c>
       <c r="B1513" t="n">
-        <v>15.07317092911834</v>
+        <v>15.07612857142857</v>
       </c>
       <c r="C1513" t="n">
         <v>45.54</v>
@@ -48715,10 +48715,10 @@
     </row>
     <row r="1514">
       <c r="A1514" t="n">
-        <v>1.501041077466939</v>
+        <v>0.1500000000000199</v>
       </c>
       <c r="B1514" t="n">
-        <v>15.07179081777135</v>
+        <v>15.07625714285714</v>
       </c>
       <c r="C1514" t="n">
         <v>45.37</v>
@@ -48747,10 +48747,10 @@
     </row>
     <row r="1515">
       <c r="A1515" t="n">
-        <v>1.285703047544411</v>
+        <v>-0.2799999999999798</v>
       </c>
       <c r="B1515" t="n">
-        <v>15.07010551036795</v>
+        <v>15.07638571428571</v>
       </c>
       <c r="C1515" t="n">
         <v>45.21</v>
@@ -48779,10 +48779,10 @@
     </row>
     <row r="1516">
       <c r="A1516" t="n">
-        <v>1.074185320489808</v>
+        <v>-0.7099999999999795</v>
       </c>
       <c r="B1516" t="n">
-        <v>15.06812133142586</v>
+        <v>15.07651428571428</v>
       </c>
       <c r="C1516" t="n">
         <v>45.04</v>
@@ -48811,10 +48811,10 @@
     </row>
     <row r="1517">
       <c r="A1517" t="n">
-        <v>0.8663746325916581</v>
+        <v>-1.139999999999979</v>
       </c>
       <c r="B1517" t="n">
-        <v>15.06584460546278</v>
+        <v>15.07664285714285</v>
       </c>
       <c r="C1517" t="n">
         <v>44.88</v>
@@ -48843,10 +48843,10 @@
     </row>
     <row r="1518">
       <c r="A1518" t="n">
-        <v>0.6621577201384874</v>
+        <v>-1.569999999999979</v>
       </c>
       <c r="B1518" t="n">
-        <v>15.06328165699643</v>
+        <v>15.07677142857142</v>
       </c>
       <c r="C1518" t="n">
         <v>44.71</v>
@@ -48875,10 +48875,10 @@
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>0.4614213194188224</v>
+        <v>-2.004503108155337</v>
       </c>
       <c r="B1519" t="n">
-        <v>15.0604388105445</v>
+        <v>15.07647228606796</v>
       </c>
       <c r="C1519" t="n">
         <v>44.54</v>
@@ -48907,10 +48907,10 @@
     </row>
     <row r="1520">
       <c r="A1520" t="n">
-        <v>0.2640521667211909</v>
+        <v>-2.418524656625164</v>
       </c>
       <c r="B1520" t="n">
-        <v>15.05732239062472</v>
+        <v>15.07532635386189</v>
       </c>
       <c r="C1520" t="n">
         <v>44.38</v>
@@ -48939,10 +48939,10 @@
     </row>
     <row r="1521">
       <c r="A1521" t="n">
-        <v>0.06993699833411959</v>
+        <v>-2.812702546632474</v>
       </c>
       <c r="B1521" t="n">
-        <v>15.05393872175479</v>
+        <v>15.07336000534445</v>
       </c>
       <c r="C1521" t="n">
         <v>44.21</v>
@@ -48971,10 +48971,10 @@
     </row>
     <row r="1522">
       <c r="A1522" t="n">
-        <v>-0.121037449453866</v>
+        <v>-3.187674679400287</v>
       </c>
       <c r="B1522" t="n">
-        <v>15.05029412845241</v>
+        <v>15.07059961390689</v>
       </c>
       <c r="C1522" t="n">
         <v>44.04</v>
@@ -49003,10 +49003,10 @@
     </row>
     <row r="1523">
       <c r="A1523" t="n">
-        <v>-0.3089844403542378</v>
+        <v>-3.544078956151619</v>
       </c>
       <c r="B1523" t="n">
-        <v>15.04639493523531</v>
+        <v>15.06707155294046</v>
       </c>
       <c r="C1523" t="n">
         <v>43.88</v>
@@ -49035,10 +49035,10 @@
     </row>
     <row r="1524">
       <c r="A1524" t="n">
-        <v>-0.4940172380784689</v>
+        <v>-3.882553278109484</v>
       </c>
       <c r="B1524" t="n">
-        <v>15.04224746662119</v>
+        <v>15.0628021958364</v>
       </c>
       <c r="C1524" t="n">
         <v>43.71</v>
@@ -49067,10 +49067,10 @@
     </row>
     <row r="1525">
       <c r="A1525" t="n">
-        <v>-0.6762491063380331</v>
+        <v>-4.203735546496905</v>
       </c>
       <c r="B1525" t="n">
-        <v>15.03785804712776</v>
+        <v>15.05781791598597</v>
       </c>
       <c r="C1525" t="n">
         <v>43.54</v>
@@ -49099,10 +49099,10 @@
     </row>
     <row r="1526">
       <c r="A1526" t="n">
-        <v>-0.8557933088444034</v>
+        <v>-4.508263662536893</v>
       </c>
       <c r="B1526" t="n">
-        <v>15.03323300127272</v>
+        <v>15.0521450867804</v>
       </c>
       <c r="C1526" t="n">
         <v>43.37</v>
@@ -49131,10 +49131,10 @@
     </row>
     <row r="1527">
       <c r="A1527" t="n">
-        <v>-1.032763109309053</v>
+        <v>-4.796775527452468</v>
       </c>
       <c r="B1527" t="n">
-        <v>15.0283786535738</v>
+        <v>15.04581008161095</v>
       </c>
       <c r="C1527" t="n">
         <v>43.21</v>
@@ -49163,10 +49163,10 @@
     </row>
     <row r="1528">
       <c r="A1528" t="n">
-        <v>-1.207271771443455</v>
+        <v>-5.069909042466646</v>
       </c>
       <c r="B1528" t="n">
-        <v>15.02330132854869</v>
+        <v>15.03883927386887</v>
       </c>
       <c r="C1528" t="n">
         <v>43.04</v>
@@ -49195,10 +49195,10 @@
     </row>
     <row r="1529">
       <c r="A1529" t="n">
-        <v>-1.379432558959082</v>
+        <v>-5.328302108802442</v>
       </c>
       <c r="B1529" t="n">
-        <v>15.01800735071511</v>
+        <v>15.03125903694539</v>
       </c>
       <c r="C1529" t="n">
         <v>42.88</v>
@@ -49227,10 +49227,10 @@
     </row>
     <row r="1530">
       <c r="A1530" t="n">
-        <v>-1.549358735567408</v>
+        <v>-5.572592627682877</v>
       </c>
       <c r="B1530" t="n">
-        <v>15.01250304459077</v>
+        <v>15.02309574423177</v>
       </c>
       <c r="C1530" t="n">
         <v>42.71</v>
@@ -49259,10 +49259,10 @@
     </row>
     <row r="1531">
       <c r="A1531" t="n">
-        <v>-1.717163564979907</v>
+        <v>-5.803418500330967</v>
       </c>
       <c r="B1531" t="n">
-        <v>15.00679473469338</v>
+        <v>15.01437576911925</v>
       </c>
       <c r="C1531" t="n">
         <v>42.54</v>
@@ -49291,10 +49291,10 @@
     </row>
     <row r="1532">
       <c r="A1532" t="n">
-        <v>-1.882960310908049</v>
+        <v>-6.021417627969724</v>
       </c>
       <c r="B1532" t="n">
-        <v>15.00088874554063</v>
+        <v>15.00512548499908</v>
       </c>
       <c r="C1532" t="n">
         <v>42.38</v>
@@ -49323,10 +49323,10 @@
     </row>
     <row r="1533">
       <c r="A1533" t="n">
-        <v>-2.046862237063311</v>
+        <v>-6.227227911822171</v>
       </c>
       <c r="B1533" t="n">
-        <v>14.99479140165026</v>
+        <v>14.99537126526252</v>
       </c>
       <c r="C1533" t="n">
         <v>42.21</v>
@@ -49355,10 +49355,10 @@
     </row>
     <row r="1534">
       <c r="A1534" t="n">
-        <v>-2.208982607157163</v>
+        <v>-6.421487253111323</v>
       </c>
       <c r="B1534" t="n">
-        <v>14.98850902753996</v>
+        <v>14.9851394833008</v>
       </c>
       <c r="C1534" t="n">
         <v>42.04</v>
@@ -49387,10 +49387,10 @@
     </row>
     <row r="1535">
       <c r="A1535" t="n">
-        <v>-2.369434684901081</v>
+        <v>-6.604833553060195</v>
       </c>
       <c r="B1535" t="n">
-        <v>14.98204794772745</v>
+        <v>14.97445651250517</v>
       </c>
       <c r="C1535" t="n">
         <v>41.88</v>
@@ -49419,10 +49419,10 @@
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>-2.528331734006535</v>
+        <v>-6.777904712891807</v>
       </c>
       <c r="B1536" t="n">
-        <v>14.97541448673044</v>
+        <v>14.96334872626688</v>
       </c>
       <c r="C1536" t="n">
         <v>41.71</v>
@@ -49451,10 +49451,10 @@
     </row>
     <row r="1537">
       <c r="A1537" t="n">
-        <v>-2.685787018185002</v>
+        <v>-6.94133863382917</v>
       </c>
       <c r="B1537" t="n">
-        <v>14.96861496906662</v>
+        <v>14.95184249797717</v>
       </c>
       <c r="C1537" t="n">
         <v>41.54</v>
@@ -49483,10 +49483,10 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>-2.841913801147951</v>
+        <v>-7.09577321709531</v>
       </c>
       <c r="B1538" t="n">
-        <v>14.96165571925372</v>
+        <v>14.93996420102729</v>
       </c>
       <c r="C1538" t="n">
         <v>41.38</v>
@@ -49515,10 +49515,10 @@
     </row>
     <row r="1539">
       <c r="A1539" t="n">
-        <v>-2.996825346606859</v>
+        <v>-7.241846363913236</v>
       </c>
       <c r="B1539" t="n">
-        <v>14.95454306180945</v>
+        <v>14.9277402088085</v>
       </c>
       <c r="C1539" t="n">
         <v>41.21</v>
@@ -49547,10 +49547,10 @@
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>-3.150634918273196</v>
+        <v>-7.380195975505968</v>
       </c>
       <c r="B1540" t="n">
-        <v>14.9472833212515</v>
+        <v>14.91519689471203</v>
       </c>
       <c r="C1540" t="n">
         <v>41.04</v>
@@ -49579,10 +49579,10 @@
     </row>
     <row r="1541">
       <c r="A1541" t="n">
-        <v>-3.303455779858438</v>
+        <v>-7.511459953096525</v>
       </c>
       <c r="B1541" t="n">
-        <v>14.93988282209761</v>
+        <v>14.90236063212914</v>
       </c>
       <c r="C1541" t="n">
         <v>40.88</v>
@@ -49611,10 +49611,10 @@
     </row>
     <row r="1542">
       <c r="A1542" t="n">
-        <v>-3.455401195074057</v>
+        <v>-7.63627619790792</v>
       </c>
       <c r="B1542" t="n">
-        <v>14.93234788886546</v>
+        <v>14.88925779445107</v>
       </c>
       <c r="C1542" t="n">
         <v>40.71</v>
@@ -49643,10 +49643,10 @@
     </row>
     <row r="1543">
       <c r="A1543" t="n">
-        <v>-3.606584427631524</v>
+        <v>-7.755282611163173</v>
       </c>
       <c r="B1543" t="n">
-        <v>14.92468484607277</v>
+        <v>14.87591475506906</v>
       </c>
       <c r="C1543" t="n">
         <v>40.54</v>
@@ -49675,10 +49675,10 @@
     </row>
     <row r="1544">
       <c r="A1544" t="n">
-        <v>-3.757118741242316</v>
+        <v>-7.8691170940853</v>
       </c>
       <c r="B1544" t="n">
-        <v>14.91690001823726</v>
+        <v>14.86235788737437</v>
       </c>
       <c r="C1544" t="n">
         <v>40.38</v>
@@ -49707,10 +49707,10 @@
     </row>
     <row r="1545">
       <c r="A1545" t="n">
-        <v>-3.907117399617903</v>
+        <v>-7.978417547897314</v>
       </c>
       <c r="B1545" t="n">
-        <v>14.90899972987663</v>
+        <v>14.84861356475824</v>
       </c>
       <c r="C1545" t="n">
         <v>40.21</v>
@@ -49739,10 +49739,10 @@
     </row>
     <row r="1546">
       <c r="A1546" t="n">
-        <v>-4.05669366646976</v>
+        <v>-8.083821873822238</v>
       </c>
       <c r="B1546" t="n">
-        <v>14.90099030550858</v>
+        <v>14.83470816061192</v>
       </c>
       <c r="C1546" t="n">
         <v>40.04</v>
@@ -49771,10 +49771,10 @@
     </row>
     <row r="1547">
       <c r="A1547" t="n">
-        <v>-4.20596080550936</v>
+        <v>-8.185967973083084</v>
       </c>
       <c r="B1547" t="n">
-        <v>14.89287806965084</v>
+        <v>14.82066804832665</v>
       </c>
       <c r="C1547" t="n">
         <v>39.88</v>
@@ -49803,10 +49803,10 @@
     </row>
     <row r="1548">
       <c r="A1548" t="n">
-        <v>-4.355032080448176</v>
+        <v>-8.285493746902873</v>
       </c>
       <c r="B1548" t="n">
-        <v>14.88466934682111</v>
+        <v>14.80651960129369</v>
       </c>
       <c r="C1548" t="n">
         <v>39.71</v>
@@ -49835,10 +49835,10 @@
     </row>
     <row r="1549">
       <c r="A1549" t="n">
-        <v>-4.504020754997679</v>
+        <v>-8.383037096504621</v>
       </c>
       <c r="B1549" t="n">
-        <v>14.87637046153709</v>
+        <v>14.79228919290428</v>
       </c>
       <c r="C1549" t="n">
         <v>39.54</v>
@@ -49867,10 +49867,10 @@
     </row>
     <row r="1550">
       <c r="A1550" t="n">
-        <v>-4.653040092869348</v>
+        <v>-8.479235923111343</v>
       </c>
       <c r="B1550" t="n">
-        <v>14.86798773831651</v>
+        <v>14.77800319654966</v>
       </c>
       <c r="C1550" t="n">
         <v>39.38</v>
@@ -49899,10 +49899,10 @@
     </row>
     <row r="1551">
       <c r="A1551" t="n">
-        <v>-4.802203357774649</v>
+        <v>-8.574728127946056</v>
       </c>
       <c r="B1551" t="n">
-        <v>14.85952750167707</v>
+        <v>14.76368798562109</v>
       </c>
       <c r="C1551" t="n">
         <v>39.21</v>
@@ -49931,10 +49931,10 @@
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>-4.951623813425059</v>
+        <v>-8.670151612231777</v>
       </c>
       <c r="B1552" t="n">
-        <v>14.85099607613647</v>
+        <v>14.7493699335098</v>
       </c>
       <c r="C1552" t="n">
         <v>39.04</v>
@@ -49963,10 +49963,10 @@
     </row>
     <row r="1553">
       <c r="A1553" t="n">
-        <v>-5.101414723532051</v>
+        <v>-8.766144277191527</v>
       </c>
       <c r="B1553" t="n">
-        <v>14.84239978621243</v>
+        <v>14.73507541360706</v>
       </c>
       <c r="C1553" t="n">
         <v>38.88</v>
@@ -49995,10 +49995,10 @@
     </row>
     <row r="1554">
       <c r="A1554" t="n">
-        <v>-5.251689351807096</v>
+        <v>-8.863344024048317</v>
       </c>
       <c r="B1554" t="n">
-        <v>14.83374495642265</v>
+        <v>14.7208307993041</v>
       </c>
       <c r="C1554" t="n">
         <v>38.71</v>
@@ -50027,10 +50027,10 @@
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>-5.402560961961672</v>
+        <v>-8.962388754025167</v>
       </c>
       <c r="B1555" t="n">
-        <v>14.82503791128486</v>
+        <v>14.70666246399217</v>
       </c>
       <c r="C1555" t="n">
         <v>38.55</v>
@@ -50059,10 +50059,10 @@
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>-5.554142817707248</v>
+        <v>-9.063916368345094</v>
       </c>
       <c r="B1556" t="n">
-        <v>14.81628497531675</v>
+        <v>14.69259678106252</v>
       </c>
       <c r="C1556" t="n">
         <v>38.38</v>
@@ -50071,10 +50071,10 @@
         <v>15.4897</v>
       </c>
       <c r="E1556" t="n">
-        <v>-4.094500000000026</v>
+        <v>-4.102500000000017</v>
       </c>
       <c r="F1556" t="n">
-        <v>12.5284530967742</v>
+        <v>12.52845000000001</v>
       </c>
       <c r="G1556" t="n">
         <v>1.669999999999987</v>
@@ -50091,10 +50091,10 @@
     </row>
     <row r="1557">
       <c r="A1557" t="n">
-        <v>-5.706548182755299</v>
+        <v>-9.168564768231112</v>
       </c>
       <c r="B1557" t="n">
-        <v>14.80749247303604</v>
+        <v>14.67866012390639</v>
       </c>
       <c r="C1557" t="n">
         <v>38.21</v>
@@ -50103,10 +50103,10 @@
         <v>15.4895</v>
       </c>
       <c r="E1557" t="n">
-        <v>-4.308348544720716</v>
+        <v>-4.490000000000013</v>
       </c>
       <c r="F1557" t="n">
-        <v>12.52827670740668</v>
+        <v>12.52830000000001</v>
       </c>
       <c r="G1557" t="n">
         <v>1.282499999999988</v>
@@ -50123,10 +50123,10 @@
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>-5.859890320817297</v>
+        <v>-9.276971854906243</v>
       </c>
       <c r="B1558" t="n">
-        <v>14.79866672896043</v>
+        <v>14.66487886591504</v>
       </c>
       <c r="C1558" t="n">
         <v>38.05</v>
@@ -50135,10 +50135,10 @@
         <v>15.4894</v>
       </c>
       <c r="E1558" t="n">
-        <v>-4.518648623824715</v>
+        <v>-4.877500000000015</v>
       </c>
       <c r="F1558" t="n">
-        <v>12.5279166122579</v>
+        <v>12.52815000000001</v>
       </c>
       <c r="G1558" t="n">
         <v>0.8949999999999854</v>
@@ -50155,10 +50155,10 @@
     </row>
     <row r="1559">
       <c r="A1559" t="n">
-        <v>-6.014282495604716</v>
+        <v>-9.389775529593498</v>
       </c>
       <c r="B1559" t="n">
-        <v>14.78981406760764</v>
+        <v>14.6512793804797</v>
       </c>
       <c r="C1559" t="n">
         <v>37.88</v>
@@ -50167,10 +50167,10 @@
         <v>15.4892</v>
       </c>
       <c r="E1559" t="n">
-        <v>-4.725481705256835</v>
+        <v>-5.265000000000018</v>
       </c>
       <c r="F1559" t="n">
-        <v>12.52737598857771</v>
+        <v>12.52800000000001</v>
       </c>
       <c r="G1559" t="n">
         <v>0.5074999999999861</v>
@@ -50187,10 +50187,10 @@
     </row>
     <row r="1560">
       <c r="A1560" t="n">
-        <v>-6.169837970829027</v>
+        <v>-9.5076136935159</v>
       </c>
       <c r="B1560" t="n">
-        <v>14.78094081349537</v>
+        <v>14.63788804099163</v>
       </c>
       <c r="C1560" t="n">
         <v>37.71</v>
@@ -50199,10 +50199,10 @@
         <v>15.489</v>
       </c>
       <c r="E1560" t="n">
-        <v>-4.928929256961879</v>
+        <v>-5.652500000000014</v>
       </c>
       <c r="F1560" t="n">
-        <v>12.52665801361596</v>
+        <v>12.52785000000001</v>
       </c>
       <c r="G1560" t="n">
         <v>0.1199999999999868</v>
@@ -50219,10 +50219,10 @@
     </row>
     <row r="1561">
       <c r="A1561" t="n">
-        <v>-6.326670010201707</v>
+        <v>-9.63112424789646</v>
       </c>
       <c r="B1561" t="n">
-        <v>14.77205329114134</v>
+        <v>14.62473122084208</v>
       </c>
       <c r="C1561" t="n">
         <v>37.55</v>
@@ -50231,10 +50231,10 @@
         <v>15.4889</v>
       </c>
       <c r="E1561" t="n">
-        <v>-5.129072746884658</v>
+        <v>-6.040000000000017</v>
       </c>
       <c r="F1561" t="n">
-        <v>12.5257658646225</v>
+        <v>12.52770000000001</v>
       </c>
       <c r="G1561" t="n">
         <v>-0.2675000000000125</v>
@@ -50251,10 +50251,10 @@
     </row>
     <row r="1562">
       <c r="A1562" t="n">
-        <v>-6.484891877434228</v>
+        <v>-9.760945093958201</v>
       </c>
       <c r="B1562" t="n">
-        <v>14.76315782506325</v>
+        <v>14.61183529342228</v>
       </c>
       <c r="C1562" t="n">
         <v>37.38</v>
@@ -50263,10 +50263,10 @@
         <v>15.4888</v>
       </c>
       <c r="E1562" t="n">
-        <v>-5.32599364296998</v>
+        <v>-6.42750000000002</v>
       </c>
       <c r="F1562" t="n">
-        <v>12.52470271884718</v>
+        <v>12.52755000000001</v>
       </c>
       <c r="G1562" t="n">
         <v>-0.6550000000000118</v>
@@ -50283,10 +50283,10 @@
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>-6.644616836238061</v>
+        <v>-9.897714132924134</v>
       </c>
       <c r="B1563" t="n">
-        <v>14.75426073977881</v>
+        <v>14.59922663212349</v>
       </c>
       <c r="C1563" t="n">
         <v>37.21</v>
@@ -50295,10 +50295,10 @@
         <v>15.4887</v>
       </c>
       <c r="E1563" t="n">
-        <v>-5.519773413162658</v>
+        <v>-6.815000000000015</v>
       </c>
       <c r="F1563" t="n">
-        <v>12.52347175353985</v>
+        <v>12.52740000000001</v>
       </c>
       <c r="G1563" t="n">
         <v>-1.042500000000015</v>
@@ -50315,10 +50315,10 @@
     </row>
     <row r="1564">
       <c r="A1564" t="n">
-        <v>-6.805958150324679</v>
+        <v>-10.04206926601728</v>
       </c>
       <c r="B1564" t="n">
-        <v>14.74536835980574</v>
+        <v>14.58693161033696</v>
       </c>
       <c r="C1564" t="n">
         <v>37.05</v>
@@ -50327,10 +50327,10 @@
         <v>15.4886</v>
       </c>
       <c r="E1564" t="n">
-        <v>-5.710493525407493</v>
+        <v>-7.202500000000018</v>
       </c>
       <c r="F1564" t="n">
-        <v>12.52207614595034</v>
+        <v>12.52725000000001</v>
       </c>
       <c r="G1564" t="n">
         <v>-1.430000000000014</v>
@@ -50347,10 +50347,10 @@
     </row>
     <row r="1565">
       <c r="A1565" t="n">
-        <v>-6.969029083405561</v>
+        <v>-10.19464839446065</v>
       </c>
       <c r="B1565" t="n">
-        <v>14.73648700966174</v>
+        <v>14.57497660145393</v>
       </c>
       <c r="C1565" t="n">
         <v>36.88</v>
@@ -50359,10 +50359,10 @@
         <v>15.4885</v>
       </c>
       <c r="E1565" t="n">
-        <v>-5.898235447649297</v>
+        <v>-7.590000000000021</v>
       </c>
       <c r="F1565" t="n">
-        <v>12.52051907332851</v>
+        <v>12.52710000000001</v>
       </c>
       <c r="G1565" t="n">
         <v>-1.817500000000013</v>
@@ -50379,10 +50379,10 @@
     </row>
     <row r="1566">
       <c r="A1566" t="n">
-        <v>-7.133942899192173</v>
+        <v>-10.35608941947727</v>
       </c>
       <c r="B1566" t="n">
-        <v>14.72762301386452</v>
+        <v>14.56338797886564</v>
       </c>
       <c r="C1566" t="n">
         <v>36.71</v>
@@ -50391,10 +50391,10 @@
         <v>15.4885</v>
       </c>
       <c r="E1566" t="n">
-        <v>-6.083080647832878</v>
+        <v>-7.977500000000017</v>
       </c>
       <c r="F1566" t="n">
-        <v>12.51880371292421</v>
+        <v>12.52695000000001</v>
       </c>
       <c r="G1566" t="n">
         <v>-2.205000000000016</v>
@@ -50411,10 +50411,10 @@
     </row>
     <row r="1567">
       <c r="A1567" t="n">
-        <v>-7.30081286139599</v>
+        <v>-10.52703024229016</v>
       </c>
       <c r="B1567" t="n">
-        <v>14.7187826969318</v>
+        <v>14.55219211596335</v>
       </c>
       <c r="C1567" t="n">
         <v>36.55</v>
@@ -50423,10 +50423,10 @@
         <v>15.4884</v>
       </c>
       <c r="E1567" t="n">
-        <v>-6.265110593903046</v>
+        <v>-8.36500000000002</v>
       </c>
       <c r="F1567" t="n">
-        <v>12.51693324198729</v>
+        <v>12.52680000000001</v>
       </c>
       <c r="G1567" t="n">
         <v>-2.592500000000015</v>
@@ -50443,10 +50443,10 @@
     </row>
     <row r="1568">
       <c r="A1568" t="n">
-        <v>-7.469752233728489</v>
+        <v>-10.70810876412231</v>
       </c>
       <c r="B1568" t="n">
-        <v>14.70997238338127</v>
+        <v>14.54141538613831</v>
       </c>
       <c r="C1568" t="n">
         <v>36.38</v>
@@ -50455,10 +50455,10 @@
         <v>15.4883</v>
       </c>
       <c r="E1568" t="n">
-        <v>-6.444406753804607</v>
+        <v>-8.759104769706424</v>
       </c>
       <c r="F1568" t="n">
-        <v>12.51491083776758</v>
+        <v>12.52641275707864</v>
       </c>
       <c r="G1568" t="n">
         <v>-2.980000000000015</v>
@@ -50475,10 +50475,10 @@
     </row>
     <row r="1569">
       <c r="A1569" t="n">
-        <v>-7.640874279901139</v>
+        <v>-10.89996288619677</v>
       </c>
       <c r="B1569" t="n">
-        <v>14.70119839773066</v>
+        <v>14.53108416278175</v>
       </c>
       <c r="C1569" t="n">
         <v>36.21</v>
@@ -50487,10 +50487,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1569" t="n">
-        <v>-6.621050595482371</v>
+        <v>-9.136631878696011</v>
       </c>
       <c r="F1569" t="n">
-        <v>12.51273967751494</v>
+        <v>12.52557106262535</v>
       </c>
       <c r="G1569" t="n">
         <v>-3.367500000000014</v>
@@ -50507,10 +50507,10 @@
     </row>
     <row r="1570">
       <c r="A1570" t="n">
-        <v>-7.814292263625413</v>
+        <v>-11.10323050973654</v>
       </c>
       <c r="B1570" t="n">
-        <v>14.69246706449767</v>
+        <v>14.52122481928493</v>
       </c>
       <c r="C1570" t="n">
         <v>36.05</v>
@@ -50519,16 +50519,16 @@
         <v>15.4881</v>
       </c>
       <c r="E1570" t="n">
-        <v>-6.795123586881147</v>
+        <v>-9.498040154433964</v>
       </c>
       <c r="F1570" t="n">
-        <v>12.51042293847922</v>
+        <v>12.52428749470217</v>
       </c>
       <c r="G1570" t="n">
-        <v>-3.702750000000021</v>
+        <v>-3.755000000000013</v>
       </c>
       <c r="H1570" t="n">
-        <v>14.24412949193547</v>
+        <v>14.24417499999999</v>
       </c>
       <c r="I1570" t="n">
         <v>15.45571428571429</v>
@@ -50539,10 +50539,10 @@
     </row>
     <row r="1571">
       <c r="A1571" t="n">
-        <v>-7.990119448612788</v>
+        <v>-11.31854953596464</v>
       </c>
       <c r="B1571" t="n">
-        <v>14.68378470820001</v>
+        <v>14.51186372903909</v>
       </c>
       <c r="C1571" t="n">
         <v>35.88</v>
@@ -50551,16 +50551,16 @@
         <v>15.488</v>
       </c>
       <c r="E1571" t="n">
-        <v>-6.966707195945743</v>
+        <v>-9.84378842438543</v>
       </c>
       <c r="F1571" t="n">
-        <v>12.50796379791026</v>
+        <v>12.52257463137109</v>
       </c>
       <c r="G1571" t="n">
-        <v>-3.916592358318304</v>
+        <v>-4.142500000000016</v>
       </c>
       <c r="H1571" t="n">
-        <v>14.2441612124116</v>
+        <v>14.24451249999999</v>
       </c>
       <c r="I1571" t="n">
         <v>15.02142857142858</v>
@@ -50571,10 +50571,10 @@
     </row>
     <row r="1572">
       <c r="A1572" t="n">
-        <v>-8.168469098574736</v>
+        <v>-11.54655786610409</v>
       </c>
       <c r="B1572" t="n">
-        <v>14.67515765335538</v>
+        <v>14.50302726543548</v>
       </c>
       <c r="C1572" t="n">
         <v>35.71</v>
@@ -50583,16 +50583,16 @@
         <v>15.488</v>
       </c>
       <c r="E1572" t="n">
-        <v>-7.135882890620966</v>
+        <v>-10.17433551601557</v>
       </c>
       <c r="F1572" t="n">
-        <v>12.50536543305792</v>
+        <v>12.52044505069413</v>
       </c>
       <c r="G1572" t="n">
-        <v>-4.126922618501787</v>
+        <v>-4.530000000000012</v>
       </c>
       <c r="H1572" t="n">
-        <v>14.24388420845569</v>
+        <v>14.24484999999999</v>
       </c>
       <c r="I1572" t="n">
         <v>14.58714285714286</v>
@@ -50603,10 +50603,10 @@
     </row>
     <row r="1573">
       <c r="A1573" t="n">
-        <v>-8.349454477222727</v>
+        <v>-11.7878934013779</v>
       </c>
       <c r="B1573" t="n">
-        <v>14.66659222448151</v>
+        <v>14.49474180186535</v>
       </c>
       <c r="C1573" t="n">
         <v>35.55</v>
@@ -50615,16 +50615,16 @@
         <v>15.4879</v>
       </c>
       <c r="E1573" t="n">
-        <v>-7.302732138851626</v>
+        <v>-10.49014025678955</v>
       </c>
       <c r="F1573" t="n">
-        <v>12.50263102117203</v>
+        <v>12.51791133073328</v>
       </c>
       <c r="G1573" t="n">
-        <v>-4.333820558393417</v>
+        <v>-4.917500000000015</v>
       </c>
       <c r="H1573" t="n">
-        <v>14.24330363924938</v>
+        <v>14.24518749999999</v>
       </c>
       <c r="I1573" t="n">
         <v>14.15285714285715</v>
@@ -50635,10 +50635,10 @@
     </row>
     <row r="1574">
       <c r="A1574" t="n">
-        <v>-8.533188848268237</v>
+        <v>-12.04319404300909</v>
       </c>
       <c r="B1574" t="n">
-        <v>14.6580947460961</v>
+        <v>14.48703371171994</v>
       </c>
       <c r="C1574" t="n">
         <v>35.38</v>
@@ -50647,16 +50647,16 @@
         <v>15.4877</v>
       </c>
       <c r="E1574" t="n">
-        <v>-7.467336408582532</v>
+        <v>-10.79166147417253</v>
       </c>
       <c r="F1574" t="n">
-        <v>12.49976373950245</v>
+        <v>12.51498604955056</v>
       </c>
       <c r="G1574" t="n">
-        <v>-4.537365955836147</v>
+        <v>-5.305000000000017</v>
       </c>
       <c r="H1574" t="n">
-        <v>14.24242466397431</v>
+        <v>14.24552499999999</v>
       </c>
       <c r="I1574" t="n">
         <v>13.71857142857143</v>
@@ -50667,10 +50667,10 @@
     </row>
     <row r="1575">
       <c r="A1575" t="n">
-        <v>-8.719785475422738</v>
+        <v>-12.31309769222068</v>
       </c>
       <c r="B1575" t="n">
-        <v>14.64967154271685</v>
+        <v>14.4799293683905</v>
       </c>
       <c r="C1575" t="n">
         <v>35.22</v>
@@ -50679,16 +50679,16 @@
         <v>15.4876</v>
       </c>
       <c r="E1575" t="n">
-        <v>-7.62977716775849</v>
+        <v>-11.07935799562967</v>
       </c>
       <c r="F1575" t="n">
-        <v>12.49676676529903</v>
+        <v>12.51168178520798</v>
       </c>
       <c r="G1575" t="n">
-        <v>-4.737638588672925</v>
+        <v>-5.692500000000013</v>
       </c>
       <c r="H1575" t="n">
-        <v>14.2412524418121</v>
+        <v>14.24586249999999</v>
       </c>
       <c r="I1575" t="n">
         <v>13.28428571428572</v>
@@ -50699,10 +50699,10 @@
     </row>
     <row r="1576">
       <c r="A1576" t="n">
-        <v>-8.909357622397703</v>
+        <v>-12.59824225023568</v>
       </c>
       <c r="B1576" t="n">
-        <v>14.64132893886148</v>
+        <v>14.47345514526828</v>
       </c>
       <c r="C1576" t="n">
         <v>35.05</v>
@@ -50711,16 +50711,16 @@
         <v>15.4875</v>
       </c>
       <c r="E1576" t="n">
-        <v>-7.790135884324311</v>
+        <v>-11.35368864862614</v>
       </c>
       <c r="F1576" t="n">
-        <v>12.4936432758116</v>
+        <v>12.50801111576753</v>
       </c>
       <c r="G1576" t="n">
-        <v>-4.934718234746702</v>
+        <v>-6.080000000000016</v>
       </c>
       <c r="H1576" t="n">
-        <v>14.23979213194439</v>
+        <v>14.24619999999999</v>
       </c>
       <c r="I1576" t="n">
         <v>12.85</v>
@@ -50731,10 +50731,10 @@
     </row>
     <row r="1577">
       <c r="A1577" t="n">
-        <v>-9.102018552904607</v>
+        <v>-12.89926561827712</v>
       </c>
       <c r="B1577" t="n">
-        <v>14.6330732590477</v>
+        <v>14.46763741574453</v>
       </c>
       <c r="C1577" t="n">
         <v>34.88</v>
@@ -50743,16 +50743,16 @@
         <v>15.4874</v>
       </c>
       <c r="E1577" t="n">
-        <v>-7.948494026224802</v>
+        <v>-11.61511226062708</v>
       </c>
       <c r="F1577" t="n">
-        <v>12.49039644829002</v>
+        <v>12.50398661929123</v>
       </c>
       <c r="G1577" t="n">
-        <v>-5.128684671900428</v>
+        <v>-6.467500000000019</v>
       </c>
       <c r="H1577" t="n">
-        <v>14.23804889355282</v>
+        <v>14.24653749999999</v>
       </c>
       <c r="I1577" t="n">
         <v>12.41571428571429</v>
@@ -50763,10 +50763,10 @@
     </row>
     <row r="1578">
       <c r="A1578" t="n">
-        <v>-9.297881530654919</v>
+        <v>-13.216805697568</v>
       </c>
       <c r="B1578" t="n">
-        <v>14.62491082779322</v>
+        <v>14.46250255321049</v>
       </c>
       <c r="C1578" t="n">
         <v>34.72</v>
@@ -50775,16 +50775,16 @@
         <v>15.4873</v>
       </c>
       <c r="E1578" t="n">
-        <v>-8.104933061404772</v>
+        <v>-11.86408765909768</v>
       </c>
       <c r="F1578" t="n">
-        <v>12.48702945998414</v>
+        <v>12.49962087384109</v>
       </c>
       <c r="G1578" t="n">
-        <v>-5.31961767797705</v>
+        <v>-6.855000000000015</v>
       </c>
       <c r="H1578" t="n">
-        <v>14.23602788581902</v>
+        <v>14.24687499999999</v>
       </c>
       <c r="I1578" t="n">
         <v>11.98142857142858</v>
@@ -50795,10 +50795,10 @@
     </row>
     <row r="1579">
       <c r="A1579" t="n">
-        <v>-9.497059819360121</v>
+        <v>-13.55150038933134</v>
       </c>
       <c r="B1579" t="n">
-        <v>14.61684796961574</v>
+        <v>14.45807693105741</v>
       </c>
       <c r="C1579" t="n">
         <v>34.55</v>
@@ -50807,16 +50807,16 @@
         <v>15.4871</v>
       </c>
       <c r="E1579" t="n">
-        <v>-8.25953445780903</v>
+        <v>-12.10107367150307</v>
       </c>
       <c r="F1579" t="n">
-        <v>12.48354548814381</v>
+        <v>12.4949264574791</v>
       </c>
       <c r="G1579" t="n">
-        <v>-5.507597030819521</v>
+        <v>-7.242500000000017</v>
       </c>
       <c r="H1579" t="n">
-        <v>14.23373426792462</v>
+        <v>14.24721249999999</v>
       </c>
       <c r="I1579" t="n">
         <v>11.54714285714286</v>
@@ -50827,10 +50827,10 @@
     </row>
     <row r="1580">
       <c r="A1580" t="n">
-        <v>-9.699666682731674</v>
+        <v>-13.90398759479017</v>
       </c>
       <c r="B1580" t="n">
-        <v>14.60889100903298</v>
+        <v>14.45438692267653</v>
       </c>
       <c r="C1580" t="n">
         <v>33.19</v>
@@ -50839,16 +50839,16 @@
         <v>15.487</v>
       </c>
       <c r="E1580" t="n">
-        <v>-8.412379683382383</v>
+        <v>-12.32652912530844</v>
       </c>
       <c r="F1580" t="n">
-        <v>12.47994771001886</v>
+        <v>12.48991594826728</v>
       </c>
       <c r="G1580" t="n">
-        <v>-5.692702508270789</v>
+        <v>-7.63000000000002</v>
       </c>
       <c r="H1580" t="n">
-        <v>14.23117319905126</v>
+        <v>14.24754999999999</v>
       </c>
       <c r="I1580" t="n">
         <v>11.11285714285715</v>
@@ -50859,10 +50859,10 @@
     </row>
     <row r="1581">
       <c r="A1581" t="n">
-        <v>-9.905815384481061</v>
+        <v>-14.2749052151675</v>
       </c>
       <c r="B1581" t="n">
-        <v>14.60104627056265</v>
+        <v>14.45145890145911</v>
       </c>
       <c r="C1581" t="n">
         <v>32.05</v>
@@ -50871,16 +50871,16 @@
         <v>15.4869</v>
       </c>
       <c r="E1581" t="n">
-        <v>-8.563550206069641</v>
+        <v>-12.54091284797893</v>
       </c>
       <c r="F1581" t="n">
-        <v>12.47623930285916</v>
+        <v>12.48460192426764</v>
       </c>
       <c r="G1581" t="n">
-        <v>-5.875013888173806</v>
+        <v>-8.017500000000016</v>
       </c>
       <c r="H1581" t="n">
-        <v>14.22834983838057</v>
+        <v>14.24788749999999</v>
       </c>
       <c r="I1581" t="n">
         <v>10.67857142857143</v>
@@ -50891,10 +50891,10 @@
     </row>
     <row r="1582">
       <c r="A1582" t="n">
-        <v>-10.11561918831975</v>
+        <v>-14.66489115168634</v>
       </c>
       <c r="B1582" t="n">
-        <v>14.59332007872245</v>
+        <v>14.44931924079638</v>
       </c>
       <c r="C1582" t="n">
         <v>31.1</v>
@@ -50903,16 +50903,16 @@
         <v>15.4867</v>
       </c>
       <c r="E1582" t="n">
-        <v>-8.713127493815612</v>
+        <v>-12.74468366697972</v>
       </c>
       <c r="F1582" t="n">
-        <v>12.47242344391454</v>
+        <v>12.47899696354217</v>
       </c>
       <c r="G1582" t="n">
-        <v>-6.054610948371521</v>
+        <v>-8.411645949174144</v>
       </c>
       <c r="H1582" t="n">
-        <v>14.22526934509419</v>
+        <v>14.24765351672847</v>
       </c>
       <c r="I1582" t="n">
         <v>10.24428571428572</v>
@@ -50923,10 +50923,10 @@
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>-10.32919135795922</v>
+        <v>-15.07458330556972</v>
       </c>
       <c r="B1583" t="n">
-        <v>14.5857187580301</v>
+        <v>14.4479943140796</v>
       </c>
       <c r="C1583" t="n">
         <v>30.31</v>
@@ -50935,16 +50935,16 @@
         <v>15.4866</v>
       </c>
       <c r="E1583" t="n">
-        <v>-8.861193014565105</v>
+        <v>-12.93830040977595</v>
       </c>
       <c r="F1583" t="n">
-        <v>12.46850331043485</v>
+        <v>12.4731136441529</v>
       </c>
       <c r="G1583" t="n">
-        <v>-6.231573466706879</v>
+        <v>-8.789383335904187</v>
       </c>
       <c r="H1583" t="n">
-        <v>14.22193687837374</v>
+        <v>14.24627215096056</v>
       </c>
       <c r="I1583" t="n">
         <v>9.810000000000006</v>
@@ -50955,10 +50955,10 @@
     </row>
     <row r="1584">
       <c r="A1584" t="n">
-        <v>-10.54664515711094</v>
+        <v>-15.50461957804065</v>
       </c>
       <c r="B1584" t="n">
-        <v>14.57824863300331</v>
+        <v>14.44751049470002</v>
       </c>
       <c r="C1584" t="n">
         <v>29.68</v>
@@ -50967,16 +50967,16 @@
         <v>15.4867</v>
       </c>
       <c r="E1584" t="n">
-        <v>-9.007828236262926</v>
+        <v>-13.1222219038328</v>
       </c>
       <c r="F1584" t="n">
-        <v>12.46448207966995</v>
+        <v>12.46696454416181</v>
       </c>
       <c r="G1584" t="n">
-        <v>-6.40598122102284</v>
+        <v>-9.151161469001641</v>
       </c>
       <c r="H1584" t="n">
-        <v>14.21835759740087</v>
+        <v>14.24377597231459</v>
       </c>
       <c r="I1584" t="n">
         <v>9.375714285714292</v>
@@ -50987,10 +50987,10 @@
     </row>
     <row r="1585">
       <c r="A1585" t="n">
-        <v>-10.76809384948637</v>
+        <v>-16.03</v>
       </c>
       <c r="B1585" t="n">
-        <v>14.57091602815977</v>
+        <v>14.44739036544872</v>
       </c>
       <c r="C1585" t="n">
         <v>29.17</v>
@@ -50999,16 +50999,16 @@
         <v>15.4865</v>
       </c>
       <c r="E1585" t="n">
-        <v>-9.153114626853885</v>
+        <v>-13.29690697661542</v>
       </c>
       <c r="F1585" t="n">
-        <v>12.46036292886968</v>
+        <v>12.46056224163093</v>
       </c>
       <c r="G1585" t="n">
-        <v>-6.577913989162343</v>
+        <v>-9.497429657277999</v>
       </c>
       <c r="H1585" t="n">
-        <v>14.21453666135721</v>
+        <v>14.24019755040893</v>
       </c>
       <c r="I1585" t="n">
         <v>8.941428571428577</v>
@@ -51019,10 +51019,10 @@
     </row>
     <row r="1586">
       <c r="A1586" t="n">
-        <v>-10.99365069879701</v>
+        <v>-16.46</v>
       </c>
       <c r="B1586" t="n">
-        <v>14.56372726801721</v>
+        <v>14.44726179402015</v>
       </c>
       <c r="C1586" t="n">
         <v>28.77</v>
@@ -51031,16 +51031,16 @@
         <v>15.4862</v>
       </c>
       <c r="E1586" t="n">
-        <v>-9.29713365428279</v>
+        <v>-13.46281445558898</v>
       </c>
       <c r="F1586" t="n">
-        <v>12.45614903528388</v>
+        <v>12.45391931462225</v>
       </c>
       <c r="G1586" t="n">
-        <v>-6.747451548968344</v>
+        <v>-9.828637209544755</v>
       </c>
       <c r="H1586" t="n">
-        <v>14.21047922942439</v>
+        <v>14.23556945486192</v>
       </c>
       <c r="I1586" t="n">
         <v>8.507142857142863</v>
@@ -51051,10 +51051,10 @@
     </row>
     <row r="1587">
       <c r="A1587" t="n">
-        <v>-11.22342896875432</v>
+        <v>-16.89</v>
       </c>
       <c r="B1587" t="n">
-        <v>14.55668867709334</v>
+        <v>14.44713322259158</v>
       </c>
       <c r="C1587" t="n">
         <v>28.47</v>
@@ -51063,16 +51063,16 @@
         <v>15.486</v>
       </c>
       <c r="E1587" t="n">
-        <v>-9.439966786494452</v>
+        <v>-13.62040316821863</v>
       </c>
       <c r="F1587" t="n">
-        <v>12.45184357616241</v>
+        <v>12.4470483411978</v>
       </c>
       <c r="G1587" t="n">
-        <v>-6.914673678283792</v>
+        <v>-10.1452334346134</v>
       </c>
       <c r="H1587" t="n">
-        <v>14.20619046078404</v>
+        <v>14.22992425529191</v>
       </c>
       <c r="I1587" t="n">
         <v>8.072857142857149</v>
@@ -51083,10 +51083,10 @@
     </row>
     <row r="1588">
       <c r="A1588" t="n">
-        <v>-11.45754192306977</v>
+        <v>-17.32</v>
       </c>
       <c r="B1588" t="n">
-        <v>14.54980657990585</v>
+        <v>14.44700465116301</v>
       </c>
       <c r="C1588" t="n">
         <v>28.25</v>
@@ -51095,16 +51095,16 @@
         <v>15.4858</v>
       </c>
       <c r="E1588" t="n">
-        <v>-9.581695491433679</v>
+        <v>-13.77013194196955</v>
       </c>
       <c r="F1588" t="n">
-        <v>12.44744972875511</v>
+        <v>12.43996189941956</v>
       </c>
       <c r="G1588" t="n">
-        <v>-7.079660154951638</v>
+        <v>-10.44766764129542</v>
       </c>
       <c r="H1588" t="n">
-        <v>14.2016755146178</v>
+        <v>14.22329452131724</v>
       </c>
       <c r="I1588" t="n">
         <v>7.638571428571435</v>
@@ -51115,10 +51115,10 @@
     </row>
     <row r="1589">
       <c r="A1589" t="n">
-        <v>-11.69610282545483</v>
+        <v>-17.75</v>
       </c>
       <c r="B1589" t="n">
-        <v>14.54308730097247</v>
+        <v>14.44687607973444</v>
       </c>
       <c r="C1589" t="n">
         <v>28.1</v>
@@ -51127,16 +51127,16 @@
         <v>15.4855</v>
       </c>
       <c r="E1589" t="n">
-        <v>-9.722401237045277</v>
+        <v>-13.91245960430688</v>
       </c>
       <c r="F1589" t="n">
-        <v>12.44297067031183</v>
+        <v>12.43267256734956</v>
       </c>
       <c r="G1589" t="n">
-        <v>-7.242490756814828</v>
+        <v>-10.73638913840233</v>
       </c>
       <c r="H1589" t="n">
-        <v>14.1969395501073</v>
+        <v>14.21571282255628</v>
       </c>
       <c r="I1589" t="n">
         <v>7.204285714285721</v>
@@ -51147,10 +51147,10 @@
     </row>
     <row r="1590">
       <c r="A1590" t="n">
-        <v>-11.93922493962098</v>
+        <v>-18.18</v>
       </c>
       <c r="B1590" t="n">
-        <v>14.53653716481091</v>
+        <v>14.44674750830587</v>
       </c>
       <c r="C1590" t="n">
         <v>27.67142857142857</v>
@@ -51159,16 +51159,16 @@
         <v>15.48532857142857</v>
       </c>
       <c r="E1590" t="n">
-        <v>-9.862165491274055</v>
+        <v>-14.04784498269579</v>
       </c>
       <c r="F1590" t="n">
-        <v>12.43840957808241</v>
+        <v>12.42519292304979</v>
       </c>
       <c r="G1590" t="n">
-        <v>-7.403245261716314</v>
+        <v>-11.01184723474561</v>
       </c>
       <c r="H1590" t="n">
-        <v>14.19198772643419</v>
+        <v>14.20721172862735</v>
       </c>
       <c r="I1590" t="n">
         <v>6.770000000000007</v>
@@ -51179,10 +51179,10 @@
     </row>
     <row r="1591">
       <c r="A1591" t="n">
-        <v>-12.1870215292797</v>
+        <v>-18.61</v>
       </c>
       <c r="B1591" t="n">
-        <v>14.53016249593886</v>
+        <v>14.4466189368773</v>
       </c>
       <c r="C1591" t="n">
         <v>27.24285714285714</v>
@@ -51191,16 +51191,16 @@
         <v>15.48515714285714</v>
       </c>
       <c r="E1591" t="n">
-        <v>-10.00106972206482</v>
+        <v>-14.17674690460144</v>
       </c>
       <c r="F1591" t="n">
-        <v>12.43376962931672</v>
+        <v>12.41753554458225</v>
       </c>
       <c r="G1591" t="n">
-        <v>-7.562003447499047</v>
+        <v>-11.27449123913675</v>
       </c>
       <c r="H1591" t="n">
-        <v>14.18682520278008</v>
+        <v>14.19782380914882</v>
       </c>
       <c r="I1591" t="n">
         <v>6.335714285714293</v>
@@ -51211,10 +51211,10 @@
     </row>
     <row r="1592">
       <c r="A1592" t="n">
-        <v>-12.43960585814245</v>
+        <v>-19.04</v>
       </c>
       <c r="B1592" t="n">
-        <v>14.52396961887405</v>
+        <v>14.44649036544872</v>
       </c>
       <c r="C1592" t="n">
         <v>26.81428571428572</v>
@@ -51223,16 +51223,16 @@
         <v>15.48498571428571</v>
       </c>
       <c r="E1592" t="n">
-        <v>-10.13919539736239</v>
+        <v>-14.299624197489</v>
       </c>
       <c r="F1592" t="n">
-        <v>12.42905400126458</v>
+        <v>12.40971301000897</v>
       </c>
       <c r="G1592" t="n">
-        <v>-7.718845092005974</v>
+        <v>-11.52477046038725</v>
       </c>
       <c r="H1592" t="n">
-        <v>14.18145713832662</v>
+        <v>14.18758163373903</v>
       </c>
       <c r="I1592" t="n">
         <v>5.901428571428578</v>
@@ -51243,10 +51243,10 @@
     </row>
     <row r="1593">
       <c r="A1593" t="n">
-        <v>-12.69709118992071</v>
+        <v>-19.47</v>
       </c>
       <c r="B1593" t="n">
-        <v>14.51796485813417</v>
+        <v>14.44636179402015</v>
       </c>
       <c r="C1593" t="n">
         <v>26.38571428571429</v>
@@ -51255,16 +51255,16 @@
         <v>15.48481428571429</v>
       </c>
       <c r="E1593" t="n">
-        <v>-10.27662398511156</v>
+        <v>-14.41693568882361</v>
       </c>
       <c r="F1593" t="n">
-        <v>12.42426587117585</v>
+        <v>12.40173789739194</v>
       </c>
       <c r="G1593" t="n">
-        <v>-7.873849973080048</v>
+        <v>-11.7631342073086</v>
       </c>
       <c r="H1593" t="n">
-        <v>14.17588869225544</v>
+        <v>14.17651777201633</v>
       </c>
       <c r="I1593" t="n">
         <v>5.467142857142864</v>
@@ -51275,10 +51275,10 @@
     </row>
     <row r="1594">
       <c r="A1594" t="n">
-        <v>-12.95959078832595</v>
+        <v>-19.9</v>
       </c>
       <c r="B1594" t="n">
-        <v>14.51215453823695</v>
+        <v>14.44623322259158</v>
       </c>
       <c r="C1594" t="n">
         <v>25.95714285714286</v>
@@ -51287,30 +51287,30 @@
         <v>15.48464285714286</v>
       </c>
       <c r="E1594" t="n">
-        <v>-10.41343695325715</v>
+        <v>-14.52914020607046</v>
       </c>
       <c r="F1594" t="n">
-        <v>12.41940841630038</v>
+        <v>12.39362278479318</v>
       </c>
       <c r="G1594" t="n">
-        <v>-8.027097868564219</v>
+        <v>-11.99003178871229</v>
       </c>
       <c r="H1594" t="n">
-        <v>14.17012502374817</v>
+        <v>14.16466479359907</v>
       </c>
       <c r="I1594" t="n">
-        <v>5.451571428571439</v>
+        <v>5.03285714285715</v>
       </c>
       <c r="J1594" t="n">
-        <v>15.0321949906015</v>
+        <v>15.03282857142857</v>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="n">
-        <v>-13.22721791706965</v>
+        <v>-20.33</v>
       </c>
       <c r="B1595" t="n">
-        <v>14.50654498370009</v>
+        <v>14.44610465116301</v>
       </c>
       <c r="C1595" t="n">
         <v>25.52857142857143</v>
@@ -51319,30 +51319,30 @@
         <v>15.48447142857143</v>
       </c>
       <c r="E1595" t="n">
-        <v>-10.54971576974395</v>
+        <v>-14.6366965766947</v>
       </c>
       <c r="F1595" t="n">
-        <v>12.41448481388801</v>
+        <v>12.38538025027469</v>
       </c>
       <c r="G1595" t="n">
-        <v>-8.178668556301432</v>
+        <v>-12.20591251340982</v>
       </c>
       <c r="H1595" t="n">
-        <v>14.16417129198645</v>
+        <v>14.1520552681056</v>
       </c>
       <c r="I1595" t="n">
-        <v>5.213432374199308</v>
+        <v>4.598571428571436</v>
       </c>
       <c r="J1595" t="n">
-        <v>15.03227871093528</v>
+        <v>15.03348571428571</v>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="n">
-        <v>-13.50008583986327</v>
+        <v>-20.76</v>
       </c>
       <c r="B1596" t="n">
-        <v>14.5011425190413</v>
+        <v>14.44597607973444</v>
       </c>
       <c r="C1596" t="n">
         <v>25.1</v>
@@ -51351,30 +51351,30 @@
         <v>15.4843</v>
       </c>
       <c r="E1596" t="n">
-        <v>-10.68554190251679</v>
+        <v>-14.74006362816148</v>
       </c>
       <c r="F1596" t="n">
-        <v>12.4094982411886</v>
+        <v>12.37702287189847</v>
       </c>
       <c r="G1596" t="n">
-        <v>-8.32864181413464</v>
+        <v>-12.41122569021269</v>
       </c>
       <c r="H1596" t="n">
-        <v>14.15803265615191</v>
+        <v>14.13872176515427</v>
       </c>
       <c r="I1596" t="n">
-        <v>4.979633226428726</v>
+        <v>4.164285714285722</v>
       </c>
       <c r="J1596" t="n">
-        <v>15.03180935251022</v>
+        <v>15.03414285714286</v>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>-13.7783078204183</v>
+        <v>-21.19</v>
       </c>
       <c r="B1597" t="n">
-        <v>14.49595346877828</v>
+        <v>14.44584750830587</v>
       </c>
       <c r="C1597" t="n">
         <v>24.67142857142857</v>
@@ -51383,30 +51383,30 @@
         <v>15.48412857142857</v>
       </c>
       <c r="E1597" t="n">
-        <v>-10.82099681952047</v>
+        <v>-14.83970018793597</v>
       </c>
       <c r="F1597" t="n">
-        <v>12.40445187545199</v>
+        <v>12.36856322772653</v>
       </c>
       <c r="G1597" t="n">
-        <v>-8.477097419906794</v>
+        <v>-12.60642062793238</v>
       </c>
       <c r="H1597" t="n">
-        <v>14.15171427542618</v>
+        <v>14.12469685436342</v>
       </c>
       <c r="I1597" t="n">
-        <v>4.750064141918951</v>
+        <v>3.730000000000008</v>
       </c>
       <c r="J1597" t="n">
-        <v>15.03079717881348</v>
+        <v>15.0348</v>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="n">
-        <v>-14.0619971224462</v>
+        <v>-21.62</v>
       </c>
       <c r="B1598" t="n">
-        <v>14.49098415742876</v>
+        <v>14.4457189368773</v>
       </c>
       <c r="C1598" t="n">
         <v>24.24285714285714</v>
@@ -51415,30 +51415,30 @@
         <v>15.48395714285714</v>
       </c>
       <c r="E1598" t="n">
-        <v>-10.9561619886998</v>
+        <v>-14.93606508348333</v>
       </c>
       <c r="F1598" t="n">
-        <v>12.39934889392802</v>
+        <v>12.36001389582089</v>
       </c>
       <c r="G1598" t="n">
-        <v>-8.624115151460845</v>
+        <v>-12.79194663538038</v>
       </c>
       <c r="H1598" t="n">
-        <v>14.14522130899091</v>
+        <v>14.1100131053514</v>
       </c>
       <c r="I1598" t="n">
-        <v>4.524615277329252</v>
+        <v>3.295714285714293</v>
       </c>
       <c r="J1598" t="n">
-        <v>15.02925245333222</v>
+        <v>15.03545714285714</v>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="n">
-        <v>-14.35126700965844</v>
+        <v>-22.05</v>
       </c>
       <c r="B1599" t="n">
-        <v>14.48624090951043</v>
+        <v>14.44559036544872</v>
       </c>
       <c r="C1599" t="n">
         <v>23.81428571428572</v>
@@ -51447,30 +51447,30 @@
         <v>15.48378571428571</v>
       </c>
       <c r="E1599" t="n">
-        <v>-11.09111887799958</v>
+        <v>-15.02961714226872</v>
       </c>
       <c r="F1599" t="n">
-        <v>12.39419247386655</v>
+        <v>12.35138745424354</v>
       </c>
       <c r="G1599" t="n">
-        <v>-8.769774786639736</v>
+        <v>-12.9682530213682</v>
       </c>
       <c r="H1599" t="n">
-        <v>14.13855891602771</v>
+        <v>14.09470308773656</v>
       </c>
       <c r="I1599" t="n">
-        <v>4.303176789318885</v>
+        <v>2.861428571428579</v>
       </c>
       <c r="J1599" t="n">
-        <v>15.02718543955356</v>
+        <v>15.03611428571428</v>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="n">
-        <v>-14.64623074576652</v>
+        <v>-22.48</v>
       </c>
       <c r="B1600" t="n">
-        <v>14.48173004954101</v>
+        <v>14.44546179402015</v>
       </c>
       <c r="C1600" t="n">
         <v>23.38571428571429</v>
@@ -51479,30 +51479,30 @@
         <v>15.48361428571429</v>
       </c>
       <c r="E1600" t="n">
-        <v>-11.22594895536463</v>
+        <v>-15.1208151917573</v>
       </c>
       <c r="F1600" t="n">
-        <v>12.38898579251741</v>
+        <v>12.34269648105649</v>
       </c>
       <c r="G1600" t="n">
-        <v>-8.914156103286423</v>
+        <v>-13.13578909470732</v>
       </c>
       <c r="H1600" t="n">
-        <v>14.13173225571824</v>
+        <v>14.07879937113726</v>
       </c>
       <c r="I1600" t="n">
-        <v>4.085638834547119</v>
+        <v>2.427142857142865</v>
       </c>
       <c r="J1600" t="n">
-        <v>15.02460640096468</v>
+        <v>15.03677142857143</v>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="n">
-        <v>-14.94700159448187</v>
+        <v>-22.91</v>
       </c>
       <c r="B1601" t="n">
-        <v>14.47745790203822</v>
+        <v>14.44533322259158</v>
       </c>
       <c r="C1601" t="n">
         <v>22.95714285714286</v>
@@ -51511,30 +51511,30 @@
         <v>15.48344285714286</v>
       </c>
       <c r="E1601" t="n">
-        <v>-11.36073368873976</v>
+        <v>-15.21011805941425</v>
       </c>
       <c r="F1601" t="n">
-        <v>12.38373202713047</v>
+        <v>12.33395355432176</v>
       </c>
       <c r="G1601" t="n">
-        <v>-9.057338879243856</v>
+        <v>-13.29500416420924</v>
       </c>
       <c r="H1601" t="n">
-        <v>14.12474648724411</v>
+        <v>14.06233452517184</v>
       </c>
       <c r="I1601" t="n">
-        <v>3.871891569673214</v>
+        <v>1.992857142857151</v>
       </c>
       <c r="J1601" t="n">
-        <v>15.02152560105271</v>
+        <v>15.03742857142857</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="n">
-        <v>-15.253692819516</v>
+        <v>-23.34</v>
       </c>
       <c r="B1602" t="n">
-        <v>14.47343079151974</v>
+        <v>14.44520465116301</v>
       </c>
       <c r="C1602" t="n">
         <v>22.52857142857143</v>
@@ -51543,30 +51543,30 @@
         <v>15.48327142857143</v>
       </c>
       <c r="E1602" t="n">
-        <v>-11.49555454606976</v>
+        <v>-15.29798457270471</v>
       </c>
       <c r="F1602" t="n">
-        <v>12.37843435495557</v>
+        <v>12.32517125210134</v>
       </c>
       <c r="G1602" t="n">
-        <v>-9.199402892354982</v>
+        <v>-13.44634753868546</v>
       </c>
       <c r="H1602" t="n">
-        <v>14.11760676978698</v>
+        <v>14.04534111945865</v>
       </c>
       <c r="I1602" t="n">
-        <v>3.661825151356436</v>
+        <v>1.558571428571437</v>
       </c>
       <c r="J1602" t="n">
-        <v>15.01795330330481</v>
+        <v>15.03808571428571</v>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="n">
-        <v>-15.56641768458037</v>
+        <v>-23.77</v>
       </c>
       <c r="B1603" t="n">
-        <v>14.4696550425033</v>
+        <v>14.44507607973444</v>
       </c>
       <c r="C1603" t="n">
         <v>22.1</v>
@@ -51575,30 +51575,30 @@
         <v>15.4831</v>
       </c>
       <c r="E1603" t="n">
-        <v>-11.63049299529946</v>
+        <v>-15.38487355909384</v>
       </c>
       <c r="F1603" t="n">
-        <v>12.37309595324255</v>
+        <v>12.31636215245725</v>
       </c>
       <c r="G1603" t="n">
-        <v>-9.340427920462751</v>
+        <v>-13.59026852694746</v>
       </c>
       <c r="H1603" t="n">
-        <v>14.11031826252846</v>
+        <v>14.02785172361603</v>
       </c>
       <c r="I1603" t="n">
-        <v>3.455329736256044</v>
+        <v>1.124285714285723</v>
       </c>
       <c r="J1603" t="n">
-        <v>15.01389977120813</v>
+        <v>15.03874285714286</v>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="n">
-        <v>-15.88528945338646</v>
+        <v>-24.2</v>
       </c>
       <c r="B1604" t="n">
-        <v>14.46613697950662</v>
+        <v>14.44494750830587</v>
       </c>
       <c r="C1604" t="n">
         <v>21.67142857142857</v>
@@ -51607,30 +51607,30 @@
         <v>15.48292857142857</v>
       </c>
       <c r="E1604" t="n">
-        <v>-11.76563050437365</v>
+        <v>-15.47124384604682</v>
       </c>
       <c r="F1604" t="n">
-        <v>12.36771999924126</v>
+        <v>12.30753883345149</v>
       </c>
       <c r="G1604" t="n">
-        <v>-9.480493741410115</v>
+        <v>-13.72721643780673</v>
       </c>
       <c r="H1604" t="n">
-        <v>14.10288612465019</v>
+        <v>14.00989890726234</v>
       </c>
       <c r="I1604" t="n">
-        <v>3.252295481031305</v>
+        <v>0.6859795265774538</v>
       </c>
       <c r="J1604" t="n">
-        <v>15.00937526824982</v>
+        <v>15.03868074772523</v>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="n">
-        <v>-16.21042138964572</v>
+        <v>-24.63</v>
       </c>
       <c r="B1605" t="n">
-        <v>14.46288292704739</v>
+        <v>14.4448189368773</v>
       </c>
       <c r="C1605" t="n">
         <v>21.24285714285714</v>
@@ -51639,30 +51639,30 @@
         <v>15.48275714285714</v>
       </c>
       <c r="E1605" t="n">
-        <v>-11.90104854123716</v>
+        <v>-15.55755426102879</v>
       </c>
       <c r="F1605" t="n">
-        <v>12.36230967020155</v>
+        <v>12.29871387314606</v>
       </c>
       <c r="G1605" t="n">
-        <v>-9.619680133040021</v>
+        <v>-13.85764058007478</v>
       </c>
       <c r="H1605" t="n">
-        <v>14.09531551533381</v>
+        <v>13.99151524001593</v>
       </c>
       <c r="I1605" t="n">
-        <v>3.052612542341478</v>
+        <v>0.2679388609032715</v>
       </c>
       <c r="J1605" t="n">
-        <v>15.00439005791703</v>
+        <v>15.0371662354934</v>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="n">
-        <v>-16.54192675706965</v>
+        <v>-25.06</v>
       </c>
       <c r="B1606" t="n">
-        <v>14.45989920964332</v>
+        <v>14.44469036544873</v>
       </c>
       <c r="C1606" t="n">
         <v>20.81428571428572</v>
@@ -51671,30 +51671,30 @@
         <v>15.48258571428571</v>
       </c>
       <c r="E1606" t="n">
-        <v>-12.03682857383478</v>
+        <v>-15.64426363150492</v>
       </c>
       <c r="F1606" t="n">
-        <v>12.35686814337327</v>
+        <v>12.28989984960297</v>
       </c>
       <c r="G1606" t="n">
-        <v>-9.758066873195425</v>
+        <v>-13.98199026256311</v>
       </c>
       <c r="H1606" t="n">
-        <v>14.08761159376095</v>
+        <v>13.97273329149514</v>
       </c>
       <c r="I1606" t="n">
-        <v>2.856171076845828</v>
+        <v>-0.130454920431854</v>
       </c>
       <c r="J1606" t="n">
-        <v>14.9989544036969</v>
+        <v>15.03424365738218</v>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="n">
-        <v>-16.87991881936972</v>
+        <v>-25.48999999999999</v>
       </c>
       <c r="B1607" t="n">
-        <v>14.45719215181212</v>
+        <v>14.44456179402015</v>
       </c>
       <c r="C1607" t="n">
         <v>20.38571428571429</v>
@@ -51703,30 +51703,30 @@
         <v>15.48241428571428</v>
       </c>
       <c r="E1607" t="n">
-        <v>-12.17305207011132</v>
+        <v>-15.73183078494037</v>
       </c>
       <c r="F1607" t="n">
-        <v>12.35139859600627</v>
+        <v>12.28110934088425</v>
       </c>
       <c r="G1607" t="n">
-        <v>-9.895733739719265</v>
+        <v>-14.10071479408318</v>
       </c>
       <c r="H1607" t="n">
-        <v>14.07977951911325</v>
+        <v>13.95358563131832</v>
       </c>
       <c r="I1607" t="n">
-        <v>2.66286124120362</v>
+        <v>-0.5098204551229535</v>
       </c>
       <c r="J1607" t="n">
-        <v>14.9930785690766</v>
+        <v>15.02995735032636</v>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="n">
-        <v>-17.22451084025738</v>
+        <v>-25.91999999999999</v>
       </c>
       <c r="B1608" t="n">
-        <v>14.45476807807152</v>
+        <v>14.44443322259158</v>
       </c>
       <c r="C1608" t="n">
         <v>19.95714285714286</v>
@@ -51735,30 +51735,30 @@
         <v>15.48224285714286</v>
       </c>
       <c r="E1608" t="n">
-        <v>-12.3098004980116</v>
+        <v>-15.82071454880031</v>
       </c>
       <c r="F1608" t="n">
-        <v>12.34590420535039</v>
+        <v>12.27235492505187</v>
       </c>
       <c r="G1608" t="n">
-        <v>-10.0327605104545</v>
+        <v>-14.21426348344651</v>
       </c>
       <c r="H1608" t="n">
-        <v>14.07182445057233</v>
+        <v>13.93410482910382</v>
       </c>
       <c r="I1608" t="n">
-        <v>2.472573192074115</v>
+        <v>-0.8707763808650572</v>
       </c>
       <c r="J1608" t="n">
-        <v>14.98677281754326</v>
+        <v>15.02435165126076</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="n">
-        <v>-17.57581608344413</v>
+        <v>-26.34999999999999</v>
       </c>
       <c r="B1609" t="n">
-        <v>14.4526333129392</v>
+        <v>14.44430465116301</v>
       </c>
       <c r="C1609" t="n">
         <v>19.52857142857143</v>
@@ -51767,30 +51767,30 @@
         <v>15.48207142857143</v>
       </c>
       <c r="E1609" t="n">
-        <v>-12.44715532548042</v>
+        <v>-15.9113737505499</v>
       </c>
       <c r="F1609" t="n">
-        <v>12.34038814865547</v>
+        <v>12.26364918016786</v>
       </c>
       <c r="G1609" t="n">
-        <v>-10.16922696324408</v>
+        <v>-14.32308563946458</v>
       </c>
       <c r="H1609" t="n">
-        <v>14.06375154731984</v>
+        <v>13.91432345446999</v>
       </c>
       <c r="I1609" t="n">
-        <v>2.285197086116576</v>
+        <v>-1.213941335353196</v>
       </c>
       <c r="J1609" t="n">
-        <v>14.98004741258404</v>
+        <v>15.01747089712019</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="n">
-        <v>-17.93394781264142</v>
+        <v>-26.77999999999999</v>
       </c>
       <c r="B1610" t="n">
-        <v>14.45079418093289</v>
+        <v>14.44417607973444</v>
       </c>
       <c r="C1610" t="n">
         <v>19.1</v>
@@ -51799,30 +51799,30 @@
         <v>15.4819</v>
       </c>
       <c r="E1610" t="n">
-        <v>-12.58519802046258</v>
+        <v>-16.00426721765429</v>
       </c>
       <c r="F1610" t="n">
-        <v>12.33485360317138</v>
+        <v>12.25500468429423</v>
       </c>
       <c r="G1610" t="n">
-        <v>-10.30521287593095</v>
+        <v>-14.42763057094889</v>
       </c>
       <c r="H1610" t="n">
-        <v>14.05556596853741</v>
+        <v>13.89427407703517</v>
       </c>
       <c r="I1610" t="n">
-        <v>2.100623079990267</v>
+        <v>-1.5399339562824</v>
       </c>
       <c r="J1610" t="n">
-        <v>14.9729126176861</v>
+        <v>15.00935942483944</v>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="n">
-        <v>-18.29901929156076</v>
+        <v>-27.20999999999999</v>
       </c>
       <c r="B1611" t="n">
-        <v>14.4492570065703</v>
+        <v>14.44404750830587</v>
       </c>
       <c r="C1611" t="n">
         <v>18.67142857142857</v>
@@ -51831,30 +51831,30 @@
         <v>15.48172857142857</v>
       </c>
       <c r="E1611" t="n">
-        <v>-12.72401005090291</v>
+        <v>-16.09985377757865</v>
       </c>
       <c r="F1611" t="n">
-        <v>12.32930374614795</v>
+        <v>12.24643401549297</v>
       </c>
       <c r="G1611" t="n">
-        <v>-10.44079802635807</v>
+        <v>-14.52834758671095</v>
       </c>
       <c r="H1611" t="n">
-        <v>14.04727287340666</v>
+        <v>13.87398926641773</v>
       </c>
       <c r="I1611" t="n">
-        <v>1.918741330354452</v>
+        <v>-1.849372881347699</v>
       </c>
       <c r="J1611" t="n">
-        <v>14.96537869633657</v>
+        <v>15.00006157135333</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="n">
-        <v>-18.67114378391358</v>
+        <v>-27.63999999999999</v>
       </c>
       <c r="B1612" t="n">
-        <v>14.44802811436912</v>
+        <v>14.4439189368773</v>
       </c>
       <c r="C1612" t="n">
         <v>18.24285714285715</v>
@@ -51863,30 +51863,30 @@
         <v>15.48155714285714</v>
       </c>
       <c r="E1612" t="n">
-        <v>-12.8636728847462</v>
+        <v>-16.19859225778814</v>
       </c>
       <c r="F1612" t="n">
-        <v>12.32374175483503</v>
+        <v>12.2379497518261</v>
       </c>
       <c r="G1612" t="n">
-        <v>-10.57606219236837</v>
+        <v>-14.62568599556222</v>
       </c>
       <c r="H1612" t="n">
-        <v>14.03887742110924</v>
+        <v>13.853501592236</v>
       </c>
       <c r="I1612" t="n">
-        <v>1.739441993868391</v>
+        <v>-2.142876748244124</v>
       </c>
       <c r="J1612" t="n">
-        <v>14.95745591202261</v>
+        <v>14.98962167359666</v>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="n">
-        <v>-19.05043455341137</v>
+        <v>-28.06999999999999</v>
       </c>
       <c r="B1613" t="n">
-        <v>14.44711382884708</v>
+        <v>14.44379036544873</v>
       </c>
       <c r="C1613" t="n">
         <v>17.81428571428572</v>
@@ -51895,30 +51895,30 @@
         <v>15.48138571428571</v>
       </c>
       <c r="E1613" t="n">
-        <v>-13.00426798993727</v>
+        <v>-16.30094148574791</v>
       </c>
       <c r="F1613" t="n">
-        <v>12.31817080648247</v>
+        <v>12.22956447135562</v>
       </c>
       <c r="G1613" t="n">
-        <v>-10.71108515180482</v>
+        <v>-14.72009510631421</v>
       </c>
       <c r="H1613" t="n">
-        <v>14.03038477082678</v>
+        <v>13.83284362410834</v>
       </c>
       <c r="I1613" t="n">
-        <v>1.562615227191348</v>
+        <v>-2.421064194666704</v>
       </c>
       <c r="J1613" t="n">
-        <v>14.94915452823137</v>
+        <v>14.97808406850423</v>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="n">
-        <v>-19.43700486376562</v>
+        <v>-28.49999999999999</v>
       </c>
       <c r="B1614" t="n">
-        <v>14.44652047452189</v>
+        <v>14.44366179402016</v>
       </c>
       <c r="C1614" t="n">
         <v>17.38571428571429</v>
@@ -51927,30 +51927,30 @@
         <v>15.48121428571428</v>
       </c>
       <c r="E1614" t="n">
-        <v>-13.14587683442092</v>
+        <v>-16.40736028892314</v>
       </c>
       <c r="F1614" t="n">
-        <v>12.31259407834012</v>
+        <v>12.22129075214354</v>
       </c>
       <c r="G1614" t="n">
-        <v>-10.84594668251036</v>
+        <v>-14.81202422777842</v>
       </c>
       <c r="H1614" t="n">
-        <v>14.02180008174092</v>
+        <v>13.81204793165308</v>
       </c>
       <c r="I1614" t="n">
-        <v>1.388151186982589</v>
+        <v>-2.684553858310473</v>
       </c>
       <c r="J1614" t="n">
-        <v>14.94048480845</v>
+        <v>14.96549309301086</v>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="n">
-        <v>-19.47</v>
+        <v>-28.92999999999999</v>
       </c>
       <c r="B1615" t="n">
-        <v>14.44867607973444</v>
+        <v>14.44353322259158</v>
       </c>
       <c r="C1615" t="n">
         <v>16.95714285714286</v>
@@ -51959,30 +51959,30 @@
         <v>15.48104285714285</v>
       </c>
       <c r="E1615" t="n">
-        <v>-13.28858088614197</v>
+        <v>-16.51830749477898</v>
       </c>
       <c r="F1615" t="n">
-        <v>12.30701474765782</v>
+        <v>12.21314117225186</v>
       </c>
       <c r="G1615" t="n">
-        <v>-10.98072656232794</v>
+        <v>-14.90192266876633</v>
       </c>
       <c r="H1615" t="n">
-        <v>14.01312851303328</v>
+        <v>13.79114708448859</v>
       </c>
       <c r="I1615" t="n">
-        <v>1.215940029901374</v>
+        <v>-2.933964376870457</v>
       </c>
       <c r="J1615" t="n">
-        <v>14.93145701616564</v>
+        <v>14.95189308405134</v>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="n">
-        <v>-19.9</v>
+        <v>-29.35999999999999</v>
       </c>
       <c r="B1616" t="n">
-        <v>14.44880465116301</v>
+        <v>14.44340465116301</v>
       </c>
       <c r="C1616" t="n">
         <v>16.52857142857143</v>
@@ -51991,30 +51991,30 @@
         <v>15.48087142857143</v>
       </c>
       <c r="E1616" t="n">
-        <v>-13.43246161304521</v>
+        <v>-16.6342419307806</v>
       </c>
       <c r="F1616" t="n">
-        <v>12.30143599168543</v>
+        <v>12.2051283097426</v>
       </c>
       <c r="G1616" t="n">
-        <v>-11.11550456910051</v>
+        <v>-14.99023973808945</v>
       </c>
       <c r="H1616" t="n">
-        <v>14.0043752238855</v>
+        <v>13.77017365223321</v>
       </c>
       <c r="I1616" t="n">
-        <v>1.045871912606966</v>
+        <v>-3.16991438804169</v>
       </c>
       <c r="J1616" t="n">
-        <v>14.92208141486547</v>
+        <v>14.93732837856049</v>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="n">
-        <v>-20.33</v>
+        <v>-29.78999999999999</v>
       </c>
       <c r="B1617" t="n">
-        <v>14.44893322259158</v>
+        <v>14.44327607973444</v>
       </c>
       <c r="C1617" t="n">
         <v>16.1</v>
@@ -52023,30 +52023,30 @@
         <v>15.4807</v>
       </c>
       <c r="E1617" t="n">
-        <v>-13.57760048307547</v>
+        <v>-16.75562242439315</v>
       </c>
       <c r="F1617" t="n">
-        <v>12.29586098767279</v>
+        <v>12.19726474267776</v>
       </c>
       <c r="G1617" t="n">
-        <v>-11.25036048067103</v>
+        <v>-15.07742474455926</v>
       </c>
       <c r="H1617" t="n">
-        <v>13.99554537347921</v>
+        <v>13.74916020450529</v>
       </c>
       <c r="I1617" t="n">
-        <v>0.8778369917586308</v>
+        <v>-3.393022529519199</v>
       </c>
       <c r="J1617" t="n">
-        <v>14.91236826803661</v>
+        <v>14.9218433134731</v>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="n">
-        <v>-20.76</v>
+        <v>-30.21999999999999</v>
       </c>
       <c r="B1618" t="n">
-        <v>14.44906179402015</v>
+        <v>14.44314750830587</v>
       </c>
       <c r="C1618" t="n">
         <v>15.67142857142857</v>
@@ -52055,30 +52055,30 @@
         <v>15.48052857142857</v>
       </c>
       <c r="E1618" t="n">
-        <v>-13.72407896417754</v>
+        <v>-16.8829078030818</v>
       </c>
       <c r="F1618" t="n">
-        <v>12.29029291286975</v>
+        <v>12.18956304911934</v>
       </c>
       <c r="G1618" t="n">
-        <v>-11.38537407488244</v>
+        <v>-15.16392699698725</v>
       </c>
       <c r="H1618" t="n">
-        <v>13.98664412099606</v>
+        <v>13.72813931092317</v>
       </c>
       <c r="I1618" t="n">
-        <v>0.7117254240156285</v>
+        <v>-3.603907438998019</v>
       </c>
       <c r="J1618" t="n">
-        <v>14.90232783916621</v>
+        <v>14.905482225724</v>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="n">
-        <v>-21.19</v>
+        <v>-30.64999999999999</v>
       </c>
       <c r="B1619" t="n">
-        <v>14.44919036544872</v>
+        <v>14.4430189368773</v>
       </c>
       <c r="C1619" t="n">
         <v>15.24285714285715</v>
@@ -52087,30 +52087,30 @@
         <v>15.48035714285714</v>
       </c>
       <c r="E1619" t="n">
-        <v>-13.87197852429624</v>
+        <v>-17.0165568943117</v>
       </c>
       <c r="F1619" t="n">
-        <v>12.28473494452615</v>
+        <v>12.18203580712935</v>
       </c>
       <c r="G1619" t="n">
-        <v>-11.52062512957769</v>
+        <v>-15.25019580418493</v>
       </c>
       <c r="H1619" t="n">
-        <v>13.97767662561767</v>
+        <v>13.70714354110521</v>
       </c>
       <c r="I1619" t="n">
-        <v>0.5474273660372238</v>
+        <v>-3.803187754173175</v>
       </c>
       <c r="J1619" t="n">
-        <v>14.89197039174144</v>
+        <v>14.88828945224797</v>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="n">
-        <v>-21.62</v>
+        <v>-31.07999999999999</v>
       </c>
       <c r="B1620" t="n">
-        <v>14.4493189368773</v>
+        <v>14.44289036544873</v>
       </c>
       <c r="C1620" t="n">
         <v>14.81428571428572</v>
@@ -52119,30 +52119,30 @@
         <v>15.48018571428571</v>
       </c>
       <c r="E1620" t="n">
-        <v>-14.02138063137637</v>
+        <v>-17.15702852554803</v>
       </c>
       <c r="F1620" t="n">
-        <v>12.27919025989184</v>
+        <v>12.1746955947698</v>
       </c>
       <c r="G1620" t="n">
-        <v>-11.65619342259973</v>
+        <v>-15.33668047496378</v>
       </c>
       <c r="H1620" t="n">
-        <v>13.96864804652567</v>
+        <v>13.68620546466976</v>
       </c>
       <c r="I1620" t="n">
-        <v>0.3848329744826803</v>
+        <v>-3.991482112739701</v>
       </c>
       <c r="J1620" t="n">
-        <v>14.88130618924944</v>
+        <v>14.87030932997983</v>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="n">
-        <v>-22.05</v>
+        <v>-31.50999999999999</v>
       </c>
       <c r="B1621" t="n">
-        <v>14.44944750830587</v>
+        <v>14.44276179402016</v>
       </c>
       <c r="C1621" t="n">
         <v>14.38571428571429</v>
@@ -52151,30 +52151,30 @@
         <v>15.48001428571428</v>
       </c>
       <c r="E1621" t="n">
-        <v>-14.17236675336275</v>
+        <v>-17.30478152425593</v>
       </c>
       <c r="F1621" t="n">
-        <v>12.27366203621667</v>
+        <v>12.16755499010271</v>
       </c>
       <c r="G1621" t="n">
-        <v>-11.7921587317915</v>
+        <v>-15.42383031813529</v>
       </c>
       <c r="H1621" t="n">
-        <v>13.95956354290171</v>
+        <v>13.66535765123516</v>
       </c>
       <c r="I1621" t="n">
-        <v>0.2238324060112586</v>
+        <v>-4.169409152392625</v>
       </c>
       <c r="J1621" t="n">
-        <v>14.87034549517736</v>
+        <v>14.85158619585439</v>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="n">
-        <v>-22.48</v>
+        <v>-31.93999999999999</v>
       </c>
       <c r="B1622" t="n">
-        <v>14.44957607973444</v>
+        <v>14.44263322259158</v>
       </c>
       <c r="C1622" t="n">
         <v>13.95714285714286</v>
@@ -52183,30 +52183,30 @@
         <v>15.47984285714285</v>
       </c>
       <c r="E1622" t="n">
-        <v>-14.32501835820018</v>
+        <v>-17.46027471790058</v>
       </c>
       <c r="F1622" t="n">
-        <v>12.2681534507505</v>
+        <v>12.16062657119006</v>
       </c>
       <c r="G1622" t="n">
-        <v>-11.92860083499597</v>
+        <v>-15.51209464251097</v>
       </c>
       <c r="H1622" t="n">
-        <v>13.9504282739274</v>
+        <v>13.64463267041976</v>
       </c>
       <c r="I1622" t="n">
-        <v>0.06431581728222402</v>
+        <v>-4.33758751082698</v>
       </c>
       <c r="J1622" t="n">
-        <v>14.85909857301234</v>
+        <v>14.83216438680644</v>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="n">
-        <v>-22.91</v>
+        <v>-32.36999999999999</v>
       </c>
       <c r="B1623" t="n">
-        <v>14.44970465116301</v>
+        <v>14.44250465116301</v>
       </c>
       <c r="C1623" t="n">
         <v>13.52857142857143</v>
@@ -52215,30 +52215,30 @@
         <v>15.47967142857143</v>
       </c>
       <c r="E1623" t="n">
-        <v>-14.47941691383347</v>
+        <v>-17.62396693394713</v>
       </c>
       <c r="F1623" t="n">
-        <v>12.26266768074315</v>
+        <v>12.15392291609388</v>
       </c>
       <c r="G1623" t="n">
-        <v>-12.06559951005609</v>
+        <v>-15.60192275690231</v>
       </c>
       <c r="H1623" t="n">
-        <v>13.94124739878441</v>
+        <v>13.62406309184191</v>
       </c>
       <c r="I1623" t="n">
-        <v>-0.09382663504516042</v>
+        <v>-4.496635825737793</v>
       </c>
       <c r="J1623" t="n">
-        <v>14.84757568624156</v>
+        <v>14.8120882397708</v>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="n">
-        <v>-23.34</v>
+        <v>-32.79999999999999</v>
       </c>
       <c r="B1624" t="n">
-        <v>14.44983322259158</v>
+        <v>14.44237607973444</v>
       </c>
       <c r="C1624" t="n">
         <v>13.1</v>
@@ -52247,30 +52247,30 @@
         <v>15.4795</v>
       </c>
       <c r="E1624" t="n">
-        <v>-14.63564388820742</v>
+        <v>-17.79631699986074</v>
       </c>
       <c r="F1624" t="n">
-        <v>12.25720790344449</v>
+        <v>12.14745660287616</v>
       </c>
       <c r="G1624" t="n">
-        <v>-12.20323453481479</v>
+        <v>-15.69376397012079</v>
       </c>
       <c r="H1624" t="n">
-        <v>13.93202607665434</v>
+        <v>13.60368148511996</v>
       </c>
       <c r="I1624" t="n">
-        <v>-0.2507047943116339</v>
+        <v>-4.647172734820098</v>
       </c>
       <c r="J1624" t="n">
-        <v>14.83578709835214</v>
+        <v>14.79140209168227</v>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="n">
-        <v>-23.77</v>
+        <v>-33.22999999999999</v>
       </c>
       <c r="B1625" t="n">
-        <v>14.44996179402015</v>
+        <v>14.44224750830587</v>
       </c>
       <c r="C1625" t="n">
         <v>12.67142857142857</v>
@@ -52279,30 +52279,30 @@
         <v>15.47932857142857</v>
       </c>
       <c r="E1625" t="n">
-        <v>-14.79378074926685</v>
+        <v>-17.97778374310658</v>
       </c>
       <c r="F1625" t="n">
-        <v>12.25177729610436</v>
+        <v>12.14124020959891</v>
       </c>
       <c r="G1625" t="n">
-        <v>-12.34158568711502</v>
+        <v>-15.78806759097791</v>
       </c>
       <c r="H1625" t="n">
-        <v>13.92276946671884</v>
+        <v>13.58352041987226</v>
       </c>
       <c r="I1625" t="n">
-        <v>-0.4064285038579307</v>
+        <v>-4.789816875768924</v>
       </c>
       <c r="J1625" t="n">
-        <v>14.82374307283123</v>
+        <v>14.77015027947566</v>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="n">
-        <v>-24.2</v>
+        <v>-33.65999999999999</v>
       </c>
       <c r="B1626" t="n">
-        <v>14.45009036544872</v>
+        <v>14.4421189368773</v>
       </c>
       <c r="C1626" t="n">
         <v>12.24285714285715</v>
@@ -52311,30 +52311,30 @@
         <v>15.47915714285714</v>
       </c>
       <c r="E1626" t="n">
-        <v>-14.95390896495658</v>
+        <v>-18.16882599114981</v>
       </c>
       <c r="F1626" t="n">
-        <v>12.24637903597261</v>
+        <v>12.13528631432415</v>
       </c>
       <c r="G1626" t="n">
-        <v>-12.48073274479976</v>
+        <v>-15.88528292828516</v>
       </c>
       <c r="H1626" t="n">
-        <v>13.91348272815954</v>
+        <v>13.56361246571716</v>
       </c>
       <c r="I1626" t="n">
-        <v>-0.5611076070247883</v>
+        <v>-4.9251868862793</v>
       </c>
       <c r="J1626" t="n">
-        <v>14.81145387316601</v>
+        <v>14.74837714008576</v>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="n">
-        <v>-24.63</v>
+        <v>-34.08999999999999</v>
       </c>
       <c r="B1627" t="n">
-        <v>14.4502189368773</v>
+        <v>14.44199036544873</v>
       </c>
       <c r="C1627" t="n">
         <v>11.81428571428572</v>
@@ -52343,30 +52343,30 @@
         <v>15.47898571428571</v>
       </c>
       <c r="E1627" t="n">
-        <v>-15.11611000322139</v>
+        <v>-18.36990257145559</v>
       </c>
       <c r="F1627" t="n">
-        <v>12.24101630029908</v>
+        <v>12.12960749511387</v>
       </c>
       <c r="G1627" t="n">
-        <v>-12.62075548571193</v>
+        <v>-15.98585929085405</v>
       </c>
       <c r="H1627" t="n">
-        <v>13.90417102015807</v>
+        <v>13.543990192273</v>
       </c>
       <c r="I1627" t="n">
-        <v>-0.7148519471529444</v>
+        <v>-5.053901404046258</v>
       </c>
       <c r="J1627" t="n">
-        <v>14.7989297628436</v>
+        <v>14.7261270104474</v>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="n">
-        <v>-25.06</v>
+        <v>-34.51999999999999</v>
       </c>
       <c r="B1628" t="n">
-        <v>14.45034750830587</v>
+        <v>14.44186179402016</v>
       </c>
       <c r="C1628" t="n">
         <v>11.38571428571429</v>
@@ -52375,30 +52375,30 @@
         <v>15.47881428571428</v>
       </c>
       <c r="E1628" t="n">
-        <v>-15.2804653320061</v>
+        <v>-18.58147231148907</v>
       </c>
       <c r="F1628" t="n">
-        <v>12.23569226633363</v>
+        <v>12.12421633003009</v>
       </c>
       <c r="G1628" t="n">
-        <v>-12.76173368769449</v>
+        <v>-16.09024598749606</v>
       </c>
       <c r="H1628" t="n">
-        <v>13.89483950189608</v>
+        <v>13.52468616915813</v>
       </c>
       <c r="I1628" t="n">
-        <v>-0.8677713675831356</v>
+        <v>-5.176579066764829</v>
       </c>
       <c r="J1628" t="n">
-        <v>14.78618100535116</v>
+        <v>14.70344422749538</v>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="n">
-        <v>-25.48999999999999</v>
+        <v>-34.94999999999999</v>
       </c>
       <c r="B1629" t="n">
-        <v>14.45047607973444</v>
+        <v>14.44173322259158</v>
       </c>
       <c r="C1629" t="n">
         <v>10.95714285714286</v>
@@ -52407,30 +52407,30 @@
         <v>15.47864285714285</v>
       </c>
       <c r="E1629" t="n">
-        <v>-15.44705641925553</v>
+        <v>-18.80399403871543</v>
       </c>
       <c r="F1629" t="n">
-        <v>12.23041011132609</v>
+        <v>12.11912539713481</v>
       </c>
       <c r="G1629" t="n">
-        <v>-12.90374712859039</v>
+        <v>-16.19889232702268</v>
       </c>
       <c r="H1629" t="n">
-        <v>13.88549333255518</v>
+        <v>13.50573296599091</v>
       </c>
       <c r="I1629" t="n">
-        <v>-1.0199757116561</v>
+        <v>-5.293838512130042</v>
       </c>
       <c r="J1629" t="n">
-        <v>14.77321786417585</v>
+        <v>14.6803731281645</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="n">
-        <v>-25.91999999999999</v>
+        <v>-35.37999999999999</v>
       </c>
       <c r="B1630" t="n">
-        <v>14.45060465116301</v>
+        <v>14.44160465116301</v>
       </c>
       <c r="C1630" t="n">
         <v>10.52857142857143</v>
@@ -52439,30 +52439,30 @@
         <v>15.47847142857142</v>
       </c>
       <c r="E1630" t="n">
-        <v>-15.61596473291447</v>
+        <v>-19.03792658059982</v>
       </c>
       <c r="F1630" t="n">
-        <v>12.22517301252633</v>
+        <v>12.11434727449004</v>
       </c>
       <c r="G1630" t="n">
-        <v>-13.04687558624257</v>
+        <v>-16.3122476182454</v>
       </c>
       <c r="H1630" t="n">
-        <v>13.87613767131703</v>
+        <v>13.48716315238968</v>
       </c>
       <c r="I1630" t="n">
-        <v>-1.171574822712572</v>
+        <v>-5.406298377836928</v>
       </c>
       <c r="J1630" t="n">
-        <v>14.7600506028048</v>
+        <v>14.65695804938956</v>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="n">
-        <v>-26.34999999999999</v>
+        <v>-35.80999999999999</v>
       </c>
       <c r="B1631" t="n">
-        <v>14.45073322259158</v>
+        <v>14.44147607973444</v>
       </c>
       <c r="C1631" t="n">
         <v>10.1</v>
@@ -52471,30 +52471,30 @@
         <v>15.4783</v>
       </c>
       <c r="E1631" t="n">
-        <v>-15.78727174092775</v>
+        <v>-19.28372876460739</v>
       </c>
       <c r="F1631" t="n">
-        <v>12.21998414718418</v>
+        <v>12.10989454015778</v>
       </c>
       <c r="G1631" t="n">
-        <v>-13.191198838494</v>
+        <v>-16.43076116997574</v>
       </c>
       <c r="H1631" t="n">
-        <v>13.86677767736324</v>
+        <v>13.46900929797279</v>
       </c>
       <c r="I1631" t="n">
-        <v>-1.322678544093291</v>
+        <v>-5.514577301580516</v>
       </c>
       <c r="J1631" t="n">
-        <v>14.74668948472518</v>
+        <v>14.63324332810537</v>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="n">
-        <v>-26.77999999999999</v>
+        <v>-36.23999999999999</v>
       </c>
       <c r="B1632" t="n">
-        <v>14.45086179402015</v>
+        <v>14.44134750830587</v>
       </c>
       <c r="C1632" t="n">
         <v>9.671428571428574</v>
@@ -52503,30 +52503,30 @@
         <v>15.47812857142857</v>
       </c>
       <c r="E1632" t="n">
-        <v>-15.96105891124015</v>
+        <v>-19.54185941820333</v>
       </c>
       <c r="F1632" t="n">
-        <v>12.21484669254949</v>
+        <v>12.10577977220004</v>
       </c>
       <c r="G1632" t="n">
-        <v>-13.33679666318762</v>
+        <v>-16.55488229102517</v>
       </c>
       <c r="H1632" t="n">
-        <v>13.85741850987546</v>
+        <v>13.45130397235858</v>
       </c>
       <c r="I1632" t="n">
-        <v>-1.473396719138993</v>
+        <v>-5.619293921055839</v>
       </c>
       <c r="J1632" t="n">
-        <v>14.73314477342413</v>
+        <v>14.60927330124674</v>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>-27.20999999999999</v>
+        <v>-36.66999999999999</v>
       </c>
       <c r="B1633" t="n">
-        <v>14.45099036544872</v>
+        <v>14.4412189368773</v>
       </c>
       <c r="C1633" t="n">
         <v>9.242857142857144</v>
@@ -52535,30 +52535,30 @@
         <v>15.47795714285714</v>
       </c>
       <c r="E1633" t="n">
-        <v>-16.13740771179651</v>
+        <v>-19.81277736885278</v>
       </c>
       <c r="F1633" t="n">
-        <v>12.20976382587211</v>
+        <v>12.10201554867883</v>
       </c>
       <c r="G1633" t="n">
-        <v>-13.48374883816637</v>
+        <v>-16.68506029020518</v>
       </c>
       <c r="H1633" t="n">
-        <v>13.84806532803531</v>
+        <v>13.43407974516542</v>
       </c>
       <c r="I1633" t="n">
-        <v>-1.623839191190414</v>
+        <v>-5.721066873957925</v>
       </c>
       <c r="J1633" t="n">
-        <v>14.7194267323888</v>
+        <v>14.58509230574848</v>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="n">
-        <v>-27.63999999999999</v>
+        <v>-37.09999999999999</v>
       </c>
       <c r="B1634" t="n">
-        <v>14.45111893687729</v>
+        <v>14.44109036544873</v>
       </c>
       <c r="C1634" t="n">
         <v>8.814285714285717</v>
@@ -52567,30 +52567,30 @@
         <v>15.47778571428571</v>
       </c>
       <c r="E1634" t="n">
-        <v>-16.31639961054162</v>
+        <v>-20.09694144402091</v>
       </c>
       <c r="F1634" t="n">
-        <v>12.20473872440189</v>
+        <v>12.09861444765616</v>
       </c>
       <c r="G1634" t="n">
-        <v>-13.63213514127322</v>
+        <v>-16.82174447632728</v>
       </c>
       <c r="H1634" t="n">
-        <v>13.83872329102445</v>
+        <v>13.41736918601164</v>
       </c>
       <c r="I1634" t="n">
-        <v>-1.774115803588291</v>
+        <v>-5.820514797981803</v>
       </c>
       <c r="J1634" t="n">
-        <v>14.70554562510634</v>
+        <v>14.56074467854538</v>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="n">
-        <v>-28.06999999999999</v>
+        <v>-37.52999999999999</v>
       </c>
       <c r="B1635" t="n">
-        <v>14.45124750830587</v>
+        <v>14.44096179402016</v>
       </c>
       <c r="C1635" t="n">
         <v>8.38571428571429</v>
@@ -52599,30 +52599,30 @@
         <v>15.47761428571428</v>
       </c>
       <c r="E1635" t="n">
-        <v>-16.49811607542029</v>
+        <v>-20.39481047117288</v>
       </c>
       <c r="F1635" t="n">
-        <v>12.19977456538868</v>
+        <v>12.09558904719403</v>
       </c>
       <c r="G1635" t="n">
-        <v>-13.7820353503511</v>
+        <v>-16.96538415820295</v>
       </c>
       <c r="H1635" t="n">
-        <v>13.82939755802448</v>
+        <v>13.4012048645156</v>
       </c>
       <c r="I1635" t="n">
-        <v>-1.924336399673363</v>
+        <v>-5.918256330822508</v>
       </c>
       <c r="J1635" t="n">
-        <v>14.6915117150639</v>
+        <v>14.53627475657227</v>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="n">
-        <v>-28.49999999999999</v>
+        <v>-37.95999999999999</v>
       </c>
       <c r="B1636" t="n">
-        <v>14.45137607973444</v>
+        <v>14.44083322259158</v>
       </c>
       <c r="C1636" t="n">
         <v>7.957142857142859</v>
@@ -52631,30 +52631,30 @@
         <v>15.47744285714285</v>
       </c>
       <c r="E1636" t="n">
-        <v>-16.68263857437733</v>
+        <v>-20.70684327777385</v>
       </c>
       <c r="F1636" t="n">
-        <v>12.19487452608232</v>
+        <v>12.09295192535445</v>
       </c>
       <c r="G1636" t="n">
-        <v>-13.93352924324297</v>
+        <v>-17.1164286446437</v>
       </c>
       <c r="H1636" t="n">
-        <v>13.82009328821706</v>
+        <v>13.38561935029564</v>
       </c>
       <c r="I1636" t="n">
-        <v>-2.074610822786365</v>
+        <v>-6.014910110175069</v>
       </c>
       <c r="J1636" t="n">
-        <v>14.67733526574864</v>
+        <v>14.51172687676393</v>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="n">
-        <v>-28.92999999999999</v>
+        <v>-38.38999999999999</v>
       </c>
       <c r="B1637" t="n">
-        <v>14.45150465116301</v>
+        <v>14.44070465116301</v>
       </c>
       <c r="C1637" t="n">
         <v>7.528571428571432</v>
@@ -52663,30 +52663,30 @@
         <v>15.47727142857142</v>
       </c>
       <c r="E1637" t="n">
-        <v>-16.87004857535754</v>
+        <v>-21.03349869128898</v>
       </c>
       <c r="F1637" t="n">
-        <v>12.19004178373266</v>
+        <v>12.09071566019942</v>
       </c>
       <c r="G1637" t="n">
-        <v>-14.08669659779178</v>
+        <v>-17.275327244461</v>
       </c>
       <c r="H1637" t="n">
-        <v>13.81081564078381</v>
+        <v>13.37064521297011</v>
       </c>
       <c r="I1637" t="n">
-        <v>-2.225048916268035</v>
+        <v>-6.111094773734514</v>
       </c>
       <c r="J1637" t="n">
-        <v>14.6630265406477</v>
+        <v>14.48714537605518</v>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="n">
-        <v>-29.35999999999999</v>
+        <v>-38.81999999999999</v>
       </c>
       <c r="B1638" t="n">
-        <v>14.45163322259158</v>
+        <v>14.44057607973444</v>
       </c>
       <c r="C1638" t="n">
         <v>7.100000000000001</v>
@@ -52695,30 +52695,30 @@
         <v>15.47709999999999</v>
       </c>
       <c r="E1638" t="n">
-        <v>-17.06042754630575</v>
+        <v>-21.37523553918343</v>
       </c>
       <c r="F1638" t="n">
-        <v>12.18527951558955</v>
+        <v>12.08889282979095</v>
       </c>
       <c r="G1638" t="n">
-        <v>-14.24161719184048</v>
+        <v>-17.44252926646637</v>
       </c>
       <c r="H1638" t="n">
-        <v>13.80156977490637</v>
+        <v>13.35631502215737</v>
       </c>
       <c r="I1638" t="n">
-        <v>-2.375760523459109</v>
+        <v>-6.207428959195873</v>
       </c>
       <c r="J1638" t="n">
-        <v>14.64859580324823</v>
+        <v>14.46257459138083</v>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="n">
-        <v>-29.78999999999999</v>
+        <v>-39.24999999999999</v>
       </c>
       <c r="B1639" t="n">
-        <v>14.45176179402015</v>
+        <v>14.44044750830587</v>
       </c>
       <c r="C1639" t="n">
         <v>6.671428571428574</v>
@@ -52727,30 +52727,30 @@
         <v>15.47692857142857</v>
       </c>
       <c r="E1639" t="n">
-        <v>-17.25385695516675</v>
+        <v>-21.73251264892236</v>
       </c>
       <c r="F1639" t="n">
-        <v>12.18059089890284</v>
+        <v>12.08749601219106</v>
       </c>
       <c r="G1639" t="n">
-        <v>-14.39837080323201</v>
+        <v>-17.61848401947128</v>
       </c>
       <c r="H1639" t="n">
-        <v>13.79236084976637</v>
+        <v>13.34266134747575</v>
       </c>
       <c r="I1639" t="n">
-        <v>-2.526855487700324</v>
+        <v>-6.304531304254181</v>
       </c>
       <c r="J1639" t="n">
-        <v>14.63405331703738</v>
+        <v>14.43805885967567</v>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="n">
-        <v>-30.21999999999999</v>
+        <v>-39.67999999999999</v>
       </c>
       <c r="B1640" t="n">
-        <v>14.45189036544872</v>
+        <v>14.4403189368773</v>
       </c>
       <c r="C1640" t="n">
         <v>6.242857142857144</v>
@@ -52759,30 +52759,30 @@
         <v>15.47675714285714</v>
       </c>
       <c r="E1640" t="n">
-        <v>-17.45041826988535</v>
+        <v>-22.10578884797095</v>
       </c>
       <c r="F1640" t="n">
-        <v>12.17597911092236</v>
+        <v>12.08653778546174</v>
       </c>
       <c r="G1640" t="n">
-        <v>-14.55703720980933</v>
+        <v>-17.80364081228723</v>
       </c>
       <c r="H1640" t="n">
-        <v>13.78319402454546</v>
+        <v>13.32971675854361</v>
       </c>
       <c r="I1640" t="n">
-        <v>-2.678443652332418</v>
+        <v>-6.403020446604465</v>
       </c>
       <c r="J1640" t="n">
-        <v>14.6194093455023</v>
+        <v>14.41364251787453</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="n">
-        <v>-30.64999999999999</v>
+        <v>-40.10999999999999</v>
       </c>
       <c r="B1641" t="n">
-        <v>14.45201893687729</v>
+        <v>14.44019036544873</v>
       </c>
       <c r="C1641" t="n">
         <v>5.814285714285717</v>
@@ -52791,30 +52791,30 @@
         <v>15.47658571428571</v>
       </c>
       <c r="E1641" t="n">
-        <v>-17.65019295840637</v>
+        <v>-22.49552296379433</v>
       </c>
       <c r="F1641" t="n">
-        <v>12.17144732889798</v>
+        <v>12.086030727665</v>
       </c>
       <c r="G1641" t="n">
-        <v>-14.71769618941539</v>
+        <v>-17.99844895372572</v>
       </c>
       <c r="H1641" t="n">
-        <v>13.77407445842525</v>
+        <v>13.3175138249793</v>
       </c>
       <c r="I1641" t="n">
-        <v>-2.830634860696127</v>
+        <v>-6.503515023941755</v>
       </c>
       <c r="J1641" t="n">
-        <v>14.60467415213015</v>
+        <v>14.38936990291219</v>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="n">
-        <v>-31.07999999999999</v>
+        <v>-40.53999999999998</v>
       </c>
       <c r="B1642" t="n">
-        <v>14.45214750830587</v>
+        <v>14.44006179402016</v>
       </c>
       <c r="C1642" t="n">
         <v>5.38571428571429</v>
@@ -52823,30 +52823,30 @@
         <v>15.47641428571428</v>
       </c>
       <c r="E1642" t="n">
-        <v>-17.85326248867461</v>
+        <v>-22.9875</v>
       </c>
       <c r="F1642" t="n">
-        <v>12.16699873007954</v>
+        <v>12.08612419354878</v>
       </c>
       <c r="G1642" t="n">
-        <v>-14.88042751989314</v>
+        <v>-18.20335775259824</v>
       </c>
       <c r="H1642" t="n">
-        <v>13.76500731058738</v>
+        <v>13.30608511640116</v>
       </c>
       <c r="I1642" t="n">
-        <v>-2.983538956132188</v>
+        <v>-6.606633673961083</v>
       </c>
       <c r="J1642" t="n">
-        <v>14.58985800040807</v>
+        <v>14.36528535172347</v>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="n">
-        <v>-31.50999999999999</v>
+        <v>-40.96999999999998</v>
       </c>
       <c r="B1643" t="n">
-        <v>14.45227607973444</v>
+        <v>14.43993322259158</v>
       </c>
       <c r="C1643" t="n">
         <v>4.957142857142859</v>
@@ -52855,30 +52855,30 @@
         <v>15.47624285714285</v>
       </c>
       <c r="E1643" t="n">
-        <v>-18.05970832863487</v>
+        <v>-23.375</v>
       </c>
       <c r="F1643" t="n">
-        <v>12.16263649171688</v>
+        <v>12.08627419354877</v>
       </c>
       <c r="G1643" t="n">
-        <v>-15.04531097908552</v>
+        <v>-18.41881651771629</v>
       </c>
       <c r="H1643" t="n">
-        <v>13.7559977402135</v>
+        <v>13.29546320242755</v>
       </c>
       <c r="I1643" t="n">
-        <v>-3.137265781981338</v>
+        <v>-6.712995034357478</v>
       </c>
       <c r="J1643" t="n">
-        <v>14.57497115382321</v>
+        <v>14.34143320124318</v>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="n">
-        <v>-31.93999999999999</v>
+        <v>-41.39999999999998</v>
       </c>
       <c r="B1644" t="n">
-        <v>14.45240465116301</v>
+        <v>14.43980465116301</v>
       </c>
       <c r="C1644" t="n">
         <v>4.528571428571432</v>
@@ -52887,30 +52887,30 @@
         <v>15.47607142857142</v>
       </c>
       <c r="E1644" t="n">
-        <v>-18.26961194623198</v>
+        <v>-23.7625</v>
       </c>
       <c r="F1644" t="n">
-        <v>12.15836379105986</v>
+        <v>12.08642419354877</v>
       </c>
       <c r="G1644" t="n">
-        <v>-15.21242634483549</v>
+        <v>-18.64527455789134</v>
       </c>
       <c r="H1644" t="n">
-        <v>13.74705090648522</v>
+        <v>13.28568065267681</v>
       </c>
       <c r="I1644" t="n">
-        <v>-3.291925181584313</v>
+        <v>-6.823217742825971</v>
       </c>
       <c r="J1644" t="n">
-        <v>14.56002387586273</v>
+        <v>14.31785778840611</v>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="n">
-        <v>-32.36999999999999</v>
+        <v>-41.82999999999998</v>
       </c>
       <c r="B1645" t="n">
-        <v>14.45253322259158</v>
+        <v>14.43967607973444</v>
       </c>
       <c r="C1645" t="n">
         <v>4.100000000000001</v>
@@ -52919,30 +52919,30 @@
         <v>15.47589999999999</v>
       </c>
       <c r="E1645" t="n">
-        <v>-18.48305480941073</v>
+        <v>-24.15</v>
       </c>
       <c r="F1645" t="n">
-        <v>12.15418380535831</v>
+        <v>12.08657419354877</v>
       </c>
       <c r="G1645" t="n">
-        <v>-15.381853394986</v>
+        <v>-18.88318118193492</v>
       </c>
       <c r="H1645" t="n">
-        <v>13.7381719685842</v>
+        <v>13.27677003676729</v>
       </c>
       <c r="I1645" t="n">
-        <v>-3.447626998281853</v>
+        <v>-6.937920437061593</v>
       </c>
       <c r="J1645" t="n">
-        <v>14.54502643001376</v>
+        <v>14.29460345014708</v>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="n">
-        <v>-32.79999999999999</v>
+        <v>-42.25999999999998</v>
       </c>
       <c r="B1646" t="n">
-        <v>14.45266179402015</v>
+        <v>14.43954750830587</v>
       </c>
       <c r="C1646" t="n">
         <v>3.671428571428574</v>
@@ -52951,30 +52951,30 @@
         <v>15.47572857142857</v>
       </c>
       <c r="E1646" t="n">
-        <v>-18.70011838611594</v>
+        <v>-24.5375</v>
       </c>
       <c r="F1646" t="n">
-        <v>12.1500997118621</v>
+        <v>12.08672419354878</v>
       </c>
       <c r="G1646" t="n">
-        <v>-15.55367190737999</v>
+        <v>-19.1329856986585</v>
       </c>
       <c r="H1646" t="n">
-        <v>13.72936608569205</v>
+        <v>13.26876392431734</v>
       </c>
       <c r="I1646" t="n">
-        <v>-3.604481075414692</v>
+        <v>-7.057721754759374</v>
       </c>
       <c r="J1646" t="n">
-        <v>14.52998907976347</v>
+        <v>14.27171452340089</v>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="n">
-        <v>-33.22999999999999</v>
+        <v>-42.68999999999998</v>
       </c>
       <c r="B1647" t="n">
-        <v>14.45279036544872</v>
+        <v>14.4394189368773</v>
       </c>
       <c r="C1647" t="n">
         <v>3.242857142857147</v>
@@ -52983,30 +52983,30 @@
         <v>15.47555714285714</v>
       </c>
       <c r="E1647" t="n">
-        <v>-18.92088414429241</v>
+        <v>-24.925</v>
       </c>
       <c r="F1647" t="n">
-        <v>12.14611468782106</v>
+        <v>12.08687419354878</v>
       </c>
       <c r="G1647" t="n">
-        <v>-15.72796165986043</v>
+        <v>-19.39513741687356</v>
       </c>
       <c r="H1647" t="n">
-        <v>13.72063841699042</v>
+        <v>13.26169488494531</v>
       </c>
       <c r="I1647" t="n">
-        <v>-3.762597256323567</v>
+        <v>-7.183240333614344</v>
       </c>
       <c r="J1647" t="n">
-        <v>14.514922088599</v>
+        <v>14.24923534510235</v>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="n">
-        <v>-33.65999999999999</v>
+        <v>-43.11999999999998</v>
       </c>
       <c r="B1648" t="n">
-        <v>14.45291893687729</v>
+        <v>14.43929036544873</v>
       </c>
       <c r="C1648" t="n">
         <v>2.814285714285717</v>
@@ -53015,30 +53015,30 @@
         <v>15.47538571428571</v>
       </c>
       <c r="E1648" t="n">
-        <v>-19.14543355188495</v>
+        <v>-25.3125</v>
       </c>
       <c r="F1648" t="n">
-        <v>12.14223191048505</v>
+        <v>12.08702419354877</v>
       </c>
       <c r="G1648" t="n">
-        <v>-15.90480243027024</v>
+        <v>-19.67008564539162</v>
       </c>
       <c r="H1648" t="n">
-        <v>13.71199412166094</v>
+        <v>13.25559548826955</v>
       </c>
       <c r="I1648" t="n">
-        <v>-3.922085384349218</v>
+        <v>-7.315094811321535</v>
       </c>
       <c r="J1648" t="n">
-        <v>14.49983572000751</v>
+        <v>14.22721025218626</v>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="n">
-        <v>-34.08999999999999</v>
+        <v>-43.54999999999998</v>
       </c>
       <c r="B1649" t="n">
-        <v>14.45304750830587</v>
+        <v>14.43916179402016</v>
       </c>
       <c r="C1649" t="n">
         <v>2.38571428571429</v>
@@ -53047,30 +53047,30 @@
         <v>15.47521428571428</v>
       </c>
       <c r="E1649" t="n">
-        <v>-19.37384807683837</v>
+        <v>-25.7</v>
       </c>
       <c r="F1649" t="n">
-        <v>12.1384545571039</v>
+        <v>12.08717419354877</v>
       </c>
       <c r="G1649" t="n">
-        <v>-16.08427399645239</v>
+        <v>-19.95827969302417</v>
       </c>
       <c r="H1649" t="n">
-        <v>13.70343835888524</v>
+        <v>13.25049830390841</v>
       </c>
       <c r="I1649" t="n">
-        <v>-4.083055302832376</v>
+        <v>-7.453903825575973</v>
       </c>
       <c r="J1649" t="n">
-        <v>14.48474023747614</v>
+        <v>14.20568358158743</v>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="n">
-        <v>-34.51999999999999</v>
+        <v>-43.97999999999998</v>
       </c>
       <c r="B1650" t="n">
-        <v>14.45317607973444</v>
+        <v>14.43903322259158</v>
       </c>
       <c r="C1650" t="n">
         <v>1.957142857142859</v>
@@ -53079,30 +53079,30 @@
         <v>15.47504285714285</v>
       </c>
       <c r="E1650" t="n">
-        <v>-19.60620918709748</v>
+        <v>-26.0875</v>
       </c>
       <c r="F1650" t="n">
-        <v>12.13478580492748</v>
+        <v>12.08732419354877</v>
       </c>
       <c r="G1650" t="n">
-        <v>-16.26645613624983</v>
+        <v>-20.26016886858269</v>
       </c>
       <c r="H1650" t="n">
-        <v>13.69497628784495</v>
+        <v>13.24643590148022</v>
       </c>
       <c r="I1650" t="n">
-        <v>-4.245616855113785</v>
+        <v>-7.600286014072691</v>
       </c>
       <c r="J1650" t="n">
-        <v>14.46964590449204</v>
+        <v>14.18469967024066</v>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="n">
-        <v>-34.94999999999999</v>
+        <v>-44.40999999999998</v>
       </c>
       <c r="B1651" t="n">
-        <v>14.45330465116301</v>
+        <v>14.43890465116301</v>
       </c>
       <c r="C1651" t="n">
         <v>1.528571428571432</v>
@@ -53111,30 +53111,30 @@
         <v>15.47487142857142</v>
       </c>
       <c r="E1651" t="n">
-        <v>-19.84259835060708</v>
+        <v>-26.475</v>
       </c>
       <c r="F1651" t="n">
-        <v>12.13122883120562</v>
+        <v>12.08747419354877</v>
       </c>
       <c r="G1651" t="n">
-        <v>-16.4514286275055</v>
+        <v>-20.57620248087869</v>
       </c>
       <c r="H1651" t="n">
-        <v>13.68661306772172</v>
+        <v>13.24344085060336</v>
       </c>
       <c r="I1651" t="n">
-        <v>-4.409879884534178</v>
+        <v>-7.754860014506722</v>
       </c>
       <c r="J1651" t="n">
-        <v>14.45456298454237</v>
+        <v>14.16430285508077</v>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>-35.37999999999999</v>
+        <v>-44.83999999999998</v>
       </c>
       <c r="B1652" t="n">
-        <v>14.45343322259158</v>
+        <v>14.43877607973444</v>
       </c>
       <c r="C1652" t="n">
         <v>1.100000000000001</v>
@@ -53143,30 +53143,30 @@
         <v>15.47469999999999</v>
       </c>
       <c r="E1652" t="n">
-        <v>-20.08309703531199</v>
+        <v>-26.8625</v>
       </c>
       <c r="F1652" t="n">
-        <v>12.12778681318817</v>
+        <v>12.08762419354877</v>
       </c>
       <c r="G1652" t="n">
-        <v>-16.63927124806236</v>
+        <v>-20.90682983872364</v>
       </c>
       <c r="H1652" t="n">
-        <v>13.67835385769717</v>
+        <v>13.24154572089615</v>
       </c>
       <c r="I1652" t="n">
-        <v>-4.57595423443429</v>
+        <v>-7.918244464573094</v>
       </c>
       <c r="J1652" t="n">
-        <v>14.43950174111427</v>
+        <v>14.14453747304255</v>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="n">
-        <v>-35.80999999999999</v>
+        <v>-45.26999999999998</v>
       </c>
       <c r="B1653" t="n">
-        <v>14.45356179402015</v>
+        <v>14.43864750830587</v>
       </c>
       <c r="C1653" t="n">
         <v>0.6714285714285744</v>
@@ -53175,30 +53175,30 @@
         <v>15.47452857142856</v>
       </c>
       <c r="E1653" t="n">
-        <v>-20.32778670915702</v>
+        <v>-27.25</v>
       </c>
       <c r="F1653" t="n">
-        <v>12.12446292812499</v>
+        <v>12.08777419354877</v>
       </c>
       <c r="G1653" t="n">
-        <v>-16.83006377576336</v>
+        <v>-21.25250025092906</v>
       </c>
       <c r="H1653" t="n">
-        <v>13.67020381695294</v>
+        <v>13.24078308197695</v>
       </c>
       <c r="I1653" t="n">
-        <v>-4.743949748154862</v>
+        <v>-8.091058001966838</v>
       </c>
       <c r="J1653" t="n">
-        <v>14.4244724376949</v>
+        <v>14.12544786106081</v>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="n">
-        <v>-36.23999999999999</v>
+        <v>-45.69999999999998</v>
       </c>
       <c r="B1654" t="n">
-        <v>14.45369036544872</v>
+        <v>14.4385189368773</v>
       </c>
       <c r="C1654" t="n">
         <v>0.2428571428571473</v>
@@ -53207,30 +53207,30 @@
         <v>15.47435714285714</v>
       </c>
       <c r="E1654" t="n">
-        <v>-20.57674884008697</v>
+        <v>-27.6375</v>
       </c>
       <c r="F1654" t="n">
-        <v>12.12126035326591</v>
+        <v>12.08792419354877</v>
       </c>
       <c r="G1654" t="n">
-        <v>-17.02388598845144</v>
+        <v>-21.61366302630643</v>
       </c>
       <c r="H1654" t="n">
-        <v>13.66216810467066</v>
+        <v>13.24118550346412</v>
       </c>
       <c r="I1654" t="n">
-        <v>-4.913976269036631</v>
+        <v>-8.273919264382981</v>
       </c>
       <c r="J1654" t="n">
-        <v>14.40948533777139</v>
+        <v>14.10707835607036</v>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="n">
-        <v>-36.66999999999999</v>
+        <v>-46.12999999999998</v>
       </c>
       <c r="B1655" t="n">
-        <v>14.45381893687729</v>
+        <v>14.43839036544873</v>
       </c>
       <c r="C1655" t="n">
         <v>-0.1857142857142833</v>
@@ -53239,30 +53239,30 @@
         <v>15.47418571428571</v>
       </c>
       <c r="E1655" t="n">
-        <v>-20.83006489604665</v>
+        <v>-28.02500000000001</v>
       </c>
       <c r="F1655" t="n">
-        <v>12.1181822658608</v>
+        <v>12.08807419354877</v>
       </c>
       <c r="G1655" t="n">
-        <v>-17.22081766396955</v>
+        <v>-21.99076747366724</v>
       </c>
       <c r="H1655" t="n">
-        <v>13.65425188003197</v>
+        <v>13.242785554976</v>
       </c>
       <c r="I1655" t="n">
-        <v>-5.08614364042033</v>
+        <v>-8.467446889516557</v>
       </c>
       <c r="J1655" t="n">
-        <v>14.39455070483091</v>
+        <v>14.08947329500601</v>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="n">
-        <v>-37.09999999999999</v>
+        <v>-46.55999999999998</v>
       </c>
       <c r="B1656" t="n">
-        <v>14.45394750830587</v>
+        <v>14.43826179402016</v>
       </c>
       <c r="C1656" t="n">
         <v>-0.6142857142857103</v>
@@ -53271,30 +53271,30 @@
         <v>15.47401428571428</v>
       </c>
       <c r="E1656" t="n">
-        <v>-21.08781634498087</v>
+        <v>-28.4125</v>
       </c>
       <c r="F1656" t="n">
-        <v>12.11523184315948</v>
+        <v>12.08822419354877</v>
       </c>
       <c r="G1656" t="n">
-        <v>-17.42093858016065</v>
+        <v>-22.38426290182299</v>
       </c>
       <c r="H1656" t="n">
-        <v>13.6464603022185</v>
+        <v>13.24561580613092</v>
       </c>
       <c r="I1656" t="n">
-        <v>-5.260561705646698</v>
+        <v>-8.672259515062597</v>
       </c>
       <c r="J1656" t="n">
-        <v>14.37967880236061</v>
+        <v>14.07267701480256</v>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="n">
-        <v>-37.52999999999999</v>
+        <v>-46.98999999999998</v>
       </c>
       <c r="B1657" t="n">
-        <v>14.45407607973444</v>
+        <v>14.43813322259158</v>
       </c>
       <c r="C1657" t="n">
         <v>-1.042857142857141</v>
@@ -53303,30 +53303,30 @@
         <v>15.47384285714285</v>
       </c>
       <c r="E1657" t="n">
-        <v>-21.35008465483444</v>
+        <v>-28.8</v>
       </c>
       <c r="F1657" t="n">
-        <v>12.11241226241181</v>
+        <v>12.08837419354877</v>
       </c>
       <c r="G1657" t="n">
-        <v>-17.62432851486768</v>
+        <v>-22.7875</v>
       </c>
       <c r="H1657" t="n">
-        <v>13.63879853041188</v>
+        <v>13.24237701612938</v>
       </c>
       <c r="I1657" t="n">
-        <v>-5.437340308056472</v>
+        <v>-8.88897577871613</v>
       </c>
       <c r="J1657" t="n">
-        <v>14.36487989384763</v>
+        <v>14.05673385239482</v>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="n">
-        <v>-37.95999999999999</v>
+        <v>-47.41999999999998</v>
       </c>
       <c r="B1658" t="n">
-        <v>14.45420465116301</v>
+        <v>14.43800465116301</v>
       </c>
       <c r="C1658" t="n">
         <v>-1.471428571428568</v>
@@ -53335,30 +53335,30 @@
         <v>15.47367142857142</v>
       </c>
       <c r="E1658" t="n">
-        <v>-21.61695129355216</v>
+        <v>-29.1875</v>
       </c>
       <c r="F1658" t="n">
-        <v>12.10972670086765</v>
+        <v>12.08852419354877</v>
       </c>
       <c r="G1658" t="n">
-        <v>-17.8310672459336</v>
+        <v>-23.175</v>
       </c>
       <c r="H1658" t="n">
-        <v>13.63127172379375</v>
+        <v>13.23900201612938</v>
       </c>
       <c r="I1658" t="n">
-        <v>-5.61658929099039</v>
+        <v>-9.118214318172187</v>
       </c>
       <c r="J1658" t="n">
-        <v>14.35016424277912</v>
+        <v>14.04168814471758</v>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="n">
-        <v>-38.38999999999999</v>
+        <v>-47.84999999999998</v>
       </c>
       <c r="B1659" t="n">
-        <v>14.45433322259158</v>
+        <v>14.43787607973444</v>
       </c>
       <c r="C1659" t="n">
         <v>-1.899999999999999</v>
@@ -53367,30 +53367,30 @@
         <v>15.47349999999999</v>
       </c>
       <c r="E1659" t="n">
-        <v>-21.88849772907885</v>
+        <v>-29.575</v>
       </c>
       <c r="F1659" t="n">
-        <v>12.10717833577683</v>
+        <v>12.08867419354877</v>
       </c>
       <c r="G1659" t="n">
-        <v>-18.04123455120136</v>
+        <v>-23.5625</v>
       </c>
       <c r="H1659" t="n">
-        <v>13.62388504154575</v>
+        <v>13.23562701612938</v>
       </c>
       <c r="I1659" t="n">
-        <v>-5.798418497789188</v>
+        <v>-9.360593771125799</v>
       </c>
       <c r="J1659" t="n">
-        <v>14.33554211264224</v>
+        <v>14.02758422870566</v>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>-38.81999999999999</v>
+        <v>-48.27999999999998</v>
       </c>
       <c r="B1660" t="n">
-        <v>14.45446179402015</v>
+        <v>14.43774750830587</v>
       </c>
       <c r="C1660" t="n">
         <v>-2.328571428571426</v>
@@ -53399,30 +53399,30 @@
         <v>15.47332857142856</v>
       </c>
       <c r="E1660" t="n">
-        <v>-22.16480542935932</v>
+        <v>-29.96250000000001</v>
       </c>
       <c r="F1660" t="n">
-        <v>12.1047703443892</v>
+        <v>12.08882419354877</v>
       </c>
       <c r="G1660" t="n">
-        <v>-18.25491020851389</v>
+        <v>-23.95</v>
       </c>
       <c r="H1660" t="n">
-        <v>13.6166436428495</v>
+        <v>13.23225201612938</v>
       </c>
       <c r="I1660" t="n">
-        <v>-5.982937771793601</v>
+        <v>-9.616732775271988</v>
       </c>
       <c r="J1660" t="n">
-        <v>14.32102376692413</v>
+        <v>14.01446644129387</v>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="n">
-        <v>-39.24999999999999</v>
+        <v>-48.70999999999998</v>
       </c>
       <c r="B1661" t="n">
-        <v>14.45459036544872</v>
+        <v>14.4376189368773</v>
       </c>
       <c r="C1661" t="n">
         <v>-2.757142857142853</v>
@@ -53431,30 +53431,30 @@
         <v>15.47315714285713</v>
       </c>
       <c r="E1661" t="n">
-        <v>-22.44595586233836</v>
+        <v>-30.35</v>
       </c>
       <c r="F1661" t="n">
-        <v>12.10250590395462</v>
+        <v>12.08897419354877</v>
       </c>
       <c r="G1661" t="n">
-        <v>-18.47217399571416</v>
+        <v>-24.3375</v>
       </c>
       <c r="H1661" t="n">
-        <v>13.60955268688664</v>
+        <v>13.22887701612939</v>
       </c>
       <c r="I1661" t="n">
-        <v>-6.170256956344371</v>
+        <v>-9.887249968305801</v>
       </c>
       <c r="J1661" t="n">
-        <v>14.30661946911195</v>
+        <v>14.00237911941701</v>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="n">
-        <v>-39.67999999999999</v>
+        <v>-49.13999999999998</v>
       </c>
       <c r="B1662" t="n">
-        <v>14.45471893687729</v>
+        <v>14.43749036544873</v>
       </c>
       <c r="C1662" t="n">
         <v>-3.185714285714283</v>
@@ -53463,30 +53463,30 @@
         <v>15.47298571428571</v>
       </c>
       <c r="E1662" t="n">
-        <v>-22.73203049596079</v>
+        <v>-30.7375</v>
       </c>
       <c r="F1662" t="n">
-        <v>12.10038819172292</v>
+        <v>12.08912419354877</v>
       </c>
       <c r="G1662" t="n">
-        <v>-18.69310569064512</v>
+        <v>-24.725</v>
       </c>
       <c r="H1662" t="n">
-        <v>13.6026173328388</v>
+        <v>13.22550201612939</v>
       </c>
       <c r="I1662" t="n">
-        <v>-6.360485894782228</v>
+        <v>-10.17276398792225</v>
       </c>
       <c r="J1662" t="n">
-        <v>14.29233948269284</v>
+        <v>13.99136660000988</v>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="n">
-        <v>-40.10999999999999</v>
+        <v>-49.56999999999998</v>
       </c>
       <c r="B1663" t="n">
-        <v>14.45484750830587</v>
+        <v>14.43736179402016</v>
       </c>
       <c r="C1663" t="n">
         <v>-3.61428571428571</v>
@@ -53495,30 +53495,30 @@
         <v>15.47281428571428</v>
       </c>
       <c r="E1663" t="n">
-        <v>-23.02311079817143</v>
+        <v>-31.12500000000001</v>
       </c>
       <c r="F1663" t="n">
-        <v>12.09842038494396</v>
+        <v>12.08927419354877</v>
       </c>
       <c r="G1663" t="n">
-        <v>-18.91778507114971</v>
+        <v>-25.1125</v>
       </c>
       <c r="H1663" t="n">
-        <v>13.59584273988763</v>
+        <v>13.22212701612939</v>
       </c>
       <c r="I1663" t="n">
-        <v>-6.553734430447914</v>
+        <v>-10.47389347181638</v>
       </c>
       <c r="J1663" t="n">
-        <v>14.27819407115395</v>
+        <v>13.9814732200073</v>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>-40.53999999999998</v>
+        <v>-49.99999999999998</v>
       </c>
       <c r="B1664" t="n">
-        <v>14.45497607973444</v>
+        <v>14.43723322259159</v>
       </c>
       <c r="C1664" t="n">
         <v>-4.042857142857137</v>
@@ -53527,31 +53527,25 @@
         <v>15.47264285714285</v>
       </c>
       <c r="E1664" t="n">
-        <v>-23.31927823691506</v>
+        <v>-31.51250000000001</v>
       </c>
       <c r="F1664" t="n">
-        <v>12.09660566086758</v>
+        <v>12.08942419354877</v>
       </c>
       <c r="G1664" t="n">
-        <v>-19.14629191507088</v>
+        <v>-25.5</v>
       </c>
       <c r="H1664" t="n">
-        <v>13.58923406721474</v>
+        <v>13.21875201612939</v>
       </c>
       <c r="I1664" t="n">
-        <v>-6.750112406682167</v>
+        <v>-10.79125705768322</v>
       </c>
       <c r="J1664" t="n">
-        <v>14.26419349798244</v>
+        <v>13.97274331634406</v>
       </c>
     </row>
     <row r="1665">
-      <c r="A1665" t="n">
-        <v>-40.96999999999998</v>
-      </c>
-      <c r="B1665" t="n">
-        <v>14.45510465116301</v>
-      </c>
       <c r="C1665" t="n">
         <v>-4.471428571428568</v>
       </c>
@@ -53559,31 +53553,25 @@
         <v>15.47247142857142</v>
       </c>
       <c r="E1665" t="n">
-        <v>-23.62061428013652</v>
+        <v>-31.90000000000001</v>
       </c>
       <c r="F1665" t="n">
-        <v>12.09494719674364</v>
+        <v>12.08957419354877</v>
       </c>
       <c r="G1665" t="n">
-        <v>-19.37870600025158</v>
+        <v>-25.8875</v>
       </c>
       <c r="H1665" t="n">
-        <v>13.58279647400178</v>
+        <v>13.21537701612939</v>
       </c>
       <c r="I1665" t="n">
-        <v>-6.94972966682572</v>
+        <v>-11.12547338321778</v>
       </c>
       <c r="J1665" t="n">
-        <v>14.25034802666546</v>
+        <v>13.96522122595498</v>
       </c>
     </row>
     <row r="1666">
-      <c r="A1666" t="n">
-        <v>-41.39999999999998</v>
-      </c>
-      <c r="B1666" t="n">
-        <v>14.45523322259158</v>
-      </c>
       <c r="C1666" t="n">
         <v>-4.899999999999999</v>
       </c>
@@ -53591,31 +53579,25 @@
         <v>15.47229999999999</v>
       </c>
       <c r="E1666" t="n">
-        <v>-23.92720039578061</v>
+        <v>-32.28750000000001</v>
       </c>
       <c r="F1666" t="n">
-        <v>12.09344816982198</v>
+        <v>12.08972419354877</v>
       </c>
       <c r="G1666" t="n">
-        <v>-19.61510710453477</v>
+        <v>-26.275</v>
       </c>
       <c r="H1666" t="n">
-        <v>13.57653511943039</v>
+        <v>13.21200201612939</v>
       </c>
       <c r="I1666" t="n">
-        <v>-7.152696054219311</v>
+        <v>-11.47716108611512</v>
       </c>
       <c r="J1666" t="n">
-        <v>14.23666792069015</v>
+        <v>13.95895128577486</v>
       </c>
     </row>
     <row r="1667">
-      <c r="A1667" t="n">
-        <v>-41.82999999999998</v>
-      </c>
-      <c r="B1667" t="n">
-        <v>14.45536179402015</v>
-      </c>
       <c r="C1667" t="n">
         <v>-5.328571428571422</v>
       </c>
@@ -53623,31 +53605,25 @@
         <v>15.47212857142856</v>
       </c>
       <c r="E1667" t="n">
-        <v>-24.23911805179212</v>
+        <v>-32.675</v>
       </c>
       <c r="F1667" t="n">
-        <v>12.09211175735244</v>
+        <v>12.08987419354877</v>
       </c>
       <c r="G1667" t="n">
-        <v>-19.8555750057634</v>
+        <v>-26.6625</v>
       </c>
       <c r="H1667" t="n">
-        <v>13.57045516268219</v>
+        <v>13.20862701612939</v>
       </c>
       <c r="I1667" t="n">
-        <v>-7.359121412203677</v>
+        <v>-11.84693880407026</v>
       </c>
       <c r="J1667" t="n">
-        <v>14.22316344354367</v>
+        <v>13.9539778327385</v>
       </c>
     </row>
     <row r="1668">
-      <c r="A1668" t="n">
-        <v>-42.25999999999998</v>
-      </c>
-      <c r="B1668" t="n">
-        <v>14.45549036544872</v>
-      </c>
       <c r="C1668" t="n">
         <v>-5.757142857142853</v>
       </c>
@@ -53655,31 +53631,25 @@
         <v>15.47195714285713</v>
       </c>
       <c r="E1668" t="n">
-        <v>-24.55644871611587</v>
+        <v>-33.06250000000001</v>
       </c>
       <c r="F1668" t="n">
-        <v>12.09094113658487</v>
+        <v>12.09002419354877</v>
       </c>
       <c r="G1668" t="n">
-        <v>-20.1001894817804</v>
+        <v>-27.05</v>
       </c>
       <c r="H1668" t="n">
-        <v>13.56456176293881</v>
+        <v>13.20525201612939</v>
       </c>
       <c r="I1668" t="n">
-        <v>-7.569115584119555</v>
+        <v>-12.23542517477822</v>
       </c>
       <c r="J1668" t="n">
-        <v>14.20984485871316</v>
+        <v>13.95034520378071</v>
       </c>
     </row>
     <row r="1669">
-      <c r="A1669" t="n">
-        <v>-42.68999999999998</v>
-      </c>
-      <c r="B1669" t="n">
-        <v>14.45561893687729</v>
-      </c>
       <c r="C1669" t="n">
         <v>-6.185714285714283</v>
       </c>
@@ -53687,31 +53657,25 @@
         <v>15.4717857142857</v>
       </c>
       <c r="E1669" t="n">
-        <v>-24.87927385669667</v>
+        <v>-33.45</v>
       </c>
       <c r="F1669" t="n">
-        <v>12.08993948476913</v>
+        <v>12.09017419354877</v>
       </c>
       <c r="G1669" t="n">
-        <v>-20.34903031042873</v>
+        <v>-27.4375</v>
       </c>
       <c r="H1669" t="n">
-        <v>13.5588600793819</v>
+        <v>13.2018770161294</v>
       </c>
       <c r="I1669" t="n">
-        <v>-7.782788413307684</v>
+        <v>-12.64323883593404</v>
       </c>
       <c r="J1669" t="n">
-        <v>14.19672242968578</v>
+        <v>13.9480977358363</v>
       </c>
     </row>
     <row r="1670">
-      <c r="A1670" t="n">
-        <v>-43.11999999999998</v>
-      </c>
-      <c r="B1670" t="n">
-        <v>14.45574750830587</v>
-      </c>
       <c r="C1670" t="n">
         <v>-6.614285714285714</v>
       </c>
@@ -53719,31 +53683,25 @@
         <v>15.47161428571428</v>
       </c>
       <c r="E1670" t="n">
-        <v>-25.20767494147934</v>
+        <v>-33.83750000000001</v>
       </c>
       <c r="F1670" t="n">
-        <v>12.08910997915506</v>
+        <v>12.09032419354877</v>
       </c>
       <c r="G1670" t="n">
-        <v>-20.60217726955135</v>
+        <v>-27.825</v>
       </c>
       <c r="H1670" t="n">
-        <v>13.55335527119308</v>
+        <v>13.1985020161294</v>
       </c>
       <c r="I1670" t="n">
-        <v>-8.000249743108798</v>
+        <v>-13.07099842523274</v>
       </c>
       <c r="J1670" t="n">
-        <v>14.18380641994867</v>
+        <v>13.94727976584007</v>
       </c>
     </row>
     <row r="1671">
-      <c r="A1671" t="n">
-        <v>-43.54999999999998</v>
-      </c>
-      <c r="B1671" t="n">
-        <v>14.45587607973444</v>
-      </c>
       <c r="C1671" t="n">
         <v>-7.042857142857137</v>
       </c>
@@ -53751,31 +53709,25 @@
         <v>15.47144285714285</v>
       </c>
       <c r="E1671" t="n">
-        <v>-25.54173343840866</v>
+        <v>-34.22500000000001</v>
       </c>
       <c r="F1671" t="n">
-        <v>12.0884557969925</v>
+        <v>12.09047419354877</v>
       </c>
       <c r="G1671" t="n">
-        <v>-20.8597101369912</v>
+        <v>-28.2125</v>
       </c>
       <c r="H1671" t="n">
-        <v>13.548052497554</v>
+        <v>13.1951270161294</v>
       </c>
       <c r="I1671" t="n">
-        <v>-8.221609416863634</v>
+        <v>-13.73428571428571</v>
       </c>
       <c r="J1671" t="n">
-        <v>14.17110709298899</v>
+        <v>13.94677462406016</v>
       </c>
     </row>
     <row r="1672">
-      <c r="A1672" t="n">
-        <v>-43.97999999999998</v>
-      </c>
-      <c r="B1672" t="n">
-        <v>14.45600465116301</v>
-      </c>
       <c r="C1672" t="n">
         <v>-7.471428571428568</v>
       </c>
@@ -53783,31 +53735,25 @@
         <v>15.47127142857142</v>
       </c>
       <c r="E1672" t="n">
-        <v>-25.88153081542947</v>
+        <v>-34.61250000000001</v>
       </c>
       <c r="F1672" t="n">
-        <v>12.08798011553131</v>
+        <v>12.09062419354877</v>
       </c>
       <c r="G1672" t="n">
-        <v>-21.12170869059124</v>
+        <v>-28.6</v>
       </c>
       <c r="H1672" t="n">
-        <v>13.54295691764628</v>
+        <v>13.1917520161294</v>
       </c>
       <c r="I1672" t="n">
-        <v>-8.446977277912932</v>
+        <v>-14.16857142857143</v>
       </c>
       <c r="J1672" t="n">
-        <v>14.15863471229388</v>
+        <v>13.94611748120302</v>
       </c>
     </row>
     <row r="1673">
-      <c r="A1673" t="n">
-        <v>-44.40999999999998</v>
-      </c>
-      <c r="B1673" t="n">
-        <v>14.45613322259158</v>
-      </c>
       <c r="C1673" t="n">
         <v>-7.899999999999999</v>
       </c>
@@ -53815,31 +53761,25 @@
         <v>15.47109999999999</v>
       </c>
       <c r="E1673" t="n">
-        <v>-26.22714854048656</v>
+        <v>-35.00000000000001</v>
       </c>
       <c r="F1673" t="n">
-        <v>12.08768611202133</v>
+        <v>12.09077419354877</v>
       </c>
       <c r="G1673" t="n">
-        <v>-21.3882527081944</v>
+        <v>-28.9875</v>
       </c>
       <c r="H1673" t="n">
-        <v>13.53807369065155</v>
+        <v>13.1883770161294</v>
       </c>
       <c r="I1673" t="n">
-        <v>-8.676463169597426</v>
+        <v>-14.60285714285714</v>
       </c>
       <c r="J1673" t="n">
-        <v>14.1463995413505</v>
+        <v>13.94546033834588</v>
       </c>
     </row>
     <row r="1674">
-      <c r="A1674" t="n">
-        <v>-44.83999999999998</v>
-      </c>
-      <c r="B1674" t="n">
-        <v>14.45626179402015</v>
-      </c>
       <c r="C1674" t="n">
         <v>-8.328571428571422</v>
       </c>
@@ -53847,31 +53787,25 @@
         <v>15.47092857142856</v>
       </c>
       <c r="E1674" t="n">
-        <v>-26.57866808152474</v>
+        <v>-35.3875</v>
       </c>
       <c r="F1674" t="n">
-        <v>12.0875769637124</v>
+        <v>12.09092419354877</v>
       </c>
       <c r="G1674" t="n">
-        <v>-21.65942196764366</v>
+        <v>-29.375</v>
       </c>
       <c r="H1674" t="n">
-        <v>13.53340797575146</v>
+        <v>13.1850020161294</v>
       </c>
       <c r="I1674" t="n">
-        <v>-8.910176935257851</v>
+        <v>-15.03714285714286</v>
       </c>
       <c r="J1674" t="n">
-        <v>14.134411843646</v>
+        <v>13.94480319548873</v>
       </c>
     </row>
     <row r="1675">
-      <c r="A1675" t="n">
-        <v>-45.26999999999998</v>
-      </c>
-      <c r="B1675" t="n">
-        <v>14.45639036544872</v>
-      </c>
       <c r="C1675" t="n">
         <v>-8.757142857142853</v>
       </c>
@@ -53879,31 +53813,25 @@
         <v>15.47075714285713</v>
       </c>
       <c r="E1675" t="n">
-        <v>-26.8625</v>
+        <v>-35.77500000000001</v>
       </c>
       <c r="F1675" t="n">
-        <v>12.08432419354878</v>
+        <v>12.09107419354877</v>
       </c>
       <c r="G1675" t="n">
-        <v>-21.93529624678193</v>
+        <v>-29.7625</v>
       </c>
       <c r="H1675" t="n">
-        <v>13.52896493212764</v>
+        <v>13.1816270161294</v>
       </c>
       <c r="I1675" t="n">
-        <v>-9.148228418234954</v>
+        <v>-15.47142857142857</v>
       </c>
       <c r="J1675" t="n">
-        <v>14.12268188266752</v>
+        <v>13.94414605263159</v>
       </c>
     </row>
     <row r="1676">
-      <c r="A1676" t="n">
-        <v>-45.69999999999998</v>
-      </c>
-      <c r="B1676" t="n">
-        <v>14.45651893687729</v>
-      </c>
       <c r="C1676" t="n">
         <v>-9.185714285714283</v>
       </c>
@@ -53911,31 +53839,25 @@
         <v>15.4705857142857</v>
       </c>
       <c r="E1676" t="n">
-        <v>-27.25</v>
+        <v>-36.16250000000001</v>
       </c>
       <c r="F1676" t="n">
-        <v>12.08417419354878</v>
+        <v>12.09122419354877</v>
       </c>
       <c r="G1676" t="n">
-        <v>-22.21595532345219</v>
+        <v>-30.15</v>
       </c>
       <c r="H1676" t="n">
-        <v>13.52474971896171</v>
+        <v>13.1782520161294</v>
       </c>
       <c r="I1676" t="n">
-        <v>-9.390727461869458</v>
+        <v>-15.90571428571429</v>
       </c>
       <c r="J1676" t="n">
-        <v>14.11121992190222</v>
+        <v>13.94348890977445</v>
       </c>
     </row>
     <row r="1677">
-      <c r="A1677" t="n">
-        <v>-46.12999999999998</v>
-      </c>
-      <c r="B1677" t="n">
-        <v>14.45664750830587</v>
-      </c>
       <c r="C1677" t="n">
         <v>-9.614285714285714</v>
       </c>
@@ -53943,31 +53865,25 @@
         <v>15.47041428571428</v>
       </c>
       <c r="E1677" t="n">
-        <v>-27.6375</v>
+        <v>-36.55000000000001</v>
       </c>
       <c r="F1677" t="n">
-        <v>12.08402419354878</v>
+        <v>12.09137419354877</v>
       </c>
       <c r="G1677" t="n">
-        <v>-22.50147897549738</v>
+        <v>-30.5375</v>
       </c>
       <c r="H1677" t="n">
-        <v>13.52076749543532</v>
+        <v>13.17487701612941</v>
       </c>
       <c r="I1677" t="n">
-        <v>-9.63778390950211</v>
+        <v>-16.34</v>
       </c>
       <c r="J1677" t="n">
-        <v>14.10003622483724</v>
+        <v>13.9428317669173</v>
       </c>
     </row>
     <row r="1678">
-      <c r="A1678" t="n">
-        <v>-46.55999999999998</v>
-      </c>
-      <c r="B1678" t="n">
-        <v>14.45677607973444</v>
-      </c>
       <c r="C1678" t="n">
         <v>-10.04285714285714</v>
       </c>
@@ -53975,31 +53891,25 @@
         <v>15.47024285714285</v>
       </c>
       <c r="E1678" t="n">
-        <v>-28.02500000000001</v>
+        <v>-36.93750000000001</v>
       </c>
       <c r="F1678" t="n">
-        <v>12.08387419354878</v>
+        <v>12.09152419354877</v>
       </c>
       <c r="G1678" t="n">
-        <v>-22.79194698076046</v>
+        <v>-30.925</v>
       </c>
       <c r="H1678" t="n">
-        <v>13.5170234207301</v>
+        <v>13.17150201612941</v>
       </c>
       <c r="I1678" t="n">
-        <v>-9.889507604473639</v>
+        <v>-16.77428571428571</v>
       </c>
       <c r="J1678" t="n">
-        <v>14.08914105495974</v>
+        <v>13.94217462406016</v>
       </c>
     </row>
     <row r="1679">
-      <c r="A1679" t="n">
-        <v>-46.98999999999998</v>
-      </c>
-      <c r="B1679" t="n">
-        <v>14.45690465116301</v>
-      </c>
       <c r="C1679" t="n">
         <v>-10.47142857142857</v>
       </c>
@@ -54007,31 +53917,25 @@
         <v>15.47007142857142</v>
       </c>
       <c r="E1679" t="n">
-        <v>-28.4125</v>
+        <v>-37.32500000000001</v>
       </c>
       <c r="F1679" t="n">
-        <v>12.08372419354878</v>
+        <v>12.09167419354877</v>
       </c>
       <c r="G1679" t="n">
-        <v>-23.08743911708436</v>
+        <v>-31.3125</v>
       </c>
       <c r="H1679" t="n">
-        <v>13.51352265402768</v>
+        <v>13.16812701612941</v>
       </c>
       <c r="I1679" t="n">
-        <v>-10.14600839012479</v>
+        <v>-17.20857142857143</v>
       </c>
       <c r="J1679" t="n">
-        <v>14.07854467575686</v>
+        <v>13.94151748120302</v>
       </c>
     </row>
     <row r="1680">
-      <c r="A1680" t="n">
-        <v>-47.41999999999998</v>
-      </c>
-      <c r="B1680" t="n">
-        <v>14.45703322259158</v>
-      </c>
       <c r="C1680" t="n">
         <v>-10.9</v>
       </c>
@@ -54039,31 +53943,25 @@
         <v>15.46989999999999</v>
       </c>
       <c r="E1680" t="n">
-        <v>-28.8</v>
+        <v>-37.71250000000001</v>
       </c>
       <c r="F1680" t="n">
-        <v>12.08357419354878</v>
+        <v>12.09182419354877</v>
       </c>
       <c r="G1680" t="n">
-        <v>-23.38803516231204</v>
+        <v>-31.7</v>
       </c>
       <c r="H1680" t="n">
-        <v>13.51027035450969</v>
+        <v>13.16475201612941</v>
       </c>
       <c r="I1680" t="n">
-        <v>-10.4073961097963</v>
+        <v>-17.64285714285714</v>
       </c>
       <c r="J1680" t="n">
-        <v>14.06825735071577</v>
+        <v>13.94086033834588</v>
       </c>
     </row>
     <row r="1681">
-      <c r="A1681" t="n">
-        <v>-47.84999999999998</v>
-      </c>
-      <c r="B1681" t="n">
-        <v>14.45716179402015</v>
-      </c>
       <c r="C1681" t="n">
         <v>-11.32857142857142</v>
       </c>
@@ -54071,31 +53969,25 @@
         <v>15.46972857142856</v>
       </c>
       <c r="E1681" t="n">
-        <v>-29.1875</v>
+        <v>-38.10000000000001</v>
       </c>
       <c r="F1681" t="n">
-        <v>12.08342419354878</v>
+        <v>12.09197419354877</v>
       </c>
       <c r="G1681" t="n">
-        <v>-23.69381489428646</v>
+        <v>-32.08750000000001</v>
       </c>
       <c r="H1681" t="n">
-        <v>13.50727168135778</v>
+        <v>13.16137701612941</v>
       </c>
       <c r="I1681" t="n">
-        <v>-10.6737806068289</v>
+        <v>-18.07714285714286</v>
       </c>
       <c r="J1681" t="n">
-        <v>14.0582893433236</v>
+        <v>13.94020319548873</v>
       </c>
     </row>
     <row r="1682">
-      <c r="A1682" t="n">
-        <v>-48.27999999999998</v>
-      </c>
-      <c r="B1682" t="n">
-        <v>14.45729036544872</v>
-      </c>
       <c r="C1682" t="n">
         <v>-11.75714285714285</v>
       </c>
@@ -54103,31 +53995,25 @@
         <v>15.46955714285713</v>
       </c>
       <c r="E1682" t="n">
-        <v>-29.575</v>
+        <v>-38.48750000000001</v>
       </c>
       <c r="F1682" t="n">
-        <v>12.08327419354878</v>
+        <v>12.09212419354877</v>
       </c>
       <c r="G1682" t="n">
-        <v>-24.00485809085056</v>
+        <v>-32.475</v>
       </c>
       <c r="H1682" t="n">
-        <v>13.50453179375357</v>
+        <v>13.15800201612941</v>
       </c>
       <c r="I1682" t="n">
-        <v>-10.94527172456333</v>
+        <v>-18.51142857142857</v>
       </c>
       <c r="J1682" t="n">
-        <v>14.0486509170675</v>
+        <v>13.93954605263159</v>
       </c>
     </row>
     <row r="1683">
-      <c r="A1683" t="n">
-        <v>-48.70999999999998</v>
-      </c>
-      <c r="B1683" t="n">
-        <v>14.45741893687729</v>
-      </c>
       <c r="C1683" t="n">
         <v>-12.18571428571428</v>
       </c>
@@ -54135,31 +54021,25 @@
         <v>15.4693857142857</v>
       </c>
       <c r="E1683" t="n">
-        <v>-29.96250000000001</v>
+        <v>-38.87500000000001</v>
       </c>
       <c r="F1683" t="n">
-        <v>12.08312419354878</v>
+        <v>12.09227419354877</v>
       </c>
       <c r="G1683" t="n">
-        <v>-24.32124452984728</v>
+        <v>-32.8625</v>
       </c>
       <c r="H1683" t="n">
-        <v>13.5020558508787</v>
+        <v>13.15462701612941</v>
       </c>
       <c r="I1683" t="n">
-        <v>-11.22197930634032</v>
+        <v>-18.94571428571428</v>
       </c>
       <c r="J1683" t="n">
-        <v>14.03935233543464</v>
+        <v>13.93888890977445</v>
       </c>
     </row>
     <row r="1684">
-      <c r="A1684" t="n">
-        <v>-49.13999999999998</v>
-      </c>
-      <c r="B1684" t="n">
-        <v>14.45754750830586</v>
-      </c>
       <c r="C1684" t="n">
         <v>-12.61428571428571</v>
       </c>
@@ -54167,31 +54047,25 @@
         <v>15.46921428571428</v>
       </c>
       <c r="E1684" t="n">
-        <v>-30.35</v>
+        <v>-39.26250000000001</v>
       </c>
       <c r="F1684" t="n">
-        <v>12.08297419354878</v>
+        <v>12.09242419354877</v>
       </c>
       <c r="G1684" t="n">
-        <v>-24.64305398911959</v>
+        <v>-33.25</v>
       </c>
       <c r="H1684" t="n">
-        <v>13.4998490119148</v>
+        <v>13.15125201612941</v>
       </c>
       <c r="I1684" t="n">
-        <v>-11.50401319550062</v>
+        <v>-19.38</v>
       </c>
       <c r="J1684" t="n">
-        <v>14.03040386191215</v>
+        <v>13.9382317669173</v>
       </c>
     </row>
     <row r="1685">
-      <c r="A1685" t="n">
-        <v>-49.56999999999998</v>
-      </c>
-      <c r="B1685" t="n">
-        <v>14.45767607973444</v>
-      </c>
       <c r="C1685" t="n">
         <v>-13.04285714285714</v>
       </c>
@@ -54199,22 +54073,22 @@
         <v>15.46904285714285</v>
       </c>
       <c r="E1685" t="n">
-        <v>-30.7375</v>
+        <v>-39.65000000000001</v>
       </c>
       <c r="F1685" t="n">
-        <v>12.08282419354878</v>
+        <v>12.09257419354877</v>
       </c>
       <c r="G1685" t="n">
-        <v>-24.97036624651042</v>
+        <v>-33.6375</v>
       </c>
       <c r="H1685" t="n">
-        <v>13.49791643604351</v>
+        <v>13.14787701612942</v>
       </c>
       <c r="I1685" t="n">
-        <v>-11.79148323538496</v>
+        <v>-19.81428571428571</v>
       </c>
       <c r="J1685" t="n">
-        <v>14.02181575998719</v>
+        <v>13.93757462406016</v>
       </c>
     </row>
     <row r="1686">
@@ -54225,22 +54099,22 @@
         <v>15.46887142857142</v>
       </c>
       <c r="E1686" t="n">
-        <v>-31.12500000000001</v>
+        <v>-40.03750000000001</v>
       </c>
       <c r="F1686" t="n">
-        <v>12.08267419354878</v>
+        <v>12.09272419354877</v>
       </c>
       <c r="G1686" t="n">
-        <v>-25.30326107986274</v>
+        <v>-34.02500000000001</v>
       </c>
       <c r="H1686" t="n">
-        <v>13.49626328244645</v>
+        <v>13.14450201612942</v>
       </c>
       <c r="I1686" t="n">
-        <v>-12.08449926933407</v>
+        <v>-20.24857142857143</v>
       </c>
       <c r="J1686" t="n">
-        <v>14.0135982931469</v>
+        <v>13.93691748120302</v>
       </c>
     </row>
     <row r="1687">
@@ -54251,22 +54125,22 @@
         <v>15.46869999999999</v>
       </c>
       <c r="E1687" t="n">
-        <v>-31.51250000000001</v>
+        <v>-40.42500000000001</v>
       </c>
       <c r="F1687" t="n">
-        <v>12.08252419354878</v>
+        <v>12.09287419354877</v>
       </c>
       <c r="G1687" t="n">
-        <v>-25.64181826701948</v>
+        <v>-34.41250000000001</v>
       </c>
       <c r="H1687" t="n">
-        <v>13.49489471030527</v>
+        <v>13.14112701612942</v>
       </c>
       <c r="I1687" t="n">
-        <v>-12.3831711406887</v>
+        <v>-20.68285714285714</v>
       </c>
       <c r="J1687" t="n">
-        <v>14.00576172487844</v>
+        <v>13.93626033834588</v>
       </c>
     </row>
     <row r="1688">
@@ -54277,22 +54151,22 @@
         <v>15.46852857142856</v>
       </c>
       <c r="E1688" t="n">
-        <v>-31.90000000000001</v>
+        <v>-40.81250000000001</v>
       </c>
       <c r="F1688" t="n">
-        <v>12.08237419354878</v>
+        <v>12.09302419354877</v>
       </c>
       <c r="G1688" t="n">
-        <v>-25.98611758582361</v>
+        <v>-34.8</v>
       </c>
       <c r="H1688" t="n">
-        <v>13.4938158788016</v>
+        <v>13.13775201612942</v>
       </c>
       <c r="I1688" t="n">
-        <v>-12.68760869278958</v>
+        <v>-21.11714285714286</v>
       </c>
       <c r="J1688" t="n">
-        <v>13.99831631866896</v>
+        <v>13.93560319548873</v>
       </c>
     </row>
     <row r="1689">
@@ -54303,22 +54177,22 @@
         <v>15.46835714285713</v>
       </c>
       <c r="E1689" t="n">
-        <v>-32.28750000000001</v>
+        <v>-41.20000000000001</v>
       </c>
       <c r="F1689" t="n">
-        <v>12.08222419354878</v>
+        <v>12.09317419354877</v>
       </c>
       <c r="G1689" t="n">
-        <v>-26.33623881411806</v>
+        <v>-35.1875</v>
       </c>
       <c r="H1689" t="n">
-        <v>13.49303194711707</v>
+        <v>13.13437701612942</v>
       </c>
       <c r="I1689" t="n">
-        <v>-12.99792176897745</v>
+        <v>-21.55142857142857</v>
       </c>
       <c r="J1689" t="n">
-        <v>13.99127233800561</v>
+        <v>13.93494605263159</v>
       </c>
     </row>
     <row r="1690">
@@ -54329,22 +54203,22 @@
         <v>15.4681857142857</v>
       </c>
       <c r="E1690" t="n">
-        <v>-32.675</v>
+        <v>-41.58750000000001</v>
       </c>
       <c r="F1690" t="n">
-        <v>12.08207419354878</v>
+        <v>12.09332419354877</v>
       </c>
       <c r="G1690" t="n">
-        <v>-26.6922617297458</v>
+        <v>-35.575</v>
       </c>
       <c r="H1690" t="n">
-        <v>13.49254807443332</v>
+        <v>13.13100201612942</v>
       </c>
       <c r="I1690" t="n">
-        <v>-13.31422021259304</v>
+        <v>-21.98571428571428</v>
       </c>
       <c r="J1690" t="n">
-        <v>13.98464004637554</v>
+        <v>13.93428890977445</v>
       </c>
     </row>
     <row r="1691">
@@ -54355,22 +54229,22 @@
         <v>15.46801428571428</v>
       </c>
       <c r="E1691" t="n">
-        <v>-33.06250000000001</v>
+        <v>-41.97500000000001</v>
       </c>
       <c r="F1691" t="n">
-        <v>12.08192419354878</v>
+        <v>12.09347419354877</v>
       </c>
       <c r="G1691" t="n">
-        <v>-27.05</v>
+        <v>-35.96250000000001</v>
       </c>
       <c r="H1691" t="n">
-        <v>13.50033588709703</v>
+        <v>13.12762701612942</v>
       </c>
       <c r="I1691" t="n">
-        <v>-13.63661386697709</v>
+        <v>-22.42</v>
       </c>
       <c r="J1691" t="n">
-        <v>13.97842970726589</v>
+        <v>13.9336317669173</v>
       </c>
     </row>
     <row r="1692">
@@ -54381,22 +54255,22 @@
         <v>15.46784285714285</v>
       </c>
       <c r="E1692" t="n">
-        <v>-33.45</v>
+        <v>-42.36250000000001</v>
       </c>
       <c r="F1692" t="n">
-        <v>12.08177419354878</v>
+        <v>12.09362419354877</v>
       </c>
       <c r="G1692" t="n">
-        <v>-27.4375</v>
+        <v>-36.35000000000001</v>
       </c>
       <c r="H1692" t="n">
-        <v>13.50067338709703</v>
+        <v>13.12425201612942</v>
       </c>
       <c r="I1692" t="n">
-        <v>-13.96521257547034</v>
+        <v>-22.85428571428571</v>
       </c>
       <c r="J1692" t="n">
-        <v>13.97265158416382</v>
+        <v>13.93297462406016</v>
       </c>
     </row>
     <row r="1693">
@@ -54407,22 +54281,22 @@
         <v>15.46767142857142</v>
       </c>
       <c r="E1693" t="n">
-        <v>-33.83750000000001</v>
+        <v>-42.75000000000001</v>
       </c>
       <c r="F1693" t="n">
-        <v>12.08162419354878</v>
+        <v>12.09377419354877</v>
       </c>
       <c r="G1693" t="n">
-        <v>-27.825</v>
+        <v>-36.7375</v>
       </c>
       <c r="H1693" t="n">
-        <v>13.50101088709703</v>
+        <v>13.12087701612943</v>
       </c>
       <c r="I1693" t="n">
-        <v>-14.30012618141353</v>
+        <v>-23.28857142857143</v>
       </c>
       <c r="J1693" t="n">
-        <v>13.96731594055647</v>
+        <v>13.93231748120302</v>
       </c>
     </row>
     <row r="1694">
@@ -54433,22 +54307,22 @@
         <v>15.46749999999999</v>
       </c>
       <c r="E1694" t="n">
-        <v>-34.22500000000001</v>
+        <v>-43.13750000000001</v>
       </c>
       <c r="F1694" t="n">
-        <v>12.08147419354878</v>
+        <v>12.09392419354877</v>
       </c>
       <c r="G1694" t="n">
-        <v>-28.2125</v>
+        <v>-37.12500000000001</v>
       </c>
       <c r="H1694" t="n">
-        <v>13.50134838709703</v>
+        <v>13.11750201612943</v>
       </c>
       <c r="I1694" t="n">
-        <v>-14.64146452814739</v>
+        <v>-23.72285714285714</v>
       </c>
       <c r="J1694" t="n">
-        <v>13.96243303993101</v>
+        <v>13.93166033834588</v>
       </c>
     </row>
     <row r="1695">
@@ -54459,22 +54333,22 @@
         <v>15.46732857142856</v>
       </c>
       <c r="E1695" t="n">
-        <v>-34.61250000000001</v>
+        <v>-43.52500000000001</v>
       </c>
       <c r="F1695" t="n">
-        <v>12.08132419354878</v>
+        <v>12.09407419354877</v>
       </c>
       <c r="G1695" t="n">
-        <v>-28.6</v>
+        <v>-37.5125</v>
       </c>
       <c r="H1695" t="n">
-        <v>13.50168588709703</v>
+        <v>13.11412701612943</v>
       </c>
       <c r="I1695" t="n">
-        <v>-14.98933745901266</v>
+        <v>-24.15714285714285</v>
       </c>
       <c r="J1695" t="n">
-        <v>13.95801314577458</v>
+        <v>13.93100319548873</v>
       </c>
     </row>
     <row r="1696">
@@ -54485,22 +54359,22 @@
         <v>15.46715714285713</v>
       </c>
       <c r="E1696" t="n">
-        <v>-35.00000000000001</v>
+        <v>-43.91250000000001</v>
       </c>
       <c r="F1696" t="n">
-        <v>12.08117419354878</v>
+        <v>12.09422419354877</v>
       </c>
       <c r="G1696" t="n">
-        <v>-28.9875</v>
+        <v>-37.90000000000001</v>
       </c>
       <c r="H1696" t="n">
-        <v>13.50202338709703</v>
+        <v>13.11075201612943</v>
       </c>
       <c r="I1696" t="n">
-        <v>-15.34385481735008</v>
+        <v>-24.59142857142857</v>
       </c>
       <c r="J1696" t="n">
-        <v>13.95406652157432</v>
+        <v>13.93034605263159</v>
       </c>
     </row>
     <row r="1697">
@@ -54511,22 +54385,22 @@
         <v>15.4669857142857</v>
       </c>
       <c r="E1697" t="n">
-        <v>-35.3875</v>
+        <v>-44.30000000000001</v>
       </c>
       <c r="F1697" t="n">
-        <v>12.08102419354878</v>
+        <v>12.09437419354877</v>
       </c>
       <c r="G1697" t="n">
-        <v>-29.375</v>
+        <v>-38.28750000000001</v>
       </c>
       <c r="H1697" t="n">
-        <v>13.50236088709703</v>
+        <v>13.10737701612943</v>
       </c>
       <c r="I1697" t="n">
-        <v>-15.70512644650037</v>
+        <v>-25.02571428571428</v>
       </c>
       <c r="J1697" t="n">
-        <v>13.95060343081739</v>
+        <v>13.92968890977445</v>
       </c>
     </row>
     <row r="1698">
@@ -54537,22 +54411,22 @@
         <v>15.46681428571427</v>
       </c>
       <c r="E1698" t="n">
-        <v>-35.77500000000001</v>
+        <v>-44.68750000000001</v>
       </c>
       <c r="F1698" t="n">
-        <v>12.08087419354878</v>
+        <v>12.09452419354877</v>
       </c>
       <c r="G1698" t="n">
-        <v>-29.7625</v>
+        <v>-38.675</v>
       </c>
       <c r="H1698" t="n">
-        <v>13.50269838709703</v>
+        <v>13.10400201612943</v>
       </c>
       <c r="I1698" t="n">
-        <v>-16.07326218980429</v>
+        <v>-25.46</v>
       </c>
       <c r="J1698" t="n">
-        <v>13.94763413699094</v>
+        <v>13.9290317669173</v>
       </c>
     </row>
     <row r="1699">
@@ -54563,22 +54437,22 @@
         <v>15.46664285714285</v>
       </c>
       <c r="E1699" t="n">
-        <v>-36.16250000000001</v>
+        <v>-45.07500000000001</v>
       </c>
       <c r="F1699" t="n">
-        <v>12.08072419354878</v>
+        <v>12.09467419354877</v>
       </c>
       <c r="G1699" t="n">
-        <v>-30.15</v>
+        <v>-39.06250000000001</v>
       </c>
       <c r="H1699" t="n">
-        <v>13.50303588709703</v>
+        <v>13.10062701612943</v>
       </c>
       <c r="I1699" t="n">
-        <v>-16.44837189060257</v>
+        <v>-25.89428571428571</v>
       </c>
       <c r="J1699" t="n">
-        <v>13.94516890358212</v>
+        <v>13.92837462406016</v>
       </c>
     </row>
     <row r="1700">
@@ -54589,22 +54463,22 @@
         <v>15.46647142857142</v>
       </c>
       <c r="E1700" t="n">
-        <v>-36.55000000000001</v>
+        <v>-45.46250000000001</v>
       </c>
       <c r="F1700" t="n">
-        <v>12.08057419354878</v>
+        <v>12.09482419354877</v>
       </c>
       <c r="G1700" t="n">
-        <v>-30.5375</v>
+        <v>-39.45</v>
       </c>
       <c r="H1700" t="n">
-        <v>13.50337338709703</v>
+        <v>13.09725201612943</v>
       </c>
       <c r="I1700" t="n">
-        <v>-16.83056539223594</v>
+        <v>-26.32857142857143</v>
       </c>
       <c r="J1700" t="n">
-        <v>13.94321799407807</v>
+        <v>13.92771748120302</v>
       </c>
     </row>
     <row r="1701">
@@ -54615,22 +54489,22 @@
         <v>15.46629999999999</v>
       </c>
       <c r="E1701" t="n">
-        <v>-36.93750000000001</v>
+        <v>-45.85000000000001</v>
       </c>
       <c r="F1701" t="n">
-        <v>12.08042419354878</v>
+        <v>12.09497419354877</v>
       </c>
       <c r="G1701" t="n">
-        <v>-30.925</v>
+        <v>-39.83750000000001</v>
       </c>
       <c r="H1701" t="n">
-        <v>13.50371088709703</v>
+        <v>13.09387701612943</v>
       </c>
       <c r="I1701" t="n">
-        <v>-17.21995253804514</v>
+        <v>-26.76285714285714</v>
       </c>
       <c r="J1701" t="n">
-        <v>13.94179167196596</v>
+        <v>13.92706033834588</v>
       </c>
     </row>
     <row r="1702">
@@ -54641,22 +54515,22 @@
         <v>15.46612857142856</v>
       </c>
       <c r="E1702" t="n">
-        <v>-37.32500000000001</v>
+        <v>-46.23750000000001</v>
       </c>
       <c r="F1702" t="n">
-        <v>12.08027419354878</v>
+        <v>12.09512419354877</v>
       </c>
       <c r="G1702" t="n">
-        <v>-31.3125</v>
+        <v>-40.22500000000001</v>
       </c>
       <c r="H1702" t="n">
-        <v>13.50404838709703</v>
+        <v>13.09050201612944</v>
       </c>
       <c r="I1702" t="n">
-        <v>-17.61664317137091</v>
+        <v>-27.19714285714285</v>
       </c>
       <c r="J1702" t="n">
-        <v>13.94090020073292</v>
+        <v>13.92640319548873</v>
       </c>
     </row>
     <row r="1703">
@@ -54667,1892 +54541,1328 @@
         <v>15.46595714285713</v>
       </c>
       <c r="E1703" t="n">
-        <v>-37.71250000000001</v>
+        <v>-46.62500000000001</v>
       </c>
       <c r="F1703" t="n">
-        <v>12.08012419354878</v>
+        <v>12.09527419354877</v>
       </c>
       <c r="G1703" t="n">
-        <v>-31.7</v>
+        <v>-40.61250000000001</v>
       </c>
       <c r="H1703" t="n">
-        <v>13.50438588709703</v>
+        <v>13.08712701612944</v>
       </c>
       <c r="I1703" t="n">
-        <v>-17.64285714285714</v>
+        <v>-27.63142857142857</v>
       </c>
       <c r="J1703" t="n">
-        <v>13.95400319548873</v>
+        <v>13.92574605263159</v>
       </c>
     </row>
     <row r="1704">
       <c r="C1704" t="n">
-        <v>-20.76571428571428</v>
+        <v>-21.18571428571428</v>
       </c>
       <c r="D1704" t="n">
-        <v>15.4659537142857</v>
+        <v>15.4657857142857</v>
       </c>
       <c r="E1704" t="n">
-        <v>-38.10000000000001</v>
+        <v>-47.01250000000002</v>
       </c>
       <c r="F1704" t="n">
-        <v>12.07997419354878</v>
+        <v>12.09542419354877</v>
       </c>
       <c r="G1704" t="n">
-        <v>-32.08750000000001</v>
+        <v>-41.00000000000001</v>
       </c>
       <c r="H1704" t="n">
-        <v>13.50472338709703</v>
+        <v>13.08375201612944</v>
       </c>
       <c r="I1704" t="n">
-        <v>-18.07714285714286</v>
+        <v>-28.06571428571428</v>
       </c>
       <c r="J1704" t="n">
-        <v>13.95466033834588</v>
+        <v>13.92508890977445</v>
       </c>
     </row>
     <row r="1705">
       <c r="C1705" t="n">
-        <v>-21.00263184963924</v>
+        <v>-21.61428571428571</v>
       </c>
       <c r="D1705" t="n">
-        <v>15.46563693058459</v>
+        <v>15.46561428571427</v>
       </c>
       <c r="E1705" t="n">
-        <v>-38.48750000000001</v>
+        <v>-47.40000000000001</v>
       </c>
       <c r="F1705" t="n">
-        <v>12.07982419354878</v>
+        <v>12.09557419354877</v>
       </c>
       <c r="G1705" t="n">
-        <v>-32.475</v>
+        <v>-41.3875</v>
       </c>
       <c r="H1705" t="n">
-        <v>13.50506088709703</v>
+        <v>13.08037701612944</v>
       </c>
       <c r="I1705" t="n">
-        <v>-18.51142857142857</v>
+        <v>-28.5</v>
       </c>
       <c r="J1705" t="n">
-        <v>13.95531748120302</v>
+        <v>13.9244317669173</v>
       </c>
     </row>
     <row r="1706">
       <c r="C1706" t="n">
-        <v>-21.23520375497509</v>
+        <v>-22.04285714285714</v>
       </c>
       <c r="D1706" t="n">
-        <v>15.46488344011032</v>
+        <v>15.46544285714285</v>
       </c>
       <c r="E1706" t="n">
-        <v>-38.87500000000001</v>
+        <v>-47.78750000000001</v>
       </c>
       <c r="F1706" t="n">
-        <v>12.07967419354878</v>
+        <v>12.09572419354877</v>
       </c>
       <c r="G1706" t="n">
-        <v>-32.8625</v>
+        <v>-41.77500000000001</v>
       </c>
       <c r="H1706" t="n">
-        <v>13.50539838709703</v>
+        <v>13.07700201612944</v>
       </c>
       <c r="I1706" t="n">
-        <v>-18.94571428571428</v>
+        <v>-28.93428571428571</v>
       </c>
       <c r="J1706" t="n">
-        <v>13.95597462406016</v>
+        <v>13.92377462406016</v>
       </c>
     </row>
     <row r="1707">
       <c r="C1707" t="n">
-        <v>-21.46354073450573</v>
+        <v>-22.47142857142857</v>
       </c>
       <c r="D1707" t="n">
-        <v>15.46370158104153</v>
+        <v>15.46527142857142</v>
       </c>
       <c r="E1707" t="n">
-        <v>-39.26250000000001</v>
+        <v>-48.17500000000001</v>
       </c>
       <c r="F1707" t="n">
-        <v>12.07952419354878</v>
+        <v>12.09587419354877</v>
       </c>
       <c r="G1707" t="n">
-        <v>-33.25</v>
+        <v>-42.16250000000001</v>
       </c>
       <c r="H1707" t="n">
-        <v>13.50573588709703</v>
+        <v>13.07362701612944</v>
       </c>
       <c r="I1707" t="n">
-        <v>-19.38</v>
+        <v>-29.36857142857142</v>
       </c>
       <c r="J1707" t="n">
-        <v>13.9566317669173</v>
+        <v>13.92311748120302</v>
       </c>
     </row>
     <row r="1708">
       <c r="C1708" t="n">
-        <v>-21.68775352101505</v>
+        <v>-22.9</v>
       </c>
       <c r="D1708" t="n">
-        <v>15.46209969155682</v>
+        <v>15.46509999999999</v>
       </c>
       <c r="E1708" t="n">
-        <v>-39.65000000000001</v>
+        <v>-48.56250000000001</v>
       </c>
       <c r="F1708" t="n">
-        <v>12.07937419354878</v>
+        <v>12.09602419354877</v>
       </c>
       <c r="G1708" t="n">
-        <v>-33.6375</v>
+        <v>-42.55000000000001</v>
       </c>
       <c r="H1708" t="n">
-        <v>13.50607338709703</v>
+        <v>13.07025201612944</v>
       </c>
       <c r="I1708" t="n">
-        <v>-19.81428571428571</v>
+        <v>-29.80285714285714</v>
       </c>
       <c r="J1708" t="n">
-        <v>13.95728890977445</v>
+        <v>13.92246033834588</v>
       </c>
     </row>
     <row r="1709">
       <c r="C1709" t="n">
-        <v>-21.90795284728696</v>
+        <v>-23.32857142857142</v>
       </c>
       <c r="D1709" t="n">
-        <v>15.46008610983485</v>
+        <v>15.46492857142856</v>
       </c>
       <c r="E1709" t="n">
-        <v>-40.03750000000001</v>
+        <v>-48.95000000000002</v>
       </c>
       <c r="F1709" t="n">
-        <v>12.07922419354878</v>
+        <v>12.09617419354877</v>
       </c>
       <c r="G1709" t="n">
-        <v>-34.02500000000001</v>
+        <v>-42.93750000000001</v>
       </c>
       <c r="H1709" t="n">
-        <v>13.50641088709703</v>
+        <v>13.06687701612944</v>
       </c>
       <c r="I1709" t="n">
-        <v>-20.24857142857143</v>
+        <v>-30.23714285714285</v>
       </c>
       <c r="J1709" t="n">
-        <v>13.95794605263159</v>
+        <v>13.92180319548873</v>
       </c>
     </row>
     <row r="1710">
       <c r="C1710" t="n">
-        <v>-22.12424944610532</v>
+        <v>-23.75714285714285</v>
       </c>
       <c r="D1710" t="n">
-        <v>15.45766917405423</v>
+        <v>15.46475714285713</v>
       </c>
       <c r="E1710" t="n">
-        <v>-40.42500000000001</v>
+        <v>-49.33750000000001</v>
       </c>
       <c r="F1710" t="n">
-        <v>12.07907419354878</v>
+        <v>12.09632419354877</v>
       </c>
       <c r="G1710" t="n">
-        <v>-34.41250000000001</v>
+        <v>-43.32500000000001</v>
       </c>
       <c r="H1710" t="n">
-        <v>13.50674838709703</v>
+        <v>13.06350201612945</v>
       </c>
       <c r="I1710" t="n">
-        <v>-20.68285714285714</v>
+        <v>-30.67142857142857</v>
       </c>
       <c r="J1710" t="n">
-        <v>13.95860319548873</v>
+        <v>13.92114605263159</v>
       </c>
     </row>
     <row r="1711">
       <c r="C1711" t="n">
-        <v>-22.33675405025402</v>
+        <v>-24.18571428571428</v>
       </c>
       <c r="D1711" t="n">
-        <v>15.45485722239358</v>
+        <v>15.4645857142857</v>
       </c>
       <c r="E1711" t="n">
-        <v>-40.81250000000001</v>
+        <v>-49.72500000000002</v>
       </c>
       <c r="F1711" t="n">
-        <v>12.07892419354878</v>
+        <v>12.09647419354877</v>
       </c>
       <c r="G1711" t="n">
-        <v>-34.8</v>
+        <v>-43.71250000000001</v>
       </c>
       <c r="H1711" t="n">
-        <v>13.50708588709703</v>
+        <v>13.06012701612945</v>
       </c>
       <c r="I1711" t="n">
-        <v>-21.11714285714286</v>
+        <v>-31.10571428571428</v>
       </c>
       <c r="J1711" t="n">
-        <v>13.95926033834588</v>
+        <v>13.92048890977445</v>
       </c>
     </row>
     <row r="1712">
       <c r="C1712" t="n">
-        <v>-22.54557739251697</v>
+        <v>-24.61428571428571</v>
       </c>
       <c r="D1712" t="n">
-        <v>15.45165859303155</v>
-      </c>
-      <c r="E1712" t="n">
-        <v>-41.20000000000001</v>
-      </c>
-      <c r="F1712" t="n">
-        <v>12.07877419354878</v>
+        <v>15.46441428571427</v>
       </c>
       <c r="G1712" t="n">
-        <v>-35.1875</v>
+        <v>-44.10000000000001</v>
       </c>
       <c r="H1712" t="n">
-        <v>13.50742338709703</v>
+        <v>13.05675201612945</v>
       </c>
       <c r="I1712" t="n">
-        <v>-21.55142857142857</v>
+        <v>-31.54</v>
       </c>
       <c r="J1712" t="n">
-        <v>13.95991748120302</v>
+        <v>13.91983176691731</v>
       </c>
     </row>
     <row r="1713">
       <c r="C1713" t="n">
-        <v>-22.75083020567805</v>
+        <v>-25.04285714285714</v>
       </c>
       <c r="D1713" t="n">
-        <v>15.44808162414674</v>
-      </c>
-      <c r="E1713" t="n">
-        <v>-41.58750000000001</v>
-      </c>
-      <c r="F1713" t="n">
-        <v>12.07862419354878</v>
+        <v>15.46424285714284</v>
       </c>
       <c r="G1713" t="n">
-        <v>-35.575</v>
+        <v>-44.48750000000001</v>
       </c>
       <c r="H1713" t="n">
-        <v>13.50776088709703</v>
+        <v>13.05337701612945</v>
       </c>
       <c r="I1713" t="n">
-        <v>-21.98571428571428</v>
+        <v>-31.97428571428571</v>
       </c>
       <c r="J1713" t="n">
-        <v>13.96057462406016</v>
+        <v>13.91917462406016</v>
       </c>
     </row>
     <row r="1714">
       <c r="C1714" t="n">
-        <v>-22.95262322252115</v>
+        <v>-25.4788743866836</v>
       </c>
       <c r="D1714" t="n">
-        <v>15.44413465391779</v>
-      </c>
-      <c r="E1714" t="n">
-        <v>-41.97500000000001</v>
-      </c>
-      <c r="F1714" t="n">
-        <v>12.07847419354878</v>
+        <v>15.46350746665862</v>
       </c>
       <c r="G1714" t="n">
-        <v>-35.96250000000001</v>
+        <v>-44.87500000000001</v>
       </c>
       <c r="H1714" t="n">
-        <v>13.50809838709703</v>
+        <v>13.05000201612945</v>
       </c>
       <c r="I1714" t="n">
-        <v>-22.42</v>
+        <v>-32.40857142857142</v>
       </c>
       <c r="J1714" t="n">
-        <v>13.9612317669173</v>
+        <v>13.91851748120302</v>
       </c>
     </row>
     <row r="1715">
       <c r="C1715" t="n">
-        <v>-23.15106717583016</v>
+        <v>-25.89459994737171</v>
       </c>
       <c r="D1715" t="n">
-        <v>15.43982602052334</v>
-      </c>
-      <c r="E1715" t="n">
-        <v>-42.36250000000001</v>
-      </c>
-      <c r="F1715" t="n">
-        <v>12.07832419354878</v>
+        <v>15.46168075256124</v>
       </c>
       <c r="G1715" t="n">
-        <v>-36.35000000000001</v>
+        <v>-45.26250000000001</v>
       </c>
       <c r="H1715" t="n">
-        <v>13.50843588709703</v>
+        <v>13.04662701612945</v>
       </c>
       <c r="I1715" t="n">
-        <v>-22.85428571428571</v>
+        <v>-32.84285714285714</v>
       </c>
       <c r="J1715" t="n">
-        <v>13.96188890977445</v>
+        <v>13.91786033834588</v>
       </c>
     </row>
     <row r="1716">
       <c r="C1716" t="n">
-        <v>-23.34627279838897</v>
+        <v>-26.29065747196033</v>
       </c>
       <c r="D1716" t="n">
-        <v>15.43516406214199</v>
-      </c>
-      <c r="E1716" t="n">
-        <v>-42.75000000000001</v>
-      </c>
-      <c r="F1716" t="n">
-        <v>12.07817419354878</v>
+        <v>15.45879625572237</v>
       </c>
       <c r="G1716" t="n">
-        <v>-36.7375</v>
+        <v>-45.65000000000001</v>
       </c>
       <c r="H1716" t="n">
-        <v>13.50877338709703</v>
+        <v>13.04325201612945</v>
       </c>
       <c r="I1716" t="n">
-        <v>-23.28857142857143</v>
+        <v>-33.27714285714285</v>
       </c>
       <c r="J1716" t="n">
-        <v>13.96254605263159</v>
+        <v>13.91720319548873</v>
       </c>
     </row>
     <row r="1717">
       <c r="C1717" t="n">
-        <v>-23.53835082298146</v>
+        <v>-26.66767060748832</v>
       </c>
       <c r="D1717" t="n">
-        <v>15.43015711695238</v>
-      </c>
-      <c r="E1717" t="n">
-        <v>-43.13750000000001</v>
-      </c>
-      <c r="F1717" t="n">
-        <v>12.07802419354878</v>
+        <v>15.45488751701366</v>
       </c>
       <c r="G1717" t="n">
-        <v>-37.12500000000001</v>
+        <v>-46.03750000000001</v>
       </c>
       <c r="H1717" t="n">
-        <v>13.50911088709703</v>
+        <v>13.03987701612945</v>
       </c>
       <c r="I1717" t="n">
-        <v>-23.72285714285714</v>
+        <v>-33.71142857142857</v>
       </c>
       <c r="J1717" t="n">
-        <v>13.96320319548873</v>
+        <v>13.91654605263159</v>
       </c>
     </row>
     <row r="1718">
       <c r="C1718" t="n">
-        <v>-23.72741198239155</v>
+        <v>-27.02626300099456</v>
       </c>
       <c r="D1718" t="n">
-        <v>15.42481352313314</v>
-      </c>
-      <c r="E1718" t="n">
-        <v>-43.52500000000001</v>
-      </c>
-      <c r="F1718" t="n">
-        <v>12.07787419354878</v>
+        <v>15.44998807730676</v>
       </c>
       <c r="G1718" t="n">
-        <v>-37.5125</v>
+        <v>-46.42500000000001</v>
       </c>
       <c r="H1718" t="n">
-        <v>13.50944838709703</v>
+        <v>13.03650201612946</v>
       </c>
       <c r="I1718" t="n">
-        <v>-24.15714285714285</v>
+        <v>-34.14571428571428</v>
       </c>
       <c r="J1718" t="n">
-        <v>13.96386033834588</v>
+        <v>13.91588890977445</v>
       </c>
     </row>
     <row r="1719">
       <c r="C1719" t="n">
-        <v>-23.91356700940309</v>
+        <v>-27.36705829951791</v>
       </c>
       <c r="D1719" t="n">
-        <v>15.41914161886289</v>
-      </c>
-      <c r="E1719" t="n">
-        <v>-43.91250000000001</v>
-      </c>
-      <c r="F1719" t="n">
-        <v>12.07772419354878</v>
+        <v>15.44413147747332</v>
       </c>
       <c r="G1719" t="n">
-        <v>-37.90000000000001</v>
+        <v>-46.81250000000001</v>
       </c>
       <c r="H1719" t="n">
-        <v>13.50978588709703</v>
+        <v>13.03312701612946</v>
       </c>
       <c r="I1719" t="n">
-        <v>-24.59142857142857</v>
+        <v>-34.58</v>
       </c>
       <c r="J1719" t="n">
-        <v>13.96451748120302</v>
+        <v>13.91523176691731</v>
       </c>
     </row>
     <row r="1720">
       <c r="C1720" t="n">
-        <v>-24.09692663680001</v>
+        <v>-27.69068015009724</v>
       </c>
       <c r="D1720" t="n">
-        <v>15.41314974232027</v>
-      </c>
-      <c r="E1720" t="n">
-        <v>-44.30000000000001</v>
-      </c>
-      <c r="F1720" t="n">
-        <v>12.07757419354878</v>
+        <v>15.437351258385</v>
       </c>
       <c r="G1720" t="n">
-        <v>-38.28750000000001</v>
+        <v>-47.20000000000001</v>
       </c>
       <c r="H1720" t="n">
-        <v>13.51012338709703</v>
+        <v>13.02975201612946</v>
       </c>
       <c r="I1720" t="n">
-        <v>-25.02571428571428</v>
+        <v>-35.01428571428571</v>
       </c>
       <c r="J1720" t="n">
-        <v>13.96517462406016</v>
+        <v>13.91457462406016</v>
       </c>
     </row>
     <row r="1721">
       <c r="C1721" t="n">
-        <v>-24.27760159736616</v>
+        <v>-27.99775219977141</v>
       </c>
       <c r="D1721" t="n">
-        <v>15.4068462316839</v>
-      </c>
-      <c r="E1721" t="n">
-        <v>-44.68750000000001</v>
-      </c>
-      <c r="F1721" t="n">
-        <v>12.07742419354878</v>
+        <v>15.42968096091345</v>
       </c>
       <c r="G1721" t="n">
-        <v>-38.675</v>
+        <v>-47.58750000000001</v>
       </c>
       <c r="H1721" t="n">
-        <v>13.51046088709703</v>
+        <v>13.02637701612946</v>
       </c>
       <c r="I1721" t="n">
-        <v>-25.46</v>
+        <v>-35.44857142857143</v>
       </c>
       <c r="J1721" t="n">
-        <v>13.9658317669173</v>
+        <v>13.91391748120302</v>
       </c>
     </row>
     <row r="1722">
       <c r="C1722" t="n">
-        <v>-24.45570262388546</v>
+        <v>-28.28889809557931</v>
       </c>
       <c r="D1722" t="n">
-        <v>15.40023942513239</v>
-      </c>
-      <c r="E1722" t="n">
-        <v>-45.07500000000001</v>
-      </c>
-      <c r="F1722" t="n">
-        <v>12.07727419354878</v>
+        <v>15.42115412593033</v>
       </c>
       <c r="G1722" t="n">
-        <v>-39.06250000000001</v>
+        <v>-47.97500000000001</v>
       </c>
       <c r="H1722" t="n">
-        <v>13.51079838709703</v>
+        <v>13.02300201612946</v>
       </c>
       <c r="I1722" t="n">
-        <v>-25.89428571428571</v>
+        <v>-35.88285714285713</v>
       </c>
       <c r="J1722" t="n">
-        <v>13.96648890977445</v>
+        <v>13.91326033834588</v>
       </c>
     </row>
     <row r="1723">
       <c r="C1723" t="n">
-        <v>-24.63134044914178</v>
+        <v>-28.56474148455978</v>
       </c>
       <c r="D1723" t="n">
-        <v>15.3933376608444</v>
-      </c>
-      <c r="E1723" t="n">
-        <v>-45.46250000000001</v>
-      </c>
-      <c r="F1723" t="n">
-        <v>12.07712419354878</v>
+        <v>15.4118042943073</v>
       </c>
       <c r="G1723" t="n">
-        <v>-39.45</v>
+        <v>-48.36250000000001</v>
       </c>
       <c r="H1723" t="n">
-        <v>13.51113588709703</v>
+        <v>13.01962701612946</v>
       </c>
       <c r="I1723" t="n">
-        <v>-26.32857142857143</v>
+        <v>-36.31714285714285</v>
       </c>
       <c r="J1723" t="n">
-        <v>13.96714605263159</v>
+        <v>13.91260319548873</v>
       </c>
     </row>
     <row r="1724">
       <c r="C1724" t="n">
-        <v>-24.80462580591902</v>
+        <v>-28.82590601375171</v>
       </c>
       <c r="D1724" t="n">
-        <v>15.38614927699852</v>
-      </c>
-      <c r="E1724" t="n">
-        <v>-45.85000000000001</v>
-      </c>
-      <c r="F1724" t="n">
-        <v>12.07697419354878</v>
+        <v>15.40166500691599</v>
       </c>
       <c r="G1724" t="n">
-        <v>-39.83750000000001</v>
+        <v>-48.75000000000001</v>
       </c>
       <c r="H1724" t="n">
-        <v>13.51147338709703</v>
+        <v>13.01625201612946</v>
       </c>
       <c r="I1724" t="n">
-        <v>-26.76285714285714</v>
+        <v>-36.75142857142856</v>
       </c>
       <c r="J1724" t="n">
-        <v>13.96780319548873</v>
+        <v>13.91194605263159</v>
       </c>
     </row>
     <row r="1725">
       <c r="C1725" t="n">
-        <v>-24.97566942700108</v>
+        <v>-29.07301533019395</v>
       </c>
       <c r="D1725" t="n">
-        <v>15.37868261177341</v>
-      </c>
-      <c r="E1725" t="n">
-        <v>-46.23750000000001</v>
-      </c>
-      <c r="F1725" t="n">
-        <v>12.07682419354878</v>
+        <v>15.39076980462808</v>
       </c>
       <c r="G1725" t="n">
-        <v>-40.22500000000001</v>
+        <v>-49.13750000000001</v>
       </c>
       <c r="H1725" t="n">
-        <v>13.51181088709703</v>
+        <v>13.01287701612946</v>
       </c>
       <c r="I1725" t="n">
-        <v>-27.19714285714285</v>
+        <v>-37.18571428571428</v>
       </c>
       <c r="J1725" t="n">
-        <v>13.96846033834588</v>
+        <v>13.91128890977445</v>
       </c>
     </row>
     <row r="1726">
       <c r="C1726" t="n">
-        <v>-25.14458204517184</v>
+        <v>-29.30669308092539</v>
       </c>
       <c r="D1726" t="n">
-        <v>15.37094600334768</v>
-      </c>
-      <c r="E1726" t="n">
-        <v>-46.62500000000001</v>
-      </c>
-      <c r="F1726" t="n">
-        <v>12.07667419354878</v>
+        <v>15.37915222831521</v>
       </c>
       <c r="G1726" t="n">
-        <v>-40.61250000000001</v>
+        <v>-49.52500000000001</v>
       </c>
       <c r="H1726" t="n">
-        <v>13.51214838709703</v>
+        <v>13.00950201612947</v>
       </c>
       <c r="I1726" t="n">
-        <v>-27.63142857142857</v>
+        <v>-37.61999999999999</v>
       </c>
       <c r="J1726" t="n">
-        <v>13.96911748120302</v>
+        <v>13.91063176691731</v>
       </c>
     </row>
     <row r="1727">
       <c r="C1727" t="n">
-        <v>-25.31147439321518</v>
+        <v>-29.52756291298488</v>
       </c>
       <c r="D1727" t="n">
-        <v>15.36294778989995</v>
-      </c>
-      <c r="E1727" t="n">
-        <v>-47.01250000000002</v>
-      </c>
-      <c r="F1727" t="n">
-        <v>12.07652419354878</v>
+        <v>15.36684581884904</v>
       </c>
       <c r="G1727" t="n">
-        <v>-41.00000000000001</v>
+        <v>-49.91250000000001</v>
       </c>
       <c r="H1727" t="n">
-        <v>13.51248588709703</v>
+        <v>13.00612701612947</v>
       </c>
       <c r="I1727" t="n">
-        <v>-28.06571428571428</v>
+        <v>-38.05428571428571</v>
       </c>
       <c r="J1727" t="n">
-        <v>13.96977462406016</v>
+        <v>13.90997462406016</v>
       </c>
     </row>
     <row r="1728">
       <c r="C1728" t="n">
-        <v>-25.476457203915</v>
+        <v>-29.73624847341128</v>
       </c>
       <c r="D1728" t="n">
-        <v>15.35469630960886</v>
-      </c>
-      <c r="E1728" t="n">
-        <v>-47.40000000000001</v>
-      </c>
-      <c r="F1728" t="n">
-        <v>12.07637419354878</v>
-      </c>
-      <c r="G1728" t="n">
-        <v>-41.3875</v>
-      </c>
-      <c r="H1728" t="n">
-        <v>13.51282338709703</v>
+        <v>15.35388411710122</v>
       </c>
       <c r="I1728" t="n">
-        <v>-28.5</v>
+        <v>-38.48857142857142</v>
       </c>
       <c r="J1728" t="n">
-        <v>13.9704317669173</v>
+        <v>13.90931748120302</v>
       </c>
     </row>
     <row r="1729">
       <c r="C1729" t="n">
-        <v>-25.63964121005518</v>
+        <v>-29.93337340924349</v>
       </c>
       <c r="D1729" t="n">
-        <v>15.34619990065303</v>
-      </c>
-      <c r="E1729" t="n">
-        <v>-47.78750000000001</v>
-      </c>
-      <c r="F1729" t="n">
-        <v>12.07622419354878</v>
-      </c>
-      <c r="G1729" t="n">
-        <v>-41.77500000000001</v>
-      </c>
-      <c r="H1729" t="n">
-        <v>13.51316088709703</v>
+        <v>15.34030066394341</v>
       </c>
       <c r="I1729" t="n">
-        <v>-28.93428571428571</v>
+        <v>-38.92285714285714</v>
       </c>
       <c r="J1729" t="n">
-        <v>13.97108890977445</v>
+        <v>13.90866033834588</v>
       </c>
     </row>
     <row r="1730">
       <c r="C1730" t="n">
-        <v>-25.80113714441963</v>
+        <v>-30.11956136752035</v>
       </c>
       <c r="D1730" t="n">
-        <v>15.3374669012111</v>
-      </c>
-      <c r="E1730" t="n">
-        <v>-48.17500000000001</v>
-      </c>
-      <c r="F1730" t="n">
-        <v>12.07607419354878</v>
-      </c>
-      <c r="G1730" t="n">
-        <v>-42.16250000000001</v>
-      </c>
-      <c r="H1730" t="n">
-        <v>13.51349838709703</v>
+        <v>15.32612900024726</v>
       </c>
       <c r="I1730" t="n">
-        <v>-29.36857142857142</v>
+        <v>-39.35714285714285</v>
       </c>
       <c r="J1730" t="n">
-        <v>13.97174605263159</v>
+        <v>13.90800319548873</v>
       </c>
     </row>
     <row r="1731">
       <c r="C1731" t="n">
-        <v>-25.96105573979222</v>
+        <v>-30.29543599528073</v>
       </c>
       <c r="D1731" t="n">
-        <v>15.32850564946169</v>
-      </c>
-      <c r="E1731" t="n">
-        <v>-48.56250000000001</v>
-      </c>
-      <c r="F1731" t="n">
-        <v>12.07592419354878</v>
-      </c>
-      <c r="G1731" t="n">
-        <v>-42.55000000000001</v>
-      </c>
-      <c r="H1731" t="n">
-        <v>13.51383588709703</v>
+        <v>15.31140266688441</v>
       </c>
       <c r="I1731" t="n">
-        <v>-29.80285714285714</v>
+        <v>-39.79142857142857</v>
       </c>
       <c r="J1731" t="n">
-        <v>13.97240319548873</v>
+        <v>13.90734605263159</v>
       </c>
     </row>
     <row r="1732">
       <c r="C1732" t="n">
-        <v>-26.11950772895685</v>
+        <v>-30.46162093956351</v>
       </c>
       <c r="D1732" t="n">
-        <v>15.31932448358341</v>
-      </c>
-      <c r="E1732" t="n">
-        <v>-48.95000000000002</v>
-      </c>
-      <c r="F1732" t="n">
-        <v>12.07577419354879</v>
-      </c>
-      <c r="G1732" t="n">
-        <v>-42.93750000000001</v>
-      </c>
-      <c r="H1732" t="n">
-        <v>13.51417338709703</v>
+        <v>15.29615520472654</v>
       </c>
       <c r="I1732" t="n">
-        <v>-30.23714285714285</v>
+        <v>-40.22571428571428</v>
       </c>
       <c r="J1732" t="n">
-        <v>13.97306033834588</v>
+        <v>13.90668890977445</v>
       </c>
     </row>
     <row r="1733">
       <c r="C1733" t="n">
-        <v>-26.27660384469742</v>
+        <v>-30.61873984740754</v>
       </c>
       <c r="D1733" t="n">
-        <v>15.30993174175491</v>
-      </c>
-      <c r="E1733" t="n">
-        <v>-49.33750000000001</v>
-      </c>
-      <c r="F1733" t="n">
-        <v>12.07562419354878</v>
-      </c>
-      <c r="G1733" t="n">
-        <v>-43.32500000000001</v>
-      </c>
-      <c r="H1733" t="n">
-        <v>13.51451088709703</v>
+        <v>15.28042015464529</v>
       </c>
       <c r="I1733" t="n">
-        <v>-30.67142857142857</v>
+        <v>-40.66</v>
       </c>
       <c r="J1733" t="n">
-        <v>13.97371748120302</v>
+        <v>13.90603176691731</v>
       </c>
     </row>
     <row r="1734">
       <c r="C1734" t="n">
-        <v>-26.43245481979779</v>
+        <v>-30.76741636585172</v>
       </c>
       <c r="D1734" t="n">
-        <v>15.30033576215481</v>
-      </c>
-      <c r="G1734" t="n">
-        <v>-43.71250000000001</v>
-      </c>
-      <c r="H1734" t="n">
-        <v>13.51484838709703</v>
+        <v>15.26423105751232</v>
       </c>
       <c r="I1734" t="n">
-        <v>-31.10571428571428</v>
+        <v>-41.0942857142857</v>
       </c>
       <c r="J1734" t="n">
-        <v>13.97437462406016</v>
+        <v>13.90537462406016</v>
       </c>
     </row>
     <row r="1735">
       <c r="C1735" t="n">
-        <v>-26.58717138704188</v>
+        <v>-30.90827414193487</v>
       </c>
       <c r="D1735" t="n">
-        <v>15.29054488296172</v>
-      </c>
-      <c r="G1735" t="n">
-        <v>-44.10000000000001</v>
-      </c>
-      <c r="H1735" t="n">
-        <v>13.51518588709703</v>
+        <v>15.24762145419926</v>
       </c>
       <c r="I1735" t="n">
-        <v>-31.54</v>
+        <v>-41.52857142857142</v>
       </c>
       <c r="J1735" t="n">
-        <v>13.9750317669173</v>
+        <v>13.90471748120302</v>
       </c>
     </row>
     <row r="1736">
       <c r="C1736" t="n">
-        <v>-26.74086427921356</v>
+        <v>-31.04193682269591</v>
       </c>
       <c r="D1736" t="n">
-        <v>15.28056744235429</v>
-      </c>
-      <c r="G1736" t="n">
-        <v>-44.48750000000001</v>
-      </c>
-      <c r="H1736" t="n">
-        <v>13.51552338709703</v>
+        <v>15.23062488557781</v>
       </c>
       <c r="I1736" t="n">
-        <v>-31.97428571428571</v>
+        <v>-41.96285714285713</v>
       </c>
       <c r="J1736" t="n">
-        <v>13.97568890977445</v>
+        <v>13.90406033834588</v>
       </c>
     </row>
     <row r="1737">
       <c r="C1737" t="n">
-        <v>-26.89364422909674</v>
+        <v>-31.16902805517366</v>
       </c>
       <c r="D1737" t="n">
-        <v>15.27041177851115</v>
-      </c>
-      <c r="G1737" t="n">
-        <v>-44.87500000000001</v>
-      </c>
-      <c r="H1737" t="n">
-        <v>13.51586088709703</v>
+        <v>15.21327489251958</v>
       </c>
       <c r="I1737" t="n">
-        <v>-32.40857142857142</v>
+        <v>-42.39714285714285</v>
       </c>
       <c r="J1737" t="n">
-        <v>13.97634605263159</v>
+        <v>13.90340319548873</v>
       </c>
     </row>
     <row r="1738">
       <c r="C1738" t="n">
-        <v>-27.04562196947528</v>
+        <v>-31.29017148640703</v>
       </c>
       <c r="D1738" t="n">
-        <v>15.2600862296109</v>
-      </c>
-      <c r="G1738" t="n">
-        <v>-45.26250000000001</v>
-      </c>
-      <c r="H1738" t="n">
-        <v>13.51619838709703</v>
+        <v>15.19560501589625</v>
       </c>
       <c r="I1738" t="n">
-        <v>-32.84285714285714</v>
+        <v>-42.83142857142856</v>
       </c>
       <c r="J1738" t="n">
-        <v>13.97700319548873</v>
+        <v>13.90274605263159</v>
       </c>
     </row>
     <row r="1739">
       <c r="C1739" t="n">
-        <v>-27.1969082331331</v>
+        <v>-31.40599076343485</v>
       </c>
       <c r="D1739" t="n">
-        <v>15.24959913383218</v>
-      </c>
-      <c r="G1739" t="n">
-        <v>-45.65000000000001</v>
-      </c>
-      <c r="H1739" t="n">
-        <v>13.51653588709702</v>
+        <v>15.17764879657946</v>
       </c>
       <c r="I1739" t="n">
-        <v>-33.27714285714285</v>
+        <v>-43.26571428571428</v>
       </c>
       <c r="J1739" t="n">
-        <v>13.97766033834588</v>
+        <v>13.90208890977445</v>
       </c>
     </row>
     <row r="1740">
       <c r="C1740" t="n">
-        <v>-27.34761375285407</v>
+        <v>-31.51710953329603</v>
       </c>
       <c r="D1740" t="n">
-        <v>15.23895882935363</v>
-      </c>
-      <c r="G1740" t="n">
-        <v>-46.03750000000001</v>
-      </c>
-      <c r="H1740" t="n">
-        <v>13.51687338709703</v>
+        <v>15.15943977544087</v>
       </c>
       <c r="I1740" t="n">
-        <v>-33.71142857142857</v>
+        <v>-43.69999999999999</v>
       </c>
       <c r="J1740" t="n">
-        <v>13.97831748120302</v>
+        <v>13.90143176691731</v>
       </c>
     </row>
     <row r="1741">
       <c r="C1741" t="n">
-        <v>-27.49784926142209</v>
+        <v>-31.62415144302939</v>
       </c>
       <c r="D1741" t="n">
-        <v>15.22817365435387</v>
-      </c>
-      <c r="G1741" t="n">
-        <v>-46.42500000000001</v>
-      </c>
-      <c r="H1741" t="n">
-        <v>13.51721088709703</v>
+        <v>15.14101149335214</v>
       </c>
       <c r="I1741" t="n">
-        <v>-34.14571428571428</v>
+        <v>-44.13428571428571</v>
       </c>
       <c r="J1741" t="n">
-        <v>13.97897462406016</v>
+        <v>13.90077462406016</v>
       </c>
     </row>
     <row r="1742">
       <c r="C1742" t="n">
-        <v>-27.64772549162105</v>
+        <v>-31.72774013967383</v>
       </c>
       <c r="D1742" t="n">
-        <v>15.21725194701151</v>
-      </c>
-      <c r="G1742" t="n">
-        <v>-46.81250000000001</v>
-      </c>
-      <c r="H1742" t="n">
-        <v>13.51754838709702</v>
+        <v>15.12239749118492</v>
       </c>
       <c r="I1742" t="n">
-        <v>-34.58</v>
+        <v>-44.56857142857142</v>
       </c>
       <c r="J1742" t="n">
-        <v>13.9796317669173</v>
+        <v>13.90011748120302</v>
       </c>
     </row>
     <row r="1743">
       <c r="C1743" t="n">
-        <v>-27.79735317623484</v>
+        <v>-31.82849927026821</v>
       </c>
       <c r="D1743" t="n">
-        <v>15.2062020455052</v>
-      </c>
-      <c r="G1743" t="n">
-        <v>-47.20000000000001</v>
-      </c>
-      <c r="H1743" t="n">
-        <v>13.51788588709702</v>
+        <v>15.10363130981085</v>
       </c>
       <c r="I1743" t="n">
-        <v>-35.01428571428571</v>
+        <v>-45.00285714285714</v>
       </c>
       <c r="J1743" t="n">
-        <v>13.98028890977445</v>
+        <v>13.89946033834588</v>
       </c>
     </row>
     <row r="1744">
       <c r="C1744" t="n">
-        <v>-27.94684304804733</v>
+        <v>-31.92705248185141</v>
       </c>
       <c r="D1744" t="n">
-        <v>15.19503228801355</v>
-      </c>
-      <c r="G1744" t="n">
-        <v>-47.58750000000001</v>
-      </c>
-      <c r="H1744" t="n">
-        <v>13.51822338709703</v>
+        <v>15.08474649010161</v>
       </c>
       <c r="I1744" t="n">
-        <v>-35.44857142857143</v>
+        <v>-45.43714285714285</v>
       </c>
       <c r="J1744" t="n">
-        <v>13.98094605263159</v>
+        <v>13.89880319548873</v>
       </c>
     </row>
     <row r="1745">
       <c r="C1745" t="n">
-        <v>-28.09630583984244</v>
+        <v>-32.02402342146225</v>
       </c>
       <c r="D1745" t="n">
-        <v>15.18375101271519</v>
-      </c>
-      <c r="G1745" t="n">
-        <v>-47.97500000000001</v>
-      </c>
-      <c r="H1745" t="n">
-        <v>13.51856088709702</v>
+        <v>15.06577657292883</v>
       </c>
       <c r="I1745" t="n">
-        <v>-35.88285714285713</v>
+        <v>-45.87142857142857</v>
       </c>
       <c r="J1745" t="n">
-        <v>13.98160319548873</v>
+        <v>13.89814605263159</v>
       </c>
     </row>
     <row r="1746">
       <c r="C1746" t="n">
-        <v>-28.24585228440404</v>
+        <v>-32.12003573613967</v>
       </c>
       <c r="D1746" t="n">
-        <v>15.17236655778876</v>
-      </c>
-      <c r="G1746" t="n">
-        <v>-48.36250000000001</v>
-      </c>
-      <c r="H1746" t="n">
-        <v>13.51889838709702</v>
+        <v>15.04675509916418</v>
       </c>
       <c r="I1746" t="n">
-        <v>-36.31714285714285</v>
+        <v>-46.30571428571427</v>
       </c>
       <c r="J1746" t="n">
-        <v>13.98226033834588</v>
+        <v>13.89748890977445</v>
       </c>
     </row>
     <row r="1747">
       <c r="C1747" t="n">
-        <v>-28.39559311451603</v>
+        <v>-32.21571307292248</v>
       </c>
       <c r="D1747" t="n">
-        <v>15.16088726141287</v>
-      </c>
-      <c r="G1747" t="n">
-        <v>-48.75000000000001</v>
-      </c>
-      <c r="H1747" t="n">
-        <v>13.51923588709703</v>
+        <v>15.0277156096793</v>
       </c>
       <c r="I1747" t="n">
-        <v>-36.75142857142856</v>
+        <v>-46.73999999999999</v>
       </c>
       <c r="J1747" t="n">
-        <v>13.98291748120302</v>
+        <v>13.89683176691731</v>
       </c>
     </row>
     <row r="1748">
       <c r="C1748" t="n">
-        <v>-28.5456390629623</v>
+        <v>-32.31167907884957</v>
       </c>
       <c r="D1748" t="n">
-        <v>15.14932146176617</v>
-      </c>
-      <c r="G1748" t="n">
-        <v>-49.13750000000001</v>
-      </c>
-      <c r="H1748" t="n">
-        <v>13.51957338709702</v>
+        <v>15.00869164534586</v>
       </c>
       <c r="I1748" t="n">
-        <v>-37.18571428571428</v>
+        <v>-47.1742857142857</v>
       </c>
       <c r="J1748" t="n">
-        <v>13.98357462406016</v>
+        <v>13.89617462406016</v>
       </c>
     </row>
     <row r="1749">
       <c r="C1749" t="n">
-        <v>-28.69610086252672</v>
+        <v>-32.40855740095981</v>
       </c>
       <c r="D1749" t="n">
-        <v>15.13767749702725</v>
-      </c>
-      <c r="G1749" t="n">
-        <v>-49.52500000000001</v>
-      </c>
-      <c r="H1749" t="n">
-        <v>13.51991088709702</v>
+        <v>14.98971674703551</v>
       </c>
       <c r="I1749" t="n">
-        <v>-37.61999999999999</v>
+        <v>-47.60857142857142</v>
       </c>
       <c r="J1749" t="n">
-        <v>13.9842317669173</v>
+        <v>13.89551748120302</v>
       </c>
     </row>
     <row r="1750">
       <c r="C1750" t="n">
-        <v>-28.84708924599321</v>
+        <v>-32.50697168629206</v>
       </c>
       <c r="D1750" t="n">
-        <v>15.12596370537477</v>
+        <v>14.97082445561989</v>
       </c>
       <c r="I1750" t="n">
-        <v>-38.05428571428571</v>
+        <v>-48.04285714285713</v>
       </c>
       <c r="J1750" t="n">
-        <v>13.98488890977445</v>
+        <v>13.89486033834588</v>
       </c>
     </row>
     <row r="1751">
       <c r="C1751" t="n">
-        <v>-28.99871494614564</v>
+        <v>-32.60754558188519</v>
       </c>
       <c r="D1751" t="n">
-        <v>15.11418842498734</v>
+        <v>14.95204831197067</v>
       </c>
       <c r="I1751" t="n">
-        <v>-38.48857142857142</v>
+        <v>-48.47714285714285</v>
       </c>
       <c r="J1751" t="n">
-        <v>13.98554605263159</v>
+        <v>13.89420319548873</v>
       </c>
     </row>
     <row r="1752">
       <c r="C1752" t="n">
-        <v>-29.15108869576791</v>
+        <v>-32.71090273477807</v>
       </c>
       <c r="D1752" t="n">
-        <v>15.1023599940436</v>
+        <v>14.9334218569595</v>
       </c>
       <c r="I1752" t="n">
-        <v>-38.92285714285714</v>
+        <v>-48.91142857142856</v>
       </c>
       <c r="J1752" t="n">
-        <v>13.98620319548873</v>
+        <v>13.89354605263159</v>
       </c>
     </row>
     <row r="1753">
       <c r="C1753" t="n">
-        <v>-29.3043212276439</v>
+        <v>-32.81766679200958</v>
       </c>
       <c r="D1753" t="n">
-        <v>15.09048675072217</v>
+        <v>14.91497863145803</v>
       </c>
       <c r="I1753" t="n">
-        <v>-39.35714285714285</v>
+        <v>-49.34571428571428</v>
       </c>
       <c r="J1753" t="n">
-        <v>13.98686033834588</v>
+        <v>13.89288890977445</v>
       </c>
     </row>
     <row r="1754">
       <c r="C1754" t="n">
-        <v>-29.45852327455751</v>
+        <v>-32.92846140061856</v>
       </c>
       <c r="D1754" t="n">
-        <v>15.07857703320167</v>
+        <v>14.89675217633792</v>
       </c>
       <c r="I1754" t="n">
-        <v>-39.79142857142857</v>
+        <v>-49.77999999999999</v>
       </c>
       <c r="J1754" t="n">
-        <v>13.98751748120302</v>
+        <v>13.89223176691731</v>
       </c>
     </row>
     <row r="1755">
       <c r="C1755" t="n">
-        <v>-29.61380556929262</v>
+        <v>-33.0439102076439</v>
       </c>
       <c r="D1755" t="n">
-        <v>15.06663917966073</v>
-      </c>
-      <c r="I1755" t="n">
-        <v>-40.22571428571428</v>
-      </c>
-      <c r="J1755" t="n">
-        <v>13.98817462406016</v>
+        <v>14.87877603247081</v>
       </c>
     </row>
     <row r="1756">
       <c r="C1756" t="n">
-        <v>-29.77027884463313</v>
+        <v>-33.16463686012445</v>
       </c>
       <c r="D1756" t="n">
-        <v>15.05468152827799</v>
-      </c>
-      <c r="I1756" t="n">
-        <v>-40.66</v>
-      </c>
-      <c r="J1756" t="n">
-        <v>13.9888317669173</v>
+        <v>14.86108374072838</v>
       </c>
     </row>
     <row r="1757">
       <c r="C1757" t="n">
-        <v>-29.92805383336293</v>
+        <v>-33.29126500509909</v>
       </c>
       <c r="D1757" t="n">
-        <v>15.04271241723206</v>
-      </c>
-      <c r="I1757" t="n">
-        <v>-41.0942857142857</v>
-      </c>
-      <c r="J1757" t="n">
-        <v>13.98948890977445</v>
+        <v>14.84370884198226</v>
       </c>
     </row>
     <row r="1758">
       <c r="C1758" t="n">
-        <v>-30.0872412682659</v>
+        <v>-33.4244182896067</v>
       </c>
       <c r="D1758" t="n">
-        <v>15.03074018470157</v>
-      </c>
-      <c r="I1758" t="n">
-        <v>-41.52857142857142</v>
-      </c>
-      <c r="J1758" t="n">
-        <v>13.99014605263159</v>
+        <v>14.82668487710411</v>
       </c>
     </row>
     <row r="1759">
       <c r="C1759" t="n">
-        <v>-30.24795188212592</v>
+        <v>-33.56472036068612</v>
       </c>
       <c r="D1759" t="n">
-        <v>15.01877316886516</v>
-      </c>
-      <c r="I1759" t="n">
-        <v>-41.96285714285713</v>
-      </c>
-      <c r="J1759" t="n">
-        <v>13.99080319548873</v>
+        <v>14.81004538696559</v>
       </c>
     </row>
     <row r="1760">
       <c r="C1760" t="n">
-        <v>-30.41029640772692</v>
+        <v>-33.71279486537625</v>
       </c>
       <c r="D1760" t="n">
-        <v>15.00681970790144</v>
-      </c>
-      <c r="I1760" t="n">
-        <v>-42.39714285714285</v>
-      </c>
-      <c r="J1760" t="n">
-        <v>13.99146033834588</v>
+        <v>14.79382391243835</v>
       </c>
     </row>
     <row r="1761">
       <c r="C1761" t="n">
-        <v>-30.57438557785274</v>
+        <v>-33.86926545071591</v>
       </c>
       <c r="D1761" t="n">
-        <v>14.99488813998905</v>
-      </c>
-      <c r="I1761" t="n">
-        <v>-42.83142857142856</v>
-      </c>
-      <c r="J1761" t="n">
-        <v>13.99211748120302</v>
+        <v>14.77805399439405</v>
       </c>
     </row>
     <row r="1762">
       <c r="C1762" t="n">
-        <v>-30.74033012528732</v>
+        <v>-34.03475576374402</v>
       </c>
       <c r="D1762" t="n">
-        <v>14.98298680330661</v>
-      </c>
-      <c r="I1762" t="n">
-        <v>-43.26571428571428</v>
-      </c>
-      <c r="J1762" t="n">
-        <v>13.99277462406016</v>
+        <v>14.76276917370433</v>
       </c>
     </row>
     <row r="1763">
       <c r="C1763" t="n">
-        <v>-30.90824078281451</v>
+        <v>-34.20988945149942</v>
       </c>
       <c r="D1763" t="n">
-        <v>14.97112403603274</v>
-      </c>
-      <c r="I1763" t="n">
-        <v>-43.69999999999999</v>
-      </c>
-      <c r="J1763" t="n">
-        <v>13.9934317669173</v>
+        <v>14.74800299124086</v>
       </c>
     </row>
     <row r="1764">
       <c r="C1764" t="n">
-        <v>-31.07822828321821</v>
+        <v>-34.39529016102098</v>
       </c>
       <c r="D1764" t="n">
-        <v>14.95930817634608</v>
-      </c>
-      <c r="I1764" t="n">
-        <v>-44.13428571428571</v>
-      </c>
-      <c r="J1764" t="n">
-        <v>13.99408890977445</v>
+        <v>14.73378898787528</v>
       </c>
     </row>
     <row r="1765">
       <c r="C1765" t="n">
-        <v>-31.25040335928232</v>
+        <v>-34.59158153934757</v>
       </c>
       <c r="D1765" t="n">
-        <v>14.94754756242526</v>
-      </c>
-      <c r="I1765" t="n">
-        <v>-44.56857142857142</v>
-      </c>
-      <c r="J1765" t="n">
-        <v>13.99474605263159</v>
+        <v>14.72016070447926</v>
       </c>
     </row>
     <row r="1766">
       <c r="C1766" t="n">
-        <v>-31.42487674379072</v>
+        <v>-34.79938723351806</v>
       </c>
       <c r="D1766" t="n">
-        <v>14.93585053244889</v>
-      </c>
-      <c r="I1766" t="n">
-        <v>-45.00285714285714</v>
-      </c>
-      <c r="J1766" t="n">
-        <v>13.99540319548873</v>
+        <v>14.70715168192443</v>
       </c>
     </row>
     <row r="1767">
       <c r="C1767" t="n">
-        <v>-31.60175916952731</v>
+        <v>-35.01933089057131</v>
       </c>
       <c r="D1767" t="n">
-        <v>14.92422542459561</v>
-      </c>
-      <c r="I1767" t="n">
-        <v>-45.43714285714285</v>
-      </c>
-      <c r="J1767" t="n">
-        <v>13.99606033834588</v>
+        <v>14.69479546108247</v>
       </c>
     </row>
     <row r="1768">
       <c r="C1768" t="n">
-        <v>-31.78116136927597</v>
+        <v>-35.25203615754621</v>
       </c>
       <c r="D1768" t="n">
-        <v>14.91268057704404</v>
-      </c>
-      <c r="I1768" t="n">
-        <v>-45.87142857142857</v>
-      </c>
-      <c r="J1768" t="n">
-        <v>13.99671748120302</v>
+        <v>14.68312558282503</v>
       </c>
     </row>
     <row r="1769">
       <c r="C1769" t="n">
-        <v>-31.9631940758206</v>
+        <v>-35.4981266814816</v>
       </c>
       <c r="D1769" t="n">
-        <v>14.90122432797281</v>
-      </c>
-      <c r="I1769" t="n">
-        <v>-46.30571428571427</v>
-      </c>
-      <c r="J1769" t="n">
-        <v>13.99737462406016</v>
+        <v>14.67217558802374</v>
       </c>
     </row>
     <row r="1770">
       <c r="C1770" t="n">
-        <v>-32.14796802194508</v>
+        <v>-35.75822610941636</v>
       </c>
       <c r="D1770" t="n">
-        <v>14.88986501556055</v>
-      </c>
-      <c r="I1770" t="n">
-        <v>-46.73999999999999</v>
-      </c>
-      <c r="J1770" t="n">
-        <v>13.9980317669173</v>
+        <v>14.66197901755029</v>
       </c>
     </row>
     <row r="1771">
       <c r="C1771" t="n">
-        <v>-32.3355939404333</v>
+        <v>-36.03295808838936</v>
       </c>
       <c r="D1771" t="n">
-        <v>14.87861097798588</v>
-      </c>
-      <c r="I1771" t="n">
-        <v>-47.1742857142857</v>
-      </c>
-      <c r="J1771" t="n">
-        <v>13.99868890977445</v>
+        <v>14.6525694122763</v>
       </c>
     </row>
     <row r="1772">
       <c r="C1772" t="n">
-        <v>-32.52618256406915</v>
+        <v>-36.32294626543946</v>
       </c>
       <c r="D1772" t="n">
-        <v>14.86747055342743</v>
-      </c>
-      <c r="I1772" t="n">
-        <v>-47.60857142857142</v>
-      </c>
-      <c r="J1772" t="n">
-        <v>13.99934605263159</v>
+        <v>14.64398031307345</v>
       </c>
     </row>
     <row r="1773">
       <c r="C1773" t="n">
-        <v>-32.71984462563653</v>
+        <v>-36.62881428760553</v>
       </c>
       <c r="D1773" t="n">
-        <v>14.85645208006382</v>
-      </c>
-      <c r="I1773" t="n">
-        <v>-48.04285714285713</v>
-      </c>
-      <c r="J1773" t="n">
-        <v>14.00000319548873</v>
+        <v>14.63624526081337</v>
       </c>
     </row>
     <row r="1774">
       <c r="C1774" t="n">
-        <v>-32.91669085791931</v>
+        <v>-36.95118580192645</v>
       </c>
       <c r="D1774" t="n">
-        <v>14.8455638960737</v>
-      </c>
-      <c r="I1774" t="n">
-        <v>-48.47714285714285</v>
-      </c>
-      <c r="J1774" t="n">
-        <v>14.00066033834588</v>
+        <v>14.62939779636774</v>
       </c>
     </row>
     <row r="1775">
       <c r="C1775" t="n">
-        <v>-33.11683199370141</v>
+        <v>-37.29068445544108</v>
       </c>
       <c r="D1775" t="n">
-        <v>14.83481433963567</v>
-      </c>
-      <c r="I1775" t="n">
-        <v>-48.91142857142856</v>
-      </c>
-      <c r="J1775" t="n">
-        <v>14.00131748120302</v>
+        <v>14.6234714606082</v>
       </c>
     </row>
     <row r="1776">
       <c r="C1776" t="n">
-        <v>-33.32037876576669</v>
+        <v>-37.64793389518827</v>
       </c>
       <c r="D1776" t="n">
-        <v>14.82421174892838</v>
-      </c>
-      <c r="I1776" t="n">
-        <v>-49.34571428571428</v>
-      </c>
-      <c r="J1776" t="n">
-        <v>14.00197462406016</v>
+        <v>14.61849979440639</v>
       </c>
     </row>
     <row r="1777">
       <c r="C1777" t="n">
-        <v>-33.52744190689906</v>
+        <v>-38.02355776820692</v>
       </c>
       <c r="D1777" t="n">
-        <v>14.81376446213043</v>
+        <v>14.614516338634</v>
       </c>
     </row>
     <row r="1778">
       <c r="C1778" t="n">
-        <v>-33.7381321498824</v>
+        <v>-38.41817972153589</v>
       </c>
       <c r="D1778" t="n">
-        <v>14.80348081742047</v>
+        <v>14.61155463416265</v>
       </c>
     </row>
     <row r="1779">
       <c r="C1779" t="n">
-        <v>-33.9525602275006</v>
+        <v>-38.83242340221401</v>
       </c>
       <c r="D1779" t="n">
-        <v>14.79336915297712</v>
+        <v>14.60964822186401</v>
       </c>
     </row>
     <row r="1780">
       <c r="C1780" t="n">
-        <v>-34.17083687253755</v>
+        <v>-39.2669124572802</v>
       </c>
       <c r="D1780" t="n">
-        <v>14.783437806979</v>
+        <v>14.60883064260974</v>
       </c>
     </row>
     <row r="1781">
       <c r="C1781" t="n">
-        <v>-34.39307281777715</v>
+        <v>-39.72857142857143</v>
       </c>
       <c r="D1781" t="n">
-        <v>14.77369511760475</v>
+        <v>14.60898571428516</v>
       </c>
     </row>
     <row r="1782">
       <c r="C1782" t="n">
-        <v>-34.61937879600328</v>
+        <v>-40.15714285714285</v>
       </c>
       <c r="D1782" t="n">
-        <v>14.76414942303299</v>
+        <v>14.60915714285659</v>
       </c>
     </row>
     <row r="1783">
       <c r="C1783" t="n">
-        <v>-34.84986553999983</v>
+        <v>-40.58571428571428</v>
       </c>
       <c r="D1783" t="n">
-        <v>14.75480906144234</v>
+        <v>14.60932857142802</v>
       </c>
     </row>
     <row r="1784">
       <c r="C1784" t="n">
-        <v>-35.08464378255069</v>
+        <v>-41.01428571428571</v>
       </c>
       <c r="D1784" t="n">
-        <v>14.74568237101143</v>
+        <v>14.60949999999945</v>
       </c>
     </row>
     <row r="1785">
       <c r="C1785" t="n">
-        <v>-35.32382425643976</v>
+        <v>-41.44285714285714</v>
       </c>
       <c r="D1785" t="n">
-        <v>14.7367776899189</v>
+        <v>14.60967142857088</v>
       </c>
     </row>
     <row r="1786">
       <c r="C1786" t="n">
-        <v>-35.56751769445091</v>
+        <v>-41.87142857142857</v>
       </c>
       <c r="D1786" t="n">
-        <v>14.72810335634336</v>
+        <v>14.60984285714231</v>
       </c>
     </row>
     <row r="1787">
       <c r="C1787" t="n">
-        <v>-35.81583482936804</v>
+        <v>-42.3</v>
       </c>
       <c r="D1787" t="n">
-        <v>14.71966770846345</v>
+        <v>14.61001428571373</v>
       </c>
     </row>
     <row r="1788">
       <c r="C1788" t="n">
-        <v>-36.06888639397505</v>
+        <v>-42.72857142857143</v>
       </c>
       <c r="D1788" t="n">
-        <v>14.71147908445779</v>
+        <v>14.61018571428516</v>
       </c>
     </row>
     <row r="1789">
       <c r="C1789" t="n">
-        <v>-36.32678312105583</v>
+        <v>-43.15714285714285</v>
       </c>
       <c r="D1789" t="n">
-        <v>14.703545822505</v>
+        <v>14.61035714285659</v>
       </c>
     </row>
     <row r="1790">
       <c r="C1790" t="n">
-        <v>-36.58963574339424</v>
+        <v>-43.58571428571428</v>
       </c>
       <c r="D1790" t="n">
-        <v>14.69587626078372</v>
+        <v>14.61052857142802</v>
       </c>
     </row>
     <row r="1791">
       <c r="C1791" t="n">
-        <v>-36.85755499377419</v>
+        <v>-44.01428571428571</v>
       </c>
       <c r="D1791" t="n">
-        <v>14.68847873747258</v>
+        <v>14.61069999999945</v>
       </c>
     </row>
     <row r="1792">
       <c r="C1792" t="n">
-        <v>-37.13065160497958</v>
+        <v>-44.44285714285714</v>
       </c>
       <c r="D1792" t="n">
-        <v>14.68136159075019</v>
+        <v>14.61087142857088</v>
       </c>
     </row>
     <row r="1793">
       <c r="C1793" t="n">
-        <v>-37.4090363097943</v>
+        <v>-44.87142857142857</v>
       </c>
       <c r="D1793" t="n">
-        <v>14.67453315879519</v>
+        <v>14.61104285714231</v>
       </c>
     </row>
     <row r="1794">
       <c r="C1794" t="n">
-        <v>-37.69281984100223</v>
+        <v>-45.3</v>
       </c>
       <c r="D1794" t="n">
-        <v>14.6680017797862</v>
+        <v>14.61121428571374</v>
       </c>
     </row>
     <row r="1795">
       <c r="C1795" t="n">
-        <v>-37.98211293138724</v>
+        <v>-45.72857142857143</v>
       </c>
       <c r="D1795" t="n">
-        <v>14.66177579190184</v>
+        <v>14.61138571428516</v>
       </c>
     </row>
     <row r="1796">
       <c r="C1796" t="n">
-        <v>-38.27702631373325</v>
+        <v>-46.15714285714285</v>
       </c>
       <c r="D1796" t="n">
-        <v>14.65586353332076</v>
+        <v>14.61155714285659</v>
       </c>
     </row>
     <row r="1797">
       <c r="C1797" t="n">
-        <v>-38.57767072082415</v>
+        <v>-46.58571428571428</v>
       </c>
       <c r="D1797" t="n">
-        <v>14.65027334222157</v>
+        <v>14.61172857142802</v>
       </c>
     </row>
     <row r="1798">
       <c r="C1798" t="n">
-        <v>-38.88415688544381</v>
+        <v>-47.01428571428571</v>
       </c>
       <c r="D1798" t="n">
-        <v>14.6450135567829</v>
+        <v>14.61189999999945</v>
       </c>
     </row>
     <row r="1799">
       <c r="C1799" t="n">
-        <v>-39.19659554037614</v>
+        <v>-47.44285714285714</v>
       </c>
       <c r="D1799" t="n">
-        <v>14.64009251518337</v>
+        <v>14.61207142857088</v>
       </c>
     </row>
     <row r="1800">
       <c r="C1800" t="n">
-        <v>-39.51509741840501</v>
+        <v>-47.87142857142857</v>
       </c>
       <c r="D1800" t="n">
-        <v>14.63551855560162</v>
+        <v>14.61224285714231</v>
       </c>
     </row>
     <row r="1801">
       <c r="C1801" t="n">
-        <v>-39.83977325231432</v>
+        <v>-48.3</v>
       </c>
       <c r="D1801" t="n">
-        <v>14.63130001621627</v>
+        <v>14.61241428571374</v>
       </c>
     </row>
     <row r="1802">
       <c r="C1802" t="n">
-        <v>-40.17073377488795</v>
+        <v>-48.72857142857143</v>
       </c>
       <c r="D1802" t="n">
-        <v>14.62744523520595</v>
+        <v>14.61258571428517</v>
       </c>
     </row>
     <row r="1803">
       <c r="C1803" t="n">
-        <v>-40.50808971890982</v>
+        <v>-49.15714285714285</v>
       </c>
       <c r="D1803" t="n">
-        <v>14.62396255074929</v>
+        <v>14.61275714285659</v>
       </c>
     </row>
     <row r="1804">
       <c r="C1804" t="n">
-        <v>-40.85195181716379</v>
+        <v>-49.58571428571428</v>
       </c>
       <c r="D1804" t="n">
-        <v>14.6208603010249</v>
-      </c>
-    </row>
-    <row r="1805">
-      <c r="C1805" t="n">
-        <v>-41.20243080243376</v>
-      </c>
-      <c r="D1805" t="n">
-        <v>14.61814682421142</v>
-      </c>
-    </row>
-    <row r="1806">
-      <c r="C1806" t="n">
-        <v>-41.5596374075036</v>
-      </c>
-      <c r="D1806" t="n">
-        <v>14.61583045848748</v>
-      </c>
-    </row>
-    <row r="1807">
-      <c r="C1807" t="n">
-        <v>-41.92368236515725</v>
-      </c>
-      <c r="D1807" t="n">
-        <v>14.6139195420317</v>
-      </c>
-    </row>
-    <row r="1808">
-      <c r="C1808" t="n">
-        <v>-42.29467640817855</v>
-      </c>
-      <c r="D1808" t="n">
-        <v>14.61242241302271</v>
-      </c>
-    </row>
-    <row r="1809">
-      <c r="C1809" t="n">
-        <v>-42.67273026935142</v>
-      </c>
-      <c r="D1809" t="n">
-        <v>14.61134740963914</v>
-      </c>
-    </row>
-    <row r="1810">
-      <c r="C1810" t="n">
-        <v>-43.05795468145973</v>
-      </c>
-      <c r="D1810" t="n">
-        <v>14.61070287005961</v>
-      </c>
-    </row>
-    <row r="1811">
-      <c r="C1811" t="n">
-        <v>-43.45046037728737</v>
-      </c>
-      <c r="D1811" t="n">
-        <v>14.61049713246275</v>
-      </c>
-    </row>
-    <row r="1812">
-      <c r="C1812" t="n">
-        <v>-43.58571428571428</v>
-      </c>
-      <c r="D1812" t="n">
-        <v>14.60709999999945</v>
-      </c>
-    </row>
-    <row r="1813">
-      <c r="C1813" t="n">
-        <v>-44.01428571428571</v>
-      </c>
-      <c r="D1813" t="n">
-        <v>14.60692857142802</v>
-      </c>
-    </row>
-    <row r="1814">
-      <c r="C1814" t="n">
-        <v>-44.44285714285714</v>
-      </c>
-      <c r="D1814" t="n">
-        <v>14.60675714285659</v>
-      </c>
-    </row>
-    <row r="1815">
-      <c r="C1815" t="n">
-        <v>-44.87142857142857</v>
-      </c>
-      <c r="D1815" t="n">
-        <v>14.60658571428516</v>
-      </c>
-    </row>
-    <row r="1816">
-      <c r="C1816" t="n">
-        <v>-45.3</v>
-      </c>
-      <c r="D1816" t="n">
-        <v>14.60641428571373</v>
-      </c>
-    </row>
-    <row r="1817">
-      <c r="C1817" t="n">
-        <v>-45.72857142857143</v>
-      </c>
-      <c r="D1817" t="n">
-        <v>14.6062428571423</v>
-      </c>
-    </row>
-    <row r="1818">
-      <c r="C1818" t="n">
-        <v>-46.15714285714285</v>
-      </c>
-      <c r="D1818" t="n">
-        <v>14.60607142857087</v>
-      </c>
-    </row>
-    <row r="1819">
-      <c r="C1819" t="n">
-        <v>-46.58571428571428</v>
-      </c>
-      <c r="D1819" t="n">
-        <v>14.60589999999945</v>
-      </c>
-    </row>
-    <row r="1820">
-      <c r="C1820" t="n">
-        <v>-47.01428571428571</v>
-      </c>
-      <c r="D1820" t="n">
-        <v>14.60572857142802</v>
-      </c>
-    </row>
-    <row r="1821">
-      <c r="C1821" t="n">
-        <v>-47.44285714285714</v>
-      </c>
-      <c r="D1821" t="n">
-        <v>14.60555714285659</v>
-      </c>
-    </row>
-    <row r="1822">
-      <c r="C1822" t="n">
-        <v>-47.87142857142857</v>
-      </c>
-      <c r="D1822" t="n">
-        <v>14.60538571428516</v>
-      </c>
-    </row>
-    <row r="1823">
-      <c r="C1823" t="n">
-        <v>-48.3</v>
-      </c>
-      <c r="D1823" t="n">
-        <v>14.60521428571373</v>
-      </c>
-    </row>
-    <row r="1824">
-      <c r="C1824" t="n">
-        <v>-48.72857142857143</v>
-      </c>
-      <c r="D1824" t="n">
-        <v>14.6050428571423</v>
-      </c>
-    </row>
-    <row r="1825">
-      <c r="C1825" t="n">
-        <v>-49.15714285714285</v>
-      </c>
-      <c r="D1825" t="n">
-        <v>14.60487142857087</v>
+        <v>14.61292857142802</v>
       </c>
     </row>
   </sheetData>

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -48875,10 +48875,10 @@
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>-2.004503108155337</v>
+        <v>-1.97609006727611</v>
       </c>
       <c r="B1519" t="n">
-        <v>15.07647228606796</v>
+        <v>15.07618163373318</v>
       </c>
       <c r="C1519" t="n">
         <v>44.54</v>
@@ -48907,10 +48907,10 @@
     </row>
     <row r="1520">
       <c r="A1520" t="n">
-        <v>-2.418524656625164</v>
+        <v>-2.350608306818738</v>
       </c>
       <c r="B1520" t="n">
-        <v>15.07532635386189</v>
+        <v>15.07415996457859</v>
       </c>
       <c r="C1520" t="n">
         <v>44.38</v>
@@ -48939,10 +48939,10 @@
     </row>
     <row r="1521">
       <c r="A1521" t="n">
-        <v>-2.812702546632474</v>
+        <v>-2.69355471862786</v>
       </c>
       <c r="B1521" t="n">
-        <v>15.07336000534445</v>
+        <v>15.07070642110762</v>
       </c>
       <c r="C1521" t="n">
         <v>44.21</v>
@@ -48971,10 +48971,10 @@
     </row>
     <row r="1522">
       <c r="A1522" t="n">
-        <v>-3.187674679400287</v>
+        <v>-3.004929302703478</v>
       </c>
       <c r="B1522" t="n">
-        <v>15.07059961390689</v>
+        <v>15.06582100332029</v>
       </c>
       <c r="C1522" t="n">
         <v>44.04</v>
@@ -49003,10 +49003,10 @@
     </row>
     <row r="1523">
       <c r="A1523" t="n">
-        <v>-3.544078956151619</v>
+        <v>-3.284732059045592</v>
       </c>
       <c r="B1523" t="n">
-        <v>15.06707155294046</v>
+        <v>15.0595037112166</v>
       </c>
       <c r="C1523" t="n">
         <v>43.88</v>
@@ -49035,10 +49035,10 @@
     </row>
     <row r="1524">
       <c r="A1524" t="n">
-        <v>-3.882553278109484</v>
+        <v>-3.532962987654202</v>
       </c>
       <c r="B1524" t="n">
-        <v>15.0628021958364</v>
+        <v>15.05175454479655</v>
       </c>
       <c r="C1524" t="n">
         <v>43.71</v>
@@ -49067,10 +49067,10 @@
     </row>
     <row r="1525">
       <c r="A1525" t="n">
-        <v>-4.203735546496905</v>
+        <v>-3.749622088529308</v>
       </c>
       <c r="B1525" t="n">
-        <v>15.05781791598597</v>
+        <v>15.04257350406013</v>
       </c>
       <c r="C1525" t="n">
         <v>43.54</v>
@@ -49099,10 +49099,10 @@
     </row>
     <row r="1526">
       <c r="A1526" t="n">
-        <v>-4.508263662536893</v>
+        <v>-3.934709361670908</v>
       </c>
       <c r="B1526" t="n">
-        <v>15.0521450867804</v>
+        <v>15.03196058900735</v>
       </c>
       <c r="C1526" t="n">
         <v>43.37</v>
@@ -49131,10 +49131,10 @@
     </row>
     <row r="1527">
       <c r="A1527" t="n">
-        <v>-4.796775527452468</v>
+        <v>-4.088224807079005</v>
       </c>
       <c r="B1527" t="n">
-        <v>15.04581008161095</v>
+        <v>15.01991579963821</v>
       </c>
       <c r="C1527" t="n">
         <v>43.21</v>
@@ -49163,10 +49163,10 @@
     </row>
     <row r="1528">
       <c r="A1528" t="n">
-        <v>-5.069909042466646</v>
+        <v>-4.210168424753597</v>
       </c>
       <c r="B1528" t="n">
-        <v>15.03883927386887</v>
+        <v>15.0064391359527</v>
       </c>
       <c r="C1528" t="n">
         <v>43.04</v>
@@ -49195,10 +49195,10 @@
     </row>
     <row r="1529">
       <c r="A1529" t="n">
-        <v>-5.328302108802442</v>
+        <v>-4.300540214694685</v>
       </c>
       <c r="B1529" t="n">
-        <v>15.03125903694539</v>
+        <v>14.99153059795084</v>
       </c>
       <c r="C1529" t="n">
         <v>42.88</v>
@@ -49227,10 +49227,10 @@
     </row>
     <row r="1530">
       <c r="A1530" t="n">
-        <v>-5.572592627682877</v>
+        <v>-4.359340176902268</v>
       </c>
       <c r="B1530" t="n">
-        <v>15.02309574423177</v>
+        <v>14.97519018563261</v>
       </c>
       <c r="C1530" t="n">
         <v>42.71</v>
@@ -49259,10 +49259,10 @@
     </row>
     <row r="1531">
       <c r="A1531" t="n">
-        <v>-5.803418500330967</v>
+        <v>-4.386568311376347</v>
       </c>
       <c r="B1531" t="n">
-        <v>15.01437576911925</v>
+        <v>14.95741789899801</v>
       </c>
       <c r="C1531" t="n">
         <v>42.54</v>
@@ -49291,10 +49291,10 @@
     </row>
     <row r="1532">
       <c r="A1532" t="n">
-        <v>-6.021417627969724</v>
+        <v>-4.388585049833866</v>
       </c>
       <c r="B1532" t="n">
-        <v>15.00512548499908</v>
+        <v>14.95175993355486</v>
       </c>
       <c r="C1532" t="n">
         <v>42.38</v>
@@ -49323,10 +49323,10 @@
     </row>
     <row r="1533">
       <c r="A1533" t="n">
-        <v>-6.227227911822171</v>
+        <v>-4.394102484137737</v>
       </c>
       <c r="B1533" t="n">
-        <v>14.99537126526252</v>
+        <v>14.94092196918422</v>
       </c>
       <c r="C1533" t="n">
         <v>42.21</v>
@@ -49355,10 +49355,10 @@
     </row>
     <row r="1534">
       <c r="A1534" t="n">
-        <v>-6.421487253111323</v>
+        <v>-4.408478514990249</v>
       </c>
       <c r="B1534" t="n">
-        <v>14.9851394833008</v>
+        <v>14.9298261737316</v>
       </c>
       <c r="C1534" t="n">
         <v>42.04</v>
@@ -49387,10 +49387,10 @@
     </row>
     <row r="1535">
       <c r="A1535" t="n">
-        <v>-6.604833553060195</v>
+        <v>-4.43165963269922</v>
       </c>
       <c r="B1535" t="n">
-        <v>14.97445651250517</v>
+        <v>14.9184907097212</v>
       </c>
       <c r="C1535" t="n">
         <v>41.88</v>
@@ -49419,10 +49419,10 @@
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>-6.777904712891807</v>
+        <v>-4.463592327572472</v>
       </c>
       <c r="B1536" t="n">
-        <v>14.96334872626688</v>
+        <v>14.90693373967723</v>
       </c>
       <c r="C1536" t="n">
         <v>41.71</v>
@@ -49451,10 +49451,10 @@
     </row>
     <row r="1537">
       <c r="A1537" t="n">
-        <v>-6.94133863382917</v>
+        <v>-4.504223089917822</v>
       </c>
       <c r="B1537" t="n">
-        <v>14.95184249797717</v>
+        <v>14.89517342612388</v>
       </c>
       <c r="C1537" t="n">
         <v>41.54</v>
@@ -49483,10 +49483,10 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>-7.09577321709531</v>
+        <v>-4.553498410043094</v>
       </c>
       <c r="B1538" t="n">
-        <v>14.93996420102729</v>
+        <v>14.88322793158534</v>
       </c>
       <c r="C1538" t="n">
         <v>41.38</v>
@@ -49515,10 +49515,10 @@
     </row>
     <row r="1539">
       <c r="A1539" t="n">
-        <v>-7.241846363913236</v>
+        <v>-4.611364778256102</v>
       </c>
       <c r="B1539" t="n">
-        <v>14.9277402088085</v>
+        <v>14.87111541858583</v>
       </c>
       <c r="C1539" t="n">
         <v>41.21</v>
@@ -49547,10 +49547,10 @@
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>-7.380195975505968</v>
+        <v>-4.677768684864674</v>
       </c>
       <c r="B1540" t="n">
-        <v>14.91519689471203</v>
+        <v>14.85885404964955</v>
       </c>
       <c r="C1540" t="n">
         <v>41.04</v>
@@ -49579,10 +49579,10 @@
     </row>
     <row r="1541">
       <c r="A1541" t="n">
-        <v>-7.511459953096525</v>
+        <v>-4.752656620176625</v>
       </c>
       <c r="B1541" t="n">
-        <v>14.90236063212914</v>
+        <v>14.84646198730069</v>
       </c>
       <c r="C1541" t="n">
         <v>40.88</v>
@@ -49611,10 +49611,10 @@
     </row>
     <row r="1542">
       <c r="A1542" t="n">
-        <v>-7.63627619790792</v>
+        <v>-4.835975074499774</v>
       </c>
       <c r="B1542" t="n">
-        <v>14.88925779445107</v>
+        <v>14.83395739406345</v>
       </c>
       <c r="C1542" t="n">
         <v>40.71</v>
@@ -49643,10 +49643,10 @@
     </row>
     <row r="1543">
       <c r="A1543" t="n">
-        <v>-7.755282611163173</v>
+        <v>-4.927670538141943</v>
       </c>
       <c r="B1543" t="n">
-        <v>14.87591475506906</v>
+        <v>14.82135843246204</v>
       </c>
       <c r="C1543" t="n">
         <v>40.54</v>
@@ -49675,10 +49675,10 @@
     </row>
     <row r="1544">
       <c r="A1544" t="n">
-        <v>-7.8691170940853</v>
+        <v>-5.027689501410952</v>
       </c>
       <c r="B1544" t="n">
-        <v>14.86235788737437</v>
+        <v>14.80868326502066</v>
       </c>
       <c r="C1544" t="n">
         <v>40.38</v>
@@ -49707,10 +49707,10 @@
     </row>
     <row r="1545">
       <c r="A1545" t="n">
-        <v>-7.978417547897314</v>
+        <v>-5.135978454614623</v>
       </c>
       <c r="B1545" t="n">
-        <v>14.84861356475824</v>
+        <v>14.7959500542635</v>
       </c>
       <c r="C1545" t="n">
         <v>40.21</v>
@@ -49739,10 +49739,10 @@
     </row>
     <row r="1546">
       <c r="A1546" t="n">
-        <v>-8.083821873822238</v>
+        <v>-5.252483888060771</v>
       </c>
       <c r="B1546" t="n">
-        <v>14.83470816061192</v>
+        <v>14.78317696271477</v>
       </c>
       <c r="C1546" t="n">
         <v>40.04</v>
@@ -49771,10 +49771,10 @@
     </row>
     <row r="1547">
       <c r="A1547" t="n">
-        <v>-8.185967973083084</v>
+        <v>-5.377152292057219</v>
       </c>
       <c r="B1547" t="n">
-        <v>14.82066804832665</v>
+        <v>14.77038215289866</v>
       </c>
       <c r="C1547" t="n">
         <v>39.88</v>
@@ -49803,10 +49803,10 @@
     </row>
     <row r="1548">
       <c r="A1548" t="n">
-        <v>-8.285493746902873</v>
+        <v>-5.509930156911788</v>
       </c>
       <c r="B1548" t="n">
-        <v>14.80651960129369</v>
+        <v>14.75758378733939</v>
       </c>
       <c r="C1548" t="n">
         <v>39.71</v>
@@ -49835,10 +49835,10 @@
     </row>
     <row r="1549">
       <c r="A1549" t="n">
-        <v>-8.383037096504621</v>
+        <v>-5.650763972932298</v>
       </c>
       <c r="B1549" t="n">
-        <v>14.79228919290428</v>
+        <v>14.74480002856114</v>
       </c>
       <c r="C1549" t="n">
         <v>39.54</v>
@@ -49867,10 +49867,10 @@
     </row>
     <row r="1550">
       <c r="A1550" t="n">
-        <v>-8.479235923111343</v>
+        <v>-5.799600230426565</v>
       </c>
       <c r="B1550" t="n">
-        <v>14.77800319654966</v>
+        <v>14.73204903908812</v>
       </c>
       <c r="C1550" t="n">
         <v>39.38</v>
@@ -49899,10 +49899,10 @@
     </row>
     <row r="1551">
       <c r="A1551" t="n">
-        <v>-8.574728127946056</v>
+        <v>-5.956385419702411</v>
       </c>
       <c r="B1551" t="n">
-        <v>14.76368798562109</v>
+        <v>14.71934898144453</v>
       </c>
       <c r="C1551" t="n">
         <v>39.21</v>
@@ -49931,10 +49931,10 @@
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>-8.670151612231777</v>
+        <v>-6.121066031067659</v>
       </c>
       <c r="B1552" t="n">
-        <v>14.7493699335098</v>
+        <v>14.70671801815457</v>
       </c>
       <c r="C1552" t="n">
         <v>39.04</v>
@@ -49963,10 +49963,10 @@
     </row>
     <row r="1553">
       <c r="A1553" t="n">
-        <v>-8.766144277191527</v>
+        <v>-6.293588554830126</v>
       </c>
       <c r="B1553" t="n">
-        <v>14.73507541360706</v>
+        <v>14.69417431174244</v>
       </c>
       <c r="C1553" t="n">
         <v>38.88</v>
@@ -49995,10 +49995,10 @@
     </row>
     <row r="1554">
       <c r="A1554" t="n">
-        <v>-8.863344024048317</v>
+        <v>-6.473899481297631</v>
       </c>
       <c r="B1554" t="n">
-        <v>14.7208307993041</v>
+        <v>14.68173602473234</v>
       </c>
       <c r="C1554" t="n">
         <v>38.71</v>
@@ -50027,10 +50027,10 @@
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>-8.962388754025167</v>
+        <v>-6.661945300777997</v>
       </c>
       <c r="B1555" t="n">
-        <v>14.70666246399217</v>
+        <v>14.66942131964847</v>
       </c>
       <c r="C1555" t="n">
         <v>38.55</v>
@@ -50059,10 +50059,10 @@
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>-9.063916368345094</v>
+        <v>-6.857672503579042</v>
       </c>
       <c r="B1556" t="n">
-        <v>14.69259678106252</v>
+        <v>14.65724835901504</v>
       </c>
       <c r="C1556" t="n">
         <v>38.38</v>
@@ -50091,10 +50091,10 @@
     </row>
     <row r="1557">
       <c r="A1557" t="n">
-        <v>-9.168564768231112</v>
+        <v>-7.06102758000859</v>
       </c>
       <c r="B1557" t="n">
-        <v>14.67866012390639</v>
+        <v>14.64523530535624</v>
       </c>
       <c r="C1557" t="n">
         <v>38.21</v>
@@ -50123,10 +50123,10 @@
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>-9.276971854906243</v>
+        <v>-7.271957020374453</v>
       </c>
       <c r="B1558" t="n">
-        <v>14.66487886591504</v>
+        <v>14.63340032119627</v>
       </c>
       <c r="C1558" t="n">
         <v>38.05</v>
@@ -50155,10 +50155,10 @@
     </row>
     <row r="1559">
       <c r="A1559" t="n">
-        <v>-9.389775529593498</v>
+        <v>-7.490407314984459</v>
       </c>
       <c r="B1559" t="n">
-        <v>14.6512793804797</v>
+        <v>14.62176156905933</v>
       </c>
       <c r="C1559" t="n">
         <v>37.88</v>
@@ -50187,10 +50187,10 @@
     </row>
     <row r="1560">
       <c r="A1560" t="n">
-        <v>-9.5076136935159</v>
+        <v>-7.716324954146422</v>
       </c>
       <c r="B1560" t="n">
-        <v>14.63788804099163</v>
+        <v>14.61033721146963</v>
       </c>
       <c r="C1560" t="n">
         <v>37.71</v>
@@ -50219,10 +50219,10 @@
     </row>
     <row r="1561">
       <c r="A1561" t="n">
-        <v>-9.63112424789646</v>
+        <v>-7.949656428168163</v>
       </c>
       <c r="B1561" t="n">
-        <v>14.62473122084208</v>
+        <v>14.59914541095137</v>
       </c>
       <c r="C1561" t="n">
         <v>37.55</v>
@@ -50251,10 +50251,10 @@
     </row>
     <row r="1562">
       <c r="A1562" t="n">
-        <v>-9.760945093958201</v>
+        <v>-8.190348227357507</v>
       </c>
       <c r="B1562" t="n">
-        <v>14.61183529342228</v>
+        <v>14.58820433002873</v>
       </c>
       <c r="C1562" t="n">
         <v>37.38</v>
@@ -50283,10 +50283,10 @@
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>-9.897714132924134</v>
+        <v>-8.438346842022272</v>
       </c>
       <c r="B1563" t="n">
-        <v>14.59922663212349</v>
+        <v>14.57753213122594</v>
       </c>
       <c r="C1563" t="n">
         <v>37.21</v>
@@ -50315,10 +50315,10 @@
     </row>
     <row r="1564">
       <c r="A1564" t="n">
-        <v>-10.04206926601728</v>
+        <v>-8.693598762470273</v>
       </c>
       <c r="B1564" t="n">
-        <v>14.58693161033696</v>
+        <v>14.56714697706718</v>
       </c>
       <c r="C1564" t="n">
         <v>37.05</v>
@@ -50347,10 +50347,10 @@
     </row>
     <row r="1565">
       <c r="A1565" t="n">
-        <v>-10.19464839446065</v>
+        <v>-8.956050479009333</v>
       </c>
       <c r="B1565" t="n">
-        <v>14.57497660145393</v>
+        <v>14.55706703007665</v>
       </c>
       <c r="C1565" t="n">
         <v>36.88</v>
@@ -50379,10 +50379,10 @@
     </row>
     <row r="1566">
       <c r="A1566" t="n">
-        <v>-10.35608941947727</v>
+        <v>-9.225648481947275</v>
       </c>
       <c r="B1566" t="n">
-        <v>14.56338797886564</v>
+        <v>14.54731045277856</v>
       </c>
       <c r="C1566" t="n">
         <v>36.71</v>
@@ -50411,10 +50411,10 @@
     </row>
     <row r="1567">
       <c r="A1567" t="n">
-        <v>-10.52703024229016</v>
+        <v>-9.502339261591917</v>
       </c>
       <c r="B1567" t="n">
-        <v>14.55219211596335</v>
+        <v>14.53789540769711</v>
       </c>
       <c r="C1567" t="n">
         <v>36.55</v>
@@ -50443,10 +50443,10 @@
     </row>
     <row r="1568">
       <c r="A1568" t="n">
-        <v>-10.70810876412231</v>
+        <v>-9.786069308251076</v>
       </c>
       <c r="B1568" t="n">
-        <v>14.54141538613831</v>
+        <v>14.5288400573565</v>
       </c>
       <c r="C1568" t="n">
         <v>36.38</v>
@@ -50455,10 +50455,10 @@
         <v>15.4883</v>
       </c>
       <c r="E1568" t="n">
-        <v>-8.759104769706424</v>
+        <v>-8.73440694904694</v>
       </c>
       <c r="F1568" t="n">
-        <v>12.52641275707864</v>
+        <v>12.52625980013514</v>
       </c>
       <c r="G1568" t="n">
         <v>-2.980000000000015</v>
@@ -50475,10 +50475,10 @@
     </row>
     <row r="1569">
       <c r="A1569" t="n">
-        <v>-10.89996288619677</v>
+        <v>-10.07678511223257</v>
       </c>
       <c r="B1569" t="n">
-        <v>14.53108416278175</v>
+        <v>14.52016256428093</v>
       </c>
       <c r="C1569" t="n">
         <v>36.21</v>
@@ -50487,10 +50487,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1569" t="n">
-        <v>-9.136631878696011</v>
+        <v>-9.078239614633254</v>
       </c>
       <c r="F1569" t="n">
-        <v>12.52557106262535</v>
+        <v>12.52493509273983</v>
       </c>
       <c r="G1569" t="n">
         <v>-3.367500000000014</v>
@@ -50507,10 +50507,10 @@
     </row>
     <row r="1570">
       <c r="A1570" t="n">
-        <v>-11.10323050973654</v>
+        <v>-10.37443316384423</v>
       </c>
       <c r="B1570" t="n">
-        <v>14.52122481928493</v>
+        <v>14.5118810909946</v>
       </c>
       <c r="C1570" t="n">
         <v>36.05</v>
@@ -50519,10 +50519,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1570" t="n">
-        <v>-9.498040154433964</v>
+        <v>-9.39649799675896</v>
       </c>
       <c r="F1570" t="n">
-        <v>12.52428749470217</v>
+        <v>12.52282587781408</v>
       </c>
       <c r="G1570" t="n">
         <v>-3.755000000000013</v>
@@ -50539,10 +50539,10 @@
     </row>
     <row r="1571">
       <c r="A1571" t="n">
-        <v>-11.31854953596464</v>
+        <v>-10.67895995339387</v>
       </c>
       <c r="B1571" t="n">
-        <v>14.51186372903909</v>
+        <v>14.50401380002171</v>
       </c>
       <c r="C1571" t="n">
         <v>35.88</v>
@@ -50551,10 +50551,10 @@
         <v>15.488</v>
       </c>
       <c r="E1571" t="n">
-        <v>-9.84378842438543</v>
+        <v>-9.689182095424062</v>
       </c>
       <c r="F1571" t="n">
-        <v>12.52257463137109</v>
+        <v>12.51993215535789</v>
       </c>
       <c r="G1571" t="n">
         <v>-4.142500000000016</v>
@@ -50571,10 +50571,10 @@
     </row>
     <row r="1572">
       <c r="A1572" t="n">
-        <v>-11.54655786610409</v>
+        <v>-10.99031197118931</v>
       </c>
       <c r="B1572" t="n">
-        <v>14.50302726543548</v>
+        <v>14.49657885388645</v>
       </c>
       <c r="C1572" t="n">
         <v>35.71</v>
@@ -50583,10 +50583,10 @@
         <v>15.488</v>
       </c>
       <c r="E1572" t="n">
-        <v>-10.17433551601557</v>
+        <v>-9.956291910628558</v>
       </c>
       <c r="F1572" t="n">
-        <v>12.52044505069413</v>
+        <v>12.51625392537127</v>
       </c>
       <c r="G1572" t="n">
         <v>-4.530000000000012</v>
@@ -50603,10 +50603,10 @@
     </row>
     <row r="1573">
       <c r="A1573" t="n">
-        <v>-11.7878934013779</v>
+        <v>-11.30843570753837</v>
       </c>
       <c r="B1573" t="n">
-        <v>14.49474180186535</v>
+        <v>14.48959441511304</v>
       </c>
       <c r="C1573" t="n">
         <v>35.55</v>
@@ -50615,10 +50615,10 @@
         <v>15.4879</v>
       </c>
       <c r="E1573" t="n">
-        <v>-10.49014025678955</v>
+        <v>-10.19782744237244</v>
       </c>
       <c r="F1573" t="n">
-        <v>12.51791133073328</v>
+        <v>12.5117911878542</v>
       </c>
       <c r="G1573" t="n">
         <v>-4.917500000000015</v>
@@ -50635,10 +50635,10 @@
     </row>
     <row r="1574">
       <c r="A1574" t="n">
-        <v>-12.04319404300909</v>
+        <v>-11.63327765274886</v>
       </c>
       <c r="B1574" t="n">
-        <v>14.48703371171994</v>
+        <v>14.48307864622567</v>
       </c>
       <c r="C1574" t="n">
         <v>35.38</v>
@@ -50647,10 +50647,10 @@
         <v>15.4877</v>
       </c>
       <c r="E1574" t="n">
-        <v>-10.79166147417253</v>
+        <v>-10.41378869065572</v>
       </c>
       <c r="F1574" t="n">
-        <v>12.51498604955056</v>
+        <v>12.50654394280671</v>
       </c>
       <c r="G1574" t="n">
         <v>-5.305000000000017</v>
@@ -50667,10 +50667,10 @@
     </row>
     <row r="1575">
       <c r="A1575" t="n">
-        <v>-12.31309769222068</v>
+        <v>-11.96478429712862</v>
       </c>
       <c r="B1575" t="n">
-        <v>14.4799293683905</v>
+        <v>14.47704970974854</v>
       </c>
       <c r="C1575" t="n">
         <v>35.22</v>
@@ -50679,10 +50679,10 @@
         <v>15.4876</v>
       </c>
       <c r="E1575" t="n">
-        <v>-11.07935799562967</v>
+        <v>-10.6041756554784</v>
       </c>
       <c r="F1575" t="n">
-        <v>12.51168178520798</v>
+        <v>12.50051219022877</v>
       </c>
       <c r="G1575" t="n">
         <v>-5.692500000000013</v>
@@ -50699,10 +50699,10 @@
     </row>
     <row r="1576">
       <c r="A1576" t="n">
-        <v>-12.59824225023568</v>
+        <v>-12.30290213098545</v>
       </c>
       <c r="B1576" t="n">
-        <v>14.47345514526828</v>
+        <v>14.47152576820585</v>
       </c>
       <c r="C1576" t="n">
         <v>35.05</v>
@@ -50711,10 +50711,10 @@
         <v>15.4875</v>
       </c>
       <c r="E1576" t="n">
-        <v>-11.35368864862614</v>
+        <v>-10.76898833684047</v>
       </c>
       <c r="F1576" t="n">
-        <v>12.50801111576753</v>
+        <v>12.4936959301204</v>
       </c>
       <c r="G1576" t="n">
         <v>-6.080000000000016</v>
@@ -50731,10 +50731,10 @@
     </row>
     <row r="1577">
       <c r="A1577" t="n">
-        <v>-12.89926561827712</v>
+        <v>-12.64757764462719</v>
       </c>
       <c r="B1577" t="n">
-        <v>14.46763741574453</v>
+        <v>14.46652498412181</v>
       </c>
       <c r="C1577" t="n">
         <v>34.88</v>
@@ -50743,10 +50743,10 @@
         <v>15.4874</v>
       </c>
       <c r="E1577" t="n">
-        <v>-11.61511226062708</v>
+        <v>-10.90822673474193</v>
       </c>
       <c r="F1577" t="n">
-        <v>12.50398661929123</v>
+        <v>12.48609516248159</v>
       </c>
       <c r="G1577" t="n">
         <v>-6.467500000000019</v>
@@ -50763,10 +50763,10 @@
     </row>
     <row r="1578">
       <c r="A1578" t="n">
-        <v>-13.216805697568</v>
+        <v>-12.99875732836164</v>
       </c>
       <c r="B1578" t="n">
-        <v>14.46250255321049</v>
+        <v>14.46206552002061</v>
       </c>
       <c r="C1578" t="n">
         <v>34.72</v>
@@ -50775,10 +50775,10 @@
         <v>15.4873</v>
       </c>
       <c r="E1578" t="n">
-        <v>-11.86408765909768</v>
+        <v>-11.02189084918278</v>
       </c>
       <c r="F1578" t="n">
-        <v>12.49962087384109</v>
+        <v>12.47770988731234</v>
       </c>
       <c r="G1578" t="n">
         <v>-6.855000000000015</v>
@@ -50795,10 +50795,10 @@
     </row>
     <row r="1579">
       <c r="A1579" t="n">
-        <v>-13.55150038933134</v>
+        <v>-13.35638767249664</v>
       </c>
       <c r="B1579" t="n">
-        <v>14.45807693105741</v>
+        <v>14.45816553842645</v>
       </c>
       <c r="C1579" t="n">
         <v>34.55</v>
@@ -50807,10 +50807,10 @@
         <v>15.4871</v>
       </c>
       <c r="E1579" t="n">
-        <v>-12.10107367150307</v>
+        <v>-11.10998068016303</v>
       </c>
       <c r="F1579" t="n">
-        <v>12.4949264574791</v>
+        <v>12.46854010461266</v>
       </c>
       <c r="G1579" t="n">
         <v>-7.242500000000017</v>
@@ -50827,10 +50827,10 @@
     </row>
     <row r="1580">
       <c r="A1580" t="n">
-        <v>-13.90398759479017</v>
+        <v>-13.72041516733999</v>
       </c>
       <c r="B1580" t="n">
-        <v>14.45438692267653</v>
+        <v>14.45484320186354</v>
       </c>
       <c r="C1580" t="n">
         <v>33.19</v>
@@ -50839,10 +50839,10 @@
         <v>15.487</v>
       </c>
       <c r="E1580" t="n">
-        <v>-12.32652912530844</v>
+        <v>-11.17249622768268</v>
       </c>
       <c r="F1580" t="n">
-        <v>12.48991594826728</v>
+        <v>12.45858581438254</v>
       </c>
       <c r="G1580" t="n">
         <v>-7.63000000000002</v>
@@ -50859,10 +50859,10 @@
     </row>
     <row r="1581">
       <c r="A1581" t="n">
-        <v>-14.2749052151675</v>
+        <v>-14.09078630319952</v>
       </c>
       <c r="B1581" t="n">
-        <v>14.45145890145911</v>
+        <v>14.45211667285607</v>
       </c>
       <c r="C1581" t="n">
         <v>32.05</v>
@@ -50871,10 +50871,10 @@
         <v>15.4869</v>
       </c>
       <c r="E1581" t="n">
-        <v>-12.54091284797893</v>
+        <v>-11.20943749174171</v>
       </c>
       <c r="F1581" t="n">
-        <v>12.48460192426764</v>
+        <v>12.44784701662198</v>
       </c>
       <c r="G1581" t="n">
         <v>-8.017500000000016</v>
@@ -50891,10 +50891,10 @@
     </row>
     <row r="1582">
       <c r="A1582" t="n">
-        <v>-14.66489115168634</v>
+        <v>-14.46744757038305</v>
       </c>
       <c r="B1582" t="n">
-        <v>14.44931924079638</v>
+        <v>14.45000411392825</v>
       </c>
       <c r="C1582" t="n">
         <v>31.1</v>
@@ -50903,16 +50903,16 @@
         <v>15.4867</v>
       </c>
       <c r="E1582" t="n">
-        <v>-12.74468366697972</v>
+        <v>-11.22081651612904</v>
       </c>
       <c r="F1582" t="n">
-        <v>12.47899696354217</v>
+        <v>12.43753277419364</v>
       </c>
       <c r="G1582" t="n">
-        <v>-8.411645949174144</v>
+        <v>-8.382730600787887</v>
       </c>
       <c r="H1582" t="n">
-        <v>14.24765351672847</v>
+        <v>14.24755848531219</v>
       </c>
       <c r="I1582" t="n">
         <v>10.24428571428572</v>
@@ -50923,10 +50923,10 @@
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>-15.07458330556972</v>
+        <v>-14.8503454591984</v>
       </c>
       <c r="B1583" t="n">
-        <v>14.4479943140796</v>
+        <v>14.44852368760427</v>
       </c>
       <c r="C1583" t="n">
         <v>30.31</v>
@@ -50935,16 +50935,16 @@
         <v>15.4866</v>
       </c>
       <c r="E1583" t="n">
-        <v>-12.93830040977595</v>
+        <v>-11.2250838598029</v>
       </c>
       <c r="F1583" t="n">
-        <v>12.4731136441529</v>
+        <v>12.43077906053639</v>
       </c>
       <c r="G1583" t="n">
-        <v>-8.789383335904187</v>
+        <v>-8.723589567393805</v>
       </c>
       <c r="H1583" t="n">
-        <v>14.24627215096056</v>
+        <v>14.24591400619831</v>
       </c>
       <c r="I1583" t="n">
         <v>9.810000000000006</v>
@@ -50955,10 +50955,10 @@
     </row>
     <row r="1584">
       <c r="A1584" t="n">
-        <v>-15.50461957804065</v>
+        <v>-15.23942645995339</v>
       </c>
       <c r="B1584" t="n">
-        <v>14.44751049470002</v>
+        <v>14.44769355640834</v>
       </c>
       <c r="C1584" t="n">
         <v>29.68</v>
@@ -50967,16 +50967,16 @@
         <v>15.4867</v>
       </c>
       <c r="E1584" t="n">
-        <v>-13.1222219038328</v>
+        <v>-11.2365230943219</v>
       </c>
       <c r="F1584" t="n">
-        <v>12.46696454416181</v>
+        <v>12.42389035119771</v>
       </c>
       <c r="G1584" t="n">
-        <v>-9.151161469001641</v>
+        <v>-9.04007689981777</v>
       </c>
       <c r="H1584" t="n">
-        <v>14.24377597231459</v>
+        <v>14.24295406265834</v>
       </c>
       <c r="I1584" t="n">
         <v>9.375714285714292</v>
@@ -50999,16 +50999,16 @@
         <v>15.4865</v>
       </c>
       <c r="E1585" t="n">
-        <v>-13.29690697661542</v>
+        <v>-11.25509503464456</v>
       </c>
       <c r="F1585" t="n">
-        <v>12.46056224163093</v>
+        <v>12.41687519650326</v>
       </c>
       <c r="G1585" t="n">
-        <v>-9.497429657277999</v>
+        <v>-9.332192598059782</v>
       </c>
       <c r="H1585" t="n">
-        <v>14.24019755040893</v>
+        <v>14.23867865469228</v>
       </c>
       <c r="I1585" t="n">
         <v>8.941428571428577</v>
@@ -51031,16 +51031,16 @@
         <v>15.4862</v>
       </c>
       <c r="E1586" t="n">
-        <v>-13.46281445558898</v>
+        <v>-11.28076049572935</v>
       </c>
       <c r="F1586" t="n">
-        <v>12.45391931462225</v>
+        <v>12.4097421467787</v>
       </c>
       <c r="G1586" t="n">
-        <v>-9.828637209544755</v>
+        <v>-9.599936662119839</v>
       </c>
       <c r="H1586" t="n">
-        <v>14.23556945486192</v>
+        <v>14.23308778230013</v>
       </c>
       <c r="I1586" t="n">
         <v>8.507142857142863</v>
@@ -51063,16 +51063,16 @@
         <v>15.486</v>
       </c>
       <c r="E1587" t="n">
-        <v>-13.62040316821863</v>
+        <v>-11.31348029253482</v>
       </c>
       <c r="F1587" t="n">
-        <v>12.4470483411978</v>
+        <v>12.40249975234972</v>
       </c>
       <c r="G1587" t="n">
-        <v>-10.1452334346134</v>
+        <v>-9.843309091997945</v>
       </c>
       <c r="H1587" t="n">
-        <v>14.22992425529191</v>
+        <v>14.22618144548189</v>
       </c>
       <c r="I1587" t="n">
         <v>8.072857142857149</v>
@@ -51095,16 +51095,16 @@
         <v>15.4858</v>
       </c>
       <c r="E1588" t="n">
-        <v>-13.77013194196955</v>
+        <v>-11.35321524001944</v>
       </c>
       <c r="F1588" t="n">
-        <v>12.43996189941956</v>
+        <v>12.39515656354199</v>
       </c>
       <c r="G1588" t="n">
-        <v>-10.44766764129542</v>
+        <v>-10.0623098876941</v>
       </c>
       <c r="H1588" t="n">
-        <v>14.22329452131724</v>
+        <v>14.21795964423757</v>
       </c>
       <c r="I1588" t="n">
         <v>7.638571428571435</v>
@@ -51127,16 +51127,16 @@
         <v>15.4855</v>
       </c>
       <c r="E1589" t="n">
-        <v>-13.91245960430688</v>
+        <v>-11.39992615314175</v>
       </c>
       <c r="F1589" t="n">
-        <v>12.43267256734956</v>
+        <v>12.38772113068118</v>
       </c>
       <c r="G1589" t="n">
-        <v>-10.73638913840233</v>
+        <v>-10.2569390492083</v>
       </c>
       <c r="H1589" t="n">
-        <v>14.21571282255628</v>
+        <v>14.20842237856715</v>
       </c>
       <c r="I1589" t="n">
         <v>7.204285714285721</v>
@@ -51159,16 +51159,16 @@
         <v>15.48532857142857</v>
       </c>
       <c r="E1590" t="n">
-        <v>-14.04784498269579</v>
+        <v>-11.45357384686024</v>
       </c>
       <c r="F1590" t="n">
-        <v>12.42519292304979</v>
+        <v>12.38020200409295</v>
       </c>
       <c r="G1590" t="n">
-        <v>-11.01184723474561</v>
+        <v>-10.42719657654054</v>
       </c>
       <c r="H1590" t="n">
-        <v>14.20721172862735</v>
+        <v>14.19756964847065</v>
       </c>
       <c r="I1590" t="n">
         <v>6.770000000000007</v>
@@ -51191,16 +51191,16 @@
         <v>15.48515714285714</v>
       </c>
       <c r="E1591" t="n">
-        <v>-14.17674690460144</v>
+        <v>-11.51411913613341</v>
       </c>
       <c r="F1591" t="n">
-        <v>12.41753554458225</v>
+        <v>12.37260773410298</v>
       </c>
       <c r="G1591" t="n">
-        <v>-11.27449123913675</v>
+        <v>-10.57308246969083</v>
       </c>
       <c r="H1591" t="n">
-        <v>14.19782380914882</v>
+        <v>14.18540145394806</v>
       </c>
       <c r="I1591" t="n">
         <v>6.335714285714293</v>
@@ -51223,16 +51223,16 @@
         <v>15.48498571428571</v>
       </c>
       <c r="E1592" t="n">
-        <v>-14.299624197489</v>
+        <v>-11.58152283591978</v>
       </c>
       <c r="F1592" t="n">
-        <v>12.40971301000897</v>
+        <v>12.36494687103694</v>
       </c>
       <c r="G1592" t="n">
-        <v>-11.52477046038725</v>
+        <v>-10.69459672865917</v>
       </c>
       <c r="H1592" t="n">
-        <v>14.18758163373903</v>
+        <v>14.17191779499938</v>
       </c>
       <c r="I1592" t="n">
         <v>5.901428571428578</v>
@@ -51255,16 +51255,16 @@
         <v>15.48481428571429</v>
       </c>
       <c r="E1593" t="n">
-        <v>-14.41693568882361</v>
+        <v>-11.65574576117787</v>
       </c>
       <c r="F1593" t="n">
-        <v>12.40173789739194</v>
+        <v>12.35722796522051</v>
       </c>
       <c r="G1593" t="n">
-        <v>-11.7631342073086</v>
+        <v>-10.79173935344555</v>
       </c>
       <c r="H1593" t="n">
-        <v>14.17651777201633</v>
+        <v>14.15711867162461</v>
       </c>
       <c r="I1593" t="n">
         <v>5.467142857142864</v>
@@ -51287,16 +51287,16 @@
         <v>15.48464285714286</v>
       </c>
       <c r="E1594" t="n">
-        <v>-14.52914020607046</v>
+        <v>-11.73674872686615</v>
       </c>
       <c r="F1594" t="n">
-        <v>12.39362278479318</v>
+        <v>12.34945956697934</v>
       </c>
       <c r="G1594" t="n">
-        <v>-11.99003178871229</v>
+        <v>-10.86451034404998</v>
       </c>
       <c r="H1594" t="n">
-        <v>14.16466479359907</v>
+        <v>14.14100408382376</v>
       </c>
       <c r="I1594" t="n">
         <v>5.03285714285715</v>
@@ -51319,16 +51319,16 @@
         <v>15.48447142857143</v>
       </c>
       <c r="E1595" t="n">
-        <v>-14.6366965766947</v>
+        <v>-11.82449254794316</v>
       </c>
       <c r="F1595" t="n">
-        <v>12.38538025027469</v>
+        <v>12.34165022663912</v>
       </c>
       <c r="G1595" t="n">
-        <v>-12.20591251340982</v>
+        <v>-10.91290970047246</v>
       </c>
       <c r="H1595" t="n">
-        <v>14.1520552681056</v>
+        <v>14.12357403159681</v>
       </c>
       <c r="I1595" t="n">
         <v>4.598571428571436</v>
@@ -51351,16 +51351,16 @@
         <v>15.4843</v>
       </c>
       <c r="E1596" t="n">
-        <v>-14.74006362816148</v>
+        <v>-11.9189380393674</v>
       </c>
       <c r="F1596" t="n">
-        <v>12.37702287189847</v>
+        <v>12.33380849452552</v>
       </c>
       <c r="G1596" t="n">
-        <v>-12.41122569021269</v>
+        <v>-10.93693742271299</v>
       </c>
       <c r="H1596" t="n">
-        <v>14.13872176515427</v>
+        <v>14.10482851494378</v>
       </c>
       <c r="I1596" t="n">
         <v>4.164285714285722</v>
@@ -51383,16 +51383,16 @@
         <v>15.48412857142857</v>
       </c>
       <c r="E1597" t="n">
-        <v>-14.83970018793597</v>
+        <v>-12.02004601609736</v>
       </c>
       <c r="F1597" t="n">
-        <v>12.36856322772653</v>
+        <v>12.3259429209642</v>
       </c>
       <c r="G1597" t="n">
-        <v>-12.60642062793238</v>
+        <v>-10.93909609677419</v>
       </c>
       <c r="H1597" t="n">
-        <v>14.12469685436342</v>
+        <v>14.10007251612907</v>
       </c>
       <c r="I1597" t="n">
         <v>3.730000000000008</v>
@@ -51415,16 +51415,16 @@
         <v>15.48395714285714</v>
       </c>
       <c r="E1598" t="n">
-        <v>-14.93606508348333</v>
+        <v>-12.12777729309158</v>
       </c>
       <c r="F1598" t="n">
-        <v>12.36001389582089</v>
+        <v>12.31806205628084</v>
       </c>
       <c r="G1598" t="n">
-        <v>-12.79194663538038</v>
+        <v>-10.94595333608038</v>
       </c>
       <c r="H1598" t="n">
-        <v>14.1100131053514</v>
+        <v>14.08858262002826</v>
       </c>
       <c r="I1598" t="n">
         <v>3.295714285714293</v>
@@ -51447,16 +51447,16 @@
         <v>15.48378571428571</v>
       </c>
       <c r="E1599" t="n">
-        <v>-15.02961714226872</v>
+        <v>-12.24209268530854</v>
       </c>
       <c r="F1599" t="n">
-        <v>12.35138745424354</v>
+        <v>12.3101744508011</v>
       </c>
       <c r="G1599" t="n">
-        <v>-12.9682530213682</v>
+        <v>-10.95971614053748</v>
       </c>
       <c r="H1599" t="n">
-        <v>14.09470308773656</v>
+        <v>14.07675134946029</v>
       </c>
       <c r="I1599" t="n">
         <v>2.861428571428579</v>
@@ -51479,16 +51479,16 @@
         <v>15.48361428571429</v>
       </c>
       <c r="E1600" t="n">
-        <v>-15.1208151917573</v>
+        <v>-12.36295300770676</v>
       </c>
       <c r="F1600" t="n">
-        <v>12.34269648105649</v>
+        <v>12.30228865485067</v>
       </c>
       <c r="G1600" t="n">
-        <v>-13.13578909470732</v>
+        <v>-10.98035237446921</v>
       </c>
       <c r="H1600" t="n">
-        <v>14.07879937113726</v>
+        <v>14.06459888264052</v>
       </c>
       <c r="I1600" t="n">
         <v>2.427142857142865</v>
@@ -51511,16 +51511,16 @@
         <v>15.48344285714286</v>
       </c>
       <c r="E1601" t="n">
-        <v>-15.21011805941425</v>
+        <v>-12.49031907524473</v>
       </c>
       <c r="F1601" t="n">
-        <v>12.33395355432176</v>
+        <v>12.29441321875521</v>
       </c>
       <c r="G1601" t="n">
-        <v>-13.29500416420924</v>
+        <v>-11.0078299021993</v>
       </c>
       <c r="H1601" t="n">
-        <v>14.06233452517184</v>
+        <v>14.05214539778427</v>
       </c>
       <c r="I1601" t="n">
         <v>1.992857142857151</v>
@@ -51543,16 +51543,16 @@
         <v>15.48327142857143</v>
       </c>
       <c r="E1602" t="n">
-        <v>-15.29798457270471</v>
+        <v>-12.62415170288098</v>
       </c>
       <c r="F1602" t="n">
-        <v>12.32517125210134</v>
+        <v>12.28655669284039</v>
       </c>
       <c r="G1602" t="n">
-        <v>-13.44634753868546</v>
+        <v>-11.04211658805146</v>
       </c>
       <c r="H1602" t="n">
-        <v>14.04534111945865</v>
+        <v>14.03941107310689</v>
       </c>
       <c r="I1602" t="n">
         <v>1.558571428571437</v>
@@ -51575,16 +51575,16 @@
         <v>15.4831</v>
       </c>
       <c r="E1603" t="n">
-        <v>-15.38487355909384</v>
+        <v>-12.76441170557401</v>
       </c>
       <c r="F1603" t="n">
-        <v>12.31636215245725</v>
+        <v>12.27872762743189</v>
       </c>
       <c r="G1603" t="n">
-        <v>-13.59026852694746</v>
+        <v>-11.08318029634943</v>
       </c>
       <c r="H1603" t="n">
-        <v>14.02785172361603</v>
+        <v>14.02641608682373</v>
       </c>
       <c r="I1603" t="n">
         <v>1.124285714285723</v>
@@ -51607,22 +51607,22 @@
         <v>15.48292857142857</v>
       </c>
       <c r="E1604" t="n">
-        <v>-15.47124384604682</v>
+        <v>-12.91105989828232</v>
       </c>
       <c r="F1604" t="n">
-        <v>12.30753883345149</v>
+        <v>12.27093457285536</v>
       </c>
       <c r="G1604" t="n">
-        <v>-13.72721643780673</v>
+        <v>-11.1309888914169</v>
       </c>
       <c r="H1604" t="n">
-        <v>14.00989890726234</v>
+        <v>14.0131806171501</v>
       </c>
       <c r="I1604" t="n">
-        <v>0.6859795265774538</v>
+        <v>0.7156797639323594</v>
       </c>
       <c r="J1604" t="n">
-        <v>15.03868074772523</v>
+        <v>15.03818186442177</v>
       </c>
     </row>
     <row r="1605">
@@ -51639,22 +51639,22 @@
         <v>15.48275714285714</v>
       </c>
       <c r="E1605" t="n">
-        <v>-15.55755426102879</v>
+        <v>-13.06405709596443</v>
       </c>
       <c r="F1605" t="n">
-        <v>12.29871387314606</v>
+        <v>12.2631860794365</v>
       </c>
       <c r="G1605" t="n">
-        <v>-13.85764058007478</v>
+        <v>-11.18551023757762</v>
       </c>
       <c r="H1605" t="n">
-        <v>13.99151524001593</v>
+        <v>13.99972484230136</v>
       </c>
       <c r="I1605" t="n">
-        <v>0.2679388609032715</v>
+        <v>0.3380072358967439</v>
       </c>
       <c r="J1605" t="n">
-        <v>15.0371662354934</v>
+        <v>15.03521550846709</v>
       </c>
     </row>
     <row r="1606">
@@ -51671,22 +51671,22 @@
         <v>15.48258571428571</v>
       </c>
       <c r="E1606" t="n">
-        <v>-15.64426363150492</v>
+        <v>-13.22336411357884</v>
       </c>
       <c r="F1606" t="n">
-        <v>12.28989984960297</v>
+        <v>12.25549069750096</v>
       </c>
       <c r="G1606" t="n">
-        <v>-13.98199026256311</v>
+        <v>-11.24671219915529</v>
       </c>
       <c r="H1606" t="n">
-        <v>13.97273329149514</v>
+        <v>13.98606894049283</v>
       </c>
       <c r="I1606" t="n">
-        <v>-0.130454920431854</v>
+        <v>-0.008731869821124338</v>
       </c>
       <c r="J1606" t="n">
-        <v>15.03424365738218</v>
+        <v>15.02984378927883</v>
       </c>
     </row>
     <row r="1607">
@@ -51703,22 +51703,22 @@
         <v>15.48241428571428</v>
       </c>
       <c r="E1607" t="n">
-        <v>-15.73183078494037</v>
+        <v>-13.38894176608405</v>
       </c>
       <c r="F1607" t="n">
-        <v>12.28110934088425</v>
+        <v>12.24785697737442</v>
       </c>
       <c r="G1607" t="n">
-        <v>-14.10071479408318</v>
+        <v>-11.31456264047365</v>
       </c>
       <c r="H1607" t="n">
-        <v>13.95358563131832</v>
+        <v>13.97223308993986</v>
       </c>
       <c r="I1607" t="n">
-        <v>-0.5098204551229535</v>
+        <v>-0.3245375532212451</v>
       </c>
       <c r="J1607" t="n">
-        <v>15.02995735032636</v>
+        <v>15.02206670685697</v>
       </c>
     </row>
     <row r="1608">
@@ -51735,22 +51735,22 @@
         <v>15.48224285714286</v>
       </c>
       <c r="E1608" t="n">
-        <v>-15.82071454880031</v>
+        <v>-13.56075086843859</v>
       </c>
       <c r="F1608" t="n">
-        <v>12.27235492505187</v>
+        <v>12.24029346938255</v>
       </c>
       <c r="G1608" t="n">
-        <v>-14.21426348344651</v>
+        <v>-11.38902942585641</v>
       </c>
       <c r="H1608" t="n">
-        <v>13.93410482910382</v>
+        <v>13.95823746885779</v>
       </c>
       <c r="I1608" t="n">
-        <v>-0.8707763808650572</v>
+        <v>-0.6094098143036183</v>
       </c>
       <c r="J1608" t="n">
-        <v>15.02435165126076</v>
+        <v>15.01188426120152</v>
       </c>
     </row>
     <row r="1609">
@@ -51767,22 +51767,22 @@
         <v>15.48207142857143</v>
       </c>
       <c r="E1609" t="n">
-        <v>-15.9113737505499</v>
+        <v>-13.73875223560093</v>
       </c>
       <c r="F1609" t="n">
-        <v>12.26364918016786</v>
+        <v>12.23280872385102</v>
       </c>
       <c r="G1609" t="n">
-        <v>-14.32308563946458</v>
+        <v>-11.47008041962729</v>
       </c>
       <c r="H1609" t="n">
-        <v>13.91432345446999</v>
+        <v>13.94410225546195</v>
       </c>
       <c r="I1609" t="n">
-        <v>-1.213941335353196</v>
+        <v>-0.8633486530682442</v>
       </c>
       <c r="J1609" t="n">
-        <v>15.01747089712019</v>
+        <v>14.99929645231248</v>
       </c>
     </row>
     <row r="1610">
@@ -51799,22 +51799,22 @@
         <v>15.4819</v>
       </c>
       <c r="E1610" t="n">
-        <v>-16.00426721765429</v>
+        <v>-13.92290668252961</v>
       </c>
       <c r="F1610" t="n">
-        <v>12.25500468429423</v>
+        <v>12.2254112911055</v>
       </c>
       <c r="G1610" t="n">
-        <v>-14.42763057094889</v>
+        <v>-11.55768348611002</v>
       </c>
       <c r="H1610" t="n">
-        <v>13.89427407703517</v>
+        <v>13.92984762796768</v>
       </c>
       <c r="I1610" t="n">
-        <v>-1.5399339562824</v>
+        <v>-1.086354069515123</v>
       </c>
       <c r="J1610" t="n">
-        <v>15.00935942483944</v>
+        <v>14.98430328018985</v>
       </c>
     </row>
     <row r="1611">
@@ -51831,22 +51831,22 @@
         <v>15.48172857142857</v>
       </c>
       <c r="E1611" t="n">
-        <v>-16.09985377757865</v>
+        <v>-14.11317502418314</v>
       </c>
       <c r="F1611" t="n">
-        <v>12.24643401549297</v>
+        <v>12.21810972147167</v>
       </c>
       <c r="G1611" t="n">
-        <v>-14.52834758671095</v>
+        <v>-11.65180648962831</v>
       </c>
       <c r="H1611" t="n">
-        <v>13.87398926641773</v>
+        <v>13.91549376459032</v>
       </c>
       <c r="I1611" t="n">
-        <v>-1.849372881347699</v>
+        <v>-1.278426063644253</v>
       </c>
       <c r="J1611" t="n">
-        <v>15.00006157135333</v>
+        <v>14.96690474483362</v>
       </c>
     </row>
     <row r="1612">
@@ -51863,22 +51863,22 @@
         <v>15.48155714285714</v>
       </c>
       <c r="E1612" t="n">
-        <v>-16.19859225778814</v>
+        <v>-14.30951807551999</v>
       </c>
       <c r="F1612" t="n">
-        <v>12.2379497518261</v>
+        <v>12.21091256527519</v>
       </c>
       <c r="G1612" t="n">
-        <v>-14.62568599556222</v>
+        <v>-11.75241729450589</v>
       </c>
       <c r="H1612" t="n">
-        <v>13.853501592236</v>
+        <v>13.9010608435452</v>
       </c>
       <c r="I1612" t="n">
-        <v>-2.142876748244124</v>
+        <v>-1.439564635455637</v>
       </c>
       <c r="J1612" t="n">
-        <v>14.98962167359666</v>
+        <v>14.94710084624381</v>
       </c>
     </row>
     <row r="1613">
@@ -51895,22 +51895,22 @@
         <v>15.48138571428571</v>
       </c>
       <c r="E1613" t="n">
-        <v>-16.30094148574791</v>
+        <v>-14.51189665149871</v>
       </c>
       <c r="F1613" t="n">
-        <v>12.22956447135562</v>
+        <v>12.20382837284173</v>
       </c>
       <c r="G1613" t="n">
-        <v>-14.72009510631421</v>
+        <v>-11.85948376506648</v>
       </c>
       <c r="H1613" t="n">
-        <v>13.83284362410834</v>
+        <v>13.88656904304768</v>
       </c>
       <c r="I1613" t="n">
-        <v>-2.421064194666704</v>
+        <v>-1.569769784949273</v>
       </c>
       <c r="J1613" t="n">
-        <v>14.97808406850423</v>
+        <v>14.92489158442041</v>
       </c>
     </row>
     <row r="1614">
@@ -51927,22 +51927,22 @@
         <v>15.48121428571428</v>
       </c>
       <c r="E1614" t="n">
-        <v>-16.40736028892314</v>
+        <v>-14.72027156707778</v>
       </c>
       <c r="F1614" t="n">
-        <v>12.22129075214354</v>
+        <v>12.19686569449698</v>
       </c>
       <c r="G1614" t="n">
-        <v>-14.81202422777842</v>
+        <v>-11.9729737656338</v>
       </c>
       <c r="H1614" t="n">
-        <v>13.81204793165308</v>
+        <v>13.87203854131307</v>
       </c>
       <c r="I1614" t="n">
-        <v>-2.684553858310473</v>
+        <v>-1.669041512125161</v>
       </c>
       <c r="J1614" t="n">
-        <v>14.96549309301086</v>
+        <v>14.90027695936342</v>
       </c>
     </row>
     <row r="1615">
@@ -51959,22 +51959,22 @@
         <v>15.48104285714285</v>
       </c>
       <c r="E1615" t="n">
-        <v>-16.51830749477898</v>
+        <v>-14.93460363721572</v>
       </c>
       <c r="F1615" t="n">
-        <v>12.21314117225186</v>
+        <v>12.19003308056659</v>
       </c>
       <c r="G1615" t="n">
-        <v>-14.90192266876633</v>
+        <v>-12.09285516053156</v>
       </c>
       <c r="H1615" t="n">
-        <v>13.79114708448859</v>
+        <v>13.85748951655672</v>
       </c>
       <c r="I1615" t="n">
-        <v>-2.933964376870457</v>
+        <v>-1.737379816983303</v>
       </c>
       <c r="J1615" t="n">
-        <v>14.95189308405134</v>
+        <v>14.87325697107283</v>
       </c>
     </row>
     <row r="1616">
@@ -51991,22 +51991,22 @@
         <v>15.48087142857143</v>
       </c>
       <c r="E1616" t="n">
-        <v>-16.6342419307806</v>
+        <v>-15.15485367687103</v>
       </c>
       <c r="F1616" t="n">
-        <v>12.2051283097426</v>
+        <v>12.18333908137624</v>
       </c>
       <c r="G1616" t="n">
-        <v>-14.99023973808945</v>
+        <v>-12.21909581408351</v>
       </c>
       <c r="H1616" t="n">
-        <v>13.77017365223321</v>
+        <v>13.84294214699397</v>
       </c>
       <c r="I1616" t="n">
-        <v>-3.16991438804169</v>
+        <v>-1.774784699523696</v>
       </c>
       <c r="J1616" t="n">
-        <v>14.93732837856049</v>
+        <v>14.84383161954866</v>
       </c>
     </row>
     <row r="1617">
@@ -52023,22 +52023,22 @@
         <v>15.4807</v>
       </c>
       <c r="E1617" t="n">
-        <v>-16.75562242439315</v>
+        <v>-15.38098250100223</v>
       </c>
       <c r="F1617" t="n">
-        <v>12.19726474267776</v>
+        <v>12.1767922472516</v>
       </c>
       <c r="G1617" t="n">
-        <v>-15.07742474455926</v>
+        <v>-12.35166359061334</v>
       </c>
       <c r="H1617" t="n">
-        <v>13.74916020450529</v>
+        <v>13.82841661084016</v>
       </c>
       <c r="I1617" t="n">
-        <v>-3.393022529519199</v>
+        <v>-1.782397650375934</v>
       </c>
       <c r="J1617" t="n">
-        <v>14.9218433134731</v>
+        <v>14.82484588345865</v>
       </c>
     </row>
     <row r="1618">
@@ -52055,22 +52055,22 @@
         <v>15.48052857142857</v>
       </c>
       <c r="E1618" t="n">
-        <v>-16.8829078030818</v>
+        <v>-15.61295092456781</v>
       </c>
       <c r="F1618" t="n">
-        <v>12.18956304911934</v>
+        <v>12.17040112851834</v>
       </c>
       <c r="G1618" t="n">
-        <v>-15.16392699698725</v>
+        <v>-12.49052635444478</v>
       </c>
       <c r="H1618" t="n">
-        <v>13.72813931092317</v>
+        <v>13.81393308631061</v>
       </c>
       <c r="I1618" t="n">
-        <v>-3.603907438998019</v>
+        <v>-1.788587714894156</v>
       </c>
       <c r="J1618" t="n">
-        <v>14.905482225724</v>
+        <v>14.80639145949133</v>
       </c>
     </row>
     <row r="1619">
@@ -52087,22 +52087,22 @@
         <v>15.48035714285714</v>
       </c>
       <c r="E1619" t="n">
-        <v>-17.0165568943117</v>
+        <v>-15.85071976252629</v>
       </c>
       <c r="F1619" t="n">
-        <v>12.18203580712935</v>
+        <v>12.16417427550214</v>
       </c>
       <c r="G1619" t="n">
-        <v>-15.25019580418493</v>
+        <v>-12.63565196990157</v>
       </c>
       <c r="H1619" t="n">
-        <v>13.70714354110521</v>
+        <v>13.79951175162068</v>
       </c>
       <c r="I1619" t="n">
-        <v>-3.803187754173175</v>
+        <v>-1.803481006562548</v>
       </c>
       <c r="J1619" t="n">
-        <v>14.88828945224797</v>
+        <v>14.78748575414142</v>
       </c>
     </row>
     <row r="1620">
@@ -52119,22 +52119,22 @@
         <v>15.48018571428571</v>
       </c>
       <c r="E1620" t="n">
-        <v>-17.15702852554803</v>
+        <v>-16.09424982983617</v>
       </c>
       <c r="F1620" t="n">
-        <v>12.1746955947698</v>
+        <v>12.15812023852866</v>
       </c>
       <c r="G1620" t="n">
-        <v>-15.33668047496378</v>
+        <v>-12.78700830130741</v>
       </c>
       <c r="H1620" t="n">
-        <v>13.68620546466976</v>
+        <v>13.78517278498571</v>
       </c>
       <c r="I1620" t="n">
-        <v>-3.991482112739701</v>
+        <v>-1.827027723487273</v>
       </c>
       <c r="J1620" t="n">
-        <v>14.87030932997983</v>
+        <v>14.7681596078812</v>
       </c>
     </row>
     <row r="1621">
@@ -52151,22 +52151,22 @@
         <v>15.48001428571428</v>
       </c>
       <c r="E1621" t="n">
-        <v>-17.30478152425593</v>
+        <v>-16.34350194145597</v>
       </c>
       <c r="F1621" t="n">
-        <v>12.16755499010271</v>
+        <v>12.15224756792357</v>
       </c>
       <c r="G1621" t="n">
-        <v>-15.42383031813529</v>
+        <v>-12.94456321298602</v>
       </c>
       <c r="H1621" t="n">
-        <v>13.66535765123516</v>
+        <v>13.77093636462102</v>
       </c>
       <c r="I1621" t="n">
-        <v>-4.169409152392625</v>
+        <v>-1.859178063774496</v>
       </c>
       <c r="J1621" t="n">
-        <v>14.85158619585439</v>
+        <v>14.74844386118301</v>
       </c>
     </row>
     <row r="1622">
@@ -52183,22 +52183,22 @@
         <v>15.47984285714285</v>
       </c>
       <c r="E1622" t="n">
-        <v>-17.46027471790058</v>
+        <v>-16.59843691234417</v>
       </c>
       <c r="F1622" t="n">
-        <v>12.16062657119006</v>
+        <v>12.14656481401255</v>
       </c>
       <c r="G1622" t="n">
-        <v>-15.51209464251097</v>
+        <v>-13.10828456926114</v>
       </c>
       <c r="H1622" t="n">
-        <v>13.64463267041976</v>
+        <v>13.75682266874195</v>
       </c>
       <c r="I1622" t="n">
-        <v>-4.33758751082698</v>
+        <v>-1.899882225530378</v>
       </c>
       <c r="J1622" t="n">
-        <v>14.83216438680644</v>
+        <v>14.72836935451915</v>
       </c>
     </row>
     <row r="1623">
@@ -52215,22 +52215,22 @@
         <v>15.47967142857143</v>
       </c>
       <c r="E1623" t="n">
-        <v>-17.62396693394713</v>
+        <v>-16.85901555745931</v>
       </c>
       <c r="F1623" t="n">
-        <v>12.15392291609388</v>
+        <v>12.14108052712127</v>
       </c>
       <c r="G1623" t="n">
-        <v>-15.60192275690231</v>
+        <v>-13.27814023445648</v>
       </c>
       <c r="H1623" t="n">
-        <v>13.62406309184191</v>
+        <v>13.74285187556384</v>
       </c>
       <c r="I1623" t="n">
-        <v>-4.496635825737793</v>
+        <v>-1.949090406861084</v>
       </c>
       <c r="J1623" t="n">
-        <v>14.8120882397708</v>
+        <v>14.70796692836192</v>
       </c>
     </row>
     <row r="1624">
@@ -52247,22 +52247,22 @@
         <v>15.4795</v>
       </c>
       <c r="E1624" t="n">
-        <v>-17.79631699986074</v>
+        <v>-17.12519869175988</v>
       </c>
       <c r="F1624" t="n">
-        <v>12.14745660287616</v>
+        <v>12.1358032575754</v>
       </c>
       <c r="G1624" t="n">
-        <v>-15.69376397012079</v>
+        <v>-13.45409807289576</v>
       </c>
       <c r="H1624" t="n">
-        <v>13.60368148511996</v>
+        <v>13.72904416330204</v>
       </c>
       <c r="I1624" t="n">
-        <v>-4.647172734820098</v>
+        <v>-2.006752805872777</v>
       </c>
       <c r="J1624" t="n">
-        <v>14.79140209168227</v>
+        <v>14.68726742318364</v>
       </c>
     </row>
     <row r="1625">
@@ -52279,22 +52279,22 @@
         <v>15.47932857142857</v>
       </c>
       <c r="E1625" t="n">
-        <v>-17.97778374310658</v>
+        <v>-17.39694713020439</v>
       </c>
       <c r="F1625" t="n">
-        <v>12.14124020959891</v>
+        <v>12.13074155570061</v>
       </c>
       <c r="G1625" t="n">
-        <v>-15.78806759097791</v>
+        <v>-13.6361259489027</v>
       </c>
       <c r="H1625" t="n">
-        <v>13.58352041987226</v>
+        <v>13.71541971017187</v>
       </c>
       <c r="I1625" t="n">
-        <v>-4.789816875768924</v>
+        <v>-2.07281962067162</v>
       </c>
       <c r="J1625" t="n">
-        <v>14.77015027947566</v>
+        <v>14.66630167945661</v>
       </c>
     </row>
     <row r="1626">
@@ -52311,22 +52311,22 @@
         <v>15.47915714285714</v>
       </c>
       <c r="E1626" t="n">
-        <v>-18.16882599114981</v>
+        <v>-17.67422168775134</v>
       </c>
       <c r="F1626" t="n">
-        <v>12.13528631432415</v>
+        <v>12.12590397182257</v>
       </c>
       <c r="G1626" t="n">
-        <v>-15.88528292828516</v>
+        <v>-13.82419172680102</v>
       </c>
       <c r="H1626" t="n">
-        <v>13.56361246571716</v>
+        <v>13.70199869438868</v>
       </c>
       <c r="I1626" t="n">
-        <v>-4.9251868862793</v>
+        <v>-2.147241049363776</v>
       </c>
       <c r="J1626" t="n">
-        <v>14.74837714008576</v>
+        <v>14.64510053765314</v>
       </c>
     </row>
     <row r="1627">
@@ -52343,22 +52343,22 @@
         <v>15.47898571428571</v>
       </c>
       <c r="E1627" t="n">
-        <v>-18.36990257145559</v>
+        <v>-17.95698317935926</v>
       </c>
       <c r="F1627" t="n">
-        <v>12.12960749511387</v>
+        <v>12.12129905626695</v>
       </c>
       <c r="G1627" t="n">
-        <v>-15.98585929085405</v>
+        <v>-14.01826327091445</v>
       </c>
       <c r="H1627" t="n">
-        <v>13.543990192273</v>
+        <v>13.68880129416781</v>
       </c>
       <c r="I1627" t="n">
-        <v>-5.053901404046258</v>
+        <v>-2.229967290055409</v>
       </c>
       <c r="J1627" t="n">
-        <v>14.7261270104474</v>
+        <v>14.62369483824555</v>
       </c>
     </row>
     <row r="1628">
@@ -52375,22 +52375,22 @@
         <v>15.47881428571428</v>
       </c>
       <c r="E1628" t="n">
-        <v>-18.58147231148907</v>
+        <v>-18.24519241998663</v>
       </c>
       <c r="F1628" t="n">
-        <v>12.12421633003009</v>
+        <v>12.11693535935943</v>
       </c>
       <c r="G1628" t="n">
-        <v>-16.09024598749606</v>
+        <v>-14.21830844556671</v>
       </c>
       <c r="H1628" t="n">
-        <v>13.52468616915813</v>
+        <v>13.67584768772458</v>
       </c>
       <c r="I1628" t="n">
-        <v>-5.176579066764829</v>
+        <v>-2.320948540852682</v>
       </c>
       <c r="J1628" t="n">
-        <v>14.70344422749538</v>
+        <v>14.60211542170613</v>
       </c>
     </row>
     <row r="1629">
@@ -52407,22 +52407,22 @@
         <v>15.47864285714285</v>
       </c>
       <c r="E1629" t="n">
-        <v>-18.80399403871543</v>
+        <v>-18.53881022459197</v>
       </c>
       <c r="F1629" t="n">
-        <v>12.11912539713481</v>
+        <v>12.11282143142567</v>
       </c>
       <c r="G1629" t="n">
-        <v>-16.19889232702268</v>
+        <v>-14.42429511508151</v>
       </c>
       <c r="H1629" t="n">
-        <v>13.50573296599091</v>
+        <v>13.66315805327435</v>
       </c>
       <c r="I1629" t="n">
-        <v>-5.293838512130042</v>
+        <v>-2.420134999861759</v>
       </c>
       <c r="J1629" t="n">
-        <v>14.6803731281645</v>
+        <v>14.5803931285072</v>
       </c>
     </row>
     <row r="1630">
@@ -52439,22 +52439,22 @@
         <v>15.47847142857142</v>
       </c>
       <c r="E1630" t="n">
-        <v>-19.03792658059982</v>
+        <v>-18.83779740813379</v>
       </c>
       <c r="F1630" t="n">
-        <v>12.11434727449004</v>
+        <v>12.10896582279135</v>
       </c>
       <c r="G1630" t="n">
-        <v>-16.3122476182454</v>
+        <v>-14.63619114378258</v>
       </c>
       <c r="H1630" t="n">
-        <v>13.48716315238968</v>
+        <v>13.65075256903244</v>
       </c>
       <c r="I1630" t="n">
-        <v>-5.406298377836928</v>
+        <v>-2.527476865188802</v>
       </c>
       <c r="J1630" t="n">
-        <v>14.65695804938956</v>
+        <v>14.55855879912107</v>
       </c>
     </row>
     <row r="1631">
@@ -52471,22 +52471,22 @@
         <v>15.4783</v>
       </c>
       <c r="E1631" t="n">
-        <v>-19.28372876460739</v>
+        <v>-19.14211478557059</v>
       </c>
       <c r="F1631" t="n">
-        <v>12.10989454015778</v>
+        <v>12.10537708378213</v>
       </c>
       <c r="G1631" t="n">
-        <v>-16.43076116997574</v>
+        <v>-14.85396439599364</v>
       </c>
       <c r="H1631" t="n">
-        <v>13.46900929797279</v>
+        <v>13.6386514132142</v>
       </c>
       <c r="I1631" t="n">
-        <v>-5.514577301580516</v>
+        <v>-2.642924334939976</v>
       </c>
       <c r="J1631" t="n">
-        <v>14.63324332810537</v>
+        <v>14.53664327402004</v>
       </c>
     </row>
     <row r="1632">
@@ -52503,22 +52503,22 @@
         <v>15.47812857142857</v>
       </c>
       <c r="E1632" t="n">
-        <v>-19.54185941820333</v>
+        <v>-19.45172317186089</v>
       </c>
       <c r="F1632" t="n">
-        <v>12.10577977220004</v>
+        <v>12.1020637647237</v>
       </c>
       <c r="G1632" t="n">
-        <v>-16.55488229102517</v>
+        <v>-15.07758273603841</v>
       </c>
       <c r="H1632" t="n">
-        <v>13.45130397235858</v>
+        <v>13.62687476403497</v>
       </c>
       <c r="I1632" t="n">
-        <v>-5.619293921055839</v>
+        <v>-2.766427607221442</v>
       </c>
       <c r="J1632" t="n">
-        <v>14.60927330124674</v>
+        <v>14.51467739367643</v>
       </c>
     </row>
     <row r="1633">
@@ -52535,22 +52535,22 @@
         <v>15.47795714285714</v>
       </c>
       <c r="E1633" t="n">
-        <v>-19.81277736885278</v>
+        <v>-19.76658338196318</v>
       </c>
       <c r="F1633" t="n">
-        <v>12.10201554867883</v>
+        <v>12.09903441594172</v>
       </c>
       <c r="G1633" t="n">
-        <v>-16.68506029020518</v>
+        <v>-15.30701402824062</v>
       </c>
       <c r="H1633" t="n">
-        <v>13.43407974516542</v>
+        <v>13.61544279971007</v>
       </c>
       <c r="I1633" t="n">
-        <v>-5.721066873957925</v>
+        <v>-2.897936880139365</v>
       </c>
       <c r="J1633" t="n">
-        <v>14.58509230574848</v>
+        <v>14.49269199856254</v>
       </c>
     </row>
     <row r="1634">
@@ -52567,22 +52567,22 @@
         <v>15.47778571428571</v>
       </c>
       <c r="E1634" t="n">
-        <v>-20.09694144402091</v>
+        <v>-20.08665623083597</v>
       </c>
       <c r="F1634" t="n">
-        <v>12.09861444765616</v>
+        <v>12.09629758776185</v>
       </c>
       <c r="G1634" t="n">
-        <v>-16.82174447632728</v>
+        <v>-15.54222613692397</v>
       </c>
       <c r="H1634" t="n">
-        <v>13.41736918601164</v>
+        <v>13.60437569845485</v>
       </c>
       <c r="I1634" t="n">
-        <v>-5.820514797981803</v>
+        <v>-3.037402351799909</v>
       </c>
       <c r="J1634" t="n">
-        <v>14.56074467854538</v>
+        <v>14.47071792915068</v>
       </c>
     </row>
     <row r="1635">
@@ -52599,22 +52599,22 @@
         <v>15.47761428571428</v>
       </c>
       <c r="E1635" t="n">
-        <v>-20.39481047117288</v>
+        <v>-20.41190253343779</v>
       </c>
       <c r="F1635" t="n">
-        <v>12.09558904719403</v>
+        <v>12.09386183050978</v>
       </c>
       <c r="G1635" t="n">
-        <v>-16.96538415820295</v>
+        <v>-15.78318692641221</v>
       </c>
       <c r="H1635" t="n">
-        <v>13.4012048645156</v>
+        <v>13.59369363848466</v>
       </c>
       <c r="I1635" t="n">
-        <v>-5.918256330822508</v>
+        <v>-3.184774220309236</v>
       </c>
       <c r="J1635" t="n">
-        <v>14.53627475657227</v>
+        <v>14.44878602591317</v>
       </c>
     </row>
     <row r="1636">
@@ -52631,22 +52631,22 @@
         <v>15.47744285714285</v>
       </c>
       <c r="E1636" t="n">
-        <v>-20.70684327777385</v>
+        <v>-20.74228310472712</v>
       </c>
       <c r="F1636" t="n">
-        <v>12.09295192535445</v>
+        <v>12.09173569451117</v>
       </c>
       <c r="G1636" t="n">
-        <v>-17.1164286446437</v>
+        <v>-16.02986426102904</v>
       </c>
       <c r="H1636" t="n">
-        <v>13.38561935029564</v>
+        <v>13.58341679801481</v>
       </c>
       <c r="I1636" t="n">
-        <v>-6.014910110175069</v>
+        <v>-3.34000268377351</v>
       </c>
       <c r="J1636" t="n">
-        <v>14.51172687676393</v>
+        <v>14.42692712932231</v>
       </c>
     </row>
     <row r="1637">
@@ -52663,22 +52663,22 @@
         <v>15.47727142857142</v>
       </c>
       <c r="E1637" t="n">
-        <v>-21.03349869128898</v>
+        <v>-21.07775875966249</v>
       </c>
       <c r="F1637" t="n">
-        <v>12.09071566019942</v>
+        <v>12.0899277300917</v>
       </c>
       <c r="G1637" t="n">
-        <v>-17.275327244461</v>
+        <v>-16.28222600509818</v>
       </c>
       <c r="H1637" t="n">
-        <v>13.37064521297011</v>
+        <v>13.57356535526066</v>
       </c>
       <c r="I1637" t="n">
-        <v>-6.111094773734514</v>
+        <v>-3.503037940298894</v>
       </c>
       <c r="J1637" t="n">
-        <v>14.48714537605518</v>
+        <v>14.4051720798504</v>
       </c>
     </row>
     <row r="1638">
@@ -52695,22 +52695,22 @@
         <v>15.47709999999999</v>
       </c>
       <c r="E1638" t="n">
-        <v>-21.37523553918343</v>
+        <v>-21.41829031320239</v>
       </c>
       <c r="F1638" t="n">
-        <v>12.08889282979095</v>
+        <v>12.08844648757703</v>
       </c>
       <c r="G1638" t="n">
-        <v>-17.44252926646637</v>
+        <v>-16.54024002294336</v>
       </c>
       <c r="H1638" t="n">
-        <v>13.35631502215737</v>
+        <v>13.56415948843754</v>
       </c>
       <c r="I1638" t="n">
-        <v>-6.207428959195873</v>
+        <v>-3.673830187991552</v>
       </c>
       <c r="J1638" t="n">
-        <v>14.46257459138083</v>
+        <v>14.38355171796976</v>
       </c>
     </row>
     <row r="1639">
@@ -52727,22 +52727,22 @@
         <v>15.47692857142857</v>
       </c>
       <c r="E1639" t="n">
-        <v>-21.73251264892236</v>
+        <v>-21.76383858030533</v>
       </c>
       <c r="F1639" t="n">
-        <v>12.08749601219106</v>
+        <v>12.08730051729284</v>
       </c>
       <c r="G1639" t="n">
-        <v>-17.61848401947128</v>
+        <v>-16.8038741788883</v>
       </c>
       <c r="H1639" t="n">
-        <v>13.34266134747575</v>
+        <v>13.55521937576079</v>
       </c>
       <c r="I1639" t="n">
-        <v>-6.304531304254181</v>
+        <v>-3.852329624957645</v>
       </c>
       <c r="J1639" t="n">
-        <v>14.43805885967567</v>
+        <v>14.3620968841527</v>
       </c>
     </row>
     <row r="1640">
@@ -52759,22 +52759,22 @@
         <v>15.47675714285714</v>
       </c>
       <c r="E1640" t="n">
-        <v>-22.10578884797095</v>
+        <v>-22.11436437592982</v>
       </c>
       <c r="F1640" t="n">
-        <v>12.08653778546174</v>
+        <v>12.0864983695648</v>
       </c>
       <c r="G1640" t="n">
-        <v>-17.80364081228723</v>
+        <v>-17.07309633725672</v>
       </c>
       <c r="H1640" t="n">
-        <v>13.32971675854361</v>
+        <v>13.54676519544573</v>
       </c>
       <c r="I1640" t="n">
-        <v>-6.403020446604465</v>
+        <v>-4.038486449303339</v>
       </c>
       <c r="J1640" t="n">
-        <v>14.41364251787453</v>
+        <v>14.34083841887151</v>
       </c>
     </row>
     <row r="1641">
@@ -52791,22 +52791,22 @@
         <v>15.47658571428571</v>
       </c>
       <c r="E1641" t="n">
-        <v>-22.49552296379433</v>
+        <v>-22.46982851503437</v>
       </c>
       <c r="F1641" t="n">
-        <v>12.086030727665</v>
+        <v>12.08604859471858</v>
       </c>
       <c r="G1641" t="n">
-        <v>-17.99844895372572</v>
+        <v>-17.34787436237235</v>
       </c>
       <c r="H1641" t="n">
-        <v>13.3175138249793</v>
+        <v>13.53881712570774</v>
       </c>
       <c r="I1641" t="n">
-        <v>-6.503515023941755</v>
+        <v>-4.232250859134798</v>
       </c>
       <c r="J1641" t="n">
-        <v>14.38936990291219</v>
+        <v>14.31980716259853</v>
       </c>
     </row>
     <row r="1642">
@@ -52829,16 +52829,16 @@
         <v>12.08612419354878</v>
       </c>
       <c r="G1642" t="n">
-        <v>-18.20335775259824</v>
+        <v>-17.62817611855889</v>
       </c>
       <c r="H1642" t="n">
-        <v>13.30608511640116</v>
+        <v>13.53139534476211</v>
       </c>
       <c r="I1642" t="n">
-        <v>-6.606633673961083</v>
+        <v>-4.433573052558181</v>
       </c>
       <c r="J1642" t="n">
-        <v>14.36528535172347</v>
+        <v>14.29903395580605</v>
       </c>
     </row>
     <row r="1643">
@@ -52861,16 +52861,16 @@
         <v>12.08627419354877</v>
       </c>
       <c r="G1643" t="n">
-        <v>-18.41881651771629</v>
+        <v>-17.91396947014009</v>
       </c>
       <c r="H1643" t="n">
-        <v>13.29546320242755</v>
+        <v>13.52452003082421</v>
       </c>
       <c r="I1643" t="n">
-        <v>-6.712995034357478</v>
+        <v>-4.642403227679656</v>
       </c>
       <c r="J1643" t="n">
-        <v>14.34143320124318</v>
+        <v>14.27854963896638</v>
       </c>
     </row>
     <row r="1644">
@@ -52893,16 +52893,16 @@
         <v>12.08642419354877</v>
       </c>
       <c r="G1644" t="n">
-        <v>-18.64527455789134</v>
+        <v>-18.20522228143964</v>
       </c>
       <c r="H1644" t="n">
-        <v>13.28568065267681</v>
+        <v>13.51821136210937</v>
       </c>
       <c r="I1644" t="n">
-        <v>-6.823217742825971</v>
+        <v>-4.858691582605384</v>
       </c>
       <c r="J1644" t="n">
-        <v>14.31785778840611</v>
+        <v>14.25838505255183</v>
       </c>
     </row>
     <row r="1645">
@@ -52925,16 +52925,16 @@
         <v>12.08657419354877</v>
       </c>
       <c r="G1645" t="n">
-        <v>-18.88318118193492</v>
+        <v>-18.50190241678128</v>
       </c>
       <c r="H1645" t="n">
-        <v>13.27677003676729</v>
+        <v>13.51248951683292</v>
       </c>
       <c r="I1645" t="n">
-        <v>-6.937920437061593</v>
+        <v>-5.082388315441528</v>
       </c>
       <c r="J1645" t="n">
-        <v>14.29460345014708</v>
+        <v>14.2385710370347</v>
       </c>
     </row>
     <row r="1646">
@@ -52957,16 +52957,16 @@
         <v>12.08672419354878</v>
       </c>
       <c r="G1646" t="n">
-        <v>-19.1329856986585</v>
+        <v>-18.80397774048874</v>
       </c>
       <c r="H1646" t="n">
-        <v>13.26876392431734</v>
+        <v>13.5073746732102</v>
       </c>
       <c r="I1646" t="n">
-        <v>-7.057721754759374</v>
+        <v>-5.313443624294253</v>
       </c>
       <c r="J1646" t="n">
-        <v>14.27171452340089</v>
+        <v>14.21913843288732</v>
       </c>
     </row>
     <row r="1647">
@@ -52989,16 +52989,16 @@
         <v>12.08687419354878</v>
       </c>
       <c r="G1647" t="n">
-        <v>-19.39513741687356</v>
+        <v>-19.11141611688571</v>
       </c>
       <c r="H1647" t="n">
-        <v>13.26169488494531</v>
+        <v>13.50288700945656</v>
       </c>
       <c r="I1647" t="n">
-        <v>-7.183240333614344</v>
+        <v>-5.551807707269722</v>
       </c>
       <c r="J1647" t="n">
-        <v>14.24923534510235</v>
+        <v>14.20011808058198</v>
       </c>
     </row>
     <row r="1648">
@@ -53021,16 +53021,16 @@
         <v>12.08702419354877</v>
       </c>
       <c r="G1648" t="n">
-        <v>-19.67008564539162</v>
+        <v>-19.42418541029594</v>
       </c>
       <c r="H1648" t="n">
-        <v>13.25559548826955</v>
+        <v>13.49904670378733</v>
       </c>
       <c r="I1648" t="n">
-        <v>-7.315094811321535</v>
+        <v>-5.797430762474097</v>
       </c>
       <c r="J1648" t="n">
-        <v>14.22721025218626</v>
+        <v>14.18154082059099</v>
       </c>
     </row>
     <row r="1649">
@@ -53053,16 +53053,16 @@
         <v>12.08717419354877</v>
       </c>
       <c r="G1649" t="n">
-        <v>-19.95827969302417</v>
+        <v>-19.74225348504314</v>
       </c>
       <c r="H1649" t="n">
-        <v>13.25049830390841</v>
+        <v>13.49587393441784</v>
       </c>
       <c r="I1649" t="n">
-        <v>-7.453903825575973</v>
+        <v>-6.050262988013542</v>
       </c>
       <c r="J1649" t="n">
-        <v>14.20568358158743</v>
+        <v>14.16343749338667</v>
       </c>
     </row>
     <row r="1650">
@@ -53085,16 +53085,16 @@
         <v>12.08732419354877</v>
       </c>
       <c r="G1650" t="n">
-        <v>-20.26016886858269</v>
+        <v>-20.06558820545104</v>
       </c>
       <c r="H1650" t="n">
-        <v>13.24643590148022</v>
+        <v>13.49338887956343</v>
       </c>
       <c r="I1650" t="n">
-        <v>-7.600286014072691</v>
+        <v>-6.31025458199422</v>
       </c>
       <c r="J1650" t="n">
-        <v>14.18469967024066</v>
+        <v>14.14583893944133</v>
       </c>
     </row>
     <row r="1651">
@@ -53117,16 +53117,16 @@
         <v>12.08747419354877</v>
       </c>
       <c r="G1651" t="n">
-        <v>-20.57620248087869</v>
+        <v>-20.39415743584334</v>
       </c>
       <c r="H1651" t="n">
-        <v>13.24344085060336</v>
+        <v>13.49161171743946</v>
       </c>
       <c r="I1651" t="n">
-        <v>-7.754860014506722</v>
+        <v>-6.577355742522294</v>
       </c>
       <c r="J1651" t="n">
-        <v>14.16430285508077</v>
+        <v>14.12877599922726</v>
       </c>
     </row>
     <row r="1652">
@@ -53149,16 +53149,16 @@
         <v>12.08762419354877</v>
       </c>
       <c r="G1652" t="n">
-        <v>-20.90682983872364</v>
+        <v>-20.72792904054378</v>
       </c>
       <c r="H1652" t="n">
-        <v>13.24154572089615</v>
+        <v>13.49056262626123</v>
       </c>
       <c r="I1652" t="n">
-        <v>-7.918244464573094</v>
+        <v>-6.851516667703931</v>
       </c>
       <c r="J1652" t="n">
-        <v>14.14453747304255</v>
+        <v>14.11227951321679</v>
       </c>
     </row>
     <row r="1653">
@@ -53181,16 +53181,16 @@
         <v>12.08777419354877</v>
       </c>
       <c r="G1653" t="n">
-        <v>-21.25250025092906</v>
+        <v>-21.06687088387608</v>
       </c>
       <c r="H1653" t="n">
-        <v>13.24078308197695</v>
+        <v>13.49026178424412</v>
       </c>
       <c r="I1653" t="n">
-        <v>-8.091058001966838</v>
+        <v>-7.13268755564529</v>
       </c>
       <c r="J1653" t="n">
-        <v>14.12544786106081</v>
+        <v>14.09638032188221</v>
       </c>
     </row>
     <row r="1654">
@@ -53213,16 +53213,16 @@
         <v>12.08792419354877</v>
       </c>
       <c r="G1654" t="n">
-        <v>-21.61366302630643</v>
+        <v>-21.41095083016395</v>
       </c>
       <c r="H1654" t="n">
-        <v>13.24118550346412</v>
+        <v>13.49072936960343</v>
       </c>
       <c r="I1654" t="n">
-        <v>-8.273919264382981</v>
+        <v>-7.420818604452535</v>
       </c>
       <c r="J1654" t="n">
-        <v>14.10707835607036</v>
+        <v>14.08110926569584</v>
       </c>
     </row>
     <row r="1655">
@@ -53245,16 +53245,16 @@
         <v>12.08807419354877</v>
       </c>
       <c r="G1655" t="n">
-        <v>-21.99076747366724</v>
+        <v>-21.76013674373112</v>
       </c>
       <c r="H1655" t="n">
-        <v>13.242785554976</v>
+        <v>13.49198556055452</v>
       </c>
       <c r="I1655" t="n">
-        <v>-8.467446889516557</v>
+        <v>-7.71586001223183</v>
       </c>
       <c r="J1655" t="n">
-        <v>14.08947329500601</v>
+        <v>14.06649718512999</v>
       </c>
     </row>
     <row r="1656">
@@ -53277,16 +53277,16 @@
         <v>12.08822419354877</v>
       </c>
       <c r="G1656" t="n">
-        <v>-22.38426290182299</v>
+        <v>-22.11439648890132</v>
       </c>
       <c r="H1656" t="n">
-        <v>13.24561580613092</v>
+        <v>13.49405053531271</v>
       </c>
       <c r="I1656" t="n">
-        <v>-8.672259515062597</v>
+        <v>-8.017761977089339</v>
       </c>
       <c r="J1656" t="n">
-        <v>14.07267701480256</v>
+        <v>14.05257492065696</v>
       </c>
     </row>
     <row r="1657">
@@ -53312,13 +53312,13 @@
         <v>-22.7875</v>
       </c>
       <c r="H1657" t="n">
-        <v>13.24237701612938</v>
+        <v>13.49291088709703</v>
       </c>
       <c r="I1657" t="n">
-        <v>-8.88897577871613</v>
+        <v>-8.326474697131225</v>
       </c>
       <c r="J1657" t="n">
-        <v>14.05673385239482</v>
+        <v>14.03937331274907</v>
       </c>
     </row>
     <row r="1658">
@@ -53344,13 +53344,13 @@
         <v>-23.175</v>
       </c>
       <c r="H1658" t="n">
-        <v>13.23900201612938</v>
+        <v>13.48953588709704</v>
       </c>
       <c r="I1658" t="n">
-        <v>-9.118214318172187</v>
+        <v>-8.641948370463652</v>
       </c>
       <c r="J1658" t="n">
-        <v>14.04168814471758</v>
+        <v>14.02692320187861</v>
       </c>
     </row>
     <row r="1659">
@@ -53376,13 +53376,13 @@
         <v>-23.5625</v>
       </c>
       <c r="H1659" t="n">
-        <v>13.23562701612938</v>
+        <v>13.48616088709704</v>
       </c>
       <c r="I1659" t="n">
-        <v>-9.360593771125799</v>
+        <v>-8.964133195192781</v>
       </c>
       <c r="J1659" t="n">
-        <v>14.02758422870566</v>
+        <v>14.01525542851791</v>
       </c>
     </row>
     <row r="1660">
@@ -53408,13 +53408,13 @@
         <v>-23.95</v>
       </c>
       <c r="H1660" t="n">
-        <v>13.23225201612938</v>
+        <v>13.48278588709704</v>
       </c>
       <c r="I1660" t="n">
-        <v>-9.616732775271988</v>
+        <v>-9.292979369424774</v>
       </c>
       <c r="J1660" t="n">
-        <v>14.01446644129387</v>
+        <v>14.00440083313928</v>
       </c>
     </row>
     <row r="1661">
@@ -53440,13 +53440,13 @@
         <v>-24.3375</v>
       </c>
       <c r="H1661" t="n">
-        <v>13.22887701612939</v>
+        <v>13.47941088709704</v>
       </c>
       <c r="I1661" t="n">
-        <v>-9.887249968305801</v>
+        <v>-9.628437091265802</v>
       </c>
       <c r="J1661" t="n">
-        <v>14.00237911941701</v>
+        <v>13.99439025621501</v>
       </c>
     </row>
     <row r="1662">
@@ -53472,13 +53472,13 @@
         <v>-24.725</v>
       </c>
       <c r="H1662" t="n">
-        <v>13.22550201612939</v>
+        <v>13.47603588709704</v>
       </c>
       <c r="I1662" t="n">
-        <v>-10.17276398792225</v>
+        <v>-9.97045655882202</v>
       </c>
       <c r="J1662" t="n">
-        <v>13.99136660000988</v>
+        <v>13.98525453821741</v>
       </c>
     </row>
     <row r="1663">
@@ -53504,13 +53504,13 @@
         <v>-25.1125</v>
       </c>
       <c r="H1663" t="n">
-        <v>13.22212701612939</v>
+        <v>13.47266088709704</v>
       </c>
       <c r="I1663" t="n">
-        <v>-10.47389347181638</v>
+        <v>-10.3189879701996</v>
       </c>
       <c r="J1663" t="n">
-        <v>13.9814732200073</v>
+        <v>13.97702451961881</v>
       </c>
     </row>
     <row r="1664">
@@ -53536,13 +53536,13 @@
         <v>-25.5</v>
       </c>
       <c r="H1664" t="n">
-        <v>13.21875201612939</v>
+        <v>13.46928588709704</v>
       </c>
       <c r="I1664" t="n">
-        <v>-10.79125705768322</v>
+        <v>-10.67398152350469</v>
       </c>
       <c r="J1664" t="n">
-        <v>13.97274331634406</v>
+        <v>13.9697310408915</v>
       </c>
     </row>
     <row r="1665">
@@ -53562,13 +53562,13 @@
         <v>-25.8875</v>
       </c>
       <c r="H1665" t="n">
-        <v>13.21537701612939</v>
+        <v>13.46591088709704</v>
       </c>
       <c r="I1665" t="n">
-        <v>-11.12547338321778</v>
+        <v>-11.03538741684347</v>
       </c>
       <c r="J1665" t="n">
-        <v>13.96522122595498</v>
+        <v>13.9634049425078</v>
       </c>
     </row>
     <row r="1666">
@@ -53588,13 +53588,13 @@
         <v>-26.275</v>
       </c>
       <c r="H1666" t="n">
-        <v>13.21200201612939</v>
+        <v>13.46253588709705</v>
       </c>
       <c r="I1666" t="n">
-        <v>-11.47716108611512</v>
+        <v>-11.4031558483221</v>
       </c>
       <c r="J1666" t="n">
-        <v>13.95895128577486</v>
+        <v>13.95807706494</v>
       </c>
     </row>
     <row r="1667">
@@ -53614,13 +53614,13 @@
         <v>-26.6625</v>
       </c>
       <c r="H1667" t="n">
-        <v>13.20862701612939</v>
+        <v>13.45916088709705</v>
       </c>
       <c r="I1667" t="n">
-        <v>-11.84693880407026</v>
+        <v>-11.77723701604674</v>
       </c>
       <c r="J1667" t="n">
-        <v>13.9539778327385</v>
+        <v>13.95377824866043</v>
       </c>
     </row>
     <row r="1668">
@@ -53640,13 +53640,13 @@
         <v>-27.05</v>
       </c>
       <c r="H1668" t="n">
-        <v>13.20525201612939</v>
+        <v>13.45578588709705</v>
       </c>
       <c r="I1668" t="n">
-        <v>-12.23542517477822</v>
+        <v>-12.15758111812355</v>
       </c>
       <c r="J1668" t="n">
-        <v>13.95034520378071</v>
+        <v>13.95053933414139</v>
       </c>
     </row>
     <row r="1669">
@@ -53666,13 +53666,13 @@
         <v>-27.4375</v>
       </c>
       <c r="H1669" t="n">
-        <v>13.2018770161294</v>
+        <v>13.45241088709705</v>
       </c>
       <c r="I1669" t="n">
-        <v>-12.64323883593404</v>
+        <v>-12.5441383526587</v>
       </c>
       <c r="J1669" t="n">
-        <v>13.9480977358363</v>
+        <v>13.9483911618552</v>
       </c>
     </row>
     <row r="1670">
@@ -53692,13 +53692,13 @@
         <v>-27.825</v>
       </c>
       <c r="H1670" t="n">
-        <v>13.1985020161294</v>
+        <v>13.44903588709705</v>
       </c>
       <c r="I1670" t="n">
-        <v>-13.07099842523274</v>
+        <v>-12.93685891775834</v>
       </c>
       <c r="J1670" t="n">
-        <v>13.94727976584007</v>
+        <v>13.94736457227414</v>
       </c>
     </row>
     <row r="1671">
@@ -53718,7 +53718,7 @@
         <v>-28.2125</v>
       </c>
       <c r="H1671" t="n">
-        <v>13.1951270161294</v>
+        <v>13.44566088709705</v>
       </c>
       <c r="I1671" t="n">
         <v>-13.73428571428571</v>
@@ -53744,7 +53744,7 @@
         <v>-28.6</v>
       </c>
       <c r="H1672" t="n">
-        <v>13.1917520161294</v>
+        <v>13.44228588709705</v>
       </c>
       <c r="I1672" t="n">
         <v>-14.16857142857143</v>
@@ -53770,7 +53770,7 @@
         <v>-28.9875</v>
       </c>
       <c r="H1673" t="n">
-        <v>13.1883770161294</v>
+        <v>13.43891088709705</v>
       </c>
       <c r="I1673" t="n">
         <v>-14.60285714285714</v>
@@ -53796,7 +53796,7 @@
         <v>-29.375</v>
       </c>
       <c r="H1674" t="n">
-        <v>13.1850020161294</v>
+        <v>13.43553588709706</v>
       </c>
       <c r="I1674" t="n">
         <v>-15.03714285714286</v>
@@ -53822,7 +53822,7 @@
         <v>-29.7625</v>
       </c>
       <c r="H1675" t="n">
-        <v>13.1816270161294</v>
+        <v>13.43216088709706</v>
       </c>
       <c r="I1675" t="n">
         <v>-15.47142857142857</v>
@@ -53848,7 +53848,7 @@
         <v>-30.15</v>
       </c>
       <c r="H1676" t="n">
-        <v>13.1782520161294</v>
+        <v>13.42878588709706</v>
       </c>
       <c r="I1676" t="n">
         <v>-15.90571428571429</v>
@@ -53874,7 +53874,7 @@
         <v>-30.5375</v>
       </c>
       <c r="H1677" t="n">
-        <v>13.17487701612941</v>
+        <v>13.42541088709706</v>
       </c>
       <c r="I1677" t="n">
         <v>-16.34</v>
@@ -53900,7 +53900,7 @@
         <v>-30.925</v>
       </c>
       <c r="H1678" t="n">
-        <v>13.17150201612941</v>
+        <v>13.42203588709706</v>
       </c>
       <c r="I1678" t="n">
         <v>-16.77428571428571</v>
@@ -53926,7 +53926,7 @@
         <v>-31.3125</v>
       </c>
       <c r="H1679" t="n">
-        <v>13.16812701612941</v>
+        <v>13.41866088709706</v>
       </c>
       <c r="I1679" t="n">
         <v>-17.20857142857143</v>
@@ -53952,7 +53952,7 @@
         <v>-31.7</v>
       </c>
       <c r="H1680" t="n">
-        <v>13.16475201612941</v>
+        <v>13.41528588709706</v>
       </c>
       <c r="I1680" t="n">
         <v>-17.64285714285714</v>
@@ -53978,7 +53978,7 @@
         <v>-32.08750000000001</v>
       </c>
       <c r="H1681" t="n">
-        <v>13.16137701612941</v>
+        <v>13.41191088709706</v>
       </c>
       <c r="I1681" t="n">
         <v>-18.07714285714286</v>
@@ -54004,7 +54004,7 @@
         <v>-32.475</v>
       </c>
       <c r="H1682" t="n">
-        <v>13.15800201612941</v>
+        <v>13.40853588709706</v>
       </c>
       <c r="I1682" t="n">
         <v>-18.51142857142857</v>
@@ -54030,7 +54030,7 @@
         <v>-32.8625</v>
       </c>
       <c r="H1683" t="n">
-        <v>13.15462701612941</v>
+        <v>13.40516088709706</v>
       </c>
       <c r="I1683" t="n">
         <v>-18.94571428571428</v>
@@ -54056,7 +54056,7 @@
         <v>-33.25</v>
       </c>
       <c r="H1684" t="n">
-        <v>13.15125201612941</v>
+        <v>13.40178588709707</v>
       </c>
       <c r="I1684" t="n">
         <v>-19.38</v>
@@ -54082,7 +54082,7 @@
         <v>-33.6375</v>
       </c>
       <c r="H1685" t="n">
-        <v>13.14787701612942</v>
+        <v>13.39841088709707</v>
       </c>
       <c r="I1685" t="n">
         <v>-19.81428571428571</v>
@@ -54108,7 +54108,7 @@
         <v>-34.02500000000001</v>
       </c>
       <c r="H1686" t="n">
-        <v>13.14450201612942</v>
+        <v>13.39503588709707</v>
       </c>
       <c r="I1686" t="n">
         <v>-20.24857142857143</v>
@@ -54134,7 +54134,7 @@
         <v>-34.41250000000001</v>
       </c>
       <c r="H1687" t="n">
-        <v>13.14112701612942</v>
+        <v>13.39166088709707</v>
       </c>
       <c r="I1687" t="n">
         <v>-20.68285714285714</v>
@@ -54160,7 +54160,7 @@
         <v>-34.8</v>
       </c>
       <c r="H1688" t="n">
-        <v>13.13775201612942</v>
+        <v>13.38828588709707</v>
       </c>
       <c r="I1688" t="n">
         <v>-21.11714285714286</v>
@@ -54186,7 +54186,7 @@
         <v>-35.1875</v>
       </c>
       <c r="H1689" t="n">
-        <v>13.13437701612942</v>
+        <v>13.38491088709707</v>
       </c>
       <c r="I1689" t="n">
         <v>-21.55142857142857</v>
@@ -54212,7 +54212,7 @@
         <v>-35.575</v>
       </c>
       <c r="H1690" t="n">
-        <v>13.13100201612942</v>
+        <v>13.38153588709707</v>
       </c>
       <c r="I1690" t="n">
         <v>-21.98571428571428</v>
@@ -54238,7 +54238,7 @@
         <v>-35.96250000000001</v>
       </c>
       <c r="H1691" t="n">
-        <v>13.12762701612942</v>
+        <v>13.37816088709707</v>
       </c>
       <c r="I1691" t="n">
         <v>-22.42</v>
@@ -54264,7 +54264,7 @@
         <v>-36.35000000000001</v>
       </c>
       <c r="H1692" t="n">
-        <v>13.12425201612942</v>
+        <v>13.37478588709708</v>
       </c>
       <c r="I1692" t="n">
         <v>-22.85428571428571</v>
@@ -54290,7 +54290,7 @@
         <v>-36.7375</v>
       </c>
       <c r="H1693" t="n">
-        <v>13.12087701612943</v>
+        <v>13.37141088709708</v>
       </c>
       <c r="I1693" t="n">
         <v>-23.28857142857143</v>
@@ -54316,7 +54316,7 @@
         <v>-37.12500000000001</v>
       </c>
       <c r="H1694" t="n">
-        <v>13.11750201612943</v>
+        <v>13.36803588709708</v>
       </c>
       <c r="I1694" t="n">
         <v>-23.72285714285714</v>
@@ -54342,7 +54342,7 @@
         <v>-37.5125</v>
       </c>
       <c r="H1695" t="n">
-        <v>13.11412701612943</v>
+        <v>13.36466088709708</v>
       </c>
       <c r="I1695" t="n">
         <v>-24.15714285714285</v>
@@ -54368,7 +54368,7 @@
         <v>-37.90000000000001</v>
       </c>
       <c r="H1696" t="n">
-        <v>13.11075201612943</v>
+        <v>13.36128588709708</v>
       </c>
       <c r="I1696" t="n">
         <v>-24.59142857142857</v>
@@ -54394,7 +54394,7 @@
         <v>-38.28750000000001</v>
       </c>
       <c r="H1697" t="n">
-        <v>13.10737701612943</v>
+        <v>13.35791088709708</v>
       </c>
       <c r="I1697" t="n">
         <v>-25.02571428571428</v>
@@ -54420,7 +54420,7 @@
         <v>-38.675</v>
       </c>
       <c r="H1698" t="n">
-        <v>13.10400201612943</v>
+        <v>13.35453588709708</v>
       </c>
       <c r="I1698" t="n">
         <v>-25.46</v>
@@ -54446,7 +54446,7 @@
         <v>-39.06250000000001</v>
       </c>
       <c r="H1699" t="n">
-        <v>13.10062701612943</v>
+        <v>13.35116088709708</v>
       </c>
       <c r="I1699" t="n">
         <v>-25.89428571428571</v>
@@ -54472,7 +54472,7 @@
         <v>-39.45</v>
       </c>
       <c r="H1700" t="n">
-        <v>13.09725201612943</v>
+        <v>13.34778588709709</v>
       </c>
       <c r="I1700" t="n">
         <v>-26.32857142857143</v>
@@ -54498,7 +54498,7 @@
         <v>-39.83750000000001</v>
       </c>
       <c r="H1701" t="n">
-        <v>13.09387701612943</v>
+        <v>13.34441088709709</v>
       </c>
       <c r="I1701" t="n">
         <v>-26.76285714285714</v>
@@ -54524,7 +54524,7 @@
         <v>-40.22500000000001</v>
       </c>
       <c r="H1702" t="n">
-        <v>13.09050201612944</v>
+        <v>13.34103588709709</v>
       </c>
       <c r="I1702" t="n">
         <v>-27.19714285714285</v>
@@ -54550,7 +54550,7 @@
         <v>-40.61250000000001</v>
       </c>
       <c r="H1703" t="n">
-        <v>13.08712701612944</v>
+        <v>13.33766088709709</v>
       </c>
       <c r="I1703" t="n">
         <v>-27.63142857142857</v>
@@ -54576,7 +54576,7 @@
         <v>-41.00000000000001</v>
       </c>
       <c r="H1704" t="n">
-        <v>13.08375201612944</v>
+        <v>13.33428588709709</v>
       </c>
       <c r="I1704" t="n">
         <v>-28.06571428571428</v>
@@ -54602,7 +54602,7 @@
         <v>-41.3875</v>
       </c>
       <c r="H1705" t="n">
-        <v>13.08037701612944</v>
+        <v>13.33091088709709</v>
       </c>
       <c r="I1705" t="n">
         <v>-28.5</v>
@@ -54628,7 +54628,7 @@
         <v>-41.77500000000001</v>
       </c>
       <c r="H1706" t="n">
-        <v>13.07700201612944</v>
+        <v>13.32753588709709</v>
       </c>
       <c r="I1706" t="n">
         <v>-28.93428571428571</v>
@@ -54654,7 +54654,7 @@
         <v>-42.16250000000001</v>
       </c>
       <c r="H1707" t="n">
-        <v>13.07362701612944</v>
+        <v>13.32416088709709</v>
       </c>
       <c r="I1707" t="n">
         <v>-29.36857142857142</v>
@@ -54680,7 +54680,7 @@
         <v>-42.55000000000001</v>
       </c>
       <c r="H1708" t="n">
-        <v>13.07025201612944</v>
+        <v>13.3207858870971</v>
       </c>
       <c r="I1708" t="n">
         <v>-29.80285714285714</v>
@@ -54706,7 +54706,7 @@
         <v>-42.93750000000001</v>
       </c>
       <c r="H1709" t="n">
-        <v>13.06687701612944</v>
+        <v>13.3174108870971</v>
       </c>
       <c r="I1709" t="n">
         <v>-30.23714285714285</v>
@@ -54732,7 +54732,7 @@
         <v>-43.32500000000001</v>
       </c>
       <c r="H1710" t="n">
-        <v>13.06350201612945</v>
+        <v>13.3140358870971</v>
       </c>
       <c r="I1710" t="n">
         <v>-30.67142857142857</v>
@@ -54758,7 +54758,7 @@
         <v>-43.71250000000001</v>
       </c>
       <c r="H1711" t="n">
-        <v>13.06012701612945</v>
+        <v>13.3106608870971</v>
       </c>
       <c r="I1711" t="n">
         <v>-31.10571428571428</v>
@@ -54778,7 +54778,7 @@
         <v>-44.10000000000001</v>
       </c>
       <c r="H1712" t="n">
-        <v>13.05675201612945</v>
+        <v>13.3072858870971</v>
       </c>
       <c r="I1712" t="n">
         <v>-31.54</v>
@@ -54798,7 +54798,7 @@
         <v>-44.48750000000001</v>
       </c>
       <c r="H1713" t="n">
-        <v>13.05337701612945</v>
+        <v>13.3039108870971</v>
       </c>
       <c r="I1713" t="n">
         <v>-31.97428571428571</v>
@@ -54809,16 +54809,16 @@
     </row>
     <row r="1714">
       <c r="C1714" t="n">
-        <v>-25.4788743866836</v>
+        <v>-25.44987430548393</v>
       </c>
       <c r="D1714" t="n">
-        <v>15.46350746665862</v>
+        <v>15.46314069752911</v>
       </c>
       <c r="G1714" t="n">
         <v>-44.87500000000001</v>
       </c>
       <c r="H1714" t="n">
-        <v>13.05000201612945</v>
+        <v>13.3005358870971</v>
       </c>
       <c r="I1714" t="n">
         <v>-32.40857142857142</v>
@@ -54829,16 +54829,16 @@
     </row>
     <row r="1715">
       <c r="C1715" t="n">
-        <v>-25.89459994737171</v>
+        <v>-25.82576633536578</v>
       </c>
       <c r="D1715" t="n">
-        <v>15.46168075256124</v>
+        <v>15.46017228247111</v>
       </c>
       <c r="G1715" t="n">
         <v>-45.26250000000001</v>
       </c>
       <c r="H1715" t="n">
-        <v>13.04662701612945</v>
+        <v>13.2971608870971</v>
       </c>
       <c r="I1715" t="n">
         <v>-32.84285714285714</v>
@@ -54849,16 +54849,16 @@
     </row>
     <row r="1716">
       <c r="C1716" t="n">
-        <v>-26.29065747196033</v>
+        <v>-26.17053323250267</v>
       </c>
       <c r="D1716" t="n">
-        <v>15.45879625572237</v>
+        <v>15.45533761196885</v>
       </c>
       <c r="G1716" t="n">
         <v>-45.65000000000001</v>
       </c>
       <c r="H1716" t="n">
-        <v>13.04325201612945</v>
+        <v>13.2937858870971</v>
       </c>
       <c r="I1716" t="n">
         <v>-33.27714285714285</v>
@@ -54869,16 +54869,16 @@
     </row>
     <row r="1717">
       <c r="C1717" t="n">
-        <v>-26.66767060748832</v>
+        <v>-26.48417499689461</v>
       </c>
       <c r="D1717" t="n">
-        <v>15.45488751701366</v>
+        <v>15.44863668602232</v>
       </c>
       <c r="G1717" t="n">
         <v>-46.03750000000001</v>
       </c>
       <c r="H1717" t="n">
-        <v>13.03987701612945</v>
+        <v>13.29041088709711</v>
       </c>
       <c r="I1717" t="n">
         <v>-33.71142857142857</v>
@@ -54889,16 +54889,16 @@
     </row>
     <row r="1718">
       <c r="C1718" t="n">
-        <v>-27.02626300099456</v>
+        <v>-26.76669162854159</v>
       </c>
       <c r="D1718" t="n">
-        <v>15.44998807730676</v>
+        <v>15.44006950463152</v>
       </c>
       <c r="G1718" t="n">
         <v>-46.42500000000001</v>
       </c>
       <c r="H1718" t="n">
-        <v>13.03650201612946</v>
+        <v>13.28703588709711</v>
       </c>
       <c r="I1718" t="n">
         <v>-34.14571428571428</v>
@@ -54909,16 +54909,16 @@
     </row>
     <row r="1719">
       <c r="C1719" t="n">
-        <v>-27.36705829951791</v>
+        <v>-27.01808312744362</v>
       </c>
       <c r="D1719" t="n">
-        <v>15.44413147747332</v>
+        <v>15.42963606779646</v>
       </c>
       <c r="G1719" t="n">
         <v>-46.81250000000001</v>
       </c>
       <c r="H1719" t="n">
-        <v>13.03312701612946</v>
+        <v>13.28366088709711</v>
       </c>
       <c r="I1719" t="n">
         <v>-34.58</v>
@@ -54929,16 +54929,16 @@
     </row>
     <row r="1720">
       <c r="C1720" t="n">
-        <v>-27.69068015009724</v>
+        <v>-27.23834949360071</v>
       </c>
       <c r="D1720" t="n">
-        <v>15.437351258385</v>
+        <v>15.41733637551713</v>
       </c>
       <c r="G1720" t="n">
         <v>-47.20000000000001</v>
       </c>
       <c r="H1720" t="n">
-        <v>13.02975201612946</v>
+        <v>13.28028588709711</v>
       </c>
       <c r="I1720" t="n">
         <v>-35.01428571428571</v>
@@ -54949,16 +54949,16 @@
     </row>
     <row r="1721">
       <c r="C1721" t="n">
-        <v>-27.99775219977141</v>
+        <v>-27.42749072701283</v>
       </c>
       <c r="D1721" t="n">
-        <v>15.42968096091345</v>
+        <v>15.40317042779354</v>
       </c>
       <c r="G1721" t="n">
         <v>-47.58750000000001</v>
       </c>
       <c r="H1721" t="n">
-        <v>13.02637701612946</v>
+        <v>13.27691088709711</v>
       </c>
       <c r="I1721" t="n">
         <v>-35.44857142857143</v>
@@ -54969,16 +54969,16 @@
     </row>
     <row r="1722">
       <c r="C1722" t="n">
-        <v>-28.28889809557931</v>
+        <v>-27.58550682768001</v>
       </c>
       <c r="D1722" t="n">
-        <v>15.42115412593033</v>
+        <v>15.38713822462568</v>
       </c>
       <c r="G1722" t="n">
         <v>-47.97500000000001</v>
       </c>
       <c r="H1722" t="n">
-        <v>13.02300201612946</v>
+        <v>13.27353588709711</v>
       </c>
       <c r="I1722" t="n">
         <v>-35.88285714285713</v>
@@ -54989,16 +54989,16 @@
     </row>
     <row r="1723">
       <c r="C1723" t="n">
-        <v>-28.56474148455978</v>
+        <v>-27.71239779560222</v>
       </c>
       <c r="D1723" t="n">
-        <v>15.4118042943073</v>
+        <v>15.36923976601355</v>
       </c>
       <c r="G1723" t="n">
         <v>-48.36250000000001</v>
       </c>
       <c r="H1723" t="n">
-        <v>13.01962701612946</v>
+        <v>13.27016088709711</v>
       </c>
       <c r="I1723" t="n">
         <v>-36.31714285714285</v>
@@ -55009,16 +55009,16 @@
     </row>
     <row r="1724">
       <c r="C1724" t="n">
-        <v>-28.82590601375171</v>
+        <v>-27.80816363077949</v>
       </c>
       <c r="D1724" t="n">
-        <v>15.40166500691599</v>
+        <v>15.34947505195716</v>
       </c>
       <c r="G1724" t="n">
         <v>-48.75000000000001</v>
       </c>
       <c r="H1724" t="n">
-        <v>13.01625201612946</v>
+        <v>13.26678588709711</v>
       </c>
       <c r="I1724" t="n">
         <v>-36.75142857142856</v>
@@ -55029,16 +55029,16 @@
     </row>
     <row r="1725">
       <c r="C1725" t="n">
-        <v>-29.07301533019395</v>
+        <v>-27.8728043332118</v>
       </c>
       <c r="D1725" t="n">
-        <v>15.39076980462808</v>
+        <v>15.3278440824565</v>
       </c>
       <c r="G1725" t="n">
         <v>-49.13750000000001</v>
       </c>
       <c r="H1725" t="n">
-        <v>13.01287701612946</v>
+        <v>13.26341088709712</v>
       </c>
       <c r="I1725" t="n">
         <v>-37.18571428571428</v>
@@ -55049,16 +55049,16 @@
     </row>
     <row r="1726">
       <c r="C1726" t="n">
-        <v>-29.30669308092539</v>
+        <v>-27.90631990289916</v>
       </c>
       <c r="D1726" t="n">
-        <v>15.37915222831521</v>
+        <v>15.30434685751157</v>
       </c>
       <c r="G1726" t="n">
         <v>-49.52500000000001</v>
       </c>
       <c r="H1726" t="n">
-        <v>13.00950201612947</v>
+        <v>13.26003588709712</v>
       </c>
       <c r="I1726" t="n">
         <v>-37.61999999999999</v>
@@ -55069,16 +55069,16 @@
     </row>
     <row r="1727">
       <c r="C1727" t="n">
-        <v>-29.52756291298488</v>
+        <v>-27.91139428571429</v>
       </c>
       <c r="D1727" t="n">
-        <v>15.36684581884904</v>
+        <v>15.29201657142845</v>
       </c>
       <c r="G1727" t="n">
         <v>-49.91250000000001</v>
       </c>
       <c r="H1727" t="n">
-        <v>13.00612701612947</v>
+        <v>13.25666088709712</v>
       </c>
       <c r="I1727" t="n">
         <v>-38.05428571428571</v>
@@ -55089,10 +55089,10 @@
     </row>
     <row r="1728">
       <c r="C1728" t="n">
-        <v>-29.73624847341128</v>
+        <v>-27.9172209325851</v>
       </c>
       <c r="D1728" t="n">
-        <v>15.35388411710122</v>
+        <v>15.27747658226166</v>
       </c>
       <c r="I1728" t="n">
         <v>-38.48857142857142</v>
@@ -55103,10 +55103,10 @@
     </row>
     <row r="1729">
       <c r="C1729" t="n">
-        <v>-29.93337340924349</v>
+        <v>-27.93179284931052</v>
       </c>
       <c r="D1729" t="n">
-        <v>15.34030066394341</v>
+        <v>15.26261028960712</v>
       </c>
       <c r="I1729" t="n">
         <v>-38.92285714285714</v>
@@ -55117,10 +55117,10 @@
     </row>
     <row r="1730">
       <c r="C1730" t="n">
-        <v>-30.11956136752035</v>
+        <v>-27.95505875767118</v>
       </c>
       <c r="D1730" t="n">
-        <v>15.32612900024726</v>
+        <v>15.24744062962284</v>
       </c>
       <c r="I1730" t="n">
         <v>-39.35714285714285</v>
@@ -55131,10 +55131,10 @@
     </row>
     <row r="1731">
       <c r="C1731" t="n">
-        <v>-30.29543599528073</v>
+        <v>-27.98696737944764</v>
       </c>
       <c r="D1731" t="n">
-        <v>15.31140266688441</v>
+        <v>15.23199053846682</v>
       </c>
       <c r="I1731" t="n">
         <v>-39.79142857142857</v>
@@ -55145,10 +55145,10 @@
     </row>
     <row r="1732">
       <c r="C1732" t="n">
-        <v>-30.46162093956351</v>
+        <v>-28.02746743642052</v>
       </c>
       <c r="D1732" t="n">
-        <v>15.29615520472654</v>
+        <v>15.21628295229707</v>
       </c>
       <c r="I1732" t="n">
         <v>-40.22571428571428</v>
@@ -55159,10 +55159,10 @@
     </row>
     <row r="1733">
       <c r="C1733" t="n">
-        <v>-30.61873984740754</v>
+        <v>-28.07650765037038</v>
       </c>
       <c r="D1733" t="n">
-        <v>15.28042015464529</v>
+        <v>15.2003408072716</v>
       </c>
       <c r="I1733" t="n">
         <v>-40.66</v>
@@ -55173,10 +55173,10 @@
     </row>
     <row r="1734">
       <c r="C1734" t="n">
-        <v>-30.76741636585172</v>
+        <v>-28.13403674307785</v>
       </c>
       <c r="D1734" t="n">
-        <v>15.26423105751232</v>
+        <v>15.18418703954843</v>
       </c>
       <c r="I1734" t="n">
         <v>-41.0942857142857</v>
@@ -55187,10 +55187,10 @@
     </row>
     <row r="1735">
       <c r="C1735" t="n">
-        <v>-30.90827414193487</v>
+        <v>-28.20000343632352</v>
       </c>
       <c r="D1735" t="n">
-        <v>15.24762145419926</v>
+        <v>15.16784458528554</v>
       </c>
       <c r="I1735" t="n">
         <v>-41.52857142857142</v>
@@ -55201,10 +55201,10 @@
     </row>
     <row r="1736">
       <c r="C1736" t="n">
-        <v>-31.04193682269591</v>
+        <v>-28.27435645188796</v>
       </c>
       <c r="D1736" t="n">
-        <v>15.23062488557781</v>
+        <v>15.15133638064096</v>
       </c>
       <c r="I1736" t="n">
         <v>-41.96285714285713</v>
@@ -55215,10 +55215,10 @@
     </row>
     <row r="1737">
       <c r="C1737" t="n">
-        <v>-31.16902805517366</v>
+        <v>-28.35704451155179</v>
       </c>
       <c r="D1737" t="n">
-        <v>15.21327489251958</v>
+        <v>15.13468536177269</v>
       </c>
       <c r="I1737" t="n">
         <v>-42.39714285714285</v>
@@ -55229,10 +55229,10 @@
     </row>
     <row r="1738">
       <c r="C1738" t="n">
-        <v>-31.29017148640703</v>
+        <v>-28.44801633709559</v>
       </c>
       <c r="D1738" t="n">
-        <v>15.19560501589625</v>
+        <v>15.11791446483873</v>
       </c>
       <c r="I1738" t="n">
         <v>-42.83142857142856</v>
@@ -55243,10 +55243,10 @@
     </row>
     <row r="1739">
       <c r="C1739" t="n">
-        <v>-31.40599076343485</v>
+        <v>-28.54722065029996</v>
       </c>
       <c r="D1739" t="n">
-        <v>15.17764879657946</v>
+        <v>15.1010466259971</v>
       </c>
       <c r="I1739" t="n">
         <v>-43.26571428571428</v>
@@ -55257,10 +55257,10 @@
     </row>
     <row r="1740">
       <c r="C1740" t="n">
-        <v>-31.51710953329603</v>
+        <v>-28.65460617294549</v>
       </c>
       <c r="D1740" t="n">
-        <v>15.15943977544087</v>
+        <v>15.0841047814058</v>
       </c>
       <c r="I1740" t="n">
         <v>-43.69999999999999</v>
@@ -55271,10 +55271,10 @@
     </row>
     <row r="1741">
       <c r="C1741" t="n">
-        <v>-31.62415144302939</v>
+        <v>-28.77012162681278</v>
       </c>
       <c r="D1741" t="n">
-        <v>15.14101149335214</v>
+        <v>15.06711186722284</v>
       </c>
       <c r="I1741" t="n">
         <v>-44.13428571428571</v>
@@ -55285,10 +55285,10 @@
     </row>
     <row r="1742">
       <c r="C1742" t="n">
-        <v>-31.72774013967383</v>
+        <v>-28.89371573368242</v>
       </c>
       <c r="D1742" t="n">
-        <v>15.12239749118492</v>
+        <v>15.05009081960622</v>
       </c>
       <c r="I1742" t="n">
         <v>-44.56857142857142</v>
@@ -55299,10 +55299,10 @@
     </row>
     <row r="1743">
       <c r="C1743" t="n">
-        <v>-31.82849927026821</v>
+        <v>-29.02533721533501</v>
       </c>
       <c r="D1743" t="n">
-        <v>15.10363130981085</v>
+        <v>15.03306457471396</v>
       </c>
       <c r="I1743" t="n">
         <v>-45.00285714285714</v>
@@ -55313,10 +55313,10 @@
     </row>
     <row r="1744">
       <c r="C1744" t="n">
-        <v>-31.92705248185141</v>
+        <v>-29.16493479355114</v>
       </c>
       <c r="D1744" t="n">
-        <v>15.08474649010161</v>
+        <v>15.01605606870407</v>
       </c>
       <c r="I1744" t="n">
         <v>-45.43714285714285</v>
@@ -55327,10 +55327,10 @@
     </row>
     <row r="1745">
       <c r="C1745" t="n">
-        <v>-32.02402342146225</v>
+        <v>-29.31245719011139</v>
       </c>
       <c r="D1745" t="n">
-        <v>15.06577657292883</v>
+        <v>14.99908823773454</v>
       </c>
       <c r="I1745" t="n">
         <v>-45.87142857142857</v>
@@ -55341,10 +55341,10 @@
     </row>
     <row r="1746">
       <c r="C1746" t="n">
-        <v>-32.12003573613967</v>
+        <v>-29.46785312679638</v>
       </c>
       <c r="D1746" t="n">
-        <v>15.04675509916418</v>
+        <v>14.98218401796339</v>
       </c>
       <c r="I1746" t="n">
         <v>-46.30571428571427</v>
@@ -55355,10 +55355,10 @@
     </row>
     <row r="1747">
       <c r="C1747" t="n">
-        <v>-32.21571307292248</v>
+        <v>-29.6310713253867</v>
       </c>
       <c r="D1747" t="n">
-        <v>15.0277156096793</v>
+        <v>14.96536634554862</v>
       </c>
       <c r="I1747" t="n">
         <v>-46.73999999999999</v>
@@ -55369,10 +55369,10 @@
     </row>
     <row r="1748">
       <c r="C1748" t="n">
-        <v>-32.31167907884957</v>
+        <v>-29.80206050766293</v>
       </c>
       <c r="D1748" t="n">
-        <v>15.00869164534586</v>
+        <v>14.94865815664825</v>
       </c>
       <c r="I1748" t="n">
         <v>-47.1742857142857</v>
@@ -55383,10 +55383,10 @@
     </row>
     <row r="1749">
       <c r="C1749" t="n">
-        <v>-32.40855740095981</v>
+        <v>-29.98076939540568</v>
       </c>
       <c r="D1749" t="n">
-        <v>14.98971674703551</v>
+        <v>14.93208238742027</v>
       </c>
       <c r="I1749" t="n">
         <v>-47.60857142857142</v>
@@ -55397,10 +55397,10 @@
     </row>
     <row r="1750">
       <c r="C1750" t="n">
-        <v>-32.50697168629206</v>
+        <v>-30.16714671039553</v>
       </c>
       <c r="D1750" t="n">
-        <v>14.97082445561989</v>
+        <v>14.9156619740227</v>
       </c>
       <c r="I1750" t="n">
         <v>-48.04285714285713</v>
@@ -55411,10 +55411,10 @@
     </row>
     <row r="1751">
       <c r="C1751" t="n">
-        <v>-32.60754558188519</v>
+        <v>-30.36114117441308</v>
       </c>
       <c r="D1751" t="n">
-        <v>14.95204831197067</v>
+        <v>14.89941985261355</v>
       </c>
       <c r="I1751" t="n">
         <v>-48.47714285714285</v>
@@ -55425,10 +55425,10 @@
     </row>
     <row r="1752">
       <c r="C1752" t="n">
-        <v>-32.71090273477807</v>
+        <v>-30.56270150923892</v>
       </c>
       <c r="D1752" t="n">
-        <v>14.9334218569595</v>
+        <v>14.88337895935082</v>
       </c>
       <c r="I1752" t="n">
         <v>-48.91142857142856</v>
@@ -55439,10 +55439,10 @@
     </row>
     <row r="1753">
       <c r="C1753" t="n">
-        <v>-32.81766679200958</v>
+        <v>-30.77177643665366</v>
       </c>
       <c r="D1753" t="n">
-        <v>14.91497863145803</v>
+        <v>14.86756223039252</v>
       </c>
       <c r="I1753" t="n">
         <v>-49.34571428571428</v>
@@ -55453,10 +55453,10 @@
     </row>
     <row r="1754">
       <c r="C1754" t="n">
-        <v>-32.92846140061856</v>
+        <v>-30.98831467843788</v>
       </c>
       <c r="D1754" t="n">
-        <v>14.89675217633792</v>
+        <v>14.85199260189665</v>
       </c>
       <c r="I1754" t="n">
         <v>-49.77999999999999</v>
@@ -55467,210 +55467,210 @@
     </row>
     <row r="1755">
       <c r="C1755" t="n">
-        <v>-33.0439102076439</v>
+        <v>-31.21226495637218</v>
       </c>
       <c r="D1755" t="n">
-        <v>14.87877603247081</v>
+        <v>14.83669301002123</v>
       </c>
     </row>
     <row r="1756">
       <c r="C1756" t="n">
-        <v>-33.16463686012445</v>
+        <v>-31.44357599223715</v>
       </c>
       <c r="D1756" t="n">
-        <v>14.86108374072838</v>
+        <v>14.82168639092426</v>
       </c>
     </row>
     <row r="1757">
       <c r="C1757" t="n">
-        <v>-33.29126500509909</v>
+        <v>-31.68219650781339</v>
       </c>
       <c r="D1757" t="n">
-        <v>14.84370884198226</v>
+        <v>14.80699568076375</v>
       </c>
     </row>
     <row r="1758">
       <c r="C1758" t="n">
-        <v>-33.4244182896067</v>
+        <v>-31.92807522488148</v>
       </c>
       <c r="D1758" t="n">
-        <v>14.82668487710411</v>
+        <v>14.7926438156977</v>
       </c>
     </row>
     <row r="1759">
       <c r="C1759" t="n">
-        <v>-33.56472036068612</v>
+        <v>-32.18116086522204</v>
       </c>
       <c r="D1759" t="n">
-        <v>14.81004538696559</v>
+        <v>14.77865373188413</v>
       </c>
     </row>
     <row r="1760">
       <c r="C1760" t="n">
-        <v>-33.71279486537625</v>
+        <v>-32.44140215061564</v>
       </c>
       <c r="D1760" t="n">
-        <v>14.79382391243835</v>
+        <v>14.76504836548104</v>
       </c>
     </row>
     <row r="1761">
       <c r="C1761" t="n">
-        <v>-33.86926545071591</v>
+        <v>-32.70874780284289</v>
       </c>
       <c r="D1761" t="n">
-        <v>14.77805399439405</v>
+        <v>14.75185065264644</v>
       </c>
     </row>
     <row r="1762">
       <c r="C1762" t="n">
-        <v>-34.03475576374402</v>
+        <v>-32.98314654368438</v>
       </c>
       <c r="D1762" t="n">
-        <v>14.76276917370433</v>
+        <v>14.73908352953834</v>
       </c>
     </row>
     <row r="1763">
       <c r="C1763" t="n">
-        <v>-34.20988945149942</v>
+        <v>-33.2645470949207</v>
       </c>
       <c r="D1763" t="n">
-        <v>14.74800299124086</v>
+        <v>14.72676993231474</v>
       </c>
     </row>
     <row r="1764">
       <c r="C1764" t="n">
-        <v>-34.39529016102098</v>
+        <v>-33.55289817833245</v>
       </c>
       <c r="D1764" t="n">
-        <v>14.73378898787528</v>
+        <v>14.71493279713366</v>
       </c>
     </row>
     <row r="1765">
       <c r="C1765" t="n">
-        <v>-34.59158153934757</v>
+        <v>-33.84814851570022</v>
       </c>
       <c r="D1765" t="n">
-        <v>14.72016070447926</v>
+        <v>14.70359506015309</v>
       </c>
     </row>
     <row r="1766">
       <c r="C1766" t="n">
-        <v>-34.79938723351806</v>
+        <v>-34.15024682880461</v>
       </c>
       <c r="D1766" t="n">
-        <v>14.70715168192443</v>
+        <v>14.69277965753105</v>
       </c>
     </row>
     <row r="1767">
       <c r="C1767" t="n">
-        <v>-35.01933089057131</v>
+        <v>-34.4591418394262</v>
       </c>
       <c r="D1767" t="n">
-        <v>14.69479546108247</v>
+        <v>14.68250952542554</v>
       </c>
     </row>
     <row r="1768">
       <c r="C1768" t="n">
-        <v>-35.25203615754621</v>
+        <v>-34.77478226934561</v>
       </c>
       <c r="D1768" t="n">
-        <v>14.68312558282503</v>
+        <v>14.67280759999458</v>
       </c>
     </row>
     <row r="1769">
       <c r="C1769" t="n">
-        <v>-35.4981266814816</v>
+        <v>-35.0971168403434</v>
       </c>
       <c r="D1769" t="n">
-        <v>14.67217558802374</v>
+        <v>14.66369681739616</v>
       </c>
     </row>
     <row r="1770">
       <c r="C1770" t="n">
-        <v>-35.75822610941636</v>
+        <v>-35.4260942742002</v>
       </c>
       <c r="D1770" t="n">
-        <v>14.66197901755029</v>
+        <v>14.6552001137883</v>
       </c>
     </row>
     <row r="1771">
       <c r="C1771" t="n">
-        <v>-36.03295808838936</v>
+        <v>-35.76166329269659</v>
       </c>
       <c r="D1771" t="n">
-        <v>14.6525694122763</v>
+        <v>14.647340425329</v>
       </c>
     </row>
     <row r="1772">
       <c r="C1772" t="n">
-        <v>-36.32294626543946</v>
+        <v>-36.10377261761315</v>
       </c>
       <c r="D1772" t="n">
-        <v>14.64398031307345</v>
+        <v>14.64014068817628</v>
       </c>
     </row>
     <row r="1773">
       <c r="C1773" t="n">
-        <v>-36.62881428760553</v>
+        <v>-36.4523709707305</v>
       </c>
       <c r="D1773" t="n">
-        <v>14.63624526081337</v>
+        <v>14.63362383848813</v>
       </c>
     </row>
     <row r="1774">
       <c r="C1774" t="n">
-        <v>-36.95118580192645</v>
+        <v>-36.80740707382922</v>
       </c>
       <c r="D1774" t="n">
-        <v>14.62939779636774</v>
+        <v>14.62781281242258</v>
       </c>
     </row>
     <row r="1775">
       <c r="C1775" t="n">
-        <v>-37.29068445544108</v>
+        <v>-37.16882964868989</v>
       </c>
       <c r="D1775" t="n">
-        <v>14.6234714606082</v>
+        <v>14.62273054613761</v>
       </c>
     </row>
     <row r="1776">
       <c r="C1776" t="n">
-        <v>-37.64793389518827</v>
+        <v>-37.53658741709313</v>
       </c>
       <c r="D1776" t="n">
-        <v>14.61849979440639</v>
+        <v>14.61839997579125</v>
       </c>
     </row>
     <row r="1777">
       <c r="C1777" t="n">
-        <v>-38.02355776820692</v>
+        <v>-37.91062910081952</v>
       </c>
       <c r="D1777" t="n">
-        <v>14.614516338634</v>
+        <v>14.61484403754149</v>
       </c>
     </row>
     <row r="1778">
       <c r="C1778" t="n">
-        <v>-38.41817972153589</v>
+        <v>-38.29090342164967</v>
       </c>
       <c r="D1778" t="n">
-        <v>14.61155463416265</v>
+        <v>14.61208566754635</v>
       </c>
     </row>
     <row r="1779">
       <c r="C1779" t="n">
-        <v>-38.83242340221401</v>
+        <v>-38.67735910136415</v>
       </c>
       <c r="D1779" t="n">
-        <v>14.60964822186401</v>
+        <v>14.61014780196384</v>
       </c>
     </row>
     <row r="1780">
       <c r="C1780" t="n">
-        <v>-39.2669124572802</v>
+        <v>-39.06994486174357</v>
       </c>
       <c r="D1780" t="n">
-        <v>14.60883064260974</v>
+        <v>14.60905337695196</v>
       </c>
     </row>
     <row r="1781">

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -50455,10 +50455,10 @@
         <v>15.4883</v>
       </c>
       <c r="E1568" t="n">
-        <v>-8.73440694904694</v>
+        <v>-8.733216879271568</v>
       </c>
       <c r="F1568" t="n">
-        <v>12.52625980013514</v>
+        <v>12.5258192393437</v>
       </c>
       <c r="G1568" t="n">
         <v>-2.980000000000015</v>
@@ -50487,10 +50487,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1569" t="n">
-        <v>-9.078239614633254</v>
+        <v>-9.07612495543972</v>
       </c>
       <c r="F1569" t="n">
-        <v>12.52493509273983</v>
+        <v>12.52317182546315</v>
       </c>
       <c r="G1569" t="n">
         <v>-3.367500000000014</v>
@@ -50519,10 +50519,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1570" t="n">
-        <v>-9.39649799675896</v>
+        <v>-9.393724228504482</v>
       </c>
       <c r="F1570" t="n">
-        <v>12.52282587781408</v>
+        <v>12.51885775835837</v>
       </c>
       <c r="G1570" t="n">
         <v>-3.755000000000013</v>
@@ -50551,10 +50551,10 @@
         <v>15.488</v>
       </c>
       <c r="E1571" t="n">
-        <v>-9.689182095424062</v>
+        <v>-9.68601469846584</v>
       </c>
       <c r="F1571" t="n">
-        <v>12.51993215535789</v>
+        <v>12.51287703802935</v>
       </c>
       <c r="G1571" t="n">
         <v>-4.142500000000016</v>
@@ -50583,10 +50583,10 @@
         <v>15.488</v>
       </c>
       <c r="E1572" t="n">
-        <v>-9.956291910628558</v>
+        <v>-9.952996365323809</v>
       </c>
       <c r="F1572" t="n">
-        <v>12.51625392537127</v>
+        <v>12.50522966447609</v>
       </c>
       <c r="G1572" t="n">
         <v>-4.530000000000012</v>
@@ -50615,10 +50615,10 @@
         <v>15.4879</v>
       </c>
       <c r="E1573" t="n">
-        <v>-10.19782744237244</v>
+        <v>-10.19466922907838</v>
       </c>
       <c r="F1573" t="n">
-        <v>12.5117911878542</v>
+        <v>12.49591563769859</v>
       </c>
       <c r="G1573" t="n">
         <v>-4.917500000000015</v>
@@ -50647,10 +50647,10 @@
         <v>15.4877</v>
       </c>
       <c r="E1574" t="n">
-        <v>-10.41378869065572</v>
+        <v>-10.41103328972955</v>
       </c>
       <c r="F1574" t="n">
-        <v>12.50654394280671</v>
+        <v>12.48493495769685</v>
       </c>
       <c r="G1574" t="n">
         <v>-5.305000000000017</v>
@@ -50679,10 +50679,10 @@
         <v>15.4876</v>
       </c>
       <c r="E1575" t="n">
-        <v>-10.6041756554784</v>
+        <v>-10.60208854727733</v>
       </c>
       <c r="F1575" t="n">
-        <v>12.50051219022877</v>
+        <v>12.47228762447087</v>
       </c>
       <c r="G1575" t="n">
         <v>-5.692500000000013</v>
@@ -50711,10 +50711,10 @@
         <v>15.4875</v>
       </c>
       <c r="E1576" t="n">
-        <v>-10.76898833684047</v>
+        <v>-10.76783500172172</v>
       </c>
       <c r="F1576" t="n">
-        <v>12.4936959301204</v>
+        <v>12.45797363802065</v>
       </c>
       <c r="G1576" t="n">
         <v>-6.080000000000016</v>
@@ -50743,10 +50743,10 @@
         <v>15.4874</v>
       </c>
       <c r="E1577" t="n">
-        <v>-10.90822673474193</v>
+        <v>-10.9082726530627</v>
       </c>
       <c r="F1577" t="n">
-        <v>12.48609516248159</v>
+        <v>12.4419929983462</v>
       </c>
       <c r="G1577" t="n">
         <v>-6.467500000000019</v>
@@ -50775,10 +50775,10 @@
         <v>15.4873</v>
       </c>
       <c r="E1578" t="n">
-        <v>-11.02189084918278</v>
+        <v>-11.0234015013003</v>
       </c>
       <c r="F1578" t="n">
-        <v>12.47770988731234</v>
+        <v>12.42434570544751</v>
       </c>
       <c r="G1578" t="n">
         <v>-6.855000000000015</v>
@@ -50807,10 +50807,10 @@
         <v>15.4871</v>
       </c>
       <c r="E1579" t="n">
-        <v>-11.10998068016303</v>
+        <v>-11.1132215464345</v>
       </c>
       <c r="F1579" t="n">
-        <v>12.46854010461266</v>
+        <v>12.40503175932458</v>
       </c>
       <c r="G1579" t="n">
         <v>-7.242500000000017</v>
@@ -50839,10 +50839,10 @@
         <v>15.487</v>
       </c>
       <c r="E1580" t="n">
-        <v>-11.17249622768268</v>
+        <v>-11.1777327884653</v>
       </c>
       <c r="F1580" t="n">
-        <v>12.45858581438254</v>
+        <v>12.38405115997741</v>
       </c>
       <c r="G1580" t="n">
         <v>-7.63000000000002</v>
@@ -50871,10 +50871,10 @@
         <v>15.4869</v>
       </c>
       <c r="E1581" t="n">
-        <v>-11.20943749174171</v>
+        <v>-11.2169352273927</v>
       </c>
       <c r="F1581" t="n">
-        <v>12.44784701662198</v>
+        <v>12.36140390740601</v>
       </c>
       <c r="G1581" t="n">
         <v>-8.017500000000016</v>
@@ -50903,10 +50903,10 @@
         <v>15.4867</v>
       </c>
       <c r="E1582" t="n">
-        <v>-11.22081651612904</v>
+        <v>-11.23073509677419</v>
       </c>
       <c r="F1582" t="n">
-        <v>12.43753277419364</v>
+        <v>12.33834696774211</v>
       </c>
       <c r="G1582" t="n">
         <v>-8.382730600787887</v>
@@ -50935,10 +50935,10 @@
         <v>15.4866</v>
       </c>
       <c r="E1583" t="n">
-        <v>-11.2250838598029</v>
+        <v>-11.23572830920076</v>
       </c>
       <c r="F1583" t="n">
-        <v>12.43077906053639</v>
+        <v>12.32397903372768</v>
       </c>
       <c r="G1583" t="n">
         <v>-8.723589567393805</v>
@@ -50967,10 +50967,10 @@
         <v>15.4867</v>
       </c>
       <c r="E1584" t="n">
-        <v>-11.2365230943219</v>
+        <v>-11.24784008225703</v>
       </c>
       <c r="F1584" t="n">
-        <v>12.42389035119771</v>
+        <v>12.30931668644075</v>
       </c>
       <c r="G1584" t="n">
         <v>-9.04007689981777</v>
@@ -50999,10 +50999,10 @@
         <v>15.4865</v>
       </c>
       <c r="E1585" t="n">
-        <v>-11.25509503464456</v>
+        <v>-11.26703298224658</v>
       </c>
       <c r="F1585" t="n">
-        <v>12.41687519650326</v>
+        <v>12.29437848162783</v>
       </c>
       <c r="G1585" t="n">
         <v>-9.332192598059782</v>
@@ -51031,10 +51031,10 @@
         <v>15.4862</v>
       </c>
       <c r="E1586" t="n">
-        <v>-11.28076049572935</v>
+        <v>-11.29326957547305</v>
       </c>
       <c r="F1586" t="n">
-        <v>12.4097421467787</v>
+        <v>12.2791829750354</v>
       </c>
       <c r="G1586" t="n">
         <v>-9.599936662119839</v>
@@ -51063,10 +51063,10 @@
         <v>15.486</v>
       </c>
       <c r="E1587" t="n">
-        <v>-11.31348029253482</v>
+        <v>-11.32651242824005</v>
       </c>
       <c r="F1587" t="n">
-        <v>12.40249975234972</v>
+        <v>12.26374872240996</v>
       </c>
       <c r="G1587" t="n">
         <v>-9.843309091997945</v>
@@ -51095,10 +51095,10 @@
         <v>15.4858</v>
       </c>
       <c r="E1588" t="n">
-        <v>-11.35321524001944</v>
+        <v>-11.36672410685118</v>
       </c>
       <c r="F1588" t="n">
-        <v>12.39515656354199</v>
+        <v>12.24809427949801</v>
       </c>
       <c r="G1588" t="n">
         <v>-10.0623098876941</v>
@@ -51127,10 +51127,10 @@
         <v>15.4855</v>
       </c>
       <c r="E1589" t="n">
-        <v>-11.39992615314175</v>
+        <v>-11.41386717761006</v>
       </c>
       <c r="F1589" t="n">
-        <v>12.38772113068118</v>
+        <v>12.23223820204604</v>
       </c>
       <c r="G1589" t="n">
         <v>-10.2569390492083</v>
@@ -51159,10 +51159,10 @@
         <v>15.48532857142857</v>
       </c>
       <c r="E1590" t="n">
-        <v>-11.45357384686024</v>
+        <v>-11.46790420682031</v>
       </c>
       <c r="F1590" t="n">
-        <v>12.38020200409295</v>
+        <v>12.21619904580054</v>
       </c>
       <c r="G1590" t="n">
         <v>-10.42719657654054</v>
@@ -51191,10 +51191,10 @@
         <v>15.48515714285714</v>
       </c>
       <c r="E1591" t="n">
-        <v>-11.51411913613341</v>
+        <v>-11.52879776078553</v>
       </c>
       <c r="F1591" t="n">
-        <v>12.37260773410298</v>
+        <v>12.19999536650801</v>
       </c>
       <c r="G1591" t="n">
         <v>-10.57308246969083</v>
@@ -51223,10 +51223,10 @@
         <v>15.48498571428571</v>
       </c>
       <c r="E1592" t="n">
-        <v>-11.58152283591978</v>
+        <v>-11.59651040580933</v>
       </c>
       <c r="F1592" t="n">
-        <v>12.36494687103694</v>
+        <v>12.18364571991494</v>
       </c>
       <c r="G1592" t="n">
         <v>-10.69459672865917</v>
@@ -51255,10 +51255,10 @@
         <v>15.48481428571429</v>
       </c>
       <c r="E1593" t="n">
-        <v>-11.65574576117787</v>
+        <v>-11.67100470819534</v>
       </c>
       <c r="F1593" t="n">
-        <v>12.35722796522051</v>
+        <v>12.16716866176784</v>
       </c>
       <c r="G1593" t="n">
         <v>-10.79173935344555</v>
@@ -51287,10 +51287,10 @@
         <v>15.48464285714286</v>
       </c>
       <c r="E1594" t="n">
-        <v>-11.73674872686615</v>
+        <v>-11.75224323424716</v>
       </c>
       <c r="F1594" t="n">
-        <v>12.34945956697934</v>
+        <v>12.15058274781318</v>
       </c>
       <c r="G1594" t="n">
         <v>-10.86451034404998</v>
@@ -51319,10 +51319,10 @@
         <v>15.48447142857143</v>
       </c>
       <c r="E1595" t="n">
-        <v>-11.82449254794316</v>
+        <v>-11.8401885502684</v>
       </c>
       <c r="F1595" t="n">
-        <v>12.34165022663912</v>
+        <v>12.13390653379748</v>
       </c>
       <c r="G1595" t="n">
         <v>-10.91290970047246</v>
@@ -51351,10 +51351,10 @@
         <v>15.4843</v>
       </c>
       <c r="E1596" t="n">
-        <v>-11.9189380393674</v>
+        <v>-11.93480322256269</v>
       </c>
       <c r="F1596" t="n">
-        <v>12.33380849452552</v>
+        <v>12.11715857546722</v>
       </c>
       <c r="G1596" t="n">
         <v>-10.93693742271299</v>
@@ -51383,10 +51383,10 @@
         <v>15.48412857142857</v>
       </c>
       <c r="E1597" t="n">
-        <v>-12.02004601609736</v>
+        <v>-12.03604981743363</v>
       </c>
       <c r="F1597" t="n">
-        <v>12.3259429209642</v>
+        <v>12.1003574285689</v>
       </c>
       <c r="G1597" t="n">
         <v>-10.93909609677419</v>
@@ -51415,10 +51415,10 @@
         <v>15.48395714285714</v>
       </c>
       <c r="E1598" t="n">
-        <v>-12.12777729309158</v>
+        <v>-12.14389090118482</v>
       </c>
       <c r="F1598" t="n">
-        <v>12.31806205628084</v>
+        <v>12.08352164884901</v>
       </c>
       <c r="G1598" t="n">
         <v>-10.94595333608038</v>
@@ -51447,10 +51447,10 @@
         <v>15.48378571428571</v>
       </c>
       <c r="E1599" t="n">
-        <v>-12.24209268530854</v>
+        <v>-12.2582890401199</v>
       </c>
       <c r="F1599" t="n">
-        <v>12.3101744508011</v>
+        <v>12.06666979205405</v>
       </c>
       <c r="G1599" t="n">
         <v>-10.95971614053748</v>
@@ -51479,10 +51479,10 @@
         <v>15.48361428571429</v>
       </c>
       <c r="E1600" t="n">
-        <v>-12.36295300770676</v>
+        <v>-12.37920680054247</v>
       </c>
       <c r="F1600" t="n">
-        <v>12.30228865485067</v>
+        <v>12.04982041393051</v>
       </c>
       <c r="G1600" t="n">
         <v>-10.98035237446921</v>
@@ -51511,10 +51511,10 @@
         <v>15.48344285714286</v>
       </c>
       <c r="E1601" t="n">
-        <v>-12.49031907524473</v>
+        <v>-12.50660674875613</v>
       </c>
       <c r="F1601" t="n">
-        <v>12.29441321875521</v>
+        <v>12.03299207022488</v>
       </c>
       <c r="G1601" t="n">
         <v>-11.0078299021993</v>
@@ -51543,10 +51543,10 @@
         <v>15.48327142857143</v>
       </c>
       <c r="E1602" t="n">
-        <v>-12.62415170288098</v>
+        <v>-12.64045145106451</v>
       </c>
       <c r="F1602" t="n">
-        <v>12.28655669284039</v>
+        <v>12.01620331668367</v>
       </c>
       <c r="G1602" t="n">
         <v>-11.04211658805146</v>
@@ -51575,10 +51575,10 @@
         <v>15.4831</v>
       </c>
       <c r="E1603" t="n">
-        <v>-12.76441170557401</v>
+        <v>-12.78070347377122</v>
       </c>
       <c r="F1603" t="n">
-        <v>12.27872762743189</v>
+        <v>11.99947270905337</v>
       </c>
       <c r="G1603" t="n">
         <v>-11.08318029634943</v>
@@ -51607,10 +51607,10 @@
         <v>15.48292857142857</v>
       </c>
       <c r="E1604" t="n">
-        <v>-12.91105989828232</v>
+        <v>-12.92732538317987</v>
       </c>
       <c r="F1604" t="n">
-        <v>12.27093457285536</v>
+        <v>11.98281880308046</v>
       </c>
       <c r="G1604" t="n">
         <v>-11.1309888914169</v>
@@ -51619,10 +51619,10 @@
         <v>14.0131806171501</v>
       </c>
       <c r="I1604" t="n">
-        <v>0.7156797639323594</v>
+        <v>0.7151121490983865</v>
       </c>
       <c r="J1604" t="n">
-        <v>15.03818186442177</v>
+        <v>15.03841573886925</v>
       </c>
     </row>
     <row r="1605">
@@ -51639,10 +51639,10 @@
         <v>15.48275714285714</v>
       </c>
       <c r="E1605" t="n">
-        <v>-13.06405709596443</v>
+        <v>-13.08027974559407</v>
       </c>
       <c r="F1605" t="n">
-        <v>12.2631860794365</v>
+        <v>11.96626015451146</v>
       </c>
       <c r="G1605" t="n">
         <v>-11.18551023757762</v>
@@ -51651,10 +51651,10 @@
         <v>13.99972484230136</v>
       </c>
       <c r="I1605" t="n">
-        <v>0.3380072358967439</v>
+        <v>0.3370124332721754</v>
       </c>
       <c r="J1605" t="n">
-        <v>15.03521550846709</v>
+        <v>15.03614907598699</v>
       </c>
     </row>
     <row r="1606">
@@ -51671,10 +51671,10 @@
         <v>15.48258571428571</v>
       </c>
       <c r="E1606" t="n">
-        <v>-13.22336411357884</v>
+        <v>-13.23952912731744</v>
       </c>
       <c r="F1606" t="n">
-        <v>12.25549069750096</v>
+        <v>11.94981531909284</v>
       </c>
       <c r="G1606" t="n">
         <v>-11.24671219915529</v>
@@ -51683,10 +51683,10 @@
         <v>13.98606894049283</v>
       </c>
       <c r="I1606" t="n">
-        <v>-0.008731869821124338</v>
+        <v>-0.01001343319291015</v>
       </c>
       <c r="J1606" t="n">
-        <v>15.02984378927883</v>
+        <v>15.03194286849608</v>
       </c>
     </row>
     <row r="1607">
@@ -51703,10 +51703,10 @@
         <v>15.48241428571428</v>
       </c>
       <c r="E1607" t="n">
-        <v>-13.38894176608405</v>
+        <v>-13.40503609465359</v>
       </c>
       <c r="F1607" t="n">
-        <v>12.24785697737442</v>
+        <v>11.93350285257111</v>
       </c>
       <c r="G1607" t="n">
         <v>-11.31456264047365</v>
@@ -51715,10 +51715,10 @@
         <v>13.97223308993986</v>
       </c>
       <c r="I1607" t="n">
-        <v>-0.3245375532212451</v>
+        <v>-0.3259654502968709</v>
       </c>
       <c r="J1607" t="n">
-        <v>15.02206670685697</v>
+        <v>15.02579711639651</v>
       </c>
     </row>
     <row r="1608">
@@ -51735,10 +51735,10 @@
         <v>15.48224285714286</v>
       </c>
       <c r="E1608" t="n">
-        <v>-13.56075086843859</v>
+        <v>-13.57676321390612</v>
       </c>
       <c r="F1608" t="n">
-        <v>12.24029346938255</v>
+        <v>11.91734131069276</v>
       </c>
       <c r="G1608" t="n">
         <v>-11.38902942585641</v>
@@ -51747,10 +51747,10 @@
         <v>13.95823746885779</v>
       </c>
       <c r="I1608" t="n">
-        <v>-0.6094098143036183</v>
+        <v>-0.6108436180397062</v>
       </c>
       <c r="J1608" t="n">
-        <v>15.01188426120152</v>
+        <v>15.01771181968829</v>
       </c>
     </row>
     <row r="1609">
@@ -51767,10 +51767,10 @@
         <v>15.48207142857143</v>
       </c>
       <c r="E1609" t="n">
-        <v>-13.73875223560093</v>
+        <v>-13.75467305137867</v>
       </c>
       <c r="F1609" t="n">
-        <v>12.23280872385102</v>
+        <v>11.90134924920428</v>
       </c>
       <c r="G1609" t="n">
         <v>-11.47008041962729</v>
@@ -51779,10 +51779,10 @@
         <v>13.94410225546195</v>
       </c>
       <c r="I1609" t="n">
-        <v>-0.8633486530682442</v>
+        <v>-0.8646479364214164</v>
       </c>
       <c r="J1609" t="n">
-        <v>14.99929645231248</v>
+        <v>15.00768697837141</v>
       </c>
     </row>
     <row r="1610">
@@ -51799,10 +51799,10 @@
         <v>15.4819</v>
       </c>
       <c r="E1610" t="n">
-        <v>-13.92290668252961</v>
+        <v>-13.93872817337482</v>
       </c>
       <c r="F1610" t="n">
-        <v>12.2254112911055</v>
+        <v>11.88554522385218</v>
       </c>
       <c r="G1610" t="n">
         <v>-11.55768348611002</v>
@@ -51811,10 +51811,10 @@
         <v>13.92984762796768</v>
       </c>
       <c r="I1610" t="n">
-        <v>-1.086354069515123</v>
+        <v>-1.087378405442001</v>
       </c>
       <c r="J1610" t="n">
-        <v>14.98430328018985</v>
+        <v>14.99572259244589</v>
       </c>
     </row>
     <row r="1611">
@@ -51831,10 +51831,10 @@
         <v>15.48172857142857</v>
       </c>
       <c r="E1611" t="n">
-        <v>-14.11317502418314</v>
+        <v>-14.12889114619821</v>
       </c>
       <c r="F1611" t="n">
-        <v>12.21810972147167</v>
+        <v>11.86994779038294</v>
       </c>
       <c r="G1611" t="n">
         <v>-11.65180648962831</v>
@@ -51843,10 +51843,10 @@
         <v>13.91549376459032</v>
       </c>
       <c r="I1611" t="n">
-        <v>-1.278426063644253</v>
+        <v>-1.279035025101461</v>
       </c>
       <c r="J1611" t="n">
-        <v>14.96690474483362</v>
+        <v>14.98181866191171</v>
       </c>
     </row>
     <row r="1612">
@@ -51863,10 +51863,10 @@
         <v>15.48155714285714</v>
       </c>
       <c r="E1612" t="n">
-        <v>-14.30951807551999</v>
+        <v>-14.32512453615244</v>
       </c>
       <c r="F1612" t="n">
-        <v>12.21091256527519</v>
+        <v>11.85457550454306</v>
       </c>
       <c r="G1612" t="n">
         <v>-11.75241729450589</v>
@@ -51875,10 +51875,10 @@
         <v>13.9010608435452</v>
       </c>
       <c r="I1612" t="n">
-        <v>-1.439564635455637</v>
+        <v>-1.439617795399796</v>
       </c>
       <c r="J1612" t="n">
-        <v>14.94710084624381</v>
+        <v>14.96597518676887</v>
       </c>
     </row>
     <row r="1613">
@@ -51895,10 +51895,10 @@
         <v>15.48138571428571</v>
       </c>
       <c r="E1613" t="n">
-        <v>-14.51189665149871</v>
+        <v>-14.52739090954113</v>
       </c>
       <c r="F1613" t="n">
-        <v>12.20382837284173</v>
+        <v>11.83944692207904</v>
       </c>
       <c r="G1613" t="n">
         <v>-11.85948376506648</v>
@@ -51907,10 +51907,10 @@
         <v>13.88656904304768</v>
       </c>
       <c r="I1613" t="n">
-        <v>-1.569769784949273</v>
+        <v>-1.569126716337006</v>
       </c>
       <c r="J1613" t="n">
-        <v>14.92489158442041</v>
+        <v>14.94819216701738</v>
       </c>
     </row>
     <row r="1614">
@@ -51927,10 +51927,10 @@
         <v>15.48121428571428</v>
       </c>
       <c r="E1614" t="n">
-        <v>-14.72027156707778</v>
+        <v>-14.73565283266788</v>
       </c>
       <c r="F1614" t="n">
-        <v>12.19686569449698</v>
+        <v>11.82458059873736</v>
       </c>
       <c r="G1614" t="n">
         <v>-11.9729737656338</v>
@@ -51939,10 +51939,10 @@
         <v>13.87203854131307</v>
       </c>
       <c r="I1614" t="n">
-        <v>-1.669041512125161</v>
+        <v>-1.66756178791309</v>
       </c>
       <c r="J1614" t="n">
-        <v>14.90027695936342</v>
+        <v>14.92846960265724</v>
       </c>
     </row>
     <row r="1615">
@@ -51959,10 +51959,10 @@
         <v>15.48104285714285</v>
       </c>
       <c r="E1615" t="n">
-        <v>-14.93460363721572</v>
+        <v>-14.94987287183631</v>
       </c>
       <c r="F1615" t="n">
-        <v>12.19003308056659</v>
+        <v>11.80999509026453</v>
       </c>
       <c r="G1615" t="n">
         <v>-12.09285516053156</v>
@@ -51971,10 +51971,10 @@
         <v>13.85748951655672</v>
       </c>
       <c r="I1615" t="n">
-        <v>-1.737379816983303</v>
+        <v>-1.734923010128049</v>
       </c>
       <c r="J1615" t="n">
-        <v>14.87325697107283</v>
+        <v>14.90680749368844</v>
       </c>
     </row>
     <row r="1616">
@@ -51991,10 +51991,10 @@
         <v>15.48087142857143</v>
       </c>
       <c r="E1616" t="n">
-        <v>-15.15485367687103</v>
+        <v>-15.17001359335003</v>
       </c>
       <c r="F1616" t="n">
-        <v>12.18333908137624</v>
+        <v>11.79570895240704</v>
       </c>
       <c r="G1616" t="n">
         <v>-12.21909581408351</v>
@@ -52003,10 +52003,10 @@
         <v>13.84294214699397</v>
       </c>
       <c r="I1616" t="n">
-        <v>-1.774784699523696</v>
+        <v>-1.771210382981883</v>
       </c>
       <c r="J1616" t="n">
-        <v>14.84383161954866</v>
+        <v>14.88320584011099</v>
       </c>
     </row>
     <row r="1617">
@@ -52023,10 +52023,10 @@
         <v>15.4807</v>
       </c>
       <c r="E1617" t="n">
-        <v>-15.38098250100223</v>
+        <v>-15.39603756351266</v>
       </c>
       <c r="F1617" t="n">
-        <v>12.1767922472516</v>
+        <v>11.78174074091138</v>
       </c>
       <c r="G1617" t="n">
         <v>-12.35166359061334</v>
@@ -52035,10 +52035,10 @@
         <v>13.82841661084016</v>
       </c>
       <c r="I1617" t="n">
-        <v>-1.782397650375934</v>
+        <v>-1.778032406015031</v>
       </c>
       <c r="J1617" t="n">
-        <v>14.82484588345865</v>
+        <v>14.86849832706767</v>
       </c>
     </row>
     <row r="1618">
@@ -52055,10 +52055,10 @@
         <v>15.48052857142857</v>
       </c>
       <c r="E1618" t="n">
-        <v>-15.61295092456781</v>
+        <v>-15.62790734862781</v>
       </c>
       <c r="F1618" t="n">
-        <v>12.17040112851834</v>
+        <v>11.76810901152404</v>
       </c>
       <c r="G1618" t="n">
         <v>-12.49052635444478</v>
@@ -52067,10 +52067,10 @@
         <v>13.81393308631061</v>
       </c>
       <c r="I1618" t="n">
-        <v>-1.788587714894156</v>
+        <v>-1.783872070859667</v>
       </c>
       <c r="J1618" t="n">
-        <v>14.80639145949133</v>
+        <v>14.85373735236456</v>
       </c>
     </row>
     <row r="1619">
@@ -52087,10 +52087,10 @@
         <v>15.48035714285714</v>
       </c>
       <c r="E1619" t="n">
-        <v>-15.85071976252629</v>
+        <v>-15.86558551499909</v>
       </c>
       <c r="F1619" t="n">
-        <v>12.16417427550214</v>
+        <v>11.75483231999153</v>
       </c>
       <c r="G1619" t="n">
         <v>-12.63565196990157</v>
@@ -52099,10 +52099,10 @@
         <v>13.79951175162068</v>
       </c>
       <c r="I1619" t="n">
-        <v>-1.803481006562548</v>
+        <v>-1.798443322199708</v>
       </c>
       <c r="J1619" t="n">
-        <v>14.78748575414142</v>
+        <v>14.83860963060115</v>
       </c>
     </row>
     <row r="1620">
@@ -52119,10 +52119,10 @@
         <v>15.48018571428571</v>
       </c>
       <c r="E1620" t="n">
-        <v>-16.09424982983617</v>
+        <v>-16.10903462893011</v>
       </c>
       <c r="F1620" t="n">
-        <v>12.15812023852866</v>
+        <v>11.74192922206034</v>
       </c>
       <c r="G1620" t="n">
         <v>-12.78700830130741</v>
@@ -52131,10 +52131,10 @@
         <v>13.78517278498571</v>
       </c>
       <c r="I1620" t="n">
-        <v>-1.827027723487273</v>
+        <v>-1.821695329437877</v>
       </c>
       <c r="J1620" t="n">
-        <v>14.7681596078812</v>
+        <v>14.8231401233611</v>
       </c>
     </row>
     <row r="1621">
@@ -52151,10 +52151,10 @@
         <v>15.48001428571428</v>
       </c>
       <c r="E1621" t="n">
-        <v>-16.34350194145597</v>
+        <v>-16.35821725672448</v>
       </c>
       <c r="F1621" t="n">
-        <v>12.15224756792357</v>
+        <v>11.72941827347696</v>
       </c>
       <c r="G1621" t="n">
         <v>-12.94456321298602</v>
@@ -52163,10 +52163,10 @@
         <v>13.77093636462102</v>
       </c>
       <c r="I1621" t="n">
-        <v>-1.859178063774496</v>
+        <v>-1.853577261976896</v>
       </c>
       <c r="J1621" t="n">
-        <v>14.74844386118301</v>
+        <v>14.80735379222804</v>
       </c>
     </row>
     <row r="1622">
@@ -52183,10 +52183,10 @@
         <v>15.47984285714285</v>
       </c>
       <c r="E1622" t="n">
-        <v>-16.59843691234417</v>
+        <v>-16.61309596468583</v>
       </c>
       <c r="F1622" t="n">
-        <v>12.14656481401255</v>
+        <v>11.71731802998789</v>
       </c>
       <c r="G1622" t="n">
         <v>-13.10828456926114</v>
@@ -52195,10 +52195,10 @@
         <v>13.75682266874195</v>
       </c>
       <c r="I1622" t="n">
-        <v>-1.899882225530378</v>
+        <v>-1.89403828921949</v>
       </c>
       <c r="J1622" t="n">
-        <v>14.72836935451915</v>
+        <v>14.79127559878564</v>
       </c>
     </row>
     <row r="1623">
@@ -52215,10 +52215,10 @@
         <v>15.47967142857143</v>
       </c>
       <c r="E1623" t="n">
-        <v>-16.85901555745931</v>
+        <v>-16.87363331911776</v>
       </c>
       <c r="F1623" t="n">
-        <v>12.14108052712127</v>
+        <v>11.70564704733962</v>
       </c>
       <c r="G1623" t="n">
         <v>-13.27814023445648</v>
@@ -52227,10 +52227,10 @@
         <v>13.74285187556384</v>
       </c>
       <c r="I1623" t="n">
-        <v>-1.949090406861084</v>
+        <v>-1.943027580568381</v>
       </c>
       <c r="J1623" t="n">
-        <v>14.70796692836192</v>
+        <v>14.77493050461754</v>
       </c>
     </row>
     <row r="1624">
@@ -52247,10 +52247,10 @@
         <v>15.4795</v>
       </c>
       <c r="E1624" t="n">
-        <v>-17.12519869175988</v>
+        <v>-17.13979188632388</v>
       </c>
       <c r="F1624" t="n">
-        <v>12.1358032575754</v>
+        <v>11.69442388127865</v>
       </c>
       <c r="G1624" t="n">
         <v>-13.45409807289576</v>
@@ -52259,10 +52259,10 @@
         <v>13.72904416330204</v>
       </c>
       <c r="I1624" t="n">
-        <v>-2.006752805872777</v>
+        <v>-2.000494305426291</v>
       </c>
       <c r="J1624" t="n">
-        <v>14.68726742318364</v>
+        <v>14.75834347130741</v>
       </c>
     </row>
     <row r="1625">
@@ -52279,10 +52279,10 @@
         <v>15.47932857142857</v>
       </c>
       <c r="E1625" t="n">
-        <v>-17.39694713020439</v>
+        <v>-17.41153423260781</v>
       </c>
       <c r="F1625" t="n">
-        <v>12.13074155570061</v>
+        <v>11.68366708755147</v>
       </c>
       <c r="G1625" t="n">
         <v>-13.6361259489027</v>
@@ -52291,10 +52291,10 @@
         <v>13.71541971017187</v>
       </c>
       <c r="I1625" t="n">
-        <v>-2.07281962067162</v>
+        <v>-2.066387633195943</v>
       </c>
       <c r="J1625" t="n">
-        <v>14.66630167945661</v>
+        <v>14.74153946043889</v>
       </c>
     </row>
     <row r="1626">
@@ -52311,10 +52311,10 @@
         <v>15.47915714285714</v>
       </c>
       <c r="E1626" t="n">
-        <v>-17.67422168775134</v>
+        <v>-17.68882292427316</v>
       </c>
       <c r="F1626" t="n">
-        <v>12.12590397182257</v>
+        <v>11.67339522190457</v>
       </c>
       <c r="G1626" t="n">
         <v>-13.82419172680102</v>
@@ -52323,10 +52323,10 @@
         <v>13.70199869438868</v>
       </c>
       <c r="I1626" t="n">
-        <v>-2.147241049363776</v>
+        <v>-2.14065673328006</v>
       </c>
       <c r="J1626" t="n">
-        <v>14.64510053765314</v>
+        <v>14.72454343359564</v>
       </c>
     </row>
     <row r="1627">
@@ -52343,10 +52343,10 @@
         <v>15.47898571428571</v>
       </c>
       <c r="E1627" t="n">
-        <v>-17.95698317935926</v>
+        <v>-17.97162052762355</v>
       </c>
       <c r="F1627" t="n">
-        <v>12.12129905626695</v>
+        <v>11.66362684008446</v>
       </c>
       <c r="G1627" t="n">
         <v>-14.01826327091445</v>
@@ -52355,10 +52355,10 @@
         <v>13.68880129416781</v>
       </c>
       <c r="I1627" t="n">
-        <v>-2.229967290055409</v>
+        <v>-2.223250775081365</v>
       </c>
       <c r="J1627" t="n">
-        <v>14.62369483824555</v>
+        <v>14.70738035236131</v>
       </c>
     </row>
     <row r="1628">
@@ -52375,10 +52375,10 @@
         <v>15.47881428571428</v>
       </c>
       <c r="E1628" t="n">
-        <v>-18.24519241998663</v>
+        <v>-18.25988960896257</v>
       </c>
       <c r="F1628" t="n">
-        <v>12.11693535935943</v>
+        <v>11.65438049783762</v>
       </c>
       <c r="G1628" t="n">
         <v>-14.21830844556671</v>
@@ -52387,10 +52387,10 @@
         <v>13.67584768772458</v>
       </c>
       <c r="I1628" t="n">
-        <v>-2.320948540852682</v>
+        <v>-2.314118928002579</v>
       </c>
       <c r="J1628" t="n">
-        <v>14.60211542170613</v>
+        <v>14.69007517831954</v>
       </c>
     </row>
     <row r="1629">
@@ -52407,10 +52407,10 @@
         <v>15.47864285714285</v>
       </c>
       <c r="E1629" t="n">
-        <v>-18.53881022459197</v>
+        <v>-18.55359273459386</v>
       </c>
       <c r="F1629" t="n">
-        <v>12.11282143142567</v>
+        <v>11.64567475091055</v>
       </c>
       <c r="G1629" t="n">
         <v>-14.42429511508151</v>
@@ -52419,10 +52419,10 @@
         <v>13.66315805327435</v>
       </c>
       <c r="I1629" t="n">
-        <v>-2.420134999861759</v>
+        <v>-2.413210361446429</v>
       </c>
       <c r="J1629" t="n">
-        <v>14.5803931285072</v>
+        <v>14.67265287305401</v>
       </c>
     </row>
     <row r="1630">
@@ -52439,10 +52439,10 @@
         <v>15.47847142857142</v>
       </c>
       <c r="E1630" t="n">
-        <v>-18.83779740813379</v>
+        <v>-18.85269247082101</v>
       </c>
       <c r="F1630" t="n">
-        <v>12.10896582279135</v>
+        <v>11.63752815504975</v>
       </c>
       <c r="G1630" t="n">
         <v>-14.63619114378258</v>
@@ -52451,10 +52451,10 @@
         <v>13.65075256903244</v>
       </c>
       <c r="I1630" t="n">
-        <v>-2.527476865188802</v>
+        <v>-2.520474244815634</v>
       </c>
       <c r="J1630" t="n">
-        <v>14.55855879912107</v>
+        <v>14.65513839814835</v>
       </c>
     </row>
     <row r="1631">
@@ -52471,10 +52471,10 @@
         <v>15.4783</v>
       </c>
       <c r="E1631" t="n">
-        <v>-19.14211478557059</v>
+        <v>-19.15715138394765</v>
       </c>
       <c r="F1631" t="n">
-        <v>12.10537708378213</v>
+        <v>11.62995926600171</v>
       </c>
       <c r="G1631" t="n">
         <v>-14.85396439599364</v>
@@ -52483,10 +52483,10 @@
         <v>13.6386514132142</v>
       </c>
       <c r="I1631" t="n">
-        <v>-2.642924334939976</v>
+        <v>-2.635859747512918</v>
       </c>
       <c r="J1631" t="n">
-        <v>14.53664327402004</v>
+        <v>14.63755671518623</v>
       </c>
     </row>
     <row r="1632">
@@ -52503,10 +52503,10 @@
         <v>15.47812857142857</v>
       </c>
       <c r="E1632" t="n">
-        <v>-19.45172317186089</v>
+        <v>-19.46693204027738</v>
       </c>
       <c r="F1632" t="n">
-        <v>12.1020637647237</v>
+        <v>11.62298663951293</v>
       </c>
       <c r="G1632" t="n">
         <v>-15.07758273603841</v>
@@ -52515,10 +52515,10 @@
         <v>13.62687476403497</v>
       </c>
       <c r="I1632" t="n">
-        <v>-2.766427607221442</v>
+        <v>-2.759316038941004</v>
       </c>
       <c r="J1632" t="n">
-        <v>14.51467739367643</v>
+        <v>14.61993278575129</v>
       </c>
     </row>
     <row r="1633">
@@ -52535,10 +52535,10 @@
         <v>15.47795714285714</v>
       </c>
       <c r="E1633" t="n">
-        <v>-19.76658338196318</v>
+        <v>-19.78199700611383</v>
       </c>
       <c r="F1633" t="n">
-        <v>12.09903441594172</v>
+        <v>11.61662883132989</v>
       </c>
       <c r="G1633" t="n">
         <v>-15.30701402824062</v>
@@ -52547,10 +52547,10 @@
         <v>13.61544279971007</v>
       </c>
       <c r="I1633" t="n">
-        <v>-2.897936880139365</v>
+        <v>-2.890792288502615</v>
       </c>
       <c r="J1633" t="n">
-        <v>14.49269199856254</v>
+        <v>14.60229157142718</v>
       </c>
     </row>
     <row r="1634">
@@ -52567,10 +52567,10 @@
         <v>15.47778571428571</v>
       </c>
       <c r="E1634" t="n">
-        <v>-20.08665623083597</v>
+        <v>-20.10230884776059</v>
       </c>
       <c r="F1634" t="n">
-        <v>12.09629758776185</v>
+        <v>11.6109043971991</v>
       </c>
       <c r="G1634" t="n">
         <v>-15.54222613692397</v>
@@ -52579,10 +52579,10 @@
         <v>13.60437569845485</v>
       </c>
       <c r="I1634" t="n">
-        <v>-3.037402351799909</v>
+        <v>-3.030237665600473</v>
       </c>
       <c r="J1634" t="n">
-        <v>14.47071792915068</v>
+        <v>14.58465803379757</v>
       </c>
     </row>
     <row r="1635">
@@ -52599,10 +52599,10 @@
         <v>15.47761428571428</v>
       </c>
       <c r="E1635" t="n">
-        <v>-20.41190253343779</v>
+        <v>-20.42783013152129</v>
       </c>
       <c r="F1635" t="n">
-        <v>12.09386183050978</v>
+        <v>11.60583189286704</v>
       </c>
       <c r="G1635" t="n">
         <v>-15.78318692641221</v>
@@ -52611,10 +52611,10 @@
         <v>13.59369363848466</v>
       </c>
       <c r="I1635" t="n">
-        <v>-3.184774220309236</v>
+        <v>-3.177601339637302</v>
       </c>
       <c r="J1635" t="n">
-        <v>14.44878602591317</v>
+        <v>14.5670571344461</v>
       </c>
     </row>
     <row r="1636">
@@ -52631,10 +52631,10 @@
         <v>15.47744285714285</v>
       </c>
       <c r="E1636" t="n">
-        <v>-20.74228310472712</v>
+        <v>-20.75852342369954</v>
       </c>
       <c r="F1636" t="n">
-        <v>12.09173569451117</v>
+        <v>11.60142987408022</v>
       </c>
       <c r="G1636" t="n">
         <v>-16.02986426102904</v>
@@ -52643,10 +52643,10 @@
         <v>13.58341679801481</v>
       </c>
       <c r="I1636" t="n">
-        <v>-3.34000268377351</v>
+        <v>-3.332832480015824</v>
       </c>
       <c r="J1636" t="n">
-        <v>14.42692712932231</v>
+        <v>14.54951383495643</v>
       </c>
     </row>
     <row r="1637">
@@ -52663,10 +52663,10 @@
         <v>15.47727142857142</v>
       </c>
       <c r="E1637" t="n">
-        <v>-21.07775875966249</v>
+        <v>-21.09435129059894</v>
       </c>
       <c r="F1637" t="n">
-        <v>12.0899277300917</v>
+        <v>11.59771689658514</v>
       </c>
       <c r="G1637" t="n">
         <v>-16.28222600509818</v>
@@ -52675,10 +52675,10 @@
         <v>13.57356535526066</v>
       </c>
       <c r="I1637" t="n">
-        <v>-3.503037940298894</v>
+        <v>-3.495880256138761</v>
       </c>
       <c r="J1637" t="n">
-        <v>14.4051720798504</v>
+        <v>14.5320530969122</v>
       </c>
     </row>
     <row r="1638">
@@ -52695,10 +52695,10 @@
         <v>15.47709999999999</v>
       </c>
       <c r="E1638" t="n">
-        <v>-21.41829031320239</v>
+        <v>-21.43527629852312</v>
       </c>
       <c r="F1638" t="n">
-        <v>12.08844648757703</v>
+        <v>11.59471151612827</v>
       </c>
       <c r="G1638" t="n">
         <v>-16.54024002294336</v>
@@ -52707,10 +52707,10 @@
         <v>13.56415948843754</v>
       </c>
       <c r="I1638" t="n">
-        <v>-3.673830187991552</v>
+        <v>-3.666693837408838</v>
       </c>
       <c r="J1638" t="n">
-        <v>14.38355171796976</v>
+        <v>14.51469988189707</v>
       </c>
     </row>
     <row r="1639">
@@ -52727,10 +52727,10 @@
         <v>15.47692857142857</v>
       </c>
       <c r="E1639" t="n">
-        <v>-21.76383858030533</v>
+        <v>-21.78126101377569</v>
       </c>
       <c r="F1639" t="n">
-        <v>12.08730051729284</v>
+        <v>11.59243228845612</v>
       </c>
       <c r="G1639" t="n">
         <v>-16.8038741788883</v>
@@ -52739,10 +52739,10 @@
         <v>13.55521937576079</v>
       </c>
       <c r="I1639" t="n">
-        <v>-3.852329624957645</v>
+        <v>-3.845222393228776</v>
       </c>
       <c r="J1639" t="n">
-        <v>14.3620968841527</v>
+        <v>14.49747915149471</v>
       </c>
     </row>
     <row r="1640">
@@ -52759,10 +52759,10 @@
         <v>15.47675714285714</v>
       </c>
       <c r="E1640" t="n">
-        <v>-22.11436437592982</v>
+        <v>-22.13226800266025</v>
       </c>
       <c r="F1640" t="n">
-        <v>12.0864983695648</v>
+        <v>11.59089776931518</v>
       </c>
       <c r="G1640" t="n">
         <v>-17.07309633725672</v>
@@ -52771,10 +52771,10 @@
         <v>13.54676519544573</v>
       </c>
       <c r="I1640" t="n">
-        <v>-4.038486449303339</v>
+        <v>-4.031415093001299</v>
       </c>
       <c r="J1640" t="n">
-        <v>14.34083841887151</v>
+        <v>14.48041586728874</v>
       </c>
     </row>
     <row r="1641">
@@ -52791,10 +52791,10 @@
         <v>15.47658571428571</v>
       </c>
       <c r="E1641" t="n">
-        <v>-22.46982851503437</v>
+        <v>-22.48825983148042</v>
       </c>
       <c r="F1641" t="n">
-        <v>12.08604859471858</v>
+        <v>11.59012651445196</v>
       </c>
       <c r="G1641" t="n">
         <v>-17.34787436237235</v>
@@ -52803,10 +52803,10 @@
         <v>13.53881712570774</v>
       </c>
       <c r="I1641" t="n">
-        <v>-4.232250859134798</v>
+        <v>-4.225221106129128</v>
       </c>
       <c r="J1641" t="n">
-        <v>14.31980716259853</v>
+        <v>14.46353499086284</v>
       </c>
     </row>
     <row r="1642">
@@ -52826,7 +52826,7 @@
         <v>-22.9875</v>
       </c>
       <c r="F1642" t="n">
-        <v>12.08612419354878</v>
+        <v>11.59019516129113</v>
       </c>
       <c r="G1642" t="n">
         <v>-17.62817611855889</v>
@@ -52835,10 +52835,10 @@
         <v>13.53139534476211</v>
       </c>
       <c r="I1642" t="n">
-        <v>-4.433573052558181</v>
+        <v>-4.426589602014988</v>
       </c>
       <c r="J1642" t="n">
-        <v>14.29903395580605</v>
+        <v>14.44686148380066</v>
       </c>
     </row>
     <row r="1643">
@@ -52858,7 +52858,7 @@
         <v>-23.375</v>
       </c>
       <c r="F1643" t="n">
-        <v>12.08627419354877</v>
+        <v>11.59034516129113</v>
       </c>
       <c r="G1643" t="n">
         <v>-17.91396947014009</v>
@@ -52867,10 +52867,10 @@
         <v>13.52452003082421</v>
       </c>
       <c r="I1643" t="n">
-        <v>-4.642403227679656</v>
+        <v>-4.635469750061601</v>
       </c>
       <c r="J1643" t="n">
-        <v>14.27854963896638</v>
+        <v>14.43042030768583</v>
       </c>
     </row>
     <row r="1644">
@@ -52890,7 +52890,7 @@
         <v>-23.7625</v>
       </c>
       <c r="F1644" t="n">
-        <v>12.08642419354877</v>
+        <v>11.59049516129113</v>
       </c>
       <c r="G1644" t="n">
         <v>-18.20522228143964</v>
@@ -52899,10 +52899,10 @@
         <v>13.51821136210937</v>
       </c>
       <c r="I1644" t="n">
-        <v>-4.858691582605384</v>
+        <v>-4.85181071967169</v>
       </c>
       <c r="J1644" t="n">
-        <v>14.25838505255183</v>
+        <v>14.41423642410203</v>
       </c>
     </row>
     <row r="1645">
@@ -52922,7 +52922,7 @@
         <v>-24.15</v>
       </c>
       <c r="F1645" t="n">
-        <v>12.08657419354877</v>
+        <v>11.59064516129113</v>
       </c>
       <c r="G1645" t="n">
         <v>-18.50190241678128</v>
@@ -52931,10 +52931,10 @@
         <v>13.51248951683292</v>
       </c>
       <c r="I1645" t="n">
-        <v>-5.082388315441528</v>
+        <v>-5.075561680247976</v>
       </c>
       <c r="J1645" t="n">
-        <v>14.2385710370347</v>
+        <v>14.3983347946329</v>
       </c>
     </row>
     <row r="1646">
@@ -52954,7 +52954,7 @@
         <v>-24.5375</v>
       </c>
       <c r="F1646" t="n">
-        <v>12.08672419354878</v>
+        <v>11.59079516129113</v>
       </c>
       <c r="G1646" t="n">
         <v>-18.80397774048874</v>
@@ -52963,10 +52963,10 @@
         <v>13.5073746732102</v>
       </c>
       <c r="I1646" t="n">
-        <v>-5.313443624294253</v>
+        <v>-5.306671801193183</v>
       </c>
       <c r="J1646" t="n">
-        <v>14.21913843288732</v>
+        <v>14.3827403808621</v>
       </c>
     </row>
     <row r="1647">
@@ -52986,7 +52986,7 @@
         <v>-24.925</v>
       </c>
       <c r="F1647" t="n">
-        <v>12.08687419354878</v>
+        <v>11.59094516129113</v>
       </c>
       <c r="G1647" t="n">
         <v>-19.11141611688571</v>
@@ -52995,10 +52995,10 @@
         <v>13.50288700945656</v>
       </c>
       <c r="I1647" t="n">
-        <v>-5.551807707269722</v>
+        <v>-5.545090251910036</v>
       </c>
       <c r="J1647" t="n">
-        <v>14.20011808058198</v>
+        <v>14.36747814437327</v>
       </c>
     </row>
     <row r="1648">
@@ -53018,7 +53018,7 @@
         <v>-25.3125</v>
       </c>
       <c r="F1648" t="n">
-        <v>12.08702419354877</v>
+        <v>11.59109516129113</v>
       </c>
       <c r="G1648" t="n">
         <v>-19.42418541029594</v>
@@ -53027,10 +53027,10 @@
         <v>13.49904670378733</v>
       </c>
       <c r="I1648" t="n">
-        <v>-5.797430762474097</v>
+        <v>-5.790766201801254</v>
       </c>
       <c r="J1648" t="n">
-        <v>14.18154082059099</v>
+        <v>14.35257304675007</v>
       </c>
     </row>
     <row r="1649">
@@ -53050,7 +53050,7 @@
         <v>-25.7</v>
       </c>
       <c r="F1649" t="n">
-        <v>12.08717419354877</v>
+        <v>11.59124516129113</v>
       </c>
       <c r="G1649" t="n">
         <v>-19.74225348504314</v>
@@ -53059,10 +53059,10 @@
         <v>13.49587393441784</v>
       </c>
       <c r="I1649" t="n">
-        <v>-6.050262988013542</v>
+        <v>-6.043648820269563</v>
       </c>
       <c r="J1649" t="n">
-        <v>14.16343749338667</v>
+        <v>14.33805004957616</v>
       </c>
     </row>
     <row r="1650">
@@ -53082,7 +53082,7 @@
         <v>-26.0875</v>
       </c>
       <c r="F1650" t="n">
-        <v>12.08732419354877</v>
+        <v>11.59139516129113</v>
       </c>
       <c r="G1650" t="n">
         <v>-20.06558820545104</v>
@@ -53091,10 +53091,10 @@
         <v>13.49338887956343</v>
       </c>
       <c r="I1650" t="n">
-        <v>-6.31025458199422</v>
+        <v>-6.303687276717683</v>
       </c>
       <c r="J1650" t="n">
-        <v>14.14583893944133</v>
+        <v>14.32393411443518</v>
       </c>
     </row>
     <row r="1651">
@@ -53114,7 +53114,7 @@
         <v>-26.475</v>
       </c>
       <c r="F1651" t="n">
-        <v>12.08747419354877</v>
+        <v>11.59154516129113</v>
       </c>
       <c r="G1651" t="n">
         <v>-20.39415743584334</v>
@@ -53123,10 +53123,10 @@
         <v>13.49161171743946</v>
       </c>
       <c r="I1651" t="n">
-        <v>-6.577355742522294</v>
+        <v>-6.570830740548339</v>
       </c>
       <c r="J1651" t="n">
-        <v>14.12877599922726</v>
+        <v>14.31025020291079</v>
       </c>
     </row>
     <row r="1652">
@@ -53146,7 +53146,7 @@
         <v>-26.8625</v>
       </c>
       <c r="F1652" t="n">
-        <v>12.08762419354877</v>
+        <v>11.59169516129113</v>
       </c>
       <c r="G1652" t="n">
         <v>-20.72792904054378</v>
@@ -53155,10 +53155,10 @@
         <v>13.49056262626123</v>
       </c>
       <c r="I1652" t="n">
-        <v>-6.851516667703931</v>
+        <v>-6.845028381164253</v>
       </c>
       <c r="J1652" t="n">
-        <v>14.11227951321679</v>
+        <v>14.29702327658665</v>
       </c>
     </row>
     <row r="1653">
@@ -53178,7 +53178,7 @@
         <v>-27.25</v>
       </c>
       <c r="F1653" t="n">
-        <v>12.08777419354877</v>
+        <v>11.59184516129113</v>
       </c>
       <c r="G1653" t="n">
         <v>-21.06687088387608</v>
@@ -53187,10 +53187,10 @@
         <v>13.49026178424412</v>
       </c>
       <c r="I1653" t="n">
-        <v>-7.13268755564529</v>
+        <v>-7.126229367968148</v>
       </c>
       <c r="J1653" t="n">
-        <v>14.09638032188221</v>
+        <v>14.2842782970464</v>
       </c>
     </row>
     <row r="1654">
@@ -53210,7 +53210,7 @@
         <v>-27.6375</v>
       </c>
       <c r="F1654" t="n">
-        <v>12.08792419354877</v>
+        <v>11.59199516129113</v>
       </c>
       <c r="G1654" t="n">
         <v>-21.41095083016395</v>
@@ -53219,10 +53219,10 @@
         <v>13.49072936960343</v>
       </c>
       <c r="I1654" t="n">
-        <v>-7.420818604452535</v>
+        <v>-7.414382870362748</v>
       </c>
       <c r="J1654" t="n">
-        <v>14.08110926569584</v>
+        <v>14.27204022587369</v>
       </c>
     </row>
     <row r="1655">
@@ -53242,7 +53242,7 @@
         <v>-28.02500000000001</v>
       </c>
       <c r="F1655" t="n">
-        <v>12.08807419354877</v>
+        <v>11.59214516129113</v>
       </c>
       <c r="G1655" t="n">
         <v>-21.76013674373112</v>
@@ -53251,10 +53251,10 @@
         <v>13.49198556055452</v>
       </c>
       <c r="I1655" t="n">
-        <v>-7.71586001223183</v>
+        <v>-7.709438057750772</v>
       </c>
       <c r="J1655" t="n">
-        <v>14.06649718512999</v>
+        <v>14.26033402465219</v>
       </c>
     </row>
     <row r="1656">
@@ -53274,7 +53274,7 @@
         <v>-28.4125</v>
       </c>
       <c r="F1656" t="n">
-        <v>12.08822419354877</v>
+        <v>11.59229516129113</v>
       </c>
       <c r="G1656" t="n">
         <v>-22.11439648890132</v>
@@ -53283,10 +53283,10 @@
         <v>13.49405053531271</v>
       </c>
       <c r="I1656" t="n">
-        <v>-8.017761977089339</v>
+        <v>-8.011344099534947</v>
       </c>
       <c r="J1656" t="n">
-        <v>14.05257492065696</v>
+        <v>14.24918465496554</v>
       </c>
     </row>
     <row r="1657">
@@ -53306,7 +53306,7 @@
         <v>-28.8</v>
       </c>
       <c r="F1657" t="n">
-        <v>12.08837419354877</v>
+        <v>11.59244516129113</v>
       </c>
       <c r="G1657" t="n">
         <v>-22.7875</v>
@@ -53315,10 +53315,10 @@
         <v>13.49291088709703</v>
       </c>
       <c r="I1657" t="n">
-        <v>-8.326474697131225</v>
+        <v>-8.320050165117992</v>
       </c>
       <c r="J1657" t="n">
-        <v>14.03937331274907</v>
+        <v>14.2386170783974</v>
       </c>
     </row>
     <row r="1658">
@@ -53338,7 +53338,7 @@
         <v>-29.1875</v>
       </c>
       <c r="F1658" t="n">
-        <v>12.08852419354877</v>
+        <v>11.59259516129113</v>
       </c>
       <c r="G1658" t="n">
         <v>-23.175</v>
@@ -53347,10 +53347,10 @@
         <v>13.48953588709704</v>
       </c>
       <c r="I1658" t="n">
-        <v>-8.641948370463652</v>
+        <v>-8.635505423902636</v>
       </c>
       <c r="J1658" t="n">
-        <v>14.02692320187861</v>
+        <v>14.22865625653142</v>
       </c>
     </row>
     <row r="1659">
@@ -53370,7 +53370,7 @@
         <v>-29.575</v>
       </c>
       <c r="F1659" t="n">
-        <v>12.08867419354877</v>
+        <v>11.59274516129113</v>
       </c>
       <c r="G1659" t="n">
         <v>-23.5625</v>
@@ -53379,10 +53379,10 @@
         <v>13.48616088709704</v>
       </c>
       <c r="I1659" t="n">
-        <v>-8.964133195192781</v>
+        <v>-8.957659045291598</v>
       </c>
       <c r="J1659" t="n">
-        <v>14.01525542851791</v>
+        <v>14.21932715095126</v>
       </c>
     </row>
     <row r="1660">
@@ -53402,7 +53402,7 @@
         <v>-29.96250000000001</v>
       </c>
       <c r="F1660" t="n">
-        <v>12.08882419354877</v>
+        <v>11.59289516129113</v>
       </c>
       <c r="G1660" t="n">
         <v>-23.95</v>
@@ -53411,10 +53411,10 @@
         <v>13.48278588709704</v>
       </c>
       <c r="I1660" t="n">
-        <v>-9.292979369424774</v>
+        <v>-9.286460198687596</v>
       </c>
       <c r="J1660" t="n">
-        <v>14.00440083313928</v>
+        <v>14.21065472324055</v>
       </c>
     </row>
     <row r="1661">
@@ -53434,7 +53434,7 @@
         <v>-30.35</v>
       </c>
       <c r="F1661" t="n">
-        <v>12.08897419354877</v>
+        <v>11.59304516129113</v>
       </c>
       <c r="G1661" t="n">
         <v>-24.3375</v>
@@ -53443,10 +53443,10 @@
         <v>13.47941088709704</v>
       </c>
       <c r="I1661" t="n">
-        <v>-9.628437091265802</v>
+        <v>-9.62185805349336</v>
       </c>
       <c r="J1661" t="n">
-        <v>13.99439025621501</v>
+        <v>14.20266393498297</v>
       </c>
     </row>
     <row r="1662">
@@ -53466,7 +53466,7 @@
         <v>-30.7375</v>
       </c>
       <c r="F1662" t="n">
-        <v>12.08912419354877</v>
+        <v>11.59319516129113</v>
       </c>
       <c r="G1662" t="n">
         <v>-24.725</v>
@@ -53475,10 +53475,10 @@
         <v>13.47603588709704</v>
       </c>
       <c r="I1662" t="n">
-        <v>-9.97045655882202</v>
+        <v>-9.963801779111609</v>
       </c>
       <c r="J1662" t="n">
-        <v>13.98525453821741</v>
+        <v>14.19537974776216</v>
       </c>
     </row>
     <row r="1663">
@@ -53498,7 +53498,7 @@
         <v>-31.12500000000001</v>
       </c>
       <c r="F1663" t="n">
-        <v>12.08927419354877</v>
+        <v>11.59334516129113</v>
       </c>
       <c r="G1663" t="n">
         <v>-25.1125</v>
@@ -53507,10 +53507,10 @@
         <v>13.47266088709704</v>
       </c>
       <c r="I1663" t="n">
-        <v>-10.3189879701996</v>
+        <v>-10.31224054494507</v>
       </c>
       <c r="J1663" t="n">
-        <v>13.97702451961881</v>
+        <v>14.18882712316177</v>
       </c>
     </row>
     <row r="1664">
@@ -53530,7 +53530,7 @@
         <v>-31.51250000000001</v>
       </c>
       <c r="F1664" t="n">
-        <v>12.08942419354877</v>
+        <v>11.59349516129113</v>
       </c>
       <c r="G1664" t="n">
         <v>-25.5</v>
@@ -53539,10 +53539,10 @@
         <v>13.46928588709704</v>
       </c>
       <c r="I1664" t="n">
-        <v>-10.67398152350469</v>
+        <v>-10.66712352039646</v>
       </c>
       <c r="J1664" t="n">
-        <v>13.9697310408915</v>
+        <v>14.18303102276546</v>
       </c>
     </row>
     <row r="1665">
@@ -53556,7 +53556,7 @@
         <v>-31.90000000000001</v>
       </c>
       <c r="F1665" t="n">
-        <v>12.08957419354877</v>
+        <v>11.59364516129113</v>
       </c>
       <c r="G1665" t="n">
         <v>-25.8875</v>
@@ -53565,10 +53565,10 @@
         <v>13.46591088709704</v>
       </c>
       <c r="I1665" t="n">
-        <v>-11.03538741684347</v>
+        <v>-11.0283998748685</v>
       </c>
       <c r="J1665" t="n">
-        <v>13.9634049425078</v>
+        <v>14.17801640815687</v>
       </c>
     </row>
     <row r="1666">
@@ -53582,7 +53582,7 @@
         <v>-32.28750000000001</v>
       </c>
       <c r="F1666" t="n">
-        <v>12.08972419354877</v>
+        <v>11.59379516129113</v>
       </c>
       <c r="G1666" t="n">
         <v>-26.275</v>
@@ -53591,10 +53591,10 @@
         <v>13.46253588709705</v>
       </c>
       <c r="I1666" t="n">
-        <v>-11.4031558483221</v>
+        <v>-11.39601877776393</v>
       </c>
       <c r="J1666" t="n">
-        <v>13.95807706494</v>
+        <v>14.17380824091968</v>
       </c>
     </row>
     <row r="1667">
@@ -53608,7 +53608,7 @@
         <v>-32.675</v>
       </c>
       <c r="F1667" t="n">
-        <v>12.08987419354877</v>
+        <v>11.59394516129113</v>
       </c>
       <c r="G1667" t="n">
         <v>-26.6625</v>
@@ -53617,10 +53617,10 @@
         <v>13.45916088709705</v>
       </c>
       <c r="I1667" t="n">
-        <v>-11.77723701604674</v>
+        <v>-11.76992939848545</v>
       </c>
       <c r="J1667" t="n">
-        <v>13.95377824866043</v>
+        <v>14.17043148263751</v>
       </c>
     </row>
     <row r="1668">
@@ -53634,7 +53634,7 @@
         <v>-33.06250000000001</v>
       </c>
       <c r="F1668" t="n">
-        <v>12.09002419354877</v>
+        <v>11.59409516129113</v>
       </c>
       <c r="G1668" t="n">
         <v>-27.05</v>
@@ -53643,10 +53643,10 @@
         <v>13.45578588709705</v>
       </c>
       <c r="I1668" t="n">
-        <v>-12.15758111812355</v>
+        <v>-12.15008090643579</v>
       </c>
       <c r="J1668" t="n">
-        <v>13.95053933414139</v>
+        <v>14.16791109489404</v>
       </c>
     </row>
     <row r="1669">
@@ -53660,7 +53660,7 @@
         <v>-33.45</v>
       </c>
       <c r="F1669" t="n">
-        <v>12.09017419354877</v>
+        <v>11.59424516129113</v>
       </c>
       <c r="G1669" t="n">
         <v>-27.4375</v>
@@ -53669,10 +53669,10 @@
         <v>13.45241088709705</v>
       </c>
       <c r="I1669" t="n">
-        <v>-12.5441383526587</v>
+        <v>-12.53642247101769</v>
       </c>
       <c r="J1669" t="n">
-        <v>13.9483911618552</v>
+        <v>14.16627203927291</v>
       </c>
     </row>
     <row r="1670">
@@ -53686,7 +53686,7 @@
         <v>-33.83750000000001</v>
       </c>
       <c r="F1670" t="n">
-        <v>12.09032419354877</v>
+        <v>11.59439516129113</v>
       </c>
       <c r="G1670" t="n">
         <v>-27.825</v>
@@ -53695,10 +53695,10 @@
         <v>13.44903588709705</v>
       </c>
       <c r="I1670" t="n">
-        <v>-12.93685891775834</v>
+        <v>-12.92890326163385</v>
       </c>
       <c r="J1670" t="n">
-        <v>13.94736457227414</v>
+        <v>14.16553927735776</v>
       </c>
     </row>
     <row r="1671">
@@ -53712,7 +53712,7 @@
         <v>-34.22500000000001</v>
       </c>
       <c r="F1671" t="n">
-        <v>12.09047419354877</v>
+        <v>11.59454516129113</v>
       </c>
       <c r="G1671" t="n">
         <v>-28.2125</v>
@@ -53724,7 +53724,7 @@
         <v>-13.73428571428571</v>
       </c>
       <c r="J1671" t="n">
-        <v>13.94677462406016</v>
+        <v>14.16503684210527</v>
       </c>
     </row>
     <row r="1672">
@@ -53738,7 +53738,7 @@
         <v>-34.61250000000001</v>
       </c>
       <c r="F1672" t="n">
-        <v>12.09062419354877</v>
+        <v>11.59469516129113</v>
       </c>
       <c r="G1672" t="n">
         <v>-28.6</v>
@@ -53750,7 +53750,7 @@
         <v>-14.16857142857143</v>
       </c>
       <c r="J1672" t="n">
-        <v>13.94611748120302</v>
+        <v>14.16437969924813</v>
       </c>
     </row>
     <row r="1673">
@@ -53764,7 +53764,7 @@
         <v>-35.00000000000001</v>
       </c>
       <c r="F1673" t="n">
-        <v>12.09077419354877</v>
+        <v>11.59484516129113</v>
       </c>
       <c r="G1673" t="n">
         <v>-28.9875</v>
@@ -53776,7 +53776,7 @@
         <v>-14.60285714285714</v>
       </c>
       <c r="J1673" t="n">
-        <v>13.94546033834588</v>
+        <v>14.16372255639099</v>
       </c>
     </row>
     <row r="1674">
@@ -53790,7 +53790,7 @@
         <v>-35.3875</v>
       </c>
       <c r="F1674" t="n">
-        <v>12.09092419354877</v>
+        <v>11.59499516129113</v>
       </c>
       <c r="G1674" t="n">
         <v>-29.375</v>
@@ -53802,7 +53802,7 @@
         <v>-15.03714285714286</v>
       </c>
       <c r="J1674" t="n">
-        <v>13.94480319548873</v>
+        <v>14.16306541353384</v>
       </c>
     </row>
     <row r="1675">
@@ -53816,7 +53816,7 @@
         <v>-35.77500000000001</v>
       </c>
       <c r="F1675" t="n">
-        <v>12.09107419354877</v>
+        <v>11.59514516129113</v>
       </c>
       <c r="G1675" t="n">
         <v>-29.7625</v>
@@ -53828,7 +53828,7 @@
         <v>-15.47142857142857</v>
       </c>
       <c r="J1675" t="n">
-        <v>13.94414605263159</v>
+        <v>14.1624082706767</v>
       </c>
     </row>
     <row r="1676">
@@ -53842,7 +53842,7 @@
         <v>-36.16250000000001</v>
       </c>
       <c r="F1676" t="n">
-        <v>12.09122419354877</v>
+        <v>11.59529516129113</v>
       </c>
       <c r="G1676" t="n">
         <v>-30.15</v>
@@ -53854,7 +53854,7 @@
         <v>-15.90571428571429</v>
       </c>
       <c r="J1676" t="n">
-        <v>13.94348890977445</v>
+        <v>14.16175112781956</v>
       </c>
     </row>
     <row r="1677">
@@ -53868,7 +53868,7 @@
         <v>-36.55000000000001</v>
       </c>
       <c r="F1677" t="n">
-        <v>12.09137419354877</v>
+        <v>11.59544516129113</v>
       </c>
       <c r="G1677" t="n">
         <v>-30.5375</v>
@@ -53880,7 +53880,7 @@
         <v>-16.34</v>
       </c>
       <c r="J1677" t="n">
-        <v>13.9428317669173</v>
+        <v>14.16109398496241</v>
       </c>
     </row>
     <row r="1678">
@@ -53894,7 +53894,7 @@
         <v>-36.93750000000001</v>
       </c>
       <c r="F1678" t="n">
-        <v>12.09152419354877</v>
+        <v>11.59559516129113</v>
       </c>
       <c r="G1678" t="n">
         <v>-30.925</v>
@@ -53906,7 +53906,7 @@
         <v>-16.77428571428571</v>
       </c>
       <c r="J1678" t="n">
-        <v>13.94217462406016</v>
+        <v>14.16043684210527</v>
       </c>
     </row>
     <row r="1679">
@@ -53920,7 +53920,7 @@
         <v>-37.32500000000001</v>
       </c>
       <c r="F1679" t="n">
-        <v>12.09167419354877</v>
+        <v>11.59574516129113</v>
       </c>
       <c r="G1679" t="n">
         <v>-31.3125</v>
@@ -53932,7 +53932,7 @@
         <v>-17.20857142857143</v>
       </c>
       <c r="J1679" t="n">
-        <v>13.94151748120302</v>
+        <v>14.15977969924813</v>
       </c>
     </row>
     <row r="1680">
@@ -53946,7 +53946,7 @@
         <v>-37.71250000000001</v>
       </c>
       <c r="F1680" t="n">
-        <v>12.09182419354877</v>
+        <v>11.59589516129113</v>
       </c>
       <c r="G1680" t="n">
         <v>-31.7</v>
@@ -53958,7 +53958,7 @@
         <v>-17.64285714285714</v>
       </c>
       <c r="J1680" t="n">
-        <v>13.94086033834588</v>
+        <v>14.15912255639099</v>
       </c>
     </row>
     <row r="1681">
@@ -53972,7 +53972,7 @@
         <v>-38.10000000000001</v>
       </c>
       <c r="F1681" t="n">
-        <v>12.09197419354877</v>
+        <v>11.59604516129113</v>
       </c>
       <c r="G1681" t="n">
         <v>-32.08750000000001</v>
@@ -53984,7 +53984,7 @@
         <v>-18.07714285714286</v>
       </c>
       <c r="J1681" t="n">
-        <v>13.94020319548873</v>
+        <v>14.15846541353384</v>
       </c>
     </row>
     <row r="1682">
@@ -53998,7 +53998,7 @@
         <v>-38.48750000000001</v>
       </c>
       <c r="F1682" t="n">
-        <v>12.09212419354877</v>
+        <v>11.59619516129113</v>
       </c>
       <c r="G1682" t="n">
         <v>-32.475</v>
@@ -54010,7 +54010,7 @@
         <v>-18.51142857142857</v>
       </c>
       <c r="J1682" t="n">
-        <v>13.93954605263159</v>
+        <v>14.1578082706767</v>
       </c>
     </row>
     <row r="1683">
@@ -54024,7 +54024,7 @@
         <v>-38.87500000000001</v>
       </c>
       <c r="F1683" t="n">
-        <v>12.09227419354877</v>
+        <v>11.59634516129113</v>
       </c>
       <c r="G1683" t="n">
         <v>-32.8625</v>
@@ -54036,7 +54036,7 @@
         <v>-18.94571428571428</v>
       </c>
       <c r="J1683" t="n">
-        <v>13.93888890977445</v>
+        <v>14.15715112781956</v>
       </c>
     </row>
     <row r="1684">
@@ -54050,7 +54050,7 @@
         <v>-39.26250000000001</v>
       </c>
       <c r="F1684" t="n">
-        <v>12.09242419354877</v>
+        <v>11.59649516129113</v>
       </c>
       <c r="G1684" t="n">
         <v>-33.25</v>
@@ -54062,7 +54062,7 @@
         <v>-19.38</v>
       </c>
       <c r="J1684" t="n">
-        <v>13.9382317669173</v>
+        <v>14.15649398496241</v>
       </c>
     </row>
     <row r="1685">
@@ -54076,7 +54076,7 @@
         <v>-39.65000000000001</v>
       </c>
       <c r="F1685" t="n">
-        <v>12.09257419354877</v>
+        <v>11.59664516129113</v>
       </c>
       <c r="G1685" t="n">
         <v>-33.6375</v>
@@ -54088,7 +54088,7 @@
         <v>-19.81428571428571</v>
       </c>
       <c r="J1685" t="n">
-        <v>13.93757462406016</v>
+        <v>14.15583684210527</v>
       </c>
     </row>
     <row r="1686">
@@ -54102,7 +54102,7 @@
         <v>-40.03750000000001</v>
       </c>
       <c r="F1686" t="n">
-        <v>12.09272419354877</v>
+        <v>11.59679516129113</v>
       </c>
       <c r="G1686" t="n">
         <v>-34.02500000000001</v>
@@ -54114,7 +54114,7 @@
         <v>-20.24857142857143</v>
       </c>
       <c r="J1686" t="n">
-        <v>13.93691748120302</v>
+        <v>14.15517969924813</v>
       </c>
     </row>
     <row r="1687">
@@ -54128,7 +54128,7 @@
         <v>-40.42500000000001</v>
       </c>
       <c r="F1687" t="n">
-        <v>12.09287419354877</v>
+        <v>11.59694516129113</v>
       </c>
       <c r="G1687" t="n">
         <v>-34.41250000000001</v>
@@ -54140,7 +54140,7 @@
         <v>-20.68285714285714</v>
       </c>
       <c r="J1687" t="n">
-        <v>13.93626033834588</v>
+        <v>14.15452255639099</v>
       </c>
     </row>
     <row r="1688">
@@ -54154,7 +54154,7 @@
         <v>-40.81250000000001</v>
       </c>
       <c r="F1688" t="n">
-        <v>12.09302419354877</v>
+        <v>11.59709516129113</v>
       </c>
       <c r="G1688" t="n">
         <v>-34.8</v>
@@ -54166,7 +54166,7 @@
         <v>-21.11714285714286</v>
       </c>
       <c r="J1688" t="n">
-        <v>13.93560319548873</v>
+        <v>14.15386541353384</v>
       </c>
     </row>
     <row r="1689">
@@ -54180,7 +54180,7 @@
         <v>-41.20000000000001</v>
       </c>
       <c r="F1689" t="n">
-        <v>12.09317419354877</v>
+        <v>11.59724516129113</v>
       </c>
       <c r="G1689" t="n">
         <v>-35.1875</v>
@@ -54192,7 +54192,7 @@
         <v>-21.55142857142857</v>
       </c>
       <c r="J1689" t="n">
-        <v>13.93494605263159</v>
+        <v>14.1532082706767</v>
       </c>
     </row>
     <row r="1690">
@@ -54206,7 +54206,7 @@
         <v>-41.58750000000001</v>
       </c>
       <c r="F1690" t="n">
-        <v>12.09332419354877</v>
+        <v>11.59739516129113</v>
       </c>
       <c r="G1690" t="n">
         <v>-35.575</v>
@@ -54218,7 +54218,7 @@
         <v>-21.98571428571428</v>
       </c>
       <c r="J1690" t="n">
-        <v>13.93428890977445</v>
+        <v>14.15255112781956</v>
       </c>
     </row>
     <row r="1691">
@@ -54232,7 +54232,7 @@
         <v>-41.97500000000001</v>
       </c>
       <c r="F1691" t="n">
-        <v>12.09347419354877</v>
+        <v>11.59754516129113</v>
       </c>
       <c r="G1691" t="n">
         <v>-35.96250000000001</v>
@@ -54244,7 +54244,7 @@
         <v>-22.42</v>
       </c>
       <c r="J1691" t="n">
-        <v>13.9336317669173</v>
+        <v>14.15189398496242</v>
       </c>
     </row>
     <row r="1692">
@@ -54258,7 +54258,7 @@
         <v>-42.36250000000001</v>
       </c>
       <c r="F1692" t="n">
-        <v>12.09362419354877</v>
+        <v>11.59769516129113</v>
       </c>
       <c r="G1692" t="n">
         <v>-36.35000000000001</v>
@@ -54270,7 +54270,7 @@
         <v>-22.85428571428571</v>
       </c>
       <c r="J1692" t="n">
-        <v>13.93297462406016</v>
+        <v>14.15123684210527</v>
       </c>
     </row>
     <row r="1693">
@@ -54284,7 +54284,7 @@
         <v>-42.75000000000001</v>
       </c>
       <c r="F1693" t="n">
-        <v>12.09377419354877</v>
+        <v>11.59784516129113</v>
       </c>
       <c r="G1693" t="n">
         <v>-36.7375</v>
@@ -54296,7 +54296,7 @@
         <v>-23.28857142857143</v>
       </c>
       <c r="J1693" t="n">
-        <v>13.93231748120302</v>
+        <v>14.15057969924813</v>
       </c>
     </row>
     <row r="1694">
@@ -54310,7 +54310,7 @@
         <v>-43.13750000000001</v>
       </c>
       <c r="F1694" t="n">
-        <v>12.09392419354877</v>
+        <v>11.59799516129113</v>
       </c>
       <c r="G1694" t="n">
         <v>-37.12500000000001</v>
@@ -54322,7 +54322,7 @@
         <v>-23.72285714285714</v>
       </c>
       <c r="J1694" t="n">
-        <v>13.93166033834588</v>
+        <v>14.14992255639099</v>
       </c>
     </row>
     <row r="1695">
@@ -54336,7 +54336,7 @@
         <v>-43.52500000000001</v>
       </c>
       <c r="F1695" t="n">
-        <v>12.09407419354877</v>
+        <v>11.59814516129113</v>
       </c>
       <c r="G1695" t="n">
         <v>-37.5125</v>
@@ -54348,7 +54348,7 @@
         <v>-24.15714285714285</v>
       </c>
       <c r="J1695" t="n">
-        <v>13.93100319548873</v>
+        <v>14.14926541353384</v>
       </c>
     </row>
     <row r="1696">
@@ -54362,7 +54362,7 @@
         <v>-43.91250000000001</v>
       </c>
       <c r="F1696" t="n">
-        <v>12.09422419354877</v>
+        <v>11.59829516129113</v>
       </c>
       <c r="G1696" t="n">
         <v>-37.90000000000001</v>
@@ -54374,7 +54374,7 @@
         <v>-24.59142857142857</v>
       </c>
       <c r="J1696" t="n">
-        <v>13.93034605263159</v>
+        <v>14.1486082706767</v>
       </c>
     </row>
     <row r="1697">
@@ -54388,7 +54388,7 @@
         <v>-44.30000000000001</v>
       </c>
       <c r="F1697" t="n">
-        <v>12.09437419354877</v>
+        <v>11.59844516129113</v>
       </c>
       <c r="G1697" t="n">
         <v>-38.28750000000001</v>
@@ -54400,7 +54400,7 @@
         <v>-25.02571428571428</v>
       </c>
       <c r="J1697" t="n">
-        <v>13.92968890977445</v>
+        <v>14.14795112781956</v>
       </c>
     </row>
     <row r="1698">
@@ -54414,7 +54414,7 @@
         <v>-44.68750000000001</v>
       </c>
       <c r="F1698" t="n">
-        <v>12.09452419354877</v>
+        <v>11.59859516129113</v>
       </c>
       <c r="G1698" t="n">
         <v>-38.675</v>
@@ -54426,7 +54426,7 @@
         <v>-25.46</v>
       </c>
       <c r="J1698" t="n">
-        <v>13.9290317669173</v>
+        <v>14.14729398496242</v>
       </c>
     </row>
     <row r="1699">
@@ -54440,7 +54440,7 @@
         <v>-45.07500000000001</v>
       </c>
       <c r="F1699" t="n">
-        <v>12.09467419354877</v>
+        <v>11.59874516129113</v>
       </c>
       <c r="G1699" t="n">
         <v>-39.06250000000001</v>
@@ -54452,7 +54452,7 @@
         <v>-25.89428571428571</v>
       </c>
       <c r="J1699" t="n">
-        <v>13.92837462406016</v>
+        <v>14.14663684210527</v>
       </c>
     </row>
     <row r="1700">
@@ -54466,7 +54466,7 @@
         <v>-45.46250000000001</v>
       </c>
       <c r="F1700" t="n">
-        <v>12.09482419354877</v>
+        <v>11.59889516129113</v>
       </c>
       <c r="G1700" t="n">
         <v>-39.45</v>
@@ -54478,7 +54478,7 @@
         <v>-26.32857142857143</v>
       </c>
       <c r="J1700" t="n">
-        <v>13.92771748120302</v>
+        <v>14.14597969924813</v>
       </c>
     </row>
     <row r="1701">
@@ -54492,7 +54492,7 @@
         <v>-45.85000000000001</v>
       </c>
       <c r="F1701" t="n">
-        <v>12.09497419354877</v>
+        <v>11.59904516129113</v>
       </c>
       <c r="G1701" t="n">
         <v>-39.83750000000001</v>
@@ -54504,7 +54504,7 @@
         <v>-26.76285714285714</v>
       </c>
       <c r="J1701" t="n">
-        <v>13.92706033834588</v>
+        <v>14.14532255639099</v>
       </c>
     </row>
     <row r="1702">
@@ -54518,7 +54518,7 @@
         <v>-46.23750000000001</v>
       </c>
       <c r="F1702" t="n">
-        <v>12.09512419354877</v>
+        <v>11.59919516129113</v>
       </c>
       <c r="G1702" t="n">
         <v>-40.22500000000001</v>
@@ -54530,7 +54530,7 @@
         <v>-27.19714285714285</v>
       </c>
       <c r="J1702" t="n">
-        <v>13.92640319548873</v>
+        <v>14.14466541353384</v>
       </c>
     </row>
     <row r="1703">
@@ -54544,7 +54544,7 @@
         <v>-46.62500000000001</v>
       </c>
       <c r="F1703" t="n">
-        <v>12.09527419354877</v>
+        <v>11.59934516129113</v>
       </c>
       <c r="G1703" t="n">
         <v>-40.61250000000001</v>
@@ -54556,7 +54556,7 @@
         <v>-27.63142857142857</v>
       </c>
       <c r="J1703" t="n">
-        <v>13.92574605263159</v>
+        <v>14.1440082706767</v>
       </c>
     </row>
     <row r="1704">
@@ -54570,7 +54570,7 @@
         <v>-47.01250000000002</v>
       </c>
       <c r="F1704" t="n">
-        <v>12.09542419354877</v>
+        <v>11.59949516129113</v>
       </c>
       <c r="G1704" t="n">
         <v>-41.00000000000001</v>
@@ -54582,7 +54582,7 @@
         <v>-28.06571428571428</v>
       </c>
       <c r="J1704" t="n">
-        <v>13.92508890977445</v>
+        <v>14.14335112781956</v>
       </c>
     </row>
     <row r="1705">
@@ -54596,7 +54596,7 @@
         <v>-47.40000000000001</v>
       </c>
       <c r="F1705" t="n">
-        <v>12.09557419354877</v>
+        <v>11.59964516129113</v>
       </c>
       <c r="G1705" t="n">
         <v>-41.3875</v>
@@ -54608,7 +54608,7 @@
         <v>-28.5</v>
       </c>
       <c r="J1705" t="n">
-        <v>13.9244317669173</v>
+        <v>14.14269398496242</v>
       </c>
     </row>
     <row r="1706">
@@ -54622,7 +54622,7 @@
         <v>-47.78750000000001</v>
       </c>
       <c r="F1706" t="n">
-        <v>12.09572419354877</v>
+        <v>11.59979516129112</v>
       </c>
       <c r="G1706" t="n">
         <v>-41.77500000000001</v>
@@ -54634,7 +54634,7 @@
         <v>-28.93428571428571</v>
       </c>
       <c r="J1706" t="n">
-        <v>13.92377462406016</v>
+        <v>14.14203684210527</v>
       </c>
     </row>
     <row r="1707">
@@ -54648,7 +54648,7 @@
         <v>-48.17500000000001</v>
       </c>
       <c r="F1707" t="n">
-        <v>12.09587419354877</v>
+        <v>11.59994516129112</v>
       </c>
       <c r="G1707" t="n">
         <v>-42.16250000000001</v>
@@ -54660,7 +54660,7 @@
         <v>-29.36857142857142</v>
       </c>
       <c r="J1707" t="n">
-        <v>13.92311748120302</v>
+        <v>14.14137969924813</v>
       </c>
     </row>
     <row r="1708">
@@ -54674,7 +54674,7 @@
         <v>-48.56250000000001</v>
       </c>
       <c r="F1708" t="n">
-        <v>12.09602419354877</v>
+        <v>11.60009516129112</v>
       </c>
       <c r="G1708" t="n">
         <v>-42.55000000000001</v>
@@ -54686,7 +54686,7 @@
         <v>-29.80285714285714</v>
       </c>
       <c r="J1708" t="n">
-        <v>13.92246033834588</v>
+        <v>14.14072255639099</v>
       </c>
     </row>
     <row r="1709">
@@ -54700,7 +54700,7 @@
         <v>-48.95000000000002</v>
       </c>
       <c r="F1709" t="n">
-        <v>12.09617419354877</v>
+        <v>11.60024516129112</v>
       </c>
       <c r="G1709" t="n">
         <v>-42.93750000000001</v>
@@ -54712,7 +54712,7 @@
         <v>-30.23714285714285</v>
       </c>
       <c r="J1709" t="n">
-        <v>13.92180319548873</v>
+        <v>14.14006541353384</v>
       </c>
     </row>
     <row r="1710">
@@ -54726,7 +54726,7 @@
         <v>-49.33750000000001</v>
       </c>
       <c r="F1710" t="n">
-        <v>12.09632419354877</v>
+        <v>11.60039516129113</v>
       </c>
       <c r="G1710" t="n">
         <v>-43.32500000000001</v>
@@ -54738,7 +54738,7 @@
         <v>-30.67142857142857</v>
       </c>
       <c r="J1710" t="n">
-        <v>13.92114605263159</v>
+        <v>14.1394082706767</v>
       </c>
     </row>
     <row r="1711">
@@ -54752,7 +54752,7 @@
         <v>-49.72500000000002</v>
       </c>
       <c r="F1711" t="n">
-        <v>12.09647419354877</v>
+        <v>11.60054516129112</v>
       </c>
       <c r="G1711" t="n">
         <v>-43.71250000000001</v>
@@ -54764,7 +54764,7 @@
         <v>-31.10571428571428</v>
       </c>
       <c r="J1711" t="n">
-        <v>13.92048890977445</v>
+        <v>14.13875112781956</v>
       </c>
     </row>
     <row r="1712">
@@ -54784,7 +54784,7 @@
         <v>-31.54</v>
       </c>
       <c r="J1712" t="n">
-        <v>13.91983176691731</v>
+        <v>14.13809398496242</v>
       </c>
     </row>
     <row r="1713">
@@ -54804,7 +54804,7 @@
         <v>-31.97428571428571</v>
       </c>
       <c r="J1713" t="n">
-        <v>13.91917462406016</v>
+        <v>14.13743684210527</v>
       </c>
     </row>
     <row r="1714">
@@ -54824,7 +54824,7 @@
         <v>-32.40857142857142</v>
       </c>
       <c r="J1714" t="n">
-        <v>13.91851748120302</v>
+        <v>14.13677969924813</v>
       </c>
     </row>
     <row r="1715">
@@ -54844,7 +54844,7 @@
         <v>-32.84285714285714</v>
       </c>
       <c r="J1715" t="n">
-        <v>13.91786033834588</v>
+        <v>14.13612255639099</v>
       </c>
     </row>
     <row r="1716">
@@ -54864,7 +54864,7 @@
         <v>-33.27714285714285</v>
       </c>
       <c r="J1716" t="n">
-        <v>13.91720319548873</v>
+        <v>14.13546541353384</v>
       </c>
     </row>
     <row r="1717">
@@ -54884,7 +54884,7 @@
         <v>-33.71142857142857</v>
       </c>
       <c r="J1717" t="n">
-        <v>13.91654605263159</v>
+        <v>14.1348082706767</v>
       </c>
     </row>
     <row r="1718">
@@ -54904,7 +54904,7 @@
         <v>-34.14571428571428</v>
       </c>
       <c r="J1718" t="n">
-        <v>13.91588890977445</v>
+        <v>14.13415112781956</v>
       </c>
     </row>
     <row r="1719">
@@ -54924,7 +54924,7 @@
         <v>-34.58</v>
       </c>
       <c r="J1719" t="n">
-        <v>13.91523176691731</v>
+        <v>14.13349398496242</v>
       </c>
     </row>
     <row r="1720">
@@ -54944,7 +54944,7 @@
         <v>-35.01428571428571</v>
       </c>
       <c r="J1720" t="n">
-        <v>13.91457462406016</v>
+        <v>14.13283684210527</v>
       </c>
     </row>
     <row r="1721">
@@ -54964,7 +54964,7 @@
         <v>-35.44857142857143</v>
       </c>
       <c r="J1721" t="n">
-        <v>13.91391748120302</v>
+        <v>14.13217969924813</v>
       </c>
     </row>
     <row r="1722">
@@ -54984,7 +54984,7 @@
         <v>-35.88285714285713</v>
       </c>
       <c r="J1722" t="n">
-        <v>13.91326033834588</v>
+        <v>14.13152255639099</v>
       </c>
     </row>
     <row r="1723">
@@ -55004,7 +55004,7 @@
         <v>-36.31714285714285</v>
       </c>
       <c r="J1723" t="n">
-        <v>13.91260319548873</v>
+        <v>14.13086541353384</v>
       </c>
     </row>
     <row r="1724">
@@ -55024,7 +55024,7 @@
         <v>-36.75142857142856</v>
       </c>
       <c r="J1724" t="n">
-        <v>13.91194605263159</v>
+        <v>14.1302082706767</v>
       </c>
     </row>
     <row r="1725">
@@ -55044,7 +55044,7 @@
         <v>-37.18571428571428</v>
       </c>
       <c r="J1725" t="n">
-        <v>13.91128890977445</v>
+        <v>14.12955112781956</v>
       </c>
     </row>
     <row r="1726">
@@ -55064,7 +55064,7 @@
         <v>-37.61999999999999</v>
       </c>
       <c r="J1726" t="n">
-        <v>13.91063176691731</v>
+        <v>14.12889398496242</v>
       </c>
     </row>
     <row r="1727">
@@ -55084,7 +55084,7 @@
         <v>-38.05428571428571</v>
       </c>
       <c r="J1727" t="n">
-        <v>13.90997462406016</v>
+        <v>14.12823684210527</v>
       </c>
     </row>
     <row r="1728">
@@ -55098,7 +55098,7 @@
         <v>-38.48857142857142</v>
       </c>
       <c r="J1728" t="n">
-        <v>13.90931748120302</v>
+        <v>14.12757969924813</v>
       </c>
     </row>
     <row r="1729">
@@ -55112,7 +55112,7 @@
         <v>-38.92285714285714</v>
       </c>
       <c r="J1729" t="n">
-        <v>13.90866033834588</v>
+        <v>14.12692255639099</v>
       </c>
     </row>
     <row r="1730">
@@ -55126,7 +55126,7 @@
         <v>-39.35714285714285</v>
       </c>
       <c r="J1730" t="n">
-        <v>13.90800319548873</v>
+        <v>14.12626541353384</v>
       </c>
     </row>
     <row r="1731">
@@ -55140,7 +55140,7 @@
         <v>-39.79142857142857</v>
       </c>
       <c r="J1731" t="n">
-        <v>13.90734605263159</v>
+        <v>14.1256082706767</v>
       </c>
     </row>
     <row r="1732">
@@ -55154,7 +55154,7 @@
         <v>-40.22571428571428</v>
       </c>
       <c r="J1732" t="n">
-        <v>13.90668890977445</v>
+        <v>14.12495112781956</v>
       </c>
     </row>
     <row r="1733">
@@ -55168,7 +55168,7 @@
         <v>-40.66</v>
       </c>
       <c r="J1733" t="n">
-        <v>13.90603176691731</v>
+        <v>14.12429398496242</v>
       </c>
     </row>
     <row r="1734">
@@ -55182,7 +55182,7 @@
         <v>-41.0942857142857</v>
       </c>
       <c r="J1734" t="n">
-        <v>13.90537462406016</v>
+        <v>14.12363684210527</v>
       </c>
     </row>
     <row r="1735">
@@ -55196,7 +55196,7 @@
         <v>-41.52857142857142</v>
       </c>
       <c r="J1735" t="n">
-        <v>13.90471748120302</v>
+        <v>14.12297969924813</v>
       </c>
     </row>
     <row r="1736">
@@ -55210,7 +55210,7 @@
         <v>-41.96285714285713</v>
       </c>
       <c r="J1736" t="n">
-        <v>13.90406033834588</v>
+        <v>14.12232255639099</v>
       </c>
     </row>
     <row r="1737">
@@ -55224,7 +55224,7 @@
         <v>-42.39714285714285</v>
       </c>
       <c r="J1737" t="n">
-        <v>13.90340319548873</v>
+        <v>14.12166541353384</v>
       </c>
     </row>
     <row r="1738">
@@ -55238,7 +55238,7 @@
         <v>-42.83142857142856</v>
       </c>
       <c r="J1738" t="n">
-        <v>13.90274605263159</v>
+        <v>14.1210082706767</v>
       </c>
     </row>
     <row r="1739">
@@ -55252,7 +55252,7 @@
         <v>-43.26571428571428</v>
       </c>
       <c r="J1739" t="n">
-        <v>13.90208890977445</v>
+        <v>14.12035112781956</v>
       </c>
     </row>
     <row r="1740">
@@ -55266,7 +55266,7 @@
         <v>-43.69999999999999</v>
       </c>
       <c r="J1740" t="n">
-        <v>13.90143176691731</v>
+        <v>14.11969398496242</v>
       </c>
     </row>
     <row r="1741">
@@ -55280,7 +55280,7 @@
         <v>-44.13428571428571</v>
       </c>
       <c r="J1741" t="n">
-        <v>13.90077462406016</v>
+        <v>14.11903684210527</v>
       </c>
     </row>
     <row r="1742">
@@ -55294,7 +55294,7 @@
         <v>-44.56857142857142</v>
       </c>
       <c r="J1742" t="n">
-        <v>13.90011748120302</v>
+        <v>14.11837969924813</v>
       </c>
     </row>
     <row r="1743">
@@ -55308,7 +55308,7 @@
         <v>-45.00285714285714</v>
       </c>
       <c r="J1743" t="n">
-        <v>13.89946033834588</v>
+        <v>14.11772255639099</v>
       </c>
     </row>
     <row r="1744">
@@ -55322,7 +55322,7 @@
         <v>-45.43714285714285</v>
       </c>
       <c r="J1744" t="n">
-        <v>13.89880319548873</v>
+        <v>14.11706541353384</v>
       </c>
     </row>
     <row r="1745">
@@ -55336,7 +55336,7 @@
         <v>-45.87142857142857</v>
       </c>
       <c r="J1745" t="n">
-        <v>13.89814605263159</v>
+        <v>14.1164082706767</v>
       </c>
     </row>
     <row r="1746">
@@ -55350,7 +55350,7 @@
         <v>-46.30571428571427</v>
       </c>
       <c r="J1746" t="n">
-        <v>13.89748890977445</v>
+        <v>14.11575112781956</v>
       </c>
     </row>
     <row r="1747">
@@ -55364,7 +55364,7 @@
         <v>-46.73999999999999</v>
       </c>
       <c r="J1747" t="n">
-        <v>13.89683176691731</v>
+        <v>14.11509398496242</v>
       </c>
     </row>
     <row r="1748">
@@ -55378,7 +55378,7 @@
         <v>-47.1742857142857</v>
       </c>
       <c r="J1748" t="n">
-        <v>13.89617462406016</v>
+        <v>14.11443684210527</v>
       </c>
     </row>
     <row r="1749">
@@ -55392,7 +55392,7 @@
         <v>-47.60857142857142</v>
       </c>
       <c r="J1749" t="n">
-        <v>13.89551748120302</v>
+        <v>14.11377969924813</v>
       </c>
     </row>
     <row r="1750">
@@ -55406,7 +55406,7 @@
         <v>-48.04285714285713</v>
       </c>
       <c r="J1750" t="n">
-        <v>13.89486033834588</v>
+        <v>14.11312255639099</v>
       </c>
     </row>
     <row r="1751">
@@ -55420,7 +55420,7 @@
         <v>-48.47714285714285</v>
       </c>
       <c r="J1751" t="n">
-        <v>13.89420319548873</v>
+        <v>14.11246541353384</v>
       </c>
     </row>
     <row r="1752">
@@ -55434,7 +55434,7 @@
         <v>-48.91142857142856</v>
       </c>
       <c r="J1752" t="n">
-        <v>13.89354605263159</v>
+        <v>14.1118082706767</v>
       </c>
     </row>
     <row r="1753">
@@ -55448,7 +55448,7 @@
         <v>-49.34571428571428</v>
       </c>
       <c r="J1753" t="n">
-        <v>13.89288890977445</v>
+        <v>14.11115112781956</v>
       </c>
     </row>
     <row r="1754">
@@ -55462,7 +55462,7 @@
         <v>-49.77999999999999</v>
       </c>
       <c r="J1754" t="n">
-        <v>13.89223176691731</v>
+        <v>14.11049398496242</v>
       </c>
     </row>
     <row r="1755">

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -48715,10 +48715,10 @@
     </row>
     <row r="1514">
       <c r="A1514" t="n">
-        <v>0.1500000000000199</v>
+        <v>0.1646914330463351</v>
       </c>
       <c r="B1514" t="n">
-        <v>15.07625714285714</v>
+        <v>15.07617631786399</v>
       </c>
       <c r="C1514" t="n">
         <v>45.37</v>
@@ -48747,10 +48747,10 @@
     </row>
     <row r="1515">
       <c r="A1515" t="n">
-        <v>-0.2799999999999798</v>
+        <v>-0.2430260030120848</v>
       </c>
       <c r="B1515" t="n">
-        <v>15.07638571428571</v>
+        <v>15.07606893011434</v>
       </c>
       <c r="C1515" t="n">
         <v>45.21</v>
@@ -48779,10 +48779,10 @@
     </row>
     <row r="1516">
       <c r="A1516" t="n">
-        <v>-0.7099999999999795</v>
+        <v>-0.6431523081752396</v>
       </c>
       <c r="B1516" t="n">
-        <v>15.07651428571428</v>
+        <v>15.07580640817962</v>
       </c>
       <c r="C1516" t="n">
         <v>45.04</v>
@@ -48811,10 +48811,10 @@
     </row>
     <row r="1517">
       <c r="A1517" t="n">
-        <v>-1.139999999999979</v>
+        <v>-1.03568748244313</v>
       </c>
       <c r="B1517" t="n">
-        <v>15.07664285714285</v>
+        <v>15.07538875205982</v>
       </c>
       <c r="C1517" t="n">
         <v>44.88</v>
@@ -48843,10 +48843,10 @@
     </row>
     <row r="1518">
       <c r="A1518" t="n">
-        <v>-1.569999999999979</v>
+        <v>-1.420631525815755</v>
       </c>
       <c r="B1518" t="n">
-        <v>15.07677142857142</v>
+        <v>15.07481596175494</v>
       </c>
       <c r="C1518" t="n">
         <v>44.71</v>
@@ -48875,10 +48875,10 @@
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>-1.97609006727611</v>
+        <v>-1.797984438293116</v>
       </c>
       <c r="B1519" t="n">
-        <v>15.07618163373318</v>
+        <v>15.07408803726499</v>
       </c>
       <c r="C1519" t="n">
         <v>44.54</v>
@@ -48907,10 +48907,10 @@
     </row>
     <row r="1520">
       <c r="A1520" t="n">
-        <v>-2.350608306818738</v>
+        <v>-2.167746219875212</v>
       </c>
       <c r="B1520" t="n">
-        <v>15.07415996457859</v>
+        <v>15.07320497858997</v>
       </c>
       <c r="C1520" t="n">
         <v>44.38</v>
@@ -48939,10 +48939,10 @@
     </row>
     <row r="1521">
       <c r="A1521" t="n">
-        <v>-2.69355471862786</v>
+        <v>-2.529916870562042</v>
       </c>
       <c r="B1521" t="n">
-        <v>15.07070642110762</v>
+        <v>15.07216678572987</v>
       </c>
       <c r="C1521" t="n">
         <v>44.21</v>
@@ -48971,10 +48971,10 @@
     </row>
     <row r="1522">
       <c r="A1522" t="n">
-        <v>-3.004929302703478</v>
+        <v>-2.884496390353608</v>
       </c>
       <c r="B1522" t="n">
-        <v>15.06582100332029</v>
+        <v>15.0709734586847</v>
       </c>
       <c r="C1522" t="n">
         <v>44.04</v>
@@ -49003,10 +49003,10 @@
     </row>
     <row r="1523">
       <c r="A1523" t="n">
-        <v>-3.284732059045592</v>
+        <v>-3.23148477924991</v>
       </c>
       <c r="B1523" t="n">
-        <v>15.0595037112166</v>
+        <v>15.06962499745446</v>
       </c>
       <c r="C1523" t="n">
         <v>43.88</v>
@@ -49035,10 +49035,10 @@
     </row>
     <row r="1524">
       <c r="A1524" t="n">
-        <v>-3.532962987654202</v>
+        <v>-3.570882037250946</v>
       </c>
       <c r="B1524" t="n">
-        <v>15.05175454479655</v>
+        <v>15.06812140203914</v>
       </c>
       <c r="C1524" t="n">
         <v>43.71</v>
@@ -49067,10 +49067,10 @@
     </row>
     <row r="1525">
       <c r="A1525" t="n">
-        <v>-3.749622088529308</v>
+        <v>-3.902688164356717</v>
       </c>
       <c r="B1525" t="n">
-        <v>15.04257350406013</v>
+        <v>15.06646267243874</v>
       </c>
       <c r="C1525" t="n">
         <v>43.54</v>
@@ -49099,10 +49099,10 @@
     </row>
     <row r="1526">
       <c r="A1526" t="n">
-        <v>-3.934709361670908</v>
+        <v>-4.226903160567224</v>
       </c>
       <c r="B1526" t="n">
-        <v>15.03196058900735</v>
+        <v>15.06464880865327</v>
       </c>
       <c r="C1526" t="n">
         <v>43.37</v>
@@ -49131,10 +49131,10 @@
     </row>
     <row r="1527">
       <c r="A1527" t="n">
-        <v>-4.088224807079005</v>
+        <v>-4.543527025882466</v>
       </c>
       <c r="B1527" t="n">
-        <v>15.01991579963821</v>
+        <v>15.06267981068274</v>
       </c>
       <c r="C1527" t="n">
         <v>43.21</v>
@@ -49163,10 +49163,10 @@
     </row>
     <row r="1528">
       <c r="A1528" t="n">
-        <v>-4.210168424753597</v>
+        <v>-4.852559760302444</v>
       </c>
       <c r="B1528" t="n">
-        <v>15.0064391359527</v>
+        <v>15.06055567852712</v>
       </c>
       <c r="C1528" t="n">
         <v>43.04</v>
@@ -49195,10 +49195,10 @@
     </row>
     <row r="1529">
       <c r="A1529" t="n">
-        <v>-4.300540214694685</v>
+        <v>-5.154001363827156</v>
       </c>
       <c r="B1529" t="n">
-        <v>14.99153059795084</v>
+        <v>15.05827641218642</v>
       </c>
       <c r="C1529" t="n">
         <v>42.88</v>
@@ -49227,10 +49227,10 @@
     </row>
     <row r="1530">
       <c r="A1530" t="n">
-        <v>-4.359340176902268</v>
+        <v>-5.447851836456604</v>
       </c>
       <c r="B1530" t="n">
-        <v>14.97519018563261</v>
+        <v>15.05584201166066</v>
       </c>
       <c r="C1530" t="n">
         <v>42.71</v>
@@ -49259,10 +49259,10 @@
     </row>
     <row r="1531">
       <c r="A1531" t="n">
-        <v>-4.386568311376347</v>
+        <v>-5.734111178190787</v>
       </c>
       <c r="B1531" t="n">
-        <v>14.95741789899801</v>
+        <v>15.05325247694982</v>
       </c>
       <c r="C1531" t="n">
         <v>42.54</v>
@@ -49291,10 +49291,10 @@
     </row>
     <row r="1532">
       <c r="A1532" t="n">
-        <v>-4.388585049833866</v>
+        <v>-6.012779389029705</v>
       </c>
       <c r="B1532" t="n">
-        <v>14.95175993355486</v>
+        <v>15.0505078080539</v>
       </c>
       <c r="C1532" t="n">
         <v>42.38</v>
@@ -49323,10 +49323,10 @@
     </row>
     <row r="1533">
       <c r="A1533" t="n">
-        <v>-4.394102484137737</v>
+        <v>-6.283856468973357</v>
       </c>
       <c r="B1533" t="n">
-        <v>14.94092196918422</v>
+        <v>15.04760800497291</v>
       </c>
       <c r="C1533" t="n">
         <v>42.21</v>
@@ -49355,10 +49355,10 @@
     </row>
     <row r="1534">
       <c r="A1534" t="n">
-        <v>-4.408478514990249</v>
+        <v>-6.547342418021746</v>
       </c>
       <c r="B1534" t="n">
-        <v>14.9298261737316</v>
+        <v>15.04455306770685</v>
       </c>
       <c r="C1534" t="n">
         <v>42.04</v>
@@ -49387,10 +49387,10 @@
     </row>
     <row r="1535">
       <c r="A1535" t="n">
-        <v>-4.43165963269922</v>
+        <v>-6.80323723617487</v>
       </c>
       <c r="B1535" t="n">
-        <v>14.9184907097212</v>
+        <v>15.04134299625572</v>
       </c>
       <c r="C1535" t="n">
         <v>41.88</v>
@@ -49419,10 +49419,10 @@
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>-4.463592327572472</v>
+        <v>-7.051540923432729</v>
       </c>
       <c r="B1536" t="n">
-        <v>14.90693373967723</v>
+        <v>15.0379777906195</v>
       </c>
       <c r="C1536" t="n">
         <v>41.71</v>
@@ -49451,10 +49451,10 @@
     </row>
     <row r="1537">
       <c r="A1537" t="n">
-        <v>-4.504223089917822</v>
+        <v>-7.29225347979532</v>
       </c>
       <c r="B1537" t="n">
-        <v>14.89517342612388</v>
+        <v>15.03445745079822</v>
       </c>
       <c r="C1537" t="n">
         <v>41.54</v>
@@ -49483,10 +49483,10 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>-4.553498410043094</v>
+        <v>-7.525374905262652</v>
       </c>
       <c r="B1538" t="n">
-        <v>14.88322793158534</v>
+        <v>15.03078197679186</v>
       </c>
       <c r="C1538" t="n">
         <v>41.38</v>
@@ -49515,10 +49515,10 @@
     </row>
     <row r="1539">
       <c r="A1539" t="n">
-        <v>-4.611364778256102</v>
+        <v>-7.750905199834715</v>
       </c>
       <c r="B1539" t="n">
-        <v>14.87111541858583</v>
+        <v>15.02695136860043</v>
       </c>
       <c r="C1539" t="n">
         <v>41.21</v>
@@ -49547,10 +49547,10 @@
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>-4.677768684864674</v>
+        <v>-7.968844363511514</v>
       </c>
       <c r="B1540" t="n">
-        <v>14.85885404964955</v>
+        <v>15.02296562622391</v>
       </c>
       <c r="C1540" t="n">
         <v>41.04</v>
@@ -49579,10 +49579,10 @@
     </row>
     <row r="1541">
       <c r="A1541" t="n">
-        <v>-4.752656620176625</v>
+        <v>-8.179192396293049</v>
       </c>
       <c r="B1541" t="n">
-        <v>14.84646198730069</v>
+        <v>15.01882474966233</v>
       </c>
       <c r="C1541" t="n">
         <v>40.88</v>
@@ -49611,10 +49611,10 @@
     </row>
     <row r="1542">
       <c r="A1542" t="n">
-        <v>-4.835975074499774</v>
+        <v>-8.381949298179318</v>
       </c>
       <c r="B1542" t="n">
-        <v>14.83395739406345</v>
+        <v>15.01452873891567</v>
       </c>
       <c r="C1542" t="n">
         <v>40.71</v>
@@ -49643,10 +49643,10 @@
     </row>
     <row r="1543">
       <c r="A1543" t="n">
-        <v>-4.927670538141943</v>
+        <v>-8.577115069170324</v>
       </c>
       <c r="B1543" t="n">
-        <v>14.82135843246204</v>
+        <v>15.01007759398394</v>
       </c>
       <c r="C1543" t="n">
         <v>40.54</v>
@@ -49675,10 +49675,10 @@
     </row>
     <row r="1544">
       <c r="A1544" t="n">
-        <v>-5.027689501410952</v>
+        <v>-8.764689709266065</v>
       </c>
       <c r="B1544" t="n">
-        <v>14.80868326502066</v>
+        <v>15.00547131486714</v>
       </c>
       <c r="C1544" t="n">
         <v>40.38</v>
@@ -49707,10 +49707,10 @@
     </row>
     <row r="1545">
       <c r="A1545" t="n">
-        <v>-5.135978454614623</v>
+        <v>-8.944673218466541</v>
       </c>
       <c r="B1545" t="n">
-        <v>14.7959500542635</v>
+        <v>15.00070990156525</v>
       </c>
       <c r="C1545" t="n">
         <v>40.21</v>
@@ -49739,10 +49739,10 @@
     </row>
     <row r="1546">
       <c r="A1546" t="n">
-        <v>-5.252483888060771</v>
+        <v>-9.117065596771749</v>
       </c>
       <c r="B1546" t="n">
-        <v>14.78317696271477</v>
+        <v>14.9957933540783</v>
       </c>
       <c r="C1546" t="n">
         <v>40.04</v>
@@ -49771,10 +49771,10 @@
     </row>
     <row r="1547">
       <c r="A1547" t="n">
-        <v>-5.377152292057219</v>
+        <v>-9.281866844181696</v>
       </c>
       <c r="B1547" t="n">
-        <v>14.77038215289866</v>
+        <v>14.99072167240627</v>
       </c>
       <c r="C1547" t="n">
         <v>39.88</v>
@@ -49803,10 +49803,10 @@
     </row>
     <row r="1548">
       <c r="A1548" t="n">
-        <v>-5.509930156911788</v>
+        <v>-9.439076960696376</v>
       </c>
       <c r="B1548" t="n">
-        <v>14.75758378733939</v>
+        <v>14.98549485654917</v>
       </c>
       <c r="C1548" t="n">
         <v>39.71</v>
@@ -49835,10 +49835,10 @@
     </row>
     <row r="1549">
       <c r="A1549" t="n">
-        <v>-5.650763972932298</v>
+        <v>-9.588695946315793</v>
       </c>
       <c r="B1549" t="n">
-        <v>14.74480002856114</v>
+        <v>14.98011290650699</v>
       </c>
       <c r="C1549" t="n">
         <v>39.54</v>
@@ -49867,10 +49867,10 @@
     </row>
     <row r="1550">
       <c r="A1550" t="n">
-        <v>-5.799600230426565</v>
+        <v>-9.730723801039943</v>
       </c>
       <c r="B1550" t="n">
-        <v>14.73204903908812</v>
+        <v>14.97457582227974</v>
       </c>
       <c r="C1550" t="n">
         <v>39.38</v>
@@ -49899,10 +49899,10 @@
     </row>
     <row r="1551">
       <c r="A1551" t="n">
-        <v>-5.956385419702411</v>
+        <v>-9.865160524868831</v>
       </c>
       <c r="B1551" t="n">
-        <v>14.71934898144453</v>
+        <v>14.96888360386741</v>
       </c>
       <c r="C1551" t="n">
         <v>39.21</v>
@@ -49931,10 +49931,10 @@
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>-6.121066031067659</v>
+        <v>-9.992006117802452</v>
       </c>
       <c r="B1552" t="n">
-        <v>14.70671801815457</v>
+        <v>14.96303625127001</v>
       </c>
       <c r="C1552" t="n">
         <v>39.04</v>
@@ -49963,10 +49963,10 @@
     </row>
     <row r="1553">
       <c r="A1553" t="n">
-        <v>-6.293588554830126</v>
+        <v>-10.11126057984081</v>
       </c>
       <c r="B1553" t="n">
-        <v>14.69417431174244</v>
+        <v>14.95703376448754</v>
       </c>
       <c r="C1553" t="n">
         <v>38.88</v>
@@ -49995,10 +49995,10 @@
     </row>
     <row r="1554">
       <c r="A1554" t="n">
-        <v>-6.473899481297631</v>
+        <v>-10.2229239109839</v>
       </c>
       <c r="B1554" t="n">
-        <v>14.68173602473234</v>
+        <v>14.95087614351999</v>
       </c>
       <c r="C1554" t="n">
         <v>38.71</v>
@@ -50027,10 +50027,10 @@
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>-6.661945300777997</v>
+        <v>-10.32699611123173</v>
       </c>
       <c r="B1555" t="n">
-        <v>14.66942131964847</v>
+        <v>14.94456338836736</v>
       </c>
       <c r="C1555" t="n">
         <v>38.55</v>
@@ -50059,10 +50059,10 @@
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>-6.857672503579042</v>
+        <v>-10.42347718058429</v>
       </c>
       <c r="B1556" t="n">
-        <v>14.65724835901504</v>
+        <v>14.93809549902966</v>
       </c>
       <c r="C1556" t="n">
         <v>38.38</v>
@@ -50091,10 +50091,10 @@
     </row>
     <row r="1557">
       <c r="A1557" t="n">
-        <v>-7.06102758000859</v>
+        <v>-10.51236711904159</v>
       </c>
       <c r="B1557" t="n">
-        <v>14.64523530535624</v>
+        <v>14.93147247550689</v>
       </c>
       <c r="C1557" t="n">
         <v>38.21</v>
@@ -50123,10 +50123,10 @@
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>-7.271957020374453</v>
+        <v>-10.59366592660362</v>
       </c>
       <c r="B1558" t="n">
-        <v>14.63340032119627</v>
+        <v>14.92469431779905</v>
       </c>
       <c r="C1558" t="n">
         <v>38.05</v>
@@ -50155,10 +50155,10 @@
     </row>
     <row r="1559">
       <c r="A1559" t="n">
-        <v>-7.490407314984459</v>
+        <v>-10.66737360327039</v>
       </c>
       <c r="B1559" t="n">
-        <v>14.62176156905933</v>
+        <v>14.91776102590613</v>
       </c>
       <c r="C1559" t="n">
         <v>37.88</v>
@@ -50187,10 +50187,10 @@
     </row>
     <row r="1560">
       <c r="A1560" t="n">
-        <v>-7.716324954146422</v>
+        <v>-10.73349014904189</v>
       </c>
       <c r="B1560" t="n">
-        <v>14.61033721146963</v>
+        <v>14.91067259982813</v>
       </c>
       <c r="C1560" t="n">
         <v>37.71</v>
@@ -50219,10 +50219,10 @@
     </row>
     <row r="1561">
       <c r="A1561" t="n">
-        <v>-7.949656428168163</v>
+        <v>-10.79201556391813</v>
       </c>
       <c r="B1561" t="n">
-        <v>14.59914541095137</v>
+        <v>14.90342903956506</v>
       </c>
       <c r="C1561" t="n">
         <v>37.55</v>
@@ -50251,10 +50251,10 @@
     </row>
     <row r="1562">
       <c r="A1562" t="n">
-        <v>-8.190348227357507</v>
+        <v>-10.8429498478991</v>
       </c>
       <c r="B1562" t="n">
-        <v>14.58820433002873</v>
+        <v>14.89603034511692</v>
       </c>
       <c r="C1562" t="n">
         <v>37.38</v>
@@ -50283,10 +50283,10 @@
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>-8.438346842022272</v>
+        <v>-10.88629300098481</v>
       </c>
       <c r="B1563" t="n">
-        <v>14.57753213122594</v>
+        <v>14.8884765164837</v>
       </c>
       <c r="C1563" t="n">
         <v>37.21</v>
@@ -50315,10 +50315,10 @@
     </row>
     <row r="1564">
       <c r="A1564" t="n">
-        <v>-8.693598762470273</v>
+        <v>-10.92204502317526</v>
       </c>
       <c r="B1564" t="n">
-        <v>14.56714697706718</v>
+        <v>14.88076755366541</v>
       </c>
       <c r="C1564" t="n">
         <v>37.05</v>
@@ -50347,10 +50347,10 @@
     </row>
     <row r="1565">
       <c r="A1565" t="n">
-        <v>-8.956050479009333</v>
+        <v>-10.95020591447044</v>
       </c>
       <c r="B1565" t="n">
-        <v>14.55706703007665</v>
+        <v>14.87290345666204</v>
       </c>
       <c r="C1565" t="n">
         <v>36.88</v>
@@ -50379,10 +50379,10 @@
     </row>
     <row r="1566">
       <c r="A1566" t="n">
-        <v>-9.225648481947275</v>
+        <v>-10.97077567487035</v>
       </c>
       <c r="B1566" t="n">
-        <v>14.54731045277856</v>
+        <v>14.8648842254736</v>
       </c>
       <c r="C1566" t="n">
         <v>36.71</v>
@@ -50411,10 +50411,10 @@
     </row>
     <row r="1567">
       <c r="A1567" t="n">
-        <v>-9.502339261591917</v>
+        <v>-10.983754304375</v>
       </c>
       <c r="B1567" t="n">
-        <v>14.53789540769711</v>
+        <v>14.85670986010009</v>
       </c>
       <c r="C1567" t="n">
         <v>36.55</v>
@@ -50443,10 +50443,10 @@
     </row>
     <row r="1568">
       <c r="A1568" t="n">
-        <v>-9.786069308251076</v>
+        <v>-10.98815946843848</v>
       </c>
       <c r="B1568" t="n">
-        <v>14.5288400573565</v>
+        <v>14.85123441860473</v>
       </c>
       <c r="C1568" t="n">
         <v>36.38</v>
@@ -50475,10 +50475,10 @@
     </row>
     <row r="1569">
       <c r="A1569" t="n">
-        <v>-10.07678511223257</v>
+        <v>-10.99648427355673</v>
       </c>
       <c r="B1569" t="n">
-        <v>14.52016256428093</v>
+        <v>14.84301957377859</v>
       </c>
       <c r="C1569" t="n">
         <v>36.21</v>
@@ -50507,10 +50507,10 @@
     </row>
     <row r="1570">
       <c r="A1570" t="n">
-        <v>-10.37443316384423</v>
+        <v>-11.01320461786008</v>
       </c>
       <c r="B1570" t="n">
-        <v>14.5118810909946</v>
+        <v>14.83471879424049</v>
       </c>
       <c r="C1570" t="n">
         <v>36.05</v>
@@ -50539,10 +50539,10 @@
     </row>
     <row r="1571">
       <c r="A1571" t="n">
-        <v>-10.67895995339387</v>
+        <v>-11.03819598959392</v>
       </c>
       <c r="B1571" t="n">
-        <v>14.50401380002171</v>
+        <v>14.82633452275602</v>
       </c>
       <c r="C1571" t="n">
         <v>35.88</v>
@@ -50571,10 +50571,10 @@
     </row>
     <row r="1572">
       <c r="A1572" t="n">
-        <v>-10.99031197118931</v>
+        <v>-11.0713338770036</v>
       </c>
       <c r="B1572" t="n">
-        <v>14.49657885388645</v>
+        <v>14.81786920209075</v>
       </c>
       <c r="C1572" t="n">
         <v>35.71</v>
@@ -50603,10 +50603,10 @@
     </row>
     <row r="1573">
       <c r="A1573" t="n">
-        <v>-11.30843570753837</v>
+        <v>-11.11249376833451</v>
       </c>
       <c r="B1573" t="n">
-        <v>14.48959441511304</v>
+        <v>14.80932527501028</v>
       </c>
       <c r="C1573" t="n">
         <v>35.55</v>
@@ -50635,10 +50635,10 @@
     </row>
     <row r="1574">
       <c r="A1574" t="n">
-        <v>-11.63327765274886</v>
+        <v>-11.16155115183201</v>
       </c>
       <c r="B1574" t="n">
-        <v>14.48307864622567</v>
+        <v>14.80070518428018</v>
       </c>
       <c r="C1574" t="n">
         <v>35.38</v>
@@ -50667,10 +50667,10 @@
     </row>
     <row r="1575">
       <c r="A1575" t="n">
-        <v>-11.96478429712862</v>
+        <v>-11.21838151574149</v>
       </c>
       <c r="B1575" t="n">
-        <v>14.47704970974854</v>
+        <v>14.79201137266604</v>
       </c>
       <c r="C1575" t="n">
         <v>35.22</v>
@@ -50699,10 +50699,10 @@
     </row>
     <row r="1576">
       <c r="A1576" t="n">
-        <v>-12.30290213098545</v>
+        <v>-11.2828603483083</v>
       </c>
       <c r="B1576" t="n">
-        <v>14.47152576820585</v>
+        <v>14.78324628293346</v>
       </c>
       <c r="C1576" t="n">
         <v>35.05</v>
@@ -50731,10 +50731,10 @@
     </row>
     <row r="1577">
       <c r="A1577" t="n">
-        <v>-12.64757764462719</v>
+        <v>-11.35486313777781</v>
       </c>
       <c r="B1577" t="n">
-        <v>14.46652498412181</v>
+        <v>14.77441235784799</v>
       </c>
       <c r="C1577" t="n">
         <v>34.88</v>
@@ -50763,10 +50763,10 @@
     </row>
     <row r="1578">
       <c r="A1578" t="n">
-        <v>-12.99875732836164</v>
+        <v>-11.43426537239542</v>
       </c>
       <c r="B1578" t="n">
-        <v>14.46206552002061</v>
+        <v>14.76551204017525</v>
       </c>
       <c r="C1578" t="n">
         <v>34.72</v>
@@ -50795,10 +50795,10 @@
     </row>
     <row r="1579">
       <c r="A1579" t="n">
-        <v>-13.35638767249664</v>
+        <v>-11.52094254040647</v>
       </c>
       <c r="B1579" t="n">
-        <v>14.45816553842645</v>
+        <v>14.7565477726808</v>
       </c>
       <c r="C1579" t="n">
         <v>34.55</v>
@@ -50827,10 +50827,10 @@
     </row>
     <row r="1580">
       <c r="A1580" t="n">
-        <v>-13.72041516733999</v>
+        <v>-11.61477013005636</v>
       </c>
       <c r="B1580" t="n">
-        <v>14.45484320186354</v>
+        <v>14.74752199813024</v>
       </c>
       <c r="C1580" t="n">
         <v>33.19</v>
@@ -50859,10 +50859,10 @@
     </row>
     <row r="1581">
       <c r="A1581" t="n">
-        <v>-14.09078630319952</v>
+        <v>-11.71562362959043</v>
       </c>
       <c r="B1581" t="n">
-        <v>14.45211667285607</v>
+        <v>14.73843715928914</v>
       </c>
       <c r="C1581" t="n">
         <v>32.05</v>
@@ -50891,10 +50891,10 @@
     </row>
     <row r="1582">
       <c r="A1582" t="n">
-        <v>-14.46744757038305</v>
+        <v>-11.82337852725408</v>
       </c>
       <c r="B1582" t="n">
-        <v>14.45000411392825</v>
+        <v>14.7292956989231</v>
       </c>
       <c r="C1582" t="n">
         <v>31.1</v>
@@ -50923,10 +50923,10 @@
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>-14.8503454591984</v>
+        <v>-11.93791031129267</v>
       </c>
       <c r="B1583" t="n">
-        <v>14.44852368760427</v>
+        <v>14.72010005979768</v>
       </c>
       <c r="C1583" t="n">
         <v>30.31</v>
@@ -50955,10 +50955,10 @@
     </row>
     <row r="1584">
       <c r="A1584" t="n">
-        <v>-15.23942645995339</v>
+        <v>-12.05909446995157</v>
       </c>
       <c r="B1584" t="n">
-        <v>14.44769355640834</v>
+        <v>14.71085268467849</v>
       </c>
       <c r="C1584" t="n">
         <v>29.68</v>
@@ -50987,10 +50987,10 @@
     </row>
     <row r="1585">
       <c r="A1585" t="n">
-        <v>-16.03</v>
+        <v>-12.18680649147615</v>
       </c>
       <c r="B1585" t="n">
-        <v>14.44739036544872</v>
+        <v>14.7015560163311</v>
       </c>
       <c r="C1585" t="n">
         <v>29.17</v>
@@ -51019,10 +51019,10 @@
     </row>
     <row r="1586">
       <c r="A1586" t="n">
-        <v>-16.46</v>
+        <v>-12.32092186411179</v>
       </c>
       <c r="B1586" t="n">
-        <v>14.44726179402015</v>
+        <v>14.69221249752111</v>
       </c>
       <c r="C1586" t="n">
         <v>28.77</v>
@@ -51051,10 +51051,10 @@
     </row>
     <row r="1587">
       <c r="A1587" t="n">
-        <v>-16.89</v>
+        <v>-12.46131607610385</v>
       </c>
       <c r="B1587" t="n">
-        <v>14.44713322259158</v>
+        <v>14.68282457101408</v>
       </c>
       <c r="C1587" t="n">
         <v>28.47</v>
@@ -51083,10 +51083,10 @@
     </row>
     <row r="1588">
       <c r="A1588" t="n">
-        <v>-17.32</v>
+        <v>-12.60786461569772</v>
       </c>
       <c r="B1588" t="n">
-        <v>14.44700465116301</v>
+        <v>14.67339467957561</v>
       </c>
       <c r="C1588" t="n">
         <v>28.25</v>
@@ -51115,10 +51115,10 @@
     </row>
     <row r="1589">
       <c r="A1589" t="n">
-        <v>-17.75</v>
+        <v>-12.76044297113875</v>
       </c>
       <c r="B1589" t="n">
-        <v>14.44687607973444</v>
+        <v>14.66392526597128</v>
       </c>
       <c r="C1589" t="n">
         <v>28.1</v>
@@ -51147,10 +51147,10 @@
     </row>
     <row r="1590">
       <c r="A1590" t="n">
-        <v>-18.18</v>
+        <v>-12.91892663067234</v>
       </c>
       <c r="B1590" t="n">
-        <v>14.44674750830587</v>
+        <v>14.65441877296667</v>
       </c>
       <c r="C1590" t="n">
         <v>27.67142857142857</v>
@@ -51179,10 +51179,10 @@
     </row>
     <row r="1591">
       <c r="A1591" t="n">
-        <v>-18.61</v>
+        <v>-13.08319108254383</v>
       </c>
       <c r="B1591" t="n">
-        <v>14.4466189368773</v>
+        <v>14.64487764332737</v>
       </c>
       <c r="C1591" t="n">
         <v>27.24285714285714</v>
@@ -51211,10 +51211,10 @@
     </row>
     <row r="1592">
       <c r="A1592" t="n">
-        <v>-19.04</v>
+        <v>-13.25311181499861</v>
       </c>
       <c r="B1592" t="n">
-        <v>14.44649036544872</v>
+        <v>14.63530431981898</v>
       </c>
       <c r="C1592" t="n">
         <v>26.81428571428572</v>
@@ -51243,10 +51243,10 @@
     </row>
     <row r="1593">
       <c r="A1593" t="n">
-        <v>-19.47</v>
+        <v>-13.42856431628204</v>
       </c>
       <c r="B1593" t="n">
-        <v>14.44636179402015</v>
+        <v>14.62570124520706</v>
       </c>
       <c r="C1593" t="n">
         <v>26.38571428571429</v>
@@ -51275,10 +51275,10 @@
     </row>
     <row r="1594">
       <c r="A1594" t="n">
-        <v>-19.9</v>
+        <v>-13.60942407463951</v>
       </c>
       <c r="B1594" t="n">
-        <v>14.44623322259158</v>
+        <v>14.61607086225719</v>
       </c>
       <c r="C1594" t="n">
         <v>25.95714285714286</v>
@@ -51307,10 +51307,10 @@
     </row>
     <row r="1595">
       <c r="A1595" t="n">
-        <v>-20.33</v>
+        <v>-13.79556657831638</v>
       </c>
       <c r="B1595" t="n">
-        <v>14.44610465116301</v>
+        <v>14.60641561373498</v>
       </c>
       <c r="C1595" t="n">
         <v>25.52857142857143</v>
@@ -51339,10 +51339,10 @@
     </row>
     <row r="1596">
       <c r="A1596" t="n">
-        <v>-20.76</v>
+        <v>-13.98686731555802</v>
       </c>
       <c r="B1596" t="n">
-        <v>14.44597607973444</v>
+        <v>14.596737942406</v>
       </c>
       <c r="C1596" t="n">
         <v>25.1</v>
@@ -51371,10 +51371,10 @@
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>-21.19</v>
+        <v>-14.1832017746098</v>
       </c>
       <c r="B1597" t="n">
-        <v>14.44584750830587</v>
+        <v>14.58704029103583</v>
       </c>
       <c r="C1597" t="n">
         <v>24.67142857142857</v>
@@ -51403,10 +51403,10 @@
     </row>
     <row r="1598">
       <c r="A1598" t="n">
-        <v>-21.62</v>
+        <v>-14.3844454437171</v>
       </c>
       <c r="B1598" t="n">
-        <v>14.4457189368773</v>
+        <v>14.57732510239006</v>
       </c>
       <c r="C1598" t="n">
         <v>24.24285714285714</v>
@@ -51435,10 +51435,10 @@
     </row>
     <row r="1599">
       <c r="A1599" t="n">
-        <v>-22.05</v>
+        <v>-14.59047381112529</v>
       </c>
       <c r="B1599" t="n">
-        <v>14.44559036544872</v>
+        <v>14.56759481923427</v>
       </c>
       <c r="C1599" t="n">
         <v>23.81428571428572</v>
@@ -51467,10 +51467,10 @@
     </row>
     <row r="1600">
       <c r="A1600" t="n">
-        <v>-22.48</v>
+        <v>-14.80116236507974</v>
       </c>
       <c r="B1600" t="n">
-        <v>14.44546179402015</v>
+        <v>14.55785188433406</v>
       </c>
       <c r="C1600" t="n">
         <v>23.38571428571429</v>
@@ -51499,10 +51499,10 @@
     </row>
     <row r="1601">
       <c r="A1601" t="n">
-        <v>-22.91</v>
+        <v>-15.01638659382581</v>
       </c>
       <c r="B1601" t="n">
-        <v>14.44533322259158</v>
+        <v>14.54809874045499</v>
       </c>
       <c r="C1601" t="n">
         <v>22.95714285714286</v>
@@ -51531,10 +51531,10 @@
     </row>
     <row r="1602">
       <c r="A1602" t="n">
-        <v>-23.34</v>
+        <v>-15.23602198560889</v>
       </c>
       <c r="B1602" t="n">
-        <v>14.44520465116301</v>
+        <v>14.53833783036266</v>
       </c>
       <c r="C1602" t="n">
         <v>22.52857142857143</v>
@@ -51563,10 +51563,10 @@
     </row>
     <row r="1603">
       <c r="A1603" t="n">
-        <v>-23.77</v>
+        <v>-15.45994402867435</v>
       </c>
       <c r="B1603" t="n">
-        <v>14.44507607973444</v>
+        <v>14.52857159682266</v>
       </c>
       <c r="C1603" t="n">
         <v>22.1</v>
@@ -51595,10 +51595,10 @@
     </row>
     <row r="1604">
       <c r="A1604" t="n">
-        <v>-24.2</v>
+        <v>-15.68802821126756</v>
       </c>
       <c r="B1604" t="n">
-        <v>14.44494750830587</v>
+        <v>14.51880248260056</v>
       </c>
       <c r="C1604" t="n">
         <v>21.67142857142857</v>
@@ -51627,10 +51627,10 @@
     </row>
     <row r="1605">
       <c r="A1605" t="n">
-        <v>-24.63</v>
+        <v>-15.92015002163387</v>
       </c>
       <c r="B1605" t="n">
-        <v>14.4448189368773</v>
+        <v>14.50903293046194</v>
       </c>
       <c r="C1605" t="n">
         <v>21.24285714285714</v>
@@ -51659,10 +51659,10 @@
     </row>
     <row r="1606">
       <c r="A1606" t="n">
-        <v>-25.06</v>
+        <v>-16.15618494801868</v>
       </c>
       <c r="B1606" t="n">
-        <v>14.44469036544873</v>
+        <v>14.4992653831724</v>
       </c>
       <c r="C1606" t="n">
         <v>20.81428571428572</v>
@@ -51691,10 +51691,10 @@
     </row>
     <row r="1607">
       <c r="A1607" t="n">
-        <v>-25.48999999999999</v>
+        <v>-16.39600847866735</v>
       </c>
       <c r="B1607" t="n">
-        <v>14.44456179402015</v>
+        <v>14.48950228349752</v>
       </c>
       <c r="C1607" t="n">
         <v>20.38571428571429</v>
@@ -51723,10 +51723,10 @@
     </row>
     <row r="1608">
       <c r="A1608" t="n">
-        <v>-25.91999999999999</v>
+        <v>-16.63949610182526</v>
       </c>
       <c r="B1608" t="n">
-        <v>14.44443322259158</v>
+        <v>14.47974607420288</v>
       </c>
       <c r="C1608" t="n">
         <v>19.95714285714286</v>
@@ -51755,10 +51755,10 @@
     </row>
     <row r="1609">
       <c r="A1609" t="n">
-        <v>-26.34999999999999</v>
+        <v>-16.88652330573777</v>
       </c>
       <c r="B1609" t="n">
-        <v>14.44430465116301</v>
+        <v>14.46999919805407</v>
       </c>
       <c r="C1609" t="n">
         <v>19.52857142857143</v>
@@ -51787,10 +51787,10 @@
     </row>
     <row r="1610">
       <c r="A1610" t="n">
-        <v>-26.77999999999999</v>
+        <v>-17.13696557865025</v>
       </c>
       <c r="B1610" t="n">
-        <v>14.44417607973444</v>
+        <v>14.46026409781666</v>
       </c>
       <c r="C1610" t="n">
         <v>19.1</v>
@@ -51819,10 +51819,10 @@
     </row>
     <row r="1611">
       <c r="A1611" t="n">
-        <v>-27.20999999999999</v>
+        <v>-17.39069840880809</v>
       </c>
       <c r="B1611" t="n">
-        <v>14.44404750830587</v>
+        <v>14.45054321625625</v>
       </c>
       <c r="C1611" t="n">
         <v>18.67142857142857</v>
@@ -51851,10 +51851,10 @@
     </row>
     <row r="1612">
       <c r="A1612" t="n">
-        <v>-27.63999999999999</v>
+        <v>-17.64759728445665</v>
       </c>
       <c r="B1612" t="n">
-        <v>14.4439189368773</v>
+        <v>14.44083899613843</v>
       </c>
       <c r="C1612" t="n">
         <v>18.24285714285715</v>
@@ -51883,10 +51883,10 @@
     </row>
     <row r="1613">
       <c r="A1613" t="n">
-        <v>-28.06999999999999</v>
+        <v>-17.90753769384129</v>
       </c>
       <c r="B1613" t="n">
-        <v>14.44379036544873</v>
+        <v>14.43115388022876</v>
       </c>
       <c r="C1613" t="n">
         <v>17.81428571428572</v>
@@ -51915,10 +51915,10 @@
     </row>
     <row r="1614">
       <c r="A1614" t="n">
-        <v>-28.49999999999999</v>
+        <v>-18.1703951252074</v>
       </c>
       <c r="B1614" t="n">
-        <v>14.44366179402016</v>
+        <v>14.42149031129284</v>
       </c>
       <c r="C1614" t="n">
         <v>17.38571428571429</v>
@@ -51947,10 +51947,10 @@
     </row>
     <row r="1615">
       <c r="A1615" t="n">
-        <v>-28.92999999999999</v>
+        <v>-18.43604506680035</v>
       </c>
       <c r="B1615" t="n">
-        <v>14.44353322259158</v>
+        <v>14.41185073209625</v>
       </c>
       <c r="C1615" t="n">
         <v>16.95714285714286</v>
@@ -51979,10 +51979,10 @@
     </row>
     <row r="1616">
       <c r="A1616" t="n">
-        <v>-29.35999999999999</v>
+        <v>-18.7043630068655</v>
       </c>
       <c r="B1616" t="n">
-        <v>14.44340465116301</v>
+        <v>14.40223758540458</v>
       </c>
       <c r="C1616" t="n">
         <v>16.52857142857143</v>
@@ -52011,10 +52011,10 @@
     </row>
     <row r="1617">
       <c r="A1617" t="n">
-        <v>-29.78999999999999</v>
+        <v>-18.97522443364823</v>
       </c>
       <c r="B1617" t="n">
-        <v>14.44327607973444</v>
+        <v>14.39265331398341</v>
       </c>
       <c r="C1617" t="n">
         <v>16.1</v>
@@ -52043,10 +52043,10 @@
     </row>
     <row r="1618">
       <c r="A1618" t="n">
-        <v>-30.21999999999999</v>
+        <v>-19.24850483539391</v>
       </c>
       <c r="B1618" t="n">
-        <v>14.44314750830587</v>
+        <v>14.38310036059833</v>
       </c>
       <c r="C1618" t="n">
         <v>15.67142857142857</v>
@@ -52075,10 +52075,10 @@
     </row>
     <row r="1619">
       <c r="A1619" t="n">
-        <v>-30.64999999999999</v>
+        <v>-19.52407970034792</v>
       </c>
       <c r="B1619" t="n">
-        <v>14.4430189368773</v>
+        <v>14.37358116801492</v>
       </c>
       <c r="C1619" t="n">
         <v>15.24285714285715</v>
@@ -52107,10 +52107,10 @@
     </row>
     <row r="1620">
       <c r="A1620" t="n">
-        <v>-31.07999999999999</v>
+        <v>-19.80182451675562</v>
       </c>
       <c r="B1620" t="n">
-        <v>14.44289036544873</v>
+        <v>14.36409817899875</v>
       </c>
       <c r="C1620" t="n">
         <v>14.81428571428572</v>
@@ -52139,10 +52139,10 @@
     </row>
     <row r="1621">
       <c r="A1621" t="n">
-        <v>-31.50999999999999</v>
+        <v>-20.08161477286237</v>
       </c>
       <c r="B1621" t="n">
-        <v>14.44276179402016</v>
+        <v>14.35465383631542</v>
       </c>
       <c r="C1621" t="n">
         <v>14.38571428571429</v>
@@ -52171,10 +52171,10 @@
     </row>
     <row r="1622">
       <c r="A1622" t="n">
-        <v>-31.93999999999999</v>
+        <v>-20.36332595691357</v>
       </c>
       <c r="B1622" t="n">
-        <v>14.44263322259158</v>
+        <v>14.34525058273052</v>
       </c>
       <c r="C1622" t="n">
         <v>13.95714285714286</v>
@@ -52203,10 +52203,10 @@
     </row>
     <row r="1623">
       <c r="A1623" t="n">
-        <v>-32.36999999999999</v>
+        <v>-20.64683355715458</v>
       </c>
       <c r="B1623" t="n">
-        <v>14.44250465116301</v>
+        <v>14.33589086100963</v>
       </c>
       <c r="C1623" t="n">
         <v>13.52857142857143</v>
@@ -52235,10 +52235,10 @@
     </row>
     <row r="1624">
       <c r="A1624" t="n">
-        <v>-32.79999999999999</v>
+        <v>-20.93201306183077</v>
       </c>
       <c r="B1624" t="n">
-        <v>14.44237607973444</v>
+        <v>14.32657711391832</v>
       </c>
       <c r="C1624" t="n">
         <v>13.1</v>
@@ -52267,10 +52267,10 @@
     </row>
     <row r="1625">
       <c r="A1625" t="n">
-        <v>-33.22999999999999</v>
+        <v>-21.21873995918751</v>
       </c>
       <c r="B1625" t="n">
-        <v>14.44224750830587</v>
+        <v>14.31731178422218</v>
       </c>
       <c r="C1625" t="n">
         <v>12.67142857142857</v>
@@ -52299,10 +52299,10 @@
     </row>
     <row r="1626">
       <c r="A1626" t="n">
-        <v>-33.65999999999999</v>
+        <v>-21.50688973747017</v>
       </c>
       <c r="B1626" t="n">
-        <v>14.4421189368773</v>
+        <v>14.30809731468681</v>
       </c>
       <c r="C1626" t="n">
         <v>12.24285714285715</v>
@@ -52331,10 +52331,10 @@
     </row>
     <row r="1627">
       <c r="A1627" t="n">
-        <v>-34.08999999999999</v>
+        <v>-21.79633788492414</v>
       </c>
       <c r="B1627" t="n">
-        <v>14.44199036544873</v>
+        <v>14.29893614807779</v>
       </c>
       <c r="C1627" t="n">
         <v>11.81428571428572</v>
@@ -52363,10 +52363,10 @@
     </row>
     <row r="1628">
       <c r="A1628" t="n">
-        <v>-34.51999999999999</v>
+        <v>-22.08695988979476</v>
       </c>
       <c r="B1628" t="n">
-        <v>14.44186179402016</v>
+        <v>14.28983072716068</v>
       </c>
       <c r="C1628" t="n">
         <v>11.38571428571429</v>
@@ -52395,10 +52395,10 @@
     </row>
     <row r="1629">
       <c r="A1629" t="n">
-        <v>-34.94999999999999</v>
+        <v>-22.37863124032742</v>
       </c>
       <c r="B1629" t="n">
-        <v>14.44173322259158</v>
+        <v>14.28078349470109</v>
       </c>
       <c r="C1629" t="n">
         <v>10.95714285714286</v>
@@ -52427,10 +52427,10 @@
     </row>
     <row r="1630">
       <c r="A1630" t="n">
-        <v>-35.37999999999999</v>
+        <v>-22.6712274247675</v>
       </c>
       <c r="B1630" t="n">
-        <v>14.44160465116301</v>
+        <v>14.27179689346459</v>
       </c>
       <c r="C1630" t="n">
         <v>10.52857142857143</v>
@@ -52459,10 +52459,10 @@
     </row>
     <row r="1631">
       <c r="A1631" t="n">
-        <v>-35.80999999999999</v>
+        <v>-22.96462393136036</v>
       </c>
       <c r="B1631" t="n">
-        <v>14.44147607973444</v>
+        <v>14.26287336621678</v>
       </c>
       <c r="C1631" t="n">
         <v>10.1</v>
@@ -52491,10 +52491,10 @@
     </row>
     <row r="1632">
       <c r="A1632" t="n">
-        <v>-36.23999999999999</v>
+        <v>-23.25869624835138</v>
       </c>
       <c r="B1632" t="n">
-        <v>14.44134750830587</v>
+        <v>14.25401535572323</v>
       </c>
       <c r="C1632" t="n">
         <v>9.671428571428574</v>
@@ -52523,10 +52523,10 @@
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>-36.66999999999999</v>
+        <v>-23.55331986398592</v>
       </c>
       <c r="B1633" t="n">
-        <v>14.4412189368773</v>
+        <v>14.24522530474953</v>
       </c>
       <c r="C1633" t="n">
         <v>9.242857142857144</v>
@@ -52555,10 +52555,10 @@
     </row>
     <row r="1634">
       <c r="A1634" t="n">
-        <v>-37.09999999999999</v>
+        <v>-23.84837026650936</v>
       </c>
       <c r="B1634" t="n">
-        <v>14.44109036544873</v>
+        <v>14.23650565606126</v>
       </c>
       <c r="C1634" t="n">
         <v>8.814285714285717</v>
@@ -52587,10 +52587,10 @@
     </row>
     <row r="1635">
       <c r="A1635" t="n">
-        <v>-37.52999999999999</v>
+        <v>-24.14372294416707</v>
       </c>
       <c r="B1635" t="n">
-        <v>14.44096179402016</v>
+        <v>14.22785885242401</v>
       </c>
       <c r="C1635" t="n">
         <v>8.38571428571429</v>
@@ -52619,10 +52619,10 @@
     </row>
     <row r="1636">
       <c r="A1636" t="n">
-        <v>-37.95999999999999</v>
+        <v>-24.43925338520441</v>
       </c>
       <c r="B1636" t="n">
-        <v>14.44083322259158</v>
+        <v>14.21928733660336</v>
       </c>
       <c r="C1636" t="n">
         <v>7.957142857142859</v>
@@ -52651,10 +52651,10 @@
     </row>
     <row r="1637">
       <c r="A1637" t="n">
-        <v>-38.38999999999999</v>
+        <v>-24.73483707786677</v>
       </c>
       <c r="B1637" t="n">
-        <v>14.44070465116301</v>
+        <v>14.21079355136489</v>
       </c>
       <c r="C1637" t="n">
         <v>7.528571428571432</v>
@@ -52683,10 +52683,10 @@
     </row>
     <row r="1638">
       <c r="A1638" t="n">
-        <v>-38.81999999999999</v>
+        <v>-25.03034951039952</v>
       </c>
       <c r="B1638" t="n">
-        <v>14.44057607973444</v>
+        <v>14.2023799394742</v>
       </c>
       <c r="C1638" t="n">
         <v>7.100000000000001</v>
@@ -52715,10 +52715,10 @@
     </row>
     <row r="1639">
       <c r="A1639" t="n">
-        <v>-39.24999999999999</v>
+        <v>-25.32566617104802</v>
       </c>
       <c r="B1639" t="n">
-        <v>14.44044750830587</v>
+        <v>14.19404894369686</v>
       </c>
       <c r="C1639" t="n">
         <v>6.671428571428574</v>
@@ -52747,10 +52747,10 @@
     </row>
     <row r="1640">
       <c r="A1640" t="n">
-        <v>-39.67999999999999</v>
+        <v>-25.62066254805764</v>
       </c>
       <c r="B1640" t="n">
-        <v>14.4403189368773</v>
+        <v>14.18580300679846</v>
       </c>
       <c r="C1640" t="n">
         <v>6.242857142857144</v>
@@ -52779,10 +52779,10 @@
     </row>
     <row r="1641">
       <c r="A1641" t="n">
-        <v>-40.10999999999999</v>
+        <v>-25.91521412967377</v>
       </c>
       <c r="B1641" t="n">
-        <v>14.44019036544873</v>
+        <v>14.17764457154458</v>
       </c>
       <c r="C1641" t="n">
         <v>5.814285714285717</v>
@@ -52811,10 +52811,10 @@
     </row>
     <row r="1642">
       <c r="A1642" t="n">
-        <v>-40.53999999999998</v>
+        <v>-26.20919640414177</v>
       </c>
       <c r="B1642" t="n">
-        <v>14.44006179402016</v>
+        <v>14.16957608070081</v>
       </c>
       <c r="C1642" t="n">
         <v>5.38571428571429</v>
@@ -52843,10 +52843,10 @@
     </row>
     <row r="1643">
       <c r="A1643" t="n">
-        <v>-40.96999999999998</v>
+        <v>-26.50248485970702</v>
       </c>
       <c r="B1643" t="n">
-        <v>14.43993322259158</v>
+        <v>14.16159997703273</v>
       </c>
       <c r="C1643" t="n">
         <v>4.957142857142859</v>
@@ -52875,10 +52875,10 @@
     </row>
     <row r="1644">
       <c r="A1644" t="n">
-        <v>-41.39999999999998</v>
+        <v>-26.79495498461487</v>
       </c>
       <c r="B1644" t="n">
-        <v>14.43980465116301</v>
+        <v>14.15371870330592</v>
       </c>
       <c r="C1644" t="n">
         <v>4.528571428571432</v>
@@ -52907,10 +52907,10 @@
     </row>
     <row r="1645">
       <c r="A1645" t="n">
-        <v>-41.82999999999998</v>
+        <v>-27.08648226711071</v>
       </c>
       <c r="B1645" t="n">
-        <v>14.43967607973444</v>
+        <v>14.14593470228598</v>
       </c>
       <c r="C1645" t="n">
         <v>4.100000000000001</v>
@@ -52939,10 +52939,10 @@
     </row>
     <row r="1646">
       <c r="A1646" t="n">
-        <v>-42.25999999999998</v>
+        <v>-27.37694219543992</v>
       </c>
       <c r="B1646" t="n">
-        <v>14.43954750830587</v>
+        <v>14.13825041673848</v>
       </c>
       <c r="C1646" t="n">
         <v>3.671428571428574</v>
@@ -52971,10 +52971,10 @@
     </row>
     <row r="1647">
       <c r="A1647" t="n">
-        <v>-42.68999999999998</v>
+        <v>-27.66621025784785</v>
       </c>
       <c r="B1647" t="n">
-        <v>14.4394189368773</v>
+        <v>14.13066828942901</v>
       </c>
       <c r="C1647" t="n">
         <v>3.242857142857147</v>
@@ -53003,10 +53003,10 @@
     </row>
     <row r="1648">
       <c r="A1648" t="n">
-        <v>-43.11999999999998</v>
+        <v>-27.95416194257988</v>
       </c>
       <c r="B1648" t="n">
-        <v>14.43929036544873</v>
+        <v>14.12319076312315</v>
       </c>
       <c r="C1648" t="n">
         <v>2.814285714285717</v>
@@ -53035,10 +53035,10 @@
     </row>
     <row r="1649">
       <c r="A1649" t="n">
-        <v>-43.54999999999998</v>
+        <v>-28.24067273788139</v>
       </c>
       <c r="B1649" t="n">
-        <v>14.43916179402016</v>
+        <v>14.11582028058649</v>
       </c>
       <c r="C1649" t="n">
         <v>2.38571428571429</v>
@@ -53067,10 +53067,10 @@
     </row>
     <row r="1650">
       <c r="A1650" t="n">
-        <v>-43.97999999999998</v>
+        <v>-28.52561813199774</v>
       </c>
       <c r="B1650" t="n">
-        <v>14.43903322259158</v>
+        <v>14.10855928458461</v>
       </c>
       <c r="C1650" t="n">
         <v>1.957142857142859</v>
@@ -53099,10 +53099,10 @@
     </row>
     <row r="1651">
       <c r="A1651" t="n">
-        <v>-44.40999999999998</v>
+        <v>-28.80887361317431</v>
       </c>
       <c r="B1651" t="n">
-        <v>14.43890465116301</v>
+        <v>14.10141021788309</v>
       </c>
       <c r="C1651" t="n">
         <v>1.528571428571432</v>
@@ -53131,10 +53131,10 @@
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>-44.83999999999998</v>
+        <v>-29.09031466965646</v>
       </c>
       <c r="B1652" t="n">
-        <v>14.43877607973444</v>
+        <v>14.09437552324753</v>
       </c>
       <c r="C1652" t="n">
         <v>1.100000000000001</v>
@@ -53163,10 +53163,10 @@
     </row>
     <row r="1653">
       <c r="A1653" t="n">
-        <v>-45.26999999999998</v>
+        <v>-29.36981678968958</v>
       </c>
       <c r="B1653" t="n">
-        <v>14.43864750830587</v>
+        <v>14.0874576434435</v>
       </c>
       <c r="C1653" t="n">
         <v>0.6714285714285744</v>
@@ -53195,10 +53195,10 @@
     </row>
     <row r="1654">
       <c r="A1654" t="n">
-        <v>-45.69999999999998</v>
+        <v>-29.64725546151902</v>
       </c>
       <c r="B1654" t="n">
-        <v>14.4385189368773</v>
+        <v>14.08065902123658</v>
       </c>
       <c r="C1654" t="n">
         <v>0.2428571428571473</v>
@@ -53227,10 +53227,10 @@
     </row>
     <row r="1655">
       <c r="A1655" t="n">
-        <v>-46.12999999999998</v>
+        <v>-29.92250617339017</v>
       </c>
       <c r="B1655" t="n">
-        <v>14.43839036544873</v>
+        <v>14.07398209939237</v>
       </c>
       <c r="C1655" t="n">
         <v>-0.1857142857142833</v>
@@ -53259,10 +53259,10 @@
     </row>
     <row r="1656">
       <c r="A1656" t="n">
-        <v>-46.55999999999998</v>
+        <v>-30.1954444135484</v>
       </c>
       <c r="B1656" t="n">
-        <v>14.43826179402016</v>
+        <v>14.06742932067645</v>
       </c>
       <c r="C1656" t="n">
         <v>-0.6142857142857103</v>
@@ -53291,10 +53291,10 @@
     </row>
     <row r="1657">
       <c r="A1657" t="n">
-        <v>-46.98999999999998</v>
+        <v>-30.46594567023907</v>
       </c>
       <c r="B1657" t="n">
-        <v>14.43813322259158</v>
+        <v>14.0610031278544</v>
       </c>
       <c r="C1657" t="n">
         <v>-1.042857142857141</v>
@@ -53323,10 +53323,10 @@
     </row>
     <row r="1658">
       <c r="A1658" t="n">
-        <v>-47.41999999999998</v>
+        <v>-30.73388543170756</v>
       </c>
       <c r="B1658" t="n">
-        <v>14.43800465116301</v>
+        <v>14.0547059636918</v>
       </c>
       <c r="C1658" t="n">
         <v>-1.471428571428568</v>
@@ -53355,10 +53355,10 @@
     </row>
     <row r="1659">
       <c r="A1659" t="n">
-        <v>-47.84999999999998</v>
+        <v>-30.99913918619924</v>
       </c>
       <c r="B1659" t="n">
-        <v>14.43787607973444</v>
+        <v>14.04854027095424</v>
       </c>
       <c r="C1659" t="n">
         <v>-1.899999999999999</v>
@@ -53387,10 +53387,10 @@
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>-48.27999999999998</v>
+        <v>-31.26158242195949</v>
       </c>
       <c r="B1660" t="n">
-        <v>14.43774750830587</v>
+        <v>14.04250849240731</v>
       </c>
       <c r="C1660" t="n">
         <v>-2.328571428571426</v>
@@ -53419,10 +53419,10 @@
     </row>
     <row r="1661">
       <c r="A1661" t="n">
-        <v>-48.70999999999998</v>
+        <v>-31.52109062723367</v>
       </c>
       <c r="B1661" t="n">
-        <v>14.4376189368773</v>
+        <v>14.03661307081659</v>
       </c>
       <c r="C1661" t="n">
         <v>-2.757142857142853</v>
@@ -53451,10 +53451,10 @@
     </row>
     <row r="1662">
       <c r="A1662" t="n">
-        <v>-49.13999999999998</v>
+        <v>-31.77753929026715</v>
       </c>
       <c r="B1662" t="n">
-        <v>14.43749036544873</v>
+        <v>14.03085644894765</v>
       </c>
       <c r="C1662" t="n">
         <v>-3.185714285714283</v>
@@ -53483,10 +53483,10 @@
     </row>
     <row r="1663">
       <c r="A1663" t="n">
-        <v>-49.56999999999998</v>
+        <v>-32.0308038993053</v>
       </c>
       <c r="B1663" t="n">
-        <v>14.43736179402016</v>
+        <v>14.0252410695661</v>
       </c>
       <c r="C1663" t="n">
         <v>-3.61428571428571</v>
@@ -53515,10 +53515,10 @@
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>-49.99999999999998</v>
+        <v>-32.28075994259351</v>
       </c>
       <c r="B1664" t="n">
-        <v>14.43723322259159</v>
+        <v>14.01976937543751</v>
       </c>
       <c r="C1664" t="n">
         <v>-4.042857142857137</v>
@@ -53546,6 +53546,12 @@
       </c>
     </row>
     <row r="1665">
+      <c r="A1665" t="n">
+        <v>-32.52728290837715</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>14.01444380932746</v>
+      </c>
       <c r="C1665" t="n">
         <v>-4.471428571428568</v>
       </c>
@@ -53572,6 +53578,12 @@
       </c>
     </row>
     <row r="1666">
+      <c r="A1666" t="n">
+        <v>-32.77024828490157</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>14.00926681400154</v>
+      </c>
       <c r="C1666" t="n">
         <v>-4.899999999999999</v>
       </c>
@@ -53598,6 +53610,12 @@
       </c>
     </row>
     <row r="1667">
+      <c r="A1667" t="n">
+        <v>-33.00953156041216</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>14.00424083222533</v>
+      </c>
       <c r="C1667" t="n">
         <v>-5.328571428571422</v>
       </c>
@@ -53624,6 +53642,12 @@
       </c>
     </row>
     <row r="1668">
+      <c r="A1668" t="n">
+        <v>-33.24500822315427</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>13.99936830676442</v>
+      </c>
       <c r="C1668" t="n">
         <v>-5.757142857142853</v>
       </c>
@@ -53650,6 +53674,12 @@
       </c>
     </row>
     <row r="1669">
+      <c r="A1669" t="n">
+        <v>-33.4765537613733</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>13.9946516803844</v>
+      </c>
       <c r="C1669" t="n">
         <v>-6.185714285714283</v>
       </c>
@@ -53676,6 +53706,12 @@
       </c>
     </row>
     <row r="1670">
+      <c r="A1670" t="n">
+        <v>-33.70404366331461</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>13.99009339585084</v>
+      </c>
       <c r="C1670" t="n">
         <v>-6.614285714285714</v>
       </c>
@@ -53702,6 +53738,12 @@
       </c>
     </row>
     <row r="1671">
+      <c r="A1671" t="n">
+        <v>-33.92735341722356</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>13.98569589592933</v>
+      </c>
       <c r="C1671" t="n">
         <v>-7.042857142857137</v>
       </c>
@@ -53728,6 +53770,12 @@
       </c>
     </row>
     <row r="1672">
+      <c r="A1672" t="n">
+        <v>-34.14635851134555</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>13.98146162338546</v>
+      </c>
       <c r="C1672" t="n">
         <v>-7.471428571428568</v>
       </c>
@@ -53754,6 +53802,12 @@
       </c>
     </row>
     <row r="1673">
+      <c r="A1673" t="n">
+        <v>-34.36093443392593</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>13.9773930209848</v>
+      </c>
       <c r="C1673" t="n">
         <v>-7.899999999999999</v>
       </c>
@@ -53780,6 +53834,12 @@
       </c>
     </row>
     <row r="1674">
+      <c r="A1674" t="n">
+        <v>-34.57095667321006</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>13.97349253149295</v>
+      </c>
       <c r="C1674" t="n">
         <v>-8.328571428571422</v>
       </c>
@@ -53806,6 +53866,12 @@
       </c>
     </row>
     <row r="1675">
+      <c r="A1675" t="n">
+        <v>-34.77630071744334</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>13.96976259767549</v>
+      </c>
       <c r="C1675" t="n">
         <v>-8.757142857142853</v>
       </c>
@@ -53832,6 +53898,12 @@
       </c>
     </row>
     <row r="1676">
+      <c r="A1676" t="n">
+        <v>-34.97684205487112</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>13.966205662298</v>
+      </c>
       <c r="C1676" t="n">
         <v>-9.185714285714283</v>
       </c>
@@ -53858,6 +53930,12 @@
       </c>
     </row>
     <row r="1677">
+      <c r="A1677" t="n">
+        <v>-35.17245617373879</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>13.96282416812607</v>
+      </c>
       <c r="C1677" t="n">
         <v>-9.614285714285714</v>
       </c>
@@ -53884,6 +53962,12 @@
       </c>
     </row>
     <row r="1678">
+      <c r="A1678" t="n">
+        <v>-35.36301856229172</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>13.95962055792528</v>
+      </c>
       <c r="C1678" t="n">
         <v>-10.04285714285714</v>
       </c>
@@ -53910,6 +53994,12 @@
       </c>
     </row>
     <row r="1679">
+      <c r="A1679" t="n">
+        <v>-35.54840470877526</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>13.95659727446121</v>
+      </c>
       <c r="C1679" t="n">
         <v>-10.47142857142857</v>
       </c>
@@ -53936,6 +54026,12 @@
       </c>
     </row>
     <row r="1680">
+      <c r="A1680" t="n">
+        <v>-35.7284901014348</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>13.95375676049945</v>
+      </c>
       <c r="C1680" t="n">
         <v>-10.9</v>
       </c>
@@ -53962,6 +54058,12 @@
       </c>
     </row>
     <row r="1681">
+      <c r="A1681" t="n">
+        <v>-35.90315022851571</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>13.95110145880559</v>
+      </c>
       <c r="C1681" t="n">
         <v>-11.32857142857142</v>
       </c>
@@ -53988,6 +54090,12 @@
       </c>
     </row>
     <row r="1682">
+      <c r="A1682" t="n">
+        <v>-36.07226057826335</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>13.9486338121452</v>
+      </c>
       <c r="C1682" t="n">
         <v>-11.75714285714285</v>
       </c>
@@ -54014,6 +54122,12 @@
       </c>
     </row>
     <row r="1683">
+      <c r="A1683" t="n">
+        <v>-36.23569663892312</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>13.94635626328387</v>
+      </c>
       <c r="C1683" t="n">
         <v>-12.18571428571428</v>
       </c>
@@ -54040,6 +54154,12 @@
       </c>
     </row>
     <row r="1684">
+      <c r="A1684" t="n">
+        <v>-36.39333389874036</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>13.9442712549872</v>
+      </c>
       <c r="C1684" t="n">
         <v>-12.61428571428571</v>
       </c>
@@ -54066,6 +54186,12 @@
       </c>
     </row>
     <row r="1685">
+      <c r="A1685" t="n">
+        <v>-36.54504784596046</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>13.94238123002075</v>
+      </c>
       <c r="C1685" t="n">
         <v>-13.04285714285714</v>
       </c>
@@ -54092,6 +54218,12 @@
       </c>
     </row>
     <row r="1686">
+      <c r="A1686" t="n">
+        <v>-36.69071396882878</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>13.94068863115012</v>
+      </c>
       <c r="C1686" t="n">
         <v>-13.47142857142857</v>
       </c>
@@ -54118,6 +54250,12 @@
       </c>
     </row>
     <row r="1687">
+      <c r="A1687" t="n">
+        <v>-36.8302077555907</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>13.93919590114089</v>
+      </c>
       <c r="C1687" t="n">
         <v>-13.9</v>
       </c>
@@ -54144,6 +54282,12 @@
       </c>
     </row>
     <row r="1688">
+      <c r="A1688" t="n">
+        <v>-36.96340469449159</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>13.93790548275863</v>
+      </c>
       <c r="C1688" t="n">
         <v>-14.32857142857142</v>
       </c>
@@ -54170,6 +54314,12 @@
       </c>
     </row>
     <row r="1689">
+      <c r="A1689" t="n">
+        <v>-37.09018027377682</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>13.93681981876895</v>
+      </c>
       <c r="C1689" t="n">
         <v>-14.75714285714285</v>
       </c>
@@ -54196,6 +54346,12 @@
       </c>
     </row>
     <row r="1690">
+      <c r="A1690" t="n">
+        <v>-37.21040998169178</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>13.93594135193742</v>
+      </c>
       <c r="C1690" t="n">
         <v>-15.18571428571428</v>
       </c>
@@ -54222,6 +54378,12 @@
       </c>
     </row>
     <row r="1691">
+      <c r="A1691" t="n">
+        <v>-37.32396930648181</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>13.93527252502962</v>
+      </c>
       <c r="C1691" t="n">
         <v>-15.61428571428571</v>
       </c>
@@ -54248,6 +54410,12 @@
       </c>
     </row>
     <row r="1692">
+      <c r="A1692" t="n">
+        <v>-37.43073373639229</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>13.93481578081115</v>
+      </c>
       <c r="C1692" t="n">
         <v>-16.04285714285714</v>
       </c>
@@ -54274,6 +54442,12 @@
       </c>
     </row>
     <row r="1693">
+      <c r="A1693" t="n">
+        <v>-37.53057875966862</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>13.93457356204758</v>
+      </c>
       <c r="C1693" t="n">
         <v>-16.47142857142857</v>
       </c>
@@ -54300,6 +54474,12 @@
       </c>
     </row>
     <row r="1694">
+      <c r="A1694" t="n">
+        <v>-38.03</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>13.93440531561502</v>
+      </c>
       <c r="C1694" t="n">
         <v>-16.9</v>
       </c>
@@ -54326,6 +54506,12 @@
       </c>
     </row>
     <row r="1695">
+      <c r="A1695" t="n">
+        <v>-38.46</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>13.93427674418645</v>
+      </c>
       <c r="C1695" t="n">
         <v>-17.32857142857142</v>
       </c>
@@ -54352,6 +54538,12 @@
       </c>
     </row>
     <row r="1696">
+      <c r="A1696" t="n">
+        <v>-38.89</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>13.93414817275788</v>
+      </c>
       <c r="C1696" t="n">
         <v>-17.75714285714285</v>
       </c>
@@ -54378,6 +54570,12 @@
       </c>
     </row>
     <row r="1697">
+      <c r="A1697" t="n">
+        <v>-39.32</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>13.93401960132931</v>
+      </c>
       <c r="C1697" t="n">
         <v>-18.18571428571428</v>
       </c>
@@ -54404,6 +54602,12 @@
       </c>
     </row>
     <row r="1698">
+      <c r="A1698" t="n">
+        <v>-39.75</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>13.93389102990074</v>
+      </c>
       <c r="C1698" t="n">
         <v>-18.61428571428571</v>
       </c>
@@ -54430,6 +54634,12 @@
       </c>
     </row>
     <row r="1699">
+      <c r="A1699" t="n">
+        <v>-40.18</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>13.93376245847216</v>
+      </c>
       <c r="C1699" t="n">
         <v>-19.04285714285714</v>
       </c>
@@ -54456,6 +54666,12 @@
       </c>
     </row>
     <row r="1700">
+      <c r="A1700" t="n">
+        <v>-40.61</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>13.93363388704359</v>
+      </c>
       <c r="C1700" t="n">
         <v>-19.47142857142857</v>
       </c>
@@ -54482,6 +54698,12 @@
       </c>
     </row>
     <row r="1701">
+      <c r="A1701" t="n">
+        <v>-41.04</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>13.93350531561502</v>
+      </c>
       <c r="C1701" t="n">
         <v>-19.9</v>
       </c>
@@ -54508,6 +54730,12 @@
       </c>
     </row>
     <row r="1702">
+      <c r="A1702" t="n">
+        <v>-41.47</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>13.93337674418645</v>
+      </c>
       <c r="C1702" t="n">
         <v>-20.32857142857142</v>
       </c>
@@ -54534,6 +54762,12 @@
       </c>
     </row>
     <row r="1703">
+      <c r="A1703" t="n">
+        <v>-41.9</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>13.93324817275788</v>
+      </c>
       <c r="C1703" t="n">
         <v>-20.75714285714285</v>
       </c>
@@ -54560,6 +54794,12 @@
       </c>
     </row>
     <row r="1704">
+      <c r="A1704" t="n">
+        <v>-42.33</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>13.93311960132931</v>
+      </c>
       <c r="C1704" t="n">
         <v>-21.18571428571428</v>
       </c>
@@ -54586,6 +54826,12 @@
       </c>
     </row>
     <row r="1705">
+      <c r="A1705" t="n">
+        <v>-42.76</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>13.93299102990074</v>
+      </c>
       <c r="C1705" t="n">
         <v>-21.61428571428571</v>
       </c>
@@ -54612,6 +54858,12 @@
       </c>
     </row>
     <row r="1706">
+      <c r="A1706" t="n">
+        <v>-43.19</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>13.93286245847217</v>
+      </c>
       <c r="C1706" t="n">
         <v>-22.04285714285714</v>
       </c>
@@ -54638,6 +54890,12 @@
       </c>
     </row>
     <row r="1707">
+      <c r="A1707" t="n">
+        <v>-43.62</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>13.93273388704359</v>
+      </c>
       <c r="C1707" t="n">
         <v>-22.47142857142857</v>
       </c>
@@ -54664,6 +54922,12 @@
       </c>
     </row>
     <row r="1708">
+      <c r="A1708" t="n">
+        <v>-44.05</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>13.93260531561502</v>
+      </c>
       <c r="C1708" t="n">
         <v>-22.9</v>
       </c>
@@ -54690,6 +54954,12 @@
       </c>
     </row>
     <row r="1709">
+      <c r="A1709" t="n">
+        <v>-44.48</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>13.93247674418645</v>
+      </c>
       <c r="C1709" t="n">
         <v>-23.32857142857142</v>
       </c>
@@ -54716,6 +54986,12 @@
       </c>
     </row>
     <row r="1710">
+      <c r="A1710" t="n">
+        <v>-44.91</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>13.93234817275788</v>
+      </c>
       <c r="C1710" t="n">
         <v>-23.75714285714285</v>
       </c>
@@ -54742,6 +55018,12 @@
       </c>
     </row>
     <row r="1711">
+      <c r="A1711" t="n">
+        <v>-45.34</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>13.93221960132931</v>
+      </c>
       <c r="C1711" t="n">
         <v>-24.18571428571428</v>
       </c>
@@ -54768,6 +55050,12 @@
       </c>
     </row>
     <row r="1712">
+      <c r="A1712" t="n">
+        <v>-45.77</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>13.93209102990074</v>
+      </c>
       <c r="C1712" t="n">
         <v>-24.61428571428571</v>
       </c>
@@ -54788,6 +55076,12 @@
       </c>
     </row>
     <row r="1713">
+      <c r="A1713" t="n">
+        <v>-46.2</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>13.93196245847217</v>
+      </c>
       <c r="C1713" t="n">
         <v>-25.04285714285714</v>
       </c>
@@ -54808,6 +55102,12 @@
       </c>
     </row>
     <row r="1714">
+      <c r="A1714" t="n">
+        <v>-46.63</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>13.93183388704359</v>
+      </c>
       <c r="C1714" t="n">
         <v>-25.44987430548393</v>
       </c>
@@ -54828,6 +55128,12 @@
       </c>
     </row>
     <row r="1715">
+      <c r="A1715" t="n">
+        <v>-47.06</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>13.93170531561502</v>
+      </c>
       <c r="C1715" t="n">
         <v>-25.82576633536578</v>
       </c>
@@ -54848,6 +55154,12 @@
       </c>
     </row>
     <row r="1716">
+      <c r="A1716" t="n">
+        <v>-47.48999999999999</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>13.93157674418645</v>
+      </c>
       <c r="C1716" t="n">
         <v>-26.17053323250267</v>
       </c>
@@ -54868,6 +55180,12 @@
       </c>
     </row>
     <row r="1717">
+      <c r="A1717" t="n">
+        <v>-47.91999999999999</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>13.93144817275788</v>
+      </c>
       <c r="C1717" t="n">
         <v>-26.48417499689461</v>
       </c>
@@ -54888,6 +55206,12 @@
       </c>
     </row>
     <row r="1718">
+      <c r="A1718" t="n">
+        <v>-48.34999999999999</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>13.93131960132931</v>
+      </c>
       <c r="C1718" t="n">
         <v>-26.76669162854159</v>
       </c>
@@ -54908,6 +55232,12 @@
       </c>
     </row>
     <row r="1719">
+      <c r="A1719" t="n">
+        <v>-48.77999999999999</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>13.93119102990074</v>
+      </c>
       <c r="C1719" t="n">
         <v>-27.01808312744362</v>
       </c>
@@ -54928,6 +55258,12 @@
       </c>
     </row>
     <row r="1720">
+      <c r="A1720" t="n">
+        <v>-49.20999999999999</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>13.93106245847217</v>
+      </c>
       <c r="C1720" t="n">
         <v>-27.23834949360071</v>
       </c>
@@ -54948,6 +55284,12 @@
       </c>
     </row>
     <row r="1721">
+      <c r="A1721" t="n">
+        <v>-49.63999999999999</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>13.93093388704359</v>
+      </c>
       <c r="C1721" t="n">
         <v>-27.42749072701283</v>
       </c>

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -50909,10 +50909,10 @@
         <v>12.33834696774211</v>
       </c>
       <c r="G1582" t="n">
-        <v>-8.382730600787887</v>
+        <v>-8.39197530644854</v>
       </c>
       <c r="H1582" t="n">
-        <v>14.24755848531219</v>
+        <v>14.24804134406923</v>
       </c>
       <c r="I1582" t="n">
         <v>10.24428571428572</v>
@@ -50941,10 +50941,10 @@
         <v>12.32397903372768</v>
       </c>
       <c r="G1583" t="n">
-        <v>-8.723589567393805</v>
+        <v>-8.756664580836034</v>
       </c>
       <c r="H1583" t="n">
-        <v>14.24591400619831</v>
+        <v>14.24784204113458</v>
       </c>
       <c r="I1583" t="n">
         <v>9.810000000000006</v>
@@ -50973,10 +50973,10 @@
         <v>12.30931668644075</v>
       </c>
       <c r="G1584" t="n">
-        <v>-9.04007689981777</v>
+        <v>-9.111567823162499</v>
       </c>
       <c r="H1584" t="n">
-        <v>14.24295406265834</v>
+        <v>14.24728959119602</v>
       </c>
       <c r="I1584" t="n">
         <v>9.375714285714292</v>
@@ -51005,10 +51005,10 @@
         <v>12.29437848162783</v>
       </c>
       <c r="G1585" t="n">
-        <v>-9.332192598059782</v>
+        <v>-9.456685033427936</v>
       </c>
       <c r="H1585" t="n">
-        <v>14.23867865469228</v>
+        <v>14.24638399425358</v>
       </c>
       <c r="I1585" t="n">
         <v>8.941428571428577</v>
@@ -51037,10 +51037,10 @@
         <v>12.2791829750354</v>
       </c>
       <c r="G1586" t="n">
-        <v>-9.599936662119839</v>
+        <v>-9.792016211632344</v>
       </c>
       <c r="H1586" t="n">
-        <v>14.23308778230013</v>
+        <v>14.24512525030723</v>
       </c>
       <c r="I1586" t="n">
         <v>8.507142857142863</v>
@@ -51069,10 +51069,10 @@
         <v>12.26374872240996</v>
       </c>
       <c r="G1587" t="n">
-        <v>-9.843309091997945</v>
+        <v>-10.11756135777572</v>
       </c>
       <c r="H1587" t="n">
-        <v>14.22618144548189</v>
+        <v>14.24351335935698</v>
       </c>
       <c r="I1587" t="n">
         <v>8.072857142857149</v>
@@ -51101,10 +51101,10 @@
         <v>12.24809427949801</v>
       </c>
       <c r="G1588" t="n">
-        <v>-10.0623098876941</v>
+        <v>-10.43332047185807</v>
       </c>
       <c r="H1588" t="n">
-        <v>14.21795964423757</v>
+        <v>14.24154832140284</v>
       </c>
       <c r="I1588" t="n">
         <v>7.638571428571435</v>
@@ -51133,10 +51133,10 @@
         <v>12.23223820204604</v>
       </c>
       <c r="G1589" t="n">
-        <v>-10.2569390492083</v>
+        <v>-10.73929355387939</v>
       </c>
       <c r="H1589" t="n">
-        <v>14.20842237856715</v>
+        <v>14.2392301364448</v>
       </c>
       <c r="I1589" t="n">
         <v>7.204285714285721</v>
@@ -51165,10 +51165,10 @@
         <v>12.21619904580054</v>
       </c>
       <c r="G1590" t="n">
-        <v>-10.42719657654054</v>
+        <v>-11.03548060383969</v>
       </c>
       <c r="H1590" t="n">
-        <v>14.19756964847065</v>
+        <v>14.23655880448287</v>
       </c>
       <c r="I1590" t="n">
         <v>6.770000000000007</v>
@@ -51197,10 +51197,10 @@
         <v>12.19999536650801</v>
       </c>
       <c r="G1591" t="n">
-        <v>-10.57308246969083</v>
+        <v>-11.32188162173895</v>
       </c>
       <c r="H1591" t="n">
-        <v>14.18540145394806</v>
+        <v>14.23353432551703</v>
       </c>
       <c r="I1591" t="n">
         <v>6.335714285714293</v>
@@ -51229,10 +51229,10 @@
         <v>12.18364571991494</v>
       </c>
       <c r="G1592" t="n">
-        <v>-10.69459672865917</v>
+        <v>-11.59849660757718</v>
       </c>
       <c r="H1592" t="n">
-        <v>14.17191779499938</v>
+        <v>14.2301566995473</v>
       </c>
       <c r="I1592" t="n">
         <v>5.901428571428578</v>
@@ -51261,10 +51261,10 @@
         <v>12.16716866176784</v>
       </c>
       <c r="G1593" t="n">
-        <v>-10.79173935344555</v>
+        <v>-11.86532556135439</v>
       </c>
       <c r="H1593" t="n">
-        <v>14.15711867162461</v>
+        <v>14.22642592657368</v>
       </c>
       <c r="I1593" t="n">
         <v>5.467142857142864</v>
@@ -51293,10 +51293,10 @@
         <v>12.15058274781318</v>
       </c>
       <c r="G1594" t="n">
-        <v>-10.86451034404998</v>
+        <v>-12.12236848307057</v>
       </c>
       <c r="H1594" t="n">
-        <v>14.14100408382376</v>
+        <v>14.22234200659615</v>
       </c>
       <c r="I1594" t="n">
         <v>5.03285714285715</v>
@@ -51325,10 +51325,10 @@
         <v>12.13390653379748</v>
       </c>
       <c r="G1595" t="n">
-        <v>-10.91290970047246</v>
+        <v>-12.36962537272571</v>
       </c>
       <c r="H1595" t="n">
-        <v>14.12357403159681</v>
+        <v>14.21790493961473</v>
       </c>
       <c r="I1595" t="n">
         <v>4.598571428571436</v>
@@ -51357,10 +51357,10 @@
         <v>12.11715857546722</v>
       </c>
       <c r="G1596" t="n">
-        <v>-10.93693742271299</v>
+        <v>-12.60709623031983</v>
       </c>
       <c r="H1596" t="n">
-        <v>14.10482851494378</v>
+        <v>14.2131147256294</v>
       </c>
       <c r="I1596" t="n">
         <v>4.164285714285722</v>
@@ -51389,10 +51389,10 @@
         <v>12.1003574285689</v>
       </c>
       <c r="G1597" t="n">
-        <v>-10.93909609677419</v>
+        <v>-12.83478105585292</v>
       </c>
       <c r="H1597" t="n">
-        <v>14.10007251612907</v>
+        <v>14.20797136464019</v>
       </c>
       <c r="I1597" t="n">
         <v>3.730000000000008</v>
@@ -51421,10 +51421,10 @@
         <v>12.08352164884901</v>
       </c>
       <c r="G1598" t="n">
-        <v>-10.94595333608038</v>
+        <v>-13.05267984932498</v>
       </c>
       <c r="H1598" t="n">
-        <v>14.08858262002826</v>
+        <v>14.20247485664707</v>
       </c>
       <c r="I1598" t="n">
         <v>3.295714285714293</v>
@@ -51453,10 +51453,10 @@
         <v>12.06666979205405</v>
       </c>
       <c r="G1599" t="n">
-        <v>-10.95971614053748</v>
+        <v>-13.26079261073601</v>
       </c>
       <c r="H1599" t="n">
-        <v>14.07675134946029</v>
+        <v>14.19662520165006</v>
       </c>
       <c r="I1599" t="n">
         <v>2.861428571428579</v>
@@ -51485,10 +51485,10 @@
         <v>12.04982041393051</v>
       </c>
       <c r="G1600" t="n">
-        <v>-10.98035237446921</v>
+        <v>-13.45911934008602</v>
       </c>
       <c r="H1600" t="n">
-        <v>14.06459888264052</v>
+        <v>14.19042239964915</v>
       </c>
       <c r="I1600" t="n">
         <v>2.427142857142865</v>
@@ -51517,10 +51517,10 @@
         <v>12.03299207022488</v>
       </c>
       <c r="G1601" t="n">
-        <v>-11.0078299021993</v>
+        <v>-13.64766003737499</v>
       </c>
       <c r="H1601" t="n">
-        <v>14.05214539778427</v>
+        <v>14.18386645064434</v>
       </c>
       <c r="I1601" t="n">
         <v>1.992857142857151</v>
@@ -51549,10 +51549,10 @@
         <v>12.01620331668367</v>
       </c>
       <c r="G1602" t="n">
-        <v>-11.04211658805146</v>
+        <v>-13.82641470260293</v>
       </c>
       <c r="H1602" t="n">
-        <v>14.03941107310689</v>
+        <v>14.17695735463564</v>
       </c>
       <c r="I1602" t="n">
         <v>1.558571428571437</v>
@@ -51581,10 +51581,10 @@
         <v>11.99947270905337</v>
       </c>
       <c r="G1603" t="n">
-        <v>-11.08318029634943</v>
+        <v>-13.99538333576985</v>
       </c>
       <c r="H1603" t="n">
-        <v>14.02641608682373</v>
+        <v>14.16969511162304</v>
       </c>
       <c r="I1603" t="n">
         <v>1.124285714285723</v>
@@ -51613,10 +51613,10 @@
         <v>11.98281880308046</v>
       </c>
       <c r="G1604" t="n">
-        <v>-11.1309888914169</v>
+        <v>-14.15456593687573</v>
       </c>
       <c r="H1604" t="n">
-        <v>14.0131806171501</v>
+        <v>14.16207972160654</v>
       </c>
       <c r="I1604" t="n">
         <v>0.7151121490983865</v>
@@ -51645,10 +51645,10 @@
         <v>11.96626015451146</v>
       </c>
       <c r="G1605" t="n">
-        <v>-11.18551023757762</v>
+        <v>-14.30396250592059</v>
       </c>
       <c r="H1605" t="n">
-        <v>13.99972484230136</v>
+        <v>14.15411118458614</v>
       </c>
       <c r="I1605" t="n">
         <v>0.3370124332721754</v>
@@ -51677,10 +51677,10 @@
         <v>11.94981531909284</v>
       </c>
       <c r="G1606" t="n">
-        <v>-11.24671219915529</v>
+        <v>-14.44357304290442</v>
       </c>
       <c r="H1606" t="n">
-        <v>13.98606894049283</v>
+        <v>14.14578950056185</v>
       </c>
       <c r="I1606" t="n">
         <v>-0.01001343319291015</v>
@@ -51709,10 +51709,10 @@
         <v>11.93350285257111</v>
       </c>
       <c r="G1607" t="n">
-        <v>-11.31456264047365</v>
+        <v>-14.57339754782722</v>
       </c>
       <c r="H1607" t="n">
-        <v>13.97223308993986</v>
+        <v>14.13711466953366</v>
       </c>
       <c r="I1607" t="n">
         <v>-0.3259654502968709</v>
@@ -51741,10 +51741,10 @@
         <v>11.91734131069276</v>
       </c>
       <c r="G1608" t="n">
-        <v>-11.38902942585641</v>
+        <v>-14.69343602068899</v>
       </c>
       <c r="H1608" t="n">
-        <v>13.95823746885779</v>
+        <v>14.12808669150157</v>
       </c>
       <c r="I1608" t="n">
         <v>-0.6108436180397062</v>
@@ -51773,10 +51773,10 @@
         <v>11.90134924920428</v>
       </c>
       <c r="G1609" t="n">
-        <v>-11.47008041962729</v>
+        <v>-14.80368846148974</v>
       </c>
       <c r="H1609" t="n">
-        <v>13.94410225546195</v>
+        <v>14.11870556646558</v>
       </c>
       <c r="I1609" t="n">
         <v>-0.8646479364214164</v>
@@ -51805,10 +51805,10 @@
         <v>11.88554522385218</v>
       </c>
       <c r="G1610" t="n">
-        <v>-11.55768348611002</v>
+        <v>-14.90415487022945</v>
       </c>
       <c r="H1610" t="n">
-        <v>13.92984762796768</v>
+        <v>14.1089712944257</v>
       </c>
       <c r="I1610" t="n">
         <v>-1.087378405442001</v>
@@ -51837,10 +51837,10 @@
         <v>11.86994779038294</v>
       </c>
       <c r="G1611" t="n">
-        <v>-11.65180648962831</v>
+        <v>-14.99483524690813</v>
       </c>
       <c r="H1611" t="n">
-        <v>13.91549376459032</v>
+        <v>14.09888387538192</v>
       </c>
       <c r="I1611" t="n">
         <v>-1.279035025101461</v>
@@ -51869,10 +51869,10 @@
         <v>11.85457550454306</v>
       </c>
       <c r="G1612" t="n">
-        <v>-11.75241729450589</v>
+        <v>-15.07572959152579</v>
       </c>
       <c r="H1612" t="n">
-        <v>13.9010608435452</v>
+        <v>14.08844330933424</v>
       </c>
       <c r="I1612" t="n">
         <v>-1.439617795399796</v>
@@ -51901,10 +51901,10 @@
         <v>11.83944692207904</v>
       </c>
       <c r="G1613" t="n">
-        <v>-11.85948376506648</v>
+        <v>-15.14683790408241</v>
       </c>
       <c r="H1613" t="n">
-        <v>13.88656904304768</v>
+        <v>14.07764959628267</v>
       </c>
       <c r="I1613" t="n">
         <v>-1.569126716337006</v>
@@ -51933,10 +51933,10 @@
         <v>11.82458059873736</v>
       </c>
       <c r="G1614" t="n">
-        <v>-11.9729737656338</v>
+        <v>-15.20816018457801</v>
       </c>
       <c r="H1614" t="n">
-        <v>13.87203854131307</v>
+        <v>14.06650273622719</v>
       </c>
       <c r="I1614" t="n">
         <v>-1.66756178791309</v>
@@ -51965,10 +51965,10 @@
         <v>11.80999509026453</v>
       </c>
       <c r="G1615" t="n">
-        <v>-12.09285516053156</v>
+        <v>-15.25969643301258</v>
       </c>
       <c r="H1615" t="n">
-        <v>13.85748951655672</v>
+        <v>14.05500272916782</v>
       </c>
       <c r="I1615" t="n">
         <v>-1.734923010128049</v>
@@ -51997,10 +51997,10 @@
         <v>11.79570895240704</v>
       </c>
       <c r="G1616" t="n">
-        <v>-12.21909581408351</v>
+        <v>-15.30144664938612</v>
       </c>
       <c r="H1616" t="n">
-        <v>13.84294214699397</v>
+        <v>14.04314957510456</v>
       </c>
       <c r="I1616" t="n">
         <v>-1.771210382981883</v>
@@ -52029,10 +52029,10 @@
         <v>11.78174074091138</v>
       </c>
       <c r="G1617" t="n">
-        <v>-12.35166359061334</v>
+        <v>-15.33341083369863</v>
       </c>
       <c r="H1617" t="n">
-        <v>13.82841661084016</v>
+        <v>14.03094327403739</v>
       </c>
       <c r="I1617" t="n">
         <v>-1.778032406015031</v>
@@ -52061,10 +52061,10 @@
         <v>11.76810901152404</v>
       </c>
       <c r="G1618" t="n">
-        <v>-12.49052635444478</v>
+        <v>-15.35558898595011</v>
       </c>
       <c r="H1618" t="n">
-        <v>13.81393308631061</v>
+        <v>14.01838382596633</v>
       </c>
       <c r="I1618" t="n">
         <v>-1.783872070859667</v>
@@ -52093,10 +52093,10 @@
         <v>11.75483231999153</v>
       </c>
       <c r="G1619" t="n">
-        <v>-12.63565196990157</v>
+        <v>-15.36798110614057</v>
       </c>
       <c r="H1619" t="n">
-        <v>13.79951175162068</v>
+        <v>14.00547123089137</v>
       </c>
       <c r="I1619" t="n">
         <v>-1.798443322199708</v>
@@ -52125,10 +52125,10 @@
         <v>11.74192922206034</v>
       </c>
       <c r="G1620" t="n">
-        <v>-12.78700830130741</v>
+        <v>-15.37005116129031</v>
       </c>
       <c r="H1620" t="n">
-        <v>13.78517278498571</v>
+        <v>14.00072122580653</v>
       </c>
       <c r="I1620" t="n">
         <v>-1.821695329437877</v>
@@ -52157,10 +52157,10 @@
         <v>11.72941827347696</v>
       </c>
       <c r="G1621" t="n">
-        <v>-12.94456321298602</v>
+        <v>-15.37369737443397</v>
       </c>
       <c r="H1621" t="n">
-        <v>13.77093636462102</v>
+        <v>13.99313514464636</v>
       </c>
       <c r="I1621" t="n">
         <v>-1.853577261976896</v>
@@ -52189,10 +52189,10 @@
         <v>11.71731802998789</v>
       </c>
       <c r="G1622" t="n">
-        <v>-13.10828456926114</v>
+        <v>-15.38011332855593</v>
       </c>
       <c r="H1622" t="n">
-        <v>13.75682266874195</v>
+        <v>13.98544203755551</v>
       </c>
       <c r="I1622" t="n">
         <v>-1.89403828921949</v>
@@ -52221,10 +52221,10 @@
         <v>11.70564704733962</v>
       </c>
       <c r="G1623" t="n">
-        <v>-13.27814023445648</v>
+        <v>-15.3892935946124</v>
       </c>
       <c r="H1623" t="n">
-        <v>13.74285187556384</v>
+        <v>13.97764427938597</v>
       </c>
       <c r="I1623" t="n">
         <v>-1.943027580568381</v>
@@ -52253,10 +52253,10 @@
         <v>11.69442388127865</v>
       </c>
       <c r="G1624" t="n">
-        <v>-13.45409807289576</v>
+        <v>-15.40123274355964</v>
       </c>
       <c r="H1624" t="n">
-        <v>13.72904416330204</v>
+        <v>13.96974424498972</v>
       </c>
       <c r="I1624" t="n">
         <v>-2.000494305426291</v>
@@ -52285,10 +52285,10 @@
         <v>11.68366708755147</v>
       </c>
       <c r="G1625" t="n">
-        <v>-13.6361259489027</v>
+        <v>-15.41592534635384</v>
       </c>
       <c r="H1625" t="n">
-        <v>13.71541971017187</v>
+        <v>13.96174430921876</v>
       </c>
       <c r="I1625" t="n">
         <v>-2.066387633195943</v>
@@ -52317,10 +52317,10 @@
         <v>11.67339522190457</v>
       </c>
       <c r="G1626" t="n">
-        <v>-13.82419172680102</v>
+        <v>-15.43336597395125</v>
       </c>
       <c r="H1626" t="n">
-        <v>13.70199869438868</v>
+        <v>13.95364684692505</v>
       </c>
       <c r="I1626" t="n">
         <v>-2.14065673328006</v>
@@ -52349,10 +52349,10 @@
         <v>11.66362684008446</v>
       </c>
       <c r="G1627" t="n">
-        <v>-14.01826327091445</v>
+        <v>-15.45354919730809</v>
       </c>
       <c r="H1627" t="n">
-        <v>13.68880129416781</v>
+        <v>13.94545423296059</v>
       </c>
       <c r="I1627" t="n">
         <v>-2.223250775081365</v>
@@ -52381,10 +52381,10 @@
         <v>11.65438049783762</v>
       </c>
       <c r="G1628" t="n">
-        <v>-14.21830844556671</v>
+        <v>-15.47646958738057</v>
       </c>
       <c r="H1628" t="n">
-        <v>13.67584768772458</v>
+        <v>13.93716884217736</v>
       </c>
       <c r="I1628" t="n">
         <v>-2.314118928002579</v>
@@ -52413,10 +52413,10 @@
         <v>11.64567475091055</v>
       </c>
       <c r="G1629" t="n">
-        <v>-14.42429511508151</v>
+        <v>-15.50212171512493</v>
       </c>
       <c r="H1629" t="n">
-        <v>13.66315805327435</v>
+        <v>13.92879304942733</v>
       </c>
       <c r="I1629" t="n">
         <v>-2.413210361446429</v>
@@ -52445,10 +52445,10 @@
         <v>11.63752815504975</v>
       </c>
       <c r="G1630" t="n">
-        <v>-14.63619114378258</v>
+        <v>-15.53050015149739</v>
       </c>
       <c r="H1630" t="n">
-        <v>13.65075256903244</v>
+        <v>13.92032922956251</v>
       </c>
       <c r="I1630" t="n">
         <v>-2.520474244815634</v>
@@ -52477,10 +52477,10 @@
         <v>11.62995926600171</v>
       </c>
       <c r="G1631" t="n">
-        <v>-14.85396439599364</v>
+        <v>-15.56159946745418</v>
       </c>
       <c r="H1631" t="n">
-        <v>13.6386514132142</v>
+        <v>13.91177975743487</v>
       </c>
       <c r="I1631" t="n">
         <v>-2.635859747512918</v>
@@ -52509,10 +52509,10 @@
         <v>11.62298663951293</v>
       </c>
       <c r="G1632" t="n">
-        <v>-15.07758273603841</v>
+        <v>-15.59541423395153</v>
       </c>
       <c r="H1632" t="n">
-        <v>13.62687476403497</v>
+        <v>13.9031470078964</v>
       </c>
       <c r="I1632" t="n">
         <v>-2.759316038941004</v>
@@ -52541,10 +52541,10 @@
         <v>11.61662883132989</v>
       </c>
       <c r="G1633" t="n">
-        <v>-15.30701402824062</v>
+        <v>-15.63193902194566</v>
       </c>
       <c r="H1633" t="n">
-        <v>13.61544279971007</v>
+        <v>13.89443335579907</v>
       </c>
       <c r="I1633" t="n">
         <v>-2.890792288502615</v>
@@ -52573,10 +52573,10 @@
         <v>11.6109043971991</v>
       </c>
       <c r="G1634" t="n">
-        <v>-15.54222613692397</v>
+        <v>-15.67116840239279</v>
       </c>
       <c r="H1634" t="n">
-        <v>13.60437569845485</v>
+        <v>13.88564117599488</v>
       </c>
       <c r="I1634" t="n">
         <v>-3.030237665600473</v>
@@ -52605,10 +52605,10 @@
         <v>11.60583189286704</v>
       </c>
       <c r="G1635" t="n">
-        <v>-15.78318692641221</v>
+        <v>-15.71309694624914</v>
       </c>
       <c r="H1635" t="n">
-        <v>13.59369363848466</v>
+        <v>13.87677284333581</v>
       </c>
       <c r="I1635" t="n">
         <v>-3.177601339637302</v>
@@ -52637,10 +52637,10 @@
         <v>11.60142987408022</v>
       </c>
       <c r="G1636" t="n">
-        <v>-16.02986426102904</v>
+        <v>-15.75771922447095</v>
       </c>
       <c r="H1636" t="n">
-        <v>13.58341679801481</v>
+        <v>13.86783073267383</v>
       </c>
       <c r="I1636" t="n">
         <v>-3.332832480015824</v>
@@ -52669,10 +52669,10 @@
         <v>11.59771689658514</v>
       </c>
       <c r="G1637" t="n">
-        <v>-16.28222600509818</v>
+        <v>-15.80502980801445</v>
       </c>
       <c r="H1637" t="n">
-        <v>13.57356535526066</v>
+        <v>13.85881721886095</v>
       </c>
       <c r="I1637" t="n">
         <v>-3.495880256138761</v>
@@ -52701,10 +52701,10 @@
         <v>11.59471151612827</v>
       </c>
       <c r="G1638" t="n">
-        <v>-16.54024002294336</v>
+        <v>-15.85502326783585</v>
       </c>
       <c r="H1638" t="n">
-        <v>13.56415948843754</v>
+        <v>13.84973467674913</v>
       </c>
       <c r="I1638" t="n">
         <v>-3.666693837408838</v>
@@ -52733,10 +52733,10 @@
         <v>11.59243228845612</v>
       </c>
       <c r="G1639" t="n">
-        <v>-16.8038741788883</v>
+        <v>-15.90769417489138</v>
       </c>
       <c r="H1639" t="n">
-        <v>13.55521937576079</v>
+        <v>13.84058548119037</v>
       </c>
       <c r="I1639" t="n">
         <v>-3.845222393228776</v>
@@ -52765,10 +52765,10 @@
         <v>11.59089776931518</v>
       </c>
       <c r="G1640" t="n">
-        <v>-17.07309633725672</v>
+        <v>-15.96303710013727</v>
       </c>
       <c r="H1640" t="n">
-        <v>13.54676519544573</v>
+        <v>13.83137200703665</v>
       </c>
       <c r="I1640" t="n">
         <v>-4.031415093001299</v>
@@ -52797,10 +52797,10 @@
         <v>11.59012651445196</v>
       </c>
       <c r="G1641" t="n">
-        <v>-17.34787436237235</v>
+        <v>-16.02104661452974</v>
       </c>
       <c r="H1641" t="n">
-        <v>13.53881712570774</v>
+        <v>13.82209662913995</v>
       </c>
       <c r="I1641" t="n">
         <v>-4.225221106129128</v>
@@ -52829,10 +52829,10 @@
         <v>11.59019516129113</v>
       </c>
       <c r="G1642" t="n">
-        <v>-17.62817611855889</v>
+        <v>-16.08171728902502</v>
       </c>
       <c r="H1642" t="n">
-        <v>13.53139534476211</v>
+        <v>13.81276172235226</v>
       </c>
       <c r="I1642" t="n">
         <v>-4.426589602014988</v>
@@ -52861,10 +52861,10 @@
         <v>11.59034516129113</v>
       </c>
       <c r="G1643" t="n">
-        <v>-17.91396947014009</v>
+        <v>-16.14504369457934</v>
       </c>
       <c r="H1643" t="n">
-        <v>13.52452003082421</v>
+        <v>13.80336966152556</v>
       </c>
       <c r="I1643" t="n">
         <v>-4.635469750061601</v>
@@ -52893,10 +52893,10 @@
         <v>11.59049516129113</v>
       </c>
       <c r="G1644" t="n">
-        <v>-18.20522228143964</v>
+        <v>-16.21102040214891</v>
       </c>
       <c r="H1644" t="n">
-        <v>13.51821136210937</v>
+        <v>13.79392282151183</v>
       </c>
       <c r="I1644" t="n">
         <v>-4.85181071967169</v>
@@ -52925,10 +52925,10 @@
         <v>11.59064516129113</v>
       </c>
       <c r="G1645" t="n">
-        <v>-18.50190241678128</v>
+        <v>-16.27964198268997</v>
       </c>
       <c r="H1645" t="n">
-        <v>13.51248951683292</v>
+        <v>13.78442357716306</v>
       </c>
       <c r="I1645" t="n">
         <v>-5.075561680247976</v>
@@ -52957,10 +52957,10 @@
         <v>11.59079516129113</v>
       </c>
       <c r="G1646" t="n">
-        <v>-18.80397774048874</v>
+        <v>-16.35090300715874</v>
       </c>
       <c r="H1646" t="n">
-        <v>13.5073746732102</v>
+        <v>13.77487430333123</v>
       </c>
       <c r="I1646" t="n">
         <v>-5.306671801193183</v>
@@ -52989,10 +52989,10 @@
         <v>11.59094516129113</v>
       </c>
       <c r="G1647" t="n">
-        <v>-19.11141611688571</v>
+        <v>-16.42479804651144</v>
       </c>
       <c r="H1647" t="n">
-        <v>13.50288700945656</v>
+        <v>13.76527737486833</v>
       </c>
       <c r="I1647" t="n">
         <v>-5.545090251910036</v>
@@ -53021,10 +53021,10 @@
         <v>11.59109516129113</v>
       </c>
       <c r="G1648" t="n">
-        <v>-19.42418541029594</v>
+        <v>-16.5013216717043</v>
       </c>
       <c r="H1648" t="n">
-        <v>13.49904670378733</v>
+        <v>13.75563516662634</v>
       </c>
       <c r="I1648" t="n">
         <v>-5.790766201801254</v>
@@ -53053,10 +53053,10 @@
         <v>11.59124516129113</v>
       </c>
       <c r="G1649" t="n">
-        <v>-19.74225348504314</v>
+        <v>-16.58046845369356</v>
       </c>
       <c r="H1649" t="n">
-        <v>13.49587393441784</v>
+        <v>13.74595005345725</v>
       </c>
       <c r="I1649" t="n">
         <v>-6.043648820269563</v>
@@ -53085,10 +53085,10 @@
         <v>11.59139516129113</v>
       </c>
       <c r="G1650" t="n">
-        <v>-20.06558820545104</v>
+        <v>-16.66223296343543</v>
       </c>
       <c r="H1650" t="n">
-        <v>13.49338887956343</v>
+        <v>13.73622441021304</v>
       </c>
       <c r="I1650" t="n">
         <v>-6.303687276717683</v>
@@ -53117,10 +53117,10 @@
         <v>11.59154516129113</v>
       </c>
       <c r="G1651" t="n">
-        <v>-20.39415743584334</v>
+        <v>-16.74660977188612</v>
       </c>
       <c r="H1651" t="n">
-        <v>13.49161171743946</v>
+        <v>13.72646061174568</v>
       </c>
       <c r="I1651" t="n">
         <v>-6.570830740548339</v>
@@ -53149,10 +53149,10 @@
         <v>11.59169516129113</v>
       </c>
       <c r="G1652" t="n">
-        <v>-20.72792904054378</v>
+        <v>-16.83359345000189</v>
       </c>
       <c r="H1652" t="n">
-        <v>13.49056262626123</v>
+        <v>13.71666103290718</v>
       </c>
       <c r="I1652" t="n">
         <v>-6.845028381164253</v>
@@ -53181,10 +53181,10 @@
         <v>11.59184516129113</v>
       </c>
       <c r="G1653" t="n">
-        <v>-21.06687088387608</v>
+        <v>-16.92317856873894</v>
       </c>
       <c r="H1653" t="n">
-        <v>13.49026178424412</v>
+        <v>13.70682804854951</v>
       </c>
       <c r="I1653" t="n">
         <v>-7.126229367968148</v>
@@ -53213,10 +53213,10 @@
         <v>11.59199516129113</v>
       </c>
       <c r="G1654" t="n">
-        <v>-21.41095083016395</v>
+        <v>-17.01535969905351</v>
       </c>
       <c r="H1654" t="n">
-        <v>13.49072936960343</v>
+        <v>13.69696403352465</v>
       </c>
       <c r="I1654" t="n">
         <v>-7.414382870362748</v>
@@ -53245,10 +53245,10 @@
         <v>11.59214516129113</v>
       </c>
       <c r="G1655" t="n">
-        <v>-21.76013674373112</v>
+        <v>-17.11013141190181</v>
       </c>
       <c r="H1655" t="n">
-        <v>13.49198556055452</v>
+        <v>13.68707136268459</v>
       </c>
       <c r="I1655" t="n">
         <v>-7.709438057750772</v>
@@ -53277,10 +53277,10 @@
         <v>11.59229516129113</v>
       </c>
       <c r="G1656" t="n">
-        <v>-22.11439648890132</v>
+        <v>-17.20748827824008</v>
       </c>
       <c r="H1656" t="n">
-        <v>13.49405053531271</v>
+        <v>13.67715241088132</v>
       </c>
       <c r="I1656" t="n">
         <v>-8.011344099534947</v>
@@ -53309,10 +53309,10 @@
         <v>11.59244516129113</v>
       </c>
       <c r="G1657" t="n">
-        <v>-22.7875</v>
+        <v>-17.30742486902455</v>
       </c>
       <c r="H1657" t="n">
-        <v>13.49291088709703</v>
+        <v>13.66720955296681</v>
       </c>
       <c r="I1657" t="n">
         <v>-8.320050165117992</v>
@@ -53341,10 +53341,10 @@
         <v>11.59259516129113</v>
       </c>
       <c r="G1658" t="n">
-        <v>-23.175</v>
+        <v>-17.40993575521143</v>
       </c>
       <c r="H1658" t="n">
-        <v>13.48953588709704</v>
+        <v>13.65724516379306</v>
       </c>
       <c r="I1658" t="n">
         <v>-8.635505423902636</v>
@@ -53373,10 +53373,10 @@
         <v>11.59274516129113</v>
       </c>
       <c r="G1659" t="n">
-        <v>-23.5625</v>
+        <v>-17.51501550775695</v>
       </c>
       <c r="H1659" t="n">
-        <v>13.48616088709704</v>
+        <v>13.64726161821204</v>
       </c>
       <c r="I1659" t="n">
         <v>-8.957659045291598</v>
@@ -53405,10 +53405,10 @@
         <v>11.59289516129113</v>
       </c>
       <c r="G1660" t="n">
-        <v>-23.95</v>
+        <v>-17.62265869761733</v>
       </c>
       <c r="H1660" t="n">
-        <v>13.48278588709704</v>
+        <v>13.63726129107574</v>
       </c>
       <c r="I1660" t="n">
         <v>-9.286460198687596</v>
@@ -53437,10 +53437,10 @@
         <v>11.59304516129113</v>
       </c>
       <c r="G1661" t="n">
-        <v>-24.3375</v>
+        <v>-17.73285989574881</v>
       </c>
       <c r="H1661" t="n">
-        <v>13.47941088709704</v>
+        <v>13.62724655723615</v>
       </c>
       <c r="I1661" t="n">
         <v>-9.62185805349336</v>
@@ -53469,10 +53469,10 @@
         <v>11.59319516129113</v>
       </c>
       <c r="G1662" t="n">
-        <v>-24.725</v>
+        <v>-17.84561367310761</v>
       </c>
       <c r="H1662" t="n">
-        <v>13.47603588709704</v>
+        <v>13.61721979154525</v>
       </c>
       <c r="I1662" t="n">
         <v>-9.963801779111609</v>
@@ -53501,10 +53501,10 @@
         <v>11.59334516129113</v>
       </c>
       <c r="G1663" t="n">
-        <v>-25.1125</v>
+        <v>-17.96091460064995</v>
       </c>
       <c r="H1663" t="n">
-        <v>13.47266088709704</v>
+        <v>13.60718336885501</v>
       </c>
       <c r="I1663" t="n">
         <v>-10.31224054494507</v>
@@ -53533,10 +53533,10 @@
         <v>11.59349516129113</v>
       </c>
       <c r="G1664" t="n">
-        <v>-25.5</v>
+        <v>-18.07875724933206</v>
       </c>
       <c r="H1664" t="n">
-        <v>13.46928588709704</v>
+        <v>13.59713966401744</v>
       </c>
       <c r="I1664" t="n">
         <v>-10.66712352039646</v>
@@ -53565,10 +53565,10 @@
         <v>11.59364516129113</v>
       </c>
       <c r="G1665" t="n">
-        <v>-25.8875</v>
+        <v>-18.19913619011017</v>
       </c>
       <c r="H1665" t="n">
-        <v>13.46591088709704</v>
+        <v>13.5870910518845</v>
       </c>
       <c r="I1665" t="n">
         <v>-11.0283998748685</v>
@@ -53597,10 +53597,10 @@
         <v>11.59379516129113</v>
       </c>
       <c r="G1666" t="n">
-        <v>-26.275</v>
+        <v>-18.32204599394049</v>
       </c>
       <c r="H1666" t="n">
-        <v>13.46253588709705</v>
+        <v>13.57703990730819</v>
       </c>
       <c r="I1666" t="n">
         <v>-11.39601877776393</v>
@@ -53629,10 +53629,10 @@
         <v>11.59394516129113</v>
       </c>
       <c r="G1667" t="n">
-        <v>-26.6625</v>
+        <v>-18.44748123177926</v>
       </c>
       <c r="H1667" t="n">
-        <v>13.45916088709705</v>
+        <v>13.56698860514049</v>
       </c>
       <c r="I1667" t="n">
         <v>-11.76992939848545</v>
@@ -53661,10 +53661,10 @@
         <v>11.59409516129113</v>
       </c>
       <c r="G1668" t="n">
-        <v>-27.05</v>
+        <v>-18.57543647458271</v>
       </c>
       <c r="H1668" t="n">
-        <v>13.45578588709705</v>
+        <v>13.55693952023338</v>
       </c>
       <c r="I1668" t="n">
         <v>-12.15008090643579</v>
@@ -53693,10 +53693,10 @@
         <v>11.59424516129113</v>
       </c>
       <c r="G1669" t="n">
-        <v>-27.4375</v>
+        <v>-18.70590629330705</v>
       </c>
       <c r="H1669" t="n">
-        <v>13.45241088709705</v>
+        <v>13.54689502743885</v>
       </c>
       <c r="I1669" t="n">
         <v>-12.53642247101769</v>
@@ -53725,10 +53725,10 @@
         <v>11.59439516129113</v>
       </c>
       <c r="G1670" t="n">
-        <v>-27.825</v>
+        <v>-18.8388852589085</v>
       </c>
       <c r="H1670" t="n">
-        <v>13.44903588709705</v>
+        <v>13.53685750160887</v>
       </c>
       <c r="I1670" t="n">
         <v>-12.92890326163385</v>
@@ -53757,10 +53757,10 @@
         <v>11.59454516129113</v>
       </c>
       <c r="G1671" t="n">
-        <v>-28.2125</v>
+        <v>-18.9743679423433</v>
       </c>
       <c r="H1671" t="n">
-        <v>13.44566088709705</v>
+        <v>13.52682931759545</v>
       </c>
       <c r="I1671" t="n">
         <v>-13.73428571428571</v>
@@ -53789,10 +53789,10 @@
         <v>11.59469516129113</v>
       </c>
       <c r="G1672" t="n">
-        <v>-28.6</v>
+        <v>-19.11234891456768</v>
       </c>
       <c r="H1672" t="n">
-        <v>13.44228588709705</v>
+        <v>13.51681285025055</v>
       </c>
       <c r="I1672" t="n">
         <v>-14.16857142857143</v>
@@ -53821,10 +53821,10 @@
         <v>11.59484516129113</v>
       </c>
       <c r="G1673" t="n">
-        <v>-28.9875</v>
+        <v>-19.25282274653786</v>
       </c>
       <c r="H1673" t="n">
-        <v>13.43891088709705</v>
+        <v>13.50681047442616</v>
       </c>
       <c r="I1673" t="n">
         <v>-14.60285714285714</v>
@@ -53853,10 +53853,10 @@
         <v>11.59499516129113</v>
       </c>
       <c r="G1674" t="n">
-        <v>-29.375</v>
+        <v>-19.39578400921006</v>
       </c>
       <c r="H1674" t="n">
-        <v>13.43553588709706</v>
+        <v>13.49682456497427</v>
       </c>
       <c r="I1674" t="n">
         <v>-15.03714285714286</v>
@@ -53885,10 +53885,10 @@
         <v>11.59514516129113</v>
       </c>
       <c r="G1675" t="n">
-        <v>-29.7625</v>
+        <v>-19.54122727354051</v>
       </c>
       <c r="H1675" t="n">
-        <v>13.43216088709706</v>
+        <v>13.48685749674686</v>
       </c>
       <c r="I1675" t="n">
         <v>-15.47142857142857</v>
@@ -53917,10 +53917,10 @@
         <v>11.59529516129113</v>
       </c>
       <c r="G1676" t="n">
-        <v>-30.15</v>
+        <v>-19.68914711048544</v>
       </c>
       <c r="H1676" t="n">
-        <v>13.42878588709706</v>
+        <v>13.47691164459593</v>
       </c>
       <c r="I1676" t="n">
         <v>-15.90571428571429</v>
@@ -53949,10 +53949,10 @@
         <v>11.59544516129113</v>
       </c>
       <c r="G1677" t="n">
-        <v>-30.5375</v>
+        <v>-19.83953809100106</v>
       </c>
       <c r="H1677" t="n">
-        <v>13.42541088709706</v>
+        <v>13.46698938337343</v>
       </c>
       <c r="I1677" t="n">
         <v>-16.34</v>
@@ -53981,10 +53981,10 @@
         <v>11.59559516129113</v>
       </c>
       <c r="G1678" t="n">
-        <v>-30.925</v>
+        <v>-19.99239478604361</v>
       </c>
       <c r="H1678" t="n">
-        <v>13.42203588709706</v>
+        <v>13.45709308793138</v>
       </c>
       <c r="I1678" t="n">
         <v>-16.77428571428571</v>
@@ -54013,10 +54013,10 @@
         <v>11.59574516129113</v>
       </c>
       <c r="G1679" t="n">
-        <v>-31.3125</v>
+        <v>-20.14771176656931</v>
       </c>
       <c r="H1679" t="n">
-        <v>13.41866088709706</v>
+        <v>13.44722513312174</v>
       </c>
       <c r="I1679" t="n">
         <v>-17.20857142857143</v>
@@ -54045,10 +54045,10 @@
         <v>11.59589516129113</v>
       </c>
       <c r="G1680" t="n">
-        <v>-31.7</v>
+        <v>-20.30548360353439</v>
       </c>
       <c r="H1680" t="n">
-        <v>13.41528588709706</v>
+        <v>13.4373878937965</v>
       </c>
       <c r="I1680" t="n">
         <v>-17.64285714285714</v>
@@ -54077,10 +54077,10 @@
         <v>11.59604516129113</v>
       </c>
       <c r="G1681" t="n">
-        <v>-32.08750000000001</v>
+        <v>-20.46570486789507</v>
       </c>
       <c r="H1681" t="n">
-        <v>13.41191088709706</v>
+        <v>13.42758374480765</v>
       </c>
       <c r="I1681" t="n">
         <v>-18.07714285714286</v>
@@ -54109,10 +54109,10 @@
         <v>11.59619516129113</v>
       </c>
       <c r="G1682" t="n">
-        <v>-32.475</v>
+        <v>-20.62837013060758</v>
       </c>
       <c r="H1682" t="n">
-        <v>13.40853588709706</v>
+        <v>13.41781506100717</v>
       </c>
       <c r="I1682" t="n">
         <v>-18.51142857142857</v>
@@ -54141,10 +54141,10 @@
         <v>11.59634516129113</v>
       </c>
       <c r="G1683" t="n">
-        <v>-32.8625</v>
+        <v>-20.79347396262815</v>
       </c>
       <c r="H1683" t="n">
-        <v>13.40516088709706</v>
+        <v>13.40808421724704</v>
       </c>
       <c r="I1683" t="n">
         <v>-18.94571428571428</v>
@@ -54173,10 +54173,10 @@
         <v>11.59649516129113</v>
       </c>
       <c r="G1684" t="n">
-        <v>-33.25</v>
+        <v>-20.96101093491299</v>
       </c>
       <c r="H1684" t="n">
-        <v>13.40178588709707</v>
+        <v>13.39839358837925</v>
       </c>
       <c r="I1684" t="n">
         <v>-19.38</v>
@@ -54205,10 +54205,10 @@
         <v>11.59664516129113</v>
       </c>
       <c r="G1685" t="n">
-        <v>-33.6375</v>
+        <v>-21.13097561841833</v>
       </c>
       <c r="H1685" t="n">
-        <v>13.39841088709707</v>
+        <v>13.38874554925579</v>
       </c>
       <c r="I1685" t="n">
         <v>-19.81428571428571</v>
@@ -54237,10 +54237,10 @@
         <v>11.59679516129113</v>
       </c>
       <c r="G1686" t="n">
-        <v>-34.02500000000001</v>
+        <v>-21.30336258410041</v>
       </c>
       <c r="H1686" t="n">
-        <v>13.39503588709707</v>
+        <v>13.37914247472862</v>
       </c>
       <c r="I1686" t="n">
         <v>-20.24857142857143</v>
@@ -54269,10 +54269,10 @@
         <v>11.59694516129113</v>
       </c>
       <c r="G1687" t="n">
-        <v>-34.41250000000001</v>
+        <v>-21.47816640291543</v>
       </c>
       <c r="H1687" t="n">
-        <v>13.39166088709707</v>
+        <v>13.36958673964975</v>
       </c>
       <c r="I1687" t="n">
         <v>-20.68285714285714</v>
@@ -54301,10 +54301,10 @@
         <v>11.59709516129113</v>
       </c>
       <c r="G1688" t="n">
-        <v>-34.8</v>
+        <v>-21.65538164581964</v>
       </c>
       <c r="H1688" t="n">
-        <v>13.38828588709707</v>
+        <v>13.36008071887116</v>
       </c>
       <c r="I1688" t="n">
         <v>-21.11714285714286</v>
@@ -54333,10 +54333,10 @@
         <v>11.59724516129113</v>
       </c>
       <c r="G1689" t="n">
-        <v>-35.1875</v>
+        <v>-21.83500288376926</v>
       </c>
       <c r="H1689" t="n">
-        <v>13.38491088709707</v>
+        <v>13.35062678724482</v>
       </c>
       <c r="I1689" t="n">
         <v>-21.55142857142857</v>
@@ -54365,10 +54365,10 @@
         <v>11.59739516129113</v>
       </c>
       <c r="G1690" t="n">
-        <v>-35.575</v>
+        <v>-22.0170246877205</v>
       </c>
       <c r="H1690" t="n">
-        <v>13.38153588709707</v>
+        <v>13.34122731962272</v>
       </c>
       <c r="I1690" t="n">
         <v>-21.98571428571428</v>
@@ -54397,10 +54397,10 @@
         <v>11.59754516129113</v>
       </c>
       <c r="G1691" t="n">
-        <v>-35.96250000000001</v>
+        <v>-22.20144162862961</v>
       </c>
       <c r="H1691" t="n">
-        <v>13.37816088709707</v>
+        <v>13.33188469085686</v>
       </c>
       <c r="I1691" t="n">
         <v>-22.42</v>
@@ -54429,10 +54429,10 @@
         <v>11.59769516129113</v>
       </c>
       <c r="G1692" t="n">
-        <v>-36.35000000000001</v>
+        <v>-22.3882482774528</v>
       </c>
       <c r="H1692" t="n">
-        <v>13.37478588709708</v>
+        <v>13.3226012757992</v>
       </c>
       <c r="I1692" t="n">
         <v>-22.85428571428571</v>
@@ -54461,10 +54461,10 @@
         <v>11.59784516129113</v>
       </c>
       <c r="G1693" t="n">
-        <v>-36.7375</v>
+        <v>-22.57743920514629</v>
       </c>
       <c r="H1693" t="n">
-        <v>13.37141088709708</v>
+        <v>13.31337944930173</v>
       </c>
       <c r="I1693" t="n">
         <v>-23.28857142857143</v>
@@ -54493,10 +54493,10 @@
         <v>11.59799516129113</v>
       </c>
       <c r="G1694" t="n">
-        <v>-37.12500000000001</v>
+        <v>-22.76900898266632</v>
       </c>
       <c r="H1694" t="n">
-        <v>13.36803588709708</v>
+        <v>13.30422158621645</v>
       </c>
       <c r="I1694" t="n">
         <v>-23.72285714285714</v>
@@ -54525,10 +54525,10 @@
         <v>11.59814516129113</v>
       </c>
       <c r="G1695" t="n">
-        <v>-37.5125</v>
+        <v>-22.96295218096911</v>
       </c>
       <c r="H1695" t="n">
-        <v>13.36466088709708</v>
+        <v>13.29513006139534</v>
       </c>
       <c r="I1695" t="n">
         <v>-24.15714285714285</v>
@@ -54557,10 +54557,10 @@
         <v>11.59829516129113</v>
       </c>
       <c r="G1696" t="n">
-        <v>-37.90000000000001</v>
+        <v>-23.15926337101088</v>
       </c>
       <c r="H1696" t="n">
-        <v>13.36128588709708</v>
+        <v>13.28610724969036</v>
       </c>
       <c r="I1696" t="n">
         <v>-24.59142857142857</v>
@@ -54589,10 +54589,10 @@
         <v>11.59844516129113</v>
       </c>
       <c r="G1697" t="n">
-        <v>-38.28750000000001</v>
+        <v>-23.35793712374786</v>
       </c>
       <c r="H1697" t="n">
-        <v>13.35791088709708</v>
+        <v>13.27715552595352</v>
       </c>
       <c r="I1697" t="n">
         <v>-25.02571428571428</v>
@@ -54621,10 +54621,10 @@
         <v>11.59859516129113</v>
       </c>
       <c r="G1698" t="n">
-        <v>-38.675</v>
+        <v>-23.55896801013628</v>
       </c>
       <c r="H1698" t="n">
-        <v>13.35453588709708</v>
+        <v>13.26827726503679</v>
       </c>
       <c r="I1698" t="n">
         <v>-25.46</v>
@@ -54653,10 +54653,10 @@
         <v>11.59874516129113</v>
       </c>
       <c r="G1699" t="n">
-        <v>-39.06250000000001</v>
+        <v>-23.76235060113236</v>
       </c>
       <c r="H1699" t="n">
-        <v>13.35116088709708</v>
+        <v>13.25947484179217</v>
       </c>
       <c r="I1699" t="n">
         <v>-25.89428571428571</v>
@@ -54685,10 +54685,10 @@
         <v>11.59889516129113</v>
       </c>
       <c r="G1700" t="n">
-        <v>-39.45</v>
+        <v>-23.96807946769233</v>
       </c>
       <c r="H1700" t="n">
-        <v>13.34778588709709</v>
+        <v>13.25075063107163</v>
       </c>
       <c r="I1700" t="n">
         <v>-26.32857142857143</v>
@@ -54717,10 +54717,10 @@
         <v>11.59904516129113</v>
       </c>
       <c r="G1701" t="n">
-        <v>-39.83750000000001</v>
+        <v>-24.1761491807724</v>
       </c>
       <c r="H1701" t="n">
-        <v>13.34441088709709</v>
+        <v>13.24210700772715</v>
       </c>
       <c r="I1701" t="n">
         <v>-26.76285714285714</v>
@@ -54749,10 +54749,10 @@
         <v>11.59919516129113</v>
       </c>
       <c r="G1702" t="n">
-        <v>-40.22500000000001</v>
+        <v>-24.38655431132881</v>
       </c>
       <c r="H1702" t="n">
-        <v>13.34103588709709</v>
+        <v>13.23354634661073</v>
       </c>
       <c r="I1702" t="n">
         <v>-27.19714285714285</v>
@@ -54781,10 +54781,10 @@
         <v>11.59934516129113</v>
       </c>
       <c r="G1703" t="n">
-        <v>-40.61250000000001</v>
+        <v>-24.59928943031779</v>
       </c>
       <c r="H1703" t="n">
-        <v>13.33766088709709</v>
+        <v>13.22507102257434</v>
       </c>
       <c r="I1703" t="n">
         <v>-27.63142857142857</v>
@@ -54813,10 +54813,10 @@
         <v>11.59949516129113</v>
       </c>
       <c r="G1704" t="n">
-        <v>-41.00000000000001</v>
+        <v>-24.81434910869555</v>
       </c>
       <c r="H1704" t="n">
-        <v>13.33428588709709</v>
+        <v>13.21668341046997</v>
       </c>
       <c r="I1704" t="n">
         <v>-28.06571428571428</v>
@@ -54845,10 +54845,10 @@
         <v>11.59964516129113</v>
       </c>
       <c r="G1705" t="n">
-        <v>-41.3875</v>
+        <v>-25.03172791741834</v>
       </c>
       <c r="H1705" t="n">
-        <v>13.33091088709709</v>
+        <v>13.20838588514961</v>
       </c>
       <c r="I1705" t="n">
         <v>-28.5</v>
@@ -54877,10 +54877,10 @@
         <v>11.59979516129112</v>
       </c>
       <c r="G1706" t="n">
-        <v>-41.77500000000001</v>
+        <v>-25.25142042744235</v>
       </c>
       <c r="H1706" t="n">
-        <v>13.32753588709709</v>
+        <v>13.20018082146523</v>
       </c>
       <c r="I1706" t="n">
         <v>-28.93428571428571</v>
@@ -54909,10 +54909,10 @@
         <v>11.59994516129112</v>
       </c>
       <c r="G1707" t="n">
-        <v>-42.16250000000001</v>
+        <v>-25.47342120972384</v>
       </c>
       <c r="H1707" t="n">
-        <v>13.32416088709709</v>
+        <v>13.19207059426883</v>
       </c>
       <c r="I1707" t="n">
         <v>-29.36857142857142</v>
@@ -54941,10 +54941,10 @@
         <v>11.60009516129112</v>
       </c>
       <c r="G1708" t="n">
-        <v>-42.55000000000001</v>
+        <v>-25.69772483521901</v>
       </c>
       <c r="H1708" t="n">
-        <v>13.3207858870971</v>
+        <v>13.18405757841238</v>
       </c>
       <c r="I1708" t="n">
         <v>-29.80285714285714</v>
@@ -54973,10 +54973,10 @@
         <v>11.60024516129112</v>
       </c>
       <c r="G1709" t="n">
-        <v>-42.93750000000001</v>
+        <v>-25.9243258748841</v>
       </c>
       <c r="H1709" t="n">
-        <v>13.3174108870971</v>
+        <v>13.17614414874788</v>
       </c>
       <c r="I1709" t="n">
         <v>-30.23714285714285</v>
@@ -55005,10 +55005,10 @@
         <v>11.60039516129113</v>
       </c>
       <c r="G1710" t="n">
-        <v>-43.32500000000001</v>
+        <v>-26.15321889967533</v>
       </c>
       <c r="H1710" t="n">
-        <v>13.3140358870971</v>
+        <v>13.16833268012729</v>
       </c>
       <c r="I1710" t="n">
         <v>-30.67142857142857</v>
@@ -55037,10 +55037,10 @@
         <v>11.60054516129112</v>
       </c>
       <c r="G1711" t="n">
-        <v>-43.71250000000001</v>
+        <v>-26.38439848054892</v>
       </c>
       <c r="H1711" t="n">
-        <v>13.3106608870971</v>
+        <v>13.16062554740262</v>
       </c>
       <c r="I1711" t="n">
         <v>-31.10571428571428</v>
@@ -55063,10 +55063,10 @@
         <v>15.46441428571427</v>
       </c>
       <c r="G1712" t="n">
-        <v>-44.10000000000001</v>
+        <v>-26.61785918846111</v>
       </c>
       <c r="H1712" t="n">
-        <v>13.3072858870971</v>
+        <v>13.15302512542584</v>
       </c>
       <c r="I1712" t="n">
         <v>-31.54</v>
@@ -55089,10 +55089,10 @@
         <v>15.46424285714284</v>
       </c>
       <c r="G1713" t="n">
-        <v>-44.48750000000001</v>
+        <v>-26.85359559436812</v>
       </c>
       <c r="H1713" t="n">
-        <v>13.3039108870971</v>
+        <v>13.14553378904893</v>
       </c>
       <c r="I1713" t="n">
         <v>-31.97428571428571</v>
@@ -55115,10 +55115,10 @@
         <v>15.46314069752911</v>
       </c>
       <c r="G1714" t="n">
-        <v>-44.87500000000001</v>
+        <v>-27.09160226922617</v>
       </c>
       <c r="H1714" t="n">
-        <v>13.3005358870971</v>
+        <v>13.13815391312389</v>
       </c>
       <c r="I1714" t="n">
         <v>-32.40857142857142</v>
@@ -55141,10 +55141,10 @@
         <v>15.46017228247111</v>
       </c>
       <c r="G1715" t="n">
-        <v>-45.26250000000001</v>
+        <v>-27.3318737839915</v>
       </c>
       <c r="H1715" t="n">
-        <v>13.2971608870971</v>
+        <v>13.13088787250269</v>
       </c>
       <c r="I1715" t="n">
         <v>-32.84285714285714</v>
@@ -55167,10 +55167,10 @@
         <v>15.45533761196885</v>
       </c>
       <c r="G1716" t="n">
-        <v>-45.65000000000001</v>
+        <v>-27.5744047096203</v>
       </c>
       <c r="H1716" t="n">
-        <v>13.2937858870971</v>
+        <v>13.12373804203732</v>
       </c>
       <c r="I1716" t="n">
         <v>-33.27714285714285</v>
@@ -55193,10 +55193,10 @@
         <v>15.44863668602232</v>
       </c>
       <c r="G1717" t="n">
-        <v>-46.03750000000001</v>
+        <v>-27.81918961706884</v>
       </c>
       <c r="H1717" t="n">
-        <v>13.29041088709711</v>
+        <v>13.11670679657977</v>
       </c>
       <c r="I1717" t="n">
         <v>-33.71142857142857</v>
@@ -55219,10 +55219,10 @@
         <v>15.44006950463152</v>
       </c>
       <c r="G1718" t="n">
-        <v>-46.42500000000001</v>
+        <v>-28.06622307729332</v>
       </c>
       <c r="H1718" t="n">
-        <v>13.28703588709711</v>
+        <v>13.109796510982</v>
       </c>
       <c r="I1718" t="n">
         <v>-34.14571428571428</v>
@@ -55245,10 +55245,10 @@
         <v>15.42963606779646</v>
       </c>
       <c r="G1719" t="n">
-        <v>-46.81250000000001</v>
+        <v>-28.31549966124997</v>
       </c>
       <c r="H1719" t="n">
-        <v>13.28366088709711</v>
+        <v>13.10300956009603</v>
       </c>
       <c r="I1719" t="n">
         <v>-34.58</v>
@@ -55271,10 +55271,10 @@
         <v>15.41733637551713</v>
       </c>
       <c r="G1720" t="n">
-        <v>-47.20000000000001</v>
+        <v>-28.56701393989501</v>
       </c>
       <c r="H1720" t="n">
-        <v>13.28028588709711</v>
+        <v>13.09634831877381</v>
       </c>
       <c r="I1720" t="n">
         <v>-35.01428571428571</v>
@@ -55297,10 +55297,10 @@
         <v>15.40317042779354</v>
       </c>
       <c r="G1721" t="n">
-        <v>-47.58750000000001</v>
+        <v>-28.82076048418468</v>
       </c>
       <c r="H1721" t="n">
-        <v>13.27691088709711</v>
+        <v>13.08981516186735</v>
       </c>
       <c r="I1721" t="n">
         <v>-35.44857142857143</v>
@@ -55317,10 +55317,10 @@
         <v>15.38713822462568</v>
       </c>
       <c r="G1722" t="n">
-        <v>-47.97500000000001</v>
+        <v>-29.07673386507519</v>
       </c>
       <c r="H1722" t="n">
-        <v>13.27353588709711</v>
+        <v>13.08341246422862</v>
       </c>
       <c r="I1722" t="n">
         <v>-35.88285714285713</v>
@@ -55337,10 +55337,10 @@
         <v>15.36923976601355</v>
       </c>
       <c r="G1723" t="n">
-        <v>-48.36250000000001</v>
+        <v>-29.33492865352278</v>
       </c>
       <c r="H1723" t="n">
-        <v>13.27016088709711</v>
+        <v>13.07714260070961</v>
       </c>
       <c r="I1723" t="n">
         <v>-36.31714285714285</v>
@@ -55357,10 +55357,10 @@
         <v>15.34947505195716</v>
       </c>
       <c r="G1724" t="n">
-        <v>-48.75000000000001</v>
+        <v>-29.59533942048366</v>
       </c>
       <c r="H1724" t="n">
-        <v>13.26678588709711</v>
+        <v>13.0710079461623</v>
       </c>
       <c r="I1724" t="n">
         <v>-36.75142857142856</v>
@@ -55377,10 +55377,10 @@
         <v>15.3278440824565</v>
       </c>
       <c r="G1725" t="n">
-        <v>-49.13750000000001</v>
+        <v>-29.85796073691407</v>
       </c>
       <c r="H1725" t="n">
-        <v>13.26341088709712</v>
+        <v>13.06501087543867</v>
       </c>
       <c r="I1725" t="n">
         <v>-37.18571428571428</v>
@@ -55397,10 +55397,10 @@
         <v>15.30434685751157</v>
       </c>
       <c r="G1726" t="n">
-        <v>-49.52500000000001</v>
+        <v>-30.12278717377023</v>
       </c>
       <c r="H1726" t="n">
-        <v>13.26003588709712</v>
+        <v>13.05915376339072</v>
       </c>
       <c r="I1726" t="n">
         <v>-37.61999999999999</v>
@@ -55417,10 +55417,10 @@
         <v>15.29201657142845</v>
       </c>
       <c r="G1727" t="n">
-        <v>-49.91250000000001</v>
+        <v>-30.38981330200836</v>
       </c>
       <c r="H1727" t="n">
-        <v>13.25666088709712</v>
+        <v>13.05343898487042</v>
       </c>
       <c r="I1727" t="n">
         <v>-38.05428571428571</v>
@@ -55436,6 +55436,12 @@
       <c r="D1728" t="n">
         <v>15.27747658226166</v>
       </c>
+      <c r="G1728" t="n">
+        <v>-30.65903369258469</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>13.04786891472975</v>
+      </c>
       <c r="I1728" t="n">
         <v>-38.48857142857142</v>
       </c>
@@ -55450,6 +55456,12 @@
       <c r="D1729" t="n">
         <v>15.26261028960712</v>
       </c>
+      <c r="G1729" t="n">
+        <v>-30.93044291645545</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>13.04244592782071</v>
+      </c>
       <c r="I1729" t="n">
         <v>-38.92285714285714</v>
       </c>
@@ -55464,6 +55476,12 @@
       <c r="D1730" t="n">
         <v>15.24744062962284</v>
       </c>
+      <c r="G1730" t="n">
+        <v>-31.20403554457685</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>13.03717239899528</v>
+      </c>
       <c r="I1730" t="n">
         <v>-39.35714285714285</v>
       </c>
@@ -55478,6 +55496,12 @@
       <c r="D1731" t="n">
         <v>15.23199053846682</v>
       </c>
+      <c r="G1731" t="n">
+        <v>-31.47980614790514</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>13.03205070310543</v>
+      </c>
       <c r="I1731" t="n">
         <v>-39.79142857142857</v>
       </c>
@@ -55492,6 +55516,12 @@
       <c r="D1732" t="n">
         <v>15.21628295229707</v>
       </c>
+      <c r="G1732" t="n">
+        <v>-31.75774929739653</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>13.02708321500316</v>
+      </c>
       <c r="I1732" t="n">
         <v>-40.22571428571428</v>
       </c>
@@ -55506,6 +55536,12 @@
       <c r="D1733" t="n">
         <v>15.2003408072716</v>
       </c>
+      <c r="G1733" t="n">
+        <v>-32.03785956400725</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>13.02227230954045</v>
+      </c>
       <c r="I1733" t="n">
         <v>-40.66</v>
       </c>
@@ -55520,6 +55556,12 @@
       <c r="D1734" t="n">
         <v>15.18418703954843</v>
       </c>
+      <c r="G1734" t="n">
+        <v>-32.3201315186935</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>13.01762036156928</v>
+      </c>
       <c r="I1734" t="n">
         <v>-41.0942857142857</v>
       </c>
@@ -55534,6 +55576,12 @@
       <c r="D1735" t="n">
         <v>15.16784458528554</v>
       </c>
+      <c r="G1735" t="n">
+        <v>-32.60455973241156</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>13.01312974594164</v>
+      </c>
       <c r="I1735" t="n">
         <v>-41.52857142857142</v>
       </c>
@@ -55548,6 +55596,12 @@
       <c r="D1736" t="n">
         <v>15.15133638064096</v>
       </c>
+      <c r="G1736" t="n">
+        <v>-32.89113877611761</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>13.0088028375095</v>
+      </c>
       <c r="I1736" t="n">
         <v>-41.96285714285713</v>
       </c>
@@ -55562,6 +55616,12 @@
       <c r="D1737" t="n">
         <v>15.13468536177269</v>
       </c>
+      <c r="G1737" t="n">
+        <v>-33.17986322076788</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>13.00464201112487</v>
+      </c>
       <c r="I1737" t="n">
         <v>-42.39714285714285</v>
       </c>
@@ -55576,6 +55636,12 @@
       <c r="D1738" t="n">
         <v>15.11791446483873</v>
       </c>
+      <c r="G1738" t="n">
+        <v>-33.47072763731861</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>13.00064964163971</v>
+      </c>
       <c r="I1738" t="n">
         <v>-42.83142857142856</v>
       </c>
@@ -55590,6 +55656,12 @@
       <c r="D1739" t="n">
         <v>15.1010466259971</v>
       </c>
+      <c r="G1739" t="n">
+        <v>-33.76372659672603</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>12.99682810390602</v>
+      </c>
       <c r="I1739" t="n">
         <v>-43.26571428571428</v>
       </c>
@@ -55604,6 +55676,12 @@
       <c r="D1740" t="n">
         <v>15.0841047814058</v>
       </c>
+      <c r="G1740" t="n">
+        <v>-34.05885466994634</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>12.99317977277577</v>
+      </c>
       <c r="I1740" t="n">
         <v>-43.69999999999999</v>
       </c>
@@ -55618,6 +55696,12 @@
       <c r="D1741" t="n">
         <v>15.06711186722284</v>
       </c>
+      <c r="G1741" t="n">
+        <v>-34.3561064279358</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>12.98970702310095</v>
+      </c>
       <c r="I1741" t="n">
         <v>-44.13428571428571</v>
       </c>
@@ -55632,6 +55716,12 @@
       <c r="D1742" t="n">
         <v>15.05009081960622</v>
       </c>
+      <c r="G1742" t="n">
+        <v>-34.65547644165061</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>12.98641222973355</v>
+      </c>
       <c r="I1742" t="n">
         <v>-44.56857142857142</v>
       </c>
@@ -55646,6 +55736,12 @@
       <c r="D1743" t="n">
         <v>15.03306457471396</v>
       </c>
+      <c r="G1743" t="n">
+        <v>-34.95695928204699</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>12.98329776752554</v>
+      </c>
       <c r="I1743" t="n">
         <v>-45.00285714285714</v>
       </c>
@@ -55660,6 +55756,12 @@
       <c r="D1744" t="n">
         <v>15.01605606870407</v>
       </c>
+      <c r="G1744" t="n">
+        <v>-35.26054952008119</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>12.98036601132893</v>
+      </c>
       <c r="I1744" t="n">
         <v>-45.43714285714285</v>
       </c>
@@ -55674,6 +55776,12 @@
       <c r="D1745" t="n">
         <v>14.99908823773454</v>
       </c>
+      <c r="G1745" t="n">
+        <v>-35.56624172670942</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>12.97761933599567</v>
+      </c>
       <c r="I1745" t="n">
         <v>-45.87142857142857</v>
       </c>
@@ -55688,6 +55796,12 @@
       <c r="D1746" t="n">
         <v>14.98218401796339</v>
       </c>
+      <c r="G1746" t="n">
+        <v>-35.87403047288791</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>12.97506011637778</v>
+      </c>
       <c r="I1746" t="n">
         <v>-46.30571428571427</v>
       </c>
@@ -55702,6 +55816,12 @@
       <c r="D1747" t="n">
         <v>14.96536634554862</v>
       </c>
+      <c r="G1747" t="n">
+        <v>-36.1839103295729</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>12.97269072732721</v>
+      </c>
       <c r="I1747" t="n">
         <v>-46.73999999999999</v>
       </c>
@@ -55716,6 +55836,12 @@
       <c r="D1748" t="n">
         <v>14.94865815664825</v>
       </c>
+      <c r="G1748" t="n">
+        <v>-36.49587586772058</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>12.97051354369597</v>
+      </c>
       <c r="I1748" t="n">
         <v>-47.1742857142857</v>
       </c>
@@ -55730,6 +55856,12 @@
       <c r="D1749" t="n">
         <v>14.93208238742027</v>
       </c>
+      <c r="G1749" t="n">
+        <v>-36.80992165828719</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>12.96853094033603</v>
+      </c>
       <c r="I1749" t="n">
         <v>-47.60857142857142</v>
       </c>
@@ -55744,6 +55876,12 @@
       <c r="D1750" t="n">
         <v>14.9156619740227</v>
       </c>
+      <c r="G1750" t="n">
+        <v>-37.12604227222896</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>12.96674529209938</v>
+      </c>
       <c r="I1750" t="n">
         <v>-48.04285714285713</v>
       </c>
@@ -55758,6 +55896,12 @@
       <c r="D1751" t="n">
         <v>14.89941985261355</v>
       </c>
+      <c r="G1751" t="n">
+        <v>-37.44423228050213</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>12.96515897383799</v>
+      </c>
       <c r="I1751" t="n">
         <v>-48.47714285714285</v>
       </c>
@@ -55772,6 +55916,12 @@
       <c r="D1752" t="n">
         <v>14.88337895935082</v>
       </c>
+      <c r="G1752" t="n">
+        <v>-37.76448625406292</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>12.96377436040387</v>
+      </c>
       <c r="I1752" t="n">
         <v>-48.91142857142856</v>
       </c>
@@ -55786,6 +55936,12 @@
       <c r="D1753" t="n">
         <v>14.86756223039252</v>
       </c>
+      <c r="G1753" t="n">
+        <v>-38.08679876386752</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>12.96259382664898</v>
+      </c>
       <c r="I1753" t="n">
         <v>-49.34571428571428</v>
       </c>
@@ -55800,6 +55956,12 @@
       <c r="D1754" t="n">
         <v>14.85199260189665</v>
       </c>
+      <c r="G1754" t="n">
+        <v>-38.4111643808722</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>12.96161974742532</v>
+      </c>
       <c r="I1754" t="n">
         <v>-49.77999999999999</v>
       </c>
@@ -55814,6 +55976,12 @@
       <c r="D1755" t="n">
         <v>14.83669301002123</v>
       </c>
+      <c r="G1755" t="n">
+        <v>-38.73757767603317</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>12.96085449758487</v>
+      </c>
     </row>
     <row r="1756">
       <c r="C1756" t="n">
@@ -55822,6 +55990,12 @@
       <c r="D1756" t="n">
         <v>14.82168639092426</v>
       </c>
+      <c r="G1756" t="n">
+        <v>-39.06603322030665</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>12.96030045197961</v>
+      </c>
     </row>
     <row r="1757">
       <c r="C1757" t="n">
@@ -55830,6 +56004,12 @@
       <c r="D1757" t="n">
         <v>14.80699568076375</v>
       </c>
+      <c r="G1757" t="n">
+        <v>-39.39652558464887</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>12.95995998546153</v>
+      </c>
     </row>
     <row r="1758">
       <c r="C1758" t="n">
@@ -55838,6 +56018,12 @@
       <c r="D1758" t="n">
         <v>14.7926438156977</v>
       </c>
+      <c r="G1758" t="n">
+        <v>-39.72904934001605</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>12.95983547288261</v>
+      </c>
     </row>
     <row r="1759">
       <c r="C1759" t="n">
@@ -55846,6 +56032,12 @@
       <c r="D1759" t="n">
         <v>14.77865373188413</v>
       </c>
+      <c r="G1759" t="n">
+        <v>-40.06359905736443</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>12.95992928909483</v>
+      </c>
     </row>
     <row r="1760">
       <c r="C1760" t="n">
@@ -55854,6 +56046,12 @@
       <c r="D1760" t="n">
         <v>14.76504836548104</v>
       </c>
+      <c r="G1760" t="n">
+        <v>-40.40016930765022</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>12.96024380895018</v>
+      </c>
     </row>
     <row r="1761">
       <c r="C1761" t="n">
@@ -55862,6 +56060,12 @@
       <c r="D1761" t="n">
         <v>14.75185065264644</v>
       </c>
+      <c r="G1761" t="n">
+        <v>-40.73875466182965</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>12.96078140730065</v>
+      </c>
     </row>
     <row r="1762">
       <c r="C1762" t="n">
@@ -55870,6 +56074,12 @@
       <c r="D1762" t="n">
         <v>14.73908352953834</v>
       </c>
+      <c r="G1762" t="n">
+        <v>-41.07934969085893</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>12.96154445899821</v>
+      </c>
     </row>
     <row r="1763">
       <c r="C1763" t="n">
@@ -55878,6 +56088,12 @@
       <c r="D1763" t="n">
         <v>14.72676993231474</v>
       </c>
+      <c r="G1763" t="n">
+        <v>-41.42194896569432</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>12.96253533889485</v>
+      </c>
     </row>
     <row r="1764">
       <c r="C1764" t="n">
@@ -55886,6 +56102,12 @@
       <c r="D1764" t="n">
         <v>14.71493279713366</v>
       </c>
+      <c r="G1764" t="n">
+        <v>-41.76654705729202</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>12.96375642184256</v>
+      </c>
     </row>
     <row r="1765">
       <c r="C1765" t="n">
@@ -55894,6 +56116,12 @@
       <c r="D1765" t="n">
         <v>14.70359506015309</v>
       </c>
+      <c r="G1765" t="n">
+        <v>-42.11313853660828</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>12.96521008269331</v>
+      </c>
     </row>
     <row r="1766">
       <c r="C1766" t="n">
@@ -55902,6 +56130,12 @@
       <c r="D1766" t="n">
         <v>14.69277965753105</v>
       </c>
+      <c r="G1766" t="n">
+        <v>-42.4617179745993</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>12.9668986962991</v>
+      </c>
     </row>
     <row r="1767">
       <c r="C1767" t="n">
@@ -55910,6 +56144,12 @@
       <c r="D1767" t="n">
         <v>14.68250952542554</v>
       </c>
+      <c r="G1767" t="n">
+        <v>-42.81227994222131</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>12.96882463751191</v>
+      </c>
     </row>
     <row r="1768">
       <c r="C1768" t="n">
@@ -55918,6 +56158,12 @@
       <c r="D1768" t="n">
         <v>14.67280759999458</v>
       </c>
+      <c r="G1768" t="n">
+        <v>-43.16481901043053</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>12.97099028118372</v>
+      </c>
     </row>
     <row r="1769">
       <c r="C1769" t="n">
@@ -55926,6 +56172,12 @@
       <c r="D1769" t="n">
         <v>14.66369681739616</v>
       </c>
+      <c r="G1769" t="n">
+        <v>-43.51932975018322</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>12.97339800216652</v>
+      </c>
     </row>
     <row r="1770">
       <c r="C1770" t="n">
@@ -55934,6 +56186,12 @@
       <c r="D1770" t="n">
         <v>14.6552001137883</v>
       </c>
+      <c r="G1770" t="n">
+        <v>-43.87580673243555</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>12.97605017531228</v>
+      </c>
     </row>
     <row r="1771">
       <c r="C1771" t="n">
@@ -55942,6 +56200,12 @@
       <c r="D1771" t="n">
         <v>14.647340425329</v>
       </c>
+      <c r="G1771" t="n">
+        <v>-44.23424452814379</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>12.978949175473</v>
+      </c>
     </row>
     <row r="1772">
       <c r="C1772" t="n">
@@ -55950,6 +56214,12 @@
       <c r="D1772" t="n">
         <v>14.64014068817628</v>
       </c>
+      <c r="G1772" t="n">
+        <v>-44.7875</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>12.97699314516173</v>
+      </c>
     </row>
     <row r="1773">
       <c r="C1773" t="n">
@@ -55958,6 +56228,12 @@
       <c r="D1773" t="n">
         <v>14.63362383848813</v>
       </c>
+      <c r="G1773" t="n">
+        <v>-45.175</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>12.97361814516174</v>
+      </c>
     </row>
     <row r="1774">
       <c r="C1774" t="n">
@@ -55966,6 +56242,12 @@
       <c r="D1774" t="n">
         <v>14.62781281242258</v>
       </c>
+      <c r="G1774" t="n">
+        <v>-45.5625</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>12.97024314516174</v>
+      </c>
     </row>
     <row r="1775">
       <c r="C1775" t="n">
@@ -55974,6 +56256,12 @@
       <c r="D1775" t="n">
         <v>14.62273054613761</v>
       </c>
+      <c r="G1775" t="n">
+        <v>-45.95</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>12.96686814516174</v>
+      </c>
     </row>
     <row r="1776">
       <c r="C1776" t="n">
@@ -55982,6 +56270,12 @@
       <c r="D1776" t="n">
         <v>14.61839997579125</v>
       </c>
+      <c r="G1776" t="n">
+        <v>-46.3375</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>12.96349314516174</v>
+      </c>
     </row>
     <row r="1777">
       <c r="C1777" t="n">
@@ -55990,6 +56284,12 @@
       <c r="D1777" t="n">
         <v>14.61484403754149</v>
       </c>
+      <c r="G1777" t="n">
+        <v>-46.725</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>12.96011814516174</v>
+      </c>
     </row>
     <row r="1778">
       <c r="C1778" t="n">
@@ -55998,6 +56298,12 @@
       <c r="D1778" t="n">
         <v>14.61208566754635</v>
       </c>
+      <c r="G1778" t="n">
+        <v>-47.1125</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>12.95674314516174</v>
+      </c>
     </row>
     <row r="1779">
       <c r="C1779" t="n">
@@ -56006,6 +56312,12 @@
       <c r="D1779" t="n">
         <v>14.61014780196384</v>
       </c>
+      <c r="G1779" t="n">
+        <v>-47.5</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>12.95336814516174</v>
+      </c>
     </row>
     <row r="1780">
       <c r="C1780" t="n">
@@ -56014,6 +56326,12 @@
       <c r="D1780" t="n">
         <v>14.60905337695196</v>
       </c>
+      <c r="G1780" t="n">
+        <v>-47.8875</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>12.94999314516174</v>
+      </c>
     </row>
     <row r="1781">
       <c r="C1781" t="n">
@@ -56022,6 +56340,12 @@
       <c r="D1781" t="n">
         <v>14.60898571428516</v>
       </c>
+      <c r="G1781" t="n">
+        <v>-48.275</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>12.94661814516174</v>
+      </c>
     </row>
     <row r="1782">
       <c r="C1782" t="n">
@@ -56030,6 +56354,12 @@
       <c r="D1782" t="n">
         <v>14.60915714285659</v>
       </c>
+      <c r="G1782" t="n">
+        <v>-48.6625</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>12.94324314516174</v>
+      </c>
     </row>
     <row r="1783">
       <c r="C1783" t="n">
@@ -56038,6 +56368,12 @@
       <c r="D1783" t="n">
         <v>14.60932857142802</v>
       </c>
+      <c r="G1783" t="n">
+        <v>-49.05</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>12.93986814516175</v>
+      </c>
     </row>
     <row r="1784">
       <c r="C1784" t="n">
@@ -56046,6 +56382,12 @@
       <c r="D1784" t="n">
         <v>14.60949999999945</v>
       </c>
+      <c r="G1784" t="n">
+        <v>-49.4375</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>12.93649314516175</v>
+      </c>
     </row>
     <row r="1785">
       <c r="C1785" t="n">
@@ -56053,6 +56395,12 @@
       </c>
       <c r="D1785" t="n">
         <v>14.60967142857088</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>-49.825</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>12.93311814516175</v>
       </c>
     </row>
     <row r="1786">

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -50455,10 +50455,10 @@
         <v>15.4883</v>
       </c>
       <c r="E1568" t="n">
-        <v>-8.733216879271568</v>
+        <v>-8.741887523070908</v>
       </c>
       <c r="F1568" t="n">
-        <v>12.5258192393437</v>
+        <v>12.52645935588693</v>
       </c>
       <c r="G1568" t="n">
         <v>-2.980000000000015</v>
@@ -50487,10 +50487,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1569" t="n">
-        <v>-9.07612495543972</v>
+        <v>-9.108751413182764</v>
       </c>
       <c r="F1569" t="n">
-        <v>12.52317182546315</v>
+        <v>12.5257330875525</v>
       </c>
       <c r="G1569" t="n">
         <v>-3.367500000000014</v>
@@ -50519,10 +50519,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1570" t="n">
-        <v>-9.393724228504482</v>
+        <v>-9.46559167033559</v>
       </c>
       <c r="F1570" t="n">
-        <v>12.51885775835837</v>
+        <v>12.52462119499671</v>
       </c>
       <c r="G1570" t="n">
         <v>-3.755000000000013</v>
@@ -50551,10 +50551,10 @@
         <v>15.488</v>
       </c>
       <c r="E1571" t="n">
-        <v>-9.68601469846584</v>
+        <v>-9.812408294529384</v>
       </c>
       <c r="F1571" t="n">
-        <v>12.51287703802935</v>
+        <v>12.52312367821958</v>
       </c>
       <c r="G1571" t="n">
         <v>-4.142500000000016</v>
@@ -50583,10 +50583,10 @@
         <v>15.488</v>
       </c>
       <c r="E1572" t="n">
-        <v>-9.952996365323809</v>
+        <v>-10.14920128576414</v>
       </c>
       <c r="F1572" t="n">
-        <v>12.50522966447609</v>
+        <v>12.52124053722109</v>
       </c>
       <c r="G1572" t="n">
         <v>-4.530000000000012</v>
@@ -50615,10 +50615,10 @@
         <v>15.4879</v>
       </c>
       <c r="E1573" t="n">
-        <v>-10.19466922907838</v>
+        <v>-10.47597064403988</v>
       </c>
       <c r="F1573" t="n">
-        <v>12.49591563769859</v>
+        <v>12.51897177200125</v>
       </c>
       <c r="G1573" t="n">
         <v>-4.917500000000015</v>
@@ -50647,10 +50647,10 @@
         <v>15.4877</v>
       </c>
       <c r="E1574" t="n">
-        <v>-10.41103328972955</v>
+        <v>-10.79271636935658</v>
       </c>
       <c r="F1574" t="n">
-        <v>12.48493495769685</v>
+        <v>12.51631738256007</v>
       </c>
       <c r="G1574" t="n">
         <v>-5.305000000000017</v>
@@ -50679,10 +50679,10 @@
         <v>15.4876</v>
       </c>
       <c r="E1575" t="n">
-        <v>-10.60208854727733</v>
+        <v>-11.09943846171424</v>
       </c>
       <c r="F1575" t="n">
-        <v>12.47228762447087</v>
+        <v>12.51327736889753</v>
       </c>
       <c r="G1575" t="n">
         <v>-5.692500000000013</v>
@@ -50711,10 +50711,10 @@
         <v>15.4875</v>
       </c>
       <c r="E1576" t="n">
-        <v>-10.76783500172172</v>
+        <v>-11.39613692111288</v>
       </c>
       <c r="F1576" t="n">
-        <v>12.45797363802065</v>
+        <v>12.50985173101364</v>
       </c>
       <c r="G1576" t="n">
         <v>-6.080000000000016</v>
@@ -50743,10 +50743,10 @@
         <v>15.4874</v>
       </c>
       <c r="E1577" t="n">
-        <v>-10.9082726530627</v>
+        <v>-11.68281174755249</v>
       </c>
       <c r="F1577" t="n">
-        <v>12.4419929983462</v>
+        <v>12.5060404689084</v>
       </c>
       <c r="G1577" t="n">
         <v>-6.467500000000019</v>
@@ -50775,10 +50775,10 @@
         <v>15.4873</v>
       </c>
       <c r="E1578" t="n">
-        <v>-11.0234015013003</v>
+        <v>-11.95946294103306</v>
       </c>
       <c r="F1578" t="n">
-        <v>12.42434570544751</v>
+        <v>12.5018435825818</v>
       </c>
       <c r="G1578" t="n">
         <v>-6.855000000000015</v>
@@ -50807,10 +50807,10 @@
         <v>15.4871</v>
       </c>
       <c r="E1579" t="n">
-        <v>-11.1132215464345</v>
+        <v>-12.22609050155461</v>
       </c>
       <c r="F1579" t="n">
-        <v>12.40503175932458</v>
+        <v>12.49726107203386</v>
       </c>
       <c r="G1579" t="n">
         <v>-7.242500000000017</v>
@@ -50839,10 +50839,10 @@
         <v>15.487</v>
       </c>
       <c r="E1580" t="n">
-        <v>-11.1777327884653</v>
+        <v>-12.48269442911712</v>
       </c>
       <c r="F1580" t="n">
-        <v>12.38405115997741</v>
+        <v>12.49229293726457</v>
       </c>
       <c r="G1580" t="n">
         <v>-7.63000000000002</v>
@@ -50871,10 +50871,10 @@
         <v>15.4869</v>
       </c>
       <c r="E1581" t="n">
-        <v>-11.2169352273927</v>
+        <v>-12.7292747237206</v>
       </c>
       <c r="F1581" t="n">
-        <v>12.36140390740601</v>
+        <v>12.48693917827392</v>
       </c>
       <c r="G1581" t="n">
         <v>-8.017500000000016</v>
@@ -50903,10 +50903,10 @@
         <v>15.4867</v>
       </c>
       <c r="E1582" t="n">
-        <v>-11.23073509677419</v>
+        <v>-12.96583138536505</v>
       </c>
       <c r="F1582" t="n">
-        <v>12.33834696774211</v>
+        <v>12.48119979506193</v>
       </c>
       <c r="G1582" t="n">
         <v>-8.39197530644854</v>
@@ -50935,10 +50935,10 @@
         <v>15.4866</v>
       </c>
       <c r="E1583" t="n">
-        <v>-11.23572830920076</v>
+        <v>-13.19236441405047</v>
       </c>
       <c r="F1583" t="n">
-        <v>12.32397903372768</v>
+        <v>12.47507478762858</v>
       </c>
       <c r="G1583" t="n">
         <v>-8.756664580836034</v>
@@ -50967,10 +50967,10 @@
         <v>15.4867</v>
       </c>
       <c r="E1584" t="n">
-        <v>-11.24784008225703</v>
+        <v>-13.40887380977685</v>
       </c>
       <c r="F1584" t="n">
-        <v>12.30931668644075</v>
+        <v>12.46856415597388</v>
       </c>
       <c r="G1584" t="n">
         <v>-9.111567823162499</v>
@@ -50999,10 +50999,10 @@
         <v>15.4865</v>
       </c>
       <c r="E1585" t="n">
-        <v>-11.26703298224658</v>
+        <v>-13.61535957254421</v>
       </c>
       <c r="F1585" t="n">
-        <v>12.29437848162783</v>
+        <v>12.46166790009783</v>
       </c>
       <c r="G1585" t="n">
         <v>-9.456685033427936</v>
@@ -51031,10 +51031,10 @@
         <v>15.4862</v>
       </c>
       <c r="E1586" t="n">
-        <v>-11.29326957547305</v>
+        <v>-13.81182170235253</v>
       </c>
       <c r="F1586" t="n">
-        <v>12.2791829750354</v>
+        <v>12.45438602000043</v>
       </c>
       <c r="G1586" t="n">
         <v>-9.792016211632344</v>
@@ -51063,10 +51063,10 @@
         <v>15.486</v>
       </c>
       <c r="E1587" t="n">
-        <v>-11.32651242824005</v>
+        <v>-13.99826019920183</v>
       </c>
       <c r="F1587" t="n">
-        <v>12.26374872240996</v>
+        <v>12.44671851568168</v>
       </c>
       <c r="G1587" t="n">
         <v>-10.11756135777572</v>
@@ -51095,10 +51095,10 @@
         <v>15.4858</v>
       </c>
       <c r="E1588" t="n">
-        <v>-11.36672410685118</v>
+        <v>-14.17467506309209</v>
       </c>
       <c r="F1588" t="n">
-        <v>12.24809427949801</v>
+        <v>12.43866538714158</v>
       </c>
       <c r="G1588" t="n">
         <v>-10.43332047185807</v>
@@ -51127,10 +51127,10 @@
         <v>15.4855</v>
       </c>
       <c r="E1589" t="n">
-        <v>-11.41386717761006</v>
+        <v>-14.34106629402332</v>
       </c>
       <c r="F1589" t="n">
-        <v>12.23223820204604</v>
+        <v>12.43022663438013</v>
       </c>
       <c r="G1589" t="n">
         <v>-10.73929355387939</v>
@@ -51159,10 +51159,10 @@
         <v>15.48532857142857</v>
       </c>
       <c r="E1590" t="n">
-        <v>-11.46790420682031</v>
+        <v>-14.49743389199552</v>
       </c>
       <c r="F1590" t="n">
-        <v>12.21619904580054</v>
+        <v>12.42140225739732</v>
       </c>
       <c r="G1590" t="n">
         <v>-11.03548060383969</v>
@@ -51191,10 +51191,10 @@
         <v>15.48515714285714</v>
       </c>
       <c r="E1591" t="n">
-        <v>-11.52879776078553</v>
+        <v>-14.64377785700868</v>
       </c>
       <c r="F1591" t="n">
-        <v>12.19999536650801</v>
+        <v>12.41219225619317</v>
       </c>
       <c r="G1591" t="n">
         <v>-11.32188162173895</v>
@@ -51223,10 +51223,10 @@
         <v>15.48498571428571</v>
       </c>
       <c r="E1592" t="n">
-        <v>-11.59651040580933</v>
+        <v>-14.78009818906282</v>
       </c>
       <c r="F1592" t="n">
-        <v>12.18364571991494</v>
+        <v>12.40259663076766</v>
       </c>
       <c r="G1592" t="n">
         <v>-11.59849660757718</v>
@@ -51255,10 +51255,10 @@
         <v>15.48481428571429</v>
       </c>
       <c r="E1593" t="n">
-        <v>-11.67100470819534</v>
+        <v>-14.90639488815792</v>
       </c>
       <c r="F1593" t="n">
-        <v>12.16716866176784</v>
+        <v>12.3926153811208</v>
       </c>
       <c r="G1593" t="n">
         <v>-11.86532556135439</v>
@@ -51287,10 +51287,10 @@
         <v>15.48464285714286</v>
       </c>
       <c r="E1594" t="n">
-        <v>-11.75224323424716</v>
+        <v>-15.022667954294</v>
       </c>
       <c r="F1594" t="n">
-        <v>12.15058274781318</v>
+        <v>12.38224850725259</v>
       </c>
       <c r="G1594" t="n">
         <v>-12.12236848307057</v>
@@ -51319,10 +51319,10 @@
         <v>15.48447142857143</v>
       </c>
       <c r="E1595" t="n">
-        <v>-11.8401885502684</v>
+        <v>-15.12891738747104</v>
       </c>
       <c r="F1595" t="n">
-        <v>12.13390653379748</v>
+        <v>12.37149600916304</v>
       </c>
       <c r="G1595" t="n">
         <v>-12.36962537272571</v>
@@ -51351,10 +51351,10 @@
         <v>15.4843</v>
       </c>
       <c r="E1596" t="n">
-        <v>-11.93480322256269</v>
+        <v>-15.22514318768905</v>
       </c>
       <c r="F1596" t="n">
-        <v>12.11715857546722</v>
+        <v>12.36035788685212</v>
       </c>
       <c r="G1596" t="n">
         <v>-12.60709623031983</v>
@@ -51383,10 +51383,10 @@
         <v>15.48412857142857</v>
       </c>
       <c r="E1597" t="n">
-        <v>-12.03604981743363</v>
+        <v>-15.31134535494803</v>
       </c>
       <c r="F1597" t="n">
-        <v>12.1003574285689</v>
+        <v>12.34883414031986</v>
       </c>
       <c r="G1597" t="n">
         <v>-12.83478105585292</v>
@@ -51415,10 +51415,10 @@
         <v>15.48395714285714</v>
       </c>
       <c r="E1598" t="n">
-        <v>-12.14389090118482</v>
+        <v>-15.38752388924798</v>
       </c>
       <c r="F1598" t="n">
-        <v>12.08352164884901</v>
+        <v>12.33692476956625</v>
       </c>
       <c r="G1598" t="n">
         <v>-13.05267984932498</v>
@@ -51447,10 +51447,10 @@
         <v>15.48378571428571</v>
       </c>
       <c r="E1599" t="n">
-        <v>-12.2582890401199</v>
+        <v>-15.45367879058889</v>
       </c>
       <c r="F1599" t="n">
-        <v>12.06666979205405</v>
+        <v>12.32462977459129</v>
       </c>
       <c r="G1599" t="n">
         <v>-13.26079261073601</v>
@@ -51479,10 +51479,10 @@
         <v>15.48361428571429</v>
       </c>
       <c r="E1600" t="n">
-        <v>-12.37920680054247</v>
+        <v>-15.50981005897078</v>
       </c>
       <c r="F1600" t="n">
-        <v>12.04982041393051</v>
+        <v>12.31194915539498</v>
       </c>
       <c r="G1600" t="n">
         <v>-13.45911934008602</v>
@@ -51511,10 +51511,10 @@
         <v>15.48344285714286</v>
       </c>
       <c r="E1601" t="n">
-        <v>-12.50660674875613</v>
+        <v>-15.55591769439364</v>
       </c>
       <c r="F1601" t="n">
-        <v>12.03299207022488</v>
+        <v>12.29888291197731</v>
       </c>
       <c r="G1601" t="n">
         <v>-13.64766003737499</v>
@@ -51543,10 +51543,10 @@
         <v>15.48327142857143</v>
       </c>
       <c r="E1602" t="n">
-        <v>-12.64045145106451</v>
+        <v>-15.59200169685746</v>
       </c>
       <c r="F1602" t="n">
-        <v>12.01620331668367</v>
+        <v>12.28543104433829</v>
       </c>
       <c r="G1602" t="n">
         <v>-13.82641470260293</v>
@@ -51575,10 +51575,10 @@
         <v>15.4831</v>
       </c>
       <c r="E1603" t="n">
-        <v>-12.78070347377122</v>
+        <v>-15.61806206636225</v>
       </c>
       <c r="F1603" t="n">
-        <v>11.99947270905337</v>
+        <v>12.27159355247793</v>
       </c>
       <c r="G1603" t="n">
         <v>-13.99538333576985</v>
@@ -51607,10 +51607,10 @@
         <v>15.48292857142857</v>
       </c>
       <c r="E1604" t="n">
-        <v>-12.92732538317987</v>
+        <v>-15.63409880290801</v>
       </c>
       <c r="F1604" t="n">
-        <v>11.98281880308046</v>
+        <v>12.25737043639621</v>
       </c>
       <c r="G1604" t="n">
         <v>-14.15456593687573</v>
@@ -51639,10 +51639,10 @@
         <v>15.48275714285714</v>
       </c>
       <c r="E1605" t="n">
-        <v>-13.08027974559407</v>
+        <v>-15.6400529032258</v>
       </c>
       <c r="F1605" t="n">
-        <v>11.96626015451146</v>
+        <v>12.24346567741961</v>
       </c>
       <c r="G1605" t="n">
         <v>-14.30396250592059</v>
@@ -51671,10 +51671,10 @@
         <v>15.48258571428571</v>
       </c>
       <c r="E1606" t="n">
-        <v>-13.23952912731744</v>
+        <v>-15.64230153054516</v>
       </c>
       <c r="F1606" t="n">
-        <v>11.94981531909284</v>
+        <v>12.23507454726542</v>
       </c>
       <c r="G1606" t="n">
         <v>-14.44357304290442</v>
@@ -51703,10 +51703,10 @@
         <v>15.48241428571428</v>
       </c>
       <c r="E1607" t="n">
-        <v>-13.40503609465359</v>
+        <v>-15.64737225564122</v>
       </c>
       <c r="F1607" t="n">
-        <v>11.93350285257111</v>
+        <v>12.22661391612336</v>
       </c>
       <c r="G1607" t="n">
         <v>-14.57339754782722</v>
@@ -51735,10 +51735,10 @@
         <v>15.48224285714286</v>
       </c>
       <c r="E1608" t="n">
-        <v>-13.57676321390612</v>
+        <v>-15.65525909091434</v>
       </c>
       <c r="F1608" t="n">
-        <v>11.91734131069276</v>
+        <v>12.21808544604044</v>
       </c>
       <c r="G1608" t="n">
         <v>-14.69343602068899</v>
@@ -51767,10 +51767,10 @@
         <v>15.48207142857143</v>
       </c>
       <c r="E1609" t="n">
-        <v>-13.75467305137867</v>
+        <v>-15.66595604876489</v>
       </c>
       <c r="F1609" t="n">
-        <v>11.90134924920428</v>
+        <v>12.2094907990637</v>
       </c>
       <c r="G1609" t="n">
         <v>-14.80368846148974</v>
@@ -51799,10 +51799,10 @@
         <v>15.4819</v>
       </c>
       <c r="E1610" t="n">
-        <v>-13.93872817337482</v>
+        <v>-15.67945714159321</v>
       </c>
       <c r="F1610" t="n">
-        <v>11.88554522385218</v>
+        <v>12.20083163724014</v>
       </c>
       <c r="G1610" t="n">
         <v>-14.90415487022945</v>
@@ -51831,10 +51831,10 @@
         <v>15.48172857142857</v>
       </c>
       <c r="E1611" t="n">
-        <v>-14.12889114619821</v>
+        <v>-15.69575638179967</v>
       </c>
       <c r="F1611" t="n">
-        <v>11.86994779038294</v>
+        <v>12.19210962261679</v>
       </c>
       <c r="G1611" t="n">
         <v>-14.99483524690813</v>
@@ -51863,10 +51863,10 @@
         <v>15.48155714285714</v>
       </c>
       <c r="E1612" t="n">
-        <v>-14.32512453615244</v>
+        <v>-15.71484778178463</v>
       </c>
       <c r="F1612" t="n">
-        <v>11.85457550454306</v>
+        <v>12.18332641724066</v>
       </c>
       <c r="G1612" t="n">
         <v>-15.07572959152579</v>
@@ -51895,10 +51895,10 @@
         <v>15.48138571428571</v>
       </c>
       <c r="E1613" t="n">
-        <v>-14.52739090954113</v>
+        <v>-15.73672535394843</v>
       </c>
       <c r="F1613" t="n">
-        <v>11.83944692207904</v>
+        <v>12.17448368315879</v>
       </c>
       <c r="G1613" t="n">
         <v>-15.14683790408241</v>
@@ -51927,10 +51927,10 @@
         <v>15.48121428571428</v>
       </c>
       <c r="E1614" t="n">
-        <v>-14.73565283266788</v>
+        <v>-15.76138311069145</v>
       </c>
       <c r="F1614" t="n">
-        <v>11.82458059873736</v>
+        <v>12.16558308241818</v>
       </c>
       <c r="G1614" t="n">
         <v>-15.20816018457801</v>
@@ -51959,10 +51959,10 @@
         <v>15.48104285714285</v>
       </c>
       <c r="E1615" t="n">
-        <v>-14.94987287183631</v>
+        <v>-15.78881506441403</v>
       </c>
       <c r="F1615" t="n">
-        <v>11.80999509026453</v>
+        <v>12.15662627706586</v>
       </c>
       <c r="G1615" t="n">
         <v>-15.25969643301258</v>
@@ -51991,10 +51991,10 @@
         <v>15.48087142857143</v>
       </c>
       <c r="E1616" t="n">
-        <v>-15.17001359335003</v>
+        <v>-15.81901522751654</v>
       </c>
       <c r="F1616" t="n">
-        <v>11.79570895240704</v>
+        <v>12.14761492914885</v>
       </c>
       <c r="G1616" t="n">
         <v>-15.30144664938612</v>
@@ -52023,10 +52023,10 @@
         <v>15.4807</v>
       </c>
       <c r="E1617" t="n">
-        <v>-15.39603756351266</v>
+        <v>-15.85197761239933</v>
       </c>
       <c r="F1617" t="n">
-        <v>11.78174074091138</v>
+        <v>12.13855070071416</v>
       </c>
       <c r="G1617" t="n">
         <v>-15.33341083369863</v>
@@ -52055,10 +52055,10 @@
         <v>15.48052857142857</v>
       </c>
       <c r="E1618" t="n">
-        <v>-15.62790734862781</v>
+        <v>-15.88769623146276</v>
       </c>
       <c r="F1618" t="n">
-        <v>11.76810901152404</v>
+        <v>12.12943525380884</v>
       </c>
       <c r="G1618" t="n">
         <v>-15.35558898595011</v>
@@ -52087,10 +52087,10 @@
         <v>15.48035714285714</v>
       </c>
       <c r="E1619" t="n">
-        <v>-15.86558551499909</v>
+        <v>-15.92616509710719</v>
       </c>
       <c r="F1619" t="n">
-        <v>11.75483231999153</v>
+        <v>12.12027025047987</v>
       </c>
       <c r="G1619" t="n">
         <v>-15.36798110614057</v>
@@ -52119,10 +52119,10 @@
         <v>15.48018571428571</v>
       </c>
       <c r="E1620" t="n">
-        <v>-16.10903462893011</v>
+        <v>-15.96737822173298</v>
       </c>
       <c r="F1620" t="n">
-        <v>11.74192922206034</v>
+        <v>12.1110573527743</v>
       </c>
       <c r="G1620" t="n">
         <v>-15.37005116129031</v>
@@ -52151,10 +52151,10 @@
         <v>15.48001428571428</v>
       </c>
       <c r="E1621" t="n">
-        <v>-16.35821725672448</v>
+        <v>-16.01132961774048</v>
       </c>
       <c r="F1621" t="n">
-        <v>11.72941827347696</v>
+        <v>12.10179822273913</v>
       </c>
       <c r="G1621" t="n">
         <v>-15.37369737443397</v>
@@ -52183,10 +52183,10 @@
         <v>15.47984285714285</v>
       </c>
       <c r="E1622" t="n">
-        <v>-16.61309596468583</v>
+        <v>-16.05801329753005</v>
       </c>
       <c r="F1622" t="n">
-        <v>11.71731802998789</v>
+        <v>12.0924945224214</v>
       </c>
       <c r="G1622" t="n">
         <v>-15.38011332855593</v>
@@ -52215,10 +52215,10 @@
         <v>15.47967142857143</v>
       </c>
       <c r="E1623" t="n">
-        <v>-16.87363331911776</v>
+        <v>-16.10742327350205</v>
       </c>
       <c r="F1623" t="n">
-        <v>11.70564704733962</v>
+        <v>12.08314791386812</v>
       </c>
       <c r="G1623" t="n">
         <v>-15.3892935946124</v>
@@ -52247,10 +52247,10 @@
         <v>15.4795</v>
       </c>
       <c r="E1624" t="n">
-        <v>-17.13979188632388</v>
+        <v>-16.15955355805685</v>
       </c>
       <c r="F1624" t="n">
-        <v>11.69442388127865</v>
+        <v>12.07376005912631</v>
       </c>
       <c r="G1624" t="n">
         <v>-15.40123274355964</v>
@@ -52279,10 +52279,10 @@
         <v>15.47932857142857</v>
       </c>
       <c r="E1625" t="n">
-        <v>-17.41153423260781</v>
+        <v>-16.21439816359478</v>
       </c>
       <c r="F1625" t="n">
-        <v>11.68366708755147</v>
+        <v>12.06433262024298</v>
       </c>
       <c r="G1625" t="n">
         <v>-15.41592534635384</v>
@@ -52311,10 +52311,10 @@
         <v>15.47915714285714</v>
       </c>
       <c r="E1626" t="n">
-        <v>-17.68882292427316</v>
+        <v>-16.27195110251623</v>
       </c>
       <c r="F1626" t="n">
-        <v>11.67339522190457</v>
+        <v>12.05486725926518</v>
       </c>
       <c r="G1626" t="n">
         <v>-15.43336597395125</v>
@@ -52343,10 +52343,10 @@
         <v>15.47898571428571</v>
       </c>
       <c r="E1627" t="n">
-        <v>-17.97162052762355</v>
+        <v>-16.33220638722153</v>
       </c>
       <c r="F1627" t="n">
-        <v>11.66362684008446</v>
+        <v>12.0453656382399</v>
       </c>
       <c r="G1627" t="n">
         <v>-15.45354919730809</v>
@@ -52375,10 +52375,10 @@
         <v>15.47881428571428</v>
       </c>
       <c r="E1628" t="n">
-        <v>-18.25988960896257</v>
+        <v>-16.39515803011104</v>
       </c>
       <c r="F1628" t="n">
-        <v>11.65438049783762</v>
+        <v>12.03582941921417</v>
       </c>
       <c r="G1628" t="n">
         <v>-15.47646958738057</v>
@@ -52407,10 +52407,10 @@
         <v>15.47864285714285</v>
       </c>
       <c r="E1629" t="n">
-        <v>-18.55359273459386</v>
+        <v>-16.46080004358515</v>
       </c>
       <c r="F1629" t="n">
-        <v>11.64567475091055</v>
+        <v>12.02626026423501</v>
       </c>
       <c r="G1629" t="n">
         <v>-15.50212171512493</v>
@@ -52439,10 +52439,10 @@
         <v>15.47847142857142</v>
       </c>
       <c r="E1630" t="n">
-        <v>-18.85269247082101</v>
+        <v>-16.52912644004418</v>
       </c>
       <c r="F1630" t="n">
-        <v>11.63752815504975</v>
+        <v>12.01665983534945</v>
       </c>
       <c r="G1630" t="n">
         <v>-15.53050015149739</v>
@@ -52471,10 +52471,10 @@
         <v>15.4783</v>
       </c>
       <c r="E1631" t="n">
-        <v>-19.15715138394765</v>
+        <v>-16.6001312318885</v>
       </c>
       <c r="F1631" t="n">
-        <v>11.62995926600171</v>
+        <v>12.0070297946045</v>
       </c>
       <c r="G1631" t="n">
         <v>-15.56159946745418</v>
@@ -52503,10 +52503,10 @@
         <v>15.47812857142857</v>
       </c>
       <c r="E1632" t="n">
-        <v>-19.46693204027738</v>
+        <v>-16.67380843151848</v>
       </c>
       <c r="F1632" t="n">
-        <v>11.62298663951293</v>
+        <v>11.99737180404718</v>
       </c>
       <c r="G1632" t="n">
         <v>-15.59541423395153</v>
@@ -52535,10 +52535,10 @@
         <v>15.47795714285714</v>
       </c>
       <c r="E1633" t="n">
-        <v>-19.78199700611383</v>
+        <v>-16.75015205133446</v>
       </c>
       <c r="F1633" t="n">
-        <v>11.61662883132989</v>
+        <v>11.98768752572451</v>
       </c>
       <c r="G1633" t="n">
         <v>-15.63193902194566</v>
@@ -52567,10 +52567,10 @@
         <v>15.47778571428571</v>
       </c>
       <c r="E1634" t="n">
-        <v>-20.10230884776059</v>
+        <v>-16.82915610373681</v>
       </c>
       <c r="F1634" t="n">
-        <v>11.6109043971991</v>
+        <v>11.97797862168352</v>
       </c>
       <c r="G1634" t="n">
         <v>-15.67116840239279</v>
@@ -52599,10 +52599,10 @@
         <v>15.47761428571428</v>
       </c>
       <c r="E1635" t="n">
-        <v>-20.42783013152129</v>
+        <v>-16.91081460112589</v>
       </c>
       <c r="F1635" t="n">
-        <v>11.60583189286704</v>
+        <v>11.96824675397122</v>
       </c>
       <c r="G1635" t="n">
         <v>-15.71309694624914</v>
@@ -52631,10 +52631,10 @@
         <v>15.47744285714285</v>
       </c>
       <c r="E1636" t="n">
-        <v>-20.75852342369954</v>
+        <v>-16.99512155590204</v>
       </c>
       <c r="F1636" t="n">
-        <v>11.60142987408022</v>
+        <v>11.95849358463463</v>
       </c>
       <c r="G1636" t="n">
         <v>-15.75771922447095</v>
@@ -52663,10 +52663,10 @@
         <v>15.47727142857142</v>
       </c>
       <c r="E1637" t="n">
-        <v>-21.09435129059894</v>
+        <v>-17.08207098046564</v>
       </c>
       <c r="F1637" t="n">
-        <v>11.59771689658514</v>
+        <v>11.94872077572078</v>
       </c>
       <c r="G1637" t="n">
         <v>-15.80502980801445</v>
@@ -52695,10 +52695,10 @@
         <v>15.47709999999999</v>
       </c>
       <c r="E1638" t="n">
-        <v>-21.43527629852312</v>
+        <v>-17.17165688721703</v>
       </c>
       <c r="F1638" t="n">
-        <v>11.59471151612827</v>
+        <v>11.93892998927668</v>
       </c>
       <c r="G1638" t="n">
         <v>-15.85502326783585</v>
@@ -52727,10 +52727,10 @@
         <v>15.47692857142857</v>
       </c>
       <c r="E1639" t="n">
-        <v>-21.78126101377569</v>
+        <v>-17.26387328855658</v>
       </c>
       <c r="F1639" t="n">
-        <v>11.59243228845612</v>
+        <v>11.92912288734935</v>
       </c>
       <c r="G1639" t="n">
         <v>-15.90769417489138</v>
@@ -52759,10 +52759,10 @@
         <v>15.47675714285714</v>
       </c>
       <c r="E1640" t="n">
-        <v>-22.13226800266025</v>
+        <v>-17.35871419688464</v>
       </c>
       <c r="F1640" t="n">
-        <v>11.59089776931518</v>
+        <v>11.91930113198582</v>
       </c>
       <c r="G1640" t="n">
         <v>-15.96303710013727</v>
@@ -52791,10 +52791,10 @@
         <v>15.47658571428571</v>
       </c>
       <c r="E1641" t="n">
-        <v>-22.48825983148042</v>
+        <v>-17.45617362460157</v>
       </c>
       <c r="F1641" t="n">
-        <v>11.59012651445196</v>
+        <v>11.90946638523311</v>
       </c>
       <c r="G1641" t="n">
         <v>-16.02104661452974</v>
@@ -52823,10 +52823,10 @@
         <v>15.47641428571428</v>
       </c>
       <c r="E1642" t="n">
-        <v>-22.9875</v>
+        <v>-17.55624558410773</v>
       </c>
       <c r="F1642" t="n">
-        <v>11.59019516129113</v>
+        <v>11.89962030913822</v>
       </c>
       <c r="G1642" t="n">
         <v>-16.08171728902502</v>
@@ -52855,10 +52855,10 @@
         <v>15.47624285714285</v>
       </c>
       <c r="E1643" t="n">
-        <v>-23.375</v>
+        <v>-17.65892408780348</v>
       </c>
       <c r="F1643" t="n">
-        <v>11.59034516129113</v>
+        <v>11.8897645657482</v>
       </c>
       <c r="G1643" t="n">
         <v>-16.14504369457934</v>
@@ -52887,10 +52887,10 @@
         <v>15.47607142857142</v>
       </c>
       <c r="E1644" t="n">
-        <v>-23.7625</v>
+        <v>-17.76420314808917</v>
       </c>
       <c r="F1644" t="n">
-        <v>11.59049516129113</v>
+        <v>11.87990081711005</v>
       </c>
       <c r="G1644" t="n">
         <v>-16.21102040214891</v>
@@ -52919,10 +52919,10 @@
         <v>15.47589999999999</v>
       </c>
       <c r="E1645" t="n">
-        <v>-24.15</v>
+        <v>-17.87207677736517</v>
       </c>
       <c r="F1645" t="n">
-        <v>11.59064516129113</v>
+        <v>11.87003072527079</v>
       </c>
       <c r="G1645" t="n">
         <v>-16.27964198268997</v>
@@ -52951,10 +52951,10 @@
         <v>15.47572857142857</v>
       </c>
       <c r="E1646" t="n">
-        <v>-24.5375</v>
+        <v>-17.98253898803182</v>
       </c>
       <c r="F1646" t="n">
-        <v>11.59079516129113</v>
+        <v>11.86015595227745</v>
       </c>
       <c r="G1646" t="n">
         <v>-16.35090300715874</v>
@@ -52983,10 +52983,10 @@
         <v>15.47555714285714</v>
       </c>
       <c r="E1647" t="n">
-        <v>-24.925</v>
+        <v>-18.09558379248949</v>
       </c>
       <c r="F1647" t="n">
-        <v>11.59094516129113</v>
+        <v>11.85027816017706</v>
       </c>
       <c r="G1647" t="n">
         <v>-16.42479804651144</v>
@@ -53015,10 +53015,10 @@
         <v>15.47538571428571</v>
       </c>
       <c r="E1648" t="n">
-        <v>-25.3125</v>
+        <v>-18.21120520313853</v>
       </c>
       <c r="F1648" t="n">
-        <v>11.59109516129113</v>
+        <v>11.8403990110166</v>
       </c>
       <c r="G1648" t="n">
         <v>-16.5013216717043</v>
@@ -53047,10 +53047,10 @@
         <v>15.47521428571428</v>
       </c>
       <c r="E1649" t="n">
-        <v>-25.7</v>
+        <v>-18.32939723237932</v>
       </c>
       <c r="F1649" t="n">
-        <v>11.59124516129113</v>
+        <v>11.83052016684314</v>
       </c>
       <c r="G1649" t="n">
         <v>-16.58046845369356</v>
@@ -53079,10 +53079,10 @@
         <v>15.47504285714285</v>
       </c>
       <c r="E1650" t="n">
-        <v>-26.0875</v>
+        <v>-18.45015389261219</v>
       </c>
       <c r="F1650" t="n">
-        <v>11.59139516129113</v>
+        <v>11.82064328970366</v>
       </c>
       <c r="G1650" t="n">
         <v>-16.66223296343543</v>
@@ -53111,10 +53111,10 @@
         <v>15.47487142857142</v>
       </c>
       <c r="E1651" t="n">
-        <v>-26.475</v>
+        <v>-18.57346919623752</v>
       </c>
       <c r="F1651" t="n">
-        <v>11.59154516129113</v>
+        <v>11.81077004164521</v>
       </c>
       <c r="G1651" t="n">
         <v>-16.74660977188612</v>
@@ -53143,10 +53143,10 @@
         <v>15.47469999999999</v>
       </c>
       <c r="E1652" t="n">
-        <v>-26.8625</v>
+        <v>-18.69933715565564</v>
       </c>
       <c r="F1652" t="n">
-        <v>11.59169516129113</v>
+        <v>11.80090208471479</v>
       </c>
       <c r="G1652" t="n">
         <v>-16.83359345000189</v>
@@ -53175,10 +53175,10 @@
         <v>15.47452857142856</v>
       </c>
       <c r="E1653" t="n">
-        <v>-27.25</v>
+        <v>-18.82775178326694</v>
       </c>
       <c r="F1653" t="n">
-        <v>11.59184516129113</v>
+        <v>11.79104108095943</v>
       </c>
       <c r="G1653" t="n">
         <v>-16.92317856873894</v>
@@ -53207,10 +53207,10 @@
         <v>15.47435714285714</v>
       </c>
       <c r="E1654" t="n">
-        <v>-27.6375</v>
+        <v>-18.95870709147175</v>
       </c>
       <c r="F1654" t="n">
-        <v>11.59199516129113</v>
+        <v>11.78118869242614</v>
       </c>
       <c r="G1654" t="n">
         <v>-17.01535969905351</v>
@@ -53239,10 +53239,10 @@
         <v>15.47418571428571</v>
       </c>
       <c r="E1655" t="n">
-        <v>-28.02500000000001</v>
+        <v>-19.09219709267045</v>
       </c>
       <c r="F1655" t="n">
-        <v>11.59214516129113</v>
+        <v>11.77134658116196</v>
       </c>
       <c r="G1655" t="n">
         <v>-17.11013141190181</v>
@@ -53271,10 +53271,10 @@
         <v>15.47401428571428</v>
       </c>
       <c r="E1656" t="n">
-        <v>-28.4125</v>
+        <v>-19.22821579926337</v>
       </c>
       <c r="F1656" t="n">
-        <v>11.59229516129113</v>
+        <v>11.76151640921389</v>
       </c>
       <c r="G1656" t="n">
         <v>-17.20748827824008</v>
@@ -53303,10 +53303,10 @@
         <v>15.47384285714285</v>
       </c>
       <c r="E1657" t="n">
-        <v>-28.8</v>
+        <v>-19.36675722365091</v>
       </c>
       <c r="F1657" t="n">
-        <v>11.59244516129113</v>
+        <v>11.75169983862896</v>
       </c>
       <c r="G1657" t="n">
         <v>-17.30742486902455</v>
@@ -53335,10 +53335,10 @@
         <v>15.47367142857142</v>
       </c>
       <c r="E1658" t="n">
-        <v>-29.1875</v>
+        <v>-19.50781537823339</v>
       </c>
       <c r="F1658" t="n">
-        <v>11.59259516129113</v>
+        <v>11.74189853145419</v>
       </c>
       <c r="G1658" t="n">
         <v>-17.40993575521143</v>
@@ -53367,10 +53367,10 @@
         <v>15.47349999999999</v>
       </c>
       <c r="E1659" t="n">
-        <v>-29.575</v>
+        <v>-19.65138427541119</v>
       </c>
       <c r="F1659" t="n">
-        <v>11.59274516129113</v>
+        <v>11.7321141497366</v>
       </c>
       <c r="G1659" t="n">
         <v>-17.51501550775695</v>
@@ -53399,10 +53399,10 @@
         <v>15.47332857142856</v>
       </c>
       <c r="E1660" t="n">
-        <v>-29.96250000000001</v>
+        <v>-19.79745792758465</v>
       </c>
       <c r="F1660" t="n">
-        <v>11.59289516129113</v>
+        <v>11.72234835552321</v>
       </c>
       <c r="G1660" t="n">
         <v>-17.62265869761733</v>
@@ -53431,10 +53431,10 @@
         <v>15.47315714285713</v>
       </c>
       <c r="E1661" t="n">
-        <v>-30.35</v>
+        <v>-19.94603034715415</v>
       </c>
       <c r="F1661" t="n">
-        <v>11.59304516129113</v>
+        <v>11.71260281086103</v>
       </c>
       <c r="G1661" t="n">
         <v>-17.73285989574881</v>
@@ -53463,10 +53463,10 @@
         <v>15.47298571428571</v>
       </c>
       <c r="E1662" t="n">
-        <v>-30.7375</v>
+        <v>-20.09709554652003</v>
       </c>
       <c r="F1662" t="n">
-        <v>11.59319516129113</v>
+        <v>11.7028791777971</v>
       </c>
       <c r="G1662" t="n">
         <v>-17.84561367310761</v>
@@ -53495,10 +53495,10 @@
         <v>15.47281428571428</v>
       </c>
       <c r="E1663" t="n">
-        <v>-31.12500000000001</v>
+        <v>-20.25064753808265</v>
       </c>
       <c r="F1663" t="n">
-        <v>11.59334516129113</v>
+        <v>11.69317911837843</v>
       </c>
       <c r="G1663" t="n">
         <v>-17.96091460064995</v>
@@ -53527,10 +53527,10 @@
         <v>15.47264285714285</v>
       </c>
       <c r="E1664" t="n">
-        <v>-31.51250000000001</v>
+        <v>-20.40668033424237</v>
       </c>
       <c r="F1664" t="n">
-        <v>11.59349516129113</v>
+        <v>11.68350429465204</v>
       </c>
       <c r="G1664" t="n">
         <v>-18.07875724933206</v>
@@ -53559,10 +53559,10 @@
         <v>15.47247142857142</v>
       </c>
       <c r="E1665" t="n">
-        <v>-31.90000000000001</v>
+        <v>-20.56518794739955</v>
       </c>
       <c r="F1665" t="n">
-        <v>11.59364516129113</v>
+        <v>11.67385636866494</v>
       </c>
       <c r="G1665" t="n">
         <v>-18.19913619011017</v>
@@ -53591,10 +53591,10 @@
         <v>15.47229999999999</v>
       </c>
       <c r="E1666" t="n">
-        <v>-32.28750000000001</v>
+        <v>-20.72616438995455</v>
       </c>
       <c r="F1666" t="n">
-        <v>11.59379516129113</v>
+        <v>11.66423700246417</v>
       </c>
       <c r="G1666" t="n">
         <v>-18.32204599394049</v>
@@ -53623,10 +53623,10 @@
         <v>15.47212857142856</v>
       </c>
       <c r="E1667" t="n">
-        <v>-32.675</v>
+        <v>-20.88960367430772</v>
       </c>
       <c r="F1667" t="n">
-        <v>11.59394516129113</v>
+        <v>11.65464785809674</v>
       </c>
       <c r="G1667" t="n">
         <v>-18.44748123177926</v>
@@ -53655,10 +53655,10 @@
         <v>15.47195714285713</v>
       </c>
       <c r="E1668" t="n">
-        <v>-33.06250000000001</v>
+        <v>-21.05549981285942</v>
       </c>
       <c r="F1668" t="n">
-        <v>11.59409516129113</v>
+        <v>11.64509059760967</v>
       </c>
       <c r="G1668" t="n">
         <v>-18.57543647458271</v>
@@ -53687,10 +53687,10 @@
         <v>15.4717857142857</v>
       </c>
       <c r="E1669" t="n">
-        <v>-33.45</v>
+        <v>-21.22384681801002</v>
       </c>
       <c r="F1669" t="n">
-        <v>11.59424516129113</v>
+        <v>11.63556688304998</v>
       </c>
       <c r="G1669" t="n">
         <v>-18.70590629330705</v>
@@ -53719,10 +53719,10 @@
         <v>15.47161428571428</v>
       </c>
       <c r="E1670" t="n">
-        <v>-33.83750000000001</v>
+        <v>-21.39463870215986</v>
       </c>
       <c r="F1670" t="n">
-        <v>11.59439516129113</v>
+        <v>11.62607837646469</v>
       </c>
       <c r="G1670" t="n">
         <v>-18.8388852589085</v>
@@ -53751,10 +53751,10 @@
         <v>15.47144285714285</v>
       </c>
       <c r="E1671" t="n">
-        <v>-34.22500000000001</v>
+        <v>-21.56786947770931</v>
       </c>
       <c r="F1671" t="n">
-        <v>11.59454516129113</v>
+        <v>11.61662673990083</v>
       </c>
       <c r="G1671" t="n">
         <v>-18.9743679423433</v>
@@ -53783,10 +53783,10 @@
         <v>15.47127142857142</v>
       </c>
       <c r="E1672" t="n">
-        <v>-34.61250000000001</v>
+        <v>-21.74353315705872</v>
       </c>
       <c r="F1672" t="n">
-        <v>11.59469516129113</v>
+        <v>11.6072136354054</v>
       </c>
       <c r="G1672" t="n">
         <v>-19.11234891456768</v>
@@ -53815,10 +53815,10 @@
         <v>15.47109999999999</v>
       </c>
       <c r="E1673" t="n">
-        <v>-35.00000000000001</v>
+        <v>-21.92162375260845</v>
       </c>
       <c r="F1673" t="n">
-        <v>11.59484516129113</v>
+        <v>11.59784072502544</v>
       </c>
       <c r="G1673" t="n">
         <v>-19.25282274653786</v>
@@ -53847,10 +53847,10 @@
         <v>15.47092857142856</v>
       </c>
       <c r="E1674" t="n">
-        <v>-35.3875</v>
+        <v>-22.10213527675887</v>
       </c>
       <c r="F1674" t="n">
-        <v>11.59499516129113</v>
+        <v>11.58850967080796</v>
       </c>
       <c r="G1674" t="n">
         <v>-19.39578400921006</v>
@@ -53879,10 +53879,10 @@
         <v>15.47075714285713</v>
       </c>
       <c r="E1675" t="n">
-        <v>-35.77500000000001</v>
+        <v>-22.28506174191031</v>
       </c>
       <c r="F1675" t="n">
-        <v>11.59514516129113</v>
+        <v>11.57922213479998</v>
       </c>
       <c r="G1675" t="n">
         <v>-19.54122727354051</v>
@@ -53911,10 +53911,10 @@
         <v>15.4705857142857</v>
       </c>
       <c r="E1676" t="n">
-        <v>-36.16250000000001</v>
+        <v>-22.47039716046315</v>
       </c>
       <c r="F1676" t="n">
-        <v>11.59529516129113</v>
+        <v>11.56997977904853</v>
       </c>
       <c r="G1676" t="n">
         <v>-19.68914711048544</v>
@@ -53943,10 +53943,10 @@
         <v>15.47041428571428</v>
       </c>
       <c r="E1677" t="n">
-        <v>-36.55000000000001</v>
+        <v>-22.65813554481775</v>
       </c>
       <c r="F1677" t="n">
-        <v>11.59544516129113</v>
+        <v>11.56078426560062</v>
       </c>
       <c r="G1677" t="n">
         <v>-19.83953809100106</v>
@@ -53975,10 +53975,10 @@
         <v>15.47024285714285</v>
       </c>
       <c r="E1678" t="n">
-        <v>-36.93750000000001</v>
+        <v>-22.84827090737446</v>
       </c>
       <c r="F1678" t="n">
-        <v>11.59559516129113</v>
+        <v>11.55163725650328</v>
       </c>
       <c r="G1678" t="n">
         <v>-19.99239478604361</v>
@@ -54007,10 +54007,10 @@
         <v>15.47007142857142</v>
       </c>
       <c r="E1679" t="n">
-        <v>-37.32500000000001</v>
+        <v>-23.04079726053362</v>
       </c>
       <c r="F1679" t="n">
-        <v>11.59574516129113</v>
+        <v>11.54254041380351</v>
       </c>
       <c r="G1679" t="n">
         <v>-20.14771176656931</v>
@@ -54039,10 +54039,10 @@
         <v>15.46989999999999</v>
       </c>
       <c r="E1680" t="n">
-        <v>-37.71250000000001</v>
+        <v>-23.23570861669563</v>
       </c>
       <c r="F1680" t="n">
-        <v>11.59589516129113</v>
+        <v>11.53349539954836</v>
       </c>
       <c r="G1680" t="n">
         <v>-20.30548360353439</v>
@@ -54071,10 +54071,10 @@
         <v>15.46972857142856</v>
       </c>
       <c r="E1681" t="n">
-        <v>-38.10000000000001</v>
+        <v>-23.43299898826081</v>
       </c>
       <c r="F1681" t="n">
-        <v>11.59604516129113</v>
+        <v>11.52450387578482</v>
       </c>
       <c r="G1681" t="n">
         <v>-20.46570486789507</v>
@@ -54103,10 +54103,10 @@
         <v>15.46955714285713</v>
       </c>
       <c r="E1682" t="n">
-        <v>-38.48750000000001</v>
+        <v>-23.63266238762954</v>
       </c>
       <c r="F1682" t="n">
-        <v>11.59619516129113</v>
+        <v>11.51556750455993</v>
       </c>
       <c r="G1682" t="n">
         <v>-20.62837013060758</v>
@@ -54135,10 +54135,10 @@
         <v>15.4693857142857</v>
       </c>
       <c r="E1683" t="n">
-        <v>-38.87500000000001</v>
+        <v>-23.83469282720217</v>
       </c>
       <c r="F1683" t="n">
-        <v>11.59634516129113</v>
+        <v>11.5066879479207</v>
       </c>
       <c r="G1683" t="n">
         <v>-20.79347396262815</v>
@@ -54167,10 +54167,10 @@
         <v>15.46921428571428</v>
       </c>
       <c r="E1684" t="n">
-        <v>-39.26250000000001</v>
+        <v>-24.03908431937905</v>
       </c>
       <c r="F1684" t="n">
-        <v>11.59649516129113</v>
+        <v>11.49786686791417</v>
       </c>
       <c r="G1684" t="n">
         <v>-20.96101093491299</v>
@@ -54199,10 +54199,10 @@
         <v>15.46904285714285</v>
       </c>
       <c r="E1685" t="n">
-        <v>-39.65000000000001</v>
+        <v>-24.24583087656055</v>
       </c>
       <c r="F1685" t="n">
-        <v>11.59664516129113</v>
+        <v>11.48910592658733</v>
       </c>
       <c r="G1685" t="n">
         <v>-21.13097561841833</v>
@@ -54231,10 +54231,10 @@
         <v>15.46887142857142</v>
       </c>
       <c r="E1686" t="n">
-        <v>-40.03750000000001</v>
+        <v>-24.45492651114701</v>
       </c>
       <c r="F1686" t="n">
-        <v>11.59679516129113</v>
+        <v>11.48040678598722</v>
       </c>
       <c r="G1686" t="n">
         <v>-21.30336258410041</v>
@@ -54263,10 +54263,10 @@
         <v>15.46869999999999</v>
       </c>
       <c r="E1687" t="n">
-        <v>-40.42500000000001</v>
+        <v>-24.66636523553881</v>
       </c>
       <c r="F1687" t="n">
-        <v>11.59694516129113</v>
+        <v>11.47177110816085</v>
       </c>
       <c r="G1687" t="n">
         <v>-21.47816640291543</v>
@@ -54295,10 +54295,10 @@
         <v>15.46852857142856</v>
       </c>
       <c r="E1688" t="n">
-        <v>-40.81250000000001</v>
+        <v>-24.88014106213631</v>
       </c>
       <c r="F1688" t="n">
-        <v>11.59709516129113</v>
+        <v>11.46320055515525</v>
       </c>
       <c r="G1688" t="n">
         <v>-21.65538164581964</v>
@@ -54327,10 +54327,10 @@
         <v>15.46835714285713</v>
       </c>
       <c r="E1689" t="n">
-        <v>-41.20000000000001</v>
+        <v>-25.09624800333984</v>
       </c>
       <c r="F1689" t="n">
-        <v>11.59724516129113</v>
+        <v>11.45469678901744</v>
       </c>
       <c r="G1689" t="n">
         <v>-21.83500288376926</v>
@@ -54359,10 +54359,10 @@
         <v>15.4681857142857</v>
       </c>
       <c r="E1690" t="n">
-        <v>-41.58750000000001</v>
+        <v>-25.31468007154979</v>
       </c>
       <c r="F1690" t="n">
-        <v>11.59739516129113</v>
+        <v>11.44626147179444</v>
       </c>
       <c r="G1690" t="n">
         <v>-22.0170246877205</v>
@@ -54391,10 +54391,10 @@
         <v>15.46801428571428</v>
       </c>
       <c r="E1691" t="n">
-        <v>-41.97500000000001</v>
+        <v>-25.53543127916649</v>
       </c>
       <c r="F1691" t="n">
-        <v>11.59754516129113</v>
+        <v>11.43789626553326</v>
       </c>
       <c r="G1691" t="n">
         <v>-22.20144162862961</v>
@@ -54423,10 +54423,10 @@
         <v>15.46784285714285</v>
       </c>
       <c r="E1692" t="n">
-        <v>-42.36250000000001</v>
+        <v>-25.75849563859032</v>
       </c>
       <c r="F1692" t="n">
-        <v>11.59769516129113</v>
+        <v>11.42960283228092</v>
       </c>
       <c r="G1692" t="n">
         <v>-22.3882482774528</v>
@@ -54455,10 +54455,10 @@
         <v>15.46767142857142</v>
       </c>
       <c r="E1693" t="n">
-        <v>-42.75000000000001</v>
+        <v>-25.98386716222162</v>
       </c>
       <c r="F1693" t="n">
-        <v>11.59784516129113</v>
+        <v>11.42138283408446</v>
       </c>
       <c r="G1693" t="n">
         <v>-22.57743920514629</v>
@@ -54487,10 +54487,10 @@
         <v>15.46749999999999</v>
       </c>
       <c r="E1694" t="n">
-        <v>-43.13750000000001</v>
+        <v>-26.21153986246076</v>
       </c>
       <c r="F1694" t="n">
-        <v>11.59799516129113</v>
+        <v>11.41323793299088</v>
       </c>
       <c r="G1694" t="n">
         <v>-22.76900898266632</v>
@@ -54519,10 +54519,10 @@
         <v>15.46732857142856</v>
       </c>
       <c r="E1695" t="n">
-        <v>-43.52500000000001</v>
+        <v>-26.44150775170808</v>
       </c>
       <c r="F1695" t="n">
-        <v>11.59814516129113</v>
+        <v>11.40516979104721</v>
       </c>
       <c r="G1695" t="n">
         <v>-22.96295218096911</v>
@@ -54551,10 +54551,10 @@
         <v>15.46715714285713</v>
       </c>
       <c r="E1696" t="n">
-        <v>-43.91250000000001</v>
+        <v>-26.67376484236397</v>
       </c>
       <c r="F1696" t="n">
-        <v>11.59829516129113</v>
+        <v>11.39718007030046</v>
       </c>
       <c r="G1696" t="n">
         <v>-23.15926337101088</v>
@@ -54583,10 +54583,10 @@
         <v>15.4669857142857</v>
       </c>
       <c r="E1697" t="n">
-        <v>-44.30000000000001</v>
+        <v>-26.90830514682876</v>
       </c>
       <c r="F1697" t="n">
-        <v>11.59844516129113</v>
+        <v>11.38927043279767</v>
       </c>
       <c r="G1697" t="n">
         <v>-23.35793712374786</v>
@@ -54615,10 +54615,10 @@
         <v>15.46681428571427</v>
       </c>
       <c r="E1698" t="n">
-        <v>-44.68750000000001</v>
+        <v>-27.14512267750282</v>
       </c>
       <c r="F1698" t="n">
-        <v>11.59859516129113</v>
+        <v>11.38144254058584</v>
       </c>
       <c r="G1698" t="n">
         <v>-23.55896801013628</v>
@@ -54647,10 +54647,10 @@
         <v>15.46664285714285</v>
       </c>
       <c r="E1699" t="n">
-        <v>-45.07500000000001</v>
+        <v>-27.3842114467865</v>
       </c>
       <c r="F1699" t="n">
-        <v>11.59874516129113</v>
+        <v>11.373698055712</v>
       </c>
       <c r="G1699" t="n">
         <v>-23.76235060113236</v>
@@ -54679,10 +54679,10 @@
         <v>15.46647142857142</v>
       </c>
       <c r="E1700" t="n">
-        <v>-45.46250000000001</v>
+        <v>-27.62556546708017</v>
       </c>
       <c r="F1700" t="n">
-        <v>11.59889516129113</v>
+        <v>11.36603864022317</v>
       </c>
       <c r="G1700" t="n">
         <v>-23.96807946769233</v>
@@ -54711,10 +54711,10 @@
         <v>15.46629999999999</v>
       </c>
       <c r="E1701" t="n">
-        <v>-45.85000000000001</v>
+        <v>-27.86917875078417</v>
       </c>
       <c r="F1701" t="n">
-        <v>11.59904516129113</v>
+        <v>11.35846595616637</v>
       </c>
       <c r="G1701" t="n">
         <v>-24.1761491807724</v>
@@ -54743,10 +54743,10 @@
         <v>15.46612857142856</v>
       </c>
       <c r="E1702" t="n">
-        <v>-46.23750000000001</v>
+        <v>-28.11504531029888</v>
       </c>
       <c r="F1702" t="n">
-        <v>11.59919516129113</v>
+        <v>11.35098166558862</v>
       </c>
       <c r="G1702" t="n">
         <v>-24.38655431132881</v>
@@ -54775,10 +54775,10 @@
         <v>15.46595714285713</v>
       </c>
       <c r="E1703" t="n">
-        <v>-46.62500000000001</v>
+        <v>-28.36315915802464</v>
       </c>
       <c r="F1703" t="n">
-        <v>11.59934516129113</v>
+        <v>11.34358743053694</v>
       </c>
       <c r="G1703" t="n">
         <v>-24.59928943031779</v>
@@ -54807,10 +54807,10 @@
         <v>15.4657857142857</v>
       </c>
       <c r="E1704" t="n">
-        <v>-47.01250000000002</v>
+        <v>-28.61351430636181</v>
       </c>
       <c r="F1704" t="n">
-        <v>11.59949516129113</v>
+        <v>11.33628491305834</v>
       </c>
       <c r="G1704" t="n">
         <v>-24.81434910869555</v>
@@ -54839,10 +54839,10 @@
         <v>15.46561428571427</v>
       </c>
       <c r="E1705" t="n">
-        <v>-47.40000000000001</v>
+        <v>-28.86610476771076</v>
       </c>
       <c r="F1705" t="n">
-        <v>11.59964516129113</v>
+        <v>11.32907577519986</v>
       </c>
       <c r="G1705" t="n">
         <v>-25.03172791741834</v>
@@ -54871,10 +54871,10 @@
         <v>15.46544285714285</v>
       </c>
       <c r="E1706" t="n">
-        <v>-47.78750000000001</v>
+        <v>-29.12092455447183</v>
       </c>
       <c r="F1706" t="n">
-        <v>11.59979516129112</v>
+        <v>11.32196167900851</v>
       </c>
       <c r="G1706" t="n">
         <v>-25.25142042744235</v>
@@ -54903,10 +54903,10 @@
         <v>15.46527142857142</v>
       </c>
       <c r="E1707" t="n">
-        <v>-48.17500000000001</v>
+        <v>-29.3779676790454</v>
       </c>
       <c r="F1707" t="n">
-        <v>11.59994516129112</v>
+        <v>11.3149442865313</v>
       </c>
       <c r="G1707" t="n">
         <v>-25.47342120972384</v>
@@ -54935,10 +54935,10 @@
         <v>15.46509999999999</v>
       </c>
       <c r="E1708" t="n">
-        <v>-48.56250000000001</v>
+        <v>-29.63722815383181</v>
       </c>
       <c r="F1708" t="n">
-        <v>11.60009516129112</v>
+        <v>11.30802525981527</v>
       </c>
       <c r="G1708" t="n">
         <v>-25.69772483521901</v>
@@ -54967,10 +54967,10 @@
         <v>15.46492857142856</v>
       </c>
       <c r="E1709" t="n">
-        <v>-48.95000000000002</v>
+        <v>-29.89869999123141</v>
       </c>
       <c r="F1709" t="n">
-        <v>11.60024516129112</v>
+        <v>11.30120626090743</v>
       </c>
       <c r="G1709" t="n">
         <v>-25.9243258748841</v>
@@ -54999,10 +54999,10 @@
         <v>15.46475714285713</v>
       </c>
       <c r="E1710" t="n">
-        <v>-49.33750000000001</v>
+        <v>-30.16237720364458</v>
       </c>
       <c r="F1710" t="n">
-        <v>11.60039516129113</v>
+        <v>11.2944889518548</v>
       </c>
       <c r="G1710" t="n">
         <v>-26.15321889967533</v>
@@ -55031,10 +55031,10 @@
         <v>15.4645857142857</v>
       </c>
       <c r="E1711" t="n">
-        <v>-49.72500000000002</v>
+        <v>-30.42825380347168</v>
       </c>
       <c r="F1711" t="n">
-        <v>11.60054516129112</v>
+        <v>11.2878749947044</v>
       </c>
       <c r="G1711" t="n">
         <v>-26.38439848054892</v>
@@ -55062,6 +55062,12 @@
       <c r="D1712" t="n">
         <v>15.46441428571427</v>
       </c>
+      <c r="E1712" t="n">
+        <v>-30.69632380311305</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>11.28136605150325</v>
+      </c>
       <c r="G1712" t="n">
         <v>-26.61785918846111</v>
       </c>
@@ -55088,6 +55094,12 @@
       <c r="D1713" t="n">
         <v>15.46424285714284</v>
       </c>
+      <c r="E1713" t="n">
+        <v>-30.96658121496905</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>11.27496378429838</v>
+      </c>
       <c r="G1713" t="n">
         <v>-26.85359559436812</v>
       </c>
@@ -55114,6 +55126,12 @@
       <c r="D1714" t="n">
         <v>15.46314069752911</v>
       </c>
+      <c r="E1714" t="n">
+        <v>-31.23902005144004</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>11.26866985513679</v>
+      </c>
       <c r="G1714" t="n">
         <v>-27.09160226922617</v>
       </c>
@@ -55140,6 +55158,12 @@
       <c r="D1715" t="n">
         <v>15.46017228247111</v>
       </c>
+      <c r="E1715" t="n">
+        <v>-31.51363432492638</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>11.26248592606552</v>
+      </c>
       <c r="G1715" t="n">
         <v>-27.3318737839915</v>
       </c>
@@ -55166,6 +55190,12 @@
       <c r="D1716" t="n">
         <v>15.45533761196885</v>
       </c>
+      <c r="E1716" t="n">
+        <v>-31.79041804782843</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>11.25641365913158</v>
+      </c>
       <c r="G1716" t="n">
         <v>-27.5744047096203</v>
       </c>
@@ -55192,6 +55222,12 @@
       <c r="D1717" t="n">
         <v>15.44863668602232</v>
       </c>
+      <c r="E1717" t="n">
+        <v>-32.06936523254655</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>11.250454716382</v>
+      </c>
       <c r="G1717" t="n">
         <v>-27.81918961706884</v>
       </c>
@@ -55218,6 +55254,12 @@
       <c r="D1718" t="n">
         <v>15.44006950463152</v>
       </c>
+      <c r="E1718" t="n">
+        <v>-32.35046989148108</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>11.24461075986379</v>
+      </c>
       <c r="G1718" t="n">
         <v>-28.06622307729332</v>
       </c>
@@ -55244,6 +55286,12 @@
       <c r="D1719" t="n">
         <v>15.42963606779646</v>
       </c>
+      <c r="E1719" t="n">
+        <v>-32.63372603703242</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>11.23888345162396</v>
+      </c>
       <c r="G1719" t="n">
         <v>-28.31549966124997</v>
       </c>
@@ -55270,6 +55318,12 @@
       <c r="D1720" t="n">
         <v>15.41733637551713</v>
       </c>
+      <c r="E1720" t="n">
+        <v>-32.91912768160087</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>11.23327445370956</v>
+      </c>
       <c r="G1720" t="n">
         <v>-28.56701393989501</v>
       </c>
@@ -55296,6 +55350,12 @@
       <c r="D1721" t="n">
         <v>15.40317042779354</v>
       </c>
+      <c r="E1721" t="n">
+        <v>-33.20666883758683</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>11.22778542816758</v>
+      </c>
       <c r="G1721" t="n">
         <v>-28.82076048418468</v>
       </c>
@@ -55316,6 +55376,12 @@
       <c r="D1722" t="n">
         <v>15.38713822462568</v>
       </c>
+      <c r="E1722" t="n">
+        <v>-33.49634351739064</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>11.22241803704507</v>
+      </c>
       <c r="G1722" t="n">
         <v>-29.07673386507519</v>
       </c>
@@ -55336,6 +55402,12 @@
       <c r="D1723" t="n">
         <v>15.36923976601355</v>
       </c>
+      <c r="E1723" t="n">
+        <v>-33.78814573341267</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>11.21717394238902</v>
+      </c>
       <c r="G1723" t="n">
         <v>-29.33492865352278</v>
       </c>
@@ -55356,6 +55428,12 @@
       <c r="D1724" t="n">
         <v>15.34947505195716</v>
       </c>
+      <c r="E1724" t="n">
+        <v>-34.08206949805327</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>11.21205480624647</v>
+      </c>
       <c r="G1724" t="n">
         <v>-29.59533942048366</v>
       </c>
@@ -55376,6 +55454,12 @@
       <c r="D1725" t="n">
         <v>15.3278440824565</v>
       </c>
+      <c r="E1725" t="n">
+        <v>-34.37810882371278</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>11.20706229066444</v>
+      </c>
       <c r="G1725" t="n">
         <v>-29.85796073691407</v>
       </c>
@@ -55396,6 +55480,12 @@
       <c r="D1726" t="n">
         <v>15.30434685751157</v>
       </c>
+      <c r="E1726" t="n">
+        <v>-34.6762577227916</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>11.20219805768993</v>
+      </c>
       <c r="G1726" t="n">
         <v>-30.12278717377023</v>
       </c>
@@ -55416,6 +55506,12 @@
       <c r="D1727" t="n">
         <v>15.29201657142845</v>
       </c>
+      <c r="E1727" t="n">
+        <v>-34.97651020769005</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>11.19746376936999</v>
+      </c>
       <c r="G1727" t="n">
         <v>-30.38981330200836</v>
       </c>
@@ -55436,6 +55532,12 @@
       <c r="D1728" t="n">
         <v>15.27747658226166</v>
       </c>
+      <c r="E1728" t="n">
+        <v>-35.2788602908085</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>11.19286108775162</v>
+      </c>
       <c r="G1728" t="n">
         <v>-30.65903369258469</v>
       </c>
@@ -55456,6 +55558,12 @@
       <c r="D1729" t="n">
         <v>15.26261028960712</v>
       </c>
+      <c r="E1729" t="n">
+        <v>-35.58330198454732</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>11.18839167488184</v>
+      </c>
       <c r="G1729" t="n">
         <v>-30.93044291645545</v>
       </c>
@@ -55476,6 +55584,12 @@
       <c r="D1730" t="n">
         <v>15.24744062962284</v>
       </c>
+      <c r="E1730" t="n">
+        <v>-35.88982930130685</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>11.18405719280768</v>
+      </c>
       <c r="G1730" t="n">
         <v>-31.20403554457685</v>
       </c>
@@ -55496,6 +55610,12 @@
       <c r="D1731" t="n">
         <v>15.23199053846682</v>
       </c>
+      <c r="E1731" t="n">
+        <v>-36.19843625348746</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>11.17985930357616</v>
+      </c>
       <c r="G1731" t="n">
         <v>-31.47980614790514</v>
       </c>
@@ -55516,6 +55636,12 @@
       <c r="D1732" t="n">
         <v>15.21628295229707</v>
       </c>
+      <c r="E1732" t="n">
+        <v>-36.5091168534895</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>11.17579966923429</v>
+      </c>
       <c r="G1732" t="n">
         <v>-31.75774929739653</v>
       </c>
@@ -55536,6 +55662,12 @@
       <c r="D1733" t="n">
         <v>15.2003408072716</v>
       </c>
+      <c r="E1733" t="n">
+        <v>-36.82186511371334</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>11.1718799518291</v>
+      </c>
       <c r="G1733" t="n">
         <v>-32.03785956400725</v>
       </c>
@@ -55556,6 +55688,12 @@
       <c r="D1734" t="n">
         <v>15.18418703954843</v>
       </c>
+      <c r="E1734" t="n">
+        <v>-37.13667504655932</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>11.16810181340761</v>
+      </c>
       <c r="G1734" t="n">
         <v>-32.3201315186935</v>
       </c>
@@ -55576,6 +55714,12 @@
       <c r="D1735" t="n">
         <v>15.16784458528554</v>
       </c>
+      <c r="E1735" t="n">
+        <v>-37.45354066442781</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>11.16446691601683</v>
+      </c>
       <c r="G1735" t="n">
         <v>-32.60455973241156</v>
       </c>
@@ -55596,6 +55740,12 @@
       <c r="D1736" t="n">
         <v>15.15133638064096</v>
       </c>
+      <c r="E1736" t="n">
+        <v>-37.77245597971915</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>11.1609769217038</v>
+      </c>
       <c r="G1736" t="n">
         <v>-32.89113877611761</v>
       </c>
@@ -55616,6 +55766,12 @@
       <c r="D1737" t="n">
         <v>15.13468536177269</v>
       </c>
+      <c r="E1737" t="n">
+        <v>-38.09341500483372</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>11.15763349251551</v>
+      </c>
       <c r="G1737" t="n">
         <v>-33.17986322076788</v>
       </c>
@@ -55636,6 +55792,12 @@
       <c r="D1738" t="n">
         <v>15.11791446483873</v>
       </c>
+      <c r="E1738" t="n">
+        <v>-38.41641175217188</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>11.15443829049901</v>
+      </c>
       <c r="G1738" t="n">
         <v>-33.47072763731861</v>
       </c>
@@ -55656,6 +55818,12 @@
       <c r="D1739" t="n">
         <v>15.1010466259971</v>
       </c>
+      <c r="E1739" t="n">
+        <v>-38.74144023413396</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>11.1513929777013</v>
+      </c>
       <c r="G1739" t="n">
         <v>-33.76372659672603</v>
       </c>
@@ -55676,6 +55844,12 @@
       <c r="D1740" t="n">
         <v>15.0841047814058</v>
       </c>
+      <c r="E1740" t="n">
+        <v>-39.06849446312035</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>11.14849921616942</v>
+      </c>
       <c r="G1740" t="n">
         <v>-34.05885466994634</v>
       </c>
@@ -55696,6 +55870,12 @@
       <c r="D1741" t="n">
         <v>15.06711186722284</v>
       </c>
+      <c r="E1741" t="n">
+        <v>-39.39756845153139</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>11.14575866795037</v>
+      </c>
       <c r="G1741" t="n">
         <v>-34.3561064279358</v>
       </c>
@@ -55716,6 +55896,12 @@
       <c r="D1742" t="n">
         <v>15.05009081960622</v>
       </c>
+      <c r="E1742" t="n">
+        <v>-39.72865621176744</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>11.14317299509118</v>
+      </c>
       <c r="G1742" t="n">
         <v>-34.65547644165061</v>
       </c>
@@ -55736,6 +55922,12 @@
       <c r="D1743" t="n">
         <v>15.03306457471396</v>
       </c>
+      <c r="E1743" t="n">
+        <v>-40.06175175622887</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>11.14074385963887</v>
+      </c>
       <c r="G1743" t="n">
         <v>-34.95695928204699</v>
       </c>
@@ -55756,6 +55948,12 @@
       <c r="D1744" t="n">
         <v>15.01605606870407</v>
       </c>
+      <c r="E1744" t="n">
+        <v>-40.39684909731601</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>11.13847292364045</v>
+      </c>
       <c r="G1744" t="n">
         <v>-35.26054952008119</v>
       </c>
@@ -55776,6 +55974,12 @@
       <c r="D1745" t="n">
         <v>14.99908823773454</v>
       </c>
+      <c r="E1745" t="n">
+        <v>-40.73394224742925</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>11.13636184914296</v>
+      </c>
       <c r="G1745" t="n">
         <v>-35.56624172670942</v>
       </c>
@@ -55796,6 +56000,12 @@
       <c r="D1746" t="n">
         <v>14.98218401796339</v>
       </c>
+      <c r="E1746" t="n">
+        <v>-41.07302521896892</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>11.13441229819341</v>
+      </c>
       <c r="G1746" t="n">
         <v>-35.87403047288791</v>
       </c>
@@ -55816,6 +56026,12 @@
       <c r="D1747" t="n">
         <v>14.96536634554862</v>
       </c>
+      <c r="E1747" t="n">
+        <v>-41.41409202433539</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>11.13262593283881</v>
+      </c>
       <c r="G1747" t="n">
         <v>-36.1839103295729</v>
       </c>
@@ -55836,6 +56052,12 @@
       <c r="D1748" t="n">
         <v>14.94865815664825</v>
       </c>
+      <c r="E1748" t="n">
+        <v>-41.75713667592903</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>11.1310044151262</v>
+      </c>
       <c r="G1748" t="n">
         <v>-36.49587586772058</v>
       </c>
@@ -55856,6 +56078,12 @@
       <c r="D1749" t="n">
         <v>14.93208238742027</v>
       </c>
+      <c r="E1749" t="n">
+        <v>-42.10215318615018</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>11.12954940710259</v>
+      </c>
       <c r="G1749" t="n">
         <v>-36.80992165828719</v>
       </c>
@@ -55876,6 +56104,12 @@
       <c r="D1750" t="n">
         <v>14.9156619740227</v>
       </c>
+      <c r="E1750" t="n">
+        <v>-42.4491355673992</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>11.12826257081499</v>
+      </c>
       <c r="G1750" t="n">
         <v>-37.12604227222896</v>
       </c>
@@ -55896,6 +56130,12 @@
       <c r="D1751" t="n">
         <v>14.89941985261355</v>
       </c>
+      <c r="E1751" t="n">
+        <v>-42.79807783207644</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>11.12714556831044</v>
+      </c>
       <c r="G1751" t="n">
         <v>-37.44423228050213</v>
       </c>
@@ -55916,6 +56156,12 @@
       <c r="D1752" t="n">
         <v>14.88337895935082</v>
       </c>
+      <c r="E1752" t="n">
+        <v>-43.1489739925823</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>11.12620006163595</v>
+      </c>
       <c r="G1752" t="n">
         <v>-37.76448625406292</v>
       </c>
@@ -55936,6 +56182,12 @@
       <c r="D1753" t="n">
         <v>14.86756223039252</v>
       </c>
+      <c r="E1753" t="n">
+        <v>-43.50181806131708</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>11.12542771283854</v>
+      </c>
       <c r="G1753" t="n">
         <v>-38.08679876386752</v>
       </c>
@@ -55956,6 +56208,12 @@
       <c r="D1754" t="n">
         <v>14.85199260189665</v>
       </c>
+      <c r="E1754" t="n">
+        <v>-43.85660405068118</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>11.12483018396524</v>
+      </c>
       <c r="G1754" t="n">
         <v>-38.4111643808722</v>
       </c>
@@ -55976,6 +56234,12 @@
       <c r="D1755" t="n">
         <v>14.83669301002123</v>
       </c>
+      <c r="E1755" t="n">
+        <v>-44.21332597307494</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>11.12440913706305</v>
+      </c>
       <c r="G1755" t="n">
         <v>-38.73757767603317</v>
       </c>
@@ -55990,6 +56254,12 @@
       <c r="D1756" t="n">
         <v>14.82168639092426</v>
       </c>
+      <c r="E1756" t="n">
+        <v>-44.57197784089873</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>11.124166234179</v>
+      </c>
       <c r="G1756" t="n">
         <v>-39.06603322030665</v>
       </c>
@@ -56004,6 +56274,12 @@
       <c r="D1757" t="n">
         <v>14.80699568076375</v>
       </c>
+      <c r="E1757" t="n">
+        <v>-44.9875</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>11.12430483871088</v>
+      </c>
       <c r="G1757" t="n">
         <v>-39.39652558464887</v>
       </c>
@@ -56018,6 +56294,12 @@
       <c r="D1758" t="n">
         <v>14.7926438156977</v>
       </c>
+      <c r="E1758" t="n">
+        <v>-45.375</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>11.12445483871088</v>
+      </c>
       <c r="G1758" t="n">
         <v>-39.72904934001605</v>
       </c>
@@ -56032,6 +56314,12 @@
       <c r="D1759" t="n">
         <v>14.77865373188413</v>
       </c>
+      <c r="E1759" t="n">
+        <v>-45.7625</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>11.12460483871088</v>
+      </c>
       <c r="G1759" t="n">
         <v>-40.06359905736443</v>
       </c>
@@ -56046,6 +56334,12 @@
       <c r="D1760" t="n">
         <v>14.76504836548104</v>
       </c>
+      <c r="E1760" t="n">
+        <v>-46.15000000000001</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>11.12475483871088</v>
+      </c>
       <c r="G1760" t="n">
         <v>-40.40016930765022</v>
       </c>
@@ -56060,6 +56354,12 @@
       <c r="D1761" t="n">
         <v>14.75185065264644</v>
       </c>
+      <c r="E1761" t="n">
+        <v>-46.5375</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>11.12490483871088</v>
+      </c>
       <c r="G1761" t="n">
         <v>-40.73875466182965</v>
       </c>
@@ -56074,6 +56374,12 @@
       <c r="D1762" t="n">
         <v>14.73908352953834</v>
       </c>
+      <c r="E1762" t="n">
+        <v>-46.925</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>11.12505483871088</v>
+      </c>
       <c r="G1762" t="n">
         <v>-41.07934969085893</v>
       </c>
@@ -56088,6 +56394,12 @@
       <c r="D1763" t="n">
         <v>14.72676993231474</v>
       </c>
+      <c r="E1763" t="n">
+        <v>-47.3125</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>11.12520483871088</v>
+      </c>
       <c r="G1763" t="n">
         <v>-41.42194896569432</v>
       </c>
@@ -56102,6 +56414,12 @@
       <c r="D1764" t="n">
         <v>14.71493279713366</v>
       </c>
+      <c r="E1764" t="n">
+        <v>-47.7</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>11.12535483871088</v>
+      </c>
       <c r="G1764" t="n">
         <v>-41.76654705729202</v>
       </c>
@@ -56116,6 +56434,12 @@
       <c r="D1765" t="n">
         <v>14.70359506015309</v>
       </c>
+      <c r="E1765" t="n">
+        <v>-48.08750000000001</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>11.12550483871088</v>
+      </c>
       <c r="G1765" t="n">
         <v>-42.11313853660828</v>
       </c>
@@ -56130,6 +56454,12 @@
       <c r="D1766" t="n">
         <v>14.69277965753105</v>
       </c>
+      <c r="E1766" t="n">
+        <v>-48.475</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>11.12565483871088</v>
+      </c>
       <c r="G1766" t="n">
         <v>-42.4617179745993</v>
       </c>
@@ -56144,6 +56474,12 @@
       <c r="D1767" t="n">
         <v>14.68250952542554</v>
       </c>
+      <c r="E1767" t="n">
+        <v>-48.8625</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>11.12580483871088</v>
+      </c>
       <c r="G1767" t="n">
         <v>-42.81227994222131</v>
       </c>
@@ -56158,6 +56494,12 @@
       <c r="D1768" t="n">
         <v>14.67280759999458</v>
       </c>
+      <c r="E1768" t="n">
+        <v>-49.25</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>11.12595483871088</v>
+      </c>
       <c r="G1768" t="n">
         <v>-43.16481901043053</v>
       </c>
@@ -56171,6 +56513,12 @@
       </c>
       <c r="D1769" t="n">
         <v>14.66369681739616</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>-49.6375</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>11.12610483871088</v>
       </c>
       <c r="G1769" t="n">
         <v>-43.51932975018322</v>

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:J1804"/>
+  <dimension ref="A4:J1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51619,10 +51619,10 @@
         <v>14.16207972160654</v>
       </c>
       <c r="I1604" t="n">
-        <v>0.7151121490983865</v>
+        <v>0.7050548773961551</v>
       </c>
       <c r="J1604" t="n">
-        <v>15.03841573886925</v>
+        <v>15.03910464138247</v>
       </c>
     </row>
     <row r="1605">
@@ -51651,10 +51651,10 @@
         <v>14.15411118458614</v>
       </c>
       <c r="I1605" t="n">
-        <v>0.3370124332721754</v>
+        <v>0.2981910082884849</v>
       </c>
       <c r="J1605" t="n">
-        <v>15.03614907598699</v>
+        <v>15.03890255602527</v>
       </c>
     </row>
     <row r="1606">
@@ -51683,10 +51683,10 @@
         <v>14.14578950056185</v>
       </c>
       <c r="I1606" t="n">
-        <v>-0.01001343319291015</v>
+        <v>-0.09630589303728754</v>
       </c>
       <c r="J1606" t="n">
-        <v>15.03194286849608</v>
+        <v>15.03813660107125</v>
       </c>
     </row>
     <row r="1607">
@@ -51715,10 +51715,10 @@
         <v>14.13711466953366</v>
       </c>
       <c r="I1607" t="n">
-        <v>-0.3259654502968709</v>
+        <v>-0.4784358265811628</v>
       </c>
       <c r="J1607" t="n">
-        <v>15.02579711639651</v>
+        <v>15.03680677652041</v>
       </c>
     </row>
     <row r="1608">
@@ -51747,10 +51747,10 @@
         <v>14.12808669150157</v>
       </c>
       <c r="I1608" t="n">
-        <v>-0.6108436180397062</v>
+        <v>-0.8481987923431409</v>
       </c>
       <c r="J1608" t="n">
-        <v>15.01771181968829</v>
+        <v>15.03491308237276</v>
       </c>
     </row>
     <row r="1609">
@@ -51779,10 +51779,10 @@
         <v>14.11870556646558</v>
       </c>
       <c r="I1609" t="n">
-        <v>-0.8646479364214164</v>
+        <v>-1.205594790323221</v>
       </c>
       <c r="J1609" t="n">
-        <v>15.00768697837141</v>
+        <v>15.03245551862829</v>
       </c>
     </row>
     <row r="1610">
@@ -51811,10 +51811,10 @@
         <v>14.1089712944257</v>
       </c>
       <c r="I1610" t="n">
-        <v>-1.087378405442001</v>
+        <v>-1.550623820521404</v>
       </c>
       <c r="J1610" t="n">
-        <v>14.99572259244589</v>
+        <v>15.029434085287</v>
       </c>
     </row>
     <row r="1611">
@@ -51843,10 +51843,10 @@
         <v>14.09888387538192</v>
       </c>
       <c r="I1611" t="n">
-        <v>-1.279035025101461</v>
+        <v>-1.88328588293769</v>
       </c>
       <c r="J1611" t="n">
-        <v>14.98181866191171</v>
+        <v>15.0258487823489</v>
       </c>
     </row>
     <row r="1612">
@@ -51875,10 +51875,10 @@
         <v>14.08844330933424</v>
       </c>
       <c r="I1612" t="n">
-        <v>-1.439617795399796</v>
+        <v>-2.203580977572078</v>
       </c>
       <c r="J1612" t="n">
-        <v>14.96597518676887</v>
+        <v>15.02169960981398</v>
       </c>
     </row>
     <row r="1613">
@@ -51907,10 +51907,10 @@
         <v>14.07764959628267</v>
       </c>
       <c r="I1613" t="n">
-        <v>-1.569126716337006</v>
+        <v>-2.511509104424569</v>
       </c>
       <c r="J1613" t="n">
-        <v>14.94819216701738</v>
+        <v>15.01698656768224</v>
       </c>
     </row>
     <row r="1614">
@@ -51939,10 +51939,10 @@
         <v>14.06650273622719</v>
       </c>
       <c r="I1614" t="n">
-        <v>-1.66756178791309</v>
+        <v>-2.807070263495162</v>
       </c>
       <c r="J1614" t="n">
-        <v>14.92846960265724</v>
+        <v>15.01170965595369</v>
       </c>
     </row>
     <row r="1615">
@@ -51971,10 +51971,10 @@
         <v>14.05500272916782</v>
       </c>
       <c r="I1615" t="n">
-        <v>-1.734923010128049</v>
+        <v>-3.090264454783858</v>
       </c>
       <c r="J1615" t="n">
-        <v>14.90680749368844</v>
+        <v>15.00586887462831</v>
       </c>
     </row>
     <row r="1616">
@@ -52003,10 +52003,10 @@
         <v>14.04314957510456</v>
       </c>
       <c r="I1616" t="n">
-        <v>-1.771210382981883</v>
+        <v>-3.361091678290657</v>
       </c>
       <c r="J1616" t="n">
-        <v>14.88320584011099</v>
+        <v>14.99946422370613</v>
       </c>
     </row>
     <row r="1617">
@@ -52035,10 +52035,10 @@
         <v>14.03094327403739</v>
       </c>
       <c r="I1617" t="n">
-        <v>-1.778032406015031</v>
+        <v>-3.619551934015558</v>
       </c>
       <c r="J1617" t="n">
-        <v>14.86849832706767</v>
+        <v>14.99249570318712</v>
       </c>
     </row>
     <row r="1618">
@@ -52067,10 +52067,10 @@
         <v>14.01838382596633</v>
       </c>
       <c r="I1618" t="n">
-        <v>-1.783872070859667</v>
+        <v>-3.865645221958562</v>
       </c>
       <c r="J1618" t="n">
-        <v>14.85373735236456</v>
+        <v>14.9849633130713</v>
       </c>
     </row>
     <row r="1619">
@@ -52099,10 +52099,10 @@
         <v>14.00547123089137</v>
       </c>
       <c r="I1619" t="n">
-        <v>-1.798443322199708</v>
+        <v>-4.099371542119669</v>
       </c>
       <c r="J1619" t="n">
-        <v>14.83860963060115</v>
+        <v>14.97686705335866</v>
       </c>
     </row>
     <row r="1620">
@@ -52131,10 +52131,10 @@
         <v>14.00072122580653</v>
       </c>
       <c r="I1620" t="n">
-        <v>-1.821695329437877</v>
+        <v>-4.320730894498877</v>
       </c>
       <c r="J1620" t="n">
-        <v>14.8231401233611</v>
+        <v>14.96820692404921</v>
       </c>
     </row>
     <row r="1621">
@@ -52163,10 +52163,10 @@
         <v>13.99313514464636</v>
       </c>
       <c r="I1621" t="n">
-        <v>-1.853577261976896</v>
+        <v>-4.529723279096189</v>
       </c>
       <c r="J1621" t="n">
-        <v>14.80735379222804</v>
+        <v>14.95898292514294</v>
       </c>
     </row>
     <row r="1622">
@@ -52195,10 +52195,10 @@
         <v>13.98544203755551</v>
       </c>
       <c r="I1622" t="n">
-        <v>-1.89403828921949</v>
+        <v>-4.726348695911602</v>
       </c>
       <c r="J1622" t="n">
-        <v>14.79127559878564</v>
+        <v>14.94919505663985</v>
       </c>
     </row>
     <row r="1623">
@@ -52227,10 +52227,10 @@
         <v>13.97764427938597</v>
       </c>
       <c r="I1623" t="n">
-        <v>-1.943027580568381</v>
+        <v>-4.91060714494512</v>
       </c>
       <c r="J1623" t="n">
-        <v>14.77493050461754</v>
+        <v>14.93884331853994</v>
       </c>
     </row>
     <row r="1624">
@@ -52259,10 +52259,10 @@
         <v>13.96974424498972</v>
       </c>
       <c r="I1624" t="n">
-        <v>-2.000494305426291</v>
+        <v>-5.082498626196738</v>
       </c>
       <c r="J1624" t="n">
-        <v>14.75834347130741</v>
+        <v>14.92792771084322</v>
       </c>
     </row>
     <row r="1625">
@@ -52291,10 +52291,10 @@
         <v>13.96174430921876</v>
       </c>
       <c r="I1625" t="n">
-        <v>-2.066387633195943</v>
+        <v>-5.24202313966646</v>
       </c>
       <c r="J1625" t="n">
-        <v>14.74153946043889</v>
+        <v>14.91644823354968</v>
       </c>
     </row>
     <row r="1626">
@@ -52323,10 +52323,10 @@
         <v>13.95364684692505</v>
       </c>
       <c r="I1626" t="n">
-        <v>-2.14065673328006</v>
+        <v>-5.389180685354285</v>
       </c>
       <c r="J1626" t="n">
-        <v>14.72454343359564</v>
+        <v>14.90440488665932</v>
       </c>
     </row>
     <row r="1627">
@@ -52355,10 +52355,10 @@
         <v>13.94545423296059</v>
       </c>
       <c r="I1627" t="n">
-        <v>-2.223250775081365</v>
+        <v>-5.523971263260211</v>
       </c>
       <c r="J1627" t="n">
-        <v>14.70738035236131</v>
+        <v>14.89179767017215</v>
       </c>
     </row>
     <row r="1628">
@@ -52387,10 +52387,10 @@
         <v>13.93716884217736</v>
       </c>
       <c r="I1628" t="n">
-        <v>-2.314118928002579</v>
+        <v>-5.646394873384241</v>
       </c>
       <c r="J1628" t="n">
-        <v>14.69007517831954</v>
+        <v>14.87862658408816</v>
       </c>
     </row>
     <row r="1629">
@@ -52419,10 +52419,10 @@
         <v>13.92879304942733</v>
       </c>
       <c r="I1629" t="n">
-        <v>-2.413210361446429</v>
+        <v>-5.756451515726373</v>
       </c>
       <c r="J1629" t="n">
-        <v>14.67265287305401</v>
+        <v>14.86489162840735</v>
       </c>
     </row>
     <row r="1630">
@@ -52451,10 +52451,10 @@
         <v>13.92032922956251</v>
       </c>
       <c r="I1630" t="n">
-        <v>-2.520474244815634</v>
+        <v>-5.854141190286609</v>
       </c>
       <c r="J1630" t="n">
-        <v>14.65513839814835</v>
+        <v>14.85059280312972</v>
       </c>
     </row>
     <row r="1631">
@@ -52483,10 +52483,10 @@
         <v>13.91177975743487</v>
       </c>
       <c r="I1631" t="n">
-        <v>-2.635859747512918</v>
+        <v>-5.939463897064945</v>
       </c>
       <c r="J1631" t="n">
-        <v>14.63755671518623</v>
+        <v>14.83573010825528</v>
       </c>
     </row>
     <row r="1632">
@@ -52515,10 +52515,10 @@
         <v>13.9031470078964</v>
       </c>
       <c r="I1632" t="n">
-        <v>-2.759316038941004</v>
+        <v>-6.012419636061386</v>
       </c>
       <c r="J1632" t="n">
-        <v>14.61993278575129</v>
+        <v>14.82030354378402</v>
       </c>
     </row>
     <row r="1633">
@@ -52547,10 +52547,10 @@
         <v>13.89443335579907</v>
       </c>
       <c r="I1633" t="n">
-        <v>-2.890792288502615</v>
+        <v>-6.073008407275928</v>
       </c>
       <c r="J1633" t="n">
-        <v>14.60229157142718</v>
+        <v>14.80431310971595</v>
       </c>
     </row>
     <row r="1634">
@@ -52579,10 +52579,10 @@
         <v>13.88564117599488</v>
       </c>
       <c r="I1634" t="n">
-        <v>-3.030237665600473</v>
+        <v>-6.121230210708574</v>
       </c>
       <c r="J1634" t="n">
-        <v>14.58465803379757</v>
+        <v>14.78775880605106</v>
       </c>
     </row>
     <row r="1635">
@@ -52611,10 +52611,10 @@
         <v>13.87677284333581</v>
       </c>
       <c r="I1635" t="n">
-        <v>-3.177601339637302</v>
+        <v>-6.15708504635932</v>
       </c>
       <c r="J1635" t="n">
-        <v>14.5670571344461</v>
+        <v>14.77064063278934</v>
       </c>
     </row>
     <row r="1636">
@@ -52643,10 +52643,10 @@
         <v>13.86783073267383</v>
       </c>
       <c r="I1636" t="n">
-        <v>-3.332832480015824</v>
+        <v>-6.180572914228171</v>
       </c>
       <c r="J1636" t="n">
-        <v>14.54951383495643</v>
+        <v>14.75295858993082</v>
       </c>
     </row>
     <row r="1637">
@@ -52675,10 +52675,10 @@
         <v>13.85881721886095</v>
       </c>
       <c r="I1637" t="n">
-        <v>-3.495880256138761</v>
+        <v>-6.191693814315125</v>
       </c>
       <c r="J1637" t="n">
-        <v>14.5320530969122</v>
+        <v>14.73471267747548</v>
       </c>
     </row>
     <row r="1638">
@@ -52707,10 +52707,10 @@
         <v>13.84973467674913</v>
       </c>
       <c r="I1638" t="n">
-        <v>-3.666693837408838</v>
+        <v>-6.192538531954879</v>
       </c>
       <c r="J1638" t="n">
-        <v>14.51469988189707</v>
+        <v>14.73009496240602</v>
       </c>
     </row>
     <row r="1639">
@@ -52739,10 +52739,10 @@
         <v>13.84058548119037</v>
       </c>
       <c r="I1639" t="n">
-        <v>-3.845222393228776</v>
+        <v>-6.195338347768057</v>
       </c>
       <c r="J1639" t="n">
-        <v>14.49747915149471</v>
+        <v>14.71947921923658</v>
       </c>
     </row>
     <row r="1640">
@@ -52771,10 +52771,10 @@
         <v>13.83137200703665</v>
       </c>
       <c r="I1640" t="n">
-        <v>-4.031415093001299</v>
+        <v>-6.201620697300469</v>
       </c>
       <c r="J1640" t="n">
-        <v>14.48041586728874</v>
+        <v>14.70875058151968</v>
       </c>
     </row>
     <row r="1641">
@@ -52803,10 +52803,10 @@
         <v>13.82209662913995</v>
       </c>
       <c r="I1641" t="n">
-        <v>-4.225221106129128</v>
+        <v>-6.21137743217981</v>
       </c>
       <c r="J1641" t="n">
-        <v>14.46353499086284</v>
+        <v>14.69791195205859</v>
       </c>
     </row>
     <row r="1642">
@@ -52835,10 +52835,10 @@
         <v>13.81276172235226</v>
       </c>
       <c r="I1642" t="n">
-        <v>-4.426589602014988</v>
+        <v>-6.224600404033778</v>
       </c>
       <c r="J1642" t="n">
-        <v>14.44686148380066</v>
+        <v>14.68696623365658</v>
       </c>
     </row>
     <row r="1643">
@@ -52867,10 +52867,10 @@
         <v>13.80336966152556</v>
       </c>
       <c r="I1643" t="n">
-        <v>-4.635469750061601</v>
+        <v>-6.241281464490069</v>
       </c>
       <c r="J1643" t="n">
-        <v>14.43042030768583</v>
+        <v>14.67591632911693</v>
       </c>
     </row>
     <row r="1644">
@@ -52899,10 +52899,10 @@
         <v>13.79392282151183</v>
       </c>
       <c r="I1644" t="n">
-        <v>-4.85181071967169</v>
+        <v>-6.261412465176382</v>
       </c>
       <c r="J1644" t="n">
-        <v>14.41423642410203</v>
+        <v>14.66476514124288</v>
       </c>
     </row>
     <row r="1645">
@@ -52931,10 +52931,10 @@
         <v>13.78442357716306</v>
       </c>
       <c r="I1645" t="n">
-        <v>-5.075561680247976</v>
+        <v>-6.284985257720415</v>
       </c>
       <c r="J1645" t="n">
-        <v>14.3983347946329</v>
+        <v>14.65351557283773</v>
       </c>
     </row>
     <row r="1646">
@@ -52963,10 +52963,10 @@
         <v>13.77487430333123</v>
       </c>
       <c r="I1646" t="n">
-        <v>-5.306671801193183</v>
+        <v>-6.311991693749863</v>
       </c>
       <c r="J1646" t="n">
-        <v>14.3827403808621</v>
+        <v>14.64217052670474</v>
       </c>
     </row>
     <row r="1647">
@@ -52995,10 +52995,10 @@
         <v>13.76527737486833</v>
       </c>
       <c r="I1647" t="n">
-        <v>-5.545090251910036</v>
+        <v>-6.342423624892428</v>
       </c>
       <c r="J1647" t="n">
-        <v>14.36747814437327</v>
+        <v>14.63073290564716</v>
       </c>
     </row>
     <row r="1648">
@@ -53027,10 +53027,10 @@
         <v>13.75563516662634</v>
       </c>
       <c r="I1648" t="n">
-        <v>-5.790766201801254</v>
+        <v>-6.376272902775801</v>
       </c>
       <c r="J1648" t="n">
-        <v>14.35257304675007</v>
+        <v>14.61920561246828</v>
       </c>
     </row>
     <row r="1649">
@@ -53059,10 +53059,10 @@
         <v>13.74595005345725</v>
       </c>
       <c r="I1649" t="n">
-        <v>-6.043648820269563</v>
+        <v>-6.413531379027685</v>
       </c>
       <c r="J1649" t="n">
-        <v>14.33805004957616</v>
+        <v>14.60759154997137</v>
       </c>
     </row>
     <row r="1650">
@@ -53091,10 +53091,10 @@
         <v>13.73622441021304</v>
       </c>
       <c r="I1650" t="n">
-        <v>-6.303687276717683</v>
+        <v>-6.454190905275773</v>
       </c>
       <c r="J1650" t="n">
-        <v>14.32393411443518</v>
+        <v>14.59589362095969</v>
       </c>
     </row>
     <row r="1651">
@@ -53123,10 +53123,10 @@
         <v>13.72646061174568</v>
       </c>
       <c r="I1651" t="n">
-        <v>-6.570830740548339</v>
+        <v>-6.498243333147768</v>
       </c>
       <c r="J1651" t="n">
-        <v>14.31025020291079</v>
+        <v>14.58411472823651</v>
       </c>
     </row>
     <row r="1652">
@@ -53155,10 +53155,10 @@
         <v>13.71666103290718</v>
       </c>
       <c r="I1652" t="n">
-        <v>-6.845028381164253</v>
+        <v>-6.545680514271362</v>
       </c>
       <c r="J1652" t="n">
-        <v>14.29702327658665</v>
+        <v>14.57225777460511</v>
       </c>
     </row>
     <row r="1653">
@@ -53187,10 +53187,10 @@
         <v>13.70682804854951</v>
       </c>
       <c r="I1653" t="n">
-        <v>-7.126229367968148</v>
+        <v>-6.596494300274255</v>
       </c>
       <c r="J1653" t="n">
-        <v>14.2842782970464</v>
+        <v>14.56032566286875</v>
       </c>
     </row>
     <row r="1654">
@@ -53219,10 +53219,10 @@
         <v>13.69696403352465</v>
       </c>
       <c r="I1654" t="n">
-        <v>-7.414382870362748</v>
+        <v>-6.650676542784144</v>
       </c>
       <c r="J1654" t="n">
-        <v>14.27204022587369</v>
+        <v>14.54832129583069</v>
       </c>
     </row>
     <row r="1655">
@@ -53251,10 +53251,10 @@
         <v>13.68707136268459</v>
       </c>
       <c r="I1655" t="n">
-        <v>-7.709438057750772</v>
+        <v>-6.708219093428726</v>
       </c>
       <c r="J1655" t="n">
-        <v>14.26033402465219</v>
+        <v>14.53624757629422</v>
       </c>
     </row>
     <row r="1656">
@@ -53283,10 +53283,10 @@
         <v>13.67715241088132</v>
       </c>
       <c r="I1656" t="n">
-        <v>-8.011344099534947</v>
+        <v>-6.769113803835699</v>
       </c>
       <c r="J1656" t="n">
-        <v>14.24918465496554</v>
+        <v>14.52410740706258</v>
       </c>
     </row>
     <row r="1657">
@@ -53315,10 +53315,10 @@
         <v>13.66720955296681</v>
       </c>
       <c r="I1657" t="n">
-        <v>-8.320050165117992</v>
+        <v>-6.833352525632759</v>
       </c>
       <c r="J1657" t="n">
-        <v>14.2386170783974</v>
+        <v>14.51190369093907</v>
       </c>
     </row>
     <row r="1658">
@@ -53347,10 +53347,10 @@
         <v>13.65724516379306</v>
       </c>
       <c r="I1658" t="n">
-        <v>-8.635505423902636</v>
+        <v>-6.900927110447608</v>
       </c>
       <c r="J1658" t="n">
-        <v>14.22865625653142</v>
+        <v>14.49963933072695</v>
       </c>
     </row>
     <row r="1659">
@@ -53379,10 +53379,10 @@
         <v>13.64726161821204</v>
       </c>
       <c r="I1659" t="n">
-        <v>-8.957659045291598</v>
+        <v>-6.971829409907936</v>
       </c>
       <c r="J1659" t="n">
-        <v>14.21932715095126</v>
+        <v>14.48731722922948</v>
       </c>
     </row>
     <row r="1660">
@@ -53411,10 +53411,10 @@
         <v>13.63726129107574</v>
       </c>
       <c r="I1660" t="n">
-        <v>-9.286460198687596</v>
+        <v>-7.046051275641449</v>
       </c>
       <c r="J1660" t="n">
-        <v>14.21065472324055</v>
+        <v>14.47494028924994</v>
       </c>
     </row>
     <row r="1661">
@@ -53443,10 +53443,10 @@
         <v>13.62724655723615</v>
       </c>
       <c r="I1661" t="n">
-        <v>-9.62185805349336</v>
+        <v>-7.123584559275834</v>
       </c>
       <c r="J1661" t="n">
-        <v>14.20266393498297</v>
+        <v>14.46251141359159</v>
       </c>
     </row>
     <row r="1662">
@@ -53475,10 +53475,10 @@
         <v>13.61721979154525</v>
       </c>
       <c r="I1662" t="n">
-        <v>-9.963801779111609</v>
+        <v>-7.204421112438801</v>
       </c>
       <c r="J1662" t="n">
-        <v>14.19537974776216</v>
+        <v>14.45003350505771</v>
       </c>
     </row>
     <row r="1663">
@@ -53507,10 +53507,10 @@
         <v>13.60718336885501</v>
       </c>
       <c r="I1663" t="n">
-        <v>-10.31224054494507</v>
+        <v>-7.288552786758035</v>
       </c>
       <c r="J1663" t="n">
-        <v>14.18882712316177</v>
+        <v>14.43750946645155</v>
       </c>
     </row>
     <row r="1664">
@@ -53539,10 +53539,10 @@
         <v>13.59713966401744</v>
       </c>
       <c r="I1664" t="n">
-        <v>-10.66712352039646</v>
+        <v>-7.375971433861244</v>
       </c>
       <c r="J1664" t="n">
-        <v>14.18303102276546</v>
+        <v>14.4249422005764</v>
       </c>
     </row>
     <row r="1665">
@@ -53571,10 +53571,10 @@
         <v>13.5870910518845</v>
       </c>
       <c r="I1665" t="n">
-        <v>-11.0283998748685</v>
+        <v>-7.466668905376117</v>
       </c>
       <c r="J1665" t="n">
-        <v>14.17801640815687</v>
+        <v>14.41233461023552</v>
       </c>
     </row>
     <row r="1666">
@@ -53603,10 +53603,10 @@
         <v>13.57703990730819</v>
       </c>
       <c r="I1666" t="n">
-        <v>-11.39601877776393</v>
+        <v>-7.560637052930355</v>
       </c>
       <c r="J1666" t="n">
-        <v>14.17380824091968</v>
+        <v>14.39968959823218</v>
       </c>
     </row>
     <row r="1667">
@@ -53635,10 +53635,10 @@
         <v>13.56698860514049</v>
       </c>
       <c r="I1667" t="n">
-        <v>-11.76992939848545</v>
+        <v>-7.657867728151658</v>
       </c>
       <c r="J1667" t="n">
-        <v>14.17043148263751</v>
+        <v>14.38701006736965</v>
       </c>
     </row>
     <row r="1668">
@@ -53667,10 +53667,10 @@
         <v>13.55693952023338</v>
       </c>
       <c r="I1668" t="n">
-        <v>-12.15008090643579</v>
+        <v>-7.758352782667719</v>
       </c>
       <c r="J1668" t="n">
-        <v>14.16791109489404</v>
+        <v>14.3742989204512</v>
       </c>
     </row>
     <row r="1669">
@@ -53699,10 +53699,10 @@
         <v>13.54689502743885</v>
       </c>
       <c r="I1669" t="n">
-        <v>-12.53642247101769</v>
+        <v>-7.862084068106238</v>
       </c>
       <c r="J1669" t="n">
-        <v>14.16627203927291</v>
+        <v>14.3615590602801</v>
       </c>
     </row>
     <row r="1670">
@@ -53731,10 +53731,10 @@
         <v>13.53685750160887</v>
       </c>
       <c r="I1670" t="n">
-        <v>-12.92890326163385</v>
+        <v>-7.96905343609491</v>
       </c>
       <c r="J1670" t="n">
-        <v>14.16553927735776</v>
+        <v>14.34879338965961</v>
       </c>
     </row>
     <row r="1671">
@@ -53763,10 +53763,10 @@
         <v>13.52682931759545</v>
       </c>
       <c r="I1671" t="n">
-        <v>-13.73428571428571</v>
+        <v>-8.079252738261436</v>
       </c>
       <c r="J1671" t="n">
-        <v>14.16503684210527</v>
+        <v>14.33600481139301</v>
       </c>
     </row>
     <row r="1672">
@@ -53795,10 +53795,10 @@
         <v>13.51681285025055</v>
       </c>
       <c r="I1672" t="n">
-        <v>-14.16857142857143</v>
+        <v>-8.192673826233513</v>
       </c>
       <c r="J1672" t="n">
-        <v>14.16437969924813</v>
+        <v>14.32319622828356</v>
       </c>
     </row>
     <row r="1673">
@@ -53827,10 +53827,10 @@
         <v>13.50681047442616</v>
       </c>
       <c r="I1673" t="n">
-        <v>-14.60285714285714</v>
+        <v>-8.309308551638837</v>
       </c>
       <c r="J1673" t="n">
-        <v>14.16372255639099</v>
+        <v>14.31037054313454</v>
       </c>
     </row>
     <row r="1674">
@@ -53859,10 +53859,10 @@
         <v>13.49682456497427</v>
       </c>
       <c r="I1674" t="n">
-        <v>-15.03714285714286</v>
+        <v>-8.429148766105103</v>
       </c>
       <c r="J1674" t="n">
-        <v>14.16306541353384</v>
+        <v>14.29753065874922</v>
       </c>
     </row>
     <row r="1675">
@@ -53891,10 +53891,10 @@
         <v>13.48685749674686</v>
       </c>
       <c r="I1675" t="n">
-        <v>-15.47142857142857</v>
+        <v>-8.552186321260011</v>
       </c>
       <c r="J1675" t="n">
-        <v>14.1624082706767</v>
+        <v>14.28467947793085</v>
       </c>
     </row>
     <row r="1676">
@@ -53923,10 +53923,10 @@
         <v>13.47691164459593</v>
       </c>
       <c r="I1676" t="n">
-        <v>-15.90571428571429</v>
+        <v>-8.67841306873126</v>
       </c>
       <c r="J1676" t="n">
-        <v>14.16175112781956</v>
+        <v>14.27181990348272</v>
       </c>
     </row>
     <row r="1677">
@@ -53955,10 +53955,10 @@
         <v>13.46698938337343</v>
       </c>
       <c r="I1677" t="n">
-        <v>-16.34</v>
+        <v>-8.807820860146546</v>
       </c>
       <c r="J1677" t="n">
-        <v>14.16109398496241</v>
+        <v>14.25895483820809</v>
       </c>
     </row>
     <row r="1678">
@@ -53987,10 +53987,10 @@
         <v>13.45709308793138</v>
       </c>
       <c r="I1678" t="n">
-        <v>-16.77428571428571</v>
+        <v>-8.940401547133561</v>
       </c>
       <c r="J1678" t="n">
-        <v>14.16043684210527</v>
+        <v>14.24608718491023</v>
       </c>
     </row>
     <row r="1679">
@@ -54019,10 +54019,10 @@
         <v>13.44722513312174</v>
       </c>
       <c r="I1679" t="n">
-        <v>-17.20857142857143</v>
+        <v>-9.076146981320012</v>
       </c>
       <c r="J1679" t="n">
-        <v>14.15977969924813</v>
+        <v>14.23321984639241</v>
       </c>
     </row>
     <row r="1680">
@@ -54051,10 +54051,10 @@
         <v>13.4373878937965</v>
       </c>
       <c r="I1680" t="n">
-        <v>-17.64285714285714</v>
+        <v>-9.215049014333591</v>
       </c>
       <c r="J1680" t="n">
-        <v>14.15912255639099</v>
+        <v>14.2203557254579</v>
       </c>
     </row>
     <row r="1681">
@@ -54083,10 +54083,10 @@
         <v>13.42758374480765</v>
       </c>
       <c r="I1681" t="n">
-        <v>-18.07714285714286</v>
+        <v>-9.357099497801997</v>
       </c>
       <c r="J1681" t="n">
-        <v>14.15846541353384</v>
+        <v>14.20749772490996</v>
       </c>
     </row>
     <row r="1682">
@@ -54115,10 +54115,10 @@
         <v>13.41781506100717</v>
       </c>
       <c r="I1682" t="n">
-        <v>-18.51142857142857</v>
+        <v>-9.502290283352927</v>
       </c>
       <c r="J1682" t="n">
-        <v>14.1578082706767</v>
+        <v>14.19464874755188</v>
       </c>
     </row>
     <row r="1683">
@@ -54147,10 +54147,10 @@
         <v>13.40808421724704</v>
       </c>
       <c r="I1683" t="n">
-        <v>-18.94571428571428</v>
+        <v>-9.650613222614076</v>
       </c>
       <c r="J1683" t="n">
-        <v>14.15715112781956</v>
+        <v>14.18181169618691</v>
       </c>
     </row>
     <row r="1684">
@@ -54179,10 +54179,10 @@
         <v>13.39839358837925</v>
       </c>
       <c r="I1684" t="n">
-        <v>-19.38</v>
+        <v>-9.802060167213146</v>
       </c>
       <c r="J1684" t="n">
-        <v>14.15649398496241</v>
+        <v>14.16898947361832</v>
       </c>
     </row>
     <row r="1685">
@@ -54211,10 +54211,10 @@
         <v>13.38874554925579</v>
       </c>
       <c r="I1685" t="n">
-        <v>-19.81428571428571</v>
+        <v>-9.956622968777829</v>
       </c>
       <c r="J1685" t="n">
-        <v>14.15583684210527</v>
+        <v>14.15618498264939</v>
       </c>
     </row>
     <row r="1686">
@@ -54243,10 +54243,10 @@
         <v>13.37914247472862</v>
       </c>
       <c r="I1686" t="n">
-        <v>-20.24857142857143</v>
+        <v>-10.11429347893583</v>
       </c>
       <c r="J1686" t="n">
-        <v>14.15517969924813</v>
+        <v>14.14340112608339</v>
       </c>
     </row>
     <row r="1687">
@@ -54275,10 +54275,10 @@
         <v>13.36958673964975</v>
       </c>
       <c r="I1687" t="n">
-        <v>-20.68285714285714</v>
+        <v>-10.27506354931484</v>
       </c>
       <c r="J1687" t="n">
-        <v>14.15452255639099</v>
+        <v>14.13064080672358</v>
       </c>
     </row>
     <row r="1688">
@@ -54307,10 +54307,10 @@
         <v>13.36008071887116</v>
       </c>
       <c r="I1688" t="n">
-        <v>-21.11714285714286</v>
+        <v>-10.43892503154256</v>
       </c>
       <c r="J1688" t="n">
-        <v>14.15386541353384</v>
+        <v>14.11790692737322</v>
       </c>
     </row>
     <row r="1689">
@@ -54339,10 +54339,10 @@
         <v>13.35062678724482</v>
       </c>
       <c r="I1689" t="n">
-        <v>-21.55142857142857</v>
+        <v>-10.60586977724668</v>
       </c>
       <c r="J1689" t="n">
-        <v>14.1532082706767</v>
+        <v>14.1052023908356</v>
       </c>
     </row>
     <row r="1690">
@@ -54371,10 +54371,10 @@
         <v>13.34122731962272</v>
       </c>
       <c r="I1690" t="n">
-        <v>-21.98571428571428</v>
+        <v>-10.77588963805491</v>
       </c>
       <c r="J1690" t="n">
-        <v>14.15255112781956</v>
+        <v>14.09253009991399</v>
       </c>
     </row>
     <row r="1691">
@@ -54403,10 +54403,10 @@
         <v>13.33188469085686</v>
       </c>
       <c r="I1691" t="n">
-        <v>-22.42</v>
+        <v>-10.94897646559494</v>
       </c>
       <c r="J1691" t="n">
-        <v>14.15189398496242</v>
+        <v>14.07989295741164</v>
       </c>
     </row>
     <row r="1692">
@@ -54435,10 +54435,10 @@
         <v>13.3226012757992</v>
       </c>
       <c r="I1692" t="n">
-        <v>-22.85428571428571</v>
+        <v>-11.12512211149446</v>
       </c>
       <c r="J1692" t="n">
-        <v>14.15123684210527</v>
+        <v>14.06729386613183</v>
       </c>
     </row>
     <row r="1693">
@@ -54467,10 +54467,10 @@
         <v>13.31337944930173</v>
       </c>
       <c r="I1693" t="n">
-        <v>-23.28857142857143</v>
+        <v>-11.30431842738118</v>
       </c>
       <c r="J1693" t="n">
-        <v>14.15057969924813</v>
+        <v>14.05473572887783</v>
       </c>
     </row>
     <row r="1694">
@@ -54499,10 +54499,10 @@
         <v>13.30422158621645</v>
       </c>
       <c r="I1694" t="n">
-        <v>-23.72285714285714</v>
+        <v>-11.48655726488279</v>
       </c>
       <c r="J1694" t="n">
-        <v>14.14992255639099</v>
+        <v>14.04222144845291</v>
       </c>
     </row>
     <row r="1695">
@@ -54531,10 +54531,10 @@
         <v>13.29513006139534</v>
       </c>
       <c r="I1695" t="n">
-        <v>-24.15714285714285</v>
+        <v>-11.671830475627</v>
       </c>
       <c r="J1695" t="n">
-        <v>14.14926541353384</v>
+        <v>14.02975392766033</v>
       </c>
     </row>
     <row r="1696">
@@ -54563,10 +54563,10 @@
         <v>13.28610724969036</v>
       </c>
       <c r="I1696" t="n">
-        <v>-24.59142857142857</v>
+        <v>-11.86012991124149</v>
       </c>
       <c r="J1696" t="n">
-        <v>14.1486082706767</v>
+        <v>14.01733606930337</v>
       </c>
     </row>
     <row r="1697">
@@ -54595,10 +54595,10 @@
         <v>13.27715552595352</v>
       </c>
       <c r="I1697" t="n">
-        <v>-25.02571428571428</v>
+        <v>-12.05144742335397</v>
       </c>
       <c r="J1697" t="n">
-        <v>14.14795112781956</v>
+        <v>14.0049707761853</v>
       </c>
     </row>
     <row r="1698">
@@ -54627,10 +54627,10 @@
         <v>13.26827726503679</v>
       </c>
       <c r="I1698" t="n">
-        <v>-25.46</v>
+        <v>-12.24577486359212</v>
       </c>
       <c r="J1698" t="n">
-        <v>14.14729398496242</v>
+        <v>13.99266095110937</v>
       </c>
     </row>
     <row r="1699">
@@ -54659,10 +54659,10 @@
         <v>13.25947484179217</v>
       </c>
       <c r="I1699" t="n">
-        <v>-25.89428571428571</v>
+        <v>-12.44310408358367</v>
       </c>
       <c r="J1699" t="n">
-        <v>14.14663684210527</v>
+        <v>13.98040949687888</v>
       </c>
     </row>
     <row r="1700">
@@ -54691,10 +54691,10 @@
         <v>13.25075063107163</v>
       </c>
       <c r="I1700" t="n">
-        <v>-26.32857142857143</v>
+        <v>-12.64342693495628</v>
       </c>
       <c r="J1700" t="n">
-        <v>14.14597969924813</v>
+        <v>13.96821931629707</v>
       </c>
     </row>
     <row r="1701">
@@ -54723,10 +54723,10 @@
         <v>13.24210700772715</v>
       </c>
       <c r="I1701" t="n">
-        <v>-26.76285714285714</v>
+        <v>-12.84673526933767</v>
       </c>
       <c r="J1701" t="n">
-        <v>14.14532255639099</v>
+        <v>13.95609331216723</v>
       </c>
     </row>
     <row r="1702">
@@ -54755,10 +54755,10 @@
         <v>13.23354634661073</v>
       </c>
       <c r="I1702" t="n">
-        <v>-27.19714285714285</v>
+        <v>-13.05302093835554</v>
       </c>
       <c r="J1702" t="n">
-        <v>14.14466541353384</v>
+        <v>13.94403438729261</v>
       </c>
     </row>
     <row r="1703">
@@ -54787,10 +54787,10 @@
         <v>13.22507102257434</v>
       </c>
       <c r="I1703" t="n">
-        <v>-27.63142857142857</v>
+        <v>-13.26227579363757</v>
       </c>
       <c r="J1703" t="n">
-        <v>14.1440082706767</v>
+        <v>13.93204544447651</v>
       </c>
     </row>
     <row r="1704">
@@ -54819,10 +54819,10 @@
         <v>13.21668341046997</v>
       </c>
       <c r="I1704" t="n">
-        <v>-28.06571428571428</v>
+        <v>-13.47449168681147</v>
       </c>
       <c r="J1704" t="n">
-        <v>14.14335112781956</v>
+        <v>13.92012938652216</v>
       </c>
     </row>
     <row r="1705">
@@ -54851,10 +54851,10 @@
         <v>13.20838588514961</v>
       </c>
       <c r="I1705" t="n">
-        <v>-28.5</v>
+        <v>-13.68966046950494</v>
       </c>
       <c r="J1705" t="n">
-        <v>14.14269398496242</v>
+        <v>13.90828911623286</v>
       </c>
     </row>
     <row r="1706">
@@ -54883,10 +54883,10 @@
         <v>13.20018082146523</v>
       </c>
       <c r="I1706" t="n">
-        <v>-28.93428571428571</v>
+        <v>-13.90777399334566</v>
       </c>
       <c r="J1706" t="n">
-        <v>14.14203684210527</v>
+        <v>13.89652753641186</v>
       </c>
     </row>
     <row r="1707">
@@ -54915,10 +54915,10 @@
         <v>13.19207059426883</v>
       </c>
       <c r="I1707" t="n">
-        <v>-29.36857142857142</v>
+        <v>-14.12882410996135</v>
       </c>
       <c r="J1707" t="n">
-        <v>14.14137969924813</v>
+        <v>13.88484754986244</v>
       </c>
     </row>
     <row r="1708">
@@ -54947,10 +54947,10 @@
         <v>13.18405757841238</v>
       </c>
       <c r="I1708" t="n">
-        <v>-29.80285714285714</v>
+        <v>-14.35280267097969</v>
       </c>
       <c r="J1708" t="n">
-        <v>14.14072255639099</v>
+        <v>13.87325205938787</v>
       </c>
     </row>
     <row r="1709">
@@ -54979,10 +54979,10 @@
         <v>13.17614414874788</v>
       </c>
       <c r="I1709" t="n">
-        <v>-30.23714285714285</v>
+        <v>-14.57970152802839</v>
       </c>
       <c r="J1709" t="n">
-        <v>14.14006541353384</v>
+        <v>13.86174396779141</v>
       </c>
     </row>
     <row r="1710">
@@ -55011,10 +55011,10 @@
         <v>13.16833268012729</v>
       </c>
       <c r="I1710" t="n">
-        <v>-30.67142857142857</v>
+        <v>-14.80951253273514</v>
       </c>
       <c r="J1710" t="n">
-        <v>14.1394082706767</v>
+        <v>13.85032617787634</v>
       </c>
     </row>
     <row r="1711">
@@ -55043,10 +55043,10 @@
         <v>13.16062554740262</v>
       </c>
       <c r="I1711" t="n">
-        <v>-31.10571428571428</v>
+        <v>-15.04222753672764</v>
       </c>
       <c r="J1711" t="n">
-        <v>14.13875112781956</v>
+        <v>13.83900159244592</v>
       </c>
     </row>
     <row r="1712">
@@ -55075,10 +55075,10 @@
         <v>13.15302512542584</v>
       </c>
       <c r="I1712" t="n">
-        <v>-31.54</v>
+        <v>-15.27783839163358</v>
       </c>
       <c r="J1712" t="n">
-        <v>14.13809398496242</v>
+        <v>13.82777311430342</v>
       </c>
     </row>
     <row r="1713">
@@ -55107,10 +55107,10 @@
         <v>13.14553378904893</v>
       </c>
       <c r="I1713" t="n">
-        <v>-31.97428571428571</v>
+        <v>-15.51633694908067</v>
       </c>
       <c r="J1713" t="n">
-        <v>14.13743684210527</v>
+        <v>13.81664364625212</v>
       </c>
     </row>
     <row r="1714">
@@ -55121,10 +55121,10 @@
         <v>13.93183388704359</v>
       </c>
       <c r="C1714" t="n">
-        <v>-25.44987430548393</v>
+        <v>-25.45636700220865</v>
       </c>
       <c r="D1714" t="n">
-        <v>15.46314069752911</v>
+        <v>15.46361567699769</v>
       </c>
       <c r="E1714" t="n">
         <v>-31.23902005144004</v>
@@ -55139,10 +55139,10 @@
         <v>13.13815391312389</v>
       </c>
       <c r="I1714" t="n">
-        <v>-32.40857142857142</v>
+        <v>-15.7577150606966</v>
       </c>
       <c r="J1714" t="n">
-        <v>14.13677969924813</v>
+        <v>13.80561609109527</v>
       </c>
     </row>
     <row r="1715">
@@ -55153,10 +55153,10 @@
         <v>13.93170531561502</v>
       </c>
       <c r="C1715" t="n">
-        <v>-25.82576633536578</v>
+        <v>-25.8507277757782</v>
       </c>
       <c r="D1715" t="n">
-        <v>15.46017228247111</v>
+        <v>15.46207260408403</v>
       </c>
       <c r="E1715" t="n">
         <v>-31.51363432492638</v>
@@ -55171,10 +55171,10 @@
         <v>13.13088787250269</v>
       </c>
       <c r="I1715" t="n">
-        <v>-32.84285714285714</v>
+        <v>-16.00196457810906</v>
       </c>
       <c r="J1715" t="n">
-        <v>14.13612255639099</v>
+        <v>13.79469335163616</v>
       </c>
     </row>
     <row r="1716">
@@ -55185,10 +55185,10 @@
         <v>13.93157674418645</v>
       </c>
       <c r="C1716" t="n">
-        <v>-26.17053323250267</v>
+        <v>-26.22593946356575</v>
       </c>
       <c r="D1716" t="n">
-        <v>15.45533761196885</v>
+        <v>15.45961363840185</v>
       </c>
       <c r="E1716" t="n">
         <v>-31.79041804782843</v>
@@ -55203,10 +55203,10 @@
         <v>13.12373804203732</v>
       </c>
       <c r="I1716" t="n">
-        <v>-33.27714285714285</v>
+        <v>-16.24907735294577</v>
       </c>
       <c r="J1716" t="n">
-        <v>14.13546541353384</v>
+        <v>13.78387833067805</v>
       </c>
     </row>
     <row r="1717">
@@ -55217,10 +55217,10 @@
         <v>13.93144817275788</v>
       </c>
       <c r="C1717" t="n">
-        <v>-26.48417499689461</v>
+        <v>-26.58200206557132</v>
       </c>
       <c r="D1717" t="n">
-        <v>15.44863668602232</v>
+        <v>15.45623877995116</v>
       </c>
       <c r="E1717" t="n">
         <v>-32.06936523254655</v>
@@ -55235,10 +55235,10 @@
         <v>13.11670679657977</v>
       </c>
       <c r="I1717" t="n">
-        <v>-33.71142857142857</v>
+        <v>-16.49904523683441</v>
       </c>
       <c r="J1717" t="n">
-        <v>14.1348082706767</v>
+        <v>13.7731739310242</v>
       </c>
     </row>
     <row r="1718">
@@ -55249,10 +55249,10 @@
         <v>13.93131960132931</v>
       </c>
       <c r="C1718" t="n">
-        <v>-26.76669162854159</v>
+        <v>-26.91891558179492</v>
       </c>
       <c r="D1718" t="n">
-        <v>15.44006950463152</v>
+        <v>15.45194802873196</v>
       </c>
       <c r="E1718" t="n">
         <v>-32.35046989148108</v>
@@ -55267,10 +55267,10 @@
         <v>13.109796510982</v>
       </c>
       <c r="I1718" t="n">
-        <v>-34.14571428571428</v>
+        <v>-16.75186008140268</v>
       </c>
       <c r="J1718" t="n">
-        <v>14.13415112781956</v>
+        <v>13.76258305547789</v>
       </c>
     </row>
     <row r="1719">
@@ -55281,10 +55281,10 @@
         <v>13.93119102990074</v>
       </c>
       <c r="C1719" t="n">
-        <v>-27.01808312744362</v>
+        <v>-27.23668001223653</v>
       </c>
       <c r="D1719" t="n">
-        <v>15.42963606779646</v>
+        <v>15.44674138474425</v>
       </c>
       <c r="E1719" t="n">
         <v>-32.63372603703242</v>
@@ -55299,10 +55299,10 @@
         <v>13.10300956009603</v>
       </c>
       <c r="I1719" t="n">
-        <v>-34.58</v>
+        <v>-17.00751373827828</v>
       </c>
       <c r="J1719" t="n">
-        <v>14.13349398496242</v>
+        <v>13.75210860684239</v>
       </c>
     </row>
     <row r="1720">
@@ -55313,10 +55313,10 @@
         <v>13.93106245847217</v>
       </c>
       <c r="C1720" t="n">
-        <v>-27.23834949360071</v>
+        <v>-27.53529535689617</v>
       </c>
       <c r="D1720" t="n">
-        <v>15.41733637551713</v>
+        <v>15.44061884798803</v>
       </c>
       <c r="E1720" t="n">
         <v>-32.91912768160087</v>
@@ -55331,10 +55331,10 @@
         <v>13.09634831877381</v>
       </c>
       <c r="I1720" t="n">
-        <v>-35.01428571428571</v>
+        <v>-17.2659980590889</v>
       </c>
       <c r="J1720" t="n">
-        <v>14.13283684210527</v>
+        <v>13.74175348792097</v>
       </c>
     </row>
     <row r="1721">
@@ -55345,10 +55345,10 @@
         <v>13.93093388704359</v>
       </c>
       <c r="C1721" t="n">
-        <v>-27.42749072701283</v>
+        <v>-27.81476161577383</v>
       </c>
       <c r="D1721" t="n">
-        <v>15.40317042779354</v>
+        <v>15.43358041846329</v>
       </c>
       <c r="E1721" t="n">
         <v>-33.20666883758683</v>
@@ -55363,18 +55363,18 @@
         <v>13.08981516186735</v>
       </c>
       <c r="I1721" t="n">
-        <v>-35.44857142857143</v>
+        <v>-17.52730489546224</v>
       </c>
       <c r="J1721" t="n">
-        <v>14.13217969924813</v>
+        <v>13.73152060151689</v>
       </c>
     </row>
     <row r="1722">
       <c r="C1722" t="n">
-        <v>-27.58550682768001</v>
+        <v>-28.0750787888695</v>
       </c>
       <c r="D1722" t="n">
-        <v>15.38713822462568</v>
+        <v>15.42562609617005</v>
       </c>
       <c r="E1722" t="n">
         <v>-33.49634351739064</v>
@@ -55389,18 +55389,18 @@
         <v>13.08341246422862</v>
       </c>
       <c r="I1722" t="n">
-        <v>-35.88285714285713</v>
+        <v>-17.79142609902601</v>
       </c>
       <c r="J1722" t="n">
-        <v>14.13152255639099</v>
+        <v>13.72141285043343</v>
       </c>
     </row>
     <row r="1723">
       <c r="C1723" t="n">
-        <v>-27.71239779560222</v>
+        <v>-28.31624687618319</v>
       </c>
       <c r="D1723" t="n">
-        <v>15.36923976601355</v>
+        <v>15.41675588110829</v>
       </c>
       <c r="E1723" t="n">
         <v>-33.78814573341267</v>
@@ -55415,18 +55415,18 @@
         <v>13.07714260070961</v>
       </c>
       <c r="I1723" t="n">
-        <v>-36.31714285714285</v>
+        <v>-18.05835352140789</v>
       </c>
       <c r="J1723" t="n">
-        <v>14.13086541353384</v>
+        <v>13.71143313747385</v>
       </c>
     </row>
     <row r="1724">
       <c r="C1724" t="n">
-        <v>-27.80816363077949</v>
+        <v>-28.53826587771491</v>
       </c>
       <c r="D1724" t="n">
-        <v>15.34947505195716</v>
+        <v>15.40696977327802</v>
       </c>
       <c r="E1724" t="n">
         <v>-34.08206949805327</v>
@@ -55441,18 +55441,18 @@
         <v>13.0710079461623</v>
       </c>
       <c r="I1724" t="n">
-        <v>-36.75142857142856</v>
+        <v>-18.3280790142356</v>
       </c>
       <c r="J1724" t="n">
-        <v>14.1302082706767</v>
+        <v>13.70158436544143</v>
       </c>
     </row>
     <row r="1725">
       <c r="C1725" t="n">
-        <v>-27.8728043332118</v>
+        <v>-28.74113579346464</v>
       </c>
       <c r="D1725" t="n">
-        <v>15.3278440824565</v>
+        <v>15.39626777267924</v>
       </c>
       <c r="E1725" t="n">
         <v>-34.37810882371278</v>
@@ -55467,18 +55467,18 @@
         <v>13.06501087543867</v>
       </c>
       <c r="I1725" t="n">
-        <v>-37.18571428571428</v>
+        <v>-18.60059442913681</v>
       </c>
       <c r="J1725" t="n">
-        <v>14.12955112781956</v>
+        <v>13.69186943713942</v>
       </c>
     </row>
     <row r="1726">
       <c r="C1726" t="n">
-        <v>-27.90631990289916</v>
+        <v>-28.9248566234324</v>
       </c>
       <c r="D1726" t="n">
-        <v>15.30434685751157</v>
+        <v>15.38464987931195</v>
       </c>
       <c r="E1726" t="n">
         <v>-34.6762577227916</v>
@@ -55493,18 +55493,18 @@
         <v>13.05915376339072</v>
       </c>
       <c r="I1726" t="n">
-        <v>-37.61999999999999</v>
+        <v>-18.87589161773924</v>
       </c>
       <c r="J1726" t="n">
-        <v>14.12889398496242</v>
+        <v>13.68229125537111</v>
       </c>
     </row>
     <row r="1727">
       <c r="C1727" t="n">
-        <v>-27.91139428571429</v>
+        <v>-29.08942836761818</v>
       </c>
       <c r="D1727" t="n">
-        <v>15.29201657142845</v>
+        <v>15.37211609317614</v>
       </c>
       <c r="E1727" t="n">
         <v>-34.97651020769005</v>
@@ -55519,18 +55519,18 @@
         <v>13.05343898487042</v>
       </c>
       <c r="I1727" t="n">
-        <v>-38.05428571428571</v>
+        <v>-19.15396243167056</v>
       </c>
       <c r="J1727" t="n">
-        <v>14.12823684210527</v>
+        <v>13.67285272293976</v>
       </c>
     </row>
     <row r="1728">
       <c r="C1728" t="n">
-        <v>-27.9172209325851</v>
+        <v>-29.23485102602197</v>
       </c>
       <c r="D1728" t="n">
-        <v>15.27747658226166</v>
+        <v>15.35866641427182</v>
       </c>
       <c r="E1728" t="n">
         <v>-35.2788602908085</v>
@@ -55545,18 +55545,18 @@
         <v>13.04786891472975</v>
       </c>
       <c r="I1728" t="n">
-        <v>-38.48857142857142</v>
+        <v>-19.4347987225585</v>
       </c>
       <c r="J1728" t="n">
-        <v>14.12757969924813</v>
+        <v>13.66355674264864</v>
       </c>
     </row>
     <row r="1729">
       <c r="C1729" t="n">
-        <v>-27.93179284931052</v>
+        <v>-29.36112459864378</v>
       </c>
       <c r="D1729" t="n">
-        <v>15.26261028960712</v>
+        <v>15.34430084259899</v>
       </c>
       <c r="E1729" t="n">
         <v>-35.58330198454732</v>
@@ -55571,18 +55571,18 @@
         <v>13.04244592782071</v>
       </c>
       <c r="I1729" t="n">
-        <v>-38.92285714285714</v>
+        <v>-19.71839234203074</v>
       </c>
       <c r="J1729" t="n">
-        <v>14.12692255639099</v>
+        <v>13.65440621730102</v>
       </c>
     </row>
     <row r="1730">
       <c r="C1730" t="n">
-        <v>-27.95505875767118</v>
+        <v>-29.46824908548361</v>
       </c>
       <c r="D1730" t="n">
-        <v>15.24744062962284</v>
+        <v>15.32901937815766</v>
       </c>
       <c r="E1730" t="n">
         <v>-35.88982930130685</v>
@@ -55597,18 +55597,18 @@
         <v>13.03717239899528</v>
       </c>
       <c r="I1730" t="n">
-        <v>-39.35714285714285</v>
+        <v>-20.00473514171498</v>
       </c>
       <c r="J1730" t="n">
-        <v>14.12626541353384</v>
+        <v>13.64540404970017</v>
       </c>
     </row>
     <row r="1731">
       <c r="C1731" t="n">
-        <v>-27.98696737944764</v>
+        <v>-29.55622448654147</v>
       </c>
       <c r="D1731" t="n">
-        <v>15.23199053846682</v>
+        <v>15.3128220209478</v>
       </c>
       <c r="E1731" t="n">
         <v>-36.19843625348746</v>
@@ -55623,18 +55623,18 @@
         <v>13.03205070310543</v>
       </c>
       <c r="I1731" t="n">
-        <v>-39.79142857142857</v>
+        <v>-20.29381897323892</v>
       </c>
       <c r="J1731" t="n">
-        <v>14.1256082706767</v>
+        <v>13.63655314264935</v>
       </c>
     </row>
     <row r="1732">
       <c r="C1732" t="n">
-        <v>-28.02746743642052</v>
+        <v>-29.62505080181735</v>
       </c>
       <c r="D1732" t="n">
-        <v>15.21628295229707</v>
+        <v>15.29570877096944</v>
       </c>
       <c r="E1732" t="n">
         <v>-36.5091168534895</v>
@@ -55649,18 +55649,18 @@
         <v>13.02708321500316</v>
       </c>
       <c r="I1732" t="n">
-        <v>-40.22571428571428</v>
+        <v>-20.58563568823025</v>
       </c>
       <c r="J1732" t="n">
-        <v>14.12495112781956</v>
+        <v>13.62785639895184</v>
       </c>
     </row>
     <row r="1733">
       <c r="C1733" t="n">
-        <v>-28.07650765037038</v>
+        <v>-29.67472803131124</v>
       </c>
       <c r="D1733" t="n">
-        <v>15.2003408072716</v>
+        <v>15.27767962822256</v>
       </c>
       <c r="E1733" t="n">
         <v>-36.82186511371334</v>
@@ -55675,18 +55675,18 @@
         <v>13.02227230954045</v>
       </c>
       <c r="I1733" t="n">
-        <v>-40.66</v>
+        <v>-20.88017713831668</v>
       </c>
       <c r="J1733" t="n">
-        <v>14.12429398496242</v>
+        <v>13.61931672141091</v>
       </c>
     </row>
     <row r="1734">
       <c r="C1734" t="n">
-        <v>-28.13403674307785</v>
+        <v>-29.70525617502315</v>
       </c>
       <c r="D1734" t="n">
-        <v>15.18418703954843</v>
+        <v>15.25873459270718</v>
       </c>
       <c r="E1734" t="n">
         <v>-37.13667504655932</v>
@@ -55701,18 +55701,18 @@
         <v>13.01762036156928</v>
       </c>
       <c r="I1734" t="n">
-        <v>-41.0942857142857</v>
+        <v>-21.17743517512589</v>
       </c>
       <c r="J1734" t="n">
-        <v>14.12363684210527</v>
+        <v>13.61093701282982</v>
       </c>
     </row>
     <row r="1735">
       <c r="C1735" t="n">
-        <v>-28.20000343632352</v>
+        <v>-29.71661257142858</v>
       </c>
       <c r="D1735" t="n">
-        <v>15.16784458528554</v>
+        <v>15.23911371428556</v>
       </c>
       <c r="E1735" t="n">
         <v>-37.45354066442781</v>
@@ -55727,18 +55727,18 @@
         <v>13.01312974594164</v>
       </c>
       <c r="I1735" t="n">
-        <v>-41.52857142857142</v>
+        <v>-21.47740165028559</v>
       </c>
       <c r="J1735" t="n">
-        <v>14.12297969924813</v>
+        <v>13.60272017601185</v>
       </c>
     </row>
     <row r="1736">
       <c r="C1736" t="n">
-        <v>-28.27435645188796</v>
+        <v>-29.72046188121621</v>
       </c>
       <c r="D1736" t="n">
-        <v>15.15133638064096</v>
+        <v>15.22753788228295</v>
       </c>
       <c r="E1736" t="n">
         <v>-37.77245597971915</v>
@@ -55753,18 +55753,18 @@
         <v>13.0088028375095</v>
       </c>
       <c r="I1736" t="n">
-        <v>-41.96285714285713</v>
+        <v>-21.78006841542348</v>
       </c>
       <c r="J1736" t="n">
-        <v>14.12232255639099</v>
+        <v>13.59466911376025</v>
       </c>
     </row>
     <row r="1737">
       <c r="C1737" t="n">
-        <v>-28.35704451155179</v>
+        <v>-29.72969837803709</v>
       </c>
       <c r="D1737" t="n">
-        <v>15.13468536177269</v>
+        <v>15.21579875970455</v>
       </c>
       <c r="E1737" t="n">
         <v>-38.09341500483372</v>
@@ -55779,18 +55779,18 @@
         <v>13.00464201112487</v>
       </c>
       <c r="I1737" t="n">
-        <v>-42.39714285714285</v>
+        <v>-22.08542732216725</v>
       </c>
       <c r="J1737" t="n">
-        <v>14.12166541353384</v>
+        <v>13.58678672887832</v>
       </c>
     </row>
     <row r="1738">
       <c r="C1738" t="n">
-        <v>-28.44801633709559</v>
+        <v>-29.74430248334224</v>
       </c>
       <c r="D1738" t="n">
-        <v>15.11791446483873</v>
+        <v>15.20390320405409</v>
       </c>
       <c r="E1738" t="n">
         <v>-38.41641175217188</v>
@@ -55805,18 +55805,18 @@
         <v>13.00064964163971</v>
       </c>
       <c r="I1738" t="n">
-        <v>-42.83142857142856</v>
+        <v>-22.39347022214459</v>
       </c>
       <c r="J1738" t="n">
-        <v>14.1210082706767</v>
+        <v>13.5790759241693</v>
       </c>
     </row>
     <row r="1739">
       <c r="C1739" t="n">
-        <v>-28.54722065029996</v>
+        <v>-29.76425461858268</v>
       </c>
       <c r="D1739" t="n">
-        <v>15.1010466259971</v>
+        <v>15.19185807283526</v>
       </c>
       <c r="E1739" t="n">
         <v>-38.74144023413396</v>
@@ -55831,18 +55831,18 @@
         <v>12.99682810390602</v>
       </c>
       <c r="I1739" t="n">
-        <v>-43.26571428571428</v>
+        <v>-22.70418896698322</v>
       </c>
       <c r="J1739" t="n">
-        <v>14.12035112781956</v>
+        <v>13.57153960243648</v>
       </c>
     </row>
     <row r="1740">
       <c r="C1740" t="n">
-        <v>-28.65460617294549</v>
+        <v>-29.78953520520942</v>
       </c>
       <c r="D1740" t="n">
-        <v>15.0841047814058</v>
+        <v>15.17967022355181</v>
       </c>
       <c r="E1740" t="n">
         <v>-39.06849446312035</v>
@@ -55857,18 +55857,18 @@
         <v>12.99317977277577</v>
       </c>
       <c r="I1740" t="n">
-        <v>-43.69999999999999</v>
+        <v>-23.01757540831082</v>
       </c>
       <c r="J1740" t="n">
-        <v>14.11969398496242</v>
+        <v>13.56418066648311</v>
       </c>
     </row>
     <row r="1741">
       <c r="C1741" t="n">
-        <v>-28.77012162681278</v>
+        <v>-29.82012466467349</v>
       </c>
       <c r="D1741" t="n">
-        <v>15.06711186722284</v>
+        <v>15.16734651370743</v>
       </c>
       <c r="E1741" t="n">
         <v>-39.39756845153139</v>
@@ -55883,18 +55883,18 @@
         <v>12.98970702310095</v>
       </c>
       <c r="I1741" t="n">
-        <v>-44.13428571428571</v>
+        <v>-23.33362139775509</v>
       </c>
       <c r="J1741" t="n">
-        <v>14.11903684210527</v>
+        <v>13.55700201911248</v>
       </c>
     </row>
     <row r="1742">
       <c r="C1742" t="n">
-        <v>-28.89371573368242</v>
+        <v>-29.8560034184259</v>
       </c>
       <c r="D1742" t="n">
-        <v>15.05009081960622</v>
+        <v>15.15489380080585</v>
       </c>
       <c r="E1742" t="n">
         <v>-39.72865621176744</v>
@@ -55909,18 +55909,18 @@
         <v>12.98641222973355</v>
       </c>
       <c r="I1742" t="n">
-        <v>-44.56857142857142</v>
+        <v>-23.65231878694373</v>
       </c>
       <c r="J1742" t="n">
-        <v>14.11837969924813</v>
+        <v>13.55000656312784</v>
       </c>
     </row>
     <row r="1743">
       <c r="C1743" t="n">
-        <v>-29.02533721533501</v>
+        <v>-29.89715188791767</v>
       </c>
       <c r="D1743" t="n">
-        <v>15.03306457471396</v>
+        <v>15.14231894235079</v>
       </c>
       <c r="E1743" t="n">
         <v>-40.06175175622887</v>
@@ -55935,18 +55935,18 @@
         <v>12.98329776752554</v>
       </c>
       <c r="I1743" t="n">
-        <v>-45.00285714285714</v>
+        <v>-23.97365942750443</v>
       </c>
       <c r="J1743" t="n">
-        <v>14.11772255639099</v>
+        <v>13.54319720133247</v>
       </c>
     </row>
     <row r="1744">
       <c r="C1744" t="n">
-        <v>-29.16493479355114</v>
+        <v>-29.94355049459983</v>
       </c>
       <c r="D1744" t="n">
-        <v>15.01605606870407</v>
+        <v>15.12962879584595</v>
       </c>
       <c r="E1744" t="n">
         <v>-40.39684909731601</v>
@@ -55961,18 +55961,18 @@
         <v>12.98036601132893</v>
       </c>
       <c r="I1744" t="n">
-        <v>-45.43714285714285</v>
+        <v>-24.2976351710649</v>
       </c>
       <c r="J1744" t="n">
-        <v>14.11706541353384</v>
+        <v>13.53657683652964</v>
       </c>
     </row>
     <row r="1745">
       <c r="C1745" t="n">
-        <v>-29.31245719011139</v>
+        <v>-29.99517965992339</v>
       </c>
       <c r="D1745" t="n">
-        <v>14.99908823773454</v>
+        <v>15.11683021879507</v>
       </c>
       <c r="E1745" t="n">
         <v>-40.73394224742925</v>
@@ -55987,18 +55987,18 @@
         <v>12.97761933599567</v>
       </c>
       <c r="I1745" t="n">
-        <v>-45.87142857142857</v>
+        <v>-24.62423786925284</v>
       </c>
       <c r="J1745" t="n">
-        <v>14.1164082706767</v>
+        <v>13.53014837152261</v>
       </c>
     </row>
     <row r="1746">
       <c r="C1746" t="n">
-        <v>-29.46785312679638</v>
+        <v>-30.05201980533937</v>
       </c>
       <c r="D1746" t="n">
-        <v>14.98218401796339</v>
+        <v>15.10393006870185</v>
       </c>
       <c r="E1746" t="n">
         <v>-41.07302521896892</v>
@@ -56013,18 +56013,18 @@
         <v>12.97506011637778</v>
       </c>
       <c r="I1746" t="n">
-        <v>-46.30571428571427</v>
+        <v>-24.95345937369593</v>
       </c>
       <c r="J1746" t="n">
-        <v>14.11575112781956</v>
+        <v>13.52391470911466</v>
       </c>
     </row>
     <row r="1747">
       <c r="C1747" t="n">
-        <v>-29.6310713253867</v>
+        <v>-30.11405135229879</v>
       </c>
       <c r="D1747" t="n">
-        <v>14.96536634554862</v>
+        <v>15.09093520307002</v>
       </c>
       <c r="E1747" t="n">
         <v>-41.41409202433539</v>
@@ -56039,18 +56039,18 @@
         <v>12.97269072732721</v>
       </c>
       <c r="I1747" t="n">
-        <v>-46.73999999999999</v>
+        <v>-25.28529153602187</v>
       </c>
       <c r="J1747" t="n">
-        <v>14.11509398496242</v>
+        <v>13.51787875210905</v>
       </c>
     </row>
     <row r="1748">
       <c r="C1748" t="n">
-        <v>-29.80206050766293</v>
+        <v>-30.18125472225266</v>
       </c>
       <c r="D1748" t="n">
-        <v>14.94865815664825</v>
+        <v>15.07785247940329</v>
       </c>
       <c r="E1748" t="n">
         <v>-41.75713667592903</v>
@@ -56065,18 +56065,18 @@
         <v>12.97051354369597</v>
       </c>
       <c r="I1748" t="n">
-        <v>-47.1742857142857</v>
+        <v>-25.61972620785838</v>
       </c>
       <c r="J1748" t="n">
-        <v>14.11443684210527</v>
+        <v>13.51204340330906</v>
       </c>
     </row>
     <row r="1749">
       <c r="C1749" t="n">
-        <v>-29.98076939540568</v>
+        <v>-30.25361033665203</v>
       </c>
       <c r="D1749" t="n">
-        <v>14.93208238742027</v>
+        <v>15.06468875520538</v>
       </c>
       <c r="E1749" t="n">
         <v>-42.10215318615018</v>
@@ -56091,18 +56091,18 @@
         <v>12.96853094033603</v>
       </c>
       <c r="I1749" t="n">
-        <v>-47.60857142857142</v>
+        <v>-25.95675524083313</v>
       </c>
       <c r="J1749" t="n">
-        <v>14.11377969924813</v>
+        <v>13.50641156551795</v>
       </c>
     </row>
     <row r="1750">
       <c r="C1750" t="n">
-        <v>-30.16714671039553</v>
+        <v>-30.33109861694788</v>
       </c>
       <c r="D1750" t="n">
-        <v>14.9156619740227</v>
+        <v>15.05145088798</v>
       </c>
       <c r="E1750" t="n">
         <v>-42.4491355673992</v>
@@ -56117,18 +56117,18 @@
         <v>12.96674529209938</v>
       </c>
       <c r="I1750" t="n">
-        <v>-48.04285714285713</v>
+        <v>-26.29637048657383</v>
       </c>
       <c r="J1750" t="n">
-        <v>14.11312255639099</v>
+        <v>13.50098614153899</v>
       </c>
     </row>
     <row r="1751">
       <c r="C1751" t="n">
-        <v>-30.36114117441308</v>
+        <v>-30.41369998459126</v>
       </c>
       <c r="D1751" t="n">
-        <v>14.89941985261355</v>
+        <v>15.03814573523088</v>
       </c>
       <c r="E1751" t="n">
         <v>-42.79807783207644</v>
@@ -56143,18 +56143,18 @@
         <v>12.96515897383799</v>
       </c>
       <c r="I1751" t="n">
-        <v>-48.47714285714285</v>
+        <v>-26.63856379670817</v>
       </c>
       <c r="J1751" t="n">
-        <v>14.11246541353384</v>
+        <v>13.49577003417545</v>
       </c>
     </row>
     <row r="1752">
       <c r="C1752" t="n">
-        <v>-30.56270150923892</v>
+        <v>-30.50139486103316</v>
       </c>
       <c r="D1752" t="n">
-        <v>14.88337895935082</v>
+        <v>15.02478015446172</v>
       </c>
       <c r="E1752" t="n">
         <v>-43.1489739925823</v>
@@ -56169,18 +56169,18 @@
         <v>12.96377436040387</v>
       </c>
       <c r="I1752" t="n">
-        <v>-48.91142857142856</v>
+        <v>-26.98332702286386</v>
       </c>
       <c r="J1752" t="n">
-        <v>14.1118082706767</v>
+        <v>13.49076614623061</v>
       </c>
     </row>
     <row r="1753">
       <c r="C1753" t="n">
-        <v>-30.77177643665366</v>
+        <v>-30.59416366772463</v>
       </c>
       <c r="D1753" t="n">
-        <v>14.86756223039252</v>
+        <v>15.01136100317626</v>
       </c>
       <c r="E1753" t="n">
         <v>-43.50181806131708</v>
@@ -56195,18 +56195,18 @@
         <v>12.96259382664898</v>
       </c>
       <c r="I1753" t="n">
-        <v>-49.34571428571428</v>
+        <v>-27.33065201666859</v>
       </c>
       <c r="J1753" t="n">
-        <v>14.11115112781956</v>
+        <v>13.48597738050772</v>
       </c>
     </row>
     <row r="1754">
       <c r="C1754" t="n">
-        <v>-30.98831467843788</v>
+        <v>-30.69198682611667</v>
       </c>
       <c r="D1754" t="n">
-        <v>14.85199260189665</v>
+        <v>14.9978951388782</v>
       </c>
       <c r="E1754" t="n">
         <v>-43.85660405068118</v>
@@ -56221,18 +56221,18 @@
         <v>12.96161974742532</v>
       </c>
       <c r="I1754" t="n">
-        <v>-49.77999999999999</v>
+        <v>-27.68053062975006</v>
       </c>
       <c r="J1754" t="n">
-        <v>14.11049398496242</v>
+        <v>13.48140663981006</v>
       </c>
     </row>
     <row r="1755">
       <c r="C1755" t="n">
-        <v>-31.21226495637218</v>
+        <v>-30.79484475766031</v>
       </c>
       <c r="D1755" t="n">
-        <v>14.83669301002123</v>
+        <v>14.98438941907127</v>
       </c>
       <c r="E1755" t="n">
         <v>-44.21332597307494</v>
@@ -56246,13 +56246,19 @@
       <c r="H1755" t="n">
         <v>12.96085449758487</v>
       </c>
+      <c r="I1755" t="n">
+        <v>-28.03295471373597</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>13.4770568269409</v>
+      </c>
     </row>
     <row r="1756">
       <c r="C1756" t="n">
-        <v>-31.44357599223715</v>
+        <v>-30.90271788380655</v>
       </c>
       <c r="D1756" t="n">
-        <v>14.82168639092426</v>
+        <v>14.97085070125916</v>
       </c>
       <c r="E1756" t="n">
         <v>-44.57197784089873</v>
@@ -56266,13 +56272,19 @@
       <c r="H1756" t="n">
         <v>12.96030045197961</v>
       </c>
+      <c r="I1756" t="n">
+        <v>-28.387916120254</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>13.47293084470351</v>
+      </c>
     </row>
     <row r="1757">
       <c r="C1757" t="n">
-        <v>-31.68219650781339</v>
+        <v>-31.01558662600644</v>
       </c>
       <c r="D1757" t="n">
-        <v>14.80699568076375</v>
+        <v>14.95728584294563</v>
       </c>
       <c r="E1757" t="n">
         <v>-44.9875</v>
@@ -56286,13 +56298,19 @@
       <c r="H1757" t="n">
         <v>12.95995998546153</v>
       </c>
+      <c r="I1757" t="n">
+        <v>-28.74540670093186</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>13.46903159590116</v>
+      </c>
     </row>
     <row r="1758">
       <c r="C1758" t="n">
-        <v>-31.92807522488148</v>
+        <v>-31.13343140571096</v>
       </c>
       <c r="D1758" t="n">
-        <v>14.7926438156977</v>
+        <v>14.94370170163436</v>
       </c>
       <c r="E1758" t="n">
         <v>-45.375</v>
@@ -56306,13 +56324,19 @@
       <c r="H1758" t="n">
         <v>12.95983547288261</v>
       </c>
+      <c r="I1758" t="n">
+        <v>-29.10541830739726</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>13.46536198333711</v>
+      </c>
     </row>
     <row r="1759">
       <c r="C1759" t="n">
-        <v>-32.18116086522204</v>
+        <v>-31.25623264437116</v>
       </c>
       <c r="D1759" t="n">
-        <v>14.77865373188413</v>
+        <v>14.93010513482908</v>
       </c>
       <c r="E1759" t="n">
         <v>-45.7625</v>
@@ -56326,13 +56350,19 @@
       <c r="H1759" t="n">
         <v>12.95992928909483</v>
       </c>
+      <c r="I1759" t="n">
+        <v>-29.46794279127788</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>13.46192490981463</v>
+      </c>
     </row>
     <row r="1760">
       <c r="C1760" t="n">
-        <v>-32.44140215061564</v>
+        <v>-31.38397076343806</v>
       </c>
       <c r="D1760" t="n">
-        <v>14.76504836548104</v>
+        <v>14.91650300003352</v>
       </c>
       <c r="E1760" t="n">
         <v>-46.15000000000001</v>
@@ -56346,13 +56376,19 @@
       <c r="H1760" t="n">
         <v>12.96024380895018</v>
       </c>
+      <c r="I1760" t="n">
+        <v>-29.83297200420142</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>13.458723278137</v>
+      </c>
     </row>
     <row r="1761">
       <c r="C1761" t="n">
-        <v>-32.70874780284289</v>
+        <v>-31.51662618436265</v>
       </c>
       <c r="D1761" t="n">
-        <v>14.75185065264644</v>
+        <v>14.90290215475137</v>
       </c>
       <c r="E1761" t="n">
         <v>-46.5375</v>
@@ -56366,13 +56402,19 @@
       <c r="H1761" t="n">
         <v>12.96078140730065</v>
       </c>
+      <c r="I1761" t="n">
+        <v>-30.20049779779559</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>13.45575999110748</v>
+      </c>
     </row>
     <row r="1762">
       <c r="C1762" t="n">
-        <v>-32.98314654368438</v>
+        <v>-31.65417932859598</v>
       </c>
       <c r="D1762" t="n">
-        <v>14.73908352953834</v>
+        <v>14.88930945648638</v>
       </c>
       <c r="E1762" t="n">
         <v>-46.925</v>
@@ -56386,13 +56428,19 @@
       <c r="H1762" t="n">
         <v>12.96154445899821</v>
       </c>
+      <c r="I1762" t="n">
+        <v>-30.57051202368807</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>13.45303795152934</v>
+      </c>
     </row>
     <row r="1763">
       <c r="C1763" t="n">
-        <v>-33.2645470949207</v>
+        <v>-31.79661061758906</v>
       </c>
       <c r="D1763" t="n">
-        <v>14.72676993231474</v>
+        <v>14.87573176274224</v>
       </c>
       <c r="E1763" t="n">
         <v>-47.3125</v>
@@ -56406,13 +56454,19 @@
       <c r="H1763" t="n">
         <v>12.96253533889485</v>
       </c>
+      <c r="I1763" t="n">
+        <v>-30.94300653350656</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>13.45056006220586</v>
+      </c>
     </row>
     <row r="1764">
       <c r="C1764" t="n">
-        <v>-33.55289817833245</v>
+        <v>-31.9439004727929</v>
       </c>
       <c r="D1764" t="n">
-        <v>14.71493279713366</v>
+        <v>14.86217593102268</v>
       </c>
       <c r="E1764" t="n">
         <v>-47.7</v>
@@ -56426,13 +56480,19 @@
       <c r="H1764" t="n">
         <v>12.96375642184256</v>
       </c>
+      <c r="I1764" t="n">
+        <v>-31.31797317887878</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>13.4483292259403</v>
+      </c>
     </row>
     <row r="1765">
       <c r="C1765" t="n">
-        <v>-33.84814851570022</v>
+        <v>-32.09602931565853</v>
       </c>
       <c r="D1765" t="n">
-        <v>14.70359506015309</v>
+        <v>14.84864881883141</v>
       </c>
       <c r="E1765" t="n">
         <v>-48.08750000000001</v>
@@ -56446,13 +56506,19 @@
       <c r="H1765" t="n">
         <v>12.96521008269331</v>
       </c>
+      <c r="I1765" t="n">
+        <v>-31.69540381143239</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>13.44634834553592</v>
+      </c>
     </row>
     <row r="1766">
       <c r="C1766" t="n">
-        <v>-34.15024682880461</v>
+        <v>-32.25297756763696</v>
       </c>
       <c r="D1766" t="n">
-        <v>14.69277965753105</v>
+        <v>14.83515728367216</v>
       </c>
       <c r="E1766" t="n">
         <v>-48.475</v>
@@ -56466,13 +56532,19 @@
       <c r="H1766" t="n">
         <v>12.9668986962991</v>
       </c>
+      <c r="I1766" t="n">
+        <v>-32.07529028279512</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>13.44462032379601</v>
+      </c>
     </row>
     <row r="1767">
       <c r="C1767" t="n">
-        <v>-34.4591418394262</v>
+        <v>-32.41472565017922</v>
       </c>
       <c r="D1767" t="n">
-        <v>14.68250952542554</v>
+        <v>14.82170818304864</v>
       </c>
       <c r="E1767" t="n">
         <v>-48.8625</v>
@@ -56486,13 +56558,19 @@
       <c r="H1767" t="n">
         <v>12.96882463751191</v>
       </c>
+      <c r="I1767" t="n">
+        <v>-32.45762444459466</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>13.44314806352382</v>
+      </c>
     </row>
     <row r="1768">
       <c r="C1768" t="n">
-        <v>-34.77478226934561</v>
+        <v>-32.58125398473632</v>
       </c>
       <c r="D1768" t="n">
-        <v>14.67280759999458</v>
+        <v>14.80830837446456</v>
       </c>
       <c r="E1768" t="n">
         <v>-49.25</v>
@@ -56506,13 +56584,19 @@
       <c r="H1768" t="n">
         <v>12.97099028118372</v>
       </c>
+      <c r="I1768" t="n">
+        <v>-32.84239814845868</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>13.44193446752263</v>
+      </c>
     </row>
     <row r="1769">
       <c r="C1769" t="n">
-        <v>-35.0971168403434</v>
+        <v>-32.75254299275928</v>
       </c>
       <c r="D1769" t="n">
-        <v>14.66369681739616</v>
+        <v>14.79496471542364</v>
       </c>
       <c r="E1769" t="n">
         <v>-49.6375</v>
@@ -56526,13 +56610,19 @@
       <c r="H1769" t="n">
         <v>12.97339800216652</v>
       </c>
+      <c r="I1769" t="n">
+        <v>-33.22960324601491</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>13.44098243859571</v>
+      </c>
     </row>
     <row r="1770">
       <c r="C1770" t="n">
-        <v>-35.4260942742002</v>
+        <v>-32.92857309569913</v>
       </c>
       <c r="D1770" t="n">
-        <v>14.6552001137883</v>
+        <v>14.78168406342961</v>
       </c>
       <c r="G1770" t="n">
         <v>-43.87580673243555</v>
@@ -56540,13 +56630,19 @@
       <c r="H1770" t="n">
         <v>12.97605017531228</v>
       </c>
+      <c r="I1770" t="n">
+        <v>-33.61923158889105</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>13.44029487954632</v>
+      </c>
     </row>
     <row r="1771">
       <c r="C1771" t="n">
-        <v>-35.76166329269659</v>
+        <v>-33.10932471500687</v>
       </c>
       <c r="D1771" t="n">
-        <v>14.647340425329</v>
+        <v>14.76847327598618</v>
       </c>
       <c r="G1771" t="n">
         <v>-44.23424452814379</v>
@@ -56554,13 +56650,19 @@
       <c r="H1771" t="n">
         <v>12.978949175473</v>
       </c>
+      <c r="I1771" t="n">
+        <v>-34.01127502871476</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>13.43987469317774</v>
+      </c>
     </row>
     <row r="1772">
       <c r="C1772" t="n">
-        <v>-36.10377261761315</v>
+        <v>-33.29477827213354</v>
       </c>
       <c r="D1772" t="n">
-        <v>14.64014068817628</v>
+        <v>14.75533921059706</v>
       </c>
       <c r="G1772" t="n">
         <v>-44.7875</v>
@@ -56568,13 +56670,19 @@
       <c r="H1772" t="n">
         <v>12.97699314516173</v>
       </c>
+      <c r="I1772" t="n">
+        <v>-34.40572541711379</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>13.43972478229323</v>
+      </c>
     </row>
     <row r="1773">
       <c r="C1773" t="n">
-        <v>-36.4523709707305</v>
+        <v>-33.48491418853014</v>
       </c>
       <c r="D1773" t="n">
-        <v>14.63362383848813</v>
+        <v>14.74228872476597</v>
       </c>
       <c r="G1773" t="n">
         <v>-45.175</v>
@@ -56582,13 +56690,19 @@
       <c r="H1773" t="n">
         <v>12.97361814516174</v>
       </c>
+      <c r="I1773" t="n">
+        <v>-34.80257460571579</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>13.43984804969607</v>
+      </c>
     </row>
     <row r="1774">
       <c r="C1774" t="n">
-        <v>-36.80740707382922</v>
+        <v>-33.6797128856477</v>
       </c>
       <c r="D1774" t="n">
-        <v>14.62781281242258</v>
+        <v>14.72932867599664</v>
       </c>
       <c r="G1774" t="n">
         <v>-45.5625</v>
@@ -56596,13 +56710,19 @@
       <c r="H1774" t="n">
         <v>12.97024314516174</v>
       </c>
+      <c r="I1774" t="n">
+        <v>-35.20181444614848</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>13.44024739818952</v>
+      </c>
     </row>
     <row r="1775">
       <c r="C1775" t="n">
-        <v>-37.16882964868989</v>
+        <v>-33.87915478493724</v>
       </c>
       <c r="D1775" t="n">
-        <v>14.62273054613761</v>
+        <v>14.71646592179277</v>
       </c>
       <c r="G1775" t="n">
         <v>-45.95</v>
@@ -56610,13 +56730,19 @@
       <c r="H1775" t="n">
         <v>12.96686814516174</v>
       </c>
+      <c r="I1775" t="n">
+        <v>-35.73428571428571</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>13.4397305451128</v>
+      </c>
     </row>
     <row r="1776">
       <c r="C1776" t="n">
-        <v>-37.53658741709313</v>
+        <v>-34.08322030784979</v>
       </c>
       <c r="D1776" t="n">
-        <v>14.61839997579125</v>
+        <v>14.70370731965809</v>
       </c>
       <c r="G1776" t="n">
         <v>-46.3375</v>
@@ -56624,13 +56750,19 @@
       <c r="H1776" t="n">
         <v>12.96349314516174</v>
       </c>
+      <c r="I1776" t="n">
+        <v>-36.16857142857143</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>13.43907340225566</v>
+      </c>
     </row>
     <row r="1777">
       <c r="C1777" t="n">
-        <v>-37.91062910081952</v>
+        <v>-34.29188987583633</v>
       </c>
       <c r="D1777" t="n">
-        <v>14.61484403754149</v>
+        <v>14.6910597270963</v>
       </c>
       <c r="G1777" t="n">
         <v>-46.725</v>
@@ -56638,13 +56770,19 @@
       <c r="H1777" t="n">
         <v>12.96011814516174</v>
       </c>
+      <c r="I1777" t="n">
+        <v>-36.60285714285714</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>13.43841625939852</v>
+      </c>
     </row>
     <row r="1778">
       <c r="C1778" t="n">
-        <v>-38.29090342164967</v>
+        <v>-34.50514391034793</v>
       </c>
       <c r="D1778" t="n">
-        <v>14.61208566754635</v>
+        <v>14.67853000161114</v>
       </c>
       <c r="G1778" t="n">
         <v>-47.1125</v>
@@ -56652,13 +56790,19 @@
       <c r="H1778" t="n">
         <v>12.95674314516174</v>
       </c>
+      <c r="I1778" t="n">
+        <v>-37.03714285714285</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>13.43775911654137</v>
+      </c>
     </row>
     <row r="1779">
       <c r="C1779" t="n">
-        <v>-38.67735910136415</v>
+        <v>-34.72296283283557</v>
       </c>
       <c r="D1779" t="n">
-        <v>14.61014780196384</v>
+        <v>14.66612500070632</v>
       </c>
       <c r="G1779" t="n">
         <v>-47.5</v>
@@ -56666,13 +56810,19 @@
       <c r="H1779" t="n">
         <v>12.95336814516174</v>
       </c>
+      <c r="I1779" t="n">
+        <v>-37.47142857142857</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>13.43710197368423</v>
+      </c>
     </row>
     <row r="1780">
       <c r="C1780" t="n">
-        <v>-39.06994486174357</v>
+        <v>-34.94532706475029</v>
       </c>
       <c r="D1780" t="n">
-        <v>14.60905337695196</v>
+        <v>14.65385158188555</v>
       </c>
       <c r="G1780" t="n">
         <v>-47.8875</v>
@@ -56680,13 +56830,19 @@
       <c r="H1780" t="n">
         <v>12.94999314516174</v>
       </c>
+      <c r="I1780" t="n">
+        <v>-37.90571428571428</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>13.43644483082709</v>
+      </c>
     </row>
     <row r="1781">
       <c r="C1781" t="n">
-        <v>-39.72857142857143</v>
+        <v>-35.1722170275431</v>
       </c>
       <c r="D1781" t="n">
-        <v>14.60898571428516</v>
+        <v>14.64171660265254</v>
       </c>
       <c r="G1781" t="n">
         <v>-48.275</v>
@@ -56694,13 +56850,19 @@
       <c r="H1781" t="n">
         <v>12.94661814516174</v>
       </c>
+      <c r="I1781" t="n">
+        <v>-38.34</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>13.43578768796995</v>
+      </c>
     </row>
     <row r="1782">
       <c r="C1782" t="n">
-        <v>-40.15714285714285</v>
+        <v>-35.40361314266501</v>
       </c>
       <c r="D1782" t="n">
-        <v>14.60915714285659</v>
+        <v>14.62972692051103</v>
       </c>
       <c r="G1782" t="n">
         <v>-48.6625</v>
@@ -56708,13 +56870,19 @@
       <c r="H1782" t="n">
         <v>12.94324314516174</v>
       </c>
+      <c r="I1782" t="n">
+        <v>-38.77428571428571</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>13.4351305451128</v>
+      </c>
     </row>
     <row r="1783">
       <c r="C1783" t="n">
-        <v>-40.58571428571428</v>
+        <v>-35.63949583156706</v>
       </c>
       <c r="D1783" t="n">
-        <v>14.60932857142802</v>
+        <v>14.61788939296472</v>
       </c>
       <c r="G1783" t="n">
         <v>-49.05</v>
@@ -56722,13 +56890,19 @@
       <c r="H1783" t="n">
         <v>12.93986814516175</v>
       </c>
+      <c r="I1783" t="n">
+        <v>-39.20857142857142</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>13.43447340225566</v>
+      </c>
     </row>
     <row r="1784">
       <c r="C1784" t="n">
-        <v>-41.01428571428571</v>
+        <v>-35.87984551570027</v>
       </c>
       <c r="D1784" t="n">
-        <v>14.60949999999945</v>
+        <v>14.60621087751734</v>
       </c>
       <c r="G1784" t="n">
         <v>-49.4375</v>
@@ -56736,13 +56910,19 @@
       <c r="H1784" t="n">
         <v>12.93649314516175</v>
       </c>
+      <c r="I1784" t="n">
+        <v>-39.64285714285714</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>13.43381625939852</v>
+      </c>
     </row>
     <row r="1785">
       <c r="C1785" t="n">
-        <v>-41.44285714285714</v>
+        <v>-36.12464261651564</v>
       </c>
       <c r="D1785" t="n">
-        <v>14.60967142857088</v>
+        <v>14.5946982316726</v>
       </c>
       <c r="G1785" t="n">
         <v>-49.825</v>
@@ -56750,157 +56930,463 @@
       <c r="H1785" t="n">
         <v>12.93311814516175</v>
       </c>
+      <c r="I1785" t="n">
+        <v>-40.07714285714285</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>13.43315911654137</v>
+      </c>
     </row>
     <row r="1786">
       <c r="C1786" t="n">
-        <v>-41.87142857142857</v>
+        <v>-36.3738675554642</v>
       </c>
       <c r="D1786" t="n">
-        <v>14.60984285714231</v>
+        <v>14.58335831293421</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>-40.51142857142857</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>13.43250197368423</v>
       </c>
     </row>
     <row r="1787">
       <c r="C1787" t="n">
-        <v>-42.3</v>
+        <v>-36.62750075399697</v>
       </c>
       <c r="D1787" t="n">
-        <v>14.61001428571373</v>
+        <v>14.5721979788059</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>-40.94571428571428</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>13.43184483082709</v>
       </c>
     </row>
     <row r="1788">
       <c r="C1788" t="n">
-        <v>-42.72857142857143</v>
+        <v>-36.88552263356497</v>
       </c>
       <c r="D1788" t="n">
-        <v>14.61018571428516</v>
+        <v>14.56122408679138</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>-41.38</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>13.43118768796995</v>
       </c>
     </row>
     <row r="1789">
       <c r="C1789" t="n">
-        <v>-43.15714285714285</v>
+        <v>-37.1479136156192</v>
       </c>
       <c r="D1789" t="n">
-        <v>14.61035714285659</v>
+        <v>14.55044349439437</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>-41.81428571428571</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>13.4305305451128</v>
       </c>
     </row>
     <row r="1790">
       <c r="C1790" t="n">
-        <v>-43.58571428571428</v>
+        <v>-37.41465412161071</v>
       </c>
       <c r="D1790" t="n">
-        <v>14.61052857142802</v>
+        <v>14.53986305911858</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>-42.24857142857142</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>13.42987340225566</v>
       </c>
     </row>
     <row r="1791">
       <c r="C1791" t="n">
-        <v>-44.01428571428571</v>
+        <v>-37.6857245729905</v>
       </c>
       <c r="D1791" t="n">
-        <v>14.61069999999945</v>
+        <v>14.52948963846774</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>-42.68285714285714</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>13.42921625939852</v>
       </c>
     </row>
     <row r="1792">
       <c r="C1792" t="n">
-        <v>-44.44285714285714</v>
+        <v>-37.9611053912096</v>
       </c>
       <c r="D1792" t="n">
-        <v>14.61087142857088</v>
+        <v>14.51933008994556</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>-43.11714285714285</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>13.42855911654137</v>
       </c>
     </row>
     <row r="1793">
       <c r="C1793" t="n">
-        <v>-44.87142857142857</v>
+        <v>-38.24077699771902</v>
       </c>
       <c r="D1793" t="n">
-        <v>14.61104285714231</v>
+        <v>14.50939127105575</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>-43.55142857142857</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>13.42790197368423</v>
       </c>
     </row>
     <row r="1794">
       <c r="C1794" t="n">
-        <v>-45.3</v>
+        <v>-38.52471981396978</v>
       </c>
       <c r="D1794" t="n">
-        <v>14.61121428571374</v>
+        <v>14.49968003930205</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>-43.98571428571428</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>13.42724483082709</v>
       </c>
     </row>
     <row r="1795">
       <c r="C1795" t="n">
-        <v>-45.72857142857143</v>
+        <v>-38.8129142614129</v>
       </c>
       <c r="D1795" t="n">
-        <v>14.61138571428516</v>
+        <v>14.49020325218815</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>-44.41999999999999</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>13.42658768796995</v>
       </c>
     </row>
     <row r="1796">
       <c r="C1796" t="n">
-        <v>-46.15714285714285</v>
+        <v>-39.10534076149941</v>
       </c>
       <c r="D1796" t="n">
-        <v>14.61155714285659</v>
+        <v>14.48096776721779</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>-44.85428571428571</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>13.4259305451128</v>
       </c>
     </row>
     <row r="1797">
       <c r="C1797" t="n">
-        <v>-46.58571428571428</v>
+        <v>-39.40197973568031</v>
       </c>
       <c r="D1797" t="n">
-        <v>14.61172857142802</v>
+        <v>14.47198044189467</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>-45.28857142857142</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>13.42527340225566</v>
       </c>
     </row>
     <row r="1798">
       <c r="C1798" t="n">
-        <v>-47.01428571428571</v>
+        <v>-39.70281160540662</v>
       </c>
       <c r="D1798" t="n">
-        <v>14.61189999999945</v>
+        <v>14.46324813372252</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>-45.72285714285714</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>13.42461625939852</v>
       </c>
     </row>
     <row r="1799">
       <c r="C1799" t="n">
-        <v>-47.44285714285714</v>
+        <v>-40.00781679212939</v>
       </c>
       <c r="D1799" t="n">
-        <v>14.61207142857088</v>
+        <v>14.45477770020505</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>-46.15714285714285</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>13.42395911654137</v>
       </c>
     </row>
     <row r="1800">
       <c r="C1800" t="n">
-        <v>-47.87142857142857</v>
+        <v>-40.3169757172996</v>
       </c>
       <c r="D1800" t="n">
-        <v>14.61224285714231</v>
+        <v>14.44657599884597</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>-46.59142857142857</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>13.42330197368423</v>
       </c>
     </row>
     <row r="1801">
       <c r="C1801" t="n">
-        <v>-48.3</v>
+        <v>-40.63026880236829</v>
       </c>
       <c r="D1801" t="n">
-        <v>14.61241428571374</v>
+        <v>14.43864988714902</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>-47.02571428571428</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>13.42264483082709</v>
       </c>
     </row>
     <row r="1802">
       <c r="C1802" t="n">
-        <v>-48.72857142857143</v>
+        <v>-40.94767646878648</v>
       </c>
       <c r="D1802" t="n">
-        <v>14.61258571428517</v>
+        <v>14.4310062226179</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>-47.45999999999999</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>13.42198768796995</v>
       </c>
     </row>
     <row r="1803">
       <c r="C1803" t="n">
-        <v>-49.15714285714285</v>
+        <v>-41.26917913800519</v>
       </c>
       <c r="D1803" t="n">
-        <v>14.61275714285659</v>
+        <v>14.42365186275632</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>-47.89428571428571</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>13.4213305451128</v>
       </c>
     </row>
     <row r="1804">
       <c r="C1804" t="n">
+        <v>-41.59475723147543</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>14.41659366506802</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>-48.32857142857142</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>13.42067340225566</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="C1805" t="n">
+        <v>-41.92439117064822</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>14.4098384870567</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>-48.76285714285714</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>13.42001625939852</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="C1806" t="n">
+        <v>-42.25806137697458</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>14.40339318622608</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>-49.19714285714285</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>13.41935911654137</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="C1807" t="n">
+        <v>-42.59574827190553</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>14.39726462007989</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>-49.63142857142856</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>13.41870197368423</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="C1808" t="n">
+        <v>-42.93743227689211</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>14.39145964612183</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="C1809" t="n">
+        <v>-43.2830938133853</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>14.38598512185562</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="C1810" t="n">
+        <v>-43.63271330283615</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>14.38084790478499</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="C1811" t="n">
+        <v>-43.98627116669565</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>14.37605485241365</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="C1812" t="n">
+        <v>-44.34374782641485</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>14.37161282224531</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="C1813" t="n">
+        <v>-44.70512370344476</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>14.36752867178369</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="C1814" t="n">
+        <v>-45.0703792192364</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>14.36380925853252</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="C1815" t="n">
+        <v>-45.43949479524078</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>14.3604614399955</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="C1816" t="n">
+        <v>-45.81245085290892</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>14.35749207367636</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="C1817" t="n">
+        <v>-46.18922781369185</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>14.35490801707881</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="C1818" t="n">
+        <v>-46.56980609904058</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>14.35271612770657</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="C1819" t="n">
+        <v>-46.95416613040613</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>14.35092326306336</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="C1820" t="n">
+        <v>-47.34228832923952</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>14.34953628065289</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="C1821" t="n">
+        <v>-47.73415311699177</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>14.34856203797888</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="C1822" t="n">
+        <v>-48.1297409151139</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>14.34800739254505</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="C1823" t="n">
+        <v>-48.72857142857143</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>14.34807142857071</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="C1824" t="n">
+        <v>-49.15714285714285</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>14.34824285714214</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="C1825" t="n">
         <v>-49.58571428571428</v>
       </c>
-      <c r="D1804" t="n">
-        <v>14.61292857142802</v>
+      <c r="D1825" t="n">
+        <v>14.34841428571357</v>
       </c>
     </row>
   </sheetData>

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:J1825"/>
+  <dimension ref="A4:J1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50909,10 +50909,10 @@
         <v>12.48119979506193</v>
       </c>
       <c r="G1582" t="n">
-        <v>-8.39197530644854</v>
+        <v>-8.353106141248496</v>
       </c>
       <c r="H1582" t="n">
-        <v>14.24804134406923</v>
+        <v>14.24800736794405</v>
       </c>
       <c r="I1582" t="n">
         <v>10.24428571428572</v>
@@ -50941,10 +50941,10 @@
         <v>12.47507478762858</v>
       </c>
       <c r="G1583" t="n">
-        <v>-8.756664580836034</v>
+        <v>-8.681845630138941</v>
       </c>
       <c r="H1583" t="n">
-        <v>14.24784204113458</v>
+        <v>14.24777638689751</v>
       </c>
       <c r="I1583" t="n">
         <v>9.810000000000006</v>
@@ -50973,10 +50973,10 @@
         <v>12.46856415597388</v>
       </c>
       <c r="G1584" t="n">
-        <v>-9.111567823162499</v>
+        <v>-9.00371846667135</v>
       </c>
       <c r="H1584" t="n">
-        <v>14.24728959119602</v>
+        <v>14.24719455686035</v>
       </c>
       <c r="I1584" t="n">
         <v>9.375714285714292</v>
@@ -51005,10 +51005,10 @@
         <v>12.46166790009783</v>
       </c>
       <c r="G1585" t="n">
-        <v>-9.456685033427936</v>
+        <v>-9.31872465084572</v>
       </c>
       <c r="H1585" t="n">
-        <v>14.24638399425358</v>
+        <v>14.24626187783258</v>
       </c>
       <c r="I1585" t="n">
         <v>8.941428571428577</v>
@@ -51037,10 +51037,10 @@
         <v>12.45438602000043</v>
       </c>
       <c r="G1586" t="n">
-        <v>-9.792016211632344</v>
+        <v>-9.626864182662054</v>
       </c>
       <c r="H1586" t="n">
-        <v>14.24512525030723</v>
+        <v>14.24497834981419</v>
       </c>
       <c r="I1586" t="n">
         <v>8.507142857142863</v>
@@ -51069,10 +51069,10 @@
         <v>12.44671851568168</v>
       </c>
       <c r="G1587" t="n">
-        <v>-10.11756135777572</v>
+        <v>-9.928137062120355</v>
       </c>
       <c r="H1587" t="n">
-        <v>14.24351335935698</v>
+        <v>14.24334397280519</v>
       </c>
       <c r="I1587" t="n">
         <v>8.072857142857149</v>
@@ -51101,10 +51101,10 @@
         <v>12.43866538714158</v>
       </c>
       <c r="G1588" t="n">
-        <v>-10.43332047185807</v>
+        <v>-10.22254328922062</v>
       </c>
       <c r="H1588" t="n">
-        <v>14.24154832140284</v>
+        <v>14.24135874680558</v>
       </c>
       <c r="I1588" t="n">
         <v>7.638571428571435</v>
@@ -51133,10 +51133,10 @@
         <v>12.43022663438013</v>
       </c>
       <c r="G1589" t="n">
-        <v>-10.73929355387939</v>
+        <v>-10.51008286396284</v>
       </c>
       <c r="H1589" t="n">
-        <v>14.2392301364448</v>
+        <v>14.23902267181536</v>
       </c>
       <c r="I1589" t="n">
         <v>7.204285714285721</v>
@@ -51165,10 +51165,10 @@
         <v>12.42140225739732</v>
       </c>
       <c r="G1590" t="n">
-        <v>-11.03548060383969</v>
+        <v>-10.79075578634703</v>
       </c>
       <c r="H1590" t="n">
-        <v>14.23655880448287</v>
+        <v>14.23633574783452</v>
       </c>
       <c r="I1590" t="n">
         <v>6.770000000000007</v>
@@ -51197,10 +51197,10 @@
         <v>12.41219225619317</v>
       </c>
       <c r="G1591" t="n">
-        <v>-11.32188162173895</v>
+        <v>-11.06456205637319</v>
       </c>
       <c r="H1591" t="n">
-        <v>14.23353432551703</v>
+        <v>14.23329797486308</v>
       </c>
       <c r="I1591" t="n">
         <v>6.335714285714293</v>
@@ -51229,10 +51229,10 @@
         <v>12.40259663076766</v>
       </c>
       <c r="G1592" t="n">
-        <v>-11.59849660757718</v>
+        <v>-11.3315016740413</v>
       </c>
       <c r="H1592" t="n">
-        <v>14.2301566995473</v>
+        <v>14.22990935290102</v>
       </c>
       <c r="I1592" t="n">
         <v>5.901428571428578</v>
@@ -51261,10 +51261,10 @@
         <v>12.3926153811208</v>
       </c>
       <c r="G1593" t="n">
-        <v>-11.86532556135439</v>
+        <v>-11.59157463935139</v>
       </c>
       <c r="H1593" t="n">
-        <v>14.22642592657368</v>
+        <v>14.22616988194834</v>
       </c>
       <c r="I1593" t="n">
         <v>5.467142857142864</v>
@@ -51293,10 +51293,10 @@
         <v>12.38224850725259</v>
       </c>
       <c r="G1594" t="n">
-        <v>-12.12236848307057</v>
+        <v>-11.84478095230343</v>
       </c>
       <c r="H1594" t="n">
-        <v>14.22234200659615</v>
+        <v>14.22207956200505</v>
       </c>
       <c r="I1594" t="n">
         <v>5.03285714285715</v>
@@ -51325,10 +51325,10 @@
         <v>12.37149600916304</v>
       </c>
       <c r="G1595" t="n">
-        <v>-12.36962537272571</v>
+        <v>-12.09112061289744</v>
       </c>
       <c r="H1595" t="n">
-        <v>14.21790493961473</v>
+        <v>14.21763839307116</v>
       </c>
       <c r="I1595" t="n">
         <v>4.598571428571436</v>
@@ -51357,10 +51357,10 @@
         <v>12.36035788685212</v>
       </c>
       <c r="G1596" t="n">
-        <v>-12.60709623031983</v>
+        <v>-12.33059362113341</v>
       </c>
       <c r="H1596" t="n">
-        <v>14.2131147256294</v>
+        <v>14.21284637514665</v>
       </c>
       <c r="I1596" t="n">
         <v>4.164285714285722</v>
@@ -51389,10 +51389,10 @@
         <v>12.34883414031986</v>
       </c>
       <c r="G1597" t="n">
-        <v>-12.83478105585292</v>
+        <v>-12.56319997701134</v>
       </c>
       <c r="H1597" t="n">
-        <v>14.20797136464019</v>
+        <v>14.20770350823152</v>
       </c>
       <c r="I1597" t="n">
         <v>3.730000000000008</v>
@@ -51421,10 +51421,10 @@
         <v>12.33692476956625</v>
       </c>
       <c r="G1598" t="n">
-        <v>-13.05267984932498</v>
+        <v>-12.78893968053124</v>
       </c>
       <c r="H1598" t="n">
-        <v>14.20247485664707</v>
+        <v>14.20220979232578</v>
       </c>
       <c r="I1598" t="n">
         <v>3.295714285714293</v>
@@ -51453,10 +51453,10 @@
         <v>12.32462977459129</v>
       </c>
       <c r="G1599" t="n">
-        <v>-13.26079261073601</v>
+        <v>-13.00781273169311</v>
       </c>
       <c r="H1599" t="n">
-        <v>14.19662520165006</v>
+        <v>14.19636522742943</v>
       </c>
       <c r="I1599" t="n">
         <v>2.861428571428579</v>
@@ -51485,10 +51485,10 @@
         <v>12.31194915539498</v>
       </c>
       <c r="G1600" t="n">
-        <v>-13.45911934008602</v>
+        <v>-13.21981913049693</v>
       </c>
       <c r="H1600" t="n">
-        <v>14.19042239964915</v>
+        <v>14.19016981354247</v>
       </c>
       <c r="I1600" t="n">
         <v>2.427142857142865</v>
@@ -51517,10 +51517,10 @@
         <v>12.29888291197731</v>
       </c>
       <c r="G1601" t="n">
-        <v>-13.64766003737499</v>
+        <v>-13.42495887694272</v>
       </c>
       <c r="H1601" t="n">
-        <v>14.18386645064434</v>
+        <v>14.18362355066489</v>
       </c>
       <c r="I1601" t="n">
         <v>1.992857142857151</v>
@@ -51549,10 +51549,10 @@
         <v>12.28543104433829</v>
       </c>
       <c r="G1602" t="n">
-        <v>-13.82641470260293</v>
+        <v>-13.62323197103048</v>
       </c>
       <c r="H1602" t="n">
-        <v>14.17695735463564</v>
+        <v>14.1767264387967</v>
       </c>
       <c r="I1602" t="n">
         <v>1.558571428571437</v>
@@ -51581,10 +51581,10 @@
         <v>12.27159355247793</v>
       </c>
       <c r="G1603" t="n">
-        <v>-13.99538333576985</v>
+        <v>-13.8146384127602</v>
       </c>
       <c r="H1603" t="n">
-        <v>14.16969511162304</v>
+        <v>14.1694784779379</v>
       </c>
       <c r="I1603" t="n">
         <v>1.124285714285723</v>
@@ -51613,10 +51613,10 @@
         <v>12.25737043639621</v>
       </c>
       <c r="G1604" t="n">
-        <v>-14.15456593687573</v>
+        <v>-13.99917820213187</v>
       </c>
       <c r="H1604" t="n">
-        <v>14.16207972160654</v>
+        <v>14.16187966808849</v>
       </c>
       <c r="I1604" t="n">
         <v>0.7050548773961551</v>
@@ -51645,10 +51645,10 @@
         <v>12.24346567741961</v>
       </c>
       <c r="G1605" t="n">
-        <v>-14.30396250592059</v>
+        <v>-14.17685133914552</v>
       </c>
       <c r="H1605" t="n">
-        <v>14.15411118458614</v>
+        <v>14.15393000924847</v>
       </c>
       <c r="I1605" t="n">
         <v>0.2981910082884849</v>
@@ -51677,10 +51677,10 @@
         <v>12.23507454726542</v>
       </c>
       <c r="G1606" t="n">
-        <v>-14.44357304290442</v>
+        <v>-14.34765782380113</v>
       </c>
       <c r="H1606" t="n">
-        <v>14.14578950056185</v>
+        <v>14.14562950141783</v>
       </c>
       <c r="I1606" t="n">
         <v>-0.09630589303728754</v>
@@ -51709,10 +51709,10 @@
         <v>12.22661391612336</v>
       </c>
       <c r="G1607" t="n">
-        <v>-14.57339754782722</v>
+        <v>-14.5115976560987</v>
       </c>
       <c r="H1607" t="n">
-        <v>14.13711466953366</v>
+        <v>14.13697814459658</v>
       </c>
       <c r="I1607" t="n">
         <v>-0.4784358265811628</v>
@@ -51741,10 +51741,10 @@
         <v>12.21808544604044</v>
       </c>
       <c r="G1608" t="n">
-        <v>-14.69343602068899</v>
+        <v>-14.66867083603824</v>
       </c>
       <c r="H1608" t="n">
-        <v>14.12808669150157</v>
+        <v>14.12797593878471</v>
       </c>
       <c r="I1608" t="n">
         <v>-0.8481987923431409</v>
@@ -51773,10 +51773,10 @@
         <v>12.2094907990637</v>
       </c>
       <c r="G1609" t="n">
-        <v>-14.80368846148974</v>
+        <v>-14.81887736361974</v>
       </c>
       <c r="H1609" t="n">
-        <v>14.11870556646558</v>
+        <v>14.11862288398223</v>
       </c>
       <c r="I1609" t="n">
         <v>-1.205594790323221</v>
@@ -51805,10 +51805,10 @@
         <v>12.20083163724014</v>
       </c>
       <c r="G1610" t="n">
-        <v>-14.90415487022945</v>
+        <v>-14.9622172388432</v>
       </c>
       <c r="H1610" t="n">
-        <v>14.1089712944257</v>
+        <v>14.10891898018915</v>
       </c>
       <c r="I1610" t="n">
         <v>-1.550623820521404</v>
@@ -51837,10 +51837,10 @@
         <v>12.19210962261679</v>
       </c>
       <c r="G1611" t="n">
-        <v>-14.99483524690813</v>
+        <v>-15.09869046170863</v>
       </c>
       <c r="H1611" t="n">
-        <v>14.09888387538192</v>
+        <v>14.09886422740544</v>
       </c>
       <c r="I1611" t="n">
         <v>-1.88328588293769</v>
@@ -51869,10 +51869,10 @@
         <v>12.18332641724066</v>
       </c>
       <c r="G1612" t="n">
-        <v>-15.07572959152579</v>
+        <v>-15.22829703221602</v>
       </c>
       <c r="H1612" t="n">
-        <v>14.08844330933424</v>
+        <v>14.08845862563113</v>
       </c>
       <c r="I1612" t="n">
         <v>-2.203580977572078</v>
@@ -51901,10 +51901,10 @@
         <v>12.17448368315879</v>
       </c>
       <c r="G1613" t="n">
-        <v>-15.14683790408241</v>
+        <v>-15.35103695036537</v>
       </c>
       <c r="H1613" t="n">
-        <v>14.07764959628267</v>
+        <v>14.0777021748662</v>
       </c>
       <c r="I1613" t="n">
         <v>-2.511509104424569</v>
@@ -51933,10 +51933,10 @@
         <v>12.16558308241818</v>
       </c>
       <c r="G1614" t="n">
-        <v>-15.20816018457801</v>
+        <v>-15.46691021615669</v>
       </c>
       <c r="H1614" t="n">
-        <v>14.06650273622719</v>
+        <v>14.06659487511066</v>
       </c>
       <c r="I1614" t="n">
         <v>-2.807070263495162</v>
@@ -51965,10 +51965,10 @@
         <v>12.15662627706586</v>
       </c>
       <c r="G1615" t="n">
-        <v>-15.25969643301258</v>
+        <v>-15.57591682958997</v>
       </c>
       <c r="H1615" t="n">
-        <v>14.05500272916782</v>
+        <v>14.05513672636451</v>
       </c>
       <c r="I1615" t="n">
         <v>-3.090264454783858</v>
@@ -51997,10 +51997,10 @@
         <v>12.14761492914885</v>
       </c>
       <c r="G1616" t="n">
-        <v>-15.30144664938612</v>
+        <v>-15.67805679066522</v>
       </c>
       <c r="H1616" t="n">
-        <v>14.04314957510456</v>
+        <v>14.04332772862774</v>
       </c>
       <c r="I1616" t="n">
         <v>-3.361091678290657</v>
@@ -52029,10 +52029,10 @@
         <v>12.13855070071416</v>
       </c>
       <c r="G1617" t="n">
-        <v>-15.33341083369863</v>
+        <v>-15.77333009938243</v>
       </c>
       <c r="H1617" t="n">
-        <v>14.03094327403739</v>
+        <v>14.03116788190036</v>
       </c>
       <c r="I1617" t="n">
         <v>-3.619551934015558</v>
@@ -52061,10 +52061,10 @@
         <v>12.12943525380884</v>
       </c>
       <c r="G1618" t="n">
-        <v>-15.35558898595011</v>
+        <v>-15.8617367557416</v>
       </c>
       <c r="H1618" t="n">
-        <v>14.01838382596633</v>
+        <v>14.01865718618237</v>
       </c>
       <c r="I1618" t="n">
         <v>-3.865645221958562</v>
@@ -52093,10 +52093,10 @@
         <v>12.12027025047987</v>
       </c>
       <c r="G1619" t="n">
-        <v>-15.36798110614057</v>
+        <v>-15.94327675974274</v>
       </c>
       <c r="H1619" t="n">
-        <v>14.00547123089137</v>
+        <v>14.00579564147377</v>
       </c>
       <c r="I1619" t="n">
         <v>-4.099371542119669</v>
@@ -52125,10 +52125,10 @@
         <v>12.1110573527743</v>
       </c>
       <c r="G1620" t="n">
-        <v>-15.37005116129031</v>
+        <v>-16.01795011138584</v>
       </c>
       <c r="H1620" t="n">
-        <v>14.00072122580653</v>
+        <v>13.99258324777455</v>
       </c>
       <c r="I1620" t="n">
         <v>-4.320730894498877</v>
@@ -52157,10 +52157,10 @@
         <v>12.10179822273913</v>
       </c>
       <c r="G1621" t="n">
-        <v>-15.37369737443397</v>
+        <v>-16.0857568106709</v>
       </c>
       <c r="H1621" t="n">
-        <v>13.99313514464636</v>
+        <v>13.97902000508472</v>
       </c>
       <c r="I1621" t="n">
         <v>-4.529723279096189</v>
@@ -52189,10 +52189,10 @@
         <v>12.0924945224214</v>
       </c>
       <c r="G1622" t="n">
-        <v>-15.38011332855593</v>
+        <v>-16.14669685759792</v>
       </c>
       <c r="H1622" t="n">
-        <v>13.98544203755551</v>
+        <v>13.96510591340428</v>
       </c>
       <c r="I1622" t="n">
         <v>-4.726348695911602</v>
@@ -52221,10 +52221,10 @@
         <v>12.08314791386812</v>
       </c>
       <c r="G1623" t="n">
-        <v>-15.3892935946124</v>
+        <v>-16.20077025216692</v>
       </c>
       <c r="H1623" t="n">
-        <v>13.97764427938597</v>
+        <v>13.95084097273322</v>
       </c>
       <c r="I1623" t="n">
         <v>-4.91060714494512</v>
@@ -52253,10 +52253,10 @@
         <v>12.07376005912631</v>
       </c>
       <c r="G1624" t="n">
-        <v>-15.40123274355964</v>
+        <v>-16.2446395161287</v>
       </c>
       <c r="H1624" t="n">
-        <v>13.96974424498972</v>
+        <v>13.93734525806462</v>
       </c>
       <c r="I1624" t="n">
         <v>-5.082498626196738</v>
@@ -52285,10 +52285,10 @@
         <v>12.06433262024298</v>
       </c>
       <c r="G1625" t="n">
-        <v>-15.41592534635384</v>
+        <v>-16.27475059766397</v>
       </c>
       <c r="H1625" t="n">
-        <v>13.96174430921876</v>
+        <v>13.92761548414667</v>
       </c>
       <c r="I1625" t="n">
         <v>-5.24202313966646</v>
@@ -52317,10 +52317,10 @@
         <v>12.05486725926518</v>
       </c>
       <c r="G1626" t="n">
-        <v>-15.43336597395125</v>
+        <v>-16.30684403065362</v>
       </c>
       <c r="H1626" t="n">
-        <v>13.95364684692505</v>
+        <v>13.91784171728405</v>
       </c>
       <c r="I1626" t="n">
         <v>-5.389180685354285</v>
@@ -52349,10 +52349,10 @@
         <v>12.0453656382399</v>
       </c>
       <c r="G1627" t="n">
-        <v>-15.45354919730809</v>
+        <v>-16.34092462455952</v>
       </c>
       <c r="H1627" t="n">
-        <v>13.94545423296059</v>
+        <v>13.90802578085149</v>
       </c>
       <c r="I1627" t="n">
         <v>-5.523971263260211</v>
@@ -52381,10 +52381,10 @@
         <v>12.03582941921417</v>
       </c>
       <c r="G1628" t="n">
-        <v>-15.47646958738057</v>
+        <v>-16.3769971888436</v>
       </c>
       <c r="H1628" t="n">
-        <v>13.93716884217736</v>
+        <v>13.89816949822374</v>
       </c>
       <c r="I1628" t="n">
         <v>-5.646394873384241</v>
@@ -52413,10 +52413,10 @@
         <v>12.02626026423501</v>
       </c>
       <c r="G1629" t="n">
-        <v>-15.50212171512493</v>
+        <v>-16.41506653296774</v>
       </c>
       <c r="H1629" t="n">
-        <v>13.92879304942733</v>
+        <v>13.88827469277556</v>
       </c>
       <c r="I1629" t="n">
         <v>-5.756451515726373</v>
@@ -52445,10 +52445,10 @@
         <v>12.01665983534945</v>
       </c>
       <c r="G1630" t="n">
-        <v>-15.53050015149739</v>
+        <v>-16.45513746639385</v>
       </c>
       <c r="H1630" t="n">
-        <v>13.92032922956251</v>
+        <v>13.87834318788168</v>
       </c>
       <c r="I1630" t="n">
         <v>-5.854141190286609</v>
@@ -52477,10 +52477,10 @@
         <v>12.0070297946045</v>
       </c>
       <c r="G1631" t="n">
-        <v>-15.56159946745418</v>
+        <v>-16.49721479858384</v>
       </c>
       <c r="H1631" t="n">
-        <v>13.91177975743487</v>
+        <v>13.86837680691686</v>
       </c>
       <c r="I1631" t="n">
         <v>-5.939463897064945</v>
@@ -52509,10 +52509,10 @@
         <v>11.99737180404718</v>
       </c>
       <c r="G1632" t="n">
-        <v>-15.59541423395153</v>
+        <v>-16.54130333899959</v>
       </c>
       <c r="H1632" t="n">
-        <v>13.9031470078964</v>
+        <v>13.85837737325583</v>
       </c>
       <c r="I1632" t="n">
         <v>-6.012419636061386</v>
@@ -52541,10 +52541,10 @@
         <v>11.98768752572451</v>
       </c>
       <c r="G1633" t="n">
-        <v>-15.63193902194566</v>
+        <v>-16.58740789710301</v>
       </c>
       <c r="H1633" t="n">
-        <v>13.89443335579907</v>
+        <v>13.84834671027336</v>
       </c>
       <c r="I1633" t="n">
         <v>-6.073008407275928</v>
@@ -52573,10 +52573,10 @@
         <v>11.97797862168352</v>
       </c>
       <c r="G1634" t="n">
-        <v>-15.67116840239279</v>
+        <v>-16.63553328235601</v>
       </c>
       <c r="H1634" t="n">
-        <v>13.88564117599488</v>
+        <v>13.83828664134419</v>
       </c>
       <c r="I1634" t="n">
         <v>-6.121230210708574</v>
@@ -52605,10 +52605,10 @@
         <v>11.96824675397122</v>
       </c>
       <c r="G1635" t="n">
-        <v>-15.71309694624914</v>
+        <v>-16.68568430422048</v>
       </c>
       <c r="H1635" t="n">
-        <v>13.87677284333581</v>
+        <v>13.82819898984305</v>
       </c>
       <c r="I1635" t="n">
         <v>-6.15708504635932</v>
@@ -52637,10 +52637,10 @@
         <v>11.95849358463463</v>
       </c>
       <c r="G1636" t="n">
-        <v>-15.75771922447095</v>
+        <v>-16.73786577215832</v>
       </c>
       <c r="H1636" t="n">
-        <v>13.86783073267383</v>
+        <v>13.81808557914471</v>
       </c>
       <c r="I1636" t="n">
         <v>-6.180572914228171</v>
@@ -52669,10 +52669,10 @@
         <v>11.94872077572078</v>
       </c>
       <c r="G1637" t="n">
-        <v>-15.80502980801445</v>
+        <v>-16.79208249563144</v>
       </c>
       <c r="H1637" t="n">
-        <v>13.85881721886095</v>
+        <v>13.80794823262392</v>
       </c>
       <c r="I1637" t="n">
         <v>-6.191693814315125</v>
@@ -52701,10 +52701,10 @@
         <v>11.93892998927668</v>
       </c>
       <c r="G1638" t="n">
-        <v>-15.85502326783585</v>
+        <v>-16.84833928410172</v>
       </c>
       <c r="H1638" t="n">
-        <v>13.84973467674913</v>
+        <v>13.7977887736554</v>
       </c>
       <c r="I1638" t="n">
         <v>-6.192538531954879</v>
@@ -52733,10 +52733,10 @@
         <v>11.92912288734935</v>
       </c>
       <c r="G1639" t="n">
-        <v>-15.90769417489138</v>
+        <v>-16.90664094703109</v>
       </c>
       <c r="H1639" t="n">
-        <v>13.84058548119037</v>
+        <v>13.78760902561392</v>
       </c>
       <c r="I1639" t="n">
         <v>-6.195338347768057</v>
@@ -52765,10 +52765,10 @@
         <v>11.91930113198582</v>
       </c>
       <c r="G1640" t="n">
-        <v>-15.96303710013727</v>
+        <v>-16.96699229388143</v>
       </c>
       <c r="H1640" t="n">
-        <v>13.83137200703665</v>
+        <v>13.77741081187422</v>
       </c>
       <c r="I1640" t="n">
         <v>-6.201620697300469</v>
@@ -52797,10 +52797,10 @@
         <v>11.90946638523311</v>
       </c>
       <c r="G1641" t="n">
-        <v>-16.02104661452974</v>
+        <v>-17.02939813411464</v>
       </c>
       <c r="H1641" t="n">
-        <v>13.82209662913995</v>
+        <v>13.76719595581105</v>
       </c>
       <c r="I1641" t="n">
         <v>-6.21137743217981</v>
@@ -52829,10 +52829,10 @@
         <v>11.89962030913822</v>
       </c>
       <c r="G1642" t="n">
-        <v>-16.08171728902502</v>
+        <v>-17.09386327719264</v>
       </c>
       <c r="H1642" t="n">
-        <v>13.81276172235226</v>
+        <v>13.75696628079916</v>
       </c>
       <c r="I1642" t="n">
         <v>-6.224600404033778</v>
@@ -52861,10 +52861,10 @@
         <v>11.8897645657482</v>
       </c>
       <c r="G1643" t="n">
-        <v>-16.14504369457934</v>
+        <v>-17.16039253257731</v>
       </c>
       <c r="H1643" t="n">
-        <v>13.80336966152556</v>
+        <v>13.74672361021329</v>
       </c>
       <c r="I1643" t="n">
         <v>-6.241281464490069</v>
@@ -52893,10 +52893,10 @@
         <v>11.87990081711005</v>
       </c>
       <c r="G1644" t="n">
-        <v>-16.21102040214891</v>
+        <v>-17.22899070973056</v>
       </c>
       <c r="H1644" t="n">
-        <v>13.79392282151183</v>
+        <v>13.73646976742818</v>
       </c>
       <c r="I1644" t="n">
         <v>-6.261412465176382</v>
@@ -52925,10 +52925,10 @@
         <v>11.87003072527079</v>
       </c>
       <c r="G1645" t="n">
-        <v>-16.27964198268997</v>
+        <v>-17.29966261811429</v>
       </c>
       <c r="H1645" t="n">
-        <v>13.78442357716306</v>
+        <v>13.7262065758186</v>
       </c>
       <c r="I1645" t="n">
         <v>-6.284985257720415</v>
@@ -52957,10 +52957,10 @@
         <v>11.86015595227745</v>
       </c>
       <c r="G1646" t="n">
-        <v>-16.35090300715874</v>
+        <v>-17.3724130671904</v>
       </c>
       <c r="H1646" t="n">
-        <v>13.77487430333123</v>
+        <v>13.71593585875928</v>
       </c>
       <c r="I1646" t="n">
         <v>-6.311991693749863</v>
@@ -52989,10 +52989,10 @@
         <v>11.85027816017706</v>
       </c>
       <c r="G1647" t="n">
-        <v>-16.42479804651144</v>
+        <v>-17.44724686642078</v>
       </c>
       <c r="H1647" t="n">
-        <v>13.76527737486833</v>
+        <v>13.70565943962498</v>
       </c>
       <c r="I1647" t="n">
         <v>-6.342423624892428</v>
@@ -53021,10 +53021,10 @@
         <v>11.8403990110166</v>
       </c>
       <c r="G1648" t="n">
-        <v>-16.5013216717043</v>
+        <v>-17.52416882526735</v>
       </c>
       <c r="H1648" t="n">
-        <v>13.75563516662634</v>
+        <v>13.69537914179044</v>
       </c>
       <c r="I1648" t="n">
         <v>-6.376272902775801</v>
@@ -53053,10 +53053,10 @@
         <v>11.83052016684314</v>
       </c>
       <c r="G1649" t="n">
-        <v>-16.58046845369356</v>
+        <v>-17.603183753192</v>
       </c>
       <c r="H1649" t="n">
-        <v>13.74595005345725</v>
+        <v>13.68509678863039</v>
       </c>
       <c r="I1649" t="n">
         <v>-6.413531379027685</v>
@@ -53085,10 +53085,10 @@
         <v>11.82064328970366</v>
       </c>
       <c r="G1650" t="n">
-        <v>-16.66223296343543</v>
+        <v>-17.68429645965664</v>
       </c>
       <c r="H1650" t="n">
-        <v>13.73622441021304</v>
+        <v>13.67481420351962</v>
       </c>
       <c r="I1650" t="n">
         <v>-6.454190905275773</v>
@@ -53117,10 +53117,10 @@
         <v>11.81077004164521</v>
       </c>
       <c r="G1651" t="n">
-        <v>-16.74660977188612</v>
+        <v>-17.76751175412315</v>
       </c>
       <c r="H1651" t="n">
-        <v>13.72646061174568</v>
+        <v>13.66453320983284</v>
       </c>
       <c r="I1651" t="n">
         <v>-6.498243333147768</v>
@@ -53149,10 +53149,10 @@
         <v>11.80090208471479</v>
       </c>
       <c r="G1652" t="n">
-        <v>-16.83359345000189</v>
+        <v>-17.85283444605345</v>
       </c>
       <c r="H1652" t="n">
-        <v>13.71666103290718</v>
+        <v>13.6542556309448</v>
       </c>
       <c r="I1652" t="n">
         <v>-6.545680514271362</v>
@@ -53181,10 +53181,10 @@
         <v>11.79104108095943</v>
       </c>
       <c r="G1653" t="n">
-        <v>-16.92317856873894</v>
+        <v>-17.94026934490943</v>
       </c>
       <c r="H1653" t="n">
-        <v>13.70682804854951</v>
+        <v>13.64398329023027</v>
       </c>
       <c r="I1653" t="n">
         <v>-6.596494300274255</v>
@@ -53213,10 +53213,10 @@
         <v>11.78118869242614</v>
       </c>
       <c r="G1654" t="n">
-        <v>-17.01535969905351</v>
+        <v>-18.029821260153</v>
       </c>
       <c r="H1654" t="n">
-        <v>13.69696403352465</v>
+        <v>13.63371801106398</v>
       </c>
       <c r="I1654" t="n">
         <v>-6.650676542784144</v>
@@ -53245,10 +53245,10 @@
         <v>11.77134658116196</v>
       </c>
       <c r="G1655" t="n">
-        <v>-17.11013141190181</v>
+        <v>-18.12149500124605</v>
       </c>
       <c r="H1655" t="n">
-        <v>13.68707136268459</v>
+        <v>13.62346161682068</v>
       </c>
       <c r="I1655" t="n">
         <v>-6.708219093428726</v>
@@ -53277,10 +53277,10 @@
         <v>11.76151640921389</v>
       </c>
       <c r="G1656" t="n">
-        <v>-17.20748827824008</v>
+        <v>-18.21529537765049</v>
       </c>
       <c r="H1656" t="n">
-        <v>13.67715241088132</v>
+        <v>13.61321593087513</v>
       </c>
       <c r="I1656" t="n">
         <v>-6.769113803835699</v>
@@ -53309,10 +53309,10 @@
         <v>11.75169983862896</v>
       </c>
       <c r="G1657" t="n">
-        <v>-17.30742486902455</v>
+        <v>-18.31122719882821</v>
       </c>
       <c r="H1657" t="n">
-        <v>13.66720955296681</v>
+        <v>13.60298277660205</v>
       </c>
       <c r="I1657" t="n">
         <v>-6.833352525632759</v>
@@ -53341,10 +53341,10 @@
         <v>11.74189853145419</v>
       </c>
       <c r="G1658" t="n">
-        <v>-17.40993575521143</v>
+        <v>-18.40929527424112</v>
       </c>
       <c r="H1658" t="n">
-        <v>13.65724516379306</v>
+        <v>13.59276397737621</v>
       </c>
       <c r="I1658" t="n">
         <v>-6.900927110447608</v>
@@ -53373,10 +53373,10 @@
         <v>11.7321141497366</v>
       </c>
       <c r="G1659" t="n">
-        <v>-17.51501550775695</v>
+        <v>-18.50950441335113</v>
       </c>
       <c r="H1659" t="n">
-        <v>13.64726161821204</v>
+        <v>13.58256135657236</v>
       </c>
       <c r="I1659" t="n">
         <v>-6.971829409907936</v>
@@ -53405,10 +53405,10 @@
         <v>11.72234835552321</v>
       </c>
       <c r="G1660" t="n">
-        <v>-17.62265869761733</v>
+        <v>-18.61185942562011</v>
       </c>
       <c r="H1660" t="n">
-        <v>13.63726129107574</v>
+        <v>13.57237673756523</v>
       </c>
       <c r="I1660" t="n">
         <v>-7.046051275641449</v>
@@ -53437,10 +53437,10 @@
         <v>11.71260281086103</v>
       </c>
       <c r="G1661" t="n">
-        <v>-17.73285989574881</v>
+        <v>-18.71636512050999</v>
       </c>
       <c r="H1661" t="n">
-        <v>13.62724655723615</v>
+        <v>13.56221194372957</v>
       </c>
       <c r="I1661" t="n">
         <v>-7.123584559275834</v>
@@ -53469,10 +53469,10 @@
         <v>11.7028791777971</v>
       </c>
       <c r="G1662" t="n">
-        <v>-17.84561367310761</v>
+        <v>-18.82302630748266</v>
       </c>
       <c r="H1662" t="n">
-        <v>13.61721979154525</v>
+        <v>13.55206879844014</v>
       </c>
       <c r="I1662" t="n">
         <v>-7.204421112438801</v>
@@ -53501,10 +53501,10 @@
         <v>11.69317911837843</v>
       </c>
       <c r="G1663" t="n">
-        <v>-17.96091460064995</v>
+        <v>-18.93184779600002</v>
       </c>
       <c r="H1663" t="n">
-        <v>13.60718336885501</v>
+        <v>13.54194912507169</v>
       </c>
       <c r="I1663" t="n">
         <v>-7.288552786758035</v>
@@ -53533,10 +53533,10 @@
         <v>11.68350429465204</v>
       </c>
       <c r="G1664" t="n">
-        <v>-18.07875724933206</v>
+        <v>-19.04283439552397</v>
       </c>
       <c r="H1664" t="n">
-        <v>13.59713966401744</v>
+        <v>13.53185474699894</v>
       </c>
       <c r="I1664" t="n">
         <v>-7.375971433861244</v>
@@ -53565,10 +53565,10 @@
         <v>11.67385636866494</v>
       </c>
       <c r="G1665" t="n">
-        <v>-18.19913619011017</v>
+        <v>-19.15599091551641</v>
       </c>
       <c r="H1665" t="n">
-        <v>13.5870910518845</v>
+        <v>13.52178748759667</v>
       </c>
       <c r="I1665" t="n">
         <v>-7.466668905376117</v>
@@ -53597,10 +53597,10 @@
         <v>11.66423700246417</v>
       </c>
       <c r="G1666" t="n">
-        <v>-18.32204599394049</v>
+        <v>-19.27132216543924</v>
       </c>
       <c r="H1666" t="n">
-        <v>13.57703990730819</v>
+        <v>13.51174917023961</v>
       </c>
       <c r="I1666" t="n">
         <v>-7.560637052930355</v>
@@ -53629,10 +53629,10 @@
         <v>11.65464785809674</v>
       </c>
       <c r="G1667" t="n">
-        <v>-18.44748123177926</v>
+        <v>-19.38883295475437</v>
       </c>
       <c r="H1667" t="n">
-        <v>13.56698860514049</v>
+        <v>13.5017416183025</v>
       </c>
       <c r="I1667" t="n">
         <v>-7.657867728151658</v>
@@ -53661,10 +53661,10 @@
         <v>11.64509059760967</v>
       </c>
       <c r="G1668" t="n">
-        <v>-18.57543647458271</v>
+        <v>-19.50852809292369</v>
       </c>
       <c r="H1668" t="n">
-        <v>13.55693952023338</v>
+        <v>13.4917666551601</v>
       </c>
       <c r="I1668" t="n">
         <v>-7.758352782667719</v>
@@ -53693,10 +53693,10 @@
         <v>11.63556688304998</v>
       </c>
       <c r="G1669" t="n">
-        <v>-18.70590629330705</v>
+        <v>-19.63041238940911</v>
       </c>
       <c r="H1669" t="n">
-        <v>13.54689502743885</v>
+        <v>13.48182610418717</v>
       </c>
       <c r="I1669" t="n">
         <v>-7.862084068106238</v>
@@ -53725,10 +53725,10 @@
         <v>11.62607837646469</v>
       </c>
       <c r="G1670" t="n">
-        <v>-18.8388852589085</v>
+        <v>-19.75449065367252</v>
       </c>
       <c r="H1670" t="n">
-        <v>13.53685750160887</v>
+        <v>13.47192178875843</v>
       </c>
       <c r="I1670" t="n">
         <v>-7.96905343609491</v>
@@ -53757,10 +53757,10 @@
         <v>11.61662673990083</v>
       </c>
       <c r="G1671" t="n">
-        <v>-18.9743679423433</v>
+        <v>-19.88076769517582</v>
       </c>
       <c r="H1671" t="n">
-        <v>13.52682931759545</v>
+        <v>13.46205553224864</v>
       </c>
       <c r="I1671" t="n">
         <v>-8.079252738261436</v>
@@ -53789,10 +53789,10 @@
         <v>11.6072136354054</v>
       </c>
       <c r="G1672" t="n">
-        <v>-19.11234891456768</v>
+        <v>-20.00924832338093</v>
       </c>
       <c r="H1672" t="n">
-        <v>13.51681285025055</v>
+        <v>13.45222915803255</v>
       </c>
       <c r="I1672" t="n">
         <v>-8.192673826233513</v>
@@ -53821,10 +53821,10 @@
         <v>11.59784072502544</v>
       </c>
       <c r="G1673" t="n">
-        <v>-19.25282274653786</v>
+        <v>-20.13993734774973</v>
       </c>
       <c r="H1673" t="n">
-        <v>13.50681047442616</v>
+        <v>13.4424444894849</v>
       </c>
       <c r="I1673" t="n">
         <v>-8.309308551638837</v>
@@ -53853,10 +53853,10 @@
         <v>11.58850967080796</v>
       </c>
       <c r="G1674" t="n">
-        <v>-19.39578400921006</v>
+        <v>-20.27283957774412</v>
       </c>
       <c r="H1674" t="n">
-        <v>13.49682456497427</v>
+        <v>13.43270334998044</v>
       </c>
       <c r="I1674" t="n">
         <v>-8.429148766105103</v>
@@ -53885,10 +53885,10 @@
         <v>11.57922213479998</v>
       </c>
       <c r="G1675" t="n">
-        <v>-19.54122727354051</v>
+        <v>-20.40795982282602</v>
       </c>
       <c r="H1675" t="n">
-        <v>13.48685749674686</v>
+        <v>13.42300756289393</v>
       </c>
       <c r="I1675" t="n">
         <v>-8.552186321260011</v>
@@ -53917,10 +53917,10 @@
         <v>11.56997977904853</v>
       </c>
       <c r="G1676" t="n">
-        <v>-19.68914711048544</v>
+        <v>-20.54530289245731</v>
       </c>
       <c r="H1676" t="n">
-        <v>13.47691164459593</v>
+        <v>13.41335895160009</v>
       </c>
       <c r="I1676" t="n">
         <v>-8.67841306873126</v>
@@ -53949,10 +53949,10 @@
         <v>11.56078426560062</v>
       </c>
       <c r="G1677" t="n">
-        <v>-19.83953809100106</v>
+        <v>-20.6848735960999</v>
       </c>
       <c r="H1677" t="n">
-        <v>13.46698938337343</v>
+        <v>13.40375933947369</v>
       </c>
       <c r="I1677" t="n">
         <v>-8.807820860146546</v>
@@ -53981,10 +53981,10 @@
         <v>11.55163725650328</v>
       </c>
       <c r="G1678" t="n">
-        <v>-19.99239478604361</v>
+        <v>-20.8266767432157</v>
       </c>
       <c r="H1678" t="n">
-        <v>13.45709308793138</v>
+        <v>13.39421054988948</v>
       </c>
       <c r="I1678" t="n">
         <v>-8.940401547133561</v>
@@ -54013,10 +54013,10 @@
         <v>11.54254041380351</v>
       </c>
       <c r="G1679" t="n">
-        <v>-20.14771176656931</v>
+        <v>-20.97071714326659</v>
       </c>
       <c r="H1679" t="n">
-        <v>13.44722513312174</v>
+        <v>13.38471440622219</v>
       </c>
       <c r="I1679" t="n">
         <v>-9.076146981320012</v>
@@ -54045,10 +54045,10 @@
         <v>11.53349539954836</v>
       </c>
       <c r="G1680" t="n">
-        <v>-20.30548360353439</v>
+        <v>-21.11699960571448</v>
       </c>
       <c r="H1680" t="n">
-        <v>13.4373878937965</v>
+        <v>13.37527273184658</v>
       </c>
       <c r="I1680" t="n">
         <v>-9.215049014333591</v>
@@ -54077,10 +54077,10 @@
         <v>11.52450387578482</v>
       </c>
       <c r="G1681" t="n">
-        <v>-20.46570486789507</v>
+        <v>-21.26552894002128</v>
       </c>
       <c r="H1681" t="n">
-        <v>13.42758374480765</v>
+        <v>13.36588735013739</v>
       </c>
       <c r="I1681" t="n">
         <v>-9.357099497801997</v>
@@ -54109,10 +54109,10 @@
         <v>11.51556750455993</v>
       </c>
       <c r="G1682" t="n">
-        <v>-20.62837013060758</v>
+        <v>-21.41630995564889</v>
       </c>
       <c r="H1682" t="n">
-        <v>13.41781506100717</v>
+        <v>13.35656008446937</v>
       </c>
       <c r="I1682" t="n">
         <v>-9.502290283352927</v>
@@ -54141,10 +54141,10 @@
         <v>11.5066879479207</v>
       </c>
       <c r="G1683" t="n">
-        <v>-20.79347396262815</v>
+        <v>-21.56934746205918</v>
       </c>
       <c r="H1683" t="n">
-        <v>13.40808421724704</v>
+        <v>13.34729275821727</v>
       </c>
       <c r="I1683" t="n">
         <v>-9.650613222614076</v>
@@ -54173,10 +54173,10 @@
         <v>11.49786686791417</v>
       </c>
       <c r="G1684" t="n">
-        <v>-20.96101093491299</v>
+        <v>-21.7246462687141</v>
       </c>
       <c r="H1684" t="n">
-        <v>13.39839358837925</v>
+        <v>13.33808719475584</v>
       </c>
       <c r="I1684" t="n">
         <v>-9.802060167213146</v>
@@ -54205,10 +54205,10 @@
         <v>11.48910592658733</v>
       </c>
       <c r="G1685" t="n">
-        <v>-21.13097561841833</v>
+        <v>-21.88221118507551</v>
       </c>
       <c r="H1685" t="n">
-        <v>13.38874554925579</v>
+        <v>13.32894521745982</v>
       </c>
       <c r="I1685" t="n">
         <v>-9.956622968777829</v>
@@ -54237,10 +54237,10 @@
         <v>11.48040678598722</v>
       </c>
       <c r="G1686" t="n">
-        <v>-21.30336258410041</v>
+        <v>-22.04204702060532</v>
       </c>
       <c r="H1686" t="n">
-        <v>13.37914247472862</v>
+        <v>13.31986864970395</v>
       </c>
       <c r="I1686" t="n">
         <v>-10.11429347893583</v>
@@ -54269,10 +54269,10 @@
         <v>11.47177110816085</v>
       </c>
       <c r="G1687" t="n">
-        <v>-21.47816640291543</v>
+        <v>-22.20415858476545</v>
       </c>
       <c r="H1687" t="n">
-        <v>13.36958673964975</v>
+        <v>13.310859314863</v>
       </c>
       <c r="I1687" t="n">
         <v>-10.27506354931484</v>
@@ -54301,10 +54301,10 @@
         <v>11.46320055515525</v>
       </c>
       <c r="G1688" t="n">
-        <v>-21.65538164581964</v>
+        <v>-22.36855068701779</v>
       </c>
       <c r="H1688" t="n">
-        <v>13.36008071887116</v>
+        <v>13.3019190363117</v>
       </c>
       <c r="I1688" t="n">
         <v>-10.43892503154256</v>
@@ -54333,10 +54333,10 @@
         <v>11.45469678901744</v>
       </c>
       <c r="G1689" t="n">
-        <v>-21.83500288376926</v>
+        <v>-22.53522813682422</v>
       </c>
       <c r="H1689" t="n">
-        <v>13.35062678724482</v>
+        <v>13.2930496374248</v>
       </c>
       <c r="I1689" t="n">
         <v>-10.60586977724668</v>
@@ -54365,10 +54365,10 @@
         <v>11.44626147179444</v>
       </c>
       <c r="G1690" t="n">
-        <v>-22.0170246877205</v>
+        <v>-22.70419574364667</v>
       </c>
       <c r="H1690" t="n">
-        <v>13.34122731962272</v>
+        <v>13.28425294157705</v>
       </c>
       <c r="I1690" t="n">
         <v>-10.77588963805491</v>
@@ -54397,10 +54397,10 @@
         <v>11.43789626553326</v>
       </c>
       <c r="G1691" t="n">
-        <v>-22.20144162862961</v>
+        <v>-22.87545831694703</v>
       </c>
       <c r="H1691" t="n">
-        <v>13.33188469085686</v>
+        <v>13.27553077214321</v>
       </c>
       <c r="I1691" t="n">
         <v>-10.94897646559494</v>
@@ -54429,10 +54429,10 @@
         <v>11.42960283228092</v>
       </c>
       <c r="G1692" t="n">
-        <v>-22.3882482774528</v>
+        <v>-23.04902066618718</v>
       </c>
       <c r="H1692" t="n">
-        <v>13.3226012757992</v>
+        <v>13.266884952498</v>
       </c>
       <c r="I1692" t="n">
         <v>-11.12512211149446</v>
@@ -54461,10 +54461,10 @@
         <v>11.42138283408446</v>
       </c>
       <c r="G1693" t="n">
-        <v>-22.57743920514629</v>
+        <v>-23.22488760082906</v>
       </c>
       <c r="H1693" t="n">
-        <v>13.31337944930173</v>
+        <v>13.25831730601618</v>
       </c>
       <c r="I1693" t="n">
         <v>-11.30431842738118</v>
@@ -54493,10 +54493,10 @@
         <v>11.41323793299088</v>
       </c>
       <c r="G1694" t="n">
-        <v>-22.76900898266632</v>
+        <v>-23.40306393033454</v>
       </c>
       <c r="H1694" t="n">
-        <v>13.30422158621645</v>
+        <v>13.24982965607251</v>
       </c>
       <c r="I1694" t="n">
         <v>-11.48655726488279</v>
@@ -54525,10 +54525,10 @@
         <v>11.40516979104721</v>
       </c>
       <c r="G1695" t="n">
-        <v>-22.96295218096911</v>
+        <v>-23.58355446416554</v>
       </c>
       <c r="H1695" t="n">
-        <v>13.29513006139534</v>
+        <v>13.24142382604172</v>
       </c>
       <c r="I1695" t="n">
         <v>-11.671830475627</v>
@@ -54557,10 +54557,10 @@
         <v>11.39718007030046</v>
       </c>
       <c r="G1696" t="n">
-        <v>-23.15926337101088</v>
+        <v>-23.76636401178394</v>
       </c>
       <c r="H1696" t="n">
-        <v>13.28610724969036</v>
+        <v>13.23310163929856</v>
       </c>
       <c r="I1696" t="n">
         <v>-11.86012991124149</v>
@@ -54589,10 +54589,10 @@
         <v>11.38927043279767</v>
       </c>
       <c r="G1697" t="n">
-        <v>-23.35793712374786</v>
+        <v>-23.95149738265166</v>
       </c>
       <c r="H1697" t="n">
-        <v>13.27715552595352</v>
+        <v>13.22486491921779</v>
       </c>
       <c r="I1697" t="n">
         <v>-12.05144742335397</v>
@@ -54621,10 +54621,10 @@
         <v>11.38144254058584</v>
       </c>
       <c r="G1698" t="n">
-        <v>-23.55896801013628</v>
+        <v>-24.1389593862306</v>
       </c>
       <c r="H1698" t="n">
-        <v>13.26827726503679</v>
+        <v>13.21671548917414</v>
       </c>
       <c r="I1698" t="n">
         <v>-12.24577486359212</v>
@@ -54653,10 +54653,10 @@
         <v>11.373698055712</v>
       </c>
       <c r="G1699" t="n">
-        <v>-23.76235060113236</v>
+        <v>-24.32875483198264</v>
       </c>
       <c r="H1699" t="n">
-        <v>13.25947484179217</v>
+        <v>13.20865517254237</v>
       </c>
       <c r="I1699" t="n">
         <v>-12.44310408358367</v>
@@ -54685,10 +54685,10 @@
         <v>11.36603864022317</v>
       </c>
       <c r="G1700" t="n">
-        <v>-23.96807946769233</v>
+        <v>-24.5208885293697</v>
       </c>
       <c r="H1700" t="n">
-        <v>13.25075063107163</v>
+        <v>13.20068579269722</v>
       </c>
       <c r="I1700" t="n">
         <v>-12.64342693495628</v>
@@ -54717,10 +54717,10 @@
         <v>11.35846595616637</v>
       </c>
       <c r="G1701" t="n">
-        <v>-24.1761491807724</v>
+        <v>-24.71536528785368</v>
       </c>
       <c r="H1701" t="n">
-        <v>13.24210700772715</v>
+        <v>13.19280917301345</v>
       </c>
       <c r="I1701" t="n">
         <v>-12.84673526933767</v>
@@ -54749,10 +54749,10 @@
         <v>11.35098166558862</v>
       </c>
       <c r="G1702" t="n">
-        <v>-24.38655431132881</v>
+        <v>-24.91218991689647</v>
       </c>
       <c r="H1702" t="n">
-        <v>13.23354634661073</v>
+        <v>13.18502713686579</v>
       </c>
       <c r="I1702" t="n">
         <v>-13.05302093835554</v>
@@ -54781,10 +54781,10 @@
         <v>11.34358743053694</v>
       </c>
       <c r="G1703" t="n">
-        <v>-24.59928943031779</v>
+        <v>-25.11136722595998</v>
       </c>
       <c r="H1703" t="n">
-        <v>13.22507102257434</v>
+        <v>13.177341507629</v>
       </c>
       <c r="I1703" t="n">
         <v>-13.26227579363757</v>
@@ -54813,10 +54813,10 @@
         <v>11.33628491305834</v>
       </c>
       <c r="G1704" t="n">
-        <v>-24.81434910869555</v>
+        <v>-25.3129020245061</v>
       </c>
       <c r="H1704" t="n">
-        <v>13.21668341046997</v>
+        <v>13.16975410867781</v>
       </c>
       <c r="I1704" t="n">
         <v>-13.47449168681147</v>
@@ -54845,10 +54845,10 @@
         <v>11.32907577519986</v>
       </c>
       <c r="G1705" t="n">
-        <v>-25.03172791741834</v>
+        <v>-25.51679912199675</v>
       </c>
       <c r="H1705" t="n">
-        <v>13.20838588514961</v>
+        <v>13.16226676338699</v>
       </c>
       <c r="I1705" t="n">
         <v>-13.68966046950494</v>
@@ -54877,10 +54877,10 @@
         <v>11.32196167900851</v>
       </c>
       <c r="G1706" t="n">
-        <v>-25.25142042744235</v>
+        <v>-25.7230633278938</v>
       </c>
       <c r="H1706" t="n">
-        <v>13.20018082146523</v>
+        <v>13.15488129513128</v>
       </c>
       <c r="I1706" t="n">
         <v>-13.90777399334566</v>
@@ -54909,10 +54909,10 @@
         <v>11.3149442865313</v>
       </c>
       <c r="G1707" t="n">
-        <v>-25.47342120972384</v>
+        <v>-25.93169945165919</v>
       </c>
       <c r="H1707" t="n">
-        <v>13.19207059426883</v>
+        <v>13.14759952728542</v>
       </c>
       <c r="I1707" t="n">
         <v>-14.12882410996135</v>
@@ -54941,10 +54941,10 @@
         <v>11.30802525981527</v>
       </c>
       <c r="G1708" t="n">
-        <v>-25.69772483521901</v>
+        <v>-26.14271230275479</v>
       </c>
       <c r="H1708" t="n">
-        <v>13.18405757841238</v>
+        <v>13.14042328322417</v>
       </c>
       <c r="I1708" t="n">
         <v>-14.35280267097969</v>
@@ -54973,10 +54973,10 @@
         <v>11.30120626090743</v>
       </c>
       <c r="G1709" t="n">
-        <v>-25.9243258748841</v>
+        <v>-26.35610669064251</v>
       </c>
       <c r="H1709" t="n">
-        <v>13.17614414874788</v>
+        <v>13.13335438632226</v>
       </c>
       <c r="I1709" t="n">
         <v>-14.57970152802839</v>
@@ -55005,10 +55005,10 @@
         <v>11.2944889518548</v>
       </c>
       <c r="G1710" t="n">
-        <v>-26.15321889967533</v>
+        <v>-26.57188742478424</v>
       </c>
       <c r="H1710" t="n">
-        <v>13.16833268012729</v>
+        <v>13.12639465995445</v>
       </c>
       <c r="I1710" t="n">
         <v>-14.80951253273514</v>
@@ -55037,10 +55037,10 @@
         <v>11.2878749947044</v>
       </c>
       <c r="G1711" t="n">
-        <v>-26.38439848054892</v>
+        <v>-26.79005931464191</v>
       </c>
       <c r="H1711" t="n">
-        <v>13.16062554740262</v>
+        <v>13.11954592749548</v>
       </c>
       <c r="I1711" t="n">
         <v>-15.04222753672764</v>
@@ -55069,10 +55069,10 @@
         <v>11.28136605150325</v>
       </c>
       <c r="G1712" t="n">
-        <v>-26.61785918846111</v>
+        <v>-27.01062716967739</v>
       </c>
       <c r="H1712" t="n">
-        <v>13.15302512542584</v>
+        <v>13.11281001232011</v>
       </c>
       <c r="I1712" t="n">
         <v>-15.27783839163358</v>
@@ -55101,10 +55101,10 @@
         <v>11.27496378429838</v>
       </c>
       <c r="G1713" t="n">
-        <v>-26.85359559436812</v>
+        <v>-27.2335957993526</v>
       </c>
       <c r="H1713" t="n">
-        <v>13.14553378904893</v>
+        <v>13.10618873780308</v>
       </c>
       <c r="I1713" t="n">
         <v>-15.51633694908067</v>
@@ -55121,10 +55121,10 @@
         <v>13.93183388704359</v>
       </c>
       <c r="C1714" t="n">
-        <v>-25.45636700220865</v>
+        <v>-25.44587424879036</v>
       </c>
       <c r="D1714" t="n">
-        <v>15.46361567699769</v>
+        <v>15.46384226623654</v>
       </c>
       <c r="E1714" t="n">
         <v>-31.23902005144004</v>
@@ -55133,10 +55133,10 @@
         <v>11.26866985513679</v>
       </c>
       <c r="G1714" t="n">
-        <v>-27.09160226922617</v>
+        <v>-27.45897001312943</v>
       </c>
       <c r="H1714" t="n">
-        <v>13.13815391312389</v>
+        <v>13.09968392731913</v>
       </c>
       <c r="I1714" t="n">
         <v>-15.7577150606966</v>
@@ -55153,10 +55153,10 @@
         <v>13.93170531561502</v>
       </c>
       <c r="C1715" t="n">
-        <v>-25.8507277757782</v>
+        <v>-25.83739632164147</v>
       </c>
       <c r="D1715" t="n">
-        <v>15.46207260408403</v>
+        <v>15.46296750521559</v>
       </c>
       <c r="E1715" t="n">
         <v>-31.51363432492638</v>
@@ -55165,10 +55165,10 @@
         <v>11.26248592606552</v>
       </c>
       <c r="G1715" t="n">
-        <v>-27.3318737839915</v>
+        <v>-27.68675462046978</v>
       </c>
       <c r="H1715" t="n">
-        <v>13.13088787250269</v>
+        <v>13.09329740424301</v>
       </c>
       <c r="I1715" t="n">
         <v>-16.00196457810906</v>
@@ -55185,10 +55185,10 @@
         <v>13.93157674418645</v>
       </c>
       <c r="C1716" t="n">
-        <v>-26.22593946356575</v>
+        <v>-26.21742336141046</v>
       </c>
       <c r="D1716" t="n">
-        <v>15.45961363840185</v>
+        <v>15.46161857408001</v>
       </c>
       <c r="E1716" t="n">
         <v>-31.79041804782843</v>
@@ -55197,10 +55197,10 @@
         <v>11.25641365913158</v>
       </c>
       <c r="G1716" t="n">
-        <v>-27.5744047096203</v>
+        <v>-27.91695443083556</v>
       </c>
       <c r="H1716" t="n">
-        <v>13.12373804203732</v>
+        <v>13.08703099194948</v>
       </c>
       <c r="I1716" t="n">
         <v>-16.24907735294577</v>
@@ -55217,10 +55217,10 @@
         <v>13.93144817275788</v>
       </c>
       <c r="C1717" t="n">
-        <v>-26.58200206557132</v>
+        <v>-26.58595536809733</v>
       </c>
       <c r="D1717" t="n">
-        <v>15.45623877995116</v>
+        <v>15.45979547282978</v>
       </c>
       <c r="E1717" t="n">
         <v>-32.06936523254655</v>
@@ -55229,10 +55229,10 @@
         <v>11.250454716382</v>
       </c>
       <c r="G1717" t="n">
-        <v>-27.81918961706884</v>
+        <v>-28.14957425368866</v>
       </c>
       <c r="H1717" t="n">
-        <v>13.11670679657977</v>
+        <v>13.08088651381327</v>
       </c>
       <c r="I1717" t="n">
         <v>-16.49904523683441</v>
@@ -55249,10 +55249,10 @@
         <v>13.93131960132931</v>
       </c>
       <c r="C1718" t="n">
-        <v>-26.91891558179492</v>
+        <v>-26.94299234170207</v>
       </c>
       <c r="D1718" t="n">
-        <v>15.45194802873196</v>
+        <v>15.45749820146492</v>
       </c>
       <c r="E1718" t="n">
         <v>-32.35046989148108</v>
@@ -55261,10 +55261,10 @@
         <v>11.24461075986379</v>
       </c>
       <c r="G1718" t="n">
-        <v>-28.06622307729332</v>
+        <v>-28.38461889849099</v>
       </c>
       <c r="H1718" t="n">
-        <v>13.109796510982</v>
+        <v>13.07486579320914</v>
       </c>
       <c r="I1718" t="n">
         <v>-16.75186008140268</v>
@@ -55281,10 +55281,10 @@
         <v>13.93119102990074</v>
       </c>
       <c r="C1719" t="n">
-        <v>-27.23668001223653</v>
+        <v>-27.2885342822247</v>
       </c>
       <c r="D1719" t="n">
-        <v>15.44674138474425</v>
+        <v>15.45472675998542</v>
       </c>
       <c r="E1719" t="n">
         <v>-32.63372603703242</v>
@@ -55293,10 +55293,10 @@
         <v>11.23888345162396</v>
       </c>
       <c r="G1719" t="n">
-        <v>-28.31549966124997</v>
+        <v>-28.62209317470445</v>
       </c>
       <c r="H1719" t="n">
-        <v>13.10300956009603</v>
+        <v>13.06897065351184</v>
       </c>
       <c r="I1719" t="n">
         <v>-17.00751373827828</v>
@@ -55313,10 +55313,10 @@
         <v>13.93106245847217</v>
       </c>
       <c r="C1720" t="n">
-        <v>-27.53529535689617</v>
+        <v>-27.6225811896652</v>
       </c>
       <c r="D1720" t="n">
-        <v>15.44061884798803</v>
+        <v>15.45148114839129</v>
       </c>
       <c r="E1720" t="n">
         <v>-32.91912768160087</v>
@@ -55325,10 +55325,10 @@
         <v>11.23327445370956</v>
       </c>
       <c r="G1720" t="n">
-        <v>-28.56701393989501</v>
+        <v>-28.86200189179094</v>
       </c>
       <c r="H1720" t="n">
-        <v>13.09634831877381</v>
+        <v>13.0632029180961</v>
       </c>
       <c r="I1720" t="n">
         <v>-17.2659980590889</v>
@@ -55345,10 +55345,10 @@
         <v>13.93093388704359</v>
       </c>
       <c r="C1721" t="n">
-        <v>-27.81476161577383</v>
+        <v>-27.94513306402358</v>
       </c>
       <c r="D1721" t="n">
-        <v>15.43358041846329</v>
+        <v>15.44776136668252</v>
       </c>
       <c r="E1721" t="n">
         <v>-33.20666883758683</v>
@@ -55357,10 +55357,10 @@
         <v>11.22778542816758</v>
       </c>
       <c r="G1721" t="n">
-        <v>-28.82076048418468</v>
+        <v>-29.10434985921235</v>
       </c>
       <c r="H1721" t="n">
-        <v>13.08981516186735</v>
+        <v>13.05756441033668</v>
       </c>
       <c r="I1721" t="n">
         <v>-17.52730489546224</v>
@@ -55371,10 +55371,10 @@
     </row>
     <row r="1722">
       <c r="C1722" t="n">
-        <v>-28.0750787888695</v>
+        <v>-28.25618990529984</v>
       </c>
       <c r="D1722" t="n">
-        <v>15.42562609617005</v>
+        <v>15.4435674148591</v>
       </c>
       <c r="E1722" t="n">
         <v>-33.49634351739064</v>
@@ -55383,10 +55383,10 @@
         <v>11.22241803704507</v>
       </c>
       <c r="G1722" t="n">
-        <v>-29.07673386507519</v>
+        <v>-29.34914188643059</v>
       </c>
       <c r="H1722" t="n">
-        <v>13.08341246422862</v>
+        <v>13.05205695360833</v>
       </c>
       <c r="I1722" t="n">
         <v>-17.79142609902601</v>
@@ -55397,10 +55397,10 @@
     </row>
     <row r="1723">
       <c r="C1723" t="n">
-        <v>-28.31624687618319</v>
+        <v>-28.55575171349398</v>
       </c>
       <c r="D1723" t="n">
-        <v>15.41675588110829</v>
+        <v>15.43889929292105</v>
       </c>
       <c r="E1723" t="n">
         <v>-33.78814573341267</v>
@@ -55409,10 +55409,10 @@
         <v>11.21717394238902</v>
       </c>
       <c r="G1723" t="n">
-        <v>-29.33492865352278</v>
+        <v>-29.59638278290756</v>
       </c>
       <c r="H1723" t="n">
-        <v>13.07714260070961</v>
+        <v>13.04668237128579</v>
       </c>
       <c r="I1723" t="n">
         <v>-18.05835352140789</v>
@@ -55423,10 +55423,10 @@
     </row>
     <row r="1724">
       <c r="C1724" t="n">
-        <v>-28.53826587771491</v>
+        <v>-28.84381848860601</v>
       </c>
       <c r="D1724" t="n">
-        <v>15.40696977327802</v>
+        <v>15.43375700086837</v>
       </c>
       <c r="E1724" t="n">
         <v>-34.08206949805327</v>
@@ -55435,10 +55435,10 @@
         <v>11.21205480624647</v>
       </c>
       <c r="G1724" t="n">
-        <v>-29.59533942048366</v>
+        <v>-29.84607735810516</v>
       </c>
       <c r="H1724" t="n">
-        <v>13.0710079461623</v>
+        <v>13.04144248674381</v>
       </c>
       <c r="I1724" t="n">
         <v>-18.3280790142356</v>
@@ -55449,10 +55449,10 @@
     </row>
     <row r="1725">
       <c r="C1725" t="n">
-        <v>-28.74113579346464</v>
+        <v>-29.12039023063591</v>
       </c>
       <c r="D1725" t="n">
-        <v>15.39626777267924</v>
+        <v>15.42814053870104</v>
       </c>
       <c r="E1725" t="n">
         <v>-34.37810882371278</v>
@@ -55461,10 +55461,10 @@
         <v>11.20706229066444</v>
       </c>
       <c r="G1725" t="n">
-        <v>-29.85796073691407</v>
+        <v>-30.09823042148529</v>
       </c>
       <c r="H1725" t="n">
-        <v>13.06501087543867</v>
+        <v>13.03633912335714</v>
       </c>
       <c r="I1725" t="n">
         <v>-18.60059442913681</v>
@@ -55475,10 +55475,10 @@
     </row>
     <row r="1726">
       <c r="C1726" t="n">
-        <v>-28.9248566234324</v>
+        <v>-29.38546693958368</v>
       </c>
       <c r="D1726" t="n">
-        <v>15.38464987931195</v>
+        <v>15.42204990641908</v>
       </c>
       <c r="E1726" t="n">
         <v>-34.6762577227916</v>
@@ -55487,10 +55487,10 @@
         <v>11.20219805768993</v>
       </c>
       <c r="G1726" t="n">
-        <v>-30.12278717377023</v>
+        <v>-30.35284678250985</v>
       </c>
       <c r="H1726" t="n">
-        <v>13.05915376339072</v>
+        <v>13.03137410450052</v>
       </c>
       <c r="I1726" t="n">
         <v>-18.87589161773924</v>
@@ -55501,10 +55501,10 @@
     </row>
     <row r="1727">
       <c r="C1727" t="n">
-        <v>-29.08942836761818</v>
+        <v>-29.63904861544934</v>
       </c>
       <c r="D1727" t="n">
-        <v>15.37211609317614</v>
+        <v>15.41548510402248</v>
       </c>
       <c r="E1727" t="n">
         <v>-34.97651020769005</v>
@@ -55513,10 +55513,10 @@
         <v>11.19746376936999</v>
       </c>
       <c r="G1727" t="n">
-        <v>-30.38981330200836</v>
+        <v>-30.60993125064075</v>
       </c>
       <c r="H1727" t="n">
-        <v>13.05343898487042</v>
+        <v>13.02654925354871</v>
       </c>
       <c r="I1727" t="n">
         <v>-19.15396243167056</v>
@@ -55527,10 +55527,10 @@
     </row>
     <row r="1728">
       <c r="C1728" t="n">
-        <v>-29.23485102602197</v>
+        <v>-29.88113525823287</v>
       </c>
       <c r="D1728" t="n">
-        <v>15.35866641427182</v>
+        <v>15.40844613151124</v>
       </c>
       <c r="E1728" t="n">
         <v>-35.2788602908085</v>
@@ -55539,10 +55539,10 @@
         <v>11.19286108775162</v>
       </c>
       <c r="G1728" t="n">
-        <v>-30.65903369258469</v>
+        <v>-30.86948863533987</v>
       </c>
       <c r="H1728" t="n">
-        <v>13.04786891472975</v>
+        <v>13.02186639387644</v>
       </c>
       <c r="I1728" t="n">
         <v>-19.4347987225585</v>
@@ -55553,10 +55553,10 @@
     </row>
     <row r="1729">
       <c r="C1729" t="n">
-        <v>-29.36112459864378</v>
+        <v>-30.11172686793429</v>
       </c>
       <c r="D1729" t="n">
-        <v>15.34430084259899</v>
+        <v>15.40093298888537</v>
       </c>
       <c r="E1729" t="n">
         <v>-35.58330198454732</v>
@@ -55565,10 +55565,10 @@
         <v>11.18839167488184</v>
       </c>
       <c r="G1729" t="n">
-        <v>-30.93044291645545</v>
+        <v>-31.13152374606912</v>
       </c>
       <c r="H1729" t="n">
-        <v>13.04244592782071</v>
+        <v>13.01732734885848</v>
       </c>
       <c r="I1729" t="n">
         <v>-19.71839234203074</v>
@@ -55579,10 +55579,10 @@
     </row>
     <row r="1730">
       <c r="C1730" t="n">
-        <v>-29.46824908548361</v>
+        <v>-30.33082344455358</v>
       </c>
       <c r="D1730" t="n">
-        <v>15.32901937815766</v>
+        <v>15.39294567614485</v>
       </c>
       <c r="E1730" t="n">
         <v>-35.88982930130685</v>
@@ -55591,10 +55591,10 @@
         <v>11.18405719280768</v>
       </c>
       <c r="G1730" t="n">
-        <v>-31.20403554457685</v>
+        <v>-31.39604139229042</v>
       </c>
       <c r="H1730" t="n">
-        <v>13.03717239899528</v>
+        <v>13.01293394186955</v>
       </c>
       <c r="I1730" t="n">
         <v>-20.00473514171498</v>
@@ -55605,10 +55605,10 @@
     </row>
     <row r="1731">
       <c r="C1731" t="n">
-        <v>-29.55622448654147</v>
+        <v>-30.53842498809076</v>
       </c>
       <c r="D1731" t="n">
-        <v>15.3128220209478</v>
+        <v>15.3844841932897</v>
       </c>
       <c r="E1731" t="n">
         <v>-36.19843625348746</v>
@@ -55617,10 +55617,10 @@
         <v>11.17985930357616</v>
       </c>
       <c r="G1731" t="n">
-        <v>-31.47980614790514</v>
+        <v>-31.66304638346565</v>
       </c>
       <c r="H1731" t="n">
-        <v>13.03205070310543</v>
+        <v>13.00868799628442</v>
       </c>
       <c r="I1731" t="n">
         <v>-20.29381897323892</v>
@@ -55631,10 +55631,10 @@
     </row>
     <row r="1732">
       <c r="C1732" t="n">
-        <v>-29.62505080181735</v>
+        <v>-30.73453149854581</v>
       </c>
       <c r="D1732" t="n">
-        <v>15.29570877096944</v>
+        <v>15.37554854031992</v>
       </c>
       <c r="E1732" t="n">
         <v>-36.5091168534895</v>
@@ -55643,10 +55643,10 @@
         <v>11.17579966923429</v>
       </c>
       <c r="G1732" t="n">
-        <v>-31.75774929739653</v>
+        <v>-31.93254352905671</v>
       </c>
       <c r="H1732" t="n">
-        <v>13.02708321500316</v>
+        <v>13.00459133547782</v>
       </c>
       <c r="I1732" t="n">
         <v>-20.58563568823025</v>
@@ -55657,10 +55657,10 @@
     </row>
     <row r="1733">
       <c r="C1733" t="n">
-        <v>-29.67472803131124</v>
+        <v>-30.91914297591874</v>
       </c>
       <c r="D1733" t="n">
-        <v>15.27767962822256</v>
+        <v>15.36613871723549</v>
       </c>
       <c r="E1733" t="n">
         <v>-36.82186511371334</v>
@@ -55669,10 +55669,10 @@
         <v>11.1718799518291</v>
       </c>
       <c r="G1733" t="n">
-        <v>-32.03785956400725</v>
+        <v>-32.2045376385255</v>
       </c>
       <c r="H1733" t="n">
-        <v>13.02227230954045</v>
+        <v>13.00064578282452</v>
       </c>
       <c r="I1733" t="n">
         <v>-20.88017713831668</v>
@@ -55683,10 +55683,10 @@
     </row>
     <row r="1734">
       <c r="C1734" t="n">
-        <v>-29.70525617502315</v>
+        <v>-31.09225942020955</v>
       </c>
       <c r="D1734" t="n">
-        <v>15.25873459270718</v>
+        <v>15.35625472403642</v>
       </c>
       <c r="E1734" t="n">
         <v>-37.13667504655932</v>
@@ -55695,10 +55695,10 @@
         <v>11.16810181340761</v>
       </c>
       <c r="G1734" t="n">
-        <v>-32.3201315186935</v>
+        <v>-32.47903352133395</v>
       </c>
       <c r="H1734" t="n">
-        <v>13.01762036156928</v>
+        <v>12.99685316169924</v>
       </c>
       <c r="I1734" t="n">
         <v>-21.17743517512589</v>
@@ -55709,10 +55709,10 @@
     </row>
     <row r="1735">
       <c r="C1735" t="n">
-        <v>-29.71661257142858</v>
+        <v>-31.25388083141824</v>
       </c>
       <c r="D1735" t="n">
-        <v>15.23911371428556</v>
+        <v>15.34589656072272</v>
       </c>
       <c r="E1735" t="n">
         <v>-37.45354066442781</v>
@@ -55721,10 +55721,10 @@
         <v>11.16446691601683</v>
       </c>
       <c r="G1735" t="n">
-        <v>-32.60455973241156</v>
+        <v>-32.75603598694391</v>
       </c>
       <c r="H1735" t="n">
-        <v>13.01312974594164</v>
+        <v>12.99321529547675</v>
       </c>
       <c r="I1735" t="n">
         <v>-21.47740165028559</v>
@@ -55735,10 +55735,10 @@
     </row>
     <row r="1736">
       <c r="C1736" t="n">
-        <v>-29.72046188121621</v>
+        <v>-31.40400720954481</v>
       </c>
       <c r="D1736" t="n">
-        <v>15.22753788228295</v>
+        <v>15.33506422729438</v>
       </c>
       <c r="E1736" t="n">
         <v>-37.77245597971915</v>
@@ -55747,10 +55747,10 @@
         <v>11.1609769217038</v>
       </c>
       <c r="G1736" t="n">
-        <v>-32.89113877611761</v>
+        <v>-33.03554984481732</v>
       </c>
       <c r="H1736" t="n">
-        <v>13.0088028375095</v>
+        <v>12.98973400753179</v>
       </c>
       <c r="I1736" t="n">
         <v>-21.78006841542348</v>
@@ -55761,10 +55761,10 @@
     </row>
     <row r="1737">
       <c r="C1737" t="n">
-        <v>-29.72969837803709</v>
+        <v>-31.54263855458925</v>
       </c>
       <c r="D1737" t="n">
-        <v>15.21579875970455</v>
+        <v>15.3237577237514</v>
       </c>
       <c r="E1737" t="n">
         <v>-38.09341500483372</v>
@@ -55773,10 +55773,10 @@
         <v>11.15763349251551</v>
       </c>
       <c r="G1737" t="n">
-        <v>-33.17986322076788</v>
+        <v>-33.31757990441607</v>
       </c>
       <c r="H1737" t="n">
-        <v>13.00464201112487</v>
+        <v>12.9864111212391</v>
       </c>
       <c r="I1737" t="n">
         <v>-22.08542732216725</v>
@@ -55787,10 +55787,10 @@
     </row>
     <row r="1738">
       <c r="C1738" t="n">
-        <v>-29.74430248334224</v>
+        <v>-31.66977486655158</v>
       </c>
       <c r="D1738" t="n">
-        <v>15.20390320405409</v>
+        <v>15.31197705009379</v>
       </c>
       <c r="E1738" t="n">
         <v>-38.41641175217188</v>
@@ -55799,10 +55799,10 @@
         <v>11.15443829049901</v>
       </c>
       <c r="G1738" t="n">
-        <v>-33.47072763731861</v>
+        <v>-33.60213097520205</v>
       </c>
       <c r="H1738" t="n">
-        <v>13.00064964163971</v>
+        <v>12.98324845997343</v>
       </c>
       <c r="I1738" t="n">
         <v>-22.39347022214459</v>
@@ -55813,10 +55813,10 @@
     </row>
     <row r="1739">
       <c r="C1739" t="n">
-        <v>-29.76425461858268</v>
+        <v>-31.78541614543178</v>
       </c>
       <c r="D1739" t="n">
-        <v>15.19185807283526</v>
+        <v>15.29972220632153</v>
       </c>
       <c r="E1739" t="n">
         <v>-38.74144023413396</v>
@@ -55825,10 +55825,10 @@
         <v>11.1513929777013</v>
       </c>
       <c r="G1739" t="n">
-        <v>-33.76372659672603</v>
+        <v>-33.88920786663718</v>
       </c>
       <c r="H1739" t="n">
-        <v>12.99682810390602</v>
+        <v>12.98024784710954</v>
       </c>
       <c r="I1739" t="n">
         <v>-22.70418896698322</v>
@@ -55839,10 +55839,10 @@
     </row>
     <row r="1740">
       <c r="C1740" t="n">
-        <v>-29.78953520520942</v>
+        <v>-31.88956239122987</v>
       </c>
       <c r="D1740" t="n">
-        <v>15.17967022355181</v>
+        <v>15.28699319243464</v>
       </c>
       <c r="E1740" t="n">
         <v>-39.06849446312035</v>
@@ -55851,10 +55851,10 @@
         <v>11.14849921616942</v>
       </c>
       <c r="G1740" t="n">
-        <v>-34.05885466994634</v>
+        <v>-34.17881538818335</v>
       </c>
       <c r="H1740" t="n">
-        <v>12.99317977277577</v>
+        <v>12.97741110602216</v>
       </c>
       <c r="I1740" t="n">
         <v>-23.01757540831082</v>
@@ -55865,10 +55865,10 @@
     </row>
     <row r="1741">
       <c r="C1741" t="n">
-        <v>-29.82012466467349</v>
+        <v>-31.98221360394583</v>
       </c>
       <c r="D1741" t="n">
-        <v>15.16734651370743</v>
+        <v>15.27379000843311</v>
       </c>
       <c r="E1741" t="n">
         <v>-39.39756845153139</v>
@@ -55877,10 +55877,10 @@
         <v>11.14575866795037</v>
       </c>
       <c r="G1741" t="n">
-        <v>-34.3561064279358</v>
+        <v>-34.47095834930244</v>
       </c>
       <c r="H1741" t="n">
-        <v>12.98970702310095</v>
+        <v>12.97474006008605</v>
       </c>
       <c r="I1741" t="n">
         <v>-23.33362139775509</v>
@@ -55891,10 +55891,10 @@
     </row>
     <row r="1742">
       <c r="C1742" t="n">
-        <v>-29.8560034184259</v>
+        <v>-32.06336978357967</v>
       </c>
       <c r="D1742" t="n">
-        <v>15.15489380080585</v>
+        <v>15.26011265431694</v>
       </c>
       <c r="E1742" t="n">
         <v>-39.72865621176744</v>
@@ -55903,10 +55903,10 @@
         <v>11.14317299509118</v>
       </c>
       <c r="G1742" t="n">
-        <v>-34.65547644165061</v>
+        <v>-34.7656415594564</v>
       </c>
       <c r="H1742" t="n">
-        <v>12.98641222973355</v>
+        <v>12.97223653267595</v>
       </c>
       <c r="I1742" t="n">
         <v>-23.65231878694373</v>
@@ -55917,10 +55917,10 @@
     </row>
     <row r="1743">
       <c r="C1743" t="n">
-        <v>-29.89715188791767</v>
+        <v>-32.13303093013139</v>
       </c>
       <c r="D1743" t="n">
-        <v>15.14231894235079</v>
+        <v>15.24596113008614</v>
       </c>
       <c r="E1743" t="n">
         <v>-40.06175175622887</v>
@@ -55929,10 +55929,10 @@
         <v>11.14074385963887</v>
       </c>
       <c r="G1743" t="n">
-        <v>-34.95695928204699</v>
+        <v>-35.06286982810708</v>
       </c>
       <c r="H1743" t="n">
-        <v>12.98329776752554</v>
+        <v>12.96990234716661</v>
       </c>
       <c r="I1743" t="n">
         <v>-23.97365942750443</v>
@@ -55943,10 +55943,10 @@
     </row>
     <row r="1744">
       <c r="C1744" t="n">
-        <v>-29.94355049459983</v>
+        <v>-32.19119704360099</v>
       </c>
       <c r="D1744" t="n">
-        <v>15.12962879584595</v>
+        <v>15.2313354357407</v>
       </c>
       <c r="E1744" t="n">
         <v>-40.39684909731601</v>
@@ -55955,10 +55955,10 @@
         <v>11.13847292364045</v>
       </c>
       <c r="G1744" t="n">
-        <v>-35.26054952008119</v>
+        <v>-35.36264796471642</v>
       </c>
       <c r="H1744" t="n">
-        <v>12.98036601132893</v>
+        <v>12.96773932693278</v>
       </c>
       <c r="I1744" t="n">
         <v>-24.2976351710649</v>
@@ -55969,10 +55969,10 @@
     </row>
     <row r="1745">
       <c r="C1745" t="n">
-        <v>-29.99517965992339</v>
+        <v>-32.23786812398848</v>
       </c>
       <c r="D1745" t="n">
-        <v>15.11683021879507</v>
+        <v>15.21623557128062</v>
       </c>
       <c r="E1745" t="n">
         <v>-40.73394224742925</v>
@@ -55981,10 +55981,10 @@
         <v>11.13636184914296</v>
       </c>
       <c r="G1745" t="n">
-        <v>-35.56624172670942</v>
+        <v>-35.6649807787463</v>
       </c>
       <c r="H1745" t="n">
-        <v>12.97761933599567</v>
+        <v>12.96574929534921</v>
       </c>
       <c r="I1745" t="n">
         <v>-24.62423786925284</v>
@@ -55995,10 +55995,10 @@
     </row>
     <row r="1746">
       <c r="C1746" t="n">
-        <v>-30.05201980533937</v>
+        <v>-32.27304417129383</v>
       </c>
       <c r="D1746" t="n">
-        <v>15.10393006870185</v>
+        <v>15.2006615367059</v>
       </c>
       <c r="E1746" t="n">
         <v>-41.07302521896892</v>
@@ -56007,10 +56007,10 @@
         <v>11.13441229819341</v>
       </c>
       <c r="G1746" t="n">
-        <v>-35.87403047288791</v>
+        <v>-35.96987307965861</v>
       </c>
       <c r="H1746" t="n">
-        <v>12.97506011637778</v>
+        <v>12.96393407579063</v>
       </c>
       <c r="I1746" t="n">
         <v>-24.95345937369593</v>
@@ -56021,10 +56021,10 @@
     </row>
     <row r="1747">
       <c r="C1747" t="n">
-        <v>-30.11405135229879</v>
+        <v>-32.29672518551707</v>
       </c>
       <c r="D1747" t="n">
-        <v>15.09093520307002</v>
+        <v>15.18461333201654</v>
       </c>
       <c r="E1747" t="n">
         <v>-41.41409202433539</v>
@@ -56033,10 +56033,10 @@
         <v>11.13262593283881</v>
       </c>
       <c r="G1747" t="n">
-        <v>-36.1839103295729</v>
+        <v>-36.27732967691528</v>
       </c>
       <c r="H1747" t="n">
-        <v>12.97269072732721</v>
+        <v>12.96229549163181</v>
       </c>
       <c r="I1747" t="n">
         <v>-25.28529153602187</v>
@@ -56047,10 +56047,10 @@
     </row>
     <row r="1748">
       <c r="C1748" t="n">
-        <v>-30.18125472225266</v>
+        <v>-32.29908571428589</v>
       </c>
       <c r="D1748" t="n">
-        <v>15.07785247940329</v>
+        <v>15.1823662857141</v>
       </c>
       <c r="E1748" t="n">
         <v>-41.75713667592903</v>
@@ -56059,10 +56059,10 @@
         <v>11.1310044151262</v>
       </c>
       <c r="G1748" t="n">
-        <v>-36.49587586772058</v>
+        <v>-36.58735537997818</v>
       </c>
       <c r="H1748" t="n">
-        <v>12.97051354369597</v>
+        <v>12.96083536624748</v>
       </c>
       <c r="I1748" t="n">
         <v>-25.61972620785838</v>
@@ -56073,10 +56073,10 @@
     </row>
     <row r="1749">
       <c r="C1749" t="n">
-        <v>-30.25361033665203</v>
+        <v>-32.31765019778017</v>
       </c>
       <c r="D1749" t="n">
-        <v>15.06468875520538</v>
+        <v>15.16568786093465</v>
       </c>
       <c r="E1749" t="n">
         <v>-42.10215318615018</v>
@@ -56085,10 +56085,10 @@
         <v>11.12954940710259</v>
       </c>
       <c r="G1749" t="n">
-        <v>-36.80992165828719</v>
+        <v>-36.89995499830925</v>
       </c>
       <c r="H1749" t="n">
-        <v>12.96853094033603</v>
+        <v>12.9595555230124</v>
       </c>
       <c r="I1749" t="n">
         <v>-25.95675524083313</v>
@@ -56099,10 +56099,10 @@
     </row>
     <row r="1750">
       <c r="C1750" t="n">
-        <v>-30.33109861694788</v>
+        <v>-32.34001586557144</v>
       </c>
       <c r="D1750" t="n">
-        <v>15.05145088798</v>
+        <v>15.14902292939385</v>
       </c>
       <c r="E1750" t="n">
         <v>-42.4491355673992</v>
@@ -56111,10 +56111,10 @@
         <v>11.12826257081499</v>
       </c>
       <c r="G1750" t="n">
-        <v>-37.12604227222896</v>
+        <v>-37.21513334137035</v>
       </c>
       <c r="H1750" t="n">
-        <v>12.96674529209938</v>
+        <v>12.9584577853013</v>
       </c>
       <c r="I1750" t="n">
         <v>-26.29637048657383</v>
@@ -56125,10 +56125,10 @@
     </row>
     <row r="1751">
       <c r="C1751" t="n">
-        <v>-30.41369998459126</v>
+        <v>-32.36624094449056</v>
       </c>
       <c r="D1751" t="n">
-        <v>15.03814573523088</v>
+        <v>15.13237710441987</v>
       </c>
       <c r="E1751" t="n">
         <v>-42.79807783207644</v>
@@ -56137,10 +56137,10 @@
         <v>11.12714556831044</v>
       </c>
       <c r="G1751" t="n">
-        <v>-37.44423228050213</v>
+        <v>-37.5328952186234</v>
       </c>
       <c r="H1751" t="n">
-        <v>12.96515897383799</v>
+        <v>12.95754397648895</v>
       </c>
       <c r="I1751" t="n">
         <v>-26.63856379670817</v>
@@ -56151,10 +56151,10 @@
     </row>
     <row r="1752">
       <c r="C1752" t="n">
-        <v>-30.50139486103316</v>
+        <v>-32.39638366136833</v>
       </c>
       <c r="D1752" t="n">
-        <v>15.02478015446172</v>
+        <v>15.1157559993409</v>
       </c>
       <c r="E1752" t="n">
         <v>-43.1489739925823</v>
@@ -56163,10 +56163,10 @@
         <v>11.12620006163595</v>
       </c>
       <c r="G1752" t="n">
-        <v>-37.76448625406292</v>
+        <v>-37.8532454395303</v>
       </c>
       <c r="H1752" t="n">
-        <v>12.96377436040387</v>
+        <v>12.95681591995008</v>
       </c>
       <c r="I1752" t="n">
         <v>-26.98332702286386</v>
@@ -56177,10 +56177,10 @@
     </row>
     <row r="1753">
       <c r="C1753" t="n">
-        <v>-30.59416366772463</v>
+        <v>-32.43050224303556</v>
       </c>
       <c r="D1753" t="n">
-        <v>15.01136100317626</v>
+        <v>15.09916522748512</v>
       </c>
       <c r="E1753" t="n">
         <v>-43.50181806131708</v>
@@ -56189,10 +56189,10 @@
         <v>11.12542771283854</v>
       </c>
       <c r="G1753" t="n">
-        <v>-38.08679876386752</v>
+        <v>-38.17618881355294</v>
       </c>
       <c r="H1753" t="n">
-        <v>12.96259382664898</v>
+        <v>12.95627543905945</v>
       </c>
       <c r="I1753" t="n">
         <v>-27.33065201666859</v>
@@ -56203,10 +56203,10 @@
     </row>
     <row r="1754">
       <c r="C1754" t="n">
-        <v>-30.69198682611667</v>
+        <v>-32.46865491632306</v>
       </c>
       <c r="D1754" t="n">
-        <v>14.9978951388782</v>
+        <v>15.08261040218071</v>
       </c>
       <c r="E1754" t="n">
         <v>-43.85660405068118</v>
@@ -56215,10 +56215,10 @@
         <v>11.12483018396524</v>
       </c>
       <c r="G1754" t="n">
-        <v>-38.4111643808722</v>
+        <v>-38.50173015015324</v>
       </c>
       <c r="H1754" t="n">
-        <v>12.96161974742532</v>
+        <v>12.9559243571918</v>
       </c>
       <c r="I1754" t="n">
         <v>-27.68053062975006</v>
@@ -56229,10 +56229,10 @@
     </row>
     <row r="1755">
       <c r="C1755" t="n">
-        <v>-30.79484475766031</v>
+        <v>-32.51089990806167</v>
       </c>
       <c r="D1755" t="n">
-        <v>14.98438941907127</v>
+        <v>15.06609713675587</v>
       </c>
       <c r="E1755" t="n">
         <v>-44.21332597307494</v>
@@ -56241,10 +56241,10 @@
         <v>11.12440913706305</v>
       </c>
       <c r="G1755" t="n">
-        <v>-38.73757767603317</v>
+        <v>-38.82987425879309</v>
       </c>
       <c r="H1755" t="n">
-        <v>12.96085449758487</v>
+        <v>12.95576449772188</v>
       </c>
       <c r="I1755" t="n">
         <v>-28.03295471373597</v>
@@ -56255,10 +56255,10 @@
     </row>
     <row r="1756">
       <c r="C1756" t="n">
-        <v>-30.90271788380655</v>
+        <v>-32.55729544508218</v>
       </c>
       <c r="D1756" t="n">
-        <v>14.97085070125916</v>
+        <v>15.04963104453877</v>
       </c>
       <c r="E1756" t="n">
         <v>-44.57197784089873</v>
@@ -56267,10 +56267,10 @@
         <v>11.124166234179</v>
       </c>
       <c r="G1756" t="n">
-        <v>-39.06603322030665</v>
+        <v>-39.16062594893439</v>
       </c>
       <c r="H1756" t="n">
-        <v>12.96030045197961</v>
+        <v>12.95579768402443</v>
       </c>
       <c r="I1756" t="n">
         <v>-28.387916120254</v>
@@ -56281,10 +56281,10 @@
     </row>
     <row r="1757">
       <c r="C1757" t="n">
-        <v>-31.01558662600644</v>
+        <v>-32.60789975421541</v>
       </c>
       <c r="D1757" t="n">
-        <v>14.95728584294563</v>
+        <v>15.0332177388576</v>
       </c>
       <c r="E1757" t="n">
         <v>-44.9875</v>
@@ -56293,10 +56293,10 @@
         <v>11.12430483871088</v>
       </c>
       <c r="G1757" t="n">
-        <v>-39.39652558464887</v>
+        <v>-39.49399003003904</v>
       </c>
       <c r="H1757" t="n">
-        <v>12.95995998546153</v>
+        <v>12.9560257394742</v>
       </c>
       <c r="I1757" t="n">
         <v>-28.74540670093186</v>
@@ -56307,10 +56307,10 @@
     </row>
     <row r="1758">
       <c r="C1758" t="n">
-        <v>-31.13343140571096</v>
+        <v>-32.66277106229218</v>
       </c>
       <c r="D1758" t="n">
-        <v>14.94370170163436</v>
+        <v>15.01686283304054</v>
       </c>
       <c r="E1758" t="n">
         <v>-45.375</v>
@@ -56319,10 +56319,10 @@
         <v>11.12445483871088</v>
       </c>
       <c r="G1758" t="n">
-        <v>-39.72904934001605</v>
+        <v>-39.82997131156893</v>
       </c>
       <c r="H1758" t="n">
-        <v>12.95983547288261</v>
+        <v>12.95645048744595</v>
       </c>
       <c r="I1758" t="n">
         <v>-29.10541830739726</v>
@@ -56333,10 +56333,10 @@
     </row>
     <row r="1759">
       <c r="C1759" t="n">
-        <v>-31.25623264437116</v>
+        <v>-32.72196759614333</v>
       </c>
       <c r="D1759" t="n">
-        <v>14.93010513482908</v>
+        <v>15.00057194041579</v>
       </c>
       <c r="E1759" t="n">
         <v>-45.7625</v>
@@ -56345,10 +56345,10 @@
         <v>11.12460483871088</v>
       </c>
       <c r="G1759" t="n">
-        <v>-40.06359905736443</v>
+        <v>-40.16857460298598</v>
       </c>
       <c r="H1759" t="n">
-        <v>12.95992928909483</v>
+        <v>12.95707375131442</v>
       </c>
       <c r="I1759" t="n">
         <v>-29.46794279127788</v>
@@ -56359,10 +56359,10 @@
     </row>
     <row r="1760">
       <c r="C1760" t="n">
-        <v>-31.38397076343806</v>
+        <v>-32.78554758259962</v>
       </c>
       <c r="D1760" t="n">
-        <v>14.91650300003352</v>
+        <v>14.98435067431151</v>
       </c>
       <c r="E1760" t="n">
         <v>-46.15000000000001</v>
@@ -56371,10 +56371,10 @@
         <v>11.12475483871088</v>
       </c>
       <c r="G1760" t="n">
-        <v>-40.40016930765022</v>
+        <v>-40.50980471375208</v>
       </c>
       <c r="H1760" t="n">
-        <v>12.96024380895018</v>
+        <v>12.95789735445435</v>
       </c>
       <c r="I1760" t="n">
         <v>-29.83297200420142</v>
@@ -56385,10 +56385,10 @@
     </row>
     <row r="1761">
       <c r="C1761" t="n">
-        <v>-31.51662618436265</v>
+        <v>-32.85356924849192</v>
       </c>
       <c r="D1761" t="n">
-        <v>14.90290215475137</v>
+        <v>14.9682046480559</v>
       </c>
       <c r="E1761" t="n">
         <v>-46.5375</v>
@@ -56397,10 +56397,10 @@
         <v>11.12490483871088</v>
       </c>
       <c r="G1761" t="n">
-        <v>-40.73875466182965</v>
+        <v>-40.85366645332915</v>
       </c>
       <c r="H1761" t="n">
-        <v>12.96078140730065</v>
+        <v>12.95892312024049</v>
       </c>
       <c r="I1761" t="n">
         <v>-30.20049779779559</v>
@@ -56411,10 +56411,10 @@
     </row>
     <row r="1762">
       <c r="C1762" t="n">
-        <v>-31.65417932859598</v>
+        <v>-32.92609082065103</v>
       </c>
       <c r="D1762" t="n">
-        <v>14.88930945648638</v>
+        <v>14.95213947497714</v>
       </c>
       <c r="E1762" t="n">
         <v>-46.925</v>
@@ -56423,10 +56423,10 @@
         <v>11.12505483871088</v>
       </c>
       <c r="G1762" t="n">
-        <v>-41.07934969085893</v>
+        <v>-41.20016463117907</v>
       </c>
       <c r="H1762" t="n">
-        <v>12.96154445899821</v>
+        <v>12.96015287204759</v>
       </c>
       <c r="I1762" t="n">
         <v>-30.57051202368807</v>
@@ -56437,10 +56437,10 @@
     </row>
     <row r="1763">
       <c r="C1763" t="n">
-        <v>-31.79661061758906</v>
+        <v>-33.00317052590773</v>
       </c>
       <c r="D1763" t="n">
-        <v>14.87573176274224</v>
+        <v>14.93616076840341</v>
       </c>
       <c r="E1763" t="n">
         <v>-47.3125</v>
@@ -56449,10 +56449,10 @@
         <v>11.12520483871088</v>
       </c>
       <c r="G1763" t="n">
-        <v>-41.42194896569432</v>
+        <v>-41.54930405676373</v>
       </c>
       <c r="H1763" t="n">
-        <v>12.96253533889485</v>
+        <v>12.9615884332504</v>
       </c>
       <c r="I1763" t="n">
         <v>-30.94300653350656</v>
@@ -56463,10 +56463,10 @@
     </row>
     <row r="1764">
       <c r="C1764" t="n">
-        <v>-31.9439004727929</v>
+        <v>-33.08486659109289</v>
       </c>
       <c r="D1764" t="n">
-        <v>14.86217593102268</v>
+        <v>14.92027414166291</v>
       </c>
       <c r="E1764" t="n">
         <v>-47.7</v>
@@ -56475,10 +56475,10 @@
         <v>11.12535483871088</v>
       </c>
       <c r="G1764" t="n">
-        <v>-41.76654705729202</v>
+        <v>-41.90108953954505</v>
       </c>
       <c r="H1764" t="n">
-        <v>12.96375642184256</v>
+        <v>12.96323162722366</v>
       </c>
       <c r="I1764" t="n">
         <v>-31.31797317887878</v>
@@ -56489,10 +56489,10 @@
     </row>
     <row r="1765">
       <c r="C1765" t="n">
-        <v>-32.09602931565853</v>
+        <v>-33.17123724303729</v>
       </c>
       <c r="D1765" t="n">
-        <v>14.84864881883141</v>
+        <v>14.90448520808381</v>
       </c>
       <c r="E1765" t="n">
         <v>-48.08750000000001</v>
@@ -56501,10 +56501,10 @@
         <v>11.12550483871088</v>
       </c>
       <c r="G1765" t="n">
-        <v>-42.11313853660828</v>
+        <v>-42.25552588898492</v>
       </c>
       <c r="H1765" t="n">
-        <v>12.96521008269331</v>
+        <v>12.96508427734213</v>
       </c>
       <c r="I1765" t="n">
         <v>-31.69540381143239</v>
@@ -56515,10 +56515,10 @@
     </row>
     <row r="1766">
       <c r="C1766" t="n">
-        <v>-32.25297756763696</v>
+        <v>-33.26234070857177</v>
       </c>
       <c r="D1766" t="n">
-        <v>14.83515728367216</v>
+        <v>14.8887995809943</v>
       </c>
       <c r="E1766" t="n">
         <v>-48.475</v>
@@ -56527,10 +56527,10 @@
         <v>11.12565483871088</v>
       </c>
       <c r="G1766" t="n">
-        <v>-42.4617179745993</v>
+        <v>-42.61261791454527</v>
       </c>
       <c r="H1766" t="n">
-        <v>12.9668986962991</v>
+        <v>12.96714820698055</v>
       </c>
       <c r="I1766" t="n">
         <v>-32.07529028279512</v>
@@ -56541,10 +56541,10 @@
     </row>
     <row r="1767">
       <c r="C1767" t="n">
-        <v>-32.41472565017922</v>
+        <v>-33.35823521452712</v>
       </c>
       <c r="D1767" t="n">
-        <v>14.82170818304864</v>
+        <v>14.87322287372255</v>
       </c>
       <c r="E1767" t="n">
         <v>-48.8625</v>
@@ -56553,10 +56553,10 @@
         <v>11.12580483871088</v>
       </c>
       <c r="G1767" t="n">
-        <v>-42.81227994222131</v>
+        <v>-42.97237042568796</v>
       </c>
       <c r="H1767" t="n">
-        <v>12.96882463751191</v>
+        <v>12.96942523951366</v>
       </c>
       <c r="I1767" t="n">
         <v>-32.45762444459466</v>
@@ -56567,10 +56567,10 @@
     </row>
     <row r="1768">
       <c r="C1768" t="n">
-        <v>-32.58125398473632</v>
+        <v>-33.45897898773416</v>
       </c>
       <c r="D1768" t="n">
-        <v>14.80830837446456</v>
+        <v>14.85776069959676</v>
       </c>
       <c r="E1768" t="n">
         <v>-49.25</v>
@@ -56579,10 +56579,10 @@
         <v>11.12595483871088</v>
       </c>
       <c r="G1768" t="n">
-        <v>-43.16481901043053</v>
+        <v>-43.33478823187492</v>
       </c>
       <c r="H1768" t="n">
-        <v>12.97099028118372</v>
+        <v>12.97191719831622</v>
       </c>
       <c r="I1768" t="n">
         <v>-32.84239814845868</v>
@@ -56593,10 +56593,10 @@
     </row>
     <row r="1769">
       <c r="C1769" t="n">
-        <v>-32.75254299275928</v>
+        <v>-33.56463025502374</v>
       </c>
       <c r="D1769" t="n">
-        <v>14.79496471542364</v>
+        <v>14.84241867194511</v>
       </c>
       <c r="E1769" t="n">
         <v>-49.6375</v>
@@ -56605,10 +56605,10 @@
         <v>11.12610483871088</v>
       </c>
       <c r="G1769" t="n">
-        <v>-43.51932975018322</v>
+        <v>-43.69987614256803</v>
       </c>
       <c r="H1769" t="n">
-        <v>12.97339800216652</v>
+        <v>12.97462590676297</v>
       </c>
       <c r="I1769" t="n">
         <v>-33.22960324601491</v>
@@ -56619,16 +56619,16 @@
     </row>
     <row r="1770">
       <c r="C1770" t="n">
-        <v>-32.92857309569913</v>
+        <v>-33.67524724322662</v>
       </c>
       <c r="D1770" t="n">
-        <v>14.78168406342961</v>
+        <v>14.8272024040958</v>
       </c>
       <c r="G1770" t="n">
-        <v>-43.87580673243555</v>
+        <v>-44.06763896722921</v>
       </c>
       <c r="H1770" t="n">
-        <v>12.97605017531228</v>
+        <v>12.97755318822866</v>
       </c>
       <c r="I1770" t="n">
         <v>-33.61923158889105</v>
@@ -56639,16 +56639,16 @@
     </row>
     <row r="1771">
       <c r="C1771" t="n">
-        <v>-33.10932471500687</v>
+        <v>-33.79088817917366</v>
       </c>
       <c r="D1771" t="n">
-        <v>14.76847327598618</v>
+        <v>14.81211750937698</v>
       </c>
       <c r="G1771" t="n">
-        <v>-44.23424452814379</v>
+        <v>-44.7875</v>
       </c>
       <c r="H1771" t="n">
-        <v>12.978949175473</v>
+        <v>12.97699314516173</v>
       </c>
       <c r="I1771" t="n">
         <v>-34.01127502871476</v>
@@ -56659,16 +56659,16 @@
     </row>
     <row r="1772">
       <c r="C1772" t="n">
-        <v>-33.29477827213354</v>
+        <v>-33.91161128969566</v>
       </c>
       <c r="D1772" t="n">
-        <v>14.75533921059706</v>
+        <v>14.79716960111686</v>
       </c>
       <c r="G1772" t="n">
-        <v>-44.7875</v>
+        <v>-45.175</v>
       </c>
       <c r="H1772" t="n">
-        <v>12.97699314516173</v>
+        <v>12.97361814516174</v>
       </c>
       <c r="I1772" t="n">
         <v>-34.40572541711379</v>
@@ -56679,16 +56679,16 @@
     </row>
     <row r="1773">
       <c r="C1773" t="n">
-        <v>-33.48491418853014</v>
+        <v>-34.03747480162344</v>
       </c>
       <c r="D1773" t="n">
-        <v>14.74228872476597</v>
+        <v>14.78236429264362</v>
       </c>
       <c r="G1773" t="n">
-        <v>-45.175</v>
+        <v>-45.5625</v>
       </c>
       <c r="H1773" t="n">
-        <v>12.97361814516174</v>
+        <v>12.97024314516174</v>
       </c>
       <c r="I1773" t="n">
         <v>-34.80257460571579</v>
@@ -56699,16 +56699,16 @@
     </row>
     <row r="1774">
       <c r="C1774" t="n">
-        <v>-33.6797128856477</v>
+        <v>-34.16853694178781</v>
       </c>
       <c r="D1774" t="n">
-        <v>14.72932867599664</v>
+        <v>14.76770719728543</v>
       </c>
       <c r="G1774" t="n">
-        <v>-45.5625</v>
+        <v>-45.95</v>
       </c>
       <c r="H1774" t="n">
-        <v>12.97024314516174</v>
+        <v>12.96686814516174</v>
       </c>
       <c r="I1774" t="n">
         <v>-35.20181444614848</v>
@@ -56719,16 +56719,16 @@
     </row>
     <row r="1775">
       <c r="C1775" t="n">
-        <v>-33.87915478493724</v>
+        <v>-34.30485593701957</v>
       </c>
       <c r="D1775" t="n">
-        <v>14.71646592179277</v>
+        <v>14.75320392837049</v>
       </c>
       <c r="G1775" t="n">
-        <v>-45.95</v>
+        <v>-46.3375</v>
       </c>
       <c r="H1775" t="n">
-        <v>12.96686814516174</v>
+        <v>12.96349314516174</v>
       </c>
       <c r="I1775" t="n">
         <v>-35.73428571428571</v>
@@ -56739,16 +56739,16 @@
     </row>
     <row r="1776">
       <c r="C1776" t="n">
-        <v>-34.08322030784979</v>
+        <v>-34.44649001414957</v>
       </c>
       <c r="D1776" t="n">
-        <v>14.70370731965809</v>
+        <v>14.73886009922699</v>
       </c>
       <c r="G1776" t="n">
-        <v>-46.3375</v>
+        <v>-46.725</v>
       </c>
       <c r="H1776" t="n">
-        <v>12.96349314516174</v>
+        <v>12.96011814516174</v>
       </c>
       <c r="I1776" t="n">
         <v>-36.16857142857143</v>
@@ -56759,16 +56759,16 @@
     </row>
     <row r="1777">
       <c r="C1777" t="n">
-        <v>-34.29188987583633</v>
+        <v>-34.59349740000862</v>
       </c>
       <c r="D1777" t="n">
-        <v>14.6910597270963</v>
+        <v>14.7246813231831</v>
       </c>
       <c r="G1777" t="n">
-        <v>-46.725</v>
+        <v>-47.1125</v>
       </c>
       <c r="H1777" t="n">
-        <v>12.96011814516174</v>
+        <v>12.95674314516174</v>
       </c>
       <c r="I1777" t="n">
         <v>-36.60285714285714</v>
@@ -56779,16 +56779,16 @@
     </row>
     <row r="1778">
       <c r="C1778" t="n">
-        <v>-34.50514391034793</v>
+        <v>-34.74593632142752</v>
       </c>
       <c r="D1778" t="n">
-        <v>14.67853000161114</v>
+        <v>14.71067321356701</v>
       </c>
       <c r="G1778" t="n">
-        <v>-47.1125</v>
+        <v>-47.5</v>
       </c>
       <c r="H1778" t="n">
-        <v>12.95674314516174</v>
+        <v>12.95336814516174</v>
       </c>
       <c r="I1778" t="n">
         <v>-37.03714285714285</v>
@@ -56799,16 +56799,16 @@
     </row>
     <row r="1779">
       <c r="C1779" t="n">
-        <v>-34.72296283283557</v>
+        <v>-34.90386500523707</v>
       </c>
       <c r="D1779" t="n">
-        <v>14.66612500070632</v>
+        <v>14.69684138370689</v>
       </c>
       <c r="G1779" t="n">
-        <v>-47.5</v>
+        <v>-47.8875</v>
       </c>
       <c r="H1779" t="n">
-        <v>12.95336814516174</v>
+        <v>12.94999314516174</v>
       </c>
       <c r="I1779" t="n">
         <v>-37.47142857142857</v>
@@ -56819,16 +56819,16 @@
     </row>
     <row r="1780">
       <c r="C1780" t="n">
-        <v>-34.94532706475029</v>
+        <v>-35.06734167826812</v>
       </c>
       <c r="D1780" t="n">
-        <v>14.65385158188555</v>
+        <v>14.68319144693096</v>
       </c>
       <c r="G1780" t="n">
-        <v>-47.8875</v>
+        <v>-48.275</v>
       </c>
       <c r="H1780" t="n">
-        <v>12.94999314516174</v>
+        <v>12.94661814516174</v>
       </c>
       <c r="I1780" t="n">
         <v>-37.90571428571428</v>
@@ -56839,16 +56839,16 @@
     </row>
     <row r="1781">
       <c r="C1781" t="n">
-        <v>-35.1722170275431</v>
+        <v>-35.23642456735148</v>
       </c>
       <c r="D1781" t="n">
-        <v>14.64171660265254</v>
+        <v>14.66972901656737</v>
       </c>
       <c r="G1781" t="n">
-        <v>-48.275</v>
+        <v>-48.6625</v>
       </c>
       <c r="H1781" t="n">
-        <v>12.94661814516174</v>
+        <v>12.94324314516174</v>
       </c>
       <c r="I1781" t="n">
         <v>-38.34</v>
@@ -56859,16 +56859,16 @@
     </row>
     <row r="1782">
       <c r="C1782" t="n">
-        <v>-35.40361314266501</v>
+        <v>-35.41117189931794</v>
       </c>
       <c r="D1782" t="n">
-        <v>14.62972692051103</v>
+        <v>14.65645970594431</v>
       </c>
       <c r="G1782" t="n">
-        <v>-48.6625</v>
+        <v>-49.05</v>
       </c>
       <c r="H1782" t="n">
-        <v>12.94324314516174</v>
+        <v>12.93986814516175</v>
       </c>
       <c r="I1782" t="n">
         <v>-38.77428571428571</v>
@@ -56879,16 +56879,16 @@
     </row>
     <row r="1783">
       <c r="C1783" t="n">
-        <v>-35.63949583156706</v>
+        <v>-35.59164190099834</v>
       </c>
       <c r="D1783" t="n">
-        <v>14.61788939296472</v>
+        <v>14.64338912838997</v>
       </c>
       <c r="G1783" t="n">
-        <v>-49.05</v>
+        <v>-49.4375</v>
       </c>
       <c r="H1783" t="n">
-        <v>12.93986814516175</v>
+        <v>12.93649314516175</v>
       </c>
       <c r="I1783" t="n">
         <v>-39.20857142857142</v>
@@ -56899,16 +56899,16 @@
     </row>
     <row r="1784">
       <c r="C1784" t="n">
-        <v>-35.87984551570027</v>
+        <v>-35.77789279922349</v>
       </c>
       <c r="D1784" t="n">
-        <v>14.60621087751734</v>
+        <v>14.63052289723254</v>
       </c>
       <c r="G1784" t="n">
-        <v>-49.4375</v>
+        <v>-49.825</v>
       </c>
       <c r="H1784" t="n">
-        <v>12.93649314516175</v>
+        <v>12.93311814516175</v>
       </c>
       <c r="I1784" t="n">
         <v>-39.64285714285714</v>
@@ -56919,16 +56919,10 @@
     </row>
     <row r="1785">
       <c r="C1785" t="n">
-        <v>-36.12464261651564</v>
+        <v>-35.96998282082421</v>
       </c>
       <c r="D1785" t="n">
-        <v>14.5946982316726</v>
-      </c>
-      <c r="G1785" t="n">
-        <v>-49.825</v>
-      </c>
-      <c r="H1785" t="n">
-        <v>12.93311814516175</v>
+        <v>14.6178666258002</v>
       </c>
       <c r="I1785" t="n">
         <v>-40.07714285714285</v>
@@ -56939,10 +56933,10 @@
     </row>
     <row r="1786">
       <c r="C1786" t="n">
-        <v>-36.3738675554642</v>
+        <v>-36.1679701926313</v>
       </c>
       <c r="D1786" t="n">
-        <v>14.58335831293421</v>
+        <v>14.60542592742112</v>
       </c>
       <c r="I1786" t="n">
         <v>-40.51142857142857</v>
@@ -56953,10 +56947,10 @@
     </row>
     <row r="1787">
       <c r="C1787" t="n">
-        <v>-36.62750075399697</v>
+        <v>-36.3719131414756</v>
       </c>
       <c r="D1787" t="n">
-        <v>14.5721979788059</v>
+        <v>14.59320641542351</v>
       </c>
       <c r="I1787" t="n">
         <v>-40.94571428571428</v>
@@ -56967,10 +56961,10 @@
     </row>
     <row r="1788">
       <c r="C1788" t="n">
-        <v>-36.88552263356497</v>
+        <v>-36.5818698941879</v>
       </c>
       <c r="D1788" t="n">
-        <v>14.56122408679138</v>
+        <v>14.58121370313554</v>
       </c>
       <c r="I1788" t="n">
         <v>-41.38</v>
@@ -56981,10 +56975,10 @@
     </row>
     <row r="1789">
       <c r="C1789" t="n">
-        <v>-37.1479136156192</v>
+        <v>-36.79789867759903</v>
       </c>
       <c r="D1789" t="n">
-        <v>14.55044349439437</v>
+        <v>14.56945340388539</v>
       </c>
       <c r="I1789" t="n">
         <v>-41.81428571428571</v>
@@ -56995,10 +56989,10 @@
     </row>
     <row r="1790">
       <c r="C1790" t="n">
-        <v>-37.41465412161071</v>
+        <v>-37.02005771853981</v>
       </c>
       <c r="D1790" t="n">
-        <v>14.53986305911858</v>
+        <v>14.55793113100125</v>
       </c>
       <c r="I1790" t="n">
         <v>-42.24857142857142</v>
@@ -57009,10 +57003,10 @@
     </row>
     <row r="1791">
       <c r="C1791" t="n">
-        <v>-37.6857245729905</v>
+        <v>-37.24840524384104</v>
       </c>
       <c r="D1791" t="n">
-        <v>14.52948963846774</v>
+        <v>14.54665249781131</v>
       </c>
       <c r="I1791" t="n">
         <v>-42.68285714285714</v>
@@ -57023,10 +57017,10 @@
     </row>
     <row r="1792">
       <c r="C1792" t="n">
-        <v>-37.9611053912096</v>
+        <v>-37.48299948033355</v>
       </c>
       <c r="D1792" t="n">
-        <v>14.51933008994556</v>
+        <v>14.53562311764374</v>
       </c>
       <c r="I1792" t="n">
         <v>-43.11714285714285</v>
@@ -57037,10 +57031,10 @@
     </row>
     <row r="1793">
       <c r="C1793" t="n">
-        <v>-38.24077699771902</v>
+        <v>-37.72389865484814</v>
       </c>
       <c r="D1793" t="n">
-        <v>14.50939127105575</v>
+        <v>14.52484860382674</v>
       </c>
       <c r="I1793" t="n">
         <v>-43.55142857142857</v>
@@ -57051,10 +57045,10 @@
     </row>
     <row r="1794">
       <c r="C1794" t="n">
-        <v>-38.52471981396978</v>
+        <v>-37.97116099421564</v>
       </c>
       <c r="D1794" t="n">
-        <v>14.49968003930205</v>
+        <v>14.51433456968848</v>
       </c>
       <c r="I1794" t="n">
         <v>-43.98571428571428</v>
@@ -57065,10 +57059,10 @@
     </row>
     <row r="1795">
       <c r="C1795" t="n">
-        <v>-38.8129142614129</v>
+        <v>-38.22484472526686</v>
       </c>
       <c r="D1795" t="n">
-        <v>14.49020325218815</v>
+        <v>14.50408662855715</v>
       </c>
       <c r="I1795" t="n">
         <v>-44.41999999999999</v>
@@ -57079,10 +57073,10 @@
     </row>
     <row r="1796">
       <c r="C1796" t="n">
-        <v>-39.10534076149941</v>
+        <v>-38.48500807483263</v>
       </c>
       <c r="D1796" t="n">
-        <v>14.48096776721779</v>
+        <v>14.49411039376094</v>
       </c>
       <c r="I1796" t="n">
         <v>-44.85428571428571</v>
@@ -57093,10 +57087,10 @@
     </row>
     <row r="1797">
       <c r="C1797" t="n">
-        <v>-39.40197973568031</v>
+        <v>-38.75170926974374</v>
       </c>
       <c r="D1797" t="n">
-        <v>14.47198044189467</v>
+        <v>14.48441147862803</v>
       </c>
       <c r="I1797" t="n">
         <v>-45.28857142857142</v>
@@ -57107,10 +57101,10 @@
     </row>
     <row r="1798">
       <c r="C1798" t="n">
-        <v>-39.70281160540662</v>
+        <v>-39.02500653683101</v>
       </c>
       <c r="D1798" t="n">
-        <v>14.46324813372252</v>
+        <v>14.4749954964866</v>
       </c>
       <c r="I1798" t="n">
         <v>-45.72285714285714</v>
@@ -57121,10 +57115,10 @@
     </row>
     <row r="1799">
       <c r="C1799" t="n">
-        <v>-40.00781679212939</v>
+        <v>-39.30495810292529</v>
       </c>
       <c r="D1799" t="n">
-        <v>14.45477770020505</v>
+        <v>14.46586806066484</v>
       </c>
       <c r="I1799" t="n">
         <v>-46.15714285714285</v>
@@ -57135,10 +57129,10 @@
     </row>
     <row r="1800">
       <c r="C1800" t="n">
-        <v>-40.3169757172996</v>
+        <v>-39.59162219485736</v>
       </c>
       <c r="D1800" t="n">
-        <v>14.44657599884597</v>
+        <v>14.45703478449094</v>
       </c>
       <c r="I1800" t="n">
         <v>-46.59142857142857</v>
@@ -57149,10 +57143,10 @@
     </row>
     <row r="1801">
       <c r="C1801" t="n">
-        <v>-40.63026880236829</v>
+        <v>-39.88505703945804</v>
       </c>
       <c r="D1801" t="n">
-        <v>14.43864988714902</v>
+        <v>14.44850128129306</v>
       </c>
       <c r="I1801" t="n">
         <v>-47.02571428571428</v>
@@ -57163,10 +57157,10 @@
     </row>
     <row r="1802">
       <c r="C1802" t="n">
-        <v>-40.94767646878648</v>
+        <v>-40.18532086355815</v>
       </c>
       <c r="D1802" t="n">
-        <v>14.4310062226179</v>
+        <v>14.44027316439941</v>
       </c>
       <c r="I1802" t="n">
         <v>-47.45999999999999</v>
@@ -57177,10 +57171,10 @@
     </row>
     <row r="1803">
       <c r="C1803" t="n">
-        <v>-41.26917913800519</v>
+        <v>-40.49247189398852</v>
       </c>
       <c r="D1803" t="n">
-        <v>14.42365186275632</v>
+        <v>14.43235604713817</v>
       </c>
       <c r="I1803" t="n">
         <v>-47.89428571428571</v>
@@ -57191,10 +57185,10 @@
     </row>
     <row r="1804">
       <c r="C1804" t="n">
-        <v>-41.59475723147543</v>
+        <v>-40.80656835757993</v>
       </c>
       <c r="D1804" t="n">
-        <v>14.41659366506802</v>
+        <v>14.42475554283751</v>
       </c>
       <c r="I1804" t="n">
         <v>-48.32857142857142</v>
@@ -57205,10 +57199,10 @@
     </row>
     <row r="1805">
       <c r="C1805" t="n">
-        <v>-41.92439117064822</v>
+        <v>-41.12766848116323</v>
       </c>
       <c r="D1805" t="n">
-        <v>14.4098384870567</v>
+        <v>14.41747726482563</v>
       </c>
       <c r="I1805" t="n">
         <v>-48.76285714285714</v>
@@ -57219,10 +57213,10 @@
     </row>
     <row r="1806">
       <c r="C1806" t="n">
-        <v>-42.25806137697458</v>
+        <v>-41.45583049156922</v>
       </c>
       <c r="D1806" t="n">
-        <v>14.40339318622608</v>
+        <v>14.4105268264307</v>
       </c>
       <c r="I1806" t="n">
         <v>-49.19714285714285</v>
@@ -57233,10 +57227,10 @@
     </row>
     <row r="1807">
       <c r="C1807" t="n">
-        <v>-42.59574827190553</v>
+        <v>-41.79111261562873</v>
       </c>
       <c r="D1807" t="n">
-        <v>14.39726462007989</v>
+        <v>14.40390984098092</v>
       </c>
       <c r="I1807" t="n">
         <v>-49.63142857142856</v>
@@ -57247,145 +57241,153 @@
     </row>
     <row r="1808">
       <c r="C1808" t="n">
-        <v>-42.93743227689211</v>
+        <v>-42.13357308017255</v>
       </c>
       <c r="D1808" t="n">
-        <v>14.39145964612183</v>
+        <v>14.39763192180446</v>
       </c>
     </row>
     <row r="1809">
       <c r="C1809" t="n">
-        <v>-43.2830938133853</v>
+        <v>-42.48327011203153</v>
       </c>
       <c r="D1809" t="n">
-        <v>14.38598512185562</v>
+        <v>14.39169868222952</v>
       </c>
     </row>
     <row r="1810">
       <c r="C1810" t="n">
-        <v>-43.63271330283615</v>
+        <v>-42.84026193803645</v>
       </c>
       <c r="D1810" t="n">
-        <v>14.38084790478499</v>
+        <v>14.38611573558427</v>
       </c>
     </row>
     <row r="1811">
       <c r="C1811" t="n">
-        <v>-43.98627116669565</v>
+        <v>-43.20460678501814</v>
       </c>
       <c r="D1811" t="n">
-        <v>14.37605485241365</v>
+        <v>14.38088869519689</v>
       </c>
     </row>
     <row r="1812">
       <c r="C1812" t="n">
-        <v>-44.34374782641485</v>
+        <v>-43.57636287980744</v>
       </c>
       <c r="D1812" t="n">
-        <v>14.37161282224531</v>
+        <v>14.37602317439558</v>
       </c>
     </row>
     <row r="1813">
       <c r="C1813" t="n">
-        <v>-44.70512370344476</v>
+        <v>-43.95558844923512</v>
       </c>
       <c r="D1813" t="n">
-        <v>14.36752867178369</v>
+        <v>14.37152478650852</v>
       </c>
     </row>
     <row r="1814">
       <c r="C1814" t="n">
-        <v>-45.0703792192364</v>
+        <v>-44.34234172013204</v>
       </c>
       <c r="D1814" t="n">
-        <v>14.36380925853252</v>
+        <v>14.36739914486389</v>
       </c>
     </row>
     <row r="1815">
       <c r="C1815" t="n">
-        <v>-45.43949479524078</v>
+        <v>-44.73668091932898</v>
       </c>
       <c r="D1815" t="n">
-        <v>14.3604614399955</v>
+        <v>14.36365186278988</v>
       </c>
     </row>
     <row r="1816">
       <c r="C1816" t="n">
-        <v>-45.81245085290892</v>
+        <v>-45.13866427365677</v>
       </c>
       <c r="D1816" t="n">
-        <v>14.35749207367636</v>
+        <v>14.36028855361466</v>
       </c>
     </row>
     <row r="1817">
       <c r="C1817" t="n">
-        <v>-46.18922781369185</v>
+        <v>-45.54835000994623</v>
       </c>
       <c r="D1817" t="n">
-        <v>14.35490801707881</v>
+        <v>14.35731483066643</v>
       </c>
     </row>
     <row r="1818">
       <c r="C1818" t="n">
-        <v>-46.56980609904058</v>
+        <v>-45.96579635502819</v>
       </c>
       <c r="D1818" t="n">
-        <v>14.35271612770657</v>
+        <v>14.35473630727337</v>
       </c>
     </row>
     <row r="1819">
       <c r="C1819" t="n">
-        <v>-46.95416613040613</v>
+        <v>-46.39106153573343</v>
       </c>
       <c r="D1819" t="n">
-        <v>14.35092326306336</v>
+        <v>14.35255859676367</v>
       </c>
     </row>
     <row r="1820">
       <c r="C1820" t="n">
-        <v>-47.34228832923952</v>
+        <v>-46.82420377889279</v>
       </c>
       <c r="D1820" t="n">
-        <v>14.34953628065289</v>
+        <v>14.3507873124655</v>
       </c>
     </row>
     <row r="1821">
       <c r="C1821" t="n">
-        <v>-47.73415311699177</v>
+        <v>-47.26528131133708</v>
       </c>
       <c r="D1821" t="n">
-        <v>14.34856203797888</v>
+        <v>14.34942806770704</v>
       </c>
     </row>
     <row r="1822">
       <c r="C1822" t="n">
-        <v>-48.1297409151139</v>
+        <v>-47.71435235989711</v>
       </c>
       <c r="D1822" t="n">
-        <v>14.34800739254505</v>
+        <v>14.3484864758165</v>
       </c>
     </row>
     <row r="1823">
       <c r="C1823" t="n">
-        <v>-48.72857142857143</v>
+        <v>-48.17147515140369</v>
       </c>
       <c r="D1823" t="n">
-        <v>14.34807142857071</v>
+        <v>14.34796815012205</v>
       </c>
     </row>
     <row r="1824">
       <c r="C1824" t="n">
-        <v>-49.15714285714285</v>
+        <v>-48.72857142857143</v>
       </c>
       <c r="D1824" t="n">
-        <v>14.34824285714214</v>
+        <v>14.34807142857071</v>
       </c>
     </row>
     <row r="1825">
       <c r="C1825" t="n">
+        <v>-49.15714285714285</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>14.34824285714214</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="C1826" t="n">
         <v>-49.58571428571428</v>
       </c>
-      <c r="D1825" t="n">
+      <c r="D1826" t="n">
         <v>14.34841428571357</v>
       </c>
     </row>

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -50455,10 +50455,10 @@
         <v>15.4883</v>
       </c>
       <c r="E1568" t="n">
-        <v>-8.741887523070908</v>
+        <v>-8.70489119920162</v>
       </c>
       <c r="F1568" t="n">
-        <v>12.52645935588693</v>
+        <v>12.52651105938956</v>
       </c>
       <c r="G1568" t="n">
         <v>-2.980000000000015</v>
@@ -50487,10 +50487,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1569" t="n">
-        <v>-9.108751413182764</v>
+        <v>-9.037587487742284</v>
       </c>
       <c r="F1569" t="n">
-        <v>12.5257330875525</v>
+        <v>12.52591016425847</v>
       </c>
       <c r="G1569" t="n">
         <v>-3.367500000000014</v>
@@ -50519,10 +50519,10 @@
         <v>15.4881</v>
       </c>
       <c r="E1570" t="n">
-        <v>-9.46559167033559</v>
+        <v>-9.363088865622011</v>
       </c>
       <c r="F1570" t="n">
-        <v>12.52462119499671</v>
+        <v>12.52499731460677</v>
       </c>
       <c r="G1570" t="n">
         <v>-3.755000000000013</v>
@@ -50551,10 +50551,10 @@
         <v>15.488</v>
       </c>
       <c r="E1571" t="n">
-        <v>-9.812408294529384</v>
+        <v>-9.6813953328408</v>
       </c>
       <c r="F1571" t="n">
-        <v>12.52312367821958</v>
+        <v>12.52377251043443</v>
       </c>
       <c r="G1571" t="n">
         <v>-4.142500000000016</v>
@@ -50583,10 +50583,10 @@
         <v>15.488</v>
       </c>
       <c r="E1572" t="n">
-        <v>-10.14920128576414</v>
+        <v>-9.992506889398657</v>
       </c>
       <c r="F1572" t="n">
-        <v>12.52124053722109</v>
+        <v>12.52223575174147</v>
       </c>
       <c r="G1572" t="n">
         <v>-4.530000000000012</v>
@@ -50615,10 +50615,10 @@
         <v>15.4879</v>
       </c>
       <c r="E1573" t="n">
-        <v>-10.47597064403988</v>
+        <v>-10.29642353529557</v>
       </c>
       <c r="F1573" t="n">
-        <v>12.51897177200125</v>
+        <v>12.52038703852787</v>
       </c>
       <c r="G1573" t="n">
         <v>-4.917500000000015</v>
@@ -50647,10 +50647,10 @@
         <v>15.4877</v>
       </c>
       <c r="E1574" t="n">
-        <v>-10.79271636935658</v>
+        <v>-10.59314527053155</v>
       </c>
       <c r="F1574" t="n">
-        <v>12.51631738256007</v>
+        <v>12.51822637079366</v>
       </c>
       <c r="G1574" t="n">
         <v>-5.305000000000017</v>
@@ -50679,10 +50679,10 @@
         <v>15.4876</v>
       </c>
       <c r="E1575" t="n">
-        <v>-11.09943846171424</v>
+        <v>-10.8826720951066</v>
       </c>
       <c r="F1575" t="n">
-        <v>12.51327736889753</v>
+        <v>12.51575374853881</v>
       </c>
       <c r="G1575" t="n">
         <v>-5.692500000000013</v>
@@ -50711,10 +50711,10 @@
         <v>15.4875</v>
       </c>
       <c r="E1576" t="n">
-        <v>-11.39613692111288</v>
+        <v>-11.16500400902071</v>
       </c>
       <c r="F1576" t="n">
-        <v>12.50985173101364</v>
+        <v>12.51296917176334</v>
       </c>
       <c r="G1576" t="n">
         <v>-6.080000000000016</v>
@@ -50743,10 +50743,10 @@
         <v>15.4874</v>
       </c>
       <c r="E1577" t="n">
-        <v>-11.68281174755249</v>
+        <v>-11.44014101227388</v>
       </c>
       <c r="F1577" t="n">
-        <v>12.5060404689084</v>
+        <v>12.50987264046724</v>
       </c>
       <c r="G1577" t="n">
         <v>-6.467500000000019</v>
@@ -50775,10 +50775,10 @@
         <v>15.4873</v>
       </c>
       <c r="E1578" t="n">
-        <v>-11.95946294103306</v>
+        <v>-11.70808310486611</v>
       </c>
       <c r="F1578" t="n">
-        <v>12.5018435825818</v>
+        <v>12.50646415465051</v>
       </c>
       <c r="G1578" t="n">
         <v>-6.855000000000015</v>
@@ -50807,10 +50807,10 @@
         <v>15.4871</v>
       </c>
       <c r="E1579" t="n">
-        <v>-12.22609050155461</v>
+        <v>-11.96883028679741</v>
       </c>
       <c r="F1579" t="n">
-        <v>12.49726107203386</v>
+        <v>12.50274371431316</v>
       </c>
       <c r="G1579" t="n">
         <v>-7.242500000000017</v>
@@ -50839,10 +50839,10 @@
         <v>15.487</v>
       </c>
       <c r="E1580" t="n">
-        <v>-12.48269442911712</v>
+        <v>-12.22238255806777</v>
       </c>
       <c r="F1580" t="n">
-        <v>12.49229293726457</v>
+        <v>12.49871131945518</v>
       </c>
       <c r="G1580" t="n">
         <v>-7.63000000000002</v>
@@ -50871,10 +50871,10 @@
         <v>15.4869</v>
       </c>
       <c r="E1581" t="n">
-        <v>-12.7292747237206</v>
+        <v>-12.4687399186772</v>
       </c>
       <c r="F1581" t="n">
-        <v>12.48693917827392</v>
+        <v>12.49436697007657</v>
       </c>
       <c r="G1581" t="n">
         <v>-8.017500000000016</v>
@@ -50903,10 +50903,10 @@
         <v>15.4867</v>
       </c>
       <c r="E1582" t="n">
-        <v>-12.96583138536505</v>
+        <v>-12.70790236862569</v>
       </c>
       <c r="F1582" t="n">
-        <v>12.48119979506193</v>
+        <v>12.48971066617733</v>
       </c>
       <c r="G1582" t="n">
         <v>-8.353106141248496</v>
@@ -50935,10 +50935,10 @@
         <v>15.4866</v>
       </c>
       <c r="E1583" t="n">
-        <v>-13.19236441405047</v>
+        <v>-12.93986990791324</v>
       </c>
       <c r="F1583" t="n">
-        <v>12.47507478762858</v>
+        <v>12.48474240775748</v>
       </c>
       <c r="G1583" t="n">
         <v>-8.681845630138941</v>
@@ -50967,10 +50967,10 @@
         <v>15.4867</v>
       </c>
       <c r="E1584" t="n">
-        <v>-13.40887380977685</v>
+        <v>-13.16464253653985</v>
       </c>
       <c r="F1584" t="n">
-        <v>12.46856415597388</v>
+        <v>12.47946219481698</v>
       </c>
       <c r="G1584" t="n">
         <v>-9.00371846667135</v>
@@ -50999,10 +50999,10 @@
         <v>15.4865</v>
       </c>
       <c r="E1585" t="n">
-        <v>-13.61535957254421</v>
+        <v>-13.38222025450554</v>
       </c>
       <c r="F1585" t="n">
-        <v>12.46166790009783</v>
+        <v>12.47387002735587</v>
       </c>
       <c r="G1585" t="n">
         <v>-9.31872465084572</v>
@@ -51031,10 +51031,10 @@
         <v>15.4862</v>
       </c>
       <c r="E1586" t="n">
-        <v>-13.81182170235253</v>
+        <v>-13.59260306181028</v>
       </c>
       <c r="F1586" t="n">
-        <v>12.45438602000043</v>
+        <v>12.46796590537412</v>
       </c>
       <c r="G1586" t="n">
         <v>-9.626864182662054</v>
@@ -51063,10 +51063,10 @@
         <v>15.486</v>
       </c>
       <c r="E1587" t="n">
-        <v>-13.99826019920183</v>
+        <v>-13.79579095845408</v>
       </c>
       <c r="F1587" t="n">
-        <v>12.44671851568168</v>
+        <v>12.46174982887175</v>
       </c>
       <c r="G1587" t="n">
         <v>-9.928137062120355</v>
@@ -51095,10 +51095,10 @@
         <v>15.4858</v>
       </c>
       <c r="E1588" t="n">
-        <v>-14.17467506309209</v>
+        <v>-13.99178394443695</v>
       </c>
       <c r="F1588" t="n">
-        <v>12.43866538714158</v>
+        <v>12.45522179784875</v>
       </c>
       <c r="G1588" t="n">
         <v>-10.22254328922062</v>
@@ -51127,10 +51127,10 @@
         <v>15.4855</v>
       </c>
       <c r="E1589" t="n">
-        <v>-14.34106629402332</v>
+        <v>-14.18058201975889</v>
       </c>
       <c r="F1589" t="n">
-        <v>12.43022663438013</v>
+        <v>12.44838181230513</v>
       </c>
       <c r="G1589" t="n">
         <v>-10.51008286396284</v>
@@ -51159,10 +51159,10 @@
         <v>15.48532857142857</v>
       </c>
       <c r="E1590" t="n">
-        <v>-14.49743389199552</v>
+        <v>-14.36218518441989</v>
       </c>
       <c r="F1590" t="n">
-        <v>12.42140225739732</v>
+        <v>12.44122987224087</v>
       </c>
       <c r="G1590" t="n">
         <v>-10.79075578634703</v>
@@ -51191,10 +51191,10 @@
         <v>15.48515714285714</v>
       </c>
       <c r="E1591" t="n">
-        <v>-14.64377785700868</v>
+        <v>-14.53659343841994</v>
       </c>
       <c r="F1591" t="n">
-        <v>12.41219225619317</v>
+        <v>12.43376597765599</v>
       </c>
       <c r="G1591" t="n">
         <v>-11.06456205637319</v>
@@ -51223,10 +51223,10 @@
         <v>15.48498571428571</v>
       </c>
       <c r="E1592" t="n">
-        <v>-14.78009818906282</v>
+        <v>-14.70380678175907</v>
       </c>
       <c r="F1592" t="n">
-        <v>12.40259663076766</v>
+        <v>12.42599012855049</v>
       </c>
       <c r="G1592" t="n">
         <v>-11.3315016740413</v>
@@ -51255,10 +51255,10 @@
         <v>15.48481428571429</v>
       </c>
       <c r="E1593" t="n">
-        <v>-14.90639488815792</v>
+        <v>-14.86382521443726</v>
       </c>
       <c r="F1593" t="n">
-        <v>12.3926153811208</v>
+        <v>12.41790232492436</v>
       </c>
       <c r="G1593" t="n">
         <v>-11.59157463935139</v>
@@ -51287,10 +51287,10 @@
         <v>15.48464285714286</v>
       </c>
       <c r="E1594" t="n">
-        <v>-15.022667954294</v>
+        <v>-15.01664873645451</v>
       </c>
       <c r="F1594" t="n">
-        <v>12.38224850725259</v>
+        <v>12.40950256677759</v>
       </c>
       <c r="G1594" t="n">
         <v>-11.84478095230343</v>
@@ -51319,10 +51319,10 @@
         <v>15.48447142857143</v>
       </c>
       <c r="E1595" t="n">
-        <v>-15.12891738747104</v>
+        <v>-15.16227734781082</v>
       </c>
       <c r="F1595" t="n">
-        <v>12.37149600916304</v>
+        <v>12.40079085411021</v>
       </c>
       <c r="G1595" t="n">
         <v>-12.09112061289744</v>
@@ -51351,10 +51351,10 @@
         <v>15.4843</v>
       </c>
       <c r="E1596" t="n">
-        <v>-15.22514318768905</v>
+        <v>-15.3007110485062</v>
       </c>
       <c r="F1596" t="n">
-        <v>12.36035788685212</v>
+        <v>12.39176718692219</v>
       </c>
       <c r="G1596" t="n">
         <v>-12.33059362113341</v>
@@ -51383,10 +51383,10 @@
         <v>15.48412857142857</v>
       </c>
       <c r="E1597" t="n">
-        <v>-15.31134535494803</v>
+        <v>-15.43194983854064</v>
       </c>
       <c r="F1597" t="n">
-        <v>12.34883414031986</v>
+        <v>12.38243156521355</v>
       </c>
       <c r="G1597" t="n">
         <v>-12.56319997701134</v>
@@ -51415,10 +51415,10 @@
         <v>15.48395714285714</v>
       </c>
       <c r="E1598" t="n">
-        <v>-15.38752388924798</v>
+        <v>-15.55599371791414</v>
       </c>
       <c r="F1598" t="n">
-        <v>12.33692476956625</v>
+        <v>12.37278398898428</v>
       </c>
       <c r="G1598" t="n">
         <v>-12.78893968053124</v>
@@ -51447,10 +51447,10 @@
         <v>15.48378571428571</v>
       </c>
       <c r="E1599" t="n">
-        <v>-15.45367879058889</v>
+        <v>-15.67284268662671</v>
       </c>
       <c r="F1599" t="n">
-        <v>12.32462977459129</v>
+        <v>12.36282445823438</v>
       </c>
       <c r="G1599" t="n">
         <v>-13.00781273169311</v>
@@ -51479,10 +51479,10 @@
         <v>15.48361428571429</v>
       </c>
       <c r="E1600" t="n">
-        <v>-15.50981005897078</v>
+        <v>-15.78249674467835</v>
       </c>
       <c r="F1600" t="n">
-        <v>12.31194915539498</v>
+        <v>12.35255297296386</v>
       </c>
       <c r="G1600" t="n">
         <v>-13.21981913049693</v>
@@ -51511,10 +51511,10 @@
         <v>15.48344285714286</v>
       </c>
       <c r="E1601" t="n">
-        <v>-15.55591769439364</v>
+        <v>-15.88495589206904</v>
       </c>
       <c r="F1601" t="n">
-        <v>12.29888291197731</v>
+        <v>12.3419695331727</v>
       </c>
       <c r="G1601" t="n">
         <v>-13.42495887694272</v>
@@ -51543,10 +51543,10 @@
         <v>15.48327142857143</v>
       </c>
       <c r="E1602" t="n">
-        <v>-15.59200169685746</v>
+        <v>-15.9802201287988</v>
       </c>
       <c r="F1602" t="n">
-        <v>12.28543104433829</v>
+        <v>12.33107413886092</v>
       </c>
       <c r="G1602" t="n">
         <v>-13.62323197103048</v>
@@ -51575,10 +51575,10 @@
         <v>15.4831</v>
       </c>
       <c r="E1603" t="n">
-        <v>-15.61806206636225</v>
+        <v>-16.06828945486762</v>
       </c>
       <c r="F1603" t="n">
-        <v>12.27159355247793</v>
+        <v>12.31986679002852</v>
       </c>
       <c r="G1603" t="n">
         <v>-13.8146384127602</v>
@@ -51607,10 +51607,10 @@
         <v>15.48292857142857</v>
       </c>
       <c r="E1604" t="n">
-        <v>-15.63409880290801</v>
+        <v>-16.1491638702755</v>
       </c>
       <c r="F1604" t="n">
-        <v>12.25737043639621</v>
+        <v>12.30834748667549</v>
       </c>
       <c r="G1604" t="n">
         <v>-13.99917820213187</v>
@@ -51639,10 +51639,10 @@
         <v>15.48275714285714</v>
       </c>
       <c r="E1605" t="n">
-        <v>-15.6400529032258</v>
+        <v>-16.22284337502246</v>
       </c>
       <c r="F1605" t="n">
-        <v>12.24346567741961</v>
+        <v>12.29651622880183</v>
       </c>
       <c r="G1605" t="n">
         <v>-14.17685133914552</v>
@@ -51671,10 +51671,10 @@
         <v>15.48258571428571</v>
       </c>
       <c r="E1606" t="n">
-        <v>-15.64230153054516</v>
+        <v>-16.28932796910847</v>
       </c>
       <c r="F1606" t="n">
-        <v>12.23507454726542</v>
+        <v>12.28437301640754</v>
       </c>
       <c r="G1606" t="n">
         <v>-14.34765782380113</v>
@@ -51703,10 +51703,10 @@
         <v>15.48241428571428</v>
       </c>
       <c r="E1607" t="n">
-        <v>-15.64737225564122</v>
+        <v>-16.34861765253355</v>
       </c>
       <c r="F1607" t="n">
-        <v>12.22661391612336</v>
+        <v>12.27191784949263</v>
       </c>
       <c r="G1607" t="n">
         <v>-14.5115976560987</v>
@@ -51735,10 +51735,10 @@
         <v>15.48224285714286</v>
       </c>
       <c r="E1608" t="n">
-        <v>-15.65525909091434</v>
+        <v>-16.40071242529768</v>
       </c>
       <c r="F1608" t="n">
-        <v>12.21808544604044</v>
+        <v>12.25915072805708</v>
       </c>
       <c r="G1608" t="n">
         <v>-14.66867083603824</v>
@@ -51767,10 +51767,10 @@
         <v>15.48207142857143</v>
       </c>
       <c r="E1609" t="n">
-        <v>-15.66595604876489</v>
+        <v>-16.44561228740088</v>
       </c>
       <c r="F1609" t="n">
-        <v>12.2094907990637</v>
+        <v>12.24607165210092</v>
       </c>
       <c r="G1609" t="n">
         <v>-14.81887736361974</v>
@@ -51799,10 +51799,10 @@
         <v>15.4819</v>
       </c>
       <c r="E1610" t="n">
-        <v>-15.67945714159321</v>
+        <v>-16.4535870967735</v>
       </c>
       <c r="F1610" t="n">
-        <v>12.20083163724014</v>
+        <v>12.24346567741961</v>
       </c>
       <c r="G1610" t="n">
         <v>-14.9622172388432</v>
@@ -51831,10 +51831,10 @@
         <v>15.48172857142857</v>
       </c>
       <c r="E1611" t="n">
-        <v>-15.69575638179967</v>
+        <v>-16.48042386671886</v>
       </c>
       <c r="F1611" t="n">
-        <v>12.19210962261679</v>
+        <v>12.23483097149128</v>
       </c>
       <c r="G1611" t="n">
         <v>-15.09869046170863</v>
@@ -51863,10 +51863,10 @@
         <v>15.48155714285714</v>
       </c>
       <c r="E1612" t="n">
-        <v>-15.71484778178463</v>
+        <v>-16.50935247278771</v>
       </c>
       <c r="F1612" t="n">
-        <v>12.18332641724066</v>
+        <v>12.22612273970379</v>
       </c>
       <c r="G1612" t="n">
         <v>-15.22829703221602</v>
@@ -51895,10 +51895,10 @@
         <v>15.48138571428571</v>
       </c>
       <c r="E1613" t="n">
-        <v>-15.73672535394843</v>
+        <v>-16.54037641520668</v>
       </c>
       <c r="F1613" t="n">
-        <v>12.17448368315879</v>
+        <v>12.21734279242751</v>
       </c>
       <c r="G1613" t="n">
         <v>-15.35103695036537</v>
@@ -51927,10 +51927,10 @@
         <v>15.48121428571428</v>
       </c>
       <c r="E1614" t="n">
-        <v>-15.76138311069145</v>
+        <v>-16.57349919420238</v>
       </c>
       <c r="F1614" t="n">
-        <v>12.16558308241818</v>
+        <v>12.20849294003281</v>
       </c>
       <c r="G1614" t="n">
         <v>-15.46691021615669</v>
@@ -51959,10 +51959,10 @@
         <v>15.48104285714285</v>
       </c>
       <c r="E1615" t="n">
-        <v>-15.78881506441403</v>
+        <v>-16.60872431000145</v>
       </c>
       <c r="F1615" t="n">
-        <v>12.15662627706586</v>
+        <v>12.19957499289009</v>
       </c>
       <c r="G1615" t="n">
         <v>-15.57591682958997</v>
@@ -51991,10 +51991,10 @@
         <v>15.48087142857143</v>
       </c>
       <c r="E1616" t="n">
-        <v>-15.81901522751654</v>
+        <v>-16.64605526283052</v>
       </c>
       <c r="F1616" t="n">
-        <v>12.14761492914885</v>
+        <v>12.19059076136971</v>
       </c>
       <c r="G1616" t="n">
         <v>-15.67805679066522</v>
@@ -52023,10 +52023,10 @@
         <v>15.4807</v>
       </c>
       <c r="E1617" t="n">
-        <v>-15.85197761239933</v>
+        <v>-16.68549555291621</v>
       </c>
       <c r="F1617" t="n">
-        <v>12.13855070071416</v>
+        <v>12.18154205584206</v>
       </c>
       <c r="G1617" t="n">
         <v>-15.77333009938243</v>
@@ -52055,10 +52055,10 @@
         <v>15.48052857142857</v>
       </c>
       <c r="E1618" t="n">
-        <v>-15.88769623146276</v>
+        <v>-16.72704868048514</v>
       </c>
       <c r="F1618" t="n">
-        <v>12.12943525380884</v>
+        <v>12.17243068667752</v>
       </c>
       <c r="G1618" t="n">
         <v>-15.8617367557416</v>
@@ -52087,10 +52087,10 @@
         <v>15.48035714285714</v>
       </c>
       <c r="E1619" t="n">
-        <v>-15.92616509710719</v>
+        <v>-16.77071814576396</v>
       </c>
       <c r="F1619" t="n">
-        <v>12.12027025047987</v>
+        <v>12.16325846424648</v>
       </c>
       <c r="G1619" t="n">
         <v>-15.94327675974274</v>
@@ -52119,10 +52119,10 @@
         <v>15.48018571428571</v>
       </c>
       <c r="E1620" t="n">
-        <v>-15.96737822173298</v>
+        <v>-16.81650744897928</v>
       </c>
       <c r="F1620" t="n">
-        <v>12.1110573527743</v>
+        <v>12.15402719891929</v>
       </c>
       <c r="G1620" t="n">
         <v>-16.01795011138584</v>
@@ -52151,10 +52151,10 @@
         <v>15.48001428571428</v>
       </c>
       <c r="E1621" t="n">
-        <v>-16.01132961774048</v>
+        <v>-16.86442009035773</v>
       </c>
       <c r="F1621" t="n">
-        <v>12.10179822273913</v>
+        <v>12.14473870106636</v>
       </c>
       <c r="G1621" t="n">
         <v>-16.0857568106709</v>
@@ -52183,10 +52183,10 @@
         <v>15.47984285714285</v>
       </c>
       <c r="E1622" t="n">
-        <v>-16.05801329753005</v>
+        <v>-16.91445957012595</v>
       </c>
       <c r="F1622" t="n">
-        <v>12.0924945224214</v>
+        <v>12.13539478105806</v>
       </c>
       <c r="G1622" t="n">
         <v>-16.14669685759792</v>
@@ -52215,10 +52215,10 @@
         <v>15.47967142857143</v>
       </c>
       <c r="E1623" t="n">
-        <v>-16.10742327350205</v>
+        <v>-16.96662938851055</v>
       </c>
       <c r="F1623" t="n">
-        <v>12.08314791386812</v>
+        <v>12.12599724926476</v>
       </c>
       <c r="G1623" t="n">
         <v>-16.20077025216692</v>
@@ -52247,10 +52247,10 @@
         <v>15.4795</v>
       </c>
       <c r="E1624" t="n">
-        <v>-16.15955355805685</v>
+        <v>-17.02093304573818</v>
       </c>
       <c r="F1624" t="n">
-        <v>12.07376005912631</v>
+        <v>12.11654791605685</v>
       </c>
       <c r="G1624" t="n">
         <v>-16.2446395161287</v>
@@ -52279,10 +52279,10 @@
         <v>15.47932857142857</v>
       </c>
       <c r="E1625" t="n">
-        <v>-16.21439816359478</v>
+        <v>-17.07737404203543</v>
       </c>
       <c r="F1625" t="n">
-        <v>12.06433262024298</v>
+        <v>12.1070485918047</v>
       </c>
       <c r="G1625" t="n">
         <v>-16.27475059766397</v>
@@ -52311,10 +52311,10 @@
         <v>15.47915714285714</v>
       </c>
       <c r="E1626" t="n">
-        <v>-16.27195110251623</v>
+        <v>-17.13595587762897</v>
       </c>
       <c r="F1626" t="n">
-        <v>12.05486725926518</v>
+        <v>12.09750108687871</v>
       </c>
       <c r="G1626" t="n">
         <v>-16.30684403065362</v>
@@ -52343,10 +52343,10 @@
         <v>15.47898571428571</v>
       </c>
       <c r="E1627" t="n">
-        <v>-16.33220638722153</v>
+        <v>-17.1966820527454</v>
       </c>
       <c r="F1627" t="n">
-        <v>12.0453656382399</v>
+        <v>12.08790721164924</v>
       </c>
       <c r="G1627" t="n">
         <v>-16.34092462455952</v>
@@ -52375,10 +52375,10 @@
         <v>15.47881428571428</v>
       </c>
       <c r="E1628" t="n">
-        <v>-16.39515803011104</v>
+        <v>-17.25955606761136</v>
       </c>
       <c r="F1628" t="n">
-        <v>12.03582941921417</v>
+        <v>12.07826877648668</v>
       </c>
       <c r="G1628" t="n">
         <v>-16.3769971888436</v>
@@ -52407,10 +52407,10 @@
         <v>15.47864285714285</v>
       </c>
       <c r="E1629" t="n">
-        <v>-16.46080004358515</v>
+        <v>-17.32458142245347</v>
       </c>
       <c r="F1629" t="n">
-        <v>12.02626026423501</v>
+        <v>12.0685875917614</v>
       </c>
       <c r="G1629" t="n">
         <v>-16.41506653296774</v>
@@ -52439,10 +52439,10 @@
         <v>15.47847142857142</v>
       </c>
       <c r="E1630" t="n">
-        <v>-16.52912644004418</v>
+        <v>-17.39176161749837</v>
       </c>
       <c r="F1630" t="n">
-        <v>12.01665983534945</v>
+        <v>12.0588654678438</v>
       </c>
       <c r="G1630" t="n">
         <v>-16.45513746639385</v>
@@ -52471,10 +52471,10 @@
         <v>15.4783</v>
       </c>
       <c r="E1631" t="n">
-        <v>-16.6001312318885</v>
+        <v>-17.46110015297268</v>
       </c>
       <c r="F1631" t="n">
-        <v>12.0070297946045</v>
+        <v>12.04910421510424</v>
       </c>
       <c r="G1631" t="n">
         <v>-16.49721479858384</v>
@@ -52503,10 +52503,10 @@
         <v>15.47812857142857</v>
       </c>
       <c r="E1632" t="n">
-        <v>-16.67380843151848</v>
+        <v>-17.53260052910302</v>
       </c>
       <c r="F1632" t="n">
-        <v>11.99737180404718</v>
+        <v>12.03930564391311</v>
       </c>
       <c r="G1632" t="n">
         <v>-16.54130333899959</v>
@@ -52535,10 +52535,10 @@
         <v>15.47795714285714</v>
       </c>
       <c r="E1633" t="n">
-        <v>-16.75015205133446</v>
+        <v>-17.60626624611603</v>
       </c>
       <c r="F1633" t="n">
-        <v>11.98768752572451</v>
+        <v>12.02947156464078</v>
       </c>
       <c r="G1633" t="n">
         <v>-16.58740789710301</v>
@@ -52567,10 +52567,10 @@
         <v>15.47778571428571</v>
       </c>
       <c r="E1634" t="n">
-        <v>-16.82915610373681</v>
+        <v>-17.68210080423833</v>
       </c>
       <c r="F1634" t="n">
-        <v>11.97797862168352</v>
+        <v>12.01960378765764</v>
       </c>
       <c r="G1634" t="n">
         <v>-16.63553328235601</v>
@@ -52599,10 +52599,10 @@
         <v>15.47761428571428</v>
       </c>
       <c r="E1635" t="n">
-        <v>-16.91081460112589</v>
+        <v>-17.76010770369655</v>
       </c>
       <c r="F1635" t="n">
-        <v>11.96824675397122</v>
+        <v>12.00970412333406</v>
       </c>
       <c r="G1635" t="n">
         <v>-16.68568430422048</v>
@@ -52631,10 +52631,10 @@
         <v>15.47744285714285</v>
       </c>
       <c r="E1636" t="n">
-        <v>-16.99512155590204</v>
+        <v>-17.84029044471732</v>
       </c>
       <c r="F1636" t="n">
-        <v>11.95849358463463</v>
+        <v>11.99977438204042</v>
       </c>
       <c r="G1636" t="n">
         <v>-16.73786577215832</v>
@@ -52663,10 +52663,10 @@
         <v>15.47727142857142</v>
       </c>
       <c r="E1637" t="n">
-        <v>-17.08207098046564</v>
+        <v>-17.92265252752727</v>
       </c>
       <c r="F1637" t="n">
-        <v>11.94872077572078</v>
+        <v>11.98981637414712</v>
       </c>
       <c r="G1637" t="n">
         <v>-16.79208249563144</v>
@@ -52695,10 +52695,10 @@
         <v>15.47709999999999</v>
       </c>
       <c r="E1638" t="n">
-        <v>-17.17165688721703</v>
+        <v>-18.00719745235302</v>
       </c>
       <c r="F1638" t="n">
-        <v>11.93892998927668</v>
+        <v>11.97983191002452</v>
       </c>
       <c r="G1638" t="n">
         <v>-16.84833928410172</v>
@@ -52727,10 +52727,10 @@
         <v>15.47692857142857</v>
       </c>
       <c r="E1639" t="n">
-        <v>-17.26387328855658</v>
+        <v>-18.09392871942119</v>
       </c>
       <c r="F1639" t="n">
-        <v>11.92912288734935</v>
+        <v>11.969822800043</v>
       </c>
       <c r="G1639" t="n">
         <v>-16.90664094703109</v>
@@ -52759,10 +52759,10 @@
         <v>15.47675714285714</v>
       </c>
       <c r="E1640" t="n">
-        <v>-17.35871419688464</v>
+        <v>-18.18284982895843</v>
       </c>
       <c r="F1640" t="n">
-        <v>11.91930113198582</v>
+        <v>11.95979085457295</v>
       </c>
       <c r="G1640" t="n">
         <v>-16.96699229388143</v>
@@ -52791,10 +52791,10 @@
         <v>15.47658571428571</v>
       </c>
       <c r="E1641" t="n">
-        <v>-17.45617362460157</v>
+        <v>-18.27396428119135</v>
       </c>
       <c r="F1641" t="n">
-        <v>11.90946638523311</v>
+        <v>11.94973788398475</v>
       </c>
       <c r="G1641" t="n">
         <v>-17.02939813411464</v>
@@ -52823,10 +52823,10 @@
         <v>15.47641428571428</v>
       </c>
       <c r="E1642" t="n">
-        <v>-17.55624558410773</v>
+        <v>-18.3672755763466</v>
       </c>
       <c r="F1642" t="n">
-        <v>11.89962030913822</v>
+        <v>11.93966569864877</v>
       </c>
       <c r="G1642" t="n">
         <v>-17.09386327719264</v>
@@ -52855,10 +52855,10 @@
         <v>15.47624285714285</v>
       </c>
       <c r="E1643" t="n">
-        <v>-17.65892408780348</v>
+        <v>-18.46278721465077</v>
       </c>
       <c r="F1643" t="n">
-        <v>11.8897645657482</v>
+        <v>11.92957610893539</v>
       </c>
       <c r="G1643" t="n">
         <v>-17.16039253257731</v>
@@ -52887,10 +52887,10 @@
         <v>15.47607142857142</v>
       </c>
       <c r="E1644" t="n">
-        <v>-17.76420314808917</v>
+        <v>-18.56050269633052</v>
       </c>
       <c r="F1644" t="n">
-        <v>11.87990081711005</v>
+        <v>11.919470925215</v>
       </c>
       <c r="G1644" t="n">
         <v>-17.22899070973056</v>
@@ -52919,10 +52919,10 @@
         <v>15.47589999999999</v>
       </c>
       <c r="E1645" t="n">
-        <v>-17.87207677736517</v>
+        <v>-18.66042552161247</v>
       </c>
       <c r="F1645" t="n">
-        <v>11.87003072527079</v>
+        <v>11.90935195785797</v>
       </c>
       <c r="G1645" t="n">
         <v>-17.29966261811429</v>
@@ -52951,10 +52951,10 @@
         <v>15.47572857142857</v>
       </c>
       <c r="E1646" t="n">
-        <v>-17.98253898803182</v>
+        <v>-18.76255919072324</v>
       </c>
       <c r="F1646" t="n">
-        <v>11.86015595227745</v>
+        <v>11.89922101723469</v>
       </c>
       <c r="G1646" t="n">
         <v>-17.3724130671904</v>
@@ -52983,10 +52983,10 @@
         <v>15.47555714285714</v>
       </c>
       <c r="E1647" t="n">
-        <v>-18.09558379248949</v>
+        <v>-18.86690720388946</v>
       </c>
       <c r="F1647" t="n">
-        <v>11.85027816017706</v>
+        <v>11.88907991371553</v>
       </c>
       <c r="G1647" t="n">
         <v>-17.44724686642078</v>
@@ -53015,10 +53015,10 @@
         <v>15.47538571428571</v>
       </c>
       <c r="E1648" t="n">
-        <v>-18.21120520313853</v>
+        <v>-18.97347306133776</v>
       </c>
       <c r="F1648" t="n">
-        <v>11.8403990110166</v>
+        <v>11.87893045767087</v>
       </c>
       <c r="G1648" t="n">
         <v>-17.52416882526735</v>
@@ -53047,10 +53047,10 @@
         <v>15.47521428571428</v>
       </c>
       <c r="E1649" t="n">
-        <v>-18.32939723237932</v>
+        <v>-19.08226026329477</v>
       </c>
       <c r="F1649" t="n">
-        <v>11.83052016684314</v>
+        <v>11.86877445947109</v>
       </c>
       <c r="G1649" t="n">
         <v>-17.603183753192</v>
@@ -53079,10 +53079,10 @@
         <v>15.47504285714285</v>
       </c>
       <c r="E1650" t="n">
-        <v>-18.45015389261219</v>
+        <v>-19.19327230998712</v>
       </c>
       <c r="F1650" t="n">
-        <v>11.82064328970366</v>
+        <v>11.85861372948658</v>
       </c>
       <c r="G1650" t="n">
         <v>-17.68429645965664</v>
@@ -53111,10 +53111,10 @@
         <v>15.47487142857142</v>
       </c>
       <c r="E1651" t="n">
-        <v>-18.57346919623752</v>
+        <v>-19.30651270164143</v>
       </c>
       <c r="F1651" t="n">
-        <v>11.81077004164521</v>
+        <v>11.84845007808772</v>
       </c>
       <c r="G1651" t="n">
         <v>-17.76751175412315</v>
@@ -53143,10 +53143,10 @@
         <v>15.47469999999999</v>
       </c>
       <c r="E1652" t="n">
-        <v>-18.69933715565564</v>
+        <v>-19.42198493848432</v>
       </c>
       <c r="F1652" t="n">
-        <v>11.80090208471479</v>
+        <v>11.83828531564487</v>
       </c>
       <c r="G1652" t="n">
         <v>-17.85283444605345</v>
@@ -53175,10 +53175,10 @@
         <v>15.47452857142856</v>
       </c>
       <c r="E1653" t="n">
-        <v>-18.82775178326694</v>
+        <v>-19.53969252074244</v>
       </c>
       <c r="F1653" t="n">
-        <v>11.79104108095943</v>
+        <v>11.82812125252843</v>
       </c>
       <c r="G1653" t="n">
         <v>-17.94026934490943</v>
@@ -53207,10 +53207,10 @@
         <v>15.47435714285714</v>
       </c>
       <c r="E1654" t="n">
-        <v>-18.95870709147175</v>
+        <v>-19.6596389486424</v>
       </c>
       <c r="F1654" t="n">
-        <v>11.78118869242614</v>
+        <v>11.81795969910877</v>
       </c>
       <c r="G1654" t="n">
         <v>-18.029821260153</v>
@@ -53239,10 +53239,10 @@
         <v>15.47418571428571</v>
       </c>
       <c r="E1655" t="n">
-        <v>-19.09219709267045</v>
+        <v>-19.78182772241084</v>
       </c>
       <c r="F1655" t="n">
-        <v>11.77134658116196</v>
+        <v>11.80780246575627</v>
       </c>
       <c r="G1655" t="n">
         <v>-18.12149500124605</v>
@@ -53271,10 +53271,10 @@
         <v>15.47401428571428</v>
       </c>
       <c r="E1656" t="n">
-        <v>-19.22821579926337</v>
+        <v>-19.90626234227437</v>
       </c>
       <c r="F1656" t="n">
-        <v>11.76151640921389</v>
+        <v>11.79765136284131</v>
       </c>
       <c r="G1656" t="n">
         <v>-18.21529537765049</v>
@@ -53303,10 +53303,10 @@
         <v>15.47384285714285</v>
       </c>
       <c r="E1657" t="n">
-        <v>-19.36675722365091</v>
+        <v>-20.03294630845964</v>
       </c>
       <c r="F1657" t="n">
-        <v>11.75169983862896</v>
+        <v>11.78750820073429</v>
       </c>
       <c r="G1657" t="n">
         <v>-18.31122719882821</v>
@@ -53335,10 +53335,10 @@
         <v>15.47367142857142</v>
       </c>
       <c r="E1658" t="n">
-        <v>-19.50781537823339</v>
+        <v>-20.16188312119326</v>
       </c>
       <c r="F1658" t="n">
-        <v>11.74189853145419</v>
+        <v>11.77737478980555</v>
       </c>
       <c r="G1658" t="n">
         <v>-18.40929527424112</v>
@@ -53367,10 +53367,10 @@
         <v>15.47349999999999</v>
       </c>
       <c r="E1659" t="n">
-        <v>-19.65138427541119</v>
+        <v>-20.29307628070186</v>
       </c>
       <c r="F1659" t="n">
-        <v>11.7321141497366</v>
+        <v>11.7672529404255</v>
       </c>
       <c r="G1659" t="n">
         <v>-18.50950441335113</v>
@@ -53399,10 +53399,10 @@
         <v>15.47332857142856</v>
       </c>
       <c r="E1660" t="n">
-        <v>-19.79745792758465</v>
+        <v>-20.42652928721208</v>
       </c>
       <c r="F1660" t="n">
-        <v>11.72234835552321</v>
+        <v>11.75714446296451</v>
       </c>
       <c r="G1660" t="n">
         <v>-18.61185942562011</v>
@@ -53431,10 +53431,10 @@
         <v>15.47315714285713</v>
       </c>
       <c r="E1661" t="n">
-        <v>-19.94603034715415</v>
+        <v>-20.56224564095054</v>
       </c>
       <c r="F1661" t="n">
-        <v>11.71260281086103</v>
+        <v>11.74705116779297</v>
       </c>
       <c r="G1661" t="n">
         <v>-18.71636512050999</v>
@@ -53463,10 +53463,10 @@
         <v>15.47298571428571</v>
       </c>
       <c r="E1662" t="n">
-        <v>-20.09709554652003</v>
+        <v>-20.70022884214386</v>
       </c>
       <c r="F1662" t="n">
-        <v>11.7028791777971</v>
+        <v>11.73697486528124</v>
       </c>
       <c r="G1662" t="n">
         <v>-18.82302630748266</v>
@@ -53495,10 +53495,10 @@
         <v>15.47281428571428</v>
       </c>
       <c r="E1663" t="n">
-        <v>-20.25064753808265</v>
+        <v>-20.84048239101868</v>
       </c>
       <c r="F1663" t="n">
-        <v>11.69317911837843</v>
+        <v>11.72691736579971</v>
       </c>
       <c r="G1663" t="n">
         <v>-18.93184779600002</v>
@@ -53527,10 +53527,10 @@
         <v>15.47264285714285</v>
       </c>
       <c r="E1664" t="n">
-        <v>-20.40668033424237</v>
+        <v>-20.98300978780162</v>
       </c>
       <c r="F1664" t="n">
-        <v>11.68350429465204</v>
+        <v>11.71688047971877</v>
       </c>
       <c r="G1664" t="n">
         <v>-19.04283439552397</v>
@@ -53559,10 +53559,10 @@
         <v>15.47247142857142</v>
       </c>
       <c r="E1665" t="n">
-        <v>-20.56518794739955</v>
+        <v>-21.12781453271931</v>
       </c>
       <c r="F1665" t="n">
-        <v>11.67385636866494</v>
+        <v>11.70686601740879</v>
       </c>
       <c r="G1665" t="n">
         <v>-19.15599091551641</v>
@@ -53591,10 +53591,10 @@
         <v>15.47229999999999</v>
       </c>
       <c r="E1666" t="n">
-        <v>-20.72616438995455</v>
+        <v>-21.27490012599838</v>
       </c>
       <c r="F1666" t="n">
-        <v>11.66423700246417</v>
+        <v>11.69687578924014</v>
       </c>
       <c r="G1666" t="n">
         <v>-19.27132216543924</v>
@@ -53623,10 +53623,10 @@
         <v>15.47212857142856</v>
       </c>
       <c r="E1667" t="n">
-        <v>-20.88960367430772</v>
+        <v>-21.42427006786546</v>
       </c>
       <c r="F1667" t="n">
-        <v>11.65464785809674</v>
+        <v>11.68691160558322</v>
       </c>
       <c r="G1667" t="n">
         <v>-19.38883295475437</v>
@@ -53655,10 +53655,10 @@
         <v>15.47195714285713</v>
       </c>
       <c r="E1668" t="n">
-        <v>-21.05549981285942</v>
+        <v>-21.57592785854716</v>
       </c>
       <c r="F1668" t="n">
-        <v>11.64509059760967</v>
+        <v>11.6769752768084</v>
       </c>
       <c r="G1668" t="n">
         <v>-19.50852809292369</v>
@@ -53687,10 +53687,10 @@
         <v>15.4717857142857</v>
       </c>
       <c r="E1669" t="n">
-        <v>-21.22384681801002</v>
+        <v>-21.72987699827013</v>
       </c>
       <c r="F1669" t="n">
-        <v>11.63556688304998</v>
+        <v>11.66706861328605</v>
       </c>
       <c r="G1669" t="n">
         <v>-19.63041238940911</v>
@@ -53719,10 +53719,10 @@
         <v>15.47161428571428</v>
       </c>
       <c r="E1670" t="n">
-        <v>-21.39463870215986</v>
+        <v>-21.88612098726099</v>
       </c>
       <c r="F1670" t="n">
-        <v>11.62607837646469</v>
+        <v>11.65719342538657</v>
       </c>
       <c r="G1670" t="n">
         <v>-19.75449065367252</v>
@@ -53751,10 +53751,10 @@
         <v>15.47144285714285</v>
       </c>
       <c r="E1671" t="n">
-        <v>-21.56786947770931</v>
+        <v>-22.04466332574636</v>
       </c>
       <c r="F1671" t="n">
-        <v>11.61662673990083</v>
+        <v>11.64735152348033</v>
       </c>
       <c r="G1671" t="n">
         <v>-19.88076769517582</v>
@@ -53783,10 +53783,10 @@
         <v>15.47127142857142</v>
       </c>
       <c r="E1672" t="n">
-        <v>-21.74353315705872</v>
+        <v>-22.20550751395287</v>
       </c>
       <c r="F1672" t="n">
-        <v>11.6072136354054</v>
+        <v>11.6375447179377</v>
       </c>
       <c r="G1672" t="n">
         <v>-20.00924832338093</v>
@@ -53815,10 +53815,10 @@
         <v>15.47109999999999</v>
       </c>
       <c r="E1673" t="n">
-        <v>-21.92162375260845</v>
+        <v>-22.36865705210716</v>
       </c>
       <c r="F1673" t="n">
-        <v>11.59784072502544</v>
+        <v>11.62777481912908</v>
       </c>
       <c r="G1673" t="n">
         <v>-20.13993734774973</v>
@@ -53847,10 +53847,10 @@
         <v>15.47092857142856</v>
       </c>
       <c r="E1674" t="n">
-        <v>-22.10213527675887</v>
+        <v>-22.53411544043585</v>
       </c>
       <c r="F1674" t="n">
-        <v>11.58850967080796</v>
+        <v>11.61804363742483</v>
       </c>
       <c r="G1674" t="n">
         <v>-20.27283957774412</v>
@@ -53879,10 +53879,10 @@
         <v>15.47075714285713</v>
       </c>
       <c r="E1675" t="n">
-        <v>-22.28506174191031</v>
+        <v>-22.70188617916556</v>
       </c>
       <c r="F1675" t="n">
-        <v>11.57922213479998</v>
+        <v>11.60835298319534</v>
       </c>
       <c r="G1675" t="n">
         <v>-20.40795982282602</v>
@@ -53911,10 +53911,10 @@
         <v>15.4705857142857</v>
       </c>
       <c r="E1676" t="n">
-        <v>-22.47039716046315</v>
+        <v>-22.87197276852292</v>
       </c>
       <c r="F1676" t="n">
-        <v>11.56997977904853</v>
+        <v>11.59870466681099</v>
       </c>
       <c r="G1676" t="n">
         <v>-20.54530289245731</v>
@@ -53943,10 +53943,10 @@
         <v>15.47041428571428</v>
       </c>
       <c r="E1677" t="n">
-        <v>-22.65813554481775</v>
+        <v>-23.04437870873458</v>
       </c>
       <c r="F1677" t="n">
-        <v>11.56078426560062</v>
+        <v>11.58910049864216</v>
       </c>
       <c r="G1677" t="n">
         <v>-20.6848735960999</v>
@@ -53975,10 +53975,10 @@
         <v>15.47024285714285</v>
       </c>
       <c r="E1678" t="n">
-        <v>-22.84827090737446</v>
+        <v>-23.21910750002713</v>
       </c>
       <c r="F1678" t="n">
-        <v>11.55163725650328</v>
+        <v>11.57954228905923</v>
       </c>
       <c r="G1678" t="n">
         <v>-20.8266767432157</v>
@@ -54007,10 +54007,10 @@
         <v>15.47007142857142</v>
       </c>
       <c r="E1679" t="n">
-        <v>-23.04079726053362</v>
+        <v>-23.39616264262722</v>
       </c>
       <c r="F1679" t="n">
-        <v>11.54254041380351</v>
+        <v>11.57003184843257</v>
       </c>
       <c r="G1679" t="n">
         <v>-20.97071714326659</v>
@@ -54039,10 +54039,10 @@
         <v>15.46989999999999</v>
       </c>
       <c r="E1680" t="n">
-        <v>-23.23570861669563</v>
+        <v>-23.57554763676148</v>
       </c>
       <c r="F1680" t="n">
-        <v>11.53349539954836</v>
+        <v>11.56057098713258</v>
       </c>
       <c r="G1680" t="n">
         <v>-21.11699960571448</v>
@@ -54071,10 +54071,10 @@
         <v>15.46972857142856</v>
       </c>
       <c r="E1681" t="n">
-        <v>-23.43299898826081</v>
+        <v>-23.75726598265654</v>
       </c>
       <c r="F1681" t="n">
-        <v>11.52450387578482</v>
+        <v>11.55116151552962</v>
       </c>
       <c r="G1681" t="n">
         <v>-21.26552894002128</v>
@@ -54103,10 +54103,10 @@
         <v>15.46955714285713</v>
       </c>
       <c r="E1682" t="n">
-        <v>-23.63266238762954</v>
+        <v>-23.94132118053901</v>
       </c>
       <c r="F1682" t="n">
-        <v>11.51556750455993</v>
+        <v>11.54180524399408</v>
       </c>
       <c r="G1682" t="n">
         <v>-21.41630995564889</v>
@@ -54135,10 +54135,10 @@
         <v>15.4693857142857</v>
       </c>
       <c r="E1683" t="n">
-        <v>-23.83469282720217</v>
+        <v>-24.12771673063553</v>
       </c>
       <c r="F1683" t="n">
-        <v>11.5066879479207</v>
+        <v>11.53250398289634</v>
       </c>
       <c r="G1683" t="n">
         <v>-21.56934746205918</v>
@@ -54167,10 +54167,10 @@
         <v>15.46921428571428</v>
       </c>
       <c r="E1684" t="n">
-        <v>-24.03908431937905</v>
+        <v>-24.31645613317273</v>
       </c>
       <c r="F1684" t="n">
-        <v>11.49786686791417</v>
+        <v>11.52325954260677</v>
       </c>
       <c r="G1684" t="n">
         <v>-21.7246462687141</v>
@@ -54199,10 +54199,10 @@
         <v>15.46904285714285</v>
       </c>
       <c r="E1685" t="n">
-        <v>-24.24583087656055</v>
+        <v>-24.50754288837722</v>
       </c>
       <c r="F1685" t="n">
-        <v>11.48910592658733</v>
+        <v>11.51407373349577</v>
       </c>
       <c r="G1685" t="n">
         <v>-21.88221118507551</v>
@@ -54231,10 +54231,10 @@
         <v>15.46887142857142</v>
       </c>
       <c r="E1686" t="n">
-        <v>-24.45492651114701</v>
+        <v>-24.70098049647566</v>
       </c>
       <c r="F1686" t="n">
-        <v>11.48040678598722</v>
+        <v>11.50494836593369</v>
       </c>
       <c r="G1686" t="n">
         <v>-22.04204702060532</v>
@@ -54263,10 +54263,10 @@
         <v>15.46869999999999</v>
       </c>
       <c r="E1687" t="n">
-        <v>-24.66636523553881</v>
+        <v>-24.89677245769465</v>
       </c>
       <c r="F1687" t="n">
-        <v>11.47177110816085</v>
+        <v>11.49588525029094</v>
       </c>
       <c r="G1687" t="n">
         <v>-22.20415858476545</v>
@@ -54295,10 +54295,10 @@
         <v>15.46852857142856</v>
       </c>
       <c r="E1688" t="n">
-        <v>-24.88014106213631</v>
+        <v>-25.09492227226082</v>
       </c>
       <c r="F1688" t="n">
-        <v>11.46320055515525</v>
+        <v>11.48688619693788</v>
       </c>
       <c r="G1688" t="n">
         <v>-22.36855068701779</v>
@@ -54327,10 +54327,10 @@
         <v>15.46835714285713</v>
       </c>
       <c r="E1689" t="n">
-        <v>-25.09624800333984</v>
+        <v>-25.29543344040081</v>
       </c>
       <c r="F1689" t="n">
-        <v>11.45469678901744</v>
+        <v>11.4779530162449</v>
       </c>
       <c r="G1689" t="n">
         <v>-22.53522813682422</v>
@@ -54359,10 +54359,10 @@
         <v>15.4681857142857</v>
       </c>
       <c r="E1690" t="n">
-        <v>-25.31468007154979</v>
+        <v>-25.49830946234124</v>
       </c>
       <c r="F1690" t="n">
-        <v>11.44626147179444</v>
+        <v>11.46908751858237</v>
       </c>
       <c r="G1690" t="n">
         <v>-22.70419574364667</v>
@@ -54391,10 +54391,10 @@
         <v>15.46801428571428</v>
       </c>
       <c r="E1691" t="n">
-        <v>-25.53543127916649</v>
+        <v>-25.70355383830874</v>
       </c>
       <c r="F1691" t="n">
-        <v>11.43789626553326</v>
+        <v>11.46029151432068</v>
       </c>
       <c r="G1691" t="n">
         <v>-22.87545831694703</v>
@@ -54423,10 +54423,10 @@
         <v>15.46784285714285</v>
       </c>
       <c r="E1692" t="n">
-        <v>-25.75849563859032</v>
+        <v>-25.91117006852993</v>
       </c>
       <c r="F1692" t="n">
-        <v>11.42960283228092</v>
+        <v>11.45156681383021</v>
       </c>
       <c r="G1692" t="n">
         <v>-23.04902066618718</v>
@@ -54455,10 +54455,10 @@
         <v>15.46767142857142</v>
       </c>
       <c r="E1693" t="n">
-        <v>-25.98386716222162</v>
+        <v>-26.12116165323145</v>
       </c>
       <c r="F1693" t="n">
-        <v>11.42138283408446</v>
+        <v>11.44291522748133</v>
       </c>
       <c r="G1693" t="n">
         <v>-23.22488760082906</v>
@@ -54487,10 +54487,10 @@
         <v>15.46749999999999</v>
       </c>
       <c r="E1694" t="n">
-        <v>-26.21153986246076</v>
+        <v>-26.33353209263993</v>
       </c>
       <c r="F1694" t="n">
-        <v>11.41323793299088</v>
+        <v>11.43433856564443</v>
       </c>
       <c r="G1694" t="n">
         <v>-23.40306393033454</v>
@@ -54519,10 +54519,10 @@
         <v>15.46732857142856</v>
       </c>
       <c r="E1695" t="n">
-        <v>-26.44150775170808</v>
+        <v>-26.54828488698197</v>
       </c>
       <c r="F1695" t="n">
-        <v>11.40516979104721</v>
+        <v>11.42583863868988</v>
       </c>
       <c r="G1695" t="n">
         <v>-23.58355446416554</v>
@@ -54551,10 +54551,10 @@
         <v>15.46715714285713</v>
       </c>
       <c r="E1696" t="n">
-        <v>-26.67376484236397</v>
+        <v>-26.76542353648424</v>
       </c>
       <c r="F1696" t="n">
-        <v>11.39718007030046</v>
+        <v>11.41741725698807</v>
       </c>
       <c r="G1696" t="n">
         <v>-23.76636401178394</v>
@@ -54583,10 +54583,10 @@
         <v>15.4669857142857</v>
       </c>
       <c r="E1697" t="n">
-        <v>-26.90830514682876</v>
+        <v>-26.98495154137333</v>
       </c>
       <c r="F1697" t="n">
-        <v>11.38927043279767</v>
+        <v>11.40907623090937</v>
       </c>
       <c r="G1697" t="n">
         <v>-23.95149738265166</v>
@@ -54615,10 +54615,10 @@
         <v>15.46681428571427</v>
       </c>
       <c r="E1698" t="n">
-        <v>-27.14512267750282</v>
+        <v>-27.20687240187589</v>
       </c>
       <c r="F1698" t="n">
-        <v>11.38144254058584</v>
+        <v>11.40081737082417</v>
       </c>
       <c r="G1698" t="n">
         <v>-24.1389593862306</v>
@@ -54647,10 +54647,10 @@
         <v>15.46664285714285</v>
       </c>
       <c r="E1699" t="n">
-        <v>-27.3842114467865</v>
+        <v>-27.43118961821854</v>
       </c>
       <c r="F1699" t="n">
-        <v>11.373698055712</v>
+        <v>11.39264248710284</v>
       </c>
       <c r="G1699" t="n">
         <v>-24.32875483198264</v>
@@ -54679,10 +54679,10 @@
         <v>15.46647142857142</v>
       </c>
       <c r="E1700" t="n">
-        <v>-27.62556546708017</v>
+        <v>-27.6579066906279</v>
       </c>
       <c r="F1700" t="n">
-        <v>11.36603864022317</v>
+        <v>11.38455339011577</v>
       </c>
       <c r="G1700" t="n">
         <v>-24.5208885293697</v>
@@ -54711,10 +54711,10 @@
         <v>15.46629999999999</v>
       </c>
       <c r="E1701" t="n">
-        <v>-27.86917875078417</v>
+        <v>-27.88702711933061</v>
       </c>
       <c r="F1701" t="n">
-        <v>11.35846595616637</v>
+        <v>11.37655189023333</v>
       </c>
       <c r="G1701" t="n">
         <v>-24.71536528785368</v>
@@ -54743,10 +54743,10 @@
         <v>15.46612857142856</v>
       </c>
       <c r="E1702" t="n">
-        <v>-28.11504531029888</v>
+        <v>-28.11855440455329</v>
       </c>
       <c r="F1702" t="n">
-        <v>11.35098166558862</v>
+        <v>11.36863979782591</v>
       </c>
       <c r="G1702" t="n">
         <v>-24.91218991689647</v>
@@ -54775,10 +54775,10 @@
         <v>15.46595714285713</v>
       </c>
       <c r="E1703" t="n">
-        <v>-28.36315915802464</v>
+        <v>-28.35249204652258</v>
       </c>
       <c r="F1703" t="n">
-        <v>11.34358743053694</v>
+        <v>11.36081892326388</v>
       </c>
       <c r="G1703" t="n">
         <v>-25.11136722595998</v>
@@ -54807,10 +54807,10 @@
         <v>15.4657857142857</v>
       </c>
       <c r="E1704" t="n">
-        <v>-28.61351430636181</v>
+        <v>-28.58884354546509</v>
       </c>
       <c r="F1704" t="n">
-        <v>11.33628491305834</v>
+        <v>11.35309107691762</v>
       </c>
       <c r="G1704" t="n">
         <v>-25.3129020245061</v>
@@ -54839,10 +54839,10 @@
         <v>15.46561428571427</v>
       </c>
       <c r="E1705" t="n">
-        <v>-28.86610476771076</v>
+        <v>-28.82761240160747</v>
       </c>
       <c r="F1705" t="n">
-        <v>11.32907577519986</v>
+        <v>11.34545806915752</v>
       </c>
       <c r="G1705" t="n">
         <v>-25.51679912199675</v>
@@ -54871,10 +54871,10 @@
         <v>15.46544285714285</v>
       </c>
       <c r="E1706" t="n">
-        <v>-29.12092455447183</v>
+        <v>-29.06880211517632</v>
       </c>
       <c r="F1706" t="n">
-        <v>11.32196167900851</v>
+        <v>11.33792171035395</v>
       </c>
       <c r="G1706" t="n">
         <v>-25.7230633278938</v>
@@ -54903,10 +54903,10 @@
         <v>15.46527142857142</v>
       </c>
       <c r="E1707" t="n">
-        <v>-29.3779676790454</v>
+        <v>-29.31241618639828</v>
       </c>
       <c r="F1707" t="n">
-        <v>11.3149442865313</v>
+        <v>11.33048381087729</v>
       </c>
       <c r="G1707" t="n">
         <v>-25.93169945165919</v>
@@ -54935,10 +54935,10 @@
         <v>15.46509999999999</v>
       </c>
       <c r="E1708" t="n">
-        <v>-29.63722815383181</v>
+        <v>-29.5584581155</v>
       </c>
       <c r="F1708" t="n">
-        <v>11.30802525981527</v>
+        <v>11.32314618109793</v>
       </c>
       <c r="G1708" t="n">
         <v>-26.14271230275479</v>
@@ -54967,10 +54967,10 @@
         <v>15.46492857142856</v>
       </c>
       <c r="E1709" t="n">
-        <v>-29.89869999123141</v>
+        <v>-29.80693140270806</v>
       </c>
       <c r="F1709" t="n">
-        <v>11.30120626090743</v>
+        <v>11.31591063138624</v>
       </c>
       <c r="G1709" t="n">
         <v>-26.35610669064251</v>
@@ -54999,10 +54999,10 @@
         <v>15.46475714285713</v>
       </c>
       <c r="E1710" t="n">
-        <v>-30.16237720364458</v>
+        <v>-30.05783954824913</v>
       </c>
       <c r="F1710" t="n">
-        <v>11.2944889518548</v>
+        <v>11.3087789721126</v>
       </c>
       <c r="G1710" t="n">
         <v>-26.57188742478424</v>
@@ -55031,10 +55031,10 @@
         <v>15.4645857142857</v>
       </c>
       <c r="E1711" t="n">
-        <v>-30.42825380347168</v>
+        <v>-30.31118605234983</v>
       </c>
       <c r="F1711" t="n">
-        <v>11.2878749947044</v>
+        <v>11.3017530136474</v>
       </c>
       <c r="G1711" t="n">
         <v>-26.79005931464191</v>
@@ -55063,10 +55063,10 @@
         <v>15.46441428571427</v>
       </c>
       <c r="E1712" t="n">
-        <v>-30.69632380311305</v>
+        <v>-30.56697441523675</v>
       </c>
       <c r="F1712" t="n">
-        <v>11.28136605150325</v>
+        <v>11.294834566361</v>
       </c>
       <c r="G1712" t="n">
         <v>-27.01062716967739</v>
@@ -55095,10 +55095,10 @@
         <v>15.46424285714284</v>
       </c>
       <c r="E1713" t="n">
-        <v>-30.96658121496905</v>
+        <v>-30.82520813713658</v>
       </c>
       <c r="F1713" t="n">
-        <v>11.27496378429838</v>
+        <v>11.2880254406238</v>
       </c>
       <c r="G1713" t="n">
         <v>-27.2335957993526</v>
@@ -55127,10 +55127,10 @@
         <v>15.46384226623654</v>
       </c>
       <c r="E1714" t="n">
-        <v>-31.23902005144004</v>
+        <v>-31.0858907182759</v>
       </c>
       <c r="F1714" t="n">
-        <v>11.26866985513679</v>
+        <v>11.28132744680618</v>
       </c>
       <c r="G1714" t="n">
         <v>-27.45897001312943</v>
@@ -55159,10 +55159,10 @@
         <v>15.46296750521559</v>
       </c>
       <c r="E1715" t="n">
-        <v>-31.51363432492638</v>
+        <v>-31.34902565888135</v>
       </c>
       <c r="F1715" t="n">
-        <v>11.26248592606552</v>
+        <v>11.2747423952785</v>
       </c>
       <c r="G1715" t="n">
         <v>-27.68675462046978</v>
@@ -55191,10 +55191,10 @@
         <v>15.46161857408001</v>
       </c>
       <c r="E1716" t="n">
-        <v>-31.79041804782843</v>
+        <v>-31.61461645917957</v>
       </c>
       <c r="F1716" t="n">
-        <v>11.25641365913158</v>
+        <v>11.26827209641116</v>
       </c>
       <c r="G1716" t="n">
         <v>-27.91695443083556</v>
@@ -55223,10 +55223,10 @@
         <v>15.45979547282978</v>
       </c>
       <c r="E1717" t="n">
-        <v>-32.06936523254655</v>
+        <v>-31.88266661939716</v>
       </c>
       <c r="F1717" t="n">
-        <v>11.250454716382</v>
+        <v>11.26191836057452</v>
       </c>
       <c r="G1717" t="n">
         <v>-28.14957425368866</v>
@@ -55255,10 +55255,10 @@
         <v>15.45749820146492</v>
       </c>
       <c r="E1718" t="n">
-        <v>-32.35046989148108</v>
+        <v>-32.15317963976079</v>
       </c>
       <c r="F1718" t="n">
-        <v>11.24461075986379</v>
+        <v>11.25568299813898</v>
       </c>
       <c r="G1718" t="n">
         <v>-28.38461889849099</v>
@@ -55287,10 +55287,10 @@
         <v>15.45472675998542</v>
       </c>
       <c r="E1719" t="n">
-        <v>-32.63372603703242</v>
+        <v>-32.42615902049705</v>
       </c>
       <c r="F1719" t="n">
-        <v>11.23888345162396</v>
+        <v>11.24956781947491</v>
       </c>
       <c r="G1719" t="n">
         <v>-28.62209317470445</v>
@@ -55319,10 +55319,10 @@
         <v>15.45148114839129</v>
       </c>
       <c r="E1720" t="n">
-        <v>-32.91912768160087</v>
+        <v>-32.70160826183258</v>
       </c>
       <c r="F1720" t="n">
-        <v>11.23327445370956</v>
+        <v>11.24357463495269</v>
       </c>
       <c r="G1720" t="n">
         <v>-28.86200189179094</v>
@@ -55351,10 +55351,10 @@
         <v>15.44776136668252</v>
       </c>
       <c r="E1721" t="n">
-        <v>-33.20666883758683</v>
+        <v>-32.97953086399401</v>
       </c>
       <c r="F1721" t="n">
-        <v>11.22778542816758</v>
+        <v>11.2377052549427</v>
       </c>
       <c r="G1721" t="n">
         <v>-29.10434985921235</v>
@@ -55377,10 +55377,10 @@
         <v>15.4435674148591</v>
       </c>
       <c r="E1722" t="n">
-        <v>-33.49634351739064</v>
+        <v>-33.25993032720797</v>
       </c>
       <c r="F1722" t="n">
-        <v>11.22241803704507</v>
+        <v>11.23196148981533</v>
       </c>
       <c r="G1722" t="n">
         <v>-29.34914188643059</v>
@@ -55403,10 +55403,10 @@
         <v>15.43889929292105</v>
       </c>
       <c r="E1723" t="n">
-        <v>-33.78814573341267</v>
+        <v>-33.54281015170109</v>
       </c>
       <c r="F1723" t="n">
-        <v>11.21717394238902</v>
+        <v>11.22634514994094</v>
       </c>
       <c r="G1723" t="n">
         <v>-29.59638278290756</v>
@@ -55429,10 +55429,10 @@
         <v>15.43375700086837</v>
       </c>
       <c r="E1724" t="n">
-        <v>-34.08206949805327</v>
+        <v>-33.82817383769999</v>
       </c>
       <c r="F1724" t="n">
-        <v>11.21205480624647</v>
+        <v>11.22085804568992</v>
       </c>
       <c r="G1724" t="n">
         <v>-29.84607735810516</v>
@@ -55455,10 +55455,10 @@
         <v>15.42814053870104</v>
       </c>
       <c r="E1725" t="n">
-        <v>-34.37810882371278</v>
+        <v>-34.11602488543129</v>
       </c>
       <c r="F1725" t="n">
-        <v>11.20706229066444</v>
+        <v>11.21550198743266</v>
       </c>
       <c r="G1725" t="n">
         <v>-30.09823042148529</v>
@@ -55481,10 +55481,10 @@
         <v>15.42204990641908</v>
       </c>
       <c r="E1726" t="n">
-        <v>-34.6762577227916</v>
+        <v>-34.40636679512163</v>
       </c>
       <c r="F1726" t="n">
-        <v>11.20219805768993</v>
+        <v>11.21027878553952</v>
       </c>
       <c r="G1726" t="n">
         <v>-30.35284678250985</v>
@@ -55507,10 +55507,10 @@
         <v>15.41548510402248</v>
       </c>
       <c r="E1727" t="n">
-        <v>-34.97651020769005</v>
+        <v>-34.69920306699763</v>
       </c>
       <c r="F1727" t="n">
-        <v>11.19746376936999</v>
+        <v>11.20519025038089</v>
       </c>
       <c r="G1727" t="n">
         <v>-30.60993125064075</v>
@@ -55533,10 +55533,10 @@
         <v>15.40844613151124</v>
       </c>
       <c r="E1728" t="n">
-        <v>-35.2788602908085</v>
+        <v>-34.99453720128593</v>
       </c>
       <c r="F1728" t="n">
-        <v>11.19286108775162</v>
+        <v>11.20023819232716</v>
       </c>
       <c r="G1728" t="n">
         <v>-30.86948863533987</v>
@@ -55559,10 +55559,10 @@
         <v>15.40093298888537</v>
       </c>
       <c r="E1729" t="n">
-        <v>-35.58330198454732</v>
+        <v>-35.29237269821316</v>
       </c>
       <c r="F1729" t="n">
-        <v>11.18839167488184</v>
+        <v>11.19542442174869</v>
       </c>
       <c r="G1729" t="n">
         <v>-31.13152374606912</v>
@@ -55585,10 +55585,10 @@
         <v>15.39294567614485</v>
       </c>
       <c r="E1730" t="n">
-        <v>-35.88982930130685</v>
+        <v>-35.59271305800591</v>
       </c>
       <c r="F1730" t="n">
-        <v>11.18405719280768</v>
+        <v>11.19075074901587</v>
       </c>
       <c r="G1730" t="n">
         <v>-31.39604139229042</v>
@@ -55611,10 +55611,10 @@
         <v>15.3844841932897</v>
       </c>
       <c r="E1731" t="n">
-        <v>-36.19843625348746</v>
+        <v>-35.89556178089086</v>
       </c>
       <c r="F1731" t="n">
-        <v>11.17985930357616</v>
+        <v>11.18621898449908</v>
       </c>
       <c r="G1731" t="n">
         <v>-31.66304638346565</v>
@@ -55637,10 +55637,10 @@
         <v>15.37554854031992</v>
       </c>
       <c r="E1732" t="n">
-        <v>-36.5091168534895</v>
+        <v>-36.20092236709459</v>
       </c>
       <c r="F1732" t="n">
-        <v>11.17579966923429</v>
+        <v>11.1818309385687</v>
       </c>
       <c r="G1732" t="n">
         <v>-31.93254352905671</v>
@@ -55663,10 +55663,10 @@
         <v>15.36613871723549</v>
       </c>
       <c r="E1733" t="n">
-        <v>-36.82186511371334</v>
+        <v>-36.50879831684377</v>
       </c>
       <c r="F1733" t="n">
-        <v>11.1718799518291</v>
+        <v>11.17758842159511</v>
       </c>
       <c r="G1733" t="n">
         <v>-32.2045376385255</v>
@@ -55689,10 +55689,10 @@
         <v>15.35625472403642</v>
       </c>
       <c r="E1734" t="n">
-        <v>-37.13667504655932</v>
+        <v>-36.81919313036501</v>
       </c>
       <c r="F1734" t="n">
-        <v>11.16810181340761</v>
+        <v>11.17349324394869</v>
       </c>
       <c r="G1734" t="n">
         <v>-32.47903352133395</v>
@@ -55715,10 +55715,10 @@
         <v>15.34589656072272</v>
       </c>
       <c r="E1735" t="n">
-        <v>-37.45354066442781</v>
+        <v>-37.13211030788493</v>
       </c>
       <c r="F1735" t="n">
-        <v>11.16446691601683</v>
+        <v>11.16954721599982</v>
       </c>
       <c r="G1735" t="n">
         <v>-32.75603598694391</v>
@@ -55741,10 +55741,10 @@
         <v>15.33506422729438</v>
       </c>
       <c r="E1736" t="n">
-        <v>-37.77245597971915</v>
+        <v>-37.44755334963016</v>
       </c>
       <c r="F1736" t="n">
-        <v>11.1609769217038</v>
+        <v>11.16575214811887</v>
       </c>
       <c r="G1736" t="n">
         <v>-33.03554984481732</v>
@@ -55767,10 +55767,10 @@
         <v>15.3237577237514</v>
       </c>
       <c r="E1737" t="n">
-        <v>-38.09341500483372</v>
+        <v>-37.76552575582734</v>
       </c>
       <c r="F1737" t="n">
-        <v>11.15763349251551</v>
+        <v>11.16210985067623</v>
       </c>
       <c r="G1737" t="n">
         <v>-33.31757990441607</v>
@@ -55793,10 +55793,10 @@
         <v>15.31197705009379</v>
       </c>
       <c r="E1738" t="n">
-        <v>-38.41641175217188</v>
+        <v>-38.08603102670308</v>
       </c>
       <c r="F1738" t="n">
-        <v>11.15443829049901</v>
+        <v>11.15862213404228</v>
       </c>
       <c r="G1738" t="n">
         <v>-33.60213097520205</v>
@@ -55819,10 +55819,10 @@
         <v>15.29972220632153</v>
       </c>
       <c r="E1739" t="n">
-        <v>-38.74144023413396</v>
+        <v>-38.40907266248402</v>
       </c>
       <c r="F1739" t="n">
-        <v>11.1513929777013</v>
+        <v>11.1552908085874</v>
       </c>
       <c r="G1739" t="n">
         <v>-33.88920786663718</v>
@@ -55845,10 +55845,10 @@
         <v>15.28699319243464</v>
       </c>
       <c r="E1740" t="n">
-        <v>-39.06849446312035</v>
+        <v>-38.73465416339678</v>
       </c>
       <c r="F1740" t="n">
-        <v>11.14849921616942</v>
+        <v>11.15211768468196</v>
       </c>
       <c r="G1740" t="n">
         <v>-34.17881538818335</v>
@@ -55871,10 +55871,10 @@
         <v>15.27379000843311</v>
       </c>
       <c r="E1741" t="n">
-        <v>-39.39756845153139</v>
+        <v>-39.062779029668</v>
       </c>
       <c r="F1741" t="n">
-        <v>11.14575866795037</v>
+        <v>11.14910457269636</v>
       </c>
       <c r="G1741" t="n">
         <v>-34.47095834930244</v>
@@ -55897,10 +55897,10 @@
         <v>15.26011265431694</v>
       </c>
       <c r="E1742" t="n">
-        <v>-39.72865621176744</v>
+        <v>-39.39345076152429</v>
       </c>
       <c r="F1742" t="n">
-        <v>11.14317299509118</v>
+        <v>11.14625328300096</v>
       </c>
       <c r="G1742" t="n">
         <v>-34.7656415594564</v>
@@ -55923,10 +55923,10 @@
         <v>15.24596113008614</v>
       </c>
       <c r="E1743" t="n">
-        <v>-40.06175175622887</v>
+        <v>-39.7266728591923</v>
       </c>
       <c r="F1743" t="n">
-        <v>11.14074385963887</v>
+        <v>11.14356562596614</v>
       </c>
       <c r="G1743" t="n">
         <v>-35.06286982810708</v>
@@ -55949,10 +55949,10 @@
         <v>15.2313354357407</v>
       </c>
       <c r="E1744" t="n">
-        <v>-40.39684909731601</v>
+        <v>-40.06244882289866</v>
       </c>
       <c r="F1744" t="n">
-        <v>11.13847292364045</v>
+        <v>11.1410434119623</v>
       </c>
       <c r="G1744" t="n">
         <v>-35.36264796471642</v>
@@ -55975,10 +55975,10 @@
         <v>15.21623557128062</v>
       </c>
       <c r="E1745" t="n">
-        <v>-40.73394224742925</v>
+        <v>-40.40078215286994</v>
       </c>
       <c r="F1745" t="n">
-        <v>11.13636184914296</v>
+        <v>11.1386884513598</v>
       </c>
       <c r="G1745" t="n">
         <v>-35.6649807787463</v>
@@ -56001,10 +56001,10 @@
         <v>15.2006615367059</v>
       </c>
       <c r="E1746" t="n">
-        <v>-41.07302521896892</v>
+        <v>-40.74167634933283</v>
       </c>
       <c r="F1746" t="n">
-        <v>11.13441229819341</v>
+        <v>11.13650255452903</v>
       </c>
       <c r="G1746" t="n">
         <v>-35.96987307965861</v>
@@ -56027,10 +56027,10 @@
         <v>15.18461333201654</v>
       </c>
       <c r="E1747" t="n">
-        <v>-41.41409202433539</v>
+        <v>-41.08513491251394</v>
       </c>
       <c r="F1747" t="n">
-        <v>11.13262593283881</v>
+        <v>11.13448753184036</v>
       </c>
       <c r="G1747" t="n">
         <v>-36.27732967691528</v>
@@ -56053,10 +56053,10 @@
         <v>15.1823662857141</v>
       </c>
       <c r="E1748" t="n">
-        <v>-41.75713667592903</v>
+        <v>-41.4311613426399</v>
       </c>
       <c r="F1748" t="n">
-        <v>11.1310044151262</v>
+        <v>11.13264519366418</v>
       </c>
       <c r="G1748" t="n">
         <v>-36.58735537997818</v>
@@ -56079,10 +56079,10 @@
         <v>15.16568786093465</v>
       </c>
       <c r="E1749" t="n">
-        <v>-42.10215318615018</v>
+        <v>-41.77975913993733</v>
       </c>
       <c r="F1749" t="n">
-        <v>11.12954940710259</v>
+        <v>11.13097735037086</v>
       </c>
       <c r="G1749" t="n">
         <v>-36.89995499830925</v>
@@ -56105,10 +56105,10 @@
         <v>15.14902292939385</v>
       </c>
       <c r="E1750" t="n">
-        <v>-42.4491355673992</v>
+        <v>-42.13093180463285</v>
       </c>
       <c r="F1750" t="n">
-        <v>11.12826257081499</v>
+        <v>11.1294858123308</v>
       </c>
       <c r="G1750" t="n">
         <v>-37.21513334137035</v>
@@ -56131,10 +56131,10 @@
         <v>15.13237710441987</v>
       </c>
       <c r="E1751" t="n">
-        <v>-42.79807783207644</v>
+        <v>-42.48468283695311</v>
       </c>
       <c r="F1751" t="n">
-        <v>11.12714556831044</v>
+        <v>11.12817238991435</v>
       </c>
       <c r="G1751" t="n">
         <v>-37.5328952186234</v>
@@ -56157,10 +56157,10 @@
         <v>15.1157559993409</v>
       </c>
       <c r="E1752" t="n">
-        <v>-43.1489739925823</v>
+        <v>-42.84101573712472</v>
       </c>
       <c r="F1752" t="n">
-        <v>11.12620006163595</v>
+        <v>11.12703889349192</v>
       </c>
       <c r="G1752" t="n">
         <v>-37.8532454395303</v>
@@ -56183,10 +56183,10 @@
         <v>15.09916522748512</v>
       </c>
       <c r="E1753" t="n">
-        <v>-43.50181806131708</v>
+        <v>-43.19993400537432</v>
       </c>
       <c r="F1753" t="n">
-        <v>11.12542771283854</v>
+        <v>11.12608713343386</v>
       </c>
       <c r="G1753" t="n">
         <v>-38.17618881355294</v>
@@ -56209,10 +56209,10 @@
         <v>15.08261040218071</v>
       </c>
       <c r="E1754" t="n">
-        <v>-43.85660405068118</v>
+        <v>-43.56144114192853</v>
       </c>
       <c r="F1754" t="n">
-        <v>11.12483018396524</v>
+        <v>11.12531892011058</v>
       </c>
       <c r="G1754" t="n">
         <v>-38.50173015015324</v>
@@ -56235,10 +56235,10 @@
         <v>15.06609713675587</v>
       </c>
       <c r="E1755" t="n">
-        <v>-44.21332597307494</v>
+        <v>-43.92554064701397</v>
       </c>
       <c r="F1755" t="n">
-        <v>11.12440913706305</v>
+        <v>11.12473606389244</v>
       </c>
       <c r="G1755" t="n">
         <v>-38.82987425879309</v>
@@ -56261,10 +56261,10 @@
         <v>15.04963104453877</v>
       </c>
       <c r="E1756" t="n">
-        <v>-44.57197784089873</v>
+        <v>-44.2922360208573</v>
       </c>
       <c r="F1756" t="n">
-        <v>11.124166234179</v>
+        <v>11.12434037514982</v>
       </c>
       <c r="G1756" t="n">
         <v>-39.16062594893439</v>

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -51619,10 +51619,10 @@
         <v>14.16187966808849</v>
       </c>
       <c r="I1604" t="n">
-        <v>0.7050548773961551</v>
+        <v>0.7509587920013854</v>
       </c>
       <c r="J1604" t="n">
-        <v>15.03910464138247</v>
+        <v>15.03909209685056</v>
       </c>
     </row>
     <row r="1605">
@@ -51651,10 +51651,10 @@
         <v>14.15393000924847</v>
       </c>
       <c r="I1605" t="n">
-        <v>0.2981910082884849</v>
+        <v>0.3861286339571546</v>
       </c>
       <c r="J1605" t="n">
-        <v>15.03890255602527</v>
+        <v>15.03899715386823</v>
       </c>
     </row>
     <row r="1606">
@@ -51683,10 +51683,10 @@
         <v>14.14562950141783</v>
       </c>
       <c r="I1606" t="n">
-        <v>-0.09630589303728754</v>
+        <v>0.02979524015302987</v>
       </c>
       <c r="J1606" t="n">
-        <v>15.03813660107125</v>
+        <v>15.03845802819588</v>
       </c>
     </row>
     <row r="1607">
@@ -51715,10 +51715,10 @@
         <v>14.13697814459658</v>
       </c>
       <c r="I1607" t="n">
-        <v>-0.4784358265811628</v>
+        <v>-0.3180413894109885</v>
       </c>
       <c r="J1607" t="n">
-        <v>15.03680677652041</v>
+        <v>15.0374747198335</v>
       </c>
     </row>
     <row r="1608">
@@ -51747,10 +51747,10 @@
         <v>14.12797593878471</v>
       </c>
       <c r="I1608" t="n">
-        <v>-0.8481987923431409</v>
+        <v>-0.6573812547349008</v>
       </c>
       <c r="J1608" t="n">
-        <v>15.03491308237276</v>
+        <v>15.0360472287811</v>
       </c>
     </row>
     <row r="1609">
@@ -51779,10 +51779,10 @@
         <v>14.11862288398223</v>
       </c>
       <c r="I1609" t="n">
-        <v>-1.205594790323221</v>
+        <v>-0.9882243558187072</v>
       </c>
       <c r="J1609" t="n">
-        <v>15.03245551862829</v>
+        <v>15.03417555503866</v>
       </c>
     </row>
     <row r="1610">
@@ -51811,10 +51811,10 @@
         <v>14.10891898018915</v>
       </c>
       <c r="I1610" t="n">
-        <v>-1.550623820521404</v>
+        <v>-1.310570692662407</v>
       </c>
       <c r="J1610" t="n">
-        <v>15.029434085287</v>
+        <v>15.0318596986062</v>
       </c>
     </row>
     <row r="1611">
@@ -51843,10 +51843,10 @@
         <v>14.09886422740544</v>
       </c>
       <c r="I1611" t="n">
-        <v>-1.88328588293769</v>
+        <v>-1.624420265266001</v>
       </c>
       <c r="J1611" t="n">
-        <v>15.0258487823489</v>
+        <v>15.02909965948371</v>
       </c>
     </row>
     <row r="1612">
@@ -51875,10 +51875,10 @@
         <v>14.08845862563113</v>
       </c>
       <c r="I1612" t="n">
-        <v>-2.203580977572078</v>
+        <v>-1.929773073629488</v>
       </c>
       <c r="J1612" t="n">
-        <v>15.02169960981398</v>
+        <v>15.0258954376712</v>
       </c>
     </row>
     <row r="1613">
@@ -51907,10 +51907,10 @@
         <v>14.0777021748662</v>
       </c>
       <c r="I1613" t="n">
-        <v>-2.511509104424569</v>
+        <v>-2.22662911775287</v>
       </c>
       <c r="J1613" t="n">
-        <v>15.01698656768224</v>
+        <v>15.02224703316865</v>
       </c>
     </row>
     <row r="1614">
@@ -51939,10 +51939,10 @@
         <v>14.06659487511066</v>
       </c>
       <c r="I1614" t="n">
-        <v>-2.807070263495162</v>
+        <v>-2.514988397636145</v>
       </c>
       <c r="J1614" t="n">
-        <v>15.01170965595369</v>
+        <v>15.01815444597608</v>
       </c>
     </row>
     <row r="1615">
@@ -51971,10 +51971,10 @@
         <v>14.05513672636451</v>
       </c>
       <c r="I1615" t="n">
-        <v>-3.090264454783858</v>
+        <v>-2.794850913279314</v>
       </c>
       <c r="J1615" t="n">
-        <v>15.00586887462831</v>
+        <v>15.01361767609348</v>
       </c>
     </row>
     <row r="1616">
@@ -52003,10 +52003,10 @@
         <v>14.04332772862774</v>
       </c>
       <c r="I1616" t="n">
-        <v>-3.361091678290657</v>
+        <v>-3.066216664682377</v>
       </c>
       <c r="J1616" t="n">
-        <v>14.99946422370613</v>
+        <v>15.00863672352085</v>
       </c>
     </row>
     <row r="1617">
@@ -52035,10 +52035,10 @@
         <v>14.03116788190036</v>
       </c>
       <c r="I1617" t="n">
-        <v>-3.619551934015558</v>
+        <v>-3.329085651845334</v>
       </c>
       <c r="J1617" t="n">
-        <v>14.99249570318712</v>
+        <v>15.0032115882582</v>
       </c>
     </row>
     <row r="1618">
@@ -52067,10 +52067,10 @@
         <v>14.01865718618237</v>
       </c>
       <c r="I1618" t="n">
-        <v>-3.865645221958562</v>
+        <v>-3.583457874768185</v>
       </c>
       <c r="J1618" t="n">
-        <v>14.9849633130713</v>
+        <v>14.99734227030552</v>
       </c>
     </row>
     <row r="1619">
@@ -52099,10 +52099,10 @@
         <v>14.00579564147377</v>
       </c>
       <c r="I1619" t="n">
-        <v>-4.099371542119669</v>
+        <v>-3.829333333450928</v>
       </c>
       <c r="J1619" t="n">
-        <v>14.97686705335866</v>
+        <v>14.99102876966281</v>
       </c>
     </row>
     <row r="1620">
@@ -52131,10 +52131,10 @@
         <v>13.99258324777455</v>
       </c>
       <c r="I1620" t="n">
-        <v>-4.320730894498877</v>
+        <v>-4.066712027893566</v>
       </c>
       <c r="J1620" t="n">
-        <v>14.96820692404921</v>
+        <v>14.98427108633007</v>
       </c>
     </row>
     <row r="1621">
@@ -52163,10 +52163,10 @@
         <v>13.97902000508472</v>
       </c>
       <c r="I1621" t="n">
-        <v>-4.529723279096189</v>
+        <v>-4.295593958096099</v>
       </c>
       <c r="J1621" t="n">
-        <v>14.95898292514294</v>
+        <v>14.97706922030731</v>
       </c>
     </row>
     <row r="1622">
@@ -52195,10 +52195,10 @@
         <v>13.96510591340428</v>
       </c>
       <c r="I1622" t="n">
-        <v>-4.726348695911602</v>
+        <v>-4.515979124058525</v>
       </c>
       <c r="J1622" t="n">
-        <v>14.94919505663985</v>
+        <v>14.96942317159452</v>
       </c>
     </row>
     <row r="1623">
@@ -52227,10 +52227,10 @@
         <v>13.95084097273322</v>
       </c>
       <c r="I1623" t="n">
-        <v>-4.91060714494512</v>
+        <v>-4.727867525780844</v>
       </c>
       <c r="J1623" t="n">
-        <v>14.93884331853994</v>
+        <v>14.9613329401917</v>
       </c>
     </row>
     <row r="1624">
@@ -52259,10 +52259,10 @@
         <v>13.93734525806462</v>
       </c>
       <c r="I1624" t="n">
-        <v>-5.082498626196738</v>
+        <v>-4.931259163263058</v>
       </c>
       <c r="J1624" t="n">
-        <v>14.92792771084322</v>
+        <v>14.95279852609885</v>
       </c>
     </row>
     <row r="1625">
@@ -52291,10 +52291,10 @@
         <v>13.92761548414667</v>
       </c>
       <c r="I1625" t="n">
-        <v>-5.24202313966646</v>
+        <v>-5.126154036505166</v>
       </c>
       <c r="J1625" t="n">
-        <v>14.91644823354968</v>
+        <v>14.94381992931597</v>
       </c>
     </row>
     <row r="1626">
@@ -52323,10 +52323,10 @@
         <v>13.91784171728405</v>
       </c>
       <c r="I1626" t="n">
-        <v>-5.389180685354285</v>
+        <v>-5.312552145507167</v>
       </c>
       <c r="J1626" t="n">
-        <v>14.90440488665932</v>
+        <v>14.93439714984307</v>
       </c>
     </row>
     <row r="1627">
@@ -52355,10 +52355,10 @@
         <v>13.90802578085149</v>
       </c>
       <c r="I1627" t="n">
-        <v>-5.523971263260211</v>
+        <v>-5.490453490269061</v>
       </c>
       <c r="J1627" t="n">
-        <v>14.89179767017215</v>
+        <v>14.92453018768014</v>
       </c>
     </row>
     <row r="1628">
@@ -52387,10 +52387,10 @@
         <v>13.89816949822374</v>
       </c>
       <c r="I1628" t="n">
-        <v>-5.646394873384241</v>
+        <v>-5.65985807079085</v>
       </c>
       <c r="J1628" t="n">
-        <v>14.87862658408816</v>
+        <v>14.91421904282719</v>
       </c>
     </row>
     <row r="1629">
@@ -52419,10 +52419,10 @@
         <v>13.88827469277556</v>
       </c>
       <c r="I1629" t="n">
-        <v>-5.756451515726373</v>
+        <v>-5.820765887072533</v>
       </c>
       <c r="J1629" t="n">
-        <v>14.86489162840735</v>
+        <v>14.9034637152842</v>
       </c>
     </row>
     <row r="1630">
@@ -52451,10 +52451,10 @@
         <v>13.87834318788168</v>
       </c>
       <c r="I1630" t="n">
-        <v>-5.854141190286609</v>
+        <v>-5.97317693911411</v>
       </c>
       <c r="J1630" t="n">
-        <v>14.85059280312972</v>
+        <v>14.89226420505119</v>
       </c>
     </row>
     <row r="1631">
@@ -52483,10 +52483,10 @@
         <v>13.86837680691686</v>
       </c>
       <c r="I1631" t="n">
-        <v>-5.939463897064945</v>
+        <v>-6.11709122691558</v>
       </c>
       <c r="J1631" t="n">
-        <v>14.83573010825528</v>
+        <v>14.88062051212815</v>
       </c>
     </row>
     <row r="1632">
@@ -52515,10 +52515,10 @@
         <v>13.85837737325583</v>
       </c>
       <c r="I1632" t="n">
-        <v>-6.012419636061386</v>
+        <v>-6.252508750476944</v>
       </c>
       <c r="J1632" t="n">
-        <v>14.82030354378402</v>
+        <v>14.86853263651508</v>
       </c>
     </row>
     <row r="1633">
@@ -52547,10 +52547,10 @@
         <v>13.84834671027336</v>
       </c>
       <c r="I1633" t="n">
-        <v>-6.073008407275928</v>
+        <v>-6.379429509798202</v>
       </c>
       <c r="J1633" t="n">
-        <v>14.80431310971595</v>
+        <v>14.85600057821199</v>
       </c>
     </row>
     <row r="1634">
@@ -52579,10 +52579,10 @@
         <v>13.83828664134419</v>
       </c>
       <c r="I1634" t="n">
-        <v>-6.121230210708574</v>
+        <v>-6.497853504879353</v>
       </c>
       <c r="J1634" t="n">
-        <v>14.78775880605106</v>
+        <v>14.84302433721887</v>
       </c>
     </row>
     <row r="1635">
@@ -52611,10 +52611,10 @@
         <v>13.82819898984305</v>
       </c>
       <c r="I1635" t="n">
-        <v>-6.15708504635932</v>
+        <v>-6.607780735720399</v>
       </c>
       <c r="J1635" t="n">
-        <v>14.77064063278934</v>
+        <v>14.82960391353572</v>
       </c>
     </row>
     <row r="1636">
@@ -52643,10 +52643,10 @@
         <v>13.81808557914471</v>
       </c>
       <c r="I1636" t="n">
-        <v>-6.180572914228171</v>
+        <v>-6.709211202321338</v>
       </c>
       <c r="J1636" t="n">
-        <v>14.75295858993082</v>
+        <v>14.81573930716254</v>
       </c>
     </row>
     <row r="1637">
@@ -52675,10 +52675,10 @@
         <v>13.80794823262392</v>
       </c>
       <c r="I1637" t="n">
-        <v>-6.191693814315125</v>
+        <v>-6.802144904682171</v>
       </c>
       <c r="J1637" t="n">
-        <v>14.73471267747548</v>
+        <v>14.80143051809933</v>
       </c>
     </row>
     <row r="1638">
@@ -52707,10 +52707,10 @@
         <v>13.7977887736554</v>
       </c>
       <c r="I1638" t="n">
-        <v>-6.192538531954879</v>
+        <v>-6.886581842802899</v>
       </c>
       <c r="J1638" t="n">
-        <v>14.73009496240602</v>
+        <v>14.7866775463461</v>
       </c>
     </row>
     <row r="1639">
@@ -52739,10 +52739,10 @@
         <v>13.78760902561392</v>
       </c>
       <c r="I1639" t="n">
-        <v>-6.195338347768057</v>
+        <v>-6.96252201668352</v>
       </c>
       <c r="J1639" t="n">
-        <v>14.71947921923658</v>
+        <v>14.77148039190284</v>
       </c>
     </row>
     <row r="1640">
@@ -52771,10 +52771,10 @@
         <v>13.77741081187422</v>
       </c>
       <c r="I1640" t="n">
-        <v>-6.201620697300469</v>
+        <v>-7.029965426324035</v>
       </c>
       <c r="J1640" t="n">
-        <v>14.70875058151968</v>
+        <v>14.75583905476956</v>
       </c>
     </row>
     <row r="1641">
@@ -52803,10 +52803,10 @@
         <v>13.76719595581105</v>
       </c>
       <c r="I1641" t="n">
-        <v>-6.21137743217981</v>
+        <v>-7.088912071724443</v>
       </c>
       <c r="J1641" t="n">
-        <v>14.69791195205859</v>
+        <v>14.73975353494624</v>
       </c>
     </row>
     <row r="1642">
@@ -52835,10 +52835,10 @@
         <v>13.75696628079916</v>
       </c>
       <c r="I1642" t="n">
-        <v>-6.224600404033778</v>
+        <v>-7.119584530075169</v>
       </c>
       <c r="J1642" t="n">
-        <v>14.68696623365658</v>
+        <v>14.73009496240602</v>
       </c>
     </row>
     <row r="1643">
@@ -52867,10 +52867,10 @@
         <v>13.74672361021329</v>
       </c>
       <c r="I1643" t="n">
-        <v>-6.241281464490069</v>
+        <v>-7.153525338144508</v>
       </c>
       <c r="J1643" t="n">
-        <v>14.67591632911693</v>
+        <v>14.71912806114464</v>
       </c>
     </row>
     <row r="1644">
@@ -52899,10 +52899,10 @@
         <v>13.73646976742818</v>
       </c>
       <c r="I1644" t="n">
-        <v>-6.261412465176382</v>
+        <v>-7.189918296250418</v>
       </c>
       <c r="J1644" t="n">
-        <v>14.66476514124288</v>
+        <v>14.70804081729767</v>
       </c>
     </row>
     <row r="1645">
@@ -52931,10 +52931,10 @@
         <v>13.7262065758186</v>
       </c>
       <c r="I1645" t="n">
-        <v>-6.284985257720415</v>
+        <v>-7.228770178527379</v>
       </c>
       <c r="J1645" t="n">
-        <v>14.65351557283773</v>
+        <v>14.69683642967493</v>
       </c>
     </row>
     <row r="1646">
@@ -52963,10 +52963,10 @@
         <v>13.71593585875928</v>
       </c>
       <c r="I1646" t="n">
-        <v>-6.311991693749863</v>
+        <v>-7.270087759109889</v>
       </c>
       <c r="J1646" t="n">
-        <v>14.64217052670474</v>
+        <v>14.68551809708625</v>
       </c>
     </row>
     <row r="1647">
@@ -52995,10 +52995,10 @@
         <v>13.70565943962498</v>
       </c>
       <c r="I1647" t="n">
-        <v>-6.342423624892428</v>
+        <v>-7.313877812132427</v>
       </c>
       <c r="J1647" t="n">
-        <v>14.63073290564716</v>
+        <v>14.67408901834145</v>
       </c>
     </row>
     <row r="1648">
@@ -53027,10 +53027,10 @@
         <v>13.69537914179044</v>
       </c>
       <c r="I1648" t="n">
-        <v>-6.376272902775801</v>
+        <v>-7.36014711172949</v>
       </c>
       <c r="J1648" t="n">
-        <v>14.61920561246828</v>
+        <v>14.66255239225038</v>
       </c>
     </row>
     <row r="1649">
@@ -53059,10 +53059,10 @@
         <v>13.68509678863039</v>
       </c>
       <c r="I1649" t="n">
-        <v>-6.413531379027685</v>
+        <v>-7.408902432035564</v>
       </c>
       <c r="J1649" t="n">
-        <v>14.60759154997137</v>
+        <v>14.65091141762286</v>
       </c>
     </row>
     <row r="1650">
@@ -53091,10 +53091,10 @@
         <v>13.67481420351962</v>
       </c>
       <c r="I1650" t="n">
-        <v>-6.454190905275773</v>
+        <v>-7.460150547185137</v>
       </c>
       <c r="J1650" t="n">
-        <v>14.59589362095969</v>
+        <v>14.63916929326873</v>
       </c>
     </row>
     <row r="1651">
@@ -53123,10 +53123,10 @@
         <v>13.66453320983284</v>
       </c>
       <c r="I1651" t="n">
-        <v>-6.498243333147768</v>
+        <v>-7.513898231312698</v>
       </c>
       <c r="J1651" t="n">
-        <v>14.58411472823651</v>
+        <v>14.62732921799781</v>
       </c>
     </row>
     <row r="1652">
@@ -53155,10 +53155,10 @@
         <v>13.6542556309448</v>
       </c>
       <c r="I1652" t="n">
-        <v>-6.545680514271362</v>
+        <v>-7.570152258552734</v>
       </c>
       <c r="J1652" t="n">
-        <v>14.57225777460511</v>
+        <v>14.61539439061993</v>
       </c>
     </row>
     <row r="1653">
@@ -53187,10 +53187,10 @@
         <v>13.64398329023027</v>
       </c>
       <c r="I1653" t="n">
-        <v>-6.596494300274255</v>
+        <v>-7.628919403039736</v>
       </c>
       <c r="J1653" t="n">
-        <v>14.56032566286875</v>
+        <v>14.60336800994493</v>
       </c>
     </row>
     <row r="1654">
@@ -53219,10 +53219,10 @@
         <v>13.63371801106398</v>
       </c>
       <c r="I1654" t="n">
-        <v>-6.650676542784144</v>
+        <v>-7.69020643890819</v>
       </c>
       <c r="J1654" t="n">
-        <v>14.54832129583069</v>
+        <v>14.59125327478264</v>
       </c>
     </row>
     <row r="1655">
@@ -53251,10 +53251,10 @@
         <v>13.62346161682068</v>
       </c>
       <c r="I1655" t="n">
-        <v>-6.708219093428726</v>
+        <v>-7.754020140292587</v>
       </c>
       <c r="J1655" t="n">
-        <v>14.53624757629422</v>
+        <v>14.57905338394288</v>
       </c>
     </row>
     <row r="1656">
@@ -53283,10 +53283,10 @@
         <v>13.61321593087513</v>
       </c>
       <c r="I1656" t="n">
-        <v>-6.769113803835699</v>
+        <v>-7.82036728132741</v>
       </c>
       <c r="J1656" t="n">
-        <v>14.52410740706258</v>
+        <v>14.56677153623548</v>
       </c>
     </row>
     <row r="1657">
@@ -53315,10 +53315,10 @@
         <v>13.60298277660205</v>
       </c>
       <c r="I1657" t="n">
-        <v>-6.833352525632759</v>
+        <v>-7.889254636147156</v>
       </c>
       <c r="J1657" t="n">
-        <v>14.51190369093907</v>
+        <v>14.55441093047028</v>
       </c>
     </row>
     <row r="1658">
@@ -53347,10 +53347,10 @@
         <v>13.59276397737621</v>
       </c>
       <c r="I1658" t="n">
-        <v>-6.900927110447608</v>
+        <v>-7.96068897888631</v>
       </c>
       <c r="J1658" t="n">
-        <v>14.49963933072695</v>
+        <v>14.54197476545712</v>
       </c>
     </row>
     <row r="1659">
@@ -53379,10 +53379,10 @@
         <v>13.58256135657236</v>
       </c>
       <c r="I1659" t="n">
-        <v>-6.971829409907936</v>
+        <v>-8.034677083679359</v>
       </c>
       <c r="J1659" t="n">
-        <v>14.48731722922948</v>
+        <v>14.52946624000581</v>
       </c>
     </row>
     <row r="1660">
@@ -53411,10 +53411,10 @@
         <v>13.57237673756523</v>
       </c>
       <c r="I1660" t="n">
-        <v>-7.046051275641449</v>
+        <v>-8.111225724660795</v>
       </c>
       <c r="J1660" t="n">
-        <v>14.47494028924994</v>
+        <v>14.51688855292619</v>
       </c>
     </row>
     <row r="1661">
@@ -53443,10 +53443,10 @@
         <v>13.56221194372957</v>
       </c>
       <c r="I1661" t="n">
-        <v>-7.123584559275834</v>
+        <v>-8.190341675965104</v>
       </c>
       <c r="J1661" t="n">
-        <v>14.46251141359159</v>
+        <v>14.50424490302809</v>
       </c>
     </row>
     <row r="1662">
@@ -53475,10 +53475,10 @@
         <v>13.55206879844014</v>
       </c>
       <c r="I1662" t="n">
-        <v>-7.204421112438801</v>
+        <v>-8.272031711726774</v>
       </c>
       <c r="J1662" t="n">
-        <v>14.45003350505771</v>
+        <v>14.49153848912134</v>
       </c>
     </row>
     <row r="1663">
@@ -53507,10 +53507,10 @@
         <v>13.54194912507169</v>
       </c>
       <c r="I1663" t="n">
-        <v>-7.288552786758035</v>
+        <v>-8.356302606080297</v>
       </c>
       <c r="J1663" t="n">
-        <v>14.43750946645155</v>
+        <v>14.47877251001578</v>
       </c>
     </row>
     <row r="1664">
@@ -53539,10 +53539,10 @@
         <v>13.53185474699894</v>
       </c>
       <c r="I1664" t="n">
-        <v>-7.375971433861244</v>
+        <v>-8.443161133160157</v>
       </c>
       <c r="J1664" t="n">
-        <v>14.4249422005764</v>
+        <v>14.46595016452122</v>
       </c>
     </row>
     <row r="1665">
@@ -53571,10 +53571,10 @@
         <v>13.52178748759667</v>
       </c>
       <c r="I1665" t="n">
-        <v>-7.466668905376117</v>
+        <v>-8.532614067100843</v>
       </c>
       <c r="J1665" t="n">
-        <v>14.41233461023552</v>
+        <v>14.45307465144751</v>
       </c>
     </row>
     <row r="1666">
@@ -53603,10 +53603,10 @@
         <v>13.51174917023961</v>
       </c>
       <c r="I1666" t="n">
-        <v>-7.560637052930355</v>
+        <v>-8.624668182036848</v>
       </c>
       <c r="J1666" t="n">
-        <v>14.39968959823218</v>
+        <v>14.44014916960447</v>
       </c>
     </row>
     <row r="1667">
@@ -53635,10 +53635,10 @@
         <v>13.5017416183025</v>
       </c>
       <c r="I1667" t="n">
-        <v>-7.657867728151658</v>
+        <v>-8.719330252102656</v>
       </c>
       <c r="J1667" t="n">
-        <v>14.38701006736965</v>
+        <v>14.42717691780194</v>
       </c>
     </row>
     <row r="1668">
@@ -53667,10 +53667,10 @@
         <v>13.4917666551601</v>
       </c>
       <c r="I1668" t="n">
-        <v>-7.758352782667719</v>
+        <v>-8.81660705143276</v>
       </c>
       <c r="J1668" t="n">
-        <v>14.3742989204512</v>
+        <v>14.41416109484974</v>
       </c>
     </row>
     <row r="1669">
@@ -53699,10 +53699,10 @@
         <v>13.48182610418717</v>
       </c>
       <c r="I1669" t="n">
-        <v>-7.862084068106238</v>
+        <v>-8.916505354161645</v>
       </c>
       <c r="J1669" t="n">
-        <v>14.3615590602801</v>
+        <v>14.4011048995577</v>
       </c>
     </row>
     <row r="1670">
@@ -53731,10 +53731,10 @@
         <v>13.47192178875843</v>
       </c>
       <c r="I1670" t="n">
-        <v>-7.96905343609491</v>
+        <v>-9.019031934423801</v>
       </c>
       <c r="J1670" t="n">
-        <v>14.34879338965961</v>
+        <v>14.38801153073566</v>
       </c>
     </row>
     <row r="1671">
@@ -53763,10 +53763,10 @@
         <v>13.46205553224864</v>
       </c>
       <c r="I1671" t="n">
-        <v>-8.079252738261436</v>
+        <v>-9.124193566353718</v>
       </c>
       <c r="J1671" t="n">
-        <v>14.33600481139301</v>
+        <v>14.37488418719345</v>
       </c>
     </row>
     <row r="1672">
@@ -53795,10 +53795,10 @@
         <v>13.45222915803255</v>
       </c>
       <c r="I1672" t="n">
-        <v>-8.192673826233513</v>
+        <v>-9.231997024085882</v>
       </c>
       <c r="J1672" t="n">
-        <v>14.32319622828356</v>
+        <v>14.3617260677409</v>
       </c>
     </row>
     <row r="1673">
@@ -53827,10 +53827,10 @@
         <v>13.4424444894849</v>
       </c>
       <c r="I1673" t="n">
-        <v>-8.309308551638837</v>
+        <v>-9.342449081754781</v>
       </c>
       <c r="J1673" t="n">
-        <v>14.31037054313454</v>
+        <v>14.34854037118783</v>
       </c>
     </row>
     <row r="1674">
@@ -53859,10 +53859,10 @@
         <v>13.43270334998044</v>
       </c>
       <c r="I1674" t="n">
-        <v>-8.429148766105103</v>
+        <v>-9.455556513494903</v>
       </c>
       <c r="J1674" t="n">
-        <v>14.29753065874922</v>
+        <v>14.33533029634408</v>
       </c>
     </row>
     <row r="1675">
@@ -53891,10 +53891,10 @@
         <v>13.42300756289393</v>
       </c>
       <c r="I1675" t="n">
-        <v>-8.552186321260011</v>
+        <v>-9.571326093440746</v>
       </c>
       <c r="J1675" t="n">
-        <v>14.28467947793085</v>
+        <v>14.32209904201948</v>
       </c>
     </row>
     <row r="1676">
@@ -53923,10 +53923,10 @@
         <v>13.41335895160009</v>
       </c>
       <c r="I1676" t="n">
-        <v>-8.67841306873126</v>
+        <v>-9.689764595726784</v>
       </c>
       <c r="J1676" t="n">
-        <v>14.27181990348272</v>
+        <v>14.30884980702386</v>
       </c>
     </row>
     <row r="1677">
@@ -53955,10 +53955,10 @@
         <v>13.40375933947369</v>
       </c>
       <c r="I1677" t="n">
-        <v>-8.807820860146546</v>
+        <v>-9.810878794487516</v>
       </c>
       <c r="J1677" t="n">
-        <v>14.25895483820809</v>
+        <v>14.29558579016705</v>
       </c>
     </row>
     <row r="1678">
@@ -53987,10 +53987,10 @@
         <v>13.39421054988948</v>
       </c>
       <c r="I1678" t="n">
-        <v>-8.940401547133561</v>
+        <v>-9.934675463857429</v>
       </c>
       <c r="J1678" t="n">
-        <v>14.24608718491023</v>
+        <v>14.28231019025888</v>
       </c>
     </row>
     <row r="1679">
@@ -54019,10 +54019,10 @@
         <v>13.38471440622219</v>
       </c>
       <c r="I1679" t="n">
-        <v>-9.076146981320012</v>
+        <v>-10.06116137797101</v>
       </c>
       <c r="J1679" t="n">
-        <v>14.23321984639241</v>
+        <v>14.26902620610919</v>
       </c>
     </row>
     <row r="1680">
@@ -54051,10 +54051,10 @@
         <v>13.37527273184658</v>
       </c>
       <c r="I1680" t="n">
-        <v>-9.215049014333591</v>
+        <v>-10.19034331096274</v>
       </c>
       <c r="J1680" t="n">
-        <v>14.2203557254579</v>
+        <v>14.25573703652779</v>
       </c>
     </row>
     <row r="1681">
@@ -54083,10 +54083,10 @@
         <v>13.36588735013739</v>
       </c>
       <c r="I1681" t="n">
-        <v>-9.357099497801997</v>
+        <v>-10.32222803696713</v>
       </c>
       <c r="J1681" t="n">
-        <v>14.20749772490996</v>
+        <v>14.24244588032452</v>
       </c>
     </row>
     <row r="1682">
@@ -54115,10 +54115,10 @@
         <v>13.35656008446937</v>
       </c>
       <c r="I1682" t="n">
-        <v>-9.502290283352927</v>
+        <v>-10.45682233011864</v>
       </c>
       <c r="J1682" t="n">
-        <v>14.19464874755188</v>
+        <v>14.22915593630923</v>
       </c>
     </row>
     <row r="1683">
@@ -54147,10 +54147,10 @@
         <v>13.34729275821727</v>
       </c>
       <c r="I1683" t="n">
-        <v>-9.650613222614076</v>
+        <v>-10.59413296455178</v>
       </c>
       <c r="J1683" t="n">
-        <v>14.18181169618691</v>
+        <v>14.21587040329172</v>
       </c>
     </row>
     <row r="1684">
@@ -54179,10 +54179,10 @@
         <v>13.33808719475584</v>
       </c>
       <c r="I1684" t="n">
-        <v>-9.802060167213146</v>
+        <v>-10.73416671440103</v>
       </c>
       <c r="J1684" t="n">
-        <v>14.16898947361832</v>
+        <v>14.20259248008185</v>
       </c>
     </row>
     <row r="1685">
@@ -54211,10 +54211,10 @@
         <v>13.32894521745982</v>
       </c>
       <c r="I1685" t="n">
-        <v>-9.956622968777829</v>
+        <v>-10.87693035380088</v>
       </c>
       <c r="J1685" t="n">
-        <v>14.15618498264939</v>
+        <v>14.18932536548942</v>
       </c>
     </row>
     <row r="1686">
@@ -54243,10 +54243,10 @@
         <v>13.31986864970395</v>
       </c>
       <c r="I1686" t="n">
-        <v>-10.11429347893583</v>
+        <v>-11.02243065688582</v>
       </c>
       <c r="J1686" t="n">
-        <v>14.14340112608339</v>
+        <v>14.17607225832429</v>
       </c>
     </row>
     <row r="1687">
@@ -54275,10 +54275,10 @@
         <v>13.310859314863</v>
       </c>
       <c r="I1687" t="n">
-        <v>-10.27506354931484</v>
+        <v>-11.17067439779033</v>
       </c>
       <c r="J1687" t="n">
-        <v>14.13064080672358</v>
+        <v>14.16283635739627</v>
       </c>
     </row>
     <row r="1688">
@@ -54307,10 +54307,10 @@
         <v>13.3019190363117</v>
       </c>
       <c r="I1688" t="n">
-        <v>-10.43892503154256</v>
+        <v>-11.32166835064891</v>
       </c>
       <c r="J1688" t="n">
-        <v>14.11790692737322</v>
+        <v>14.14962086151519</v>
       </c>
     </row>
     <row r="1689">
@@ -54339,10 +54339,10 @@
         <v>13.2930496374248</v>
       </c>
       <c r="I1689" t="n">
-        <v>-10.60586977724668</v>
+        <v>-11.47541928959604</v>
       </c>
       <c r="J1689" t="n">
-        <v>14.1052023908356</v>
+        <v>14.1364289694909</v>
       </c>
     </row>
     <row r="1690">
@@ -54371,10 +54371,10 @@
         <v>13.28425294157705</v>
       </c>
       <c r="I1690" t="n">
-        <v>-10.77588963805491</v>
+        <v>-11.63193398876622</v>
       </c>
       <c r="J1690" t="n">
-        <v>14.09253009991399</v>
+        <v>14.12326388013321</v>
       </c>
     </row>
     <row r="1691">
@@ -54403,10 +54403,10 @@
         <v>13.27553077214321</v>
       </c>
       <c r="I1691" t="n">
-        <v>-10.94897646559494</v>
+        <v>-11.79121922229393</v>
       </c>
       <c r="J1691" t="n">
-        <v>14.07989295741164</v>
+        <v>14.11012879225197</v>
       </c>
     </row>
     <row r="1692">
@@ -54435,10 +54435,10 @@
         <v>13.266884952498</v>
       </c>
       <c r="I1692" t="n">
-        <v>-11.12512211149446</v>
+        <v>-11.95328176431365</v>
       </c>
       <c r="J1692" t="n">
-        <v>14.06729386613183</v>
+        <v>14.09702690465699</v>
       </c>
     </row>
     <row r="1693">
@@ -54467,10 +54467,10 @@
         <v>13.25831730601618</v>
       </c>
       <c r="I1693" t="n">
-        <v>-11.30431842738118</v>
+        <v>-12.11812838895989</v>
       </c>
       <c r="J1693" t="n">
-        <v>14.05473572887783</v>
+        <v>14.08396141615811</v>
       </c>
     </row>
     <row r="1694">
@@ -54499,10 +54499,10 @@
         <v>13.24982965607251</v>
       </c>
       <c r="I1694" t="n">
-        <v>-11.48655726488279</v>
+        <v>-12.28576587036711</v>
       </c>
       <c r="J1694" t="n">
-        <v>14.04222144845291</v>
+        <v>14.07093552556516</v>
       </c>
     </row>
     <row r="1695">
@@ -54531,10 +54531,10 @@
         <v>13.24142382604172</v>
       </c>
       <c r="I1695" t="n">
-        <v>-11.671830475627</v>
+        <v>-12.45620098266983</v>
       </c>
       <c r="J1695" t="n">
-        <v>14.02975392766033</v>
+        <v>14.05795243168798</v>
       </c>
     </row>
     <row r="1696">
@@ -54563,10 +54563,10 @@
         <v>13.23310163929856</v>
       </c>
       <c r="I1696" t="n">
-        <v>-11.86012991124149</v>
+        <v>-12.62944050000253</v>
       </c>
       <c r="J1696" t="n">
-        <v>14.01733606930337</v>
+        <v>14.04501533333639</v>
       </c>
     </row>
     <row r="1697">
@@ -54595,10 +54595,10 @@
         <v>13.22486491921779</v>
       </c>
       <c r="I1697" t="n">
-        <v>-12.05144742335397</v>
+        <v>-12.80549119649968</v>
       </c>
       <c r="J1697" t="n">
-        <v>14.0049707761853</v>
+        <v>14.03212742932023</v>
       </c>
     </row>
     <row r="1698">
@@ -54627,10 +54627,10 @@
         <v>13.21671548917414</v>
       </c>
       <c r="I1698" t="n">
-        <v>-12.24577486359212</v>
+        <v>-12.98435984629578</v>
       </c>
       <c r="J1698" t="n">
-        <v>13.99266095110937</v>
+        <v>14.01929191844931</v>
       </c>
     </row>
     <row r="1699">
@@ -54659,10 +54659,10 @@
         <v>13.20865517254237</v>
       </c>
       <c r="I1699" t="n">
-        <v>-12.44310408358367</v>
+        <v>-13.16605322352533</v>
       </c>
       <c r="J1699" t="n">
-        <v>13.98040949687888</v>
+        <v>14.00651199953349</v>
       </c>
     </row>
     <row r="1700">
@@ -54691,10 +54691,10 @@
         <v>13.20068579269722</v>
       </c>
       <c r="I1700" t="n">
-        <v>-12.64342693495628</v>
+        <v>-13.35057810232281</v>
       </c>
       <c r="J1700" t="n">
-        <v>13.96821931629707</v>
+        <v>13.99379087138257</v>
       </c>
     </row>
     <row r="1701">
@@ -54723,10 +54723,10 @@
         <v>13.19280917301345</v>
       </c>
       <c r="I1701" t="n">
-        <v>-12.84673526933767</v>
+        <v>-13.53794125682269</v>
       </c>
       <c r="J1701" t="n">
-        <v>13.95609331216723</v>
+        <v>13.9811317328064</v>
       </c>
     </row>
     <row r="1702">
@@ -54755,10 +54755,10 @@
         <v>13.18502713686579</v>
       </c>
       <c r="I1702" t="n">
-        <v>-13.05302093835554</v>
+        <v>-13.72814946115949</v>
       </c>
       <c r="J1702" t="n">
-        <v>13.94403438729261</v>
+        <v>13.96853778261481</v>
       </c>
     </row>
     <row r="1703">
@@ -54787,10 +54787,10 @@
         <v>13.177341507629</v>
       </c>
       <c r="I1703" t="n">
-        <v>-13.26227579363757</v>
+        <v>-13.92120948946768</v>
       </c>
       <c r="J1703" t="n">
-        <v>13.93204544447651</v>
+        <v>13.95601221961763</v>
       </c>
     </row>
     <row r="1704">
@@ -54819,10 +54819,10 @@
         <v>13.16975410867781</v>
       </c>
       <c r="I1704" t="n">
-        <v>-13.47449168681147</v>
+        <v>-14.11712811588176</v>
       </c>
       <c r="J1704" t="n">
-        <v>13.92012938652216</v>
+        <v>13.94355824262469</v>
       </c>
     </row>
     <row r="1705">
@@ -54851,10 +54851,10 @@
         <v>13.16226676338699</v>
       </c>
       <c r="I1705" t="n">
-        <v>-13.68966046950494</v>
+        <v>-14.3159121145362</v>
       </c>
       <c r="J1705" t="n">
-        <v>13.90828911623286</v>
+        <v>13.93117905044581</v>
       </c>
     </row>
     <row r="1706">
@@ -54883,10 +54883,10 @@
         <v>13.15488129513128</v>
       </c>
       <c r="I1706" t="n">
-        <v>-13.90777399334566</v>
+        <v>-14.51756825956551</v>
       </c>
       <c r="J1706" t="n">
-        <v>13.89652753641186</v>
+        <v>13.91887784189083</v>
       </c>
     </row>
     <row r="1707">
@@ -54915,10 +54915,10 @@
         <v>13.14759952728542</v>
       </c>
       <c r="I1707" t="n">
-        <v>-14.12882410996135</v>
+        <v>-14.72210332510416</v>
       </c>
       <c r="J1707" t="n">
-        <v>13.88484754986244</v>
+        <v>13.90665781576958</v>
       </c>
     </row>
     <row r="1708">
@@ -54947,10 +54947,10 @@
         <v>13.14042328322417</v>
       </c>
       <c r="I1708" t="n">
-        <v>-14.35280267097969</v>
+        <v>-14.92952408528665</v>
       </c>
       <c r="J1708" t="n">
-        <v>13.87325205938787</v>
+        <v>13.89452217089189</v>
       </c>
     </row>
     <row r="1709">
@@ -54979,10 +54979,10 @@
         <v>13.13335438632226</v>
       </c>
       <c r="I1709" t="n">
-        <v>-14.57970152802839</v>
+        <v>-15.13983731424747</v>
       </c>
       <c r="J1709" t="n">
-        <v>13.86174396779141</v>
+        <v>13.88247410606759</v>
       </c>
     </row>
     <row r="1710">
@@ -55011,10 +55011,10 @@
         <v>13.12639465995445</v>
       </c>
       <c r="I1710" t="n">
-        <v>-14.80951253273514</v>
+        <v>-15.3530497861211</v>
       </c>
       <c r="J1710" t="n">
-        <v>13.85032617787634</v>
+        <v>13.87051682010652</v>
       </c>
     </row>
     <row r="1711">
@@ -55043,10 +55043,10 @@
         <v>13.11954592749548</v>
       </c>
       <c r="I1711" t="n">
-        <v>-15.04222753672764</v>
+        <v>-15.56916827504203</v>
       </c>
       <c r="J1711" t="n">
-        <v>13.83900159244592</v>
+        <v>13.85865351181849</v>
       </c>
     </row>
     <row r="1712">
@@ -55075,10 +55075,10 @@
         <v>13.11281001232011</v>
       </c>
       <c r="I1712" t="n">
-        <v>-15.27783839163358</v>
+        <v>-15.78819955514476</v>
       </c>
       <c r="J1712" t="n">
-        <v>13.82777311430342</v>
+        <v>13.84688738001335</v>
       </c>
     </row>
     <row r="1713">
@@ -55107,10 +55107,10 @@
         <v>13.10618873780308</v>
       </c>
       <c r="I1713" t="n">
-        <v>-15.51633694908067</v>
+        <v>-16.01015040056377</v>
       </c>
       <c r="J1713" t="n">
-        <v>13.81664364625212</v>
+        <v>13.83522162350092</v>
       </c>
     </row>
     <row r="1714">
@@ -55139,10 +55139,10 @@
         <v>13.09968392731913</v>
       </c>
       <c r="I1714" t="n">
-        <v>-15.7577150606966</v>
+        <v>-16.23502758543354</v>
       </c>
       <c r="J1714" t="n">
-        <v>13.80561609109527</v>
+        <v>13.82365944109104</v>
       </c>
     </row>
     <row r="1715">
@@ -55171,10 +55171,10 @@
         <v>13.09329740424301</v>
       </c>
       <c r="I1715" t="n">
-        <v>-16.00196457810906</v>
+        <v>-16.46283788388857</v>
       </c>
       <c r="J1715" t="n">
-        <v>13.79469335163616</v>
+        <v>13.81220403159353</v>
       </c>
     </row>
     <row r="1716">
@@ -55203,10 +55203,10 @@
         <v>13.08703099194948</v>
       </c>
       <c r="I1716" t="n">
-        <v>-16.24907735294577</v>
+        <v>-16.69358807006335</v>
       </c>
       <c r="J1716" t="n">
-        <v>13.78387833067805</v>
+        <v>13.80085859381823</v>
       </c>
     </row>
     <row r="1717">
@@ -55235,10 +55235,10 @@
         <v>13.08088651381327</v>
       </c>
       <c r="I1717" t="n">
-        <v>-16.49904523683441</v>
+        <v>-16.92728491809236</v>
       </c>
       <c r="J1717" t="n">
-        <v>13.7731739310242</v>
+        <v>13.78962632657496</v>
       </c>
     </row>
     <row r="1718">
@@ -55267,10 +55267,10 @@
         <v>13.07486579320914</v>
       </c>
       <c r="I1718" t="n">
-        <v>-16.75186008140268</v>
+        <v>-17.1639352021101</v>
       </c>
       <c r="J1718" t="n">
-        <v>13.76258305547789</v>
+        <v>13.77851042867356</v>
       </c>
     </row>
     <row r="1719">
@@ -55299,10 +55299,10 @@
         <v>13.06897065351184</v>
       </c>
       <c r="I1719" t="n">
-        <v>-17.00751373827828</v>
+        <v>-17.40354569625104</v>
       </c>
       <c r="J1719" t="n">
-        <v>13.75210860684239</v>
+        <v>13.76751409892386</v>
       </c>
     </row>
     <row r="1720">
@@ -55331,10 +55331,10 @@
         <v>13.0632029180961</v>
       </c>
       <c r="I1720" t="n">
-        <v>-17.2659980590889</v>
+        <v>-17.64612317464969</v>
       </c>
       <c r="J1720" t="n">
-        <v>13.74175348792097</v>
+        <v>13.75664053613568</v>
       </c>
     </row>
     <row r="1721">
@@ -55363,10 +55363,10 @@
         <v>13.05756441033668</v>
       </c>
       <c r="I1721" t="n">
-        <v>-17.52730489546224</v>
+        <v>-17.89167441144053</v>
       </c>
       <c r="J1721" t="n">
-        <v>13.73152060151689</v>
+        <v>13.74589293911887</v>
       </c>
     </row>
     <row r="1722">
@@ -55389,10 +55389,10 @@
         <v>13.05205695360833</v>
       </c>
       <c r="I1722" t="n">
-        <v>-17.79142609902601</v>
+        <v>-18.14020618075804</v>
       </c>
       <c r="J1722" t="n">
-        <v>13.72141285043343</v>
+        <v>13.73527450668324</v>
       </c>
     </row>
     <row r="1723">
@@ -55415,10 +55415,10 @@
         <v>13.04668237128579</v>
       </c>
       <c r="I1723" t="n">
-        <v>-18.05835352140789</v>
+        <v>-18.39172525673672</v>
       </c>
       <c r="J1723" t="n">
-        <v>13.71143313747385</v>
+        <v>13.72478843763863</v>
       </c>
     </row>
     <row r="1724">
@@ -55441,10 +55441,10 @@
         <v>13.04144248674381</v>
       </c>
       <c r="I1724" t="n">
-        <v>-18.3280790142356</v>
+        <v>-18.64623841351106</v>
       </c>
       <c r="J1724" t="n">
-        <v>13.70158436544143</v>
+        <v>13.71443793079488</v>
       </c>
     </row>
     <row r="1725">
@@ -55467,10 +55467,10 @@
         <v>13.03633912335714</v>
       </c>
       <c r="I1725" t="n">
-        <v>-18.60059442913681</v>
+        <v>-18.90375242521554</v>
       </c>
       <c r="J1725" t="n">
-        <v>13.69186943713942</v>
+        <v>13.7042261849618</v>
       </c>
     </row>
     <row r="1726">
@@ -55493,10 +55493,10 @@
         <v>13.03137410450052</v>
       </c>
       <c r="I1726" t="n">
-        <v>-18.87589161773924</v>
+        <v>-19.16427406598465</v>
       </c>
       <c r="J1726" t="n">
-        <v>13.68229125537111</v>
+        <v>13.69415639894924</v>
       </c>
     </row>
     <row r="1727">
@@ -55519,10 +55519,10 @@
         <v>13.02654925354871</v>
       </c>
       <c r="I1727" t="n">
-        <v>-19.15396243167056</v>
+        <v>-19.42781010995287</v>
       </c>
       <c r="J1727" t="n">
-        <v>13.67285272293976</v>
+        <v>13.68423177156702</v>
       </c>
     </row>
     <row r="1728">
@@ -55545,10 +55545,10 @@
         <v>13.02186639387644</v>
       </c>
       <c r="I1728" t="n">
-        <v>-19.4347987225585</v>
+        <v>-19.69436733125471</v>
       </c>
       <c r="J1728" t="n">
-        <v>13.66355674264864</v>
+        <v>13.67445550162497</v>
       </c>
     </row>
     <row r="1729">
@@ -55571,10 +55571,10 @@
         <v>13.01732734885848</v>
       </c>
       <c r="I1729" t="n">
-        <v>-19.71839234203074</v>
+        <v>-19.96395250402465</v>
       </c>
       <c r="J1729" t="n">
-        <v>13.65440621730102</v>
+        <v>13.66483078793293</v>
       </c>
     </row>
     <row r="1730">
@@ -55597,10 +55597,10 @@
         <v>13.01293394186955</v>
       </c>
       <c r="I1730" t="n">
-        <v>-20.00473514171498</v>
+        <v>-20.23657240239717</v>
       </c>
       <c r="J1730" t="n">
-        <v>13.64540404970017</v>
+        <v>13.65536082930072</v>
       </c>
     </row>
     <row r="1731">
@@ -55623,10 +55623,10 @@
         <v>13.00868799628442</v>
       </c>
       <c r="I1731" t="n">
-        <v>-20.29381897323892</v>
+        <v>-20.51223380050677</v>
       </c>
       <c r="J1731" t="n">
-        <v>13.63655314264935</v>
+        <v>13.64604882453818</v>
       </c>
     </row>
     <row r="1732">
@@ -55649,10 +55649,10 @@
         <v>13.00459133547782</v>
       </c>
       <c r="I1732" t="n">
-        <v>-20.58563568823025</v>
+        <v>-20.79094347248793</v>
       </c>
       <c r="J1732" t="n">
-        <v>13.62785639895184</v>
+        <v>13.63689797245513</v>
       </c>
     </row>
     <row r="1733">
@@ -55675,10 +55675,10 @@
         <v>13.00064578282452</v>
       </c>
       <c r="I1733" t="n">
-        <v>-20.88017713831668</v>
+        <v>-21.07270819247514</v>
       </c>
       <c r="J1733" t="n">
-        <v>13.61931672141091</v>
+        <v>13.62791147186141</v>
       </c>
     </row>
     <row r="1734">
@@ -55701,10 +55701,10 @@
         <v>12.99685316169924</v>
       </c>
       <c r="I1734" t="n">
-        <v>-21.17743517512589</v>
+        <v>-21.3575347346029</v>
       </c>
       <c r="J1734" t="n">
-        <v>13.61093701282982</v>
+        <v>13.61909252156684</v>
       </c>
     </row>
     <row r="1735">
@@ -55727,10 +55727,10 @@
         <v>12.99321529547675</v>
       </c>
       <c r="I1735" t="n">
-        <v>-21.47740165028559</v>
+        <v>-21.64542987300567</v>
       </c>
       <c r="J1735" t="n">
-        <v>13.60272017601185</v>
+        <v>13.61044432038126</v>
       </c>
     </row>
     <row r="1736">
@@ -55753,10 +55753,10 @@
         <v>12.98973400753179</v>
       </c>
       <c r="I1736" t="n">
-        <v>-21.78006841542348</v>
+        <v>-21.93640038181798</v>
       </c>
       <c r="J1736" t="n">
-        <v>13.59466911376025</v>
+        <v>13.6019700671145</v>
       </c>
     </row>
     <row r="1737">
@@ -55779,10 +55779,10 @@
         <v>12.9864111212391</v>
       </c>
       <c r="I1737" t="n">
-        <v>-22.08542732216725</v>
+        <v>-22.23045303517428</v>
       </c>
       <c r="J1737" t="n">
-        <v>13.58678672887832</v>
+        <v>13.5936729605764</v>
       </c>
     </row>
     <row r="1738">
@@ -55805,10 +55805,10 @@
         <v>12.98324845997343</v>
       </c>
       <c r="I1738" t="n">
-        <v>-22.39347022214459</v>
+        <v>-22.52759460720909</v>
       </c>
       <c r="J1738" t="n">
-        <v>13.5790759241693</v>
+        <v>13.58555619957676</v>
       </c>
     </row>
     <row r="1739">
@@ -55831,10 +55831,10 @@
         <v>12.98024784710954</v>
       </c>
       <c r="I1739" t="n">
-        <v>-22.70418896698322</v>
+        <v>-22.82783187205688</v>
       </c>
       <c r="J1739" t="n">
-        <v>13.57153960243648</v>
+        <v>13.57762298292544</v>
       </c>
     </row>
     <row r="1740">
@@ -55857,10 +55857,10 @@
         <v>12.97741110602216</v>
       </c>
       <c r="I1740" t="n">
-        <v>-23.01757540831082</v>
+        <v>-23.13117160385213</v>
       </c>
       <c r="J1740" t="n">
-        <v>13.56418066648311</v>
+        <v>13.56987650943227</v>
       </c>
     </row>
     <row r="1741">
@@ -55883,10 +55883,10 @@
         <v>12.97474006008605</v>
       </c>
       <c r="I1741" t="n">
-        <v>-23.33362139775509</v>
+        <v>-23.43762057672935</v>
       </c>
       <c r="J1741" t="n">
-        <v>13.55700201911248</v>
+        <v>13.56231997790706</v>
       </c>
     </row>
     <row r="1742">
@@ -55909,10 +55909,10 @@
         <v>12.97223653267595</v>
       </c>
       <c r="I1742" t="n">
-        <v>-23.65231878694373</v>
+        <v>-23.74718556482301</v>
       </c>
       <c r="J1742" t="n">
-        <v>13.55000656312784</v>
+        <v>13.55495658715965</v>
       </c>
     </row>
     <row r="1743">
@@ -55935,10 +55935,10 @@
         <v>12.96990234716661</v>
       </c>
       <c r="I1743" t="n">
-        <v>-23.97365942750443</v>
+        <v>-24.05987334226762</v>
       </c>
       <c r="J1743" t="n">
-        <v>13.54319720133247</v>
+        <v>13.54778953599988</v>
       </c>
     </row>
     <row r="1744">
@@ -55961,10 +55961,10 @@
         <v>12.96773932693278</v>
       </c>
       <c r="I1744" t="n">
-        <v>-24.2976351710649</v>
+        <v>-24.37569068319765</v>
       </c>
       <c r="J1744" t="n">
-        <v>13.53657683652964</v>
+        <v>13.54082202323757</v>
       </c>
     </row>
     <row r="1745">
@@ -55987,10 +55987,10 @@
         <v>12.96574929534921</v>
       </c>
       <c r="I1745" t="n">
-        <v>-24.62423786925284</v>
+        <v>-24.6946443617476</v>
       </c>
       <c r="J1745" t="n">
-        <v>13.53014837152261</v>
+        <v>13.53405724768255</v>
       </c>
     </row>
     <row r="1746">
@@ -56013,10 +56013,10 @@
         <v>12.96393407579063</v>
       </c>
       <c r="I1746" t="n">
-        <v>-24.95345937369593</v>
+        <v>-25.01674115205195</v>
       </c>
       <c r="J1746" t="n">
-        <v>13.52391470911466</v>
+        <v>13.52749840814466</v>
       </c>
     </row>
     <row r="1747">
@@ -56039,10 +56039,10 @@
         <v>12.96229549163181</v>
       </c>
       <c r="I1747" t="n">
-        <v>-25.28529153602187</v>
+        <v>-25.34198782824518</v>
       </c>
       <c r="J1747" t="n">
-        <v>13.51787875210905</v>
+        <v>13.52114870343373</v>
       </c>
     </row>
     <row r="1748">
@@ -56065,10 +56065,10 @@
         <v>12.96083536624748</v>
       </c>
       <c r="I1748" t="n">
-        <v>-25.61972620785838</v>
+        <v>-25.67039116446181</v>
       </c>
       <c r="J1748" t="n">
-        <v>13.51204340330906</v>
+        <v>13.51501133235958</v>
       </c>
     </row>
     <row r="1749">
@@ -56091,10 +56091,10 @@
         <v>12.9595555230124</v>
       </c>
       <c r="I1749" t="n">
-        <v>-25.95675524083313</v>
+        <v>-26.00195793483631</v>
       </c>
       <c r="J1749" t="n">
-        <v>13.50641156551795</v>
+        <v>13.50908949373205</v>
       </c>
     </row>
     <row r="1750">
@@ -56117,10 +56117,10 @@
         <v>12.9584577853013</v>
       </c>
       <c r="I1750" t="n">
-        <v>-26.29637048657383</v>
+        <v>-26.33669491350315</v>
       </c>
       <c r="J1750" t="n">
-        <v>13.50098614153899</v>
+        <v>13.50338638636097</v>
       </c>
     </row>
     <row r="1751">
@@ -56143,10 +56143,10 @@
         <v>12.95754397648895</v>
       </c>
       <c r="I1751" t="n">
-        <v>-26.63856379670817</v>
+        <v>-26.67460887459685</v>
       </c>
       <c r="J1751" t="n">
-        <v>13.49577003417545</v>
+        <v>13.49790520905616</v>
       </c>
     </row>
     <row r="1752">
@@ -56169,10 +56169,10 @@
         <v>12.95681591995008</v>
       </c>
       <c r="I1752" t="n">
-        <v>-26.98332702286386</v>
+        <v>-27.01570659225188</v>
       </c>
       <c r="J1752" t="n">
-        <v>13.49076614623061</v>
+        <v>13.49264916062746</v>
       </c>
     </row>
     <row r="1753">
@@ -56195,10 +56195,10 @@
         <v>12.95627543905945</v>
       </c>
       <c r="I1753" t="n">
-        <v>-27.33065201666859</v>
+        <v>-27.35999484060273</v>
       </c>
       <c r="J1753" t="n">
-        <v>13.48597738050772</v>
+        <v>13.4876214398847</v>
       </c>
     </row>
     <row r="1754">
@@ -56221,10 +56221,10 @@
         <v>12.9559243571918</v>
       </c>
       <c r="I1754" t="n">
-        <v>-27.68053062975006</v>
+        <v>-27.70748039378391</v>
       </c>
       <c r="J1754" t="n">
-        <v>13.48140663981006</v>
+        <v>13.48282524563771</v>
       </c>
     </row>
     <row r="1755">
@@ -56247,10 +56247,10 @@
         <v>12.95576449772188</v>
       </c>
       <c r="I1755" t="n">
-        <v>-28.03295471373597</v>
+        <v>-28.05817002592987</v>
       </c>
       <c r="J1755" t="n">
-        <v>13.4770568269409</v>
+        <v>13.47826377669632</v>
       </c>
     </row>
     <row r="1756">
@@ -56273,10 +56273,10 @@
         <v>12.95579768402443</v>
       </c>
       <c r="I1756" t="n">
-        <v>-28.387916120254</v>
+        <v>-28.41207051117512</v>
       </c>
       <c r="J1756" t="n">
-        <v>13.47293084470351</v>
+        <v>13.47394023187036</v>
       </c>
     </row>
     <row r="1757">
@@ -56299,10 +56299,10 @@
         <v>12.9560257394742</v>
       </c>
       <c r="I1757" t="n">
-        <v>-28.74540670093186</v>
+        <v>-28.76918862365417</v>
       </c>
       <c r="J1757" t="n">
-        <v>13.46903159590116</v>
+        <v>13.46985780996967</v>
       </c>
     </row>
     <row r="1758">
@@ -56325,10 +56325,10 @@
         <v>12.95645048744595</v>
       </c>
       <c r="I1758" t="n">
-        <v>-29.10541830739726</v>
+        <v>-29.12953113750148</v>
       </c>
       <c r="J1758" t="n">
-        <v>13.46536198333711</v>
+        <v>13.46601970980406</v>
       </c>
     </row>
     <row r="1759">
@@ -56351,10 +56351,10 @@
         <v>12.95707375131442</v>
       </c>
       <c r="I1759" t="n">
-        <v>-29.46794279127788</v>
+        <v>-29.49310482685153</v>
       </c>
       <c r="J1759" t="n">
-        <v>13.46192490981463</v>
+        <v>13.46242913018339</v>
       </c>
     </row>
     <row r="1760">
@@ -56377,10 +56377,10 @@
         <v>12.95789735445435</v>
       </c>
       <c r="I1760" t="n">
-        <v>-29.83297200420142</v>
+        <v>-29.85991646583883</v>
       </c>
       <c r="J1760" t="n">
-        <v>13.458723278137</v>
+        <v>13.45908926991746</v>
       </c>
     </row>
     <row r="1761">
@@ -56403,10 +56403,10 @@
         <v>12.95892312024049</v>
       </c>
       <c r="I1761" t="n">
-        <v>-30.20049779779559</v>
+        <v>-30.22997282859787</v>
       </c>
       <c r="J1761" t="n">
-        <v>13.45575999110748</v>
+        <v>13.45600332781612</v>
       </c>
     </row>
     <row r="1762">
@@ -56429,10 +56429,10 @@
         <v>12.96015287204759</v>
       </c>
       <c r="I1762" t="n">
-        <v>-30.57051202368807</v>
+        <v>-30.60328068926312</v>
       </c>
       <c r="J1762" t="n">
-        <v>13.45303795152934</v>
+        <v>13.45317450268919</v>
       </c>
     </row>
     <row r="1763">
@@ -56455,10 +56455,10 @@
         <v>12.9615884332504</v>
       </c>
       <c r="I1763" t="n">
-        <v>-30.94300653350656</v>
+        <v>-30.97984682196909</v>
       </c>
       <c r="J1763" t="n">
-        <v>13.45056006220586</v>
+        <v>13.45060599334651</v>
       </c>
     </row>
     <row r="1764">
@@ -56481,10 +56481,10 @@
         <v>12.96323162722366</v>
       </c>
       <c r="I1764" t="n">
-        <v>-31.31797317887878</v>
+        <v>-31.35967800085025</v>
       </c>
       <c r="J1764" t="n">
-        <v>13.4483292259403</v>
+        <v>13.4483009985979</v>
       </c>
     </row>
     <row r="1765">
@@ -56507,10 +56507,10 @@
         <v>12.96508427734213</v>
       </c>
       <c r="I1765" t="n">
-        <v>-31.69540381143239</v>
+        <v>-31.7427810000411</v>
       </c>
       <c r="J1765" t="n">
-        <v>13.44634834553592</v>
+        <v>13.44626271725321</v>
       </c>
     </row>
     <row r="1766">
@@ -56533,10 +56533,10 @@
         <v>12.96714820698055</v>
       </c>
       <c r="I1766" t="n">
-        <v>-32.07529028279512</v>
+        <v>-32.12916259367613</v>
       </c>
       <c r="J1766" t="n">
-        <v>13.44462032379601</v>
+        <v>13.44449434812224</v>
       </c>
     </row>
     <row r="1767">
@@ -56559,10 +56559,10 @@
         <v>12.96942523951366</v>
       </c>
       <c r="I1767" t="n">
-        <v>-32.45762444459466</v>
+        <v>-32.51882955588982</v>
       </c>
       <c r="J1767" t="n">
-        <v>13.44314806352382</v>
+        <v>13.44299909001485</v>
       </c>
     </row>
     <row r="1768">
@@ -56585,10 +56585,10 @@
         <v>12.97191719831622</v>
       </c>
       <c r="I1768" t="n">
-        <v>-32.84239814845868</v>
+        <v>-32.91178866081667</v>
       </c>
       <c r="J1768" t="n">
-        <v>13.44193446752263</v>
+        <v>13.44178014174086</v>
       </c>
     </row>
     <row r="1769">
@@ -56611,10 +56611,10 @@
         <v>12.97462590676297</v>
       </c>
       <c r="I1769" t="n">
-        <v>-33.22960324601491</v>
+        <v>-33.30804668259115</v>
       </c>
       <c r="J1769" t="n">
-        <v>13.44098243859571</v>
+        <v>13.44084070211009</v>
       </c>
     </row>
     <row r="1770">
@@ -56631,10 +56631,10 @@
         <v>12.97755318822866</v>
       </c>
       <c r="I1770" t="n">
-        <v>-33.61923158889105</v>
+        <v>-33.70761039534776</v>
       </c>
       <c r="J1770" t="n">
-        <v>13.44029487954632</v>
+        <v>13.44018396993239</v>
       </c>
     </row>
     <row r="1771">
@@ -56651,10 +56651,10 @@
         <v>12.97699314516173</v>
       </c>
       <c r="I1771" t="n">
-        <v>-34.01127502871476</v>
+        <v>-34.11048657322099</v>
       </c>
       <c r="J1771" t="n">
-        <v>13.43987469317774</v>
+        <v>13.43981314401758</v>
       </c>
     </row>
     <row r="1772">
@@ -56671,10 +56671,10 @@
         <v>12.97361814516174</v>
       </c>
       <c r="I1772" t="n">
-        <v>-34.40572541711379</v>
+        <v>-34.51668199034533</v>
       </c>
       <c r="J1772" t="n">
-        <v>13.43972478229323</v>
+        <v>13.43973142317549</v>
       </c>
     </row>
     <row r="1773">
@@ -56691,10 +56691,10 @@
         <v>12.97024314516174</v>
       </c>
       <c r="I1773" t="n">
-        <v>-34.80257460571579</v>
+        <v>-34.92620342085527</v>
       </c>
       <c r="J1773" t="n">
-        <v>13.43984804969607</v>
+        <v>13.43994200621595</v>
       </c>
     </row>
     <row r="1774">
@@ -56711,10 +56711,10 @@
         <v>12.96686814516174</v>
       </c>
       <c r="I1774" t="n">
-        <v>-35.20181444614848</v>
+        <v>-35.73428571428571</v>
       </c>
       <c r="J1774" t="n">
-        <v>13.44024739818952</v>
+        <v>13.4397305451128</v>
       </c>
     </row>
     <row r="1775">
@@ -56731,10 +56731,10 @@
         <v>12.96349314516174</v>
       </c>
       <c r="I1775" t="n">
-        <v>-35.73428571428571</v>
+        <v>-36.16857142857143</v>
       </c>
       <c r="J1775" t="n">
-        <v>13.4397305451128</v>
+        <v>13.43907340225566</v>
       </c>
     </row>
     <row r="1776">
@@ -56751,10 +56751,10 @@
         <v>12.96011814516174</v>
       </c>
       <c r="I1776" t="n">
-        <v>-36.16857142857143</v>
+        <v>-36.60285714285714</v>
       </c>
       <c r="J1776" t="n">
-        <v>13.43907340225566</v>
+        <v>13.43841625939852</v>
       </c>
     </row>
     <row r="1777">
@@ -56771,10 +56771,10 @@
         <v>12.95674314516174</v>
       </c>
       <c r="I1777" t="n">
-        <v>-36.60285714285714</v>
+        <v>-37.03714285714285</v>
       </c>
       <c r="J1777" t="n">
-        <v>13.43841625939852</v>
+        <v>13.43775911654137</v>
       </c>
     </row>
     <row r="1778">
@@ -56791,10 +56791,10 @@
         <v>12.95336814516174</v>
       </c>
       <c r="I1778" t="n">
-        <v>-37.03714285714285</v>
+        <v>-37.47142857142857</v>
       </c>
       <c r="J1778" t="n">
-        <v>13.43775911654137</v>
+        <v>13.43710197368423</v>
       </c>
     </row>
     <row r="1779">
@@ -56811,10 +56811,10 @@
         <v>12.94999314516174</v>
       </c>
       <c r="I1779" t="n">
-        <v>-37.47142857142857</v>
+        <v>-37.90571428571428</v>
       </c>
       <c r="J1779" t="n">
-        <v>13.43710197368423</v>
+        <v>13.43644483082709</v>
       </c>
     </row>
     <row r="1780">
@@ -56831,10 +56831,10 @@
         <v>12.94661814516174</v>
       </c>
       <c r="I1780" t="n">
-        <v>-37.90571428571428</v>
+        <v>-38.34</v>
       </c>
       <c r="J1780" t="n">
-        <v>13.43644483082709</v>
+        <v>13.43578768796995</v>
       </c>
     </row>
     <row r="1781">
@@ -56851,10 +56851,10 @@
         <v>12.94324314516174</v>
       </c>
       <c r="I1781" t="n">
-        <v>-38.34</v>
+        <v>-38.77428571428571</v>
       </c>
       <c r="J1781" t="n">
-        <v>13.43578768796995</v>
+        <v>13.4351305451128</v>
       </c>
     </row>
     <row r="1782">
@@ -56871,10 +56871,10 @@
         <v>12.93986814516175</v>
       </c>
       <c r="I1782" t="n">
-        <v>-38.77428571428571</v>
+        <v>-39.20857142857142</v>
       </c>
       <c r="J1782" t="n">
-        <v>13.4351305451128</v>
+        <v>13.43447340225566</v>
       </c>
     </row>
     <row r="1783">
@@ -56891,10 +56891,10 @@
         <v>12.93649314516175</v>
       </c>
       <c r="I1783" t="n">
-        <v>-39.20857142857142</v>
+        <v>-39.64285714285714</v>
       </c>
       <c r="J1783" t="n">
-        <v>13.43447340225566</v>
+        <v>13.43381625939852</v>
       </c>
     </row>
     <row r="1784">
@@ -56911,10 +56911,10 @@
         <v>12.93311814516175</v>
       </c>
       <c r="I1784" t="n">
-        <v>-39.64285714285714</v>
+        <v>-40.07714285714285</v>
       </c>
       <c r="J1784" t="n">
-        <v>13.43381625939852</v>
+        <v>13.43315911654137</v>
       </c>
     </row>
     <row r="1785">
@@ -56925,10 +56925,10 @@
         <v>14.6178666258002</v>
       </c>
       <c r="I1785" t="n">
-        <v>-40.07714285714285</v>
+        <v>-40.51142857142857</v>
       </c>
       <c r="J1785" t="n">
-        <v>13.43315911654137</v>
+        <v>13.43250197368423</v>
       </c>
     </row>
     <row r="1786">
@@ -56939,10 +56939,10 @@
         <v>14.60542592742112</v>
       </c>
       <c r="I1786" t="n">
-        <v>-40.51142857142857</v>
+        <v>-40.94571428571428</v>
       </c>
       <c r="J1786" t="n">
-        <v>13.43250197368423</v>
+        <v>13.43184483082709</v>
       </c>
     </row>
     <row r="1787">
@@ -56953,10 +56953,10 @@
         <v>14.59320641542351</v>
       </c>
       <c r="I1787" t="n">
-        <v>-40.94571428571428</v>
+        <v>-41.38</v>
       </c>
       <c r="J1787" t="n">
-        <v>13.43184483082709</v>
+        <v>13.43118768796995</v>
       </c>
     </row>
     <row r="1788">
@@ -56967,10 +56967,10 @@
         <v>14.58121370313554</v>
       </c>
       <c r="I1788" t="n">
-        <v>-41.38</v>
+        <v>-41.81428571428571</v>
       </c>
       <c r="J1788" t="n">
-        <v>13.43118768796995</v>
+        <v>13.4305305451128</v>
       </c>
     </row>
     <row r="1789">
@@ -56981,10 +56981,10 @@
         <v>14.56945340388539</v>
       </c>
       <c r="I1789" t="n">
-        <v>-41.81428571428571</v>
+        <v>-42.24857142857142</v>
       </c>
       <c r="J1789" t="n">
-        <v>13.4305305451128</v>
+        <v>13.42987340225566</v>
       </c>
     </row>
     <row r="1790">
@@ -56995,10 +56995,10 @@
         <v>14.55793113100125</v>
       </c>
       <c r="I1790" t="n">
-        <v>-42.24857142857142</v>
+        <v>-42.68285714285714</v>
       </c>
       <c r="J1790" t="n">
-        <v>13.42987340225566</v>
+        <v>13.42921625939852</v>
       </c>
     </row>
     <row r="1791">
@@ -57009,10 +57009,10 @@
         <v>14.54665249781131</v>
       </c>
       <c r="I1791" t="n">
-        <v>-42.68285714285714</v>
+        <v>-43.11714285714285</v>
       </c>
       <c r="J1791" t="n">
-        <v>13.42921625939852</v>
+        <v>13.42855911654137</v>
       </c>
     </row>
     <row r="1792">
@@ -57023,10 +57023,10 @@
         <v>14.53562311764374</v>
       </c>
       <c r="I1792" t="n">
-        <v>-43.11714285714285</v>
+        <v>-43.55142857142857</v>
       </c>
       <c r="J1792" t="n">
-        <v>13.42855911654137</v>
+        <v>13.42790197368423</v>
       </c>
     </row>
     <row r="1793">
@@ -57037,10 +57037,10 @@
         <v>14.52484860382674</v>
       </c>
       <c r="I1793" t="n">
-        <v>-43.55142857142857</v>
+        <v>-43.98571428571428</v>
       </c>
       <c r="J1793" t="n">
-        <v>13.42790197368423</v>
+        <v>13.42724483082709</v>
       </c>
     </row>
     <row r="1794">
@@ -57051,10 +57051,10 @@
         <v>14.51433456968848</v>
       </c>
       <c r="I1794" t="n">
-        <v>-43.98571428571428</v>
+        <v>-44.41999999999999</v>
       </c>
       <c r="J1794" t="n">
-        <v>13.42724483082709</v>
+        <v>13.42658768796995</v>
       </c>
     </row>
     <row r="1795">
@@ -57065,10 +57065,10 @@
         <v>14.50408662855715</v>
       </c>
       <c r="I1795" t="n">
-        <v>-44.41999999999999</v>
+        <v>-44.85428571428571</v>
       </c>
       <c r="J1795" t="n">
-        <v>13.42658768796995</v>
+        <v>13.4259305451128</v>
       </c>
     </row>
     <row r="1796">
@@ -57079,10 +57079,10 @@
         <v>14.49411039376094</v>
       </c>
       <c r="I1796" t="n">
-        <v>-44.85428571428571</v>
+        <v>-45.28857142857142</v>
       </c>
       <c r="J1796" t="n">
-        <v>13.4259305451128</v>
+        <v>13.42527340225566</v>
       </c>
     </row>
     <row r="1797">
@@ -57093,10 +57093,10 @@
         <v>14.48441147862803</v>
       </c>
       <c r="I1797" t="n">
-        <v>-45.28857142857142</v>
+        <v>-45.72285714285714</v>
       </c>
       <c r="J1797" t="n">
-        <v>13.42527340225566</v>
+        <v>13.42461625939852</v>
       </c>
     </row>
     <row r="1798">
@@ -57107,10 +57107,10 @@
         <v>14.4749954964866</v>
       </c>
       <c r="I1798" t="n">
-        <v>-45.72285714285714</v>
+        <v>-46.15714285714285</v>
       </c>
       <c r="J1798" t="n">
-        <v>13.42461625939852</v>
+        <v>13.42395911654137</v>
       </c>
     </row>
     <row r="1799">
@@ -57121,10 +57121,10 @@
         <v>14.46586806066484</v>
       </c>
       <c r="I1799" t="n">
-        <v>-46.15714285714285</v>
+        <v>-46.59142857142857</v>
       </c>
       <c r="J1799" t="n">
-        <v>13.42395911654137</v>
+        <v>13.42330197368423</v>
       </c>
     </row>
     <row r="1800">
@@ -57135,10 +57135,10 @@
         <v>14.45703478449094</v>
       </c>
       <c r="I1800" t="n">
-        <v>-46.59142857142857</v>
+        <v>-47.02571428571428</v>
       </c>
       <c r="J1800" t="n">
-        <v>13.42330197368423</v>
+        <v>13.42264483082709</v>
       </c>
     </row>
     <row r="1801">
@@ -57149,10 +57149,10 @@
         <v>14.44850128129306</v>
       </c>
       <c r="I1801" t="n">
-        <v>-47.02571428571428</v>
+        <v>-47.45999999999999</v>
       </c>
       <c r="J1801" t="n">
-        <v>13.42264483082709</v>
+        <v>13.42198768796995</v>
       </c>
     </row>
     <row r="1802">
@@ -57163,10 +57163,10 @@
         <v>14.44027316439941</v>
       </c>
       <c r="I1802" t="n">
-        <v>-47.45999999999999</v>
+        <v>-47.89428571428571</v>
       </c>
       <c r="J1802" t="n">
-        <v>13.42198768796995</v>
+        <v>13.4213305451128</v>
       </c>
     </row>
     <row r="1803">
@@ -57177,10 +57177,10 @@
         <v>14.43235604713817</v>
       </c>
       <c r="I1803" t="n">
-        <v>-47.89428571428571</v>
+        <v>-48.32857142857142</v>
       </c>
       <c r="J1803" t="n">
-        <v>13.4213305451128</v>
+        <v>13.42067340225566</v>
       </c>
     </row>
     <row r="1804">
@@ -57191,10 +57191,10 @@
         <v>14.42475554283751</v>
       </c>
       <c r="I1804" t="n">
-        <v>-48.32857142857142</v>
+        <v>-48.76285714285714</v>
       </c>
       <c r="J1804" t="n">
-        <v>13.42067340225566</v>
+        <v>13.42001625939852</v>
       </c>
     </row>
     <row r="1805">
@@ -57205,10 +57205,10 @@
         <v>14.41747726482563</v>
       </c>
       <c r="I1805" t="n">
-        <v>-48.76285714285714</v>
+        <v>-49.19714285714285</v>
       </c>
       <c r="J1805" t="n">
-        <v>13.42001625939852</v>
+        <v>13.41935911654137</v>
       </c>
     </row>
     <row r="1806">
@@ -57219,10 +57219,10 @@
         <v>14.4105268264307</v>
       </c>
       <c r="I1806" t="n">
-        <v>-49.19714285714285</v>
+        <v>-49.63142857142856</v>
       </c>
       <c r="J1806" t="n">
-        <v>13.41935911654137</v>
+        <v>13.41870197368423</v>
       </c>
     </row>
     <row r="1807">
@@ -57231,12 +57231,6 @@
       </c>
       <c r="D1807" t="n">
         <v>14.40390984098092</v>
-      </c>
-      <c r="I1807" t="n">
-        <v>-49.63142857142856</v>
-      </c>
-      <c r="J1807" t="n">
-        <v>13.41870197368423</v>
       </c>
     </row>
     <row r="1808">

--- a/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
+++ b/2_cooling_curve_task/new_2_cooling_curve_task.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:J1826"/>
+  <dimension ref="A4:J1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55121,10 +55121,10 @@
         <v>13.93183388704359</v>
       </c>
       <c r="C1714" t="n">
-        <v>-25.44587424879036</v>
+        <v>-25.39740399453612</v>
       </c>
       <c r="D1714" t="n">
-        <v>15.46384226623654</v>
+        <v>15.46368298409346</v>
       </c>
       <c r="E1714" t="n">
         <v>-31.0858907182759</v>
@@ -55153,10 +55153,10 @@
         <v>13.93170531561502</v>
       </c>
       <c r="C1715" t="n">
-        <v>-25.83739632164147</v>
+        <v>-25.74051029978793</v>
       </c>
       <c r="D1715" t="n">
-        <v>15.46296750521559</v>
+        <v>15.46229157864522</v>
       </c>
       <c r="E1715" t="n">
         <v>-31.34902565888135</v>
@@ -55185,10 +55185,10 @@
         <v>13.93157674418645</v>
       </c>
       <c r="C1716" t="n">
-        <v>-26.21742336141046</v>
+        <v>-26.07217605861255</v>
       </c>
       <c r="D1716" t="n">
-        <v>15.46161857408001</v>
+        <v>15.46006864079813</v>
       </c>
       <c r="E1716" t="n">
         <v>-31.61461645917957</v>
@@ -55217,10 +55217,10 @@
         <v>13.93144817275788</v>
       </c>
       <c r="C1717" t="n">
-        <v>-26.58595536809733</v>
+        <v>-26.39240127101001</v>
       </c>
       <c r="D1717" t="n">
-        <v>15.45979547282978</v>
+        <v>15.45701417055218</v>
       </c>
       <c r="E1717" t="n">
         <v>-31.88266661939716</v>
@@ -55249,10 +55249,10 @@
         <v>13.93131960132931</v>
       </c>
       <c r="C1718" t="n">
-        <v>-26.94299234170207</v>
+        <v>-26.70118593698029</v>
       </c>
       <c r="D1718" t="n">
-        <v>15.45749820146492</v>
+        <v>15.45312816790739</v>
       </c>
       <c r="E1718" t="n">
         <v>-32.15317963976079</v>
@@ -55281,10 +55281,10 @@
         <v>13.93119102990074</v>
       </c>
       <c r="C1719" t="n">
-        <v>-27.2885342822247</v>
+        <v>-26.99853005652339</v>
       </c>
       <c r="D1719" t="n">
-        <v>15.45472675998542</v>
+        <v>15.44841063286373</v>
       </c>
       <c r="E1719" t="n">
         <v>-32.42615902049705</v>
@@ -55313,10 +55313,10 @@
         <v>13.93106245847217</v>
       </c>
       <c r="C1720" t="n">
-        <v>-27.6225811896652</v>
+        <v>-27.28443362963932</v>
       </c>
       <c r="D1720" t="n">
-        <v>15.45148114839129</v>
+        <v>15.44286156542122</v>
       </c>
       <c r="E1720" t="n">
         <v>-32.70160826183258</v>
@@ -55345,10 +55345,10 @@
         <v>13.93093388704359</v>
       </c>
       <c r="C1721" t="n">
-        <v>-27.94513306402358</v>
+        <v>-27.55889665632807</v>
       </c>
       <c r="D1721" t="n">
-        <v>15.44776136668252</v>
+        <v>15.43648096557986</v>
       </c>
       <c r="E1721" t="n">
         <v>-32.97953086399401</v>
@@ -55371,10 +55371,10 @@
     </row>
     <row r="1722">
       <c r="C1722" t="n">
-        <v>-28.25618990529984</v>
+        <v>-27.82191913658965</v>
       </c>
       <c r="D1722" t="n">
-        <v>15.4435674148591</v>
+        <v>15.42926883333965</v>
       </c>
       <c r="E1722" t="n">
         <v>-33.25993032720797</v>
@@ -55397,10 +55397,10 @@
     </row>
     <row r="1723">
       <c r="C1723" t="n">
-        <v>-28.55575171349398</v>
+        <v>-28.07350107042405</v>
       </c>
       <c r="D1723" t="n">
-        <v>15.43889929292105</v>
+        <v>15.42122516870058</v>
       </c>
       <c r="E1723" t="n">
         <v>-33.54281015170109</v>
@@ -55423,10 +55423,10 @@
     </row>
     <row r="1724">
       <c r="C1724" t="n">
-        <v>-28.84381848860601</v>
+        <v>-28.31364245783128</v>
       </c>
       <c r="D1724" t="n">
-        <v>15.43375700086837</v>
+        <v>15.41234997166266</v>
       </c>
       <c r="E1724" t="n">
         <v>-33.82817383769999</v>
@@ -55449,10 +55449,10 @@
     </row>
     <row r="1725">
       <c r="C1725" t="n">
-        <v>-29.12039023063591</v>
+        <v>-28.54234329881132</v>
       </c>
       <c r="D1725" t="n">
-        <v>15.42814053870104</v>
+        <v>15.40264324222588</v>
       </c>
       <c r="E1725" t="n">
         <v>-34.11602488543129</v>
@@ -55475,10 +55475,10 @@
     </row>
     <row r="1726">
       <c r="C1726" t="n">
-        <v>-29.38546693958368</v>
+        <v>-28.7596035933642</v>
       </c>
       <c r="D1726" t="n">
-        <v>15.42204990641908</v>
+        <v>15.39210498039025</v>
       </c>
       <c r="E1726" t="n">
         <v>-34.40636679512163</v>
@@ -55501,10 +55501,10 @@
     </row>
     <row r="1727">
       <c r="C1727" t="n">
-        <v>-29.63904861544934</v>
+        <v>-28.9654233414899</v>
       </c>
       <c r="D1727" t="n">
-        <v>15.41548510402248</v>
+        <v>15.38073518615576</v>
       </c>
       <c r="E1727" t="n">
         <v>-34.69920306699763</v>
@@ -55527,10 +55527,10 @@
     </row>
     <row r="1728">
       <c r="C1728" t="n">
-        <v>-29.88113525823287</v>
+        <v>-29.15980254318842</v>
       </c>
       <c r="D1728" t="n">
-        <v>15.40844613151124</v>
+        <v>15.36853385952243</v>
       </c>
       <c r="E1728" t="n">
         <v>-34.99453720128593</v>
@@ -55553,10 +55553,10 @@
     </row>
     <row r="1729">
       <c r="C1729" t="n">
-        <v>-30.11172686793429</v>
+        <v>-29.34274119845977</v>
       </c>
       <c r="D1729" t="n">
-        <v>15.40093298888537</v>
+        <v>15.35550100049023</v>
       </c>
       <c r="E1729" t="n">
         <v>-35.29237269821316</v>
@@ -55579,10 +55579,10 @@
     </row>
     <row r="1730">
       <c r="C1730" t="n">
-        <v>-30.33082344455358</v>
+        <v>-29.51423930730394</v>
       </c>
       <c r="D1730" t="n">
-        <v>15.39294567614485</v>
+        <v>15.34163660905919</v>
       </c>
       <c r="E1730" t="n">
         <v>-35.59271305800591</v>
@@ -55605,10 +55605,10 @@
     </row>
     <row r="1731">
       <c r="C1731" t="n">
-        <v>-30.53842498809076</v>
+        <v>-29.67429686972094</v>
       </c>
       <c r="D1731" t="n">
-        <v>15.3844841932897</v>
+        <v>15.32694068522929</v>
       </c>
       <c r="E1731" t="n">
         <v>-35.89556178089086</v>
@@ -55631,10 +55631,10 @@
     </row>
     <row r="1732">
       <c r="C1732" t="n">
-        <v>-30.73453149854581</v>
+        <v>-29.82291388571076</v>
       </c>
       <c r="D1732" t="n">
-        <v>15.37554854031992</v>
+        <v>15.31141322900053</v>
       </c>
       <c r="E1732" t="n">
         <v>-36.20092236709459</v>
@@ -55657,10 +55657,10 @@
     </row>
     <row r="1733">
       <c r="C1733" t="n">
-        <v>-30.91914297591874</v>
+        <v>-29.96009035527341</v>
       </c>
       <c r="D1733" t="n">
-        <v>15.36613871723549</v>
+        <v>15.29505424037293</v>
       </c>
       <c r="E1733" t="n">
         <v>-36.50879831684377</v>
@@ -55683,10 +55683,10 @@
     </row>
     <row r="1734">
       <c r="C1734" t="n">
-        <v>-31.09225942020955</v>
+        <v>-30.08582627840887</v>
       </c>
       <c r="D1734" t="n">
-        <v>15.35625472403642</v>
+        <v>15.27786371934647</v>
       </c>
       <c r="E1734" t="n">
         <v>-36.81919313036501</v>
@@ -55709,10 +55709,10 @@
     </row>
     <row r="1735">
       <c r="C1735" t="n">
-        <v>-31.25388083141824</v>
+        <v>-30.20012165511717</v>
       </c>
       <c r="D1735" t="n">
-        <v>15.34589656072272</v>
+        <v>15.25984166592115</v>
       </c>
       <c r="E1735" t="n">
         <v>-37.13211030788493</v>
@@ -55735,10 +55735,10 @@
     </row>
     <row r="1736">
       <c r="C1736" t="n">
-        <v>-31.40400720954481</v>
+        <v>-30.30297648539829</v>
       </c>
       <c r="D1736" t="n">
-        <v>15.33506422729438</v>
+        <v>15.24098808009698</v>
       </c>
       <c r="E1736" t="n">
         <v>-37.44755334963016</v>
@@ -55761,10 +55761,10 @@
     </row>
     <row r="1737">
       <c r="C1737" t="n">
-        <v>-31.54263855458925</v>
+        <v>-30.39439076925223</v>
       </c>
       <c r="D1737" t="n">
-        <v>15.3237577237514</v>
+        <v>15.22130296187395</v>
       </c>
       <c r="E1737" t="n">
         <v>-37.76552575582734</v>
@@ -55787,10 +55787,10 @@
     </row>
     <row r="1738">
       <c r="C1738" t="n">
-        <v>-31.66977486655158</v>
+        <v>-30.474364506679</v>
       </c>
       <c r="D1738" t="n">
-        <v>15.31197705009379</v>
+        <v>15.20078631125208</v>
       </c>
       <c r="E1738" t="n">
         <v>-38.08603102670308</v>
@@ -55813,10 +55813,10 @@
     </row>
     <row r="1739">
       <c r="C1739" t="n">
-        <v>-31.78541614543178</v>
+        <v>-30.53154285714338</v>
       </c>
       <c r="D1739" t="n">
-        <v>15.29972220632153</v>
+        <v>15.18329657142838</v>
       </c>
       <c r="E1739" t="n">
         <v>-38.40907266248402</v>
@@ -55839,10 +55839,10 @@
     </row>
     <row r="1740">
       <c r="C1740" t="n">
-        <v>-31.88956239122987</v>
+        <v>-30.57817690761087</v>
       </c>
       <c r="D1740" t="n">
-        <v>15.28699319243464</v>
+        <v>15.16827634854435</v>
       </c>
       <c r="E1740" t="n">
         <v>-38.73465416339678</v>
@@ -55865,10 +55865,10 @@
     </row>
     <row r="1741">
       <c r="C1741" t="n">
-        <v>-31.98221360394583</v>
+        <v>-30.62795816954679</v>
       </c>
       <c r="D1741" t="n">
-        <v>15.27379000843311</v>
+        <v>15.1532658354193</v>
       </c>
       <c r="E1741" t="n">
         <v>-39.062779029668</v>
@@ -55891,10 +55891,10 @@
     </row>
     <row r="1742">
       <c r="C1742" t="n">
-        <v>-32.06336978357967</v>
+        <v>-30.68091865350496</v>
       </c>
       <c r="D1742" t="n">
-        <v>15.26011265431694</v>
+        <v>15.13826915042601</v>
       </c>
       <c r="E1742" t="n">
         <v>-39.39345076152429</v>
@@ -55917,10 +55917,10 @@
     </row>
     <row r="1743">
       <c r="C1743" t="n">
-        <v>-32.13303093013139</v>
+        <v>-30.73709037003919</v>
       </c>
       <c r="D1743" t="n">
-        <v>15.24596113008614</v>
+        <v>15.12329041193721</v>
       </c>
       <c r="E1743" t="n">
         <v>-39.7266728591923</v>
@@ -55943,10 +55943,10 @@
     </row>
     <row r="1744">
       <c r="C1744" t="n">
-        <v>-32.19119704360099</v>
+        <v>-30.79650532970329</v>
       </c>
       <c r="D1744" t="n">
-        <v>15.2313354357407</v>
+        <v>15.10833373832564</v>
       </c>
       <c r="E1744" t="n">
         <v>-40.06244882289866</v>
@@ -55969,10 +55969,10 @@
     </row>
     <row r="1745">
       <c r="C1745" t="n">
-        <v>-32.23786812398848</v>
+        <v>-30.85919554305107</v>
       </c>
       <c r="D1745" t="n">
-        <v>15.21623557128062</v>
+        <v>15.09340324796405</v>
       </c>
       <c r="E1745" t="n">
         <v>-40.40078215286994</v>
@@ -55995,10 +55995,10 @@
     </row>
     <row r="1746">
       <c r="C1746" t="n">
-        <v>-32.27304417129383</v>
+        <v>-30.92519302063634</v>
       </c>
       <c r="D1746" t="n">
-        <v>15.2006615367059</v>
+        <v>15.07850305922518</v>
       </c>
       <c r="E1746" t="n">
         <v>-40.74167634933283</v>
@@ -56021,10 +56021,10 @@
     </row>
     <row r="1747">
       <c r="C1747" t="n">
-        <v>-32.29672518551707</v>
+        <v>-30.99452977301291</v>
       </c>
       <c r="D1747" t="n">
-        <v>15.18461333201654</v>
+        <v>15.06363729048177</v>
       </c>
       <c r="E1747" t="n">
         <v>-41.08513491251394</v>
@@ -56047,10 +56047,10 @@
     </row>
     <row r="1748">
       <c r="C1748" t="n">
-        <v>-32.29908571428589</v>
+        <v>-31.0672378107346</v>
       </c>
       <c r="D1748" t="n">
-        <v>15.1823662857141</v>
+        <v>15.04881006010658</v>
       </c>
       <c r="E1748" t="n">
         <v>-41.4311613426399</v>
@@ -56073,10 +56073,10 @@
     </row>
     <row r="1749">
       <c r="C1749" t="n">
-        <v>-32.31765019778017</v>
+        <v>-31.14334914435523</v>
       </c>
       <c r="D1749" t="n">
-        <v>15.16568786093465</v>
+        <v>15.03402548647233</v>
       </c>
       <c r="E1749" t="n">
         <v>-41.77975913993733</v>
@@ -56099,10 +56099,10 @@
     </row>
     <row r="1750">
       <c r="C1750" t="n">
-        <v>-32.34001586557144</v>
+        <v>-31.22289578442859</v>
       </c>
       <c r="D1750" t="n">
-        <v>15.14902292939385</v>
+        <v>15.0192876879518</v>
       </c>
       <c r="E1750" t="n">
         <v>-42.13093180463285</v>
@@ -56125,10 +56125,10 @@
     </row>
     <row r="1751">
       <c r="C1751" t="n">
-        <v>-32.36624094449056</v>
+        <v>-31.3059097415085</v>
       </c>
       <c r="D1751" t="n">
-        <v>15.13237710441987</v>
+        <v>15.00460078291769</v>
       </c>
       <c r="E1751" t="n">
         <v>-42.48468283695311</v>
@@ -56151,10 +56151,10 @@
     </row>
     <row r="1752">
       <c r="C1752" t="n">
-        <v>-32.39638366136833</v>
+        <v>-31.39242302614878</v>
       </c>
       <c r="D1752" t="n">
-        <v>15.1157559993409</v>
+        <v>14.98996888974278</v>
       </c>
       <c r="E1752" t="n">
         <v>-42.84101573712472</v>
@@ -56177,10 +56177,10 @@
     </row>
     <row r="1753">
       <c r="C1753" t="n">
-        <v>-32.43050224303556</v>
+        <v>-31.48246764890323</v>
       </c>
       <c r="D1753" t="n">
-        <v>15.09916522748512</v>
+        <v>14.9753961267998</v>
       </c>
       <c r="E1753" t="n">
         <v>-43.19993400537432</v>
@@ -56203,10 +56203,10 @@
     </row>
     <row r="1754">
       <c r="C1754" t="n">
-        <v>-32.46865491632306</v>
+        <v>-31.57607562032567</v>
       </c>
       <c r="D1754" t="n">
-        <v>15.08261040218071</v>
+        <v>14.96088661246149</v>
       </c>
       <c r="E1754" t="n">
         <v>-43.56144114192853</v>
@@ -56229,10 +56229,10 @@
     </row>
     <row r="1755">
       <c r="C1755" t="n">
-        <v>-32.51089990806167</v>
+        <v>-31.67327895096991</v>
       </c>
       <c r="D1755" t="n">
-        <v>15.06609713675587</v>
+        <v>14.94644446510061</v>
       </c>
       <c r="E1755" t="n">
         <v>-43.92554064701397</v>
@@ -56255,10 +56255,10 @@
     </row>
     <row r="1756">
       <c r="C1756" t="n">
-        <v>-32.55729544508218</v>
+        <v>-31.77410965138976</v>
       </c>
       <c r="D1756" t="n">
-        <v>15.04963104453877</v>
+        <v>14.93207380308989</v>
       </c>
       <c r="E1756" t="n">
         <v>-44.2922360208573</v>
@@ -56281,10 +56281,10 @@
     </row>
     <row r="1757">
       <c r="C1757" t="n">
-        <v>-32.60789975421541</v>
+        <v>-31.87859973213903</v>
       </c>
       <c r="D1757" t="n">
-        <v>15.0332177388576</v>
+        <v>14.91777874480207</v>
       </c>
       <c r="E1757" t="n">
         <v>-44.9875</v>
@@ -56307,10 +56307,10 @@
     </row>
     <row r="1758">
       <c r="C1758" t="n">
-        <v>-32.66277106229218</v>
+        <v>-31.98678120377154</v>
       </c>
       <c r="D1758" t="n">
-        <v>15.01686283304054</v>
+        <v>14.9035634086099</v>
       </c>
       <c r="E1758" t="n">
         <v>-45.375</v>
@@ -56333,10 +56333,10 @@
     </row>
     <row r="1759">
       <c r="C1759" t="n">
-        <v>-32.72196759614333</v>
+        <v>-32.09868607684109</v>
       </c>
       <c r="D1759" t="n">
-        <v>15.00057194041579</v>
+        <v>14.88943191288613</v>
       </c>
       <c r="E1759" t="n">
         <v>-45.7625</v>
@@ -56359,10 +56359,10 @@
     </row>
     <row r="1760">
       <c r="C1760" t="n">
-        <v>-32.78554758259962</v>
+        <v>-32.2143463619015</v>
       </c>
       <c r="D1760" t="n">
-        <v>14.98435067431151</v>
+        <v>14.8753883760035</v>
       </c>
       <c r="E1760" t="n">
         <v>-46.15000000000001</v>
@@ -56385,10 +56385,10 @@
     </row>
     <row r="1761">
       <c r="C1761" t="n">
-        <v>-32.85356924849192</v>
+        <v>-32.33379406950658</v>
       </c>
       <c r="D1761" t="n">
-        <v>14.9682046480559</v>
+        <v>14.86143691633475</v>
       </c>
       <c r="E1761" t="n">
         <v>-46.5375</v>
@@ -56411,10 +56411,10 @@
     </row>
     <row r="1762">
       <c r="C1762" t="n">
-        <v>-32.92609082065103</v>
+        <v>-32.45706121021014</v>
       </c>
       <c r="D1762" t="n">
-        <v>14.95213947497714</v>
+        <v>14.84758165225264</v>
       </c>
       <c r="E1762" t="n">
         <v>-46.925</v>
@@ -56437,10 +56437,10 @@
     </row>
     <row r="1763">
       <c r="C1763" t="n">
-        <v>-33.00317052590773</v>
+        <v>-32.584179794566</v>
       </c>
       <c r="D1763" t="n">
-        <v>14.93616076840341</v>
+        <v>14.83382670212989</v>
       </c>
       <c r="E1763" t="n">
         <v>-47.3125</v>
@@ -56463,10 +56463,10 @@
     </row>
     <row r="1764">
       <c r="C1764" t="n">
-        <v>-33.08486659109289</v>
+        <v>-32.71518183312796</v>
       </c>
       <c r="D1764" t="n">
-        <v>14.92027414166291</v>
+        <v>14.82017618433926</v>
       </c>
       <c r="E1764" t="n">
         <v>-47.7</v>
@@ -56489,10 +56489,10 @@
     </row>
     <row r="1765">
       <c r="C1765" t="n">
-        <v>-33.17123724303729</v>
+        <v>-32.85009933644984</v>
       </c>
       <c r="D1765" t="n">
-        <v>14.90448520808381</v>
+        <v>14.8066342172535</v>
       </c>
       <c r="E1765" t="n">
         <v>-48.08750000000001</v>
@@ -56515,10 +56515,10 @@
     </row>
     <row r="1766">
       <c r="C1766" t="n">
-        <v>-33.26234070857177</v>
+        <v>-32.98896431508544</v>
       </c>
       <c r="D1766" t="n">
-        <v>14.8887995809943</v>
+        <v>14.79320491924533</v>
       </c>
       <c r="E1766" t="n">
         <v>-48.475</v>
@@ -56541,10 +56541,10 @@
     </row>
     <row r="1767">
       <c r="C1767" t="n">
-        <v>-33.35823521452712</v>
+        <v>-33.13180877958859</v>
       </c>
       <c r="D1767" t="n">
-        <v>14.87322287372255</v>
+        <v>14.77989240868751</v>
       </c>
       <c r="E1767" t="n">
         <v>-48.8625</v>
@@ -56567,10 +56567,10 @@
     </row>
     <row r="1768">
       <c r="C1768" t="n">
-        <v>-33.45897898773416</v>
+        <v>-33.27866474051309</v>
       </c>
       <c r="D1768" t="n">
-        <v>14.85776069959676</v>
+        <v>14.76670080395279</v>
       </c>
       <c r="E1768" t="n">
         <v>-49.25</v>
@@ -56593,10 +56593,10 @@
     </row>
     <row r="1769">
       <c r="C1769" t="n">
-        <v>-33.56463025502374</v>
+        <v>-33.42956420841274</v>
       </c>
       <c r="D1769" t="n">
-        <v>14.84241867194511</v>
+        <v>14.75363422341391</v>
       </c>
       <c r="E1769" t="n">
         <v>-49.6375</v>
@@ -56619,10 +56619,10 @@
     </row>
     <row r="1770">
       <c r="C1770" t="n">
-        <v>-33.67524724322662</v>
+        <v>-33.58453919384139</v>
       </c>
       <c r="D1770" t="n">
-        <v>14.8272024040958</v>
+        <v>14.7406967854436</v>
       </c>
       <c r="G1770" t="n">
         <v>-44.06763896722921</v>
@@ -56639,10 +56639,10 @@
     </row>
     <row r="1771">
       <c r="C1771" t="n">
-        <v>-33.79088817917366</v>
+        <v>-33.74362170735282</v>
       </c>
       <c r="D1771" t="n">
-        <v>14.81211750937698</v>
+        <v>14.72789260841463</v>
       </c>
       <c r="G1771" t="n">
         <v>-44.7875</v>
@@ -56659,10 +56659,10 @@
     </row>
     <row r="1772">
       <c r="C1772" t="n">
-        <v>-33.91161128969566</v>
+        <v>-33.90684375950083</v>
       </c>
       <c r="D1772" t="n">
-        <v>14.79716960111686</v>
+        <v>14.71522581069971</v>
       </c>
       <c r="G1772" t="n">
         <v>-45.175</v>
@@ -56679,10 +56679,10 @@
     </row>
     <row r="1773">
       <c r="C1773" t="n">
-        <v>-34.03747480162344</v>
+        <v>-34.07423736083927</v>
       </c>
       <c r="D1773" t="n">
-        <v>14.78236429264362</v>
+        <v>14.70270051067162</v>
       </c>
       <c r="G1773" t="n">
         <v>-45.5625</v>
@@ -56699,10 +56699,10 @@
     </row>
     <row r="1774">
       <c r="C1774" t="n">
-        <v>-34.16853694178781</v>
+        <v>-34.24583452192194</v>
       </c>
       <c r="D1774" t="n">
-        <v>14.76770719728543</v>
+        <v>14.69032082670309</v>
       </c>
       <c r="G1774" t="n">
         <v>-45.95</v>
@@ -56719,10 +56719,10 @@
     </row>
     <row r="1775">
       <c r="C1775" t="n">
-        <v>-34.30485593701957</v>
+        <v>-34.42166725330263</v>
       </c>
       <c r="D1775" t="n">
-        <v>14.75320392837049</v>
+        <v>14.67809087716685</v>
       </c>
       <c r="G1775" t="n">
         <v>-46.3375</v>
@@ -56739,10 +56739,10 @@
     </row>
     <row r="1776">
       <c r="C1776" t="n">
-        <v>-34.44649001414957</v>
+        <v>-34.60176756553516</v>
       </c>
       <c r="D1776" t="n">
-        <v>14.73886009922699</v>
+        <v>14.66601478043566</v>
       </c>
       <c r="G1776" t="n">
         <v>-46.725</v>
@@ -56759,10 +56759,10 @@
     </row>
     <row r="1777">
       <c r="C1777" t="n">
-        <v>-34.59349740000862</v>
+        <v>-34.78616746917336</v>
       </c>
       <c r="D1777" t="n">
-        <v>14.7246813231831</v>
+        <v>14.65409665488226</v>
       </c>
       <c r="G1777" t="n">
         <v>-47.1125</v>
@@ -56779,10 +56779,10 @@
     </row>
     <row r="1778">
       <c r="C1778" t="n">
-        <v>-34.74593632142752</v>
+        <v>-34.97489897477103</v>
       </c>
       <c r="D1778" t="n">
-        <v>14.71067321356701</v>
+        <v>14.64234061887939</v>
       </c>
       <c r="G1778" t="n">
         <v>-47.5</v>
@@ -56799,10 +56799,10 @@
     </row>
     <row r="1779">
       <c r="C1779" t="n">
-        <v>-34.90386500523707</v>
+        <v>-35.16799409288198</v>
       </c>
       <c r="D1779" t="n">
-        <v>14.69684138370689</v>
+        <v>14.63075079079981</v>
       </c>
       <c r="G1779" t="n">
         <v>-47.8875</v>
@@ -56819,10 +56819,10 @@
     </row>
     <row r="1780">
       <c r="C1780" t="n">
-        <v>-35.06734167826812</v>
+        <v>-35.36548483406003</v>
       </c>
       <c r="D1780" t="n">
-        <v>14.68319144693096</v>
+        <v>14.61933128901625</v>
       </c>
       <c r="G1780" t="n">
         <v>-48.275</v>
@@ -56839,10 +56839,10 @@
     </row>
     <row r="1781">
       <c r="C1781" t="n">
-        <v>-35.23642456735148</v>
+        <v>-35.56740320885897</v>
       </c>
       <c r="D1781" t="n">
-        <v>14.66972901656737</v>
+        <v>14.60808623190145</v>
       </c>
       <c r="G1781" t="n">
         <v>-48.6625</v>
@@ -56859,10 +56859,10 @@
     </row>
     <row r="1782">
       <c r="C1782" t="n">
-        <v>-35.41117189931794</v>
+        <v>-35.77378122783264</v>
       </c>
       <c r="D1782" t="n">
-        <v>14.65645970594431</v>
+        <v>14.59701973782816</v>
       </c>
       <c r="G1782" t="n">
         <v>-49.05</v>
@@ -56879,10 +56879,10 @@
     </row>
     <row r="1783">
       <c r="C1783" t="n">
-        <v>-35.59164190099834</v>
+        <v>-35.98465090153483</v>
       </c>
       <c r="D1783" t="n">
-        <v>14.64338912838997</v>
+        <v>14.58613592516913</v>
       </c>
       <c r="G1783" t="n">
         <v>-49.4375</v>
@@ -56899,10 +56899,10 @@
     </row>
     <row r="1784">
       <c r="C1784" t="n">
-        <v>-35.77789279922349</v>
+        <v>-36.20004424051936</v>
       </c>
       <c r="D1784" t="n">
-        <v>14.63052289723254</v>
+        <v>14.5754389122971</v>
       </c>
       <c r="G1784" t="n">
         <v>-49.825</v>
@@ -56919,10 +56919,10 @@
     </row>
     <row r="1785">
       <c r="C1785" t="n">
-        <v>-35.96998282082421</v>
+        <v>-36.41999325534005</v>
       </c>
       <c r="D1785" t="n">
-        <v>14.6178666258002</v>
+        <v>14.56493281758481</v>
       </c>
       <c r="I1785" t="n">
         <v>-40.51142857142857</v>
@@ -56933,10 +56933,10 @@
     </row>
     <row r="1786">
       <c r="C1786" t="n">
-        <v>-36.1679701926313</v>
+        <v>-36.6445299565507</v>
       </c>
       <c r="D1786" t="n">
-        <v>14.60542592742112</v>
+        <v>14.55462175940501</v>
       </c>
       <c r="I1786" t="n">
         <v>-40.94571428571428</v>
@@ -56947,10 +56947,10 @@
     </row>
     <row r="1787">
       <c r="C1787" t="n">
-        <v>-36.3719131414756</v>
+        <v>-36.87368635470514</v>
       </c>
       <c r="D1787" t="n">
-        <v>14.59320641542351</v>
+        <v>14.54450985613044</v>
       </c>
       <c r="I1787" t="n">
         <v>-41.38</v>
@@ -56961,10 +56961,10 @@
     </row>
     <row r="1788">
       <c r="C1788" t="n">
-        <v>-36.5818698941879</v>
+        <v>-37.10749446035715</v>
       </c>
       <c r="D1788" t="n">
-        <v>14.58121370313554</v>
+        <v>14.53460122613385</v>
       </c>
       <c r="I1788" t="n">
         <v>-41.81428571428571</v>
@@ -56975,10 +56975,10 @@
     </row>
     <row r="1789">
       <c r="C1789" t="n">
-        <v>-36.79789867759903</v>
+        <v>-37.34598628406056</v>
       </c>
       <c r="D1789" t="n">
-        <v>14.56945340388539</v>
+        <v>14.52489998778798</v>
       </c>
       <c r="I1789" t="n">
         <v>-42.24857142857142</v>
@@ -56989,10 +56989,10 @@
     </row>
     <row r="1790">
       <c r="C1790" t="n">
-        <v>-37.02005771853981</v>
+        <v>-37.58919383636919</v>
       </c>
       <c r="D1790" t="n">
-        <v>14.55793113100125</v>
+        <v>14.51541025946556</v>
       </c>
       <c r="I1790" t="n">
         <v>-42.68285714285714</v>
@@ -57003,10 +57003,10 @@
     </row>
     <row r="1791">
       <c r="C1791" t="n">
-        <v>-37.24840524384104</v>
+        <v>-37.83714912783684</v>
       </c>
       <c r="D1791" t="n">
-        <v>14.54665249781131</v>
+        <v>14.50613615953936</v>
       </c>
       <c r="I1791" t="n">
         <v>-43.11714285714285</v>
@@ -57017,10 +57017,10 @@
     </row>
     <row r="1792">
       <c r="C1792" t="n">
-        <v>-37.48299948033355</v>
+        <v>-38.08988416901732</v>
       </c>
       <c r="D1792" t="n">
-        <v>14.53562311764374</v>
+        <v>14.49708180638211</v>
       </c>
       <c r="I1792" t="n">
         <v>-43.55142857142857</v>
@@ -57031,10 +57031,10 @@
     </row>
     <row r="1793">
       <c r="C1793" t="n">
-        <v>-37.72389865484814</v>
+        <v>-38.34743097046446</v>
       </c>
       <c r="D1793" t="n">
-        <v>14.52484860382674</v>
+        <v>14.48825131836656</v>
       </c>
       <c r="I1793" t="n">
         <v>-43.98571428571428</v>
@@ -57045,10 +57045,10 @@
     </row>
     <row r="1794">
       <c r="C1794" t="n">
-        <v>-37.97116099421564</v>
+        <v>-38.60982154273204</v>
       </c>
       <c r="D1794" t="n">
-        <v>14.51433456968848</v>
+        <v>14.47964881386545</v>
       </c>
       <c r="I1794" t="n">
         <v>-44.41999999999999</v>
@@ -57059,10 +57059,10 @@
     </row>
     <row r="1795">
       <c r="C1795" t="n">
-        <v>-38.22484472526686</v>
+        <v>-38.8770878963739</v>
       </c>
       <c r="D1795" t="n">
-        <v>14.50408662855715</v>
+        <v>14.47127841125152</v>
       </c>
       <c r="I1795" t="n">
         <v>-44.85428571428571</v>
@@ -57073,10 +57073,10 @@
     </row>
     <row r="1796">
       <c r="C1796" t="n">
-        <v>-38.48500807483263</v>
+        <v>-39.14926204194385</v>
       </c>
       <c r="D1796" t="n">
-        <v>14.49411039376094</v>
+        <v>14.46314422889753</v>
       </c>
       <c r="I1796" t="n">
         <v>-45.28857142857142</v>
@@ -57087,10 +57087,10 @@
     </row>
     <row r="1797">
       <c r="C1797" t="n">
-        <v>-38.75170926974374</v>
+        <v>-39.42637598999568</v>
       </c>
       <c r="D1797" t="n">
-        <v>14.48441147862803</v>
+        <v>14.4552503851762</v>
       </c>
       <c r="I1797" t="n">
         <v>-45.72285714285714</v>
@@ -57101,10 +57101,10 @@
     </row>
     <row r="1798">
       <c r="C1798" t="n">
-        <v>-39.02500653683101</v>
+        <v>-39.70846175108322</v>
       </c>
       <c r="D1798" t="n">
-        <v>14.4749954964866</v>
+        <v>14.44760099846029</v>
       </c>
       <c r="I1798" t="n">
         <v>-46.15714285714285</v>
@@ -57115,10 +57115,10 @@
     </row>
     <row r="1799">
       <c r="C1799" t="n">
-        <v>-39.30495810292529</v>
+        <v>-39.99555133576028</v>
       </c>
       <c r="D1799" t="n">
-        <v>14.46586806066484</v>
+        <v>14.44020018712254</v>
       </c>
       <c r="I1799" t="n">
         <v>-46.59142857142857</v>
@@ -57129,10 +57129,10 @@
     </row>
     <row r="1800">
       <c r="C1800" t="n">
-        <v>-39.59162219485736</v>
+        <v>-40.28767675458067</v>
       </c>
       <c r="D1800" t="n">
-        <v>14.45703478449094</v>
+        <v>14.4330520695357</v>
       </c>
       <c r="I1800" t="n">
         <v>-47.02571428571428</v>
@@ -57143,10 +57143,10 @@
     </row>
     <row r="1801">
       <c r="C1801" t="n">
-        <v>-39.88505703945804</v>
+        <v>-40.5848700180982</v>
       </c>
       <c r="D1801" t="n">
-        <v>14.44850128129306</v>
+        <v>14.42616076407251</v>
       </c>
       <c r="I1801" t="n">
         <v>-47.45999999999999</v>
@@ -57157,10 +57157,10 @@
     </row>
     <row r="1802">
       <c r="C1802" t="n">
-        <v>-40.18532086355815</v>
+        <v>-40.88716313686668</v>
       </c>
       <c r="D1802" t="n">
-        <v>14.44027316439941</v>
+        <v>14.41953038910571</v>
       </c>
       <c r="I1802" t="n">
         <v>-47.89428571428571</v>
@@ -57171,10 +57171,10 @@
     </row>
     <row r="1803">
       <c r="C1803" t="n">
-        <v>-40.49247189398852</v>
+        <v>-41.19458812143992</v>
       </c>
       <c r="D1803" t="n">
-        <v>14.43235604713817</v>
+        <v>14.41316506300805</v>
       </c>
       <c r="I1803" t="n">
         <v>-48.32857142857142</v>
@@ -57185,10 +57185,10 @@
     </row>
     <row r="1804">
       <c r="C1804" t="n">
-        <v>-40.80656835757993</v>
+        <v>-41.50717698237175</v>
       </c>
       <c r="D1804" t="n">
-        <v>14.42475554283751</v>
+        <v>14.40706890415227</v>
       </c>
       <c r="I1804" t="n">
         <v>-48.76285714285714</v>
@@ -57199,10 +57199,10 @@
     </row>
     <row r="1805">
       <c r="C1805" t="n">
-        <v>-41.12766848116323</v>
+        <v>-41.82496173021595</v>
       </c>
       <c r="D1805" t="n">
-        <v>14.41747726482563</v>
+        <v>14.40124603091112</v>
       </c>
       <c r="I1805" t="n">
         <v>-49.19714285714285</v>
@@ -57213,10 +57213,10 @@
     </row>
     <row r="1806">
       <c r="C1806" t="n">
-        <v>-41.45583049156922</v>
+        <v>-42.14797437552636</v>
       </c>
       <c r="D1806" t="n">
-        <v>14.4105268264307</v>
+        <v>14.39570056165734</v>
       </c>
       <c r="I1806" t="n">
         <v>-49.63142857142856</v>
@@ -57227,161 +57227,153 @@
     </row>
     <row r="1807">
       <c r="C1807" t="n">
-        <v>-41.79111261562873</v>
+        <v>-42.47624692885678</v>
       </c>
       <c r="D1807" t="n">
-        <v>14.40390984098092</v>
+        <v>14.39043661476367</v>
       </c>
     </row>
     <row r="1808">
       <c r="C1808" t="n">
-        <v>-42.13357308017255</v>
+        <v>-42.80981140076103</v>
       </c>
       <c r="D1808" t="n">
-        <v>14.39763192180446</v>
+        <v>14.38545830860286</v>
       </c>
     </row>
     <row r="1809">
       <c r="C1809" t="n">
-        <v>-42.48327011203153</v>
+        <v>-43.14869980179292</v>
       </c>
       <c r="D1809" t="n">
-        <v>14.39169868222952</v>
+        <v>14.38076976154766</v>
       </c>
     </row>
     <row r="1810">
       <c r="C1810" t="n">
-        <v>-42.84026193803645</v>
+        <v>-43.49294414250623</v>
       </c>
       <c r="D1810" t="n">
-        <v>14.38611573558427</v>
+        <v>14.3763750919708</v>
       </c>
     </row>
     <row r="1811">
       <c r="C1811" t="n">
-        <v>-43.20460678501814</v>
+        <v>-43.84257643345482</v>
       </c>
       <c r="D1811" t="n">
-        <v>14.38088869519689</v>
+        <v>14.37227841824503</v>
       </c>
     </row>
     <row r="1812">
       <c r="C1812" t="n">
-        <v>-43.57636287980744</v>
+        <v>-44.19762868519247</v>
       </c>
       <c r="D1812" t="n">
-        <v>14.37602317439558</v>
+        <v>14.3684838587431</v>
       </c>
     </row>
     <row r="1813">
       <c r="C1813" t="n">
-        <v>-43.95558844923512</v>
+        <v>-44.558132908273</v>
       </c>
       <c r="D1813" t="n">
-        <v>14.37152478650852</v>
+        <v>14.36499553183774</v>
       </c>
     </row>
     <row r="1814">
       <c r="C1814" t="n">
-        <v>-44.34234172013204</v>
+        <v>-44.92412111325025</v>
       </c>
       <c r="D1814" t="n">
-        <v>14.36739914486389</v>
+        <v>14.36181755590171</v>
       </c>
     </row>
     <row r="1815">
       <c r="C1815" t="n">
-        <v>-44.73668091932898</v>
+        <v>-45.29562531067798</v>
       </c>
       <c r="D1815" t="n">
-        <v>14.36365186278988</v>
+        <v>14.35895404930775</v>
       </c>
     </row>
     <row r="1816">
       <c r="C1816" t="n">
-        <v>-45.13866427365677</v>
+        <v>-45.67267751111004</v>
       </c>
       <c r="D1816" t="n">
-        <v>14.36028855361466</v>
+        <v>14.3564091304286</v>
       </c>
     </row>
     <row r="1817">
       <c r="C1817" t="n">
-        <v>-45.54835000994623</v>
+        <v>-46.05530972510022</v>
       </c>
       <c r="D1817" t="n">
-        <v>14.35731483066643</v>
+        <v>14.354186917637</v>
       </c>
     </row>
     <row r="1818">
       <c r="C1818" t="n">
-        <v>-45.96579635502819</v>
+        <v>-46.44355396320235</v>
       </c>
       <c r="D1818" t="n">
-        <v>14.35473630727337</v>
+        <v>14.35229152930571</v>
       </c>
     </row>
     <row r="1819">
       <c r="C1819" t="n">
-        <v>-46.39106153573343</v>
+        <v>-46.83744223597024</v>
       </c>
       <c r="D1819" t="n">
-        <v>14.35255859676367</v>
+        <v>14.35072708380746</v>
       </c>
     </row>
     <row r="1820">
       <c r="C1820" t="n">
-        <v>-46.82420377889279</v>
+        <v>-47.23700655395768</v>
       </c>
       <c r="D1820" t="n">
-        <v>14.3507873124655</v>
+        <v>14.34949769951499</v>
       </c>
     </row>
     <row r="1821">
       <c r="C1821" t="n">
-        <v>-47.26528131133708</v>
+        <v>-47.6422789277185</v>
       </c>
       <c r="D1821" t="n">
-        <v>14.34942806770704</v>
+        <v>14.34860749480106</v>
       </c>
     </row>
     <row r="1822">
       <c r="C1822" t="n">
-        <v>-47.71435235989711</v>
+        <v>-48.05329136780649</v>
       </c>
       <c r="D1822" t="n">
-        <v>14.3484864758165</v>
+        <v>14.34806058803841</v>
       </c>
     </row>
     <row r="1823">
       <c r="C1823" t="n">
-        <v>-48.17147515140369</v>
+        <v>-48.72857142857143</v>
       </c>
       <c r="D1823" t="n">
-        <v>14.34796815012205</v>
+        <v>14.34807142857071</v>
       </c>
     </row>
     <row r="1824">
       <c r="C1824" t="n">
-        <v>-48.72857142857143</v>
+        <v>-49.15714285714285</v>
       </c>
       <c r="D1824" t="n">
-        <v>14.34807142857071</v>
+        <v>14.34824285714214</v>
       </c>
     </row>
     <row r="1825">
       <c r="C1825" t="n">
-        <v>-49.15714285714285</v>
+        <v>-49.58571428571428</v>
       </c>
       <c r="D1825" t="n">
-        <v>14.34824285714214</v>
-      </c>
-    </row>
-    <row r="1826">
-      <c r="C1826" t="n">
-        <v>-49.58571428571428</v>
-      </c>
-      <c r="D1826" t="n">
         <v>14.34841428571357</v>
       </c>
     </row>
